--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DBF25C-C342-41F6-9FA6-849AEB702286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D87DD15-1328-43EC-826E-837554BAC751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
   <sheets>
-    <sheet name="总表" sheetId="1" r:id="rId1"/>
-    <sheet name="制作各个表格" sheetId="2" r:id="rId2"/>
-    <sheet name="图表分类" sheetId="5" r:id="rId3"/>
-    <sheet name="低温存档" sheetId="3" r:id="rId4"/>
-    <sheet name="高温存档" sheetId="4" r:id="rId5"/>
-    <sheet name="最后汇总表格" sheetId="6" r:id="rId6"/>
+    <sheet name="详细信息表" sheetId="1" r:id="rId1"/>
+    <sheet name="强制首页" sheetId="2" r:id="rId2"/>
+    <sheet name="低温存档" sheetId="3" r:id="rId3"/>
+    <sheet name="高温存档" sheetId="4" r:id="rId4"/>
+    <sheet name="今日汇总" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="217">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,9 +476,6 @@
   </si>
   <si>
     <t>特斯河</t>
-  </si>
-  <si>
-    <t>台勒门</t>
   </si>
   <si>
     <t>分区序号</t>
@@ -668,50 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日寒冷PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分区：大小兴安岭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分区：西部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分区：外东北东部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分区：正北+正北偏东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分区：扎布汗+库苏古尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分区：乌布苏+图瓦+阿尔泰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -737,10 +711,6 @@
     <t>库苏古尔省</t>
   </si>
   <si>
-    <t>分区六：库苏古尔和扎布汗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日最低
 气温(℃)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -814,14 +784,6 @@
     <t>吉林</t>
   </si>
   <si>
-    <t>今日最低气温(℃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日最高气温(℃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>谢列姆贾盆地</t>
   </si>
   <si>
@@ -875,6 +837,104 @@
   </si>
   <si>
     <t>2024年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UVS特斯</t>
+  </si>
+  <si>
+    <t>UVS特斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZAV特斯</t>
+  </si>
+  <si>
+    <t>ZAV特斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低温TRANSPOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温TRANSPOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>————东亚寒冷PK：今日汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>今日</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="21"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最低</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="21"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气温(℃)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>今日</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="21"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最高</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="21"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气温(℃)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日寒冷PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎布汗省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙古</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,7 +945,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,15 +1034,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="40"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="32"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1020,23 +1071,6 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color rgb="FFFFC000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1070,35 +1104,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1113,16 +1121,146 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="8"/>
       <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="21"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="21"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="21"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="21"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="21"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1141,8 +1279,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1217,13 +1367,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1272,10 +1431,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1290,68 +1449,95 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="27" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="31" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="26" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="58" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="35" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,11 +1547,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF3A0CA3"/>
-      <color rgb="FF4895EF"/>
+      <color rgb="FF6FFFE9"/>
+      <color rgb="FF2D6A4F"/>
       <color rgb="FF3F37C9"/>
       <color rgb="FF560BAD"/>
-      <color rgb="FFF72585"/>
+      <color rgb="FF3A0CA3"/>
+      <color rgb="FFB5179E"/>
+      <color rgb="FF06D6A0"/>
+      <color rgb="FF4361EE"/>
+      <color rgb="FF480CA8"/>
+      <color rgb="FF4895EF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1676,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0415808A-EC4F-404C-B30D-CD8F1C534364}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:BH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1693,152 +1884,444 @@
     <col min="13" max="13" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="G1" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A2" s="8">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4">
+        <v>-18.3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-10</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="4">
+        <v>52323</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" cm="1">
+        <f t="array" ref="N2:BH2">TRANSPOSE(G2:G48)</f>
+        <v>-18.3</v>
+      </c>
+      <c r="O2">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="P2">
+        <v>-17.7</v>
+      </c>
+      <c r="Q2">
+        <v>-26.5</v>
+      </c>
+      <c r="R2">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="S2">
+        <v>-15.1</v>
+      </c>
+      <c r="T2">
+        <v>-23.6</v>
+      </c>
+      <c r="U2">
+        <v>-37.6</v>
+      </c>
+      <c r="V2">
+        <v>-34.4</v>
+      </c>
+      <c r="W2">
+        <v>-29.4</v>
+      </c>
+      <c r="X2">
+        <v>-28.6</v>
+      </c>
+      <c r="Y2">
+        <v>-33.1</v>
+      </c>
+      <c r="Z2">
+        <v>-25.4</v>
+      </c>
+      <c r="AA2">
+        <v>-32.9</v>
+      </c>
+      <c r="AB2">
+        <v>-29</v>
+      </c>
+      <c r="AC2">
+        <v>-31.6</v>
+      </c>
+      <c r="AD2">
+        <v>-21.7</v>
+      </c>
+      <c r="AE2">
+        <v>-21.4</v>
+      </c>
+      <c r="AF2">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AG2">
+        <v>-16</v>
+      </c>
+      <c r="AH2">
+        <v>-12.7</v>
+      </c>
+      <c r="AI2">
+        <v>-26.3</v>
+      </c>
+      <c r="AJ2">
+        <v>-19</v>
+      </c>
+      <c r="AK2">
+        <v>-37.5</v>
+      </c>
+      <c r="AL2">
+        <v>-38.1</v>
+      </c>
+      <c r="AM2">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="AN2">
         <v>-42.3</v>
       </c>
-      <c r="H2" s="4">
+      <c r="AO2">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="AP2">
+        <v>-35</v>
+      </c>
+      <c r="AQ2">
+        <v>-31</v>
+      </c>
+      <c r="AR2">
+        <v>-25.1</v>
+      </c>
+      <c r="AS2">
+        <v>-32.4</v>
+      </c>
+      <c r="AT2">
+        <v>-25.9</v>
+      </c>
+      <c r="AU2">
+        <v>-23.1</v>
+      </c>
+      <c r="AV2">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="AW2">
+        <v>-30.8</v>
+      </c>
+      <c r="AX2">
+        <v>-30.6</v>
+      </c>
+      <c r="AY2">
+        <v>-28.1</v>
+      </c>
+      <c r="AZ2">
+        <v>-30.8</v>
+      </c>
+      <c r="BA2">
+        <v>-29.5</v>
+      </c>
+      <c r="BB2">
+        <v>-35.6</v>
+      </c>
+      <c r="BC2">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="BD2">
+        <v>-30.4</v>
+      </c>
+      <c r="BE2">
+        <v>-31.2</v>
+      </c>
+      <c r="BF2">
+        <v>-33.1</v>
+      </c>
+      <c r="BG2">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="BH2">
+        <v>-27.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-9.5</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="4">
+        <v>50953</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="N3" cm="1">
+        <f t="array" ref="N3:BH3">TRANSPOSE(H2:H48)</f>
+        <v>-10</v>
+      </c>
+      <c r="O3">
+        <v>-9.5</v>
+      </c>
+      <c r="P3">
+        <v>-5.9</v>
+      </c>
+      <c r="Q3">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="R3">
+        <v>-3.6</v>
+      </c>
+      <c r="S3">
+        <v>-0.8</v>
+      </c>
+      <c r="T3">
+        <v>-0.5</v>
+      </c>
+      <c r="U3">
+        <v>-23.6</v>
+      </c>
+      <c r="V3">
+        <v>-22</v>
+      </c>
+      <c r="W3">
+        <v>-18.2</v>
+      </c>
+      <c r="X3">
+        <v>-15.9</v>
+      </c>
+      <c r="Y3">
+        <v>-15.6</v>
+      </c>
+      <c r="Z3">
+        <v>-15.5</v>
+      </c>
+      <c r="AA3">
+        <v>-14.2</v>
+      </c>
+      <c r="AB3">
+        <v>-13.3</v>
+      </c>
+      <c r="AC3">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="AD3">
+        <v>-12.3</v>
+      </c>
+      <c r="AE3">
+        <v>-12</v>
+      </c>
+      <c r="AF3">
+        <v>-11.4</v>
+      </c>
+      <c r="AG3">
+        <v>-11</v>
+      </c>
+      <c r="AH3">
+        <v>-5.4</v>
+      </c>
+      <c r="AI3">
+        <v>-2.9</v>
+      </c>
+      <c r="AJ3">
+        <v>-1.6</v>
+      </c>
+      <c r="AK3">
+        <v>-29.2</v>
+      </c>
+      <c r="AL3">
+        <v>-27.7</v>
+      </c>
+      <c r="AM3">
+        <v>-24.9</v>
+      </c>
+      <c r="AN3">
         <v>-24.7</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" s="13">
-        <v>31478</v>
-      </c>
-      <c r="L2" s="20"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="8">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="4">
-        <v>-39.799999999999997</v>
-      </c>
-      <c r="H3" s="4">
-        <v>-24.9</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="K3" s="13">
-        <v>31348</v>
-      </c>
-      <c r="L3" s="20"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="AO3">
+        <v>-20.9</v>
+      </c>
+      <c r="AP3">
+        <v>-26</v>
+      </c>
+      <c r="AQ3">
+        <v>-23.4</v>
+      </c>
+      <c r="AR3">
+        <v>-21.3</v>
+      </c>
+      <c r="AS3">
+        <v>-17.8</v>
+      </c>
+      <c r="AT3">
+        <v>-13</v>
+      </c>
+      <c r="AU3">
+        <v>-7.6</v>
+      </c>
+      <c r="AV3">
+        <v>-24.5</v>
+      </c>
+      <c r="AW3">
+        <v>-24</v>
+      </c>
+      <c r="AX3">
+        <v>-23.2</v>
+      </c>
+      <c r="AY3">
+        <v>-22.8</v>
+      </c>
+      <c r="AZ3">
+        <v>-22.6</v>
+      </c>
+      <c r="BA3">
+        <v>-22.4</v>
+      </c>
+      <c r="BB3">
+        <v>-26.3</v>
+      </c>
+      <c r="BC3">
+        <v>-25.7</v>
+      </c>
+      <c r="BD3">
+        <v>-22.3</v>
+      </c>
+      <c r="BE3">
+        <v>-21.3</v>
+      </c>
+      <c r="BF3">
+        <v>-20.5</v>
+      </c>
+      <c r="BG3">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="BH3">
+        <v>-17.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="G4" s="4">
-        <v>-38.1</v>
+        <v>-17.7</v>
       </c>
       <c r="H4" s="4">
-        <v>-27.7</v>
+        <v>-5.9</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="13">
-        <v>31329</v>
+      <c r="K4" s="4">
+        <v>54273</v>
       </c>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -1847,239 +2330,233 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G5" s="4">
-        <v>-37.6</v>
+        <v>-26.5</v>
       </c>
       <c r="H5" s="4">
-        <v>-23.6</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="I5" s="6"/>
       <c r="J5" s="14" t="s">
         <v>135</v>
       </c>
       <c r="K5" s="4">
-        <v>50673</v>
+        <v>53392</v>
       </c>
       <c r="L5" s="20"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="G6" s="4">
-        <v>-37.5</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="H6" s="4">
-        <v>-29.2</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" s="13">
-        <v>31532</v>
+        <v>-3.6</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="4">
+        <v>54252</v>
       </c>
       <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G7" s="4">
-        <v>-36.700000000000003</v>
+        <v>-15.1</v>
       </c>
       <c r="H7" s="4">
-        <v>-20.9</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>97</v>
-      </c>
+        <v>-0.8</v>
+      </c>
+      <c r="I7" s="6"/>
       <c r="J7" s="13" t="s">
         <v>133</v>
       </c>
       <c r="K7" s="13">
-        <v>31702</v>
+        <v>53463</v>
       </c>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4">
-        <v>-35.700000000000003</v>
+        <v>-23.6</v>
       </c>
       <c r="H8" s="4">
-        <v>-25.7</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="13" t="s">
+        <v>-0.5</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="13">
-        <v>44203</v>
+      <c r="K8" s="4">
+        <v>53478</v>
       </c>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4">
-        <v>-35.6</v>
+        <v>-37.6</v>
       </c>
       <c r="H9" s="4">
-        <v>-26.3</v>
+        <v>-23.6</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>128</v>
+        <v>44</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="K9" s="4">
-        <v>893</v>
-      </c>
-      <c r="L9" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>50673</v>
+      </c>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G10" s="4">
-        <v>-35</v>
+        <v>-34.4</v>
       </c>
       <c r="H10" s="4">
-        <v>-26</v>
+        <v>-22</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>127</v>
+        <v>2</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="K10" s="4">
-        <v>243</v>
-      </c>
-      <c r="L10" s="8">
+        <v>50353</v>
+      </c>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G11" s="4">
-        <v>-34.700000000000003</v>
+        <v>-29.4</v>
       </c>
       <c r="H11" s="4">
-        <v>-24.5</v>
+        <v>-18.2</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" s="13">
-        <v>36259</v>
+        <v>2</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -2089,108 +2566,106 @@
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12" s="4">
-        <v>-34.4</v>
+        <v>-28.6</v>
       </c>
       <c r="H12" s="4">
-        <v>-22</v>
+        <v>-15.9</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K12" s="4">
-        <v>50353</v>
+        <v>50727</v>
       </c>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="G13" s="4">
-        <v>-34.200000000000003</v>
+        <v>-33.1</v>
       </c>
       <c r="H13" s="4">
-        <v>-18.600000000000001</v>
+        <v>-15.6</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="K13" s="4">
-        <v>274</v>
-      </c>
-      <c r="L13" s="8">
+        <v>2</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="8">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3">
-        <v>6</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="G14" s="4">
-        <v>-33.1</v>
+        <v>-25.4</v>
       </c>
       <c r="H14" s="4">
-        <v>-20.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K14" s="13">
-        <v>44225</v>
+        <v>50527</v>
       </c>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
         <v>1</v>
       </c>
@@ -2198,103 +2673,105 @@
         <v>18</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="G15" s="4">
-        <v>-33.1</v>
+        <v>-32.9</v>
       </c>
       <c r="H15" s="4">
-        <v>-15.6</v>
+        <v>-14.2</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>169</v>
+      <c r="J15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="13">
+        <v>50434</v>
       </c>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G16" s="4">
-        <v>-32.9</v>
+        <v>-29</v>
       </c>
       <c r="H16" s="4">
-        <v>-14.2</v>
+        <v>-13.3</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K16" s="13">
-        <v>50434</v>
+        <v>50136</v>
       </c>
       <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="G17" s="4">
-        <v>-32.4</v>
+        <v>-31.6</v>
       </c>
       <c r="H17" s="4">
-        <v>-17.8</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>133</v>
       </c>
       <c r="K17" s="13">
-        <v>30781</v>
+        <v>51542</v>
       </c>
       <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
         <v>1</v>
       </c>
@@ -2302,440 +2779,432 @@
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="G18" s="4">
-        <v>-31.6</v>
+        <v>-21.7</v>
       </c>
       <c r="H18" s="4">
-        <v>-18.600000000000001</v>
+        <v>-12.3</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="13">
-        <v>51542</v>
+        <v>22</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" s="4">
+        <v>51186</v>
       </c>
       <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="3">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
       <c r="D19" s="5" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="G19" s="4">
-        <v>-31.2</v>
+        <v>-21.4</v>
       </c>
       <c r="H19" s="4">
-        <v>-21.3</v>
+        <v>-12</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="K19" s="4">
-        <v>221</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="13">
+        <v>51076</v>
+      </c>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="G20" s="4">
-        <v>-31</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="H20" s="4">
-        <v>-23.4</v>
+        <v>-11.4</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="K20" s="13">
-        <v>30622</v>
+        <v>21</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="4">
+        <v>52101</v>
       </c>
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="G21" s="4">
-        <v>-30.8</v>
+        <v>-16</v>
       </c>
       <c r="H21" s="4">
-        <v>-24</v>
+        <v>-11</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>127</v>
+        <v>21</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="K21" s="4">
-        <v>828</v>
-      </c>
-      <c r="L21" s="8">
-        <v>3</v>
-      </c>
+        <v>51437</v>
+      </c>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="G22" s="4">
-        <v>-30.8</v>
+        <v>-12.7</v>
       </c>
       <c r="H22" s="4">
-        <v>-22.6</v>
+        <v>-5.4</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>133</v>
       </c>
       <c r="K22" s="13">
-        <v>36096</v>
+        <v>51463</v>
       </c>
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G23" s="4">
-        <v>-30.6</v>
+        <v>-26.3</v>
       </c>
       <c r="H23" s="4">
-        <v>-23.2</v>
+        <v>-2.9</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>127</v>
+        <v>66</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="K23" s="4">
-        <v>211</v>
-      </c>
-      <c r="L23" s="8">
-        <v>1</v>
-      </c>
+        <v>56034</v>
+      </c>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="G24" s="4">
-        <v>-30.4</v>
+        <v>-19</v>
       </c>
       <c r="H24" s="4">
-        <v>-22.3</v>
+        <v>-1.6</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>127</v>
+        <v>66</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="K24" s="4">
-        <v>687</v>
-      </c>
-      <c r="L24" s="8">
-        <v>3</v>
-      </c>
+        <v>55294</v>
+      </c>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="G25" s="4">
-        <v>-29.5</v>
+        <v>-37.5</v>
       </c>
       <c r="H25" s="4">
-        <v>-22.4</v>
+        <v>-29.2</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K25" s="13">
-        <v>36307</v>
+        <v>31532</v>
       </c>
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B26" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G26" s="4">
-        <v>-29.4</v>
+        <v>-38.1</v>
       </c>
       <c r="H26" s="4">
-        <v>-18.2</v>
+        <v>-27.7</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>169</v>
+        <v>28</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="13">
+        <v>31329</v>
       </c>
       <c r="L26" s="20"/>
     </row>
     <row r="27" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="G27" s="4">
-        <v>-29</v>
+        <v>-39.799999999999997</v>
       </c>
       <c r="H27" s="4">
-        <v>-13.3</v>
+        <v>-24.9</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K27" s="13">
-        <v>50136</v>
+        <v>31348</v>
       </c>
       <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="G28" s="4">
-        <v>-28.6</v>
+        <v>-42.3</v>
       </c>
       <c r="H28" s="4">
-        <v>-15.9</v>
+        <v>-24.7</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K28" s="4">
-        <v>50727</v>
+        <v>28</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" s="13">
+        <v>31478</v>
       </c>
       <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B29" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G29" s="4">
-        <v>-28.1</v>
+        <v>-36.700000000000003</v>
       </c>
       <c r="H29" s="4">
-        <v>-22.8</v>
+        <v>-20.9</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K29" s="13">
-        <v>44212</v>
+        <v>31702</v>
       </c>
       <c r="L29" s="20"/>
     </row>
     <row r="30" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" s="4">
-        <v>-27.5</v>
+        <v>-35</v>
       </c>
       <c r="H30" s="4">
-        <v>-17.2</v>
+        <v>-26</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K30" s="4">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="L30" s="8">
         <v>1</v>
@@ -2743,623 +3212,633 @@
     </row>
     <row r="31" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="G31" s="4">
-        <v>-26.5</v>
+        <v>-31</v>
       </c>
       <c r="H31" s="4">
-        <v>-5.0999999999999996</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="K31" s="4">
-        <v>53392</v>
+        <v>-23.4</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="13">
+        <v>30622</v>
       </c>
       <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B32" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G32" s="4">
-        <v>-26.3</v>
+        <v>-25.1</v>
       </c>
       <c r="H32" s="4">
-        <v>-2.9</v>
+        <v>-21.3</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K32" s="4">
-        <v>56034</v>
+        <v>123</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" s="13">
+        <v>30636</v>
       </c>
       <c r="L32" s="20"/>
     </row>
     <row r="33" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" s="3">
         <v>4</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>53</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="G33" s="4">
-        <v>-25.9</v>
+        <v>-32.4</v>
       </c>
       <c r="H33" s="4">
-        <v>-13</v>
+        <v>-17.8</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K33" s="13">
-        <v>30673</v>
+        <v>30781</v>
       </c>
       <c r="L33" s="20"/>
     </row>
     <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B34" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="G34" s="4">
-        <v>-25.4</v>
+        <v>-25.9</v>
       </c>
       <c r="H34" s="4">
-        <v>-15.5</v>
+        <v>-13</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K34" s="13">
-        <v>50527</v>
+        <v>30673</v>
       </c>
       <c r="L34" s="20"/>
     </row>
     <row r="35" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B35" s="3">
         <v>4</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="G35" s="4">
-        <v>-25.1</v>
+        <v>-23.1</v>
       </c>
       <c r="H35" s="4">
-        <v>-21.3</v>
+        <v>-7.6</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>133</v>
       </c>
       <c r="K35" s="13">
-        <v>30636</v>
+        <v>44292</v>
       </c>
       <c r="L35" s="20"/>
     </row>
     <row r="36" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B36" s="3">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="G36" s="4">
-        <v>-23.6</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="H36" s="4">
-        <v>-0.5</v>
-      </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K36" s="4">
-        <v>53478</v>
+        <v>-24.5</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K36" s="13">
+        <v>36259</v>
       </c>
       <c r="L36" s="20"/>
     </row>
     <row r="37" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B37" s="3">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G37" s="4">
-        <v>-23.1</v>
+        <v>-30.8</v>
       </c>
       <c r="H37" s="4">
-        <v>-7.6</v>
+        <v>-24</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K37" s="13">
-        <v>44292</v>
-      </c>
-      <c r="L37" s="20"/>
+        <v>117</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37" s="4">
+        <v>828</v>
+      </c>
+      <c r="L37" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="4">
+        <v>-30.6</v>
+      </c>
+      <c r="H38" s="4">
+        <v>-23.2</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" s="4">
+        <v>211</v>
+      </c>
+      <c r="L38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="4">
-        <v>-21.7</v>
-      </c>
-      <c r="H38" s="4">
-        <v>-12.3</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="K38" s="4">
-        <v>51186</v>
-      </c>
-      <c r="L38" s="20"/>
     </row>
     <row r="39" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B39" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G39" s="4">
-        <v>-21.4</v>
+        <v>-28.1</v>
       </c>
       <c r="H39" s="4">
-        <v>-12</v>
+        <v>-22.8</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K39" s="13">
-        <v>51076</v>
+        <v>44212</v>
       </c>
       <c r="L39" s="20"/>
     </row>
     <row r="40" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B40" s="3">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="5" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="G40" s="4">
-        <v>-19.100000000000001</v>
+        <v>-30.8</v>
       </c>
       <c r="H40" s="4">
-        <v>-3.6</v>
-      </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K40" s="4">
-        <v>54252</v>
+        <v>-22.6</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K40" s="13">
+        <v>36096</v>
       </c>
       <c r="L40" s="20"/>
     </row>
     <row r="41" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B41" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="G41" s="4">
-        <v>-19</v>
+        <v>-29.5</v>
       </c>
       <c r="H41" s="4">
-        <v>-1.6</v>
+        <v>-22.4</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K41" s="4">
-        <v>55294</v>
+        <v>116</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K41" s="13">
+        <v>36307</v>
       </c>
       <c r="L41" s="20"/>
     </row>
     <row r="42" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B42" s="3">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G42" s="4">
-        <v>-18.3</v>
+        <v>-35.6</v>
       </c>
       <c r="H42" s="4">
-        <v>-10</v>
-      </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="14" t="s">
-        <v>136</v>
+        <v>-26.3</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="K42" s="4">
-        <v>52323</v>
-      </c>
-      <c r="L42" s="20"/>
+        <v>893</v>
+      </c>
+      <c r="L42" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B43" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="G43" s="4">
-        <v>-18.100000000000001</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="H43" s="4">
-        <v>-11.4</v>
+        <v>-25.7</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K43" s="4">
-        <v>52101</v>
+        <v>115</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K43" s="13">
+        <v>44203</v>
       </c>
       <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="3">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="E44" s="5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="G44" s="4">
-        <v>-17.899999999999999</v>
+        <v>-30.4</v>
       </c>
       <c r="H44" s="4">
-        <v>-9.5</v>
+        <v>-22.3</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>135</v>
+        <v>40</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="K44" s="4">
-        <v>50953</v>
-      </c>
-      <c r="L44" s="20"/>
+        <v>687</v>
+      </c>
+      <c r="L44" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B45" s="3">
-        <v>0</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="4">
+        <v>-31.2</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-21.3</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45" s="4">
+        <v>221</v>
+      </c>
+      <c r="L45" s="8">
         <v>1</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="4">
-        <v>-17.7</v>
-      </c>
-      <c r="H45" s="4">
-        <v>-5.9</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K45" s="4">
-        <v>54273</v>
-      </c>
-      <c r="L45" s="20"/>
     </row>
     <row r="46" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B46" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="G46" s="4">
-        <v>-16</v>
+        <v>-33.1</v>
       </c>
       <c r="H46" s="4">
-        <v>-11</v>
+        <v>-20.5</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K46" s="4">
-        <v>51437</v>
+        <v>122</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K46" s="13">
+        <v>44225</v>
       </c>
       <c r="L46" s="20"/>
     </row>
     <row r="47" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B47" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="4">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="H47" s="4">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K47" s="4">
+        <v>274</v>
+      </c>
+      <c r="L47" s="8">
         <v>1</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" s="4">
-        <v>-15.1</v>
-      </c>
-      <c r="H47" s="4">
-        <v>-0.8</v>
-      </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K47" s="13">
-        <v>53463</v>
-      </c>
-      <c r="L47" s="20"/>
     </row>
     <row r="48" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B48" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="4">
+        <v>-27.5</v>
+      </c>
+      <c r="H48" s="4">
+        <v>-17.2</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K48" s="4">
+        <v>224</v>
+      </c>
+      <c r="L48" s="8">
         <v>1</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" s="4">
-        <v>-12.7</v>
-      </c>
-      <c r="H48" s="4">
-        <v>-5.4</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K48" s="13">
-        <v>51463</v>
-      </c>
-      <c r="L48" s="20"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L48">
-    <sortCondition ref="G2:G48"/>
+    <sortCondition ref="B2:B48"/>
     <sortCondition ref="H2:H48"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3369,230 +3848,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7964D65-AB8D-489F-8C28-B5C95FA9A675}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" customWidth="1"/>
-    <col min="4" max="5" width="14.59765625" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="32">
+      <c r="A1" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="47">
         <v>45649</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
       <c r="G1" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="A2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="49">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="E3" s="49">
+        <v>-25.7</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="49">
+        <v>-35.6</v>
+      </c>
+      <c r="E4" s="49">
+        <v>-26.3</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="49">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="E5" s="49">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="F5" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="38">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="E3" s="38">
-        <v>-25.7</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="38">
-        <v>-35.6</v>
-      </c>
-      <c r="E4" s="38">
-        <v>-26.3</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="38">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="E5" s="38">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="41" t="s">
+      <c r="A6" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="49">
         <v>-33.1</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="49">
         <v>-20.5</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>122</v>
+      <c r="F6" s="51" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="41" t="s">
+      <c r="A7" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="49">
         <v>-31.2</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="49">
         <v>-21.3</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="51" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="41" t="s">
+      <c r="A8" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="49">
         <v>-30.4</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="49">
         <v>-22.3</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="51" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="41" t="s">
+      <c r="A9" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="49">
         <v>-27.5</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="49">
         <v>-17.2</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>174</v>
+      <c r="F9" s="51" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="51"/>
     </row>
     <row r="11" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="51"/>
     </row>
     <row r="13" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="22"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="51"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F9">
@@ -3604,7 +4091,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D13">
+  <conditionalFormatting sqref="D3:D14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3616,7 +4103,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E13">
+  <conditionalFormatting sqref="E3:E14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3633,69 +4120,674 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26E29E2-6D80-496C-B105-0BF066F832AE}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6452CB3-0983-4391-8A7D-2C5221219E76}">
+  <dimension ref="A1:AV79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" t="s">
-        <v>161</v>
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A2" s="18">
+        <v>45649</v>
+      </c>
+      <c r="B2">
+        <v>-30.6</v>
       </c>
       <c r="C2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>168</v>
-      </c>
+        <v>-31.2</v>
+      </c>
+      <c r="D2">
+        <v>-27.5</v>
+      </c>
+      <c r="E2">
+        <v>-35</v>
+      </c>
+      <c r="F2">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="G2">
+        <v>-30.4</v>
+      </c>
+      <c r="H2">
+        <v>-30.8</v>
+      </c>
+      <c r="I2">
+        <v>-35.6</v>
+      </c>
+      <c r="J2">
+        <v>-31</v>
+      </c>
+      <c r="K2">
+        <v>-25.1</v>
+      </c>
+      <c r="L2">
+        <v>-25.9</v>
+      </c>
+      <c r="M2">
+        <v>-32.4</v>
+      </c>
+      <c r="N2">
+        <v>-38.1</v>
+      </c>
+      <c r="O2">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="P2">
+        <v>-42.3</v>
+      </c>
+      <c r="Q2">
+        <v>-37.5</v>
+      </c>
+      <c r="R2">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="S2">
+        <v>-30.8</v>
+      </c>
+      <c r="T2">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="U2">
+        <v>-29.5</v>
+      </c>
+      <c r="V2">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="W2">
+        <v>-28.1</v>
+      </c>
+      <c r="X2">
+        <v>-33.1</v>
+      </c>
+      <c r="Y2">
+        <v>-23.1</v>
+      </c>
+      <c r="Z2">
+        <v>-29</v>
+      </c>
+      <c r="AA2">
+        <v>-32.9</v>
+      </c>
+      <c r="AB2">
+        <v>-25.4</v>
+      </c>
+      <c r="AC2">
+        <v>-21.4</v>
+      </c>
+      <c r="AD2">
+        <v>-12.7</v>
+      </c>
+      <c r="AE2">
+        <v>-31.6</v>
+      </c>
+      <c r="AF2">
+        <v>-15.1</v>
+      </c>
+      <c r="AG2">
+        <v>-18.3</v>
+      </c>
+      <c r="AH2">
+        <v>-26.5</v>
+      </c>
+      <c r="AI2">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>-17.7</v>
+      </c>
+      <c r="AK2">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="AL2">
+        <v>-23.6</v>
+      </c>
+      <c r="AM2">
+        <v>-37.6</v>
+      </c>
+      <c r="AN2">
+        <v>-34.4</v>
+      </c>
+      <c r="AO2">
+        <v>-28.6</v>
+      </c>
+      <c r="AP2">
+        <v>-26.3</v>
+      </c>
+      <c r="AQ2">
+        <v>-19</v>
+      </c>
+      <c r="AR2">
+        <v>-21.7</v>
+      </c>
+      <c r="AS2">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AT2">
+        <v>-16</v>
+      </c>
+      <c r="AU2">
+        <v>-33.1</v>
+      </c>
+      <c r="AV2">
+        <v>-29.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A3" s="18">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A4" s="18">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A5" s="18">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A6" s="18">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A7" s="18">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A9" s="18">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A10" s="18">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A11" s="18">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A12" s="18">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A13" s="18">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A14" s="18">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A15" s="18">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A16" s="18">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="18">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="18">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="18">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="18">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="18">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="18">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="18">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="18">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="18">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="18">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="18">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="18">
+        <v>45675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="18">
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="18">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="18">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="18">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="18">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="18">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="18">
+        <v>45682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="18">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="18">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="18">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="18">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="18">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" s="18">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" s="18">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" s="18">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" s="18">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" s="18">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" s="18">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" s="18">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" s="18">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" s="18">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" s="18">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" s="18">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" s="18">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" s="18">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" s="18">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" s="18">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" s="18">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" s="18">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" s="18">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" s="18">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" s="18">
+        <v>45707</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" s="18">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62" s="18">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" s="18">
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64" s="18">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" s="18">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" s="18">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" s="18">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" s="18">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" s="18">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" s="18"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" s="18"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" s="18"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" s="18"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" s="18"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" s="18"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" s="18"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" s="18"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78" s="18"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3704,11 +4796,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6452CB3-0983-4391-8A7D-2C5221219E76}">
-  <dimension ref="A1:AW79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFE5A94-8276-425C-8C4C-F53ED14714E0}">
+  <dimension ref="A1:AV79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3716,12 +4808,12 @@
     <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -3736,82 +4828,82 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="H1" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="L1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M1" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" t="s">
         <v>142</v>
       </c>
-      <c r="O1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" t="s">
-        <v>89</v>
-      </c>
       <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
         <v>143</v>
-      </c>
-      <c r="R1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>11</v>
       </c>
       <c r="AA1" t="s">
         <v>144</v>
       </c>
       <c r="AB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
         <v>145</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>4</v>
       </c>
       <c r="AG1" t="s">
         <v>146</v>
@@ -3835,107 +4927,245 @@
         <v>152</v>
       </c>
       <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP1" t="s">
         <v>153</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>72</v>
       </c>
       <c r="AQ1" t="s">
         <v>154</v>
       </c>
       <c r="AR1" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="AS1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AU1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="AV1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A2" s="18">
         <v>45649</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>-23.2</v>
+      </c>
+      <c r="C2">
+        <v>-21.3</v>
+      </c>
+      <c r="D2">
+        <v>-17.2</v>
+      </c>
+      <c r="E2">
+        <v>-26</v>
+      </c>
+      <c r="F2">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="G2">
+        <v>-22.3</v>
+      </c>
+      <c r="H2">
+        <v>-24</v>
+      </c>
+      <c r="I2">
+        <v>-26.3</v>
+      </c>
+      <c r="J2">
+        <v>-23.4</v>
+      </c>
+      <c r="K2">
+        <v>-21.3</v>
+      </c>
+      <c r="L2">
+        <v>-13</v>
+      </c>
+      <c r="M2">
+        <v>-17.8</v>
+      </c>
+      <c r="N2">
+        <v>-27.7</v>
+      </c>
+      <c r="O2">
+        <v>-24.9</v>
+      </c>
+      <c r="P2">
+        <v>-24.7</v>
+      </c>
+      <c r="Q2">
+        <v>-29.2</v>
+      </c>
+      <c r="R2">
+        <v>-20.9</v>
+      </c>
+      <c r="S2">
+        <v>-22.6</v>
+      </c>
+      <c r="T2">
+        <v>-24.5</v>
+      </c>
+      <c r="U2">
+        <v>-22.4</v>
+      </c>
+      <c r="V2">
+        <v>-25.7</v>
+      </c>
+      <c r="W2">
+        <v>-22.8</v>
+      </c>
+      <c r="X2">
+        <v>-20.5</v>
+      </c>
+      <c r="Y2">
+        <v>-7.6</v>
+      </c>
+      <c r="Z2">
+        <v>-13.3</v>
+      </c>
+      <c r="AA2">
+        <v>-14.2</v>
+      </c>
+      <c r="AB2">
+        <v>-15.5</v>
+      </c>
+      <c r="AC2">
+        <v>-12</v>
+      </c>
+      <c r="AD2">
+        <v>-5.4</v>
+      </c>
+      <c r="AE2">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="AF2">
+        <v>-0.8</v>
+      </c>
+      <c r="AG2">
+        <v>-10</v>
+      </c>
+      <c r="AH2">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AI2">
+        <v>-9.5</v>
+      </c>
+      <c r="AJ2">
+        <v>-5.9</v>
+      </c>
+      <c r="AK2">
+        <v>-3.6</v>
+      </c>
+      <c r="AL2">
+        <v>-0.5</v>
+      </c>
+      <c r="AM2">
+        <v>-23.6</v>
+      </c>
+      <c r="AN2">
+        <v>-22</v>
+      </c>
+      <c r="AO2">
+        <v>-15.9</v>
+      </c>
+      <c r="AP2">
+        <v>-2.9</v>
+      </c>
+      <c r="AQ2">
+        <v>-1.6</v>
+      </c>
+      <c r="AR2">
+        <v>-12.3</v>
+      </c>
+      <c r="AS2">
+        <v>-11.4</v>
+      </c>
+      <c r="AT2">
+        <v>-11</v>
+      </c>
+      <c r="AU2">
+        <v>-15.6</v>
+      </c>
+      <c r="AV2">
+        <v>-18.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A3" s="18">
         <v>45650</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
         <v>45651</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>45652</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A6" s="18">
         <v>45653</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>45654</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
         <v>45655</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>45656</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A10" s="18">
         <v>45657</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>45658</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A12" s="18">
         <v>45659</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
         <v>45660</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A14" s="18">
         <v>45661</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
         <v>45662</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>45663</v>
       </c>
@@ -4242,1534 +5472,1016 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFE5A94-8276-425C-8C4C-F53ED14714E0}">
-  <dimension ref="A1:AW79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B34FAF-8106-42B6-ACE5-F6D83E641FA4}">
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.59765625" customWidth="1"/>
+    <col min="4" max="5" width="30.59765625" customWidth="1"/>
+    <col min="6" max="6" width="36.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="43">
+        <v>45649</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="41">
+        <v>-42.3</v>
+      </c>
+      <c r="E3" s="41">
+        <v>-24.7</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="41">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="E4" s="41">
+        <v>-24.9</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="41">
+        <v>-38.1</v>
+      </c>
+      <c r="E5" s="41">
+        <v>-27.7</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="41">
+        <v>-37.6</v>
+      </c>
+      <c r="E6" s="41">
+        <v>-23.6</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="41">
+        <v>-37.5</v>
+      </c>
+      <c r="E7" s="41">
+        <v>-29.2</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="41">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="E8" s="41">
+        <v>-20.9</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="41">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="E9" s="41">
+        <v>-25.7</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="41">
+        <v>-35.6</v>
+      </c>
+      <c r="E10" s="41">
+        <v>-26.3</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="41">
+        <v>-35</v>
+      </c>
+      <c r="E11" s="41">
+        <v>-26</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="41">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="E12" s="41">
+        <v>-24.5</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="41">
+        <v>-34.4</v>
+      </c>
+      <c r="E13" s="41">
+        <v>-22</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="41">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="E14" s="41">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="41">
+        <v>-33.1</v>
+      </c>
+      <c r="E15" s="41">
+        <v>-20.5</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="41">
+        <v>-33.1</v>
+      </c>
+      <c r="E16" s="41">
+        <v>-15.6</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="41">
+        <v>-32.9</v>
+      </c>
+      <c r="E17" s="41">
+        <v>-14.2</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D18" s="41">
+        <v>-32.4</v>
+      </c>
+      <c r="E18" s="41">
+        <v>-17.8</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="41">
+        <v>-31.6</v>
+      </c>
+      <c r="E19" s="41">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="41">
+        <v>-31.2</v>
+      </c>
+      <c r="E20" s="41">
+        <v>-21.3</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="41">
+        <v>-31</v>
+      </c>
+      <c r="E21" s="41">
+        <v>-23.4</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="41">
+        <v>-30.8</v>
+      </c>
+      <c r="E22" s="41">
+        <v>-24</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="41">
+        <v>-30.8</v>
+      </c>
+      <c r="E23" s="41">
+        <v>-22.6</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D24" s="41">
+        <v>-30.6</v>
+      </c>
+      <c r="E24" s="41">
+        <v>-23.2</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="41">
+        <v>-30.4</v>
+      </c>
+      <c r="E25" s="41">
+        <v>-22.3</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="41">
+        <v>-29.5</v>
+      </c>
+      <c r="E26" s="41">
+        <v>-22.4</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="41">
+        <v>-29.4</v>
+      </c>
+      <c r="E27" s="41">
+        <v>-18.2</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="41">
+        <v>-29</v>
+      </c>
+      <c r="E28" s="41">
+        <v>-13.3</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="41">
+        <v>-28.6</v>
+      </c>
+      <c r="E29" s="41">
+        <v>-15.9</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="41">
+        <v>-28.1</v>
+      </c>
+      <c r="E30" s="41">
+        <v>-22.8</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="D31" s="41">
+        <v>-27.5</v>
+      </c>
+      <c r="E31" s="41">
+        <v>-17.2</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="41">
+        <v>-26.5</v>
+      </c>
+      <c r="E32" s="41">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="41">
+        <v>-26.3</v>
+      </c>
+      <c r="E33" s="41">
+        <v>-2.9</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="41">
+        <v>-25.9</v>
+      </c>
+      <c r="E34" s="41">
+        <v>-13</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="41">
+        <v>-25.4</v>
+      </c>
+      <c r="E35" s="41">
+        <v>-15.5</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="M1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>143</v>
-      </c>
-      <c r="R1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="D36" s="41">
+        <v>-25.1</v>
+      </c>
+      <c r="E36" s="41">
+        <v>-21.3</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="41">
+        <v>-23.6</v>
+      </c>
+      <c r="E37" s="41">
+        <v>-0.5</v>
+      </c>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="D38" s="41">
+        <v>-23.1</v>
+      </c>
+      <c r="E38" s="41">
+        <v>-7.6</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="41">
+        <v>-21.7</v>
+      </c>
+      <c r="E39" s="41">
+        <v>-12.3</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="41">
+        <v>-21.4</v>
+      </c>
+      <c r="E40" s="41">
+        <v>-12</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="41">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="E41" s="41">
+        <v>-3.6</v>
+      </c>
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="41">
+        <v>-19</v>
+      </c>
+      <c r="E42" s="41">
+        <v>-1.6</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="41">
+        <v>-18.3</v>
+      </c>
+      <c r="E43" s="41">
+        <v>-10</v>
+      </c>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="41">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="E44" s="41">
+        <v>-11.4</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="41">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="E45" s="41">
+        <v>-9.5</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="41">
+        <v>-17.7</v>
+      </c>
+      <c r="E46" s="41">
+        <v>-5.9</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="41">
+        <v>-16</v>
+      </c>
+      <c r="E47" s="41">
+        <v>-11</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="AC1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="D48" s="41">
+        <v>-15.1</v>
+      </c>
+      <c r="E48" s="41">
+        <v>-0.8</v>
+      </c>
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AF1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A2" s="18">
-        <v>45649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A3" s="18">
-        <v>45650</v>
-      </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A4" s="18">
-        <v>45651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A5" s="18">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A6" s="18">
-        <v>45653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A7" s="18">
-        <v>45654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A8" s="18">
-        <v>45655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A9" s="18">
-        <v>45656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A10" s="18">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A11" s="18">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A12" s="18">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A13" s="18">
-        <v>45660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A14" s="18">
-        <v>45661</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A15" s="18">
-        <v>45662</v>
-      </c>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="A16" s="18">
-        <v>45663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="18">
-        <v>45664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="18">
-        <v>45665</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="18">
-        <v>45666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="18">
-        <v>45667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="18">
-        <v>45668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="18">
-        <v>45669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="18">
-        <v>45670</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="18">
-        <v>45671</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="18">
-        <v>45672</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="18">
-        <v>45673</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="18">
-        <v>45674</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="18">
-        <v>45675</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="18">
-        <v>45676</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="18">
-        <v>45677</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="18">
-        <v>45678</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="18">
-        <v>45679</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="18">
-        <v>45680</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="18">
-        <v>45681</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="18">
-        <v>45682</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" s="18">
-        <v>45683</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" s="18">
-        <v>45684</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" s="18">
-        <v>45685</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39" s="18">
-        <v>45686</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A40" s="18">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A41" s="18">
-        <v>45688</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A42" s="18">
-        <v>45689</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A43" s="18">
-        <v>45690</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A44" s="18">
-        <v>45691</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A45" s="18">
-        <v>45692</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A46" s="18">
-        <v>45693</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A47" s="18">
-        <v>45694</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48" s="18">
-        <v>45695</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" s="18">
-        <v>45696</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A50" s="18">
-        <v>45697</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A51" s="18">
-        <v>45698</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A52" s="18">
-        <v>45699</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A53" s="18">
-        <v>45700</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A54" s="18">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A55" s="18">
-        <v>45702</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A56" s="18">
-        <v>45703</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A57" s="18">
-        <v>45704</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A58" s="18">
-        <v>45705</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A59" s="18">
-        <v>45706</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A60" s="18">
-        <v>45707</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A61" s="18">
-        <v>45708</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A62" s="18">
-        <v>45709</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A63" s="18">
-        <v>45710</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A64" s="18">
-        <v>45711</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A65" s="18">
-        <v>45712</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A66" s="18">
-        <v>45713</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A67" s="18">
-        <v>45714</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A68" s="18">
-        <v>45715</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A69" s="18">
-        <v>45716</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A70" s="18"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A71" s="18"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A72" s="18"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A73" s="18"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A74" s="18"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A75" s="18"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A76" s="18"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A77" s="18"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A78" s="18"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A79" s="18"/>
+      <c r="D49" s="41">
+        <v>-12.7</v>
+      </c>
+      <c r="E49" s="41">
+        <v>-5.4</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B34FAF-8106-42B6-ACE5-F6D83E641FA4}">
-  <dimension ref="A1:F48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="20.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="4" max="5" width="16.59765625" customWidth="1"/>
-    <col min="6" max="6" width="32.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="29">
-        <v>45649</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="23">
-        <v>-42.3</v>
-      </c>
-      <c r="E2" s="23">
-        <v>-24.7</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="23">
-        <v>-39.799999999999997</v>
-      </c>
-      <c r="E3" s="23">
-        <v>-24.9</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="23">
-        <v>-38.1</v>
-      </c>
-      <c r="E4" s="23">
-        <v>-27.7</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="23">
-        <v>-37.6</v>
-      </c>
-      <c r="E5" s="23">
-        <v>-23.6</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="23">
-        <v>-37.5</v>
-      </c>
-      <c r="E6" s="23">
-        <v>-29.2</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="23">
-        <v>-36.700000000000003</v>
-      </c>
-      <c r="E7" s="23">
-        <v>-20.9</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="23">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="E8" s="23">
-        <v>-25.7</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="23">
-        <v>-35.6</v>
-      </c>
-      <c r="E9" s="23">
-        <v>-26.3</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="23">
-        <v>-35</v>
-      </c>
-      <c r="E10" s="23">
-        <v>-26</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="23">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="E11" s="23">
-        <v>-24.5</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="23">
-        <v>-34.4</v>
-      </c>
-      <c r="E12" s="23">
-        <v>-22</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="23">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="E13" s="23">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="23">
-        <v>-33.1</v>
-      </c>
-      <c r="E14" s="23">
-        <v>-20.5</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="23">
-        <v>-33.1</v>
-      </c>
-      <c r="E15" s="23">
-        <v>-15.6</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="23">
-        <v>-32.9</v>
-      </c>
-      <c r="E16" s="23">
-        <v>-14.2</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="23">
-        <v>-32.4</v>
-      </c>
-      <c r="E17" s="23">
-        <v>-17.8</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="23">
-        <v>-31.6</v>
-      </c>
-      <c r="E18" s="23">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="23">
-        <v>-31.2</v>
-      </c>
-      <c r="E19" s="23">
-        <v>-21.3</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="23">
-        <v>-31</v>
-      </c>
-      <c r="E20" s="23">
-        <v>-23.4</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="23">
-        <v>-30.8</v>
-      </c>
-      <c r="E21" s="23">
-        <v>-24</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="23">
-        <v>-30.8</v>
-      </c>
-      <c r="E22" s="23">
-        <v>-22.6</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="23">
-        <v>-30.6</v>
-      </c>
-      <c r="E23" s="23">
-        <v>-23.2</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="23">
-        <v>-30.4</v>
-      </c>
-      <c r="E24" s="23">
-        <v>-22.3</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="23">
-        <v>-29.5</v>
-      </c>
-      <c r="E25" s="23">
-        <v>-22.4</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="23">
-        <v>-29.4</v>
-      </c>
-      <c r="E26" s="23">
-        <v>-18.2</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="23">
-        <v>-29</v>
-      </c>
-      <c r="E27" s="23">
-        <v>-13.3</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="23">
-        <v>-28.6</v>
-      </c>
-      <c r="E28" s="23">
-        <v>-15.9</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="23">
-        <v>-28.1</v>
-      </c>
-      <c r="E29" s="23">
-        <v>-22.8</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="23">
-        <v>-27.5</v>
-      </c>
-      <c r="E30" s="23">
-        <v>-17.2</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="23">
-        <v>-26.5</v>
-      </c>
-      <c r="E31" s="23">
-        <v>-5.0999999999999996</v>
-      </c>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="23">
-        <v>-26.3</v>
-      </c>
-      <c r="E32" s="23">
-        <v>-2.9</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="23">
-        <v>-25.9</v>
-      </c>
-      <c r="E33" s="23">
-        <v>-13</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="23">
-        <v>-25.4</v>
-      </c>
-      <c r="E34" s="23">
-        <v>-15.5</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="23">
-        <v>-25.1</v>
-      </c>
-      <c r="E35" s="23">
-        <v>-21.3</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="23">
-        <v>-23.6</v>
-      </c>
-      <c r="E36" s="23">
-        <v>-0.5</v>
-      </c>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="23">
-        <v>-23.1</v>
-      </c>
-      <c r="E37" s="23">
-        <v>-7.6</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="23">
-        <v>-21.7</v>
-      </c>
-      <c r="E38" s="23">
-        <v>-12.3</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="23">
-        <v>-21.4</v>
-      </c>
-      <c r="E39" s="23">
-        <v>-12</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="23">
-        <v>-19.100000000000001</v>
-      </c>
-      <c r="E40" s="23">
-        <v>-3.6</v>
-      </c>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="23">
-        <v>-19</v>
-      </c>
-      <c r="E41" s="23">
-        <v>-1.6</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="23">
-        <v>-18.3</v>
-      </c>
-      <c r="E42" s="23">
-        <v>-10</v>
-      </c>
-      <c r="F42" s="24"/>
-    </row>
-    <row r="43" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="23">
-        <v>-18.100000000000001</v>
-      </c>
-      <c r="E43" s="23">
-        <v>-11.4</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="23">
-        <v>-17.899999999999999</v>
-      </c>
-      <c r="E44" s="23">
-        <v>-9.5</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="23">
-        <v>-17.7</v>
-      </c>
-      <c r="E45" s="23">
-        <v>-5.9</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="23">
-        <v>-16</v>
-      </c>
-      <c r="E46" s="23">
-        <v>-11</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="23">
-        <v>-15.1</v>
-      </c>
-      <c r="E47" s="23">
-        <v>-0.8</v>
-      </c>
-      <c r="F47" s="24"/>
-    </row>
-    <row r="48" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="23">
-        <v>-12.7</v>
-      </c>
-      <c r="E48" s="23">
-        <v>-5.4</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F49">
+    <sortCondition ref="D3:D49"/>
+    <sortCondition ref="E3:E49"/>
+  </sortState>
+  <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D48">
+  <conditionalFormatting sqref="D3:D49">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF72585"/>
-        <color rgb="FF560BAD"/>
-        <color rgb="FF3F37C9"/>
+        <color rgb="FF480CA8"/>
+        <color rgb="FF4895EF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E48">
+  <conditionalFormatting sqref="E3:E49">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF3A0CA3"/>
-        <color rgb="FF4895EF"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FF560BAD"/>
+        <color rgb="FF3F37C9"/>
+        <color rgb="FF6FFFE9"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D87DD15-1328-43EC-826E-837554BAC751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB6D7D3-FBA3-4F61-9E23-02B7F9293FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="219">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,10 +214,6 @@
   </si>
   <si>
     <t>特斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图里河</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -937,6 +933,102 @@
     <t>蒙古</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>切昆达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图里河</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东戈壁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -945,7 +1037,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1259,6 +1351,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1509,8 +1607,26 @@
     <xf numFmtId="176" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="31" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1518,26 +1634,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1869,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0415808A-EC4F-404C-B30D-CD8F1C534364}">
   <dimension ref="A1:BH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1886,40 +1984,40 @@
   <sheetData>
     <row r="1" spans="1:60" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="G1" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>165</v>
-      </c>
       <c r="I1" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.4">
@@ -1934,10 +2032,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="4">
         <v>-18.3</v>
@@ -1947,14 +2045,14 @@
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K2" s="4">
         <v>52323</v>
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BH2">TRANSPOSE(G2:G48)</f>
@@ -2116,7 +2214,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="4">
         <v>-17.899999999999999</v>
@@ -2125,17 +2223,17 @@
         <v>-9.5</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K3" s="4">
         <v>50953</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BH3">TRANSPOSE(H2:H48)</f>
@@ -2294,10 +2392,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G4" s="4">
         <v>-17.7</v>
@@ -2306,10 +2404,10 @@
         <v>-5.9</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K4" s="4">
         <v>54273</v>
@@ -2330,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="G5" s="4">
         <v>-26.5</v>
@@ -2343,7 +2441,7 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K5" s="4">
         <v>53392</v>
@@ -2364,10 +2462,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G6" s="4">
         <v>-19.100000000000001</v>
@@ -2377,7 +2475,7 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K6" s="4">
         <v>54252</v>
@@ -2399,7 +2497,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="4">
         <v>-15.1</v>
@@ -2409,7 +2507,7 @@
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K7" s="13">
         <v>53463</v>
@@ -2430,10 +2528,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="G8" s="4">
         <v>-23.6</v>
@@ -2443,7 +2541,7 @@
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K8" s="4">
         <v>53478</v>
@@ -2467,7 +2565,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4">
         <v>-37.6</v>
@@ -2476,10 +2574,10 @@
         <v>-23.6</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K9" s="4">
         <v>50673</v>
@@ -2501,7 +2599,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="4">
         <v>-34.4</v>
@@ -2513,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K10" s="4">
         <v>50353</v>
@@ -2535,7 +2633,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="4">
         <v>-29.4</v>
@@ -2547,10 +2645,10 @@
         <v>2</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L11" s="20"/>
     </row>
@@ -2569,7 +2667,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="4">
         <v>-28.6</v>
@@ -2581,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K12" s="4">
         <v>50727</v>
@@ -2605,7 +2703,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="4">
         <v>-33.1</v>
@@ -2617,10 +2715,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L13" s="20"/>
     </row>
@@ -2639,7 +2737,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="4">
         <v>-25.4</v>
@@ -2648,10 +2746,10 @@
         <v>-15.5</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K14" s="13">
         <v>50527</v>
@@ -2673,7 +2771,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="G15" s="4">
         <v>-32.9</v>
@@ -2685,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K15" s="13">
         <v>50434</v>
@@ -2721,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K16" s="13">
         <v>50136</v>
@@ -2757,7 +2855,7 @@
         <v>21</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K17" s="13">
         <v>51542</v>
@@ -2779,7 +2877,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="4">
         <v>-21.7</v>
@@ -2791,7 +2889,7 @@
         <v>22</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K18" s="4">
         <v>51186</v>
@@ -2815,7 +2913,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" s="4">
         <v>-21.4</v>
@@ -2827,7 +2925,7 @@
         <v>22</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K19" s="13">
         <v>51076</v>
@@ -2849,7 +2947,7 @@
         <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="4">
         <v>-18.100000000000001</v>
@@ -2861,7 +2959,7 @@
         <v>21</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K20" s="4">
         <v>52101</v>
@@ -2883,7 +2981,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="4">
         <v>-16</v>
@@ -2895,7 +2993,7 @@
         <v>21</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K21" s="4">
         <v>51437</v>
@@ -2917,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" s="4">
         <v>-12.7</v>
@@ -2929,7 +3027,7 @@
         <v>21</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K22" s="13">
         <v>51463</v>
@@ -2948,10 +3046,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="G23" s="4">
         <v>-26.3</v>
@@ -2960,10 +3058,10 @@
         <v>-2.9</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K23" s="4">
         <v>56034</v>
@@ -2982,10 +3080,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="G24" s="4">
         <v>-19</v>
@@ -2994,10 +3092,10 @@
         <v>-1.6</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K24" s="4">
         <v>55294</v>
@@ -3019,7 +3117,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="G25" s="4">
         <v>-37.5</v>
@@ -3031,7 +3129,7 @@
         <v>32</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K25" s="13">
         <v>31532</v>
@@ -3050,10 +3148,10 @@
         <v>24</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" s="4">
         <v>-38.1</v>
@@ -3065,7 +3163,7 @@
         <v>28</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K26" s="13">
         <v>31329</v>
@@ -3087,7 +3185,7 @@
         <v>30</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="4">
         <v>-39.799999999999997</v>
@@ -3099,7 +3197,7 @@
         <v>28</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K27" s="13">
         <v>31348</v>
@@ -3133,7 +3231,7 @@
         <v>28</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K28" s="13">
         <v>31478</v>
@@ -3152,10 +3250,10 @@
         <v>24</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G29" s="4">
         <v>-36.700000000000003</v>
@@ -3164,10 +3262,10 @@
         <v>-20.9</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K29" s="13">
         <v>31702</v>
@@ -3201,7 +3299,7 @@
         <v>38</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K30" s="4">
         <v>243</v>
@@ -3234,10 +3332,10 @@
         <v>-23.4</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K31" s="13">
         <v>30622</v>
@@ -3253,13 +3351,13 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="F32" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="4">
         <v>-25.1</v>
@@ -3268,10 +3366,10 @@
         <v>-21.3</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K32" s="13">
         <v>30636</v>
@@ -3290,10 +3388,10 @@
         <v>24</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="G33" s="4">
         <v>-32.4</v>
@@ -3302,10 +3400,10 @@
         <v>-17.8</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K33" s="13">
         <v>30781</v>
@@ -3321,13 +3419,13 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G34" s="4">
         <v>-25.9</v>
@@ -3336,10 +3434,10 @@
         <v>-13</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K34" s="13">
         <v>30673</v>
@@ -3373,7 +3471,7 @@
         <v>38</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K35" s="13">
         <v>44292</v>
@@ -3407,7 +3505,7 @@
         <v>22</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K36" s="13">
         <v>36259</v>
@@ -3429,7 +3527,7 @@
         <v>35</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="G37" s="4">
         <v>-30.8</v>
@@ -3438,10 +3536,10 @@
         <v>-24</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K37" s="4">
         <v>828</v>
@@ -3474,10 +3572,10 @@
         <v>-23.2</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K38" s="4">
         <v>211</v>
@@ -3501,7 +3599,7 @@
         <v>35</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G39" s="4">
         <v>-28.1</v>
@@ -3510,10 +3608,10 @@
         <v>-22.8</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K39" s="13">
         <v>44212</v>
@@ -3544,10 +3642,10 @@
         <v>-22.6</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K40" s="13">
         <v>36096</v>
@@ -3569,7 +3667,7 @@
         <v>26</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G41" s="4">
         <v>-29.5</v>
@@ -3578,10 +3676,10 @@
         <v>-22.4</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K41" s="13">
         <v>36307</v>
@@ -3612,10 +3710,10 @@
         <v>-26.3</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K42" s="4">
         <v>893</v>
@@ -3648,10 +3746,10 @@
         <v>-25.7</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K43" s="13">
         <v>44203</v>
@@ -3673,7 +3771,7 @@
         <v>37</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G44" s="4">
         <v>-30.4</v>
@@ -3685,7 +3783,7 @@
         <v>40</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K44" s="4">
         <v>687</v>
@@ -3721,7 +3819,7 @@
         <v>40</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K45" s="4">
         <v>221</v>
@@ -3754,10 +3852,10 @@
         <v>-20.5</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K46" s="13">
         <v>44225</v>
@@ -3788,10 +3886,10 @@
         <v>-18.600000000000001</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K47" s="4">
         <v>274</v>
@@ -3827,7 +3925,7 @@
         <v>36</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K48" s="4">
         <v>224</v>
@@ -3850,8 +3948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7964D65-AB8D-489F-8C28-B5C95FA9A675}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3865,221 +3963,221 @@
   <sheetData>
     <row r="1" spans="1:7" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="47">
         <v>45649</v>
       </c>
       <c r="C1" s="47"/>
-      <c r="D1" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="D1" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>139</v>
-      </c>
       <c r="F2" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="45">
         <v>-35.700000000000003</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="45">
         <v>-25.7</v>
       </c>
-      <c r="F3" s="51" t="s">
-        <v>114</v>
+      <c r="F3" s="46" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="45">
         <v>-35.6</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="45">
         <v>-26.3</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>114</v>
+      <c r="F4" s="46" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="45">
         <v>-34.200000000000003</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="45">
         <v>-18.600000000000001</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>119</v>
+      <c r="F5" s="46" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="45">
         <v>-33.1</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="45">
         <v>-20.5</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>121</v>
+      <c r="F6" s="46" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="45">
         <v>-31.2</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="45">
         <v>-21.3</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>112</v>
+      <c r="F7" s="46" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="49">
+        <v>157</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="45">
         <v>-30.4</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="45">
         <v>-22.3</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>112</v>
+      <c r="F8" s="46" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="45">
         <v>-27.5</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="45">
         <v>-17.2</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>162</v>
+      <c r="F9" s="46" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="22"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="51"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="22"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="51"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="22"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="51"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="51"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F9">
@@ -4134,10 +4232,10 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -4152,7 +4250,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
@@ -4164,28 +4262,28 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" t="s">
         <v>141</v>
-      </c>
-      <c r="N1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" t="s">
-        <v>142</v>
       </c>
       <c r="Q1" t="s">
         <v>8</v>
       </c>
       <c r="R1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S1" t="s">
         <v>6</v>
@@ -4194,13 +4292,13 @@
         <v>5</v>
       </c>
       <c r="U1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V1" t="s">
         <v>9</v>
       </c>
       <c r="W1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X1" t="s">
         <v>10</v>
@@ -4209,73 +4307,73 @@
         <v>11</v>
       </c>
       <c r="Z1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA1" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" t="s">
-        <v>144</v>
-      </c>
       <c r="AB1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE1" t="s">
         <v>4</v>
       </c>
       <c r="AF1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG1" t="s">
         <v>145</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>146</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>147</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>148</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>149</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>150</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>151</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" t="s">
         <v>152</v>
       </c>
-      <c r="AN1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>153</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>154</v>
-      </c>
       <c r="AR1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AV1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
@@ -4810,10 +4908,10 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -4828,7 +4926,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
@@ -4840,28 +4938,28 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" t="s">
         <v>141</v>
-      </c>
-      <c r="N1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" t="s">
-        <v>142</v>
       </c>
       <c r="Q1" t="s">
         <v>8</v>
       </c>
       <c r="R1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S1" t="s">
         <v>6</v>
@@ -4870,13 +4968,13 @@
         <v>5</v>
       </c>
       <c r="U1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V1" t="s">
         <v>9</v>
       </c>
       <c r="W1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X1" t="s">
         <v>10</v>
@@ -4885,73 +4983,73 @@
         <v>11</v>
       </c>
       <c r="Z1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA1" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" t="s">
-        <v>144</v>
-      </c>
       <c r="AB1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE1" t="s">
         <v>4</v>
       </c>
       <c r="AF1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG1" t="s">
         <v>145</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>146</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>147</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>148</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>149</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>150</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>151</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" t="s">
         <v>152</v>
       </c>
-      <c r="AN1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>153</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>154</v>
-      </c>
       <c r="AR1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AV1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.4">
@@ -5488,37 +5586,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="43">
+      <c r="A1" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="49">
         <v>45649</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>130</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>213</v>
-      </c>
       <c r="F2" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
@@ -5529,7 +5627,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="41">
         <v>-42.3</v>
@@ -5538,7 +5636,7 @@
         <v>-24.7</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
@@ -5549,7 +5647,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="41">
         <v>-39.799999999999997</v>
@@ -5558,7 +5656,7 @@
         <v>-24.9</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
@@ -5566,10 +5664,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="41">
         <v>-38.1</v>
@@ -5578,18 +5676,18 @@
         <v>-27.7</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>168</v>
-      </c>
       <c r="C6" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="41">
         <v>-37.6</v>
@@ -5598,7 +5696,7 @@
         <v>-23.6</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
@@ -5626,10 +5724,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="41">
         <v>-36.700000000000003</v>
@@ -5643,10 +5741,10 @@
     </row>
     <row r="9" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>9</v>
@@ -5658,15 +5756,15 @@
         <v>-25.7</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>17</v>
@@ -5678,15 +5776,15 @@
         <v>-26.3</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>14</v>
@@ -5698,7 +5796,7 @@
         <v>-26</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
@@ -5706,7 +5804,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>5</v>
@@ -5718,18 +5816,18 @@
         <v>-24.5</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>168</v>
-      </c>
       <c r="C13" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="41">
         <v>-34.4</v>
@@ -5738,15 +5836,15 @@
         <v>-22</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>15</v>
@@ -5758,15 +5856,15 @@
         <v>-18.600000000000001</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>10</v>
@@ -5778,18 +5876,18 @@
         <v>-20.5</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="41">
         <v>-33.1</v>
@@ -5798,18 +5896,18 @@
         <v>-15.6</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="41">
         <v>-32.9</v>
@@ -5818,7 +5916,7 @@
         <v>-14.2</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
@@ -5826,10 +5924,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="41">
         <v>-32.4</v>
@@ -5838,15 +5936,15 @@
         <v>-17.8</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>4</v>
@@ -5858,15 +5956,15 @@
         <v>-18.600000000000001</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>12</v>
@@ -5878,7 +5976,7 @@
         <v>-21.3</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
@@ -5886,7 +5984,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>7</v>
@@ -5898,15 +5996,15 @@
         <v>-23.4</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>16</v>
@@ -5918,7 +6016,7 @@
         <v>-24</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
@@ -5926,7 +6024,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>6</v>
@@ -5938,18 +6036,18 @@
         <v>-22.6</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="41">
         <v>-30.6</v>
@@ -5958,18 +6056,18 @@
         <v>-23.2</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="41">
         <v>-30.4</v>
@@ -5978,7 +6076,7 @@
         <v>-22.3</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
@@ -5986,10 +6084,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="41">
         <v>-29.5</v>
@@ -5998,18 +6096,18 @@
         <v>-22.4</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="41">
         <v>-29.4</v>
@@ -6018,18 +6116,18 @@
         <v>-18.2</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>168</v>
-      </c>
       <c r="C28" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="41">
         <v>-29</v>
@@ -6038,18 +6136,18 @@
         <v>-13.3</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="41">
         <v>-28.6</v>
@@ -6058,18 +6156,18 @@
         <v>-15.9</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="41">
         <v>-28.1</v>
@@ -6078,15 +6176,15 @@
         <v>-22.8</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" s="31" t="s">
         <v>13</v>
@@ -6098,18 +6196,18 @@
         <v>-17.2</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="41">
         <v>-26.5</v>
@@ -6121,13 +6219,13 @@
     </row>
     <row r="33" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33" s="41">
         <v>-26.3</v>
@@ -6136,7 +6234,7 @@
         <v>-2.9</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
@@ -6144,10 +6242,10 @@
         <v>23</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="41">
         <v>-25.9</v>
@@ -6156,18 +6254,18 @@
         <v>-13</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="41">
         <v>-25.4</v>
@@ -6176,7 +6274,7 @@
         <v>-15.5</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
@@ -6184,10 +6282,10 @@
         <v>23</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="41">
         <v>-25.1</v>
@@ -6196,18 +6294,18 @@
         <v>-21.3</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D37" s="41">
         <v>-23.6</v>
@@ -6219,10 +6317,10 @@
     </row>
     <row r="38" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>11</v>
@@ -6234,18 +6332,18 @@
         <v>-7.6</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="41">
         <v>-21.7</v>
@@ -6254,18 +6352,18 @@
         <v>-12.3</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" s="41">
         <v>-21.4</v>
@@ -6274,18 +6372,18 @@
         <v>-12</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D41" s="41">
         <v>-19.100000000000001</v>
@@ -6297,13 +6395,13 @@
     </row>
     <row r="42" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42" s="41">
         <v>-19</v>
@@ -6312,18 +6410,18 @@
         <v>-1.6</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43" s="41">
         <v>-18.3</v>
@@ -6335,13 +6433,13 @@
     </row>
     <row r="44" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="41">
         <v>-18.100000000000001</v>
@@ -6350,18 +6448,18 @@
         <v>-11.4</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="33" t="s">
-        <v>168</v>
-      </c>
       <c r="C45" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45" s="41">
         <v>-17.899999999999999</v>
@@ -6370,18 +6468,18 @@
         <v>-9.5</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="41">
         <v>-17.7</v>
@@ -6390,18 +6488,18 @@
         <v>-5.9</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47" s="41">
         <v>-16</v>
@@ -6410,18 +6508,18 @@
         <v>-11</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="41">
         <v>-15.1</v>
@@ -6433,13 +6531,13 @@
     </row>
     <row r="49" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D49" s="41">
         <v>-12.7</v>
@@ -6448,7 +6546,7 @@
         <v>-5.4</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECEE3E9-CF3A-43C5-AB0E-0C42F699E01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FFCA70-3231-4A0F-9429-45B2466071D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="243">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -799,10 +799,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>强制首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乌布苏湖盆地特斯河</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -816,14 +812,6 @@
   </si>
   <si>
     <t>总表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第 1 页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -968,14 +956,6 @@
       </rPr>
       <t>东戈壁</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精选冷站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1363,6 +1343,34 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>冷站汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内冷站(23)
+俄罗斯冷站(12)
+蒙古冷站(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷站汇总(47)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精选冷站(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分区
+序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制
+首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1371,7 +1379,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1760,6 +1768,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="21"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1793,7 +1810,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1918,13 +1935,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1988,9 +2014,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1999,18 +2022,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="18" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="40" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2093,16 +2104,37 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="18" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2436,7 +2468,7 @@
   <dimension ref="A1:BH48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2493,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
@@ -2505,12 +2537,8 @@
       <c r="F2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="4">
-        <v>-26.7</v>
-      </c>
-      <c r="H2" s="4">
-        <v>-23</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="6" t="s">
         <v>114</v>
       </c>
@@ -2528,145 +2556,145 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BH2">TRANSPOSE(G2:G48)</f>
-        <v>-26.7</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-27.7</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-31.9</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-26.2</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>-28.4</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>-28.4</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>-28.5</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-32.4</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-22.9</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-25.2</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>-34.4</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-31.9</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-38.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-36.4</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-24.8</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-37.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>-26.3</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>-28.3</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>-27.3</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-23.6</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-22.4</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-27.5</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-34.5</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>-21.8</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-21.3</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-16.3</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-21.8</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>-18.5</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>-23.3</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>-15.5</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>-19.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>-19.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>-17.2</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>-31.7</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>-31.2</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>-16.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>-21.1</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>-27.7</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>-17.8</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>-14.8</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>-32.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>-30.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.4">
@@ -2674,7 +2702,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
@@ -2686,12 +2714,8 @@
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4">
-        <v>-27.7</v>
-      </c>
-      <c r="H3" s="4">
-        <v>-20.9</v>
-      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="6" t="s">
         <v>40</v>
       </c>
@@ -2709,145 +2733,145 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BH3">TRANSPOSE(H2:H48)</f>
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-20.9</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-21.5</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-20.8</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-23.1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>-23.2</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-23.4</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-19.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-17.7</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-15.8</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>-21.3</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-27.3</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-21.5</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-27.7</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-12.4</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-20.3</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>-26.9</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-22.6</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-20.8</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-21.4</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-10.5</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-17.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-14.9</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-13.4</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-7.8</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-15.6</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>-3.9</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>-5.5</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>-7.9</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>-5.6</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>-3.3</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>-2.1</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>-16.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>-12.1</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>-8.1</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>-16.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>-7.4</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>-5.7</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>-18.2</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.4">
@@ -2855,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
@@ -2867,12 +2891,8 @@
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4">
-        <v>-31.9</v>
-      </c>
-      <c r="H4" s="4">
-        <v>-23</v>
-      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2891,7 +2911,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
@@ -2903,12 +2923,8 @@
       <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4">
-        <v>-32</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-21.5</v>
-      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="6" t="s">
         <v>38</v>
       </c>
@@ -2921,14 +2937,14 @@
       <c r="L5" s="8">
         <v>1</v>
       </c>
-      <c r="M5" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>218</v>
+      <c r="M5" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.4">
@@ -2936,7 +2952,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
@@ -2948,12 +2964,8 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4">
-        <v>-26.2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-20.8</v>
-      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="6" t="s">
         <v>117</v>
       </c>
@@ -2966,14 +2978,14 @@
       <c r="L6" s="8">
         <v>1</v>
       </c>
-      <c r="M6" s="23" t="s">
-        <v>221</v>
+      <c r="M6" s="22" t="s">
+        <v>216</v>
       </c>
       <c r="N6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.4">
@@ -2981,7 +2993,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
@@ -2993,12 +3005,8 @@
       <c r="F7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="4">
-        <v>-28.4</v>
-      </c>
-      <c r="H7" s="4">
-        <v>-23.1</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="6" t="s">
         <v>40</v>
       </c>
@@ -3011,14 +3019,14 @@
       <c r="L7" s="8">
         <v>3</v>
       </c>
-      <c r="M7" s="23" t="s">
-        <v>222</v>
+      <c r="M7" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="N7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:60" ht="27.75" x14ac:dyDescent="0.4">
@@ -3026,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
@@ -3036,14 +3044,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" s="4">
-        <v>-28.4</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-23.2</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="6" t="s">
         <v>115</v>
       </c>
@@ -3056,14 +3060,14 @@
       <c r="L8" s="8">
         <v>3</v>
       </c>
-      <c r="M8" s="23" t="s">
-        <v>223</v>
+      <c r="M8" s="22" t="s">
+        <v>218</v>
       </c>
       <c r="N8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="27.75" x14ac:dyDescent="0.4">
@@ -3071,7 +3075,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
@@ -3083,12 +3087,8 @@
       <c r="F9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="4">
-        <v>-28.5</v>
-      </c>
-      <c r="H9" s="4">
-        <v>-23.4</v>
-      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="6" t="s">
         <v>113</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
@@ -3119,12 +3119,8 @@
       <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="4">
-        <v>-32.4</v>
-      </c>
-      <c r="H10" s="4">
-        <v>-19.100000000000001</v>
-      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="6" t="s">
         <v>120</v>
       </c>
@@ -3141,7 +3137,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
@@ -3153,12 +3149,8 @@
       <c r="F11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="4">
-        <v>-22.9</v>
-      </c>
-      <c r="H11" s="4">
-        <v>-17.7</v>
-      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="6" t="s">
         <v>119</v>
       </c>
@@ -3175,7 +3167,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
@@ -3187,12 +3179,8 @@
       <c r="F12" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="4">
-        <v>-25.2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>-15.8</v>
-      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="6" t="s">
         <v>100</v>
       </c>
@@ -3209,7 +3197,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
@@ -3221,12 +3209,8 @@
       <c r="F13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="4">
-        <v>-34.4</v>
-      </c>
-      <c r="H13" s="4">
-        <v>-21.3</v>
-      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
         <v>54</v>
       </c>
@@ -3243,7 +3227,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
@@ -3255,12 +3239,8 @@
       <c r="F14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="4">
-        <v>-37</v>
-      </c>
-      <c r="H14" s="4">
-        <v>-27.3</v>
-      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
@@ -3277,7 +3257,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
@@ -3289,12 +3269,8 @@
       <c r="F15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="4">
-        <v>-31.9</v>
-      </c>
-      <c r="H15" s="4">
-        <v>-21.5</v>
-      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="6" t="s">
         <v>28</v>
       </c>
@@ -3311,7 +3287,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
@@ -3323,12 +3299,8 @@
       <c r="F16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="4">
-        <v>-38.200000000000003</v>
-      </c>
-      <c r="H16" s="4">
-        <v>-23</v>
-      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="6" t="s">
         <v>28</v>
       </c>
@@ -3345,7 +3317,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
@@ -3355,14 +3327,10 @@
         <v>29</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="4">
-        <v>-36.4</v>
-      </c>
-      <c r="H17" s="4">
-        <v>-27.7</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="6" t="s">
         <v>32</v>
       </c>
@@ -3379,7 +3347,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
@@ -3391,12 +3359,8 @@
       <c r="F18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="4">
-        <v>-32</v>
-      </c>
-      <c r="H18" s="4">
-        <v>-12.4</v>
-      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="6" t="s">
         <v>96</v>
       </c>
@@ -3413,7 +3377,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
@@ -3425,12 +3389,8 @@
       <c r="F19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="4">
-        <v>-24.8</v>
-      </c>
-      <c r="H19" s="4">
-        <v>-20.3</v>
-      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="6" t="s">
         <v>167</v>
       </c>
@@ -3447,7 +3407,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
@@ -3459,12 +3419,8 @@
       <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="4">
-        <v>-37.200000000000003</v>
-      </c>
-      <c r="H20" s="4">
-        <v>-26.9</v>
-      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="6" t="s">
         <v>22</v>
       </c>
@@ -3481,7 +3437,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
@@ -3493,12 +3449,8 @@
       <c r="F21" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="4">
-        <v>-26.3</v>
-      </c>
-      <c r="H21" s="4">
-        <v>-22.6</v>
-      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="6" t="s">
         <v>114</v>
       </c>
@@ -3515,7 +3467,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
@@ -3527,12 +3479,8 @@
       <c r="F22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="4">
-        <v>-28.3</v>
-      </c>
-      <c r="H22" s="4">
-        <v>-21</v>
-      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
       <c r="I22" s="6" t="s">
         <v>113</v>
       </c>
@@ -3549,7 +3497,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
@@ -3561,12 +3509,8 @@
       <c r="F23" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="4">
-        <v>-27.3</v>
-      </c>
-      <c r="H23" s="4">
-        <v>-20.8</v>
-      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="6" t="s">
         <v>115</v>
       </c>
@@ -3583,7 +3527,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
@@ -3595,12 +3539,8 @@
       <c r="F24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="4">
-        <v>-23.6</v>
-      </c>
-      <c r="H24" s="4">
-        <v>-21.4</v>
-      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="6" t="s">
         <v>118</v>
       </c>
@@ -3617,7 +3557,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
@@ -3629,12 +3569,8 @@
       <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="4">
-        <v>-22.4</v>
-      </c>
-      <c r="H25" s="4">
-        <v>-10.5</v>
-      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
@@ -3665,12 +3601,8 @@
       <c r="F26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="4">
-        <v>-27.5</v>
-      </c>
-      <c r="H26" s="4">
-        <v>-17.100000000000001</v>
-      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="6" t="s">
         <v>2</v>
       </c>
@@ -3697,14 +3629,10 @@
         <v>18</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G27" s="4">
-        <v>-34.5</v>
-      </c>
-      <c r="H27" s="4">
-        <v>-14.9</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="6" t="s">
         <v>2</v>
       </c>
@@ -3733,12 +3661,8 @@
       <c r="F28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="4">
-        <v>-21.8</v>
-      </c>
-      <c r="H28" s="4">
-        <v>-13.4</v>
-      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="6" t="s">
         <v>75</v>
       </c>
@@ -3755,7 +3679,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -3769,12 +3693,8 @@
       <c r="F29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="4">
-        <v>-21.3</v>
-      </c>
-      <c r="H29" s="4">
-        <v>-13</v>
-      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="6" t="s">
         <v>22</v>
       </c>
@@ -3791,7 +3711,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
@@ -3803,12 +3723,8 @@
       <c r="F30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="4">
-        <v>-16.3</v>
-      </c>
-      <c r="H30" s="4">
-        <v>-7.8</v>
-      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="6" t="s">
         <v>21</v>
       </c>
@@ -3825,7 +3741,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -3839,12 +3755,8 @@
       <c r="F31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="4">
-        <v>-21.8</v>
-      </c>
-      <c r="H31" s="4">
-        <v>-15.6</v>
-      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="6" t="s">
         <v>21</v>
       </c>
@@ -3861,7 +3773,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
@@ -3873,12 +3785,8 @@
       <c r="F32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="4">
-        <v>-11</v>
-      </c>
-      <c r="H32" s="4">
-        <v>-3.9</v>
-      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
         <v>129</v>
@@ -3893,7 +3801,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
@@ -3905,12 +3813,8 @@
       <c r="F33" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="4">
-        <v>-18.5</v>
-      </c>
-      <c r="H33" s="4">
-        <v>-5.5</v>
-      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="6"/>
       <c r="J33" s="14" t="s">
         <v>131</v>
@@ -3925,7 +3829,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -3939,12 +3843,8 @@
       <c r="F34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="4">
-        <v>-23.3</v>
-      </c>
-      <c r="H34" s="4">
-        <v>-7.9</v>
-      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
         <v>131</v>
@@ -3959,7 +3859,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -3973,12 +3873,8 @@
       <c r="F35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="4">
-        <v>-15.5</v>
-      </c>
-      <c r="H35" s="4">
-        <v>-5.6</v>
-      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="6" t="s">
         <v>47</v>
       </c>
@@ -3995,7 +3891,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -4009,12 +3905,8 @@
       <c r="F36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="4">
-        <v>-19.899999999999999</v>
-      </c>
-      <c r="H36" s="4">
-        <v>-3.3</v>
-      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="6" t="s">
         <v>45</v>
       </c>
@@ -4031,7 +3923,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -4045,12 +3937,8 @@
       <c r="F37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="4">
-        <v>-19.899999999999999</v>
-      </c>
-      <c r="H37" s="4">
-        <v>-2.5</v>
-      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="6"/>
       <c r="J37" s="14" t="s">
         <v>130</v>
@@ -4065,7 +3953,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -4079,12 +3967,8 @@
       <c r="F38" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="4">
-        <v>-17.2</v>
-      </c>
-      <c r="H38" s="4">
-        <v>-2.1</v>
-      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
         <v>130</v>
@@ -4113,12 +3997,8 @@
       <c r="F39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="4">
-        <v>-31.7</v>
-      </c>
-      <c r="H39" s="4">
-        <v>-16.399999999999999</v>
-      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="6" t="s">
         <v>43</v>
       </c>
@@ -4147,12 +4027,8 @@
       <c r="F40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G40" s="4">
-        <v>-31.2</v>
-      </c>
-      <c r="H40" s="4">
-        <v>-12.1</v>
-      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="6" t="s">
         <v>2</v>
       </c>
@@ -4181,12 +4057,8 @@
       <c r="F41" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="4">
-        <v>-28</v>
-      </c>
-      <c r="H41" s="4">
-        <v>-8.1</v>
-      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
       <c r="I41" s="6" t="s">
         <v>2</v>
       </c>
@@ -4203,7 +4075,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5" t="s">
@@ -4215,12 +4087,8 @@
       <c r="F42" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="4">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="H42" s="4">
-        <v>-0.7</v>
-      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
       <c r="I42" s="6" t="s">
         <v>65</v>
       </c>
@@ -4237,7 +4105,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5" t="s">
@@ -4249,12 +4117,8 @@
       <c r="F43" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="4">
-        <v>-21.1</v>
-      </c>
-      <c r="H43" s="4">
-        <v>-2</v>
-      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
       <c r="I43" s="6" t="s">
         <v>65</v>
       </c>
@@ -4271,7 +4135,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5" t="s">
@@ -4283,12 +4147,8 @@
       <c r="F44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="4">
-        <v>-27.7</v>
-      </c>
-      <c r="H44" s="4">
-        <v>-16.399999999999999</v>
-      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
       <c r="I44" s="6" t="s">
         <v>22</v>
       </c>
@@ -4305,7 +4165,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5" t="s">
@@ -4317,12 +4177,8 @@
       <c r="F45" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G45" s="4">
-        <v>-17.8</v>
-      </c>
-      <c r="H45" s="4">
-        <v>-7.4</v>
-      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
       <c r="I45" s="6" t="s">
         <v>21</v>
       </c>
@@ -4339,7 +4195,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5" t="s">
@@ -4351,12 +4207,8 @@
       <c r="F46" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G46" s="4">
-        <v>-14.8</v>
-      </c>
-      <c r="H46" s="4">
-        <v>-5.7</v>
-      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
       <c r="I46" s="6" t="s">
         <v>21</v>
       </c>
@@ -4387,12 +4239,8 @@
       <c r="F47" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="4">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="H47" s="4">
-        <v>-18.2</v>
-      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
       <c r="I47" s="6" t="s">
         <v>2</v>
       </c>
@@ -4421,12 +4269,8 @@
       <c r="F48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G48" s="4">
-        <v>-30.4</v>
-      </c>
-      <c r="H48" s="4">
-        <v>-22</v>
-      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
       <c r="I48" s="6" t="s">
         <v>2</v>
       </c>
@@ -4450,1104 +4294,1117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B34FAF-8106-42B6-ACE5-F6D83E641FA4}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" customWidth="1"/>
-    <col min="5" max="6" width="24.59765625" customWidth="1"/>
-    <col min="7" max="7" width="18.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="2" max="4" width="8.59765625" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" customWidth="1"/>
+    <col min="7" max="8" width="24.59765625" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" customWidth="1"/>
+    <col min="12" max="12" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="1:12" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="27">
-        <v>45650</v>
-      </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="55">
+        <v>45651</v>
+      </c>
+      <c r="G1" s="56"/>
+      <c r="H1" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="59"/>
-    </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="I2" s="22" t="s">
+      <c r="I1" s="54"/>
+    </row>
+    <row r="2" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="51"/>
+      <c r="K2" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="61"/>
+      <c r="B3" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="61"/>
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27">
+        <v>3</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="L4" s="57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="61"/>
+      <c r="B5" s="27">
+        <v>2</v>
+      </c>
+      <c r="C5" s="27">
+        <v>3</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="61"/>
+      <c r="B6" s="27">
+        <v>3</v>
+      </c>
+      <c r="C6" s="27">
+        <v>3</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="61"/>
+      <c r="B7" s="27">
+        <v>4</v>
+      </c>
+      <c r="C7" s="27">
+        <v>3</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="61"/>
+      <c r="B8" s="27">
+        <v>5</v>
+      </c>
+      <c r="C8" s="27">
+        <v>3</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="61"/>
+      <c r="B9" s="27">
+        <v>6</v>
+      </c>
+      <c r="C9" s="27">
+        <v>3</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="61"/>
+      <c r="B10" s="27">
+        <v>7</v>
+      </c>
+      <c r="C10" s="27">
+        <v>3</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="61"/>
+      <c r="B11" s="27">
+        <v>8</v>
+      </c>
+      <c r="C11" s="27">
+        <v>3</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="61"/>
+      <c r="B12" s="27">
+        <v>9</v>
+      </c>
+      <c r="C12" s="27">
+        <v>2</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="61"/>
+      <c r="B13" s="27">
+        <v>10</v>
+      </c>
+      <c r="C13" s="27">
+        <v>2</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="61"/>
+      <c r="B14" s="27">
+        <v>11</v>
+      </c>
+      <c r="C14" s="27">
+        <v>2</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="61"/>
+      <c r="B15" s="27">
+        <v>12</v>
+      </c>
+      <c r="C15" s="27">
+        <v>2</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="61"/>
+      <c r="B16" s="27">
+        <v>13</v>
+      </c>
+      <c r="C16" s="27">
+        <v>2</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="61"/>
+      <c r="B17" s="27">
+        <v>14</v>
+      </c>
+      <c r="C17" s="27">
+        <v>2</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="61"/>
+      <c r="B18" s="27">
+        <v>15</v>
+      </c>
+      <c r="C18" s="27">
+        <v>2</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="61"/>
+      <c r="B19" s="27">
+        <v>16</v>
+      </c>
+      <c r="C19" s="27">
+        <v>2</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="61"/>
+      <c r="B20" s="27">
+        <v>17</v>
+      </c>
+      <c r="C20" s="27">
+        <v>2</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="61"/>
+      <c r="B21" s="27">
+        <v>18</v>
+      </c>
+      <c r="C21" s="27">
+        <v>2</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="61"/>
+      <c r="B22" s="27">
+        <v>19</v>
+      </c>
+      <c r="C22" s="27">
+        <v>2</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="61"/>
+      <c r="B23" s="27">
+        <v>20</v>
+      </c>
+      <c r="C23" s="27">
+        <v>2</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="31" t="s">
+    </row>
+    <row r="24" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="61"/>
+      <c r="B24" s="27">
+        <v>21</v>
+      </c>
+      <c r="C24" s="27">
+        <v>3</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="61"/>
+      <c r="B25" s="27">
+        <v>22</v>
+      </c>
+      <c r="C25" s="27">
+        <v>3</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="61"/>
+      <c r="B26" s="27">
+        <v>23</v>
+      </c>
+      <c r="C26" s="27">
+        <v>3</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="61"/>
+      <c r="B27" s="27">
+        <v>24</v>
+      </c>
+      <c r="C27" s="27">
+        <v>3</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="61"/>
+      <c r="B28" s="27">
+        <v>25</v>
+      </c>
+      <c r="C28" s="27">
+        <v>1</v>
+      </c>
+      <c r="D28" s="27">
+        <v>0</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="61"/>
+      <c r="B29" s="27">
+        <v>26</v>
+      </c>
+      <c r="C29" s="27">
+        <v>1</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="61"/>
+      <c r="B30" s="27">
+        <v>27</v>
+      </c>
+      <c r="C30" s="27">
+        <v>1</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="61"/>
+      <c r="B31" s="27">
+        <v>28</v>
+      </c>
+      <c r="C31" s="27">
+        <v>1</v>
+      </c>
+      <c r="D31" s="27">
+        <v>0</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="61"/>
+      <c r="B32" s="27">
+        <v>29</v>
+      </c>
+      <c r="C32" s="27">
+        <v>1</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="61"/>
+      <c r="B33" s="27">
+        <v>30</v>
+      </c>
+      <c r="C33" s="27">
+        <v>1</v>
+      </c>
+      <c r="D33" s="27">
+        <v>0</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="61"/>
+      <c r="B34" s="27">
+        <v>31</v>
+      </c>
+      <c r="C34" s="27">
+        <v>1</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="61"/>
+      <c r="B35" s="27">
+        <v>32</v>
+      </c>
+      <c r="C35" s="27">
+        <v>1</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="35"/>
+    </row>
+    <row r="36" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="61"/>
+      <c r="B36" s="27">
+        <v>33</v>
+      </c>
+      <c r="C36" s="27">
+        <v>1</v>
+      </c>
+      <c r="D36" s="27">
+        <v>0</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="35"/>
+    </row>
+    <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="61"/>
+      <c r="B37" s="27">
+        <v>34</v>
+      </c>
+      <c r="C37" s="27">
+        <v>1</v>
+      </c>
+      <c r="D37" s="27">
+        <v>0</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="61"/>
+      <c r="B38" s="27">
+        <v>35</v>
+      </c>
+      <c r="C38" s="27">
+        <v>1</v>
+      </c>
+      <c r="D38" s="27">
+        <v>0</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="61"/>
+      <c r="B39" s="27">
+        <v>36</v>
+      </c>
+      <c r="C39" s="27">
+        <v>1</v>
+      </c>
+      <c r="D39" s="27">
+        <v>0</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="35"/>
+    </row>
+    <row r="40" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="61"/>
+      <c r="B40" s="27">
+        <v>37</v>
+      </c>
+      <c r="C40" s="27">
+        <v>1</v>
+      </c>
+      <c r="D40" s="27">
+        <v>0</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="35"/>
+    </row>
+    <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="61"/>
+      <c r="B41" s="27">
+        <v>38</v>
+      </c>
+      <c r="C41" s="27">
+        <v>1</v>
+      </c>
+      <c r="D41" s="27">
+        <v>0</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="61"/>
+      <c r="B42" s="27">
+        <v>39</v>
+      </c>
+      <c r="C42" s="27">
+        <v>1</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="61"/>
+      <c r="B43" s="27">
+        <v>40</v>
+      </c>
+      <c r="C43" s="27">
+        <v>1</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="61"/>
+      <c r="B44" s="27">
+        <v>41</v>
+      </c>
+      <c r="C44" s="27">
+        <v>1</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="61"/>
+      <c r="B45" s="27">
+        <v>42</v>
+      </c>
+      <c r="C45" s="27">
+        <v>1</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="61"/>
+      <c r="B46" s="27">
+        <v>43</v>
+      </c>
+      <c r="C46" s="27">
+        <v>1</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="61"/>
+      <c r="B47" s="27">
+        <v>44</v>
+      </c>
+      <c r="C47" s="27">
+        <v>1</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="32">
-        <v>1</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="42">
-        <v>-26.7</v>
-      </c>
-      <c r="F4" s="42">
-        <v>-23</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="32">
-        <v>2</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="42">
-        <v>-27.7</v>
-      </c>
-      <c r="F5" s="42">
-        <v>-20.9</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="32">
-        <v>3</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="42">
-        <v>-31.9</v>
-      </c>
-      <c r="F6" s="42">
-        <v>-23</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="32">
-        <v>4</v>
-      </c>
-      <c r="B7" s="32">
-        <v>0</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="42">
-        <v>-32</v>
-      </c>
-      <c r="F7" s="42">
-        <v>-21.5</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="32">
-        <v>5</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="42">
-        <v>-26.2</v>
-      </c>
-      <c r="F8" s="42">
-        <v>-20.8</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="32">
-        <v>6</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="42">
-        <v>-28.4</v>
-      </c>
-      <c r="F9" s="42">
-        <v>-23.1</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="32">
-        <v>7</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="42">
-        <v>-28.4</v>
-      </c>
-      <c r="F10" s="42">
-        <v>-23.2</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="32">
-        <v>8</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="42">
-        <v>-28.5</v>
-      </c>
-      <c r="F11" s="42">
-        <v>-23.4</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="32">
-        <v>9</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="42">
-        <v>-32.4</v>
-      </c>
-      <c r="F12" s="42">
-        <v>-19.100000000000001</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="32">
-        <v>10</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="42">
-        <v>-22.9</v>
-      </c>
-      <c r="F13" s="42">
-        <v>-17.7</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="32">
-        <v>11</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="42">
-        <v>-25.2</v>
-      </c>
-      <c r="F14" s="42">
-        <v>-15.8</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="32">
-        <v>12</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="42">
-        <v>-34.4</v>
-      </c>
-      <c r="F15" s="42">
-        <v>-21.3</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="32">
-        <v>13</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="42">
-        <v>-37</v>
-      </c>
-      <c r="F16" s="42">
-        <v>-27.3</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="32">
-        <v>14</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="42">
-        <v>-31.9</v>
-      </c>
-      <c r="F17" s="42">
-        <v>-21.5</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="32">
-        <v>15</v>
-      </c>
-      <c r="B18" s="32">
-        <v>0</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="42">
-        <v>-38.200000000000003</v>
-      </c>
-      <c r="F18" s="42">
-        <v>-23</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="32">
-        <v>16</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="42">
-        <v>-36.4</v>
-      </c>
-      <c r="F19" s="42">
-        <v>-27.7</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="32">
-        <v>17</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="42">
-        <v>-32</v>
-      </c>
-      <c r="F20" s="42">
-        <v>-12.4</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="32">
-        <v>18</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="42">
-        <v>-24.8</v>
-      </c>
-      <c r="F21" s="42">
-        <v>-20.3</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="32">
-        <v>19</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="42">
-        <v>-37.200000000000003</v>
-      </c>
-      <c r="F22" s="42">
-        <v>-26.9</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="32">
-        <v>20</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="42">
-        <v>-26.3</v>
-      </c>
-      <c r="F23" s="42">
-        <v>-22.6</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="32">
-        <v>21</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="42">
-        <v>-28.3</v>
-      </c>
-      <c r="F24" s="42">
-        <v>-21</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="32">
-        <v>22</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="42">
-        <v>-27.3</v>
-      </c>
-      <c r="F25" s="42">
-        <v>-20.8</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="32">
-        <v>23</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="42">
-        <v>-23.6</v>
-      </c>
-      <c r="F26" s="42">
-        <v>-21.4</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="32">
-        <v>24</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="42">
-        <v>-22.4</v>
-      </c>
-      <c r="F27" s="42">
-        <v>-10.5</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="32">
-        <v>25</v>
-      </c>
-      <c r="B28" s="32">
-        <v>0</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="42">
-        <v>-27.5</v>
-      </c>
-      <c r="F28" s="42">
-        <v>-17.100000000000001</v>
-      </c>
-      <c r="G28" s="40" t="s">
+      <c r="F47" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="61"/>
+      <c r="B48" s="27">
+        <v>45</v>
+      </c>
+      <c r="C48" s="27">
+        <v>1</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="61"/>
+      <c r="B49" s="27">
+        <v>46</v>
+      </c>
+      <c r="C49" s="27">
+        <v>1</v>
+      </c>
+      <c r="D49" s="27">
+        <v>0</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="32">
-        <v>26</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="42">
-        <v>-34.5</v>
-      </c>
-      <c r="F29" s="42">
-        <v>-14.9</v>
-      </c>
-      <c r="G29" s="40" t="s">
+    <row r="50" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="61"/>
+      <c r="B50" s="27">
+        <v>47</v>
+      </c>
+      <c r="C50" s="27">
+        <v>1</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="32">
-        <v>27</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="42">
-        <v>-21.8</v>
-      </c>
-      <c r="F30" s="42">
-        <v>-13.4</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="32">
-        <v>28</v>
-      </c>
-      <c r="B31" s="32">
-        <v>0</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="42">
-        <v>-21.3</v>
-      </c>
-      <c r="F31" s="42">
-        <v>-13</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="32">
-        <v>29</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="42">
-        <v>-16.3</v>
-      </c>
-      <c r="F32" s="42">
-        <v>-7.8</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="32">
-        <v>30</v>
-      </c>
-      <c r="B33" s="32">
-        <v>0</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="42">
-        <v>-21.8</v>
-      </c>
-      <c r="F33" s="42">
-        <v>-15.6</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="32">
-        <v>31</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="42">
-        <v>-11</v>
-      </c>
-      <c r="F34" s="42">
-        <v>-3.9</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="32">
-        <v>32</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="42">
-        <v>-18.5</v>
-      </c>
-      <c r="F35" s="42">
-        <v>-5.5</v>
-      </c>
-      <c r="G35" s="40"/>
-    </row>
-    <row r="36" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="32">
-        <v>33</v>
-      </c>
-      <c r="B36" s="32">
-        <v>0</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="42">
-        <v>-23.3</v>
-      </c>
-      <c r="F36" s="42">
-        <v>-7.9</v>
-      </c>
-      <c r="G36" s="40"/>
-    </row>
-    <row r="37" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="32">
-        <v>34</v>
-      </c>
-      <c r="B37" s="32">
-        <v>0</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="42">
-        <v>-15.5</v>
-      </c>
-      <c r="F37" s="42">
-        <v>-5.6</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="32">
-        <v>35</v>
-      </c>
-      <c r="B38" s="32">
-        <v>0</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="42">
-        <v>-19.899999999999999</v>
-      </c>
-      <c r="F38" s="42">
-        <v>-3.3</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="32">
-        <v>36</v>
-      </c>
-      <c r="B39" s="32">
-        <v>0</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="42">
-        <v>-19.899999999999999</v>
-      </c>
-      <c r="F39" s="42">
-        <v>-2.5</v>
-      </c>
-      <c r="G39" s="40"/>
-    </row>
-    <row r="40" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="32">
-        <v>37</v>
-      </c>
-      <c r="B40" s="32">
-        <v>0</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="42">
-        <v>-17.2</v>
-      </c>
-      <c r="F40" s="42">
-        <v>-2.1</v>
-      </c>
-      <c r="G40" s="40"/>
-    </row>
-    <row r="41" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="32">
-        <v>38</v>
-      </c>
-      <c r="B41" s="32">
-        <v>0</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="42">
-        <v>-31.7</v>
-      </c>
-      <c r="F41" s="42">
-        <v>-16.399999999999999</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="32">
-        <v>39</v>
-      </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="42">
-        <v>-31.2</v>
-      </c>
-      <c r="F42" s="42">
-        <v>-12.1</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="32">
-        <v>40</v>
-      </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="42">
-        <v>-28</v>
-      </c>
-      <c r="F43" s="42">
-        <v>-8.1</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="32">
-        <v>41</v>
-      </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="42">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="F44" s="42">
-        <v>-0.7</v>
-      </c>
-      <c r="G44" s="40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="32">
-        <v>42</v>
-      </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="42">
-        <v>-21.1</v>
-      </c>
-      <c r="F45" s="42">
-        <v>-2</v>
-      </c>
-      <c r="G45" s="40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="32">
-        <v>43</v>
-      </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="42">
-        <v>-27.7</v>
-      </c>
-      <c r="F46" s="42">
-        <v>-16.399999999999999</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="32">
-        <v>44</v>
-      </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="42">
-        <v>-17.8</v>
-      </c>
-      <c r="F47" s="42">
-        <v>-7.4</v>
-      </c>
-      <c r="G47" s="40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="32">
-        <v>45</v>
-      </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="42">
-        <v>-14.8</v>
-      </c>
-      <c r="F48" s="42">
-        <v>-5.7</v>
-      </c>
-      <c r="G48" s="40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="32">
-        <v>46</v>
-      </c>
-      <c r="B49" s="32">
-        <v>0</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="42">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="F49" s="42">
-        <v>-18.2</v>
-      </c>
-      <c r="G49" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="32">
-        <v>47</v>
-      </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="D50" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="42">
-        <v>-30.4</v>
-      </c>
-      <c r="F50" s="42">
-        <v>-22</v>
-      </c>
-      <c r="G50" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G50">
-    <sortCondition ref="A4:A50"/>
-    <sortCondition ref="F4:F50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I50">
+    <sortCondition ref="B4:B50"/>
+    <sortCondition ref="H4:H50"/>
+    <sortCondition ref="I4:I50"/>
   </sortState>
-  <mergeCells count="5">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A50"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E4:E50">
+  <conditionalFormatting sqref="G4:G50">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5559,7 +5416,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F50">
+  <conditionalFormatting sqref="H4:H50">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FFCA70-3231-4A0F-9429-45B2466071D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3BAEB7-0315-40AC-80FA-FCD6E2CE0FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
   <sheets>
     <sheet name="详细信息表" sheetId="1" r:id="rId1"/>
@@ -702,72 +702,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>俄罗斯-哈巴罗夫斯克边疆区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯-后贝加尔边疆区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯-布里亚特共和国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯-伊尔库茨克州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙古
-乌布苏省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙古
-扎布汗省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙古
-色楞格省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>东亚寒冷PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯
-阿穆尔州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯
-犹太自治州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯
-图瓦共和国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯
-阿尔泰共和国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙古
-库苏古尔省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙古
-乌兰巴托市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1213,44 +1152,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">新疆
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>阿勒泰</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">内蒙古
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>呼伦贝尔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">新疆 </t>
     </r>
     <r>
@@ -1288,25 +1189,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">黑龙江
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>大兴安岭</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">内蒙古
 </t>
     </r>
@@ -1371,6 +1253,306 @@
 首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">蒙古
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乌布苏省</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">蒙古
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扎布汗省</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">蒙古
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>色楞格省</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">蒙古
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库苏古尔省</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>俄罗斯-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伊尔库茨克州</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>俄罗斯-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布里亚特共和国</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>俄罗斯-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后贝加尔边疆区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阿穆尔州</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>俄罗斯-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哈巴罗夫斯克边疆区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>犹太自治州</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图瓦共和国</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阿尔泰共和国</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">蒙古
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乌兰巴托市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">新疆
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阿勒泰地区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">黑龙江
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大兴安岭地区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">内蒙古
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>呼伦贝尔市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1379,7 +1561,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1777,6 +1959,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2104,6 +2304,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2122,19 +2334,7 @@
     <xf numFmtId="58" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2467,7 +2667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0415808A-EC4F-404C-B30D-CD8F1C534364}">
   <dimension ref="A1:BH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -2938,13 +3138,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.4">
@@ -2979,13 +3179,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="N6" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="O6" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.4">
@@ -3020,13 +3220,13 @@
         <v>3</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="N7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="O7" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:60" ht="27.75" x14ac:dyDescent="0.4">
@@ -3044,7 +3244,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -3061,13 +3261,13 @@
         <v>3</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="N8" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="O8" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="27.75" x14ac:dyDescent="0.4">
@@ -3327,7 +3527,7 @@
         <v>29</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -3629,7 +3829,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -4296,8 +4496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B34FAF-8106-42B6-ACE5-F6D83E641FA4}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4312,51 +4512,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="55">
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="59">
         <v>45651</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="I1" s="54"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="51"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="55"/>
       <c r="K2" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="L2" s="57" t="s">
-        <v>240</v>
+        <v>188</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="61"/>
-      <c r="B3" s="58" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>242</v>
+      <c r="C3" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>226</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>126</v>
@@ -4365,23 +4565,23 @@
         <v>0</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>116</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="L3" s="57" t="s">
-        <v>238</v>
+        <v>187</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="61"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="27">
         <v>1</v>
       </c>
@@ -4390,7 +4590,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="33" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>109</v>
@@ -4398,17 +4598,17 @@
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
       <c r="I4" s="35" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>239</v>
+        <v>189</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="61"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="27">
         <v>2</v>
       </c>
@@ -4417,7 +4617,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="33" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>12</v>
@@ -4429,7 +4629,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="61"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="27">
         <v>3</v>
       </c>
@@ -4438,7 +4638,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="33" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>13</v>
@@ -4450,7 +4650,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="61"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="27">
         <v>4</v>
       </c>
@@ -4461,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>14</v>
@@ -4473,7 +4673,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="61"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="27">
         <v>5</v>
       </c>
@@ -4482,7 +4682,7 @@
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="33" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>15</v>
@@ -4490,11 +4690,11 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="35" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="61"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="27">
         <v>6</v>
       </c>
@@ -4503,7 +4703,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="33" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>109</v>
@@ -4515,7 +4715,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="61"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="27">
         <v>7</v>
       </c>
@@ -4524,19 +4724,19 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="33" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="35" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="61"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="27">
         <v>8</v>
       </c>
@@ -4545,7 +4745,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="33" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>17</v>
@@ -4553,11 +4753,11 @@
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
       <c r="I11" s="35" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="61"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="27">
         <v>9</v>
       </c>
@@ -4566,7 +4766,7 @@
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="30" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>7</v>
@@ -4578,7 +4778,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="61"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="27">
         <v>10</v>
       </c>
@@ -4587,7 +4787,7 @@
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="32" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>94</v>
@@ -4599,7 +4799,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="61"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="27">
         <v>11</v>
       </c>
@@ -4608,7 +4808,7 @@
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="32" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>101</v>
@@ -4620,7 +4820,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="61"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="27">
         <v>12</v>
       </c>
@@ -4629,7 +4829,7 @@
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="32" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>135</v>
@@ -4641,7 +4841,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="61"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="27">
         <v>13</v>
       </c>
@@ -4650,7 +4850,7 @@
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="30" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>86</v>
@@ -4662,7 +4862,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="61"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="27">
         <v>14</v>
       </c>
@@ -4671,7 +4871,7 @@
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="28" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>88</v>
@@ -4683,7 +4883,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="61"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="27">
         <v>15</v>
       </c>
@@ -4694,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>136</v>
@@ -4706,7 +4906,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="61"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="27">
         <v>16</v>
       </c>
@@ -4715,10 +4915,10 @@
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="28" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
@@ -4727,7 +4927,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="61"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="27">
         <v>17</v>
       </c>
@@ -4736,7 +4936,7 @@
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="30" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>98</v>
@@ -4748,7 +4948,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="61"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="27">
         <v>18</v>
       </c>
@@ -4757,7 +4957,7 @@
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="30" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>6</v>
@@ -4765,11 +4965,11 @@
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
       <c r="I21" s="35" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="61"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="27">
         <v>19</v>
       </c>
@@ -4778,7 +4978,7 @@
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="29" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="F22" s="38" t="s">
         <v>5</v>
@@ -4790,7 +4990,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="61"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="27">
         <v>20</v>
       </c>
@@ -4799,7 +4999,7 @@
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="30" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>107</v>
@@ -4807,11 +5007,11 @@
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
       <c r="I23" s="35" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="61"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="27">
         <v>21</v>
       </c>
@@ -4820,7 +5020,7 @@
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="33" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="F24" s="44" t="s">
         <v>9</v>
@@ -4828,11 +5028,11 @@
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
       <c r="I24" s="35" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="61"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="27">
         <v>22</v>
       </c>
@@ -4841,7 +5041,7 @@
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="33" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="F25" s="44" t="s">
         <v>105</v>
@@ -4849,11 +5049,11 @@
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
       <c r="I25" s="35" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="61"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="27">
         <v>23</v>
       </c>
@@ -4862,7 +5062,7 @@
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="33" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="F26" s="49" t="s">
         <v>10</v>
@@ -4870,11 +5070,11 @@
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="35" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="61"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="27">
         <v>24</v>
       </c>
@@ -4883,7 +5083,7 @@
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="33" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="F27" s="44" t="s">
         <v>11</v>
@@ -4895,7 +5095,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="61"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="27">
         <v>25</v>
       </c>
@@ -4906,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F28" s="41" t="s">
         <v>137</v>
@@ -4918,7 +5118,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="61"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="27">
         <v>26</v>
       </c>
@@ -4927,10 +5127,10 @@
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="31" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -4939,7 +5139,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="61"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="27">
         <v>27</v>
       </c>
@@ -4948,7 +5148,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="31" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F30" s="47" t="s">
         <v>76</v>
@@ -4960,7 +5160,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="61"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="27">
         <v>28</v>
       </c>
@@ -4971,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F31" s="47" t="s">
         <v>103</v>
@@ -4983,7 +5183,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="61"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="27">
         <v>29</v>
       </c>
@@ -5004,7 +5204,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="61"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="27">
         <v>30</v>
       </c>
@@ -5015,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F33" s="50" t="s">
         <v>4</v>
@@ -5023,11 +5223,11 @@
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
       <c r="I33" s="35" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="61"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="27">
         <v>31</v>
       </c>
@@ -5044,11 +5244,11 @@
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
       <c r="I34" s="35" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="61"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="27">
         <v>32</v>
       </c>
@@ -5057,7 +5257,7 @@
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="31" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F35" s="47" t="s">
         <v>140</v>
@@ -5067,7 +5267,7 @@
       <c r="I35" s="35"/>
     </row>
     <row r="36" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="61"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="27">
         <v>33</v>
       </c>
@@ -5078,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F36" s="41" t="s">
         <v>141</v>
@@ -5088,7 +5288,7 @@
       <c r="I36" s="35"/>
     </row>
     <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="61"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="27">
         <v>34</v>
       </c>
@@ -5107,11 +5307,11 @@
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
       <c r="I37" s="35" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="61"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="27">
         <v>35</v>
       </c>
@@ -5122,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F38" s="41" t="s">
         <v>143</v>
@@ -5134,7 +5334,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="61"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="27">
         <v>36</v>
       </c>
@@ -5145,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>144</v>
@@ -5155,7 +5355,7 @@
       <c r="I39" s="35"/>
     </row>
     <row r="40" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="61"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="27">
         <v>37</v>
       </c>
@@ -5166,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F40" s="41" t="s">
         <v>145</v>
@@ -5176,7 +5376,7 @@
       <c r="I40" s="35"/>
     </row>
     <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="61"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="27">
         <v>38</v>
       </c>
@@ -5187,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="F41" s="41" t="s">
         <v>146</v>
@@ -5199,7 +5399,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="61"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="27">
         <v>39</v>
       </c>
@@ -5208,7 +5408,7 @@
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="31" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F42" s="41" t="s">
         <v>73</v>
@@ -5220,7 +5420,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="61"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="27">
         <v>40</v>
       </c>
@@ -5229,7 +5429,7 @@
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="31" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F43" s="47" t="s">
         <v>71</v>
@@ -5241,7 +5441,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="61"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="27">
         <v>41</v>
       </c>
@@ -5250,7 +5450,7 @@
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="31" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F44" s="47" t="s">
         <v>147</v>
@@ -5262,7 +5462,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="61"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="27">
         <v>42</v>
       </c>
@@ -5271,7 +5471,7 @@
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="31" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F45" s="41" t="s">
         <v>148</v>
@@ -5283,7 +5483,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="61"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="27">
         <v>43</v>
       </c>
@@ -5292,7 +5492,7 @@
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="31" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F46" s="41" t="s">
         <v>78</v>
@@ -5304,7 +5504,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="61"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="27">
         <v>44</v>
       </c>
@@ -5313,7 +5513,7 @@
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="31" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F47" s="47" t="s">
         <v>80</v>
@@ -5325,7 +5525,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="61"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="27">
         <v>45</v>
       </c>
@@ -5334,7 +5534,7 @@
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="31" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F48" s="41" t="s">
         <v>82</v>
@@ -5346,7 +5546,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="61"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="27">
         <v>46</v>
       </c>
@@ -5357,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F49" s="41" t="s">
         <v>67</v>
@@ -5369,7 +5569,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="61"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="27">
         <v>47</v>
       </c>
@@ -5378,7 +5578,7 @@
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="31" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F50" s="45" t="s">
         <v>69</v>

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3BAEB7-0315-40AC-80FA-FCD6E2CE0FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B3BA1F-AE41-45E4-B5C2-FB58C8F4785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -1255,249 +1255,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">蒙古
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>乌布苏省</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">蒙古
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>扎布汗省</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">蒙古
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>色楞格省</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">蒙古
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>库苏古尔省</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>俄罗斯-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>伊尔库茨克州</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>俄罗斯-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>布里亚特共和国</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>俄罗斯-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>后贝加尔边疆区</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">俄罗斯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>阿穆尔州</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>俄罗斯-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>哈巴罗夫斯克边疆区</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">俄罗斯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>犹太自治州</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">俄罗斯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>图瓦共和国</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">俄罗斯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>阿尔泰共和国</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">蒙古
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>乌兰巴托市</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">新疆
 </t>
     </r>
@@ -1550,6 +1307,249 @@
         <scheme val="minor"/>
       </rPr>
       <t>呼伦贝尔市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">蒙古
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乌布苏省</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">蒙古
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扎布汗省</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">蒙古
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>色楞格省</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">蒙古
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库苏古尔省</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>俄罗斯-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伊尔库茨克州</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>俄罗斯-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布里亚特共和国</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>俄罗斯-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后贝加尔边疆区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阿穆尔州</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>俄罗斯-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哈巴罗夫斯克边疆区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>犹太自治州</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图瓦共和国</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阿尔泰共和国</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">蒙古
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乌兰巴托市</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1962,7 +1962,7 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color rgb="FFFFFF00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1971,7 +1971,7 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color rgb="FFFFFF00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2345,6 +2345,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF710000"/>
+      <color rgb="FFC36F09"/>
       <color rgb="FF63BE7B"/>
       <color rgb="FF4CC9F0"/>
       <color rgb="FF480CA8"/>
@@ -2353,8 +2355,6 @@
       <color rgb="FFD90429"/>
       <color rgb="FF6FFFE9"/>
       <color rgb="FF2D6A4F"/>
-      <color rgb="FF3F37C9"/>
-      <color rgb="FF560BAD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4496,8 +4496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B34FAF-8106-42B6-ACE5-F6D83E641FA4}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="33" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>109</v>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="33" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>12</v>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="33" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>13</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>14</v>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="33" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>15</v>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="33" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>109</v>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="33" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>195</v>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="33" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>17</v>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="30" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F12" s="42" t="s">
         <v>7</v>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="32" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>94</v>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="32" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>101</v>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="32" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>135</v>
@@ -4850,7 +4850,7 @@
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="30" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>86</v>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="28" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>88</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>136</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="28" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F19" s="39" t="s">
         <v>193</v>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="30" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>98</v>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="30" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>6</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="29" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F22" s="38" t="s">
         <v>5</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="30" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>107</v>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="33" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F24" s="44" t="s">
         <v>9</v>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="33" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F25" s="44" t="s">
         <v>105</v>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="33" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F26" s="49" t="s">
         <v>10</v>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="33" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F27" s="44" t="s">
         <v>11</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F28" s="41" t="s">
         <v>137</v>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="31" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F29" s="40" t="s">
         <v>194</v>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="31" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F30" s="47" t="s">
         <v>76</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F31" s="47" t="s">
         <v>103</v>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="31" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F42" s="41" t="s">
         <v>73</v>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="31" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F46" s="41" t="s">
         <v>78</v>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F49" s="41" t="s">
         <v>67</v>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="31" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F50" s="45" t="s">
         <v>69</v>

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B3BA1F-AE41-45E4-B5C2-FB58C8F4785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F9AF5D-A26C-4BF4-8087-714C6010B1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
   <sheets>
     <sheet name="详细信息表" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="251">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -628,9 +628,6 @@
     <t>谢列姆贾盆地</t>
   </si>
   <si>
-    <t>小兴安岭</t>
-  </si>
-  <si>
     <t>肯特山</t>
   </si>
   <si>
@@ -646,24 +643,9 @@
     <t>天山</t>
   </si>
   <si>
-    <t>贝加尔湖西岸</t>
-  </si>
-  <si>
     <t>青藏高原</t>
   </si>
   <si>
-    <t>雅布洛诺夫山</t>
-  </si>
-  <si>
-    <t>呼伦贝尔高原</t>
-  </si>
-  <si>
-    <t>贝加尔湖东岸</t>
-  </si>
-  <si>
-    <t>长白山</t>
-  </si>
-  <si>
     <t>唐努乌拉山、萨彦岭、叶尼塞河</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,27 +692,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杭爱山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乌布苏湖盆地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>达尔哈德盆地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图瓦盆地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>松花江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1553,6 +1519,123 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>杭爱山
+伊德尔河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭爱山
+扎布汗河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达尔哈德盆地
+库苏古尔湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴安岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴安岭
+额尔古纳河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴安岭
+黑龙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小兴安岭
+黑龙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山
+巴里坤湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴安岭
+呼伦贝尔高原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔泰山
+克兰河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">天山
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>巴音布鲁克盆地</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长白山
+辉发河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">阿尔泰山
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>科什阿加奇盆地</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布列亚山
+布列亚河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图瓦盆地
+叶尼塞河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅布洛诺夫山
+阿马扎尔河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝加尔湖西岸
+勒拿河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝加尔湖东岸
+巴尔古津河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1561,7 +1644,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1977,8 +2060,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2006,6 +2098,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63BE7B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2150,7 +2248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2310,8 +2408,11 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2345,9 +2446,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF63BE7B"/>
       <color rgb="FF710000"/>
       <color rgb="FFC36F09"/>
-      <color rgb="FF63BE7B"/>
       <color rgb="FF4CC9F0"/>
       <color rgb="FF480CA8"/>
       <color rgb="FF3A0CA3"/>
@@ -2667,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0415808A-EC4F-404C-B30D-CD8F1C534364}">
   <dimension ref="A1:BH48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2737,8 +2838,12 @@
       <c r="F2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="4">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-33.5</v>
+      </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
       </c>
@@ -2752,149 +2857,149 @@
         <v>1</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BH2">TRANSPOSE(G2:G48)</f>
-        <v>0</v>
+        <v>-40.299999999999997</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-41.8</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-41.4</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-43.7</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-41.5</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-36.700000000000003</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-23.4</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-28.8</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-33.5</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-39.299999999999997</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>-41.8</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-33.6</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>-35.5</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>-44.7</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>-37.799999999999997</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>-36.6</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>-40.5</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-31.3</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-31.9</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>-29.5</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-21.6</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-22.7</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>-28.3</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>-15.9</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>-28.2</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>-22.7</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>-20.9</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>-28.9</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>-23.5</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>-23.5</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>-31.5</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>-29.1</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>-14.7</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>-32.9</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>-29.1</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.4">
@@ -2914,8 +3019,12 @@
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="4">
+        <v>-41.8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-29.7</v>
+      </c>
       <c r="I3" s="6" t="s">
         <v>40</v>
       </c>
@@ -2929,149 +3038,149 @@
         <v>1</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BH3">TRANSPOSE(H2:H48)</f>
-        <v>0</v>
+        <v>-33.5</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-29.7</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>-24.8</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-33.200000000000003</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-29.8</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-18.899999999999999</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-29.9</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-20.6</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>-26.3</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>-27.9</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-29.3</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-26.3</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>-32.9</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>-14.1</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>-19.8</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>-15.1</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>-5.6</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>-6.2</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>-14.1</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>-11.4</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>-8.6</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>-8.9</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>-21.8</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>-14.7</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>-15.2</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>-15.1</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="BG3">
-        <v>0</v>
+        <v>-18.2</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>-20.9</v>
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.4">
@@ -3091,8 +3200,12 @@
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4">
+        <v>-41.4</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-24.8</v>
+      </c>
       <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
@@ -3123,8 +3236,12 @@
       <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4">
+        <v>-34</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-22</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>38</v>
       </c>
@@ -3138,13 +3255,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.4">
@@ -3164,8 +3281,12 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="4">
+        <v>-43.7</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-33.200000000000003</v>
+      </c>
       <c r="I6" s="6" t="s">
         <v>117</v>
       </c>
@@ -3179,13 +3300,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="N6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="O6" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.4">
@@ -3205,8 +3326,12 @@
       <c r="F7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4">
+        <v>-41.5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-32.200000000000003</v>
+      </c>
       <c r="I7" s="6" t="s">
         <v>40</v>
       </c>
@@ -3220,13 +3345,13 @@
         <v>3</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="O7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:60" ht="27.75" x14ac:dyDescent="0.4">
@@ -3244,10 +3369,14 @@
         <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-42</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-34</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>115</v>
       </c>
@@ -3261,13 +3390,13 @@
         <v>3</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="N8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="O8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="27.75" x14ac:dyDescent="0.4">
@@ -3287,8 +3416,12 @@
       <c r="F9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="4">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-29.8</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>113</v>
       </c>
@@ -3319,8 +3452,12 @@
       <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="4">
+        <v>-23.4</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-18.399999999999999</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>120</v>
       </c>
@@ -3349,8 +3486,12 @@
       <c r="F11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="4">
+        <v>-23</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-18</v>
+      </c>
       <c r="I11" s="6" t="s">
         <v>119</v>
       </c>
@@ -3379,8 +3520,12 @@
       <c r="F12" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="4">
+        <v>-28.8</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-18.899999999999999</v>
+      </c>
       <c r="I12" s="6" t="s">
         <v>100</v>
       </c>
@@ -3409,8 +3554,12 @@
       <c r="F13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="4">
+        <v>-33.5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-20.399999999999999</v>
+      </c>
       <c r="I13" s="6" t="s">
         <v>54</v>
       </c>
@@ -3439,8 +3588,12 @@
       <c r="F14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="4">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-29.9</v>
+      </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
@@ -3469,8 +3622,12 @@
       <c r="F15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="4">
+        <v>-39</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-20.6</v>
+      </c>
       <c r="I15" s="6" t="s">
         <v>28</v>
       </c>
@@ -3499,8 +3656,12 @@
       <c r="F16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="4">
+        <v>-41.8</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-26.3</v>
+      </c>
       <c r="I16" s="6" t="s">
         <v>28</v>
       </c>
@@ -3527,10 +3688,14 @@
         <v>29</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-37.5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-27.9</v>
+      </c>
       <c r="I17" s="6" t="s">
         <v>32</v>
       </c>
@@ -3559,8 +3724,12 @@
       <c r="F18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="4">
+        <v>-33.6</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-18.399999999999999</v>
+      </c>
       <c r="I18" s="6" t="s">
         <v>96</v>
       </c>
@@ -3589,10 +3758,14 @@
       <c r="F19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="4">
+        <v>-35.5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-29.3</v>
+      </c>
       <c r="I19" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>128</v>
@@ -3619,8 +3792,12 @@
       <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="4">
+        <v>-44.7</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-32.5</v>
+      </c>
       <c r="I20" s="6" t="s">
         <v>22</v>
       </c>
@@ -3649,8 +3826,12 @@
       <c r="F21" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="G21" s="4">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-26.3</v>
+      </c>
       <c r="I21" s="6" t="s">
         <v>114</v>
       </c>
@@ -3679,8 +3860,12 @@
       <c r="F22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="G22" s="4">
+        <v>-36.6</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-31</v>
+      </c>
       <c r="I22" s="6" t="s">
         <v>113</v>
       </c>
@@ -3709,8 +3894,12 @@
       <c r="F23" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="G23" s="4">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="H23" s="4">
+        <v>-26</v>
+      </c>
       <c r="I23" s="6" t="s">
         <v>115</v>
       </c>
@@ -3739,8 +3928,12 @@
       <c r="F24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="G24" s="4">
+        <v>-40.5</v>
+      </c>
+      <c r="H24" s="4">
+        <v>-32.9</v>
+      </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
       </c>
@@ -3769,8 +3962,12 @@
       <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="G25" s="4">
+        <v>-24</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-14.1</v>
+      </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
@@ -3801,8 +3998,12 @@
       <c r="F26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="G26" s="4">
+        <v>-31.3</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-13</v>
+      </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
       </c>
@@ -3829,10 +4030,14 @@
         <v>18</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="G27" s="4">
+        <v>-31.9</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-17.399999999999999</v>
+      </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
       </c>
@@ -3861,8 +4066,12 @@
       <c r="F28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="4">
+        <v>-29.5</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-19.8</v>
+      </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
       </c>
@@ -3893,8 +4102,12 @@
       <c r="F29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="G29" s="4">
+        <v>-21.6</v>
+      </c>
+      <c r="H29" s="4">
+        <v>-9.6999999999999993</v>
+      </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
       </c>
@@ -3923,8 +4136,12 @@
       <c r="F30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="G30" s="4">
+        <v>-22.7</v>
+      </c>
+      <c r="H30" s="4">
+        <v>-16.600000000000001</v>
+      </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
       </c>
@@ -3955,8 +4172,12 @@
       <c r="F31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="4">
+        <v>-28.3</v>
+      </c>
+      <c r="H31" s="4">
+        <v>-15.1</v>
+      </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
       </c>
@@ -3985,8 +4206,12 @@
       <c r="F32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="G32" s="4">
+        <v>-15.9</v>
+      </c>
+      <c r="H32" s="4">
+        <v>-5.6</v>
+      </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
         <v>129</v>
@@ -4013,8 +4238,12 @@
       <c r="F33" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="G33" s="4">
+        <v>-28.2</v>
+      </c>
+      <c r="H33" s="4">
+        <v>-6.2</v>
+      </c>
       <c r="I33" s="6"/>
       <c r="J33" s="14" t="s">
         <v>131</v>
@@ -4043,8 +4272,12 @@
       <c r="F34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="G34" s="4">
+        <v>-22.7</v>
+      </c>
+      <c r="H34" s="4">
+        <v>-14.1</v>
+      </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
         <v>131</v>
@@ -4073,8 +4306,12 @@
       <c r="F35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="4">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="H35" s="4">
+        <v>-11.4</v>
+      </c>
       <c r="I35" s="6" t="s">
         <v>47</v>
       </c>
@@ -4105,8 +4342,12 @@
       <c r="F36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="G36" s="4">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="H36" s="4">
+        <v>-8.6</v>
+      </c>
       <c r="I36" s="6" t="s">
         <v>45</v>
       </c>
@@ -4137,8 +4378,12 @@
       <c r="F37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="G37" s="4">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="H37" s="4">
+        <v>-7.4</v>
+      </c>
       <c r="I37" s="6"/>
       <c r="J37" s="14" t="s">
         <v>130</v>
@@ -4167,8 +4412,12 @@
       <c r="F38" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="G38" s="4">
+        <v>-20.9</v>
+      </c>
+      <c r="H38" s="4">
+        <v>-8.9</v>
+      </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
         <v>130</v>
@@ -4197,8 +4446,12 @@
       <c r="F39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="G39" s="4">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="H39" s="4">
+        <v>-21.8</v>
+      </c>
       <c r="I39" s="6" t="s">
         <v>43</v>
       </c>
@@ -4227,8 +4480,12 @@
       <c r="F40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="G40" s="4">
+        <v>-28.9</v>
+      </c>
+      <c r="H40" s="4">
+        <v>-14.7</v>
+      </c>
       <c r="I40" s="6" t="s">
         <v>2</v>
       </c>
@@ -4257,8 +4514,12 @@
       <c r="F41" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="G41" s="4">
+        <v>-27</v>
+      </c>
+      <c r="H41" s="4">
+        <v>-17.600000000000001</v>
+      </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
       </c>
@@ -4287,8 +4548,12 @@
       <c r="F42" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="G42" s="4">
+        <v>-23.5</v>
+      </c>
+      <c r="H42" s="4">
+        <v>-1.9</v>
+      </c>
       <c r="I42" s="6" t="s">
         <v>65</v>
       </c>
@@ -4317,8 +4582,12 @@
       <c r="F43" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="G43" s="4">
+        <v>-23.5</v>
+      </c>
+      <c r="H43" s="4">
+        <v>-1.9</v>
+      </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
       </c>
@@ -4347,8 +4616,12 @@
       <c r="F44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="G44" s="4">
+        <v>-31.5</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-15.2</v>
+      </c>
       <c r="I44" s="6" t="s">
         <v>22</v>
       </c>
@@ -4377,8 +4650,12 @@
       <c r="F45" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="G45" s="4">
+        <v>-29.1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-15.1</v>
+      </c>
       <c r="I45" s="6" t="s">
         <v>21</v>
       </c>
@@ -4407,8 +4684,12 @@
       <c r="F46" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="G46" s="4">
+        <v>-14.7</v>
+      </c>
+      <c r="H46" s="4">
+        <v>-3</v>
+      </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
       </c>
@@ -4439,8 +4720,12 @@
       <c r="F47" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="G47" s="4">
+        <v>-32.9</v>
+      </c>
+      <c r="H47" s="4">
+        <v>-18.2</v>
+      </c>
       <c r="I47" s="6" t="s">
         <v>2</v>
       </c>
@@ -4469,8 +4754,12 @@
       <c r="F48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="G48" s="4">
+        <v>-29.1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>-20.9</v>
+      </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
       </c>
@@ -4496,8 +4785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B34FAF-8106-42B6-ACE5-F6D83E641FA4}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4512,51 +4801,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="61"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="59">
-        <v>45651</v>
-      </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="57" t="s">
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="60">
+        <v>45653</v>
+      </c>
+      <c r="G1" s="61"/>
+      <c r="H1" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="59"/>
+    </row>
+    <row r="2" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="56"/>
+      <c r="K2" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="58"/>
-    </row>
-    <row r="2" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="K2" s="21" t="s">
-        <v>188</v>
-      </c>
       <c r="L2" s="51" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="52" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>126</v>
@@ -4565,1033 +4854,1221 @@
         <v>0</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>116</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L3" s="51" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="27">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27">
+        <v>19</v>
+      </c>
+      <c r="C4" s="54">
+        <v>2</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="37">
+        <v>-44.7</v>
+      </c>
+      <c r="H4" s="37">
+        <v>-32.5</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="55"/>
+      <c r="B5" s="27">
+        <v>5</v>
+      </c>
+      <c r="C5" s="54">
         <v>3</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="54"/>
-      <c r="B5" s="27">
+      <c r="D5" s="54">
+        <v>0</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="37">
+        <v>-43.7</v>
+      </c>
+      <c r="H5" s="37">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="55"/>
+      <c r="B6" s="27">
+        <v>7</v>
+      </c>
+      <c r="C6" s="54">
+        <v>3</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="37">
+        <v>-42</v>
+      </c>
+      <c r="H6" s="37">
+        <v>-34</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="55"/>
+      <c r="B7" s="27">
         <v>2</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C7" s="54">
         <v>3</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="44" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="35" t="s">
+      <c r="G7" s="37">
+        <v>-41.8</v>
+      </c>
+      <c r="H7" s="37">
+        <v>-29.7</v>
+      </c>
+      <c r="I7" s="35" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="54"/>
-      <c r="B6" s="27">
-        <v>3</v>
-      </c>
-      <c r="C6" s="27">
-        <v>3</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="54"/>
-      <c r="B7" s="27">
-        <v>4</v>
-      </c>
-      <c r="C7" s="27">
-        <v>3</v>
-      </c>
-      <c r="D7" s="27">
-        <v>0</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="35" t="s">
-        <v>156</v>
-      </c>
-    </row>
     <row r="8" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="27">
-        <v>5</v>
-      </c>
-      <c r="C8" s="27">
-        <v>3</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="F8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="C8" s="54">
+        <v>2</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="37">
+        <v>-41.8</v>
+      </c>
+      <c r="H8" s="37">
+        <v>-26.3</v>
+      </c>
       <c r="I8" s="35" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="27">
         <v>6</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="54">
         <v>3</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="33" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="G9" s="37">
+        <v>-41.5</v>
+      </c>
+      <c r="H9" s="37">
+        <v>-32.200000000000003</v>
+      </c>
       <c r="I9" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="27">
-        <v>7</v>
-      </c>
-      <c r="C10" s="27">
         <v>3</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="C10" s="54">
+        <v>3</v>
+      </c>
+      <c r="D10" s="54"/>
       <c r="E10" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="37">
+        <v>-41.4</v>
+      </c>
+      <c r="H10" s="37">
+        <v>-24.8</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="55"/>
+      <c r="B11" s="27">
+        <v>23</v>
+      </c>
+      <c r="C11" s="54">
+        <v>3</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="37">
+        <v>-40.5</v>
+      </c>
+      <c r="H11" s="37">
+        <v>-32.9</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="55"/>
+      <c r="B12" s="27">
+        <v>1</v>
+      </c>
+      <c r="C12" s="54">
+        <v>3</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="37">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="H12" s="37">
+        <v>-33.5</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="55"/>
+      <c r="B13" s="27">
+        <v>13</v>
+      </c>
+      <c r="C13" s="54">
+        <v>2</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="37">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="H13" s="37">
+        <v>-29.9</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="55"/>
+      <c r="B14" s="27">
+        <v>14</v>
+      </c>
+      <c r="C14" s="54">
+        <v>2</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="37">
+        <v>-39</v>
+      </c>
+      <c r="H14" s="37">
+        <v>-20.6</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="55"/>
+      <c r="B15" s="27">
+        <v>20</v>
+      </c>
+      <c r="C15" s="54">
+        <v>2</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="35" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="54"/>
-      <c r="B11" s="27">
+      <c r="F15" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="37">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="H15" s="37">
+        <v>-26.3</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="55"/>
+      <c r="B16" s="27">
+        <v>16</v>
+      </c>
+      <c r="C16" s="54">
+        <v>2</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="37">
+        <v>-37.5</v>
+      </c>
+      <c r="H16" s="37">
+        <v>-27.9</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="55"/>
+      <c r="B17" s="27">
         <v>8</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C17" s="54">
         <v>3</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="F11" s="44" t="s">
+      <c r="D17" s="54"/>
+      <c r="E17" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="54"/>
-      <c r="B12" s="27">
+      <c r="G17" s="37">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="H17" s="37">
+        <v>-29.8</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="55"/>
+      <c r="B18" s="27">
+        <v>21</v>
+      </c>
+      <c r="C18" s="54">
+        <v>3</v>
+      </c>
+      <c r="D18" s="54"/>
+      <c r="E18" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="27">
+      <c r="G18" s="37">
+        <v>-36.6</v>
+      </c>
+      <c r="H18" s="37">
+        <v>-31</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="55"/>
+      <c r="B19" s="27">
+        <v>38</v>
+      </c>
+      <c r="C19" s="54">
+        <v>1</v>
+      </c>
+      <c r="D19" s="54">
+        <v>0</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="37">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="H19" s="37">
+        <v>-21.8</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="55"/>
+      <c r="B20" s="27">
+        <v>18</v>
+      </c>
+      <c r="C20" s="54">
         <v>2</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="54"/>
-      <c r="B13" s="27">
-        <v>10</v>
-      </c>
-      <c r="C13" s="27">
+      <c r="D20" s="54"/>
+      <c r="E20" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="37">
+        <v>-35.5</v>
+      </c>
+      <c r="H20" s="37">
+        <v>-29.3</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="55"/>
+      <c r="B21" s="27">
+        <v>22</v>
+      </c>
+      <c r="C21" s="54">
+        <v>3</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="37">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="H21" s="37">
+        <v>-26</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="55"/>
+      <c r="B22" s="27">
+        <v>4</v>
+      </c>
+      <c r="C22" s="54">
+        <v>3</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="E22" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="37">
+        <v>-34</v>
+      </c>
+      <c r="H22" s="37">
+        <v>-22</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="55"/>
+      <c r="B23" s="27">
+        <v>17</v>
+      </c>
+      <c r="C23" s="54">
         <v>2</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="54"/>
-      <c r="B14" s="27">
-        <v>11</v>
-      </c>
-      <c r="C14" s="27">
+      <c r="D23" s="54"/>
+      <c r="E23" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="37">
+        <v>-33.6</v>
+      </c>
+      <c r="H23" s="37">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="55"/>
+      <c r="B24" s="27">
+        <v>12</v>
+      </c>
+      <c r="C24" s="54">
         <v>2</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32" t="s">
+      <c r="D24" s="54"/>
+      <c r="E24" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="37">
+        <v>-33.5</v>
+      </c>
+      <c r="H24" s="37">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="55"/>
+      <c r="B25" s="27">
+        <v>46</v>
+      </c>
+      <c r="C25" s="54">
+        <v>1</v>
+      </c>
+      <c r="D25" s="54">
+        <v>0</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="37">
+        <v>-32.9</v>
+      </c>
+      <c r="H25" s="37">
+        <v>-18.2</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="55"/>
+      <c r="B26" s="27">
+        <v>26</v>
+      </c>
+      <c r="C26" s="54">
+        <v>1</v>
+      </c>
+      <c r="D26" s="54"/>
+      <c r="E26" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="37">
+        <v>-31.9</v>
+      </c>
+      <c r="H26" s="37">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="I26" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="54"/>
-      <c r="B15" s="27">
-        <v>12</v>
-      </c>
-      <c r="C15" s="27">
-        <v>2</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="54"/>
-      <c r="B16" s="27">
-        <v>13</v>
-      </c>
-      <c r="C16" s="27">
-        <v>2</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="54"/>
-      <c r="B17" s="27">
-        <v>14</v>
-      </c>
-      <c r="C17" s="27">
-        <v>2</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="54"/>
-      <c r="B18" s="27">
-        <v>15</v>
-      </c>
-      <c r="C18" s="27">
-        <v>2</v>
-      </c>
-      <c r="D18" s="27">
-        <v>0</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="54"/>
-      <c r="B19" s="27">
-        <v>16</v>
-      </c>
-      <c r="C19" s="27">
-        <v>2</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="54"/>
-      <c r="B20" s="27">
-        <v>17</v>
-      </c>
-      <c r="C20" s="27">
-        <v>2</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="54"/>
-      <c r="B21" s="27">
-        <v>18</v>
-      </c>
-      <c r="C21" s="27">
-        <v>2</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="54"/>
-      <c r="B22" s="27">
-        <v>19</v>
-      </c>
-      <c r="C22" s="27">
-        <v>2</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="54"/>
-      <c r="B23" s="27">
-        <v>20</v>
-      </c>
-      <c r="C23" s="27">
-        <v>2</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="54"/>
-      <c r="B24" s="27">
-        <v>21</v>
-      </c>
-      <c r="C24" s="27">
-        <v>3</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="54"/>
-      <c r="B25" s="27">
-        <v>22</v>
-      </c>
-      <c r="C25" s="27">
-        <v>3</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="35" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="54"/>
-      <c r="B26" s="27">
-        <v>23</v>
-      </c>
-      <c r="C26" s="27">
-        <v>3</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="35" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="27">
-        <v>24</v>
-      </c>
-      <c r="C27" s="27">
-        <v>3</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+        <v>43</v>
+      </c>
+      <c r="C27" s="54">
+        <v>1</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="37">
+        <v>-31.5</v>
+      </c>
+      <c r="H27" s="37">
+        <v>-15.2</v>
+      </c>
       <c r="I27" s="35" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="27">
         <v>25</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="54">
         <v>1</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="54">
         <v>0</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F28" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="G28" s="37">
+        <v>-31.3</v>
+      </c>
+      <c r="H28" s="37">
+        <v>-13</v>
+      </c>
       <c r="I28" s="35" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="27">
-        <v>26</v>
-      </c>
-      <c r="C29" s="27">
+        <v>27</v>
+      </c>
+      <c r="C29" s="54">
         <v>1</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+        <v>219</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="37">
+        <v>-29.5</v>
+      </c>
+      <c r="H29" s="37">
+        <v>-19.8</v>
+      </c>
       <c r="I29" s="35" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="27">
-        <v>27</v>
-      </c>
-      <c r="C30" s="27">
+        <v>47</v>
+      </c>
+      <c r="C30" s="54">
         <v>1</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+        <v>219</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="37">
+        <v>-29.1</v>
+      </c>
+      <c r="H30" s="37">
+        <v>-20.9</v>
+      </c>
       <c r="I30" s="35" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="27">
-        <v>28</v>
-      </c>
-      <c r="C31" s="27">
+        <v>44</v>
+      </c>
+      <c r="C31" s="54">
         <v>1</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="54"/>
+      <c r="E31" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="37">
+        <v>-29.1</v>
+      </c>
+      <c r="H31" s="37">
+        <v>-15.1</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="55"/>
+      <c r="B32" s="27">
+        <v>39</v>
+      </c>
+      <c r="C32" s="54">
+        <v>1</v>
+      </c>
+      <c r="D32" s="54"/>
+      <c r="E32" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="37">
+        <v>-28.9</v>
+      </c>
+      <c r="H32" s="37">
+        <v>-14.7</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="55"/>
+      <c r="B33" s="27">
+        <v>11</v>
+      </c>
+      <c r="C33" s="54">
+        <v>2</v>
+      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="37">
+        <v>-28.8</v>
+      </c>
+      <c r="H33" s="37">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="55"/>
+      <c r="B34" s="27">
+        <v>30</v>
+      </c>
+      <c r="C34" s="54">
+        <v>1</v>
+      </c>
+      <c r="D34" s="54">
         <v>0</v>
       </c>
-      <c r="E31" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="54"/>
-      <c r="B32" s="27">
-        <v>29</v>
-      </c>
-      <c r="C32" s="27">
-        <v>1</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="54"/>
-      <c r="B33" s="27">
-        <v>30</v>
-      </c>
-      <c r="C33" s="27">
-        <v>1</v>
-      </c>
-      <c r="D33" s="27">
-        <v>0</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="F33" s="50" t="s">
+      <c r="E34" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="54"/>
-      <c r="B34" s="27">
-        <v>31</v>
-      </c>
-      <c r="C34" s="27">
-        <v>1</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
+      <c r="G34" s="37">
+        <v>-28.3</v>
+      </c>
+      <c r="H34" s="37">
+        <v>-15.1</v>
+      </c>
       <c r="I34" s="35" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="54"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="27">
         <v>32</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="54">
         <v>1</v>
       </c>
-      <c r="D35" s="27"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="31" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F35" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
+      <c r="G35" s="37">
+        <v>-28.2</v>
+      </c>
+      <c r="H35" s="37">
+        <v>-6.2</v>
+      </c>
       <c r="I35" s="35"/>
     </row>
     <row r="36" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="54"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="27">
+        <v>40</v>
+      </c>
+      <c r="C36" s="54">
+        <v>1</v>
+      </c>
+      <c r="D36" s="54"/>
+      <c r="E36" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="37">
+        <v>-27</v>
+      </c>
+      <c r="H36" s="37">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="55"/>
+      <c r="B37" s="27">
+        <v>24</v>
+      </c>
+      <c r="C37" s="54">
+        <v>3</v>
+      </c>
+      <c r="D37" s="54"/>
+      <c r="E37" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="37">
+        <v>-24</v>
+      </c>
+      <c r="H37" s="37">
+        <v>-14.1</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="55"/>
+      <c r="B38" s="27">
+        <v>41</v>
+      </c>
+      <c r="C38" s="54">
+        <v>1</v>
+      </c>
+      <c r="D38" s="54"/>
+      <c r="E38" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="37">
+        <v>-23.5</v>
+      </c>
+      <c r="H38" s="37">
+        <v>-1.9</v>
+      </c>
+      <c r="I38" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="55"/>
+      <c r="B39" s="27">
+        <v>42</v>
+      </c>
+      <c r="C39" s="54">
+        <v>1</v>
+      </c>
+      <c r="D39" s="54"/>
+      <c r="E39" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="37">
+        <v>-23.5</v>
+      </c>
+      <c r="H39" s="37">
+        <v>-1.9</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="55"/>
+      <c r="B40" s="27">
+        <v>9</v>
+      </c>
+      <c r="C40" s="54">
+        <v>2</v>
+      </c>
+      <c r="D40" s="54"/>
+      <c r="E40" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="37">
+        <v>-23.4</v>
+      </c>
+      <c r="H40" s="37">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="55"/>
+      <c r="B41" s="27">
+        <v>10</v>
+      </c>
+      <c r="C41" s="54">
+        <v>2</v>
+      </c>
+      <c r="D41" s="54"/>
+      <c r="E41" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="37">
+        <v>-23</v>
+      </c>
+      <c r="H41" s="37">
+        <v>-18</v>
+      </c>
+      <c r="I41" s="35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="55"/>
+      <c r="B42" s="27">
+        <v>29</v>
+      </c>
+      <c r="C42" s="54">
+        <v>1</v>
+      </c>
+      <c r="D42" s="54"/>
+      <c r="E42" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="37">
+        <v>-22.7</v>
+      </c>
+      <c r="H42" s="37">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="55"/>
+      <c r="B43" s="27">
         <v>33</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C43" s="54">
         <v>1</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D43" s="54">
         <v>0</v>
       </c>
-      <c r="E36" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="F36" s="41" t="s">
+      <c r="E43" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="54"/>
-      <c r="B37" s="27">
+      <c r="G43" s="37">
+        <v>-22.7</v>
+      </c>
+      <c r="H43" s="37">
+        <v>-14.1</v>
+      </c>
+      <c r="I43" s="35"/>
+    </row>
+    <row r="44" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="55"/>
+      <c r="B44" s="27">
+        <v>28</v>
+      </c>
+      <c r="C44" s="54">
+        <v>1</v>
+      </c>
+      <c r="D44" s="54">
+        <v>0</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="37">
+        <v>-21.6</v>
+      </c>
+      <c r="H44" s="37">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="I44" s="35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="55"/>
+      <c r="B45" s="27">
+        <v>37</v>
+      </c>
+      <c r="C45" s="54">
+        <v>1</v>
+      </c>
+      <c r="D45" s="54">
+        <v>0</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="37">
+        <v>-20.9</v>
+      </c>
+      <c r="H45" s="37">
+        <v>-8.9</v>
+      </c>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="55"/>
+      <c r="B46" s="27">
+        <v>36</v>
+      </c>
+      <c r="C46" s="54">
+        <v>1</v>
+      </c>
+      <c r="D46" s="54">
+        <v>0</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="37">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="H46" s="37">
+        <v>-7.4</v>
+      </c>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="55"/>
+      <c r="B47" s="27">
         <v>34</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C47" s="54">
         <v>1</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D47" s="54">
         <v>0</v>
       </c>
-      <c r="E37" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" s="47" t="s">
+      <c r="E47" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="54"/>
-      <c r="B38" s="27">
+      <c r="G47" s="37">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="H47" s="37">
+        <v>-11.4</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="55"/>
+      <c r="B48" s="27">
         <v>35</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C48" s="54">
         <v>1</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D48" s="54">
         <v>0</v>
       </c>
-      <c r="E38" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="F38" s="41" t="s">
+      <c r="E48" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="54"/>
-      <c r="B39" s="27">
-        <v>36</v>
-      </c>
-      <c r="C39" s="27">
+      <c r="G48" s="37">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="H48" s="37">
+        <v>-8.6</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="55"/>
+      <c r="B49" s="27">
+        <v>31</v>
+      </c>
+      <c r="C49" s="54">
         <v>1</v>
       </c>
-      <c r="D39" s="27">
-        <v>0</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="35"/>
-    </row>
-    <row r="40" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="54"/>
-      <c r="B40" s="27">
-        <v>37</v>
-      </c>
-      <c r="C40" s="27">
+      <c r="D49" s="54"/>
+      <c r="E49" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="37">
+        <v>-15.9</v>
+      </c>
+      <c r="H49" s="37">
+        <v>-5.6</v>
+      </c>
+      <c r="I49" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="55"/>
+      <c r="B50" s="27">
+        <v>45</v>
+      </c>
+      <c r="C50" s="54">
         <v>1</v>
       </c>
-      <c r="D40" s="27">
-        <v>0</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="35"/>
-    </row>
-    <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="54"/>
-      <c r="B41" s="27">
-        <v>38</v>
-      </c>
-      <c r="C41" s="27">
-        <v>1</v>
-      </c>
-      <c r="D41" s="27">
-        <v>0</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="54"/>
-      <c r="B42" s="27">
-        <v>39</v>
-      </c>
-      <c r="C42" s="27">
-        <v>1</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="F42" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="54"/>
-      <c r="B43" s="27">
-        <v>40</v>
-      </c>
-      <c r="C43" s="27">
-        <v>1</v>
-      </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="F43" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="54"/>
-      <c r="B44" s="27">
-        <v>41</v>
-      </c>
-      <c r="C44" s="27">
-        <v>1</v>
-      </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="54"/>
-      <c r="B45" s="27">
-        <v>42</v>
-      </c>
-      <c r="C45" s="27">
-        <v>1</v>
-      </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="F45" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="54"/>
-      <c r="B46" s="27">
-        <v>43</v>
-      </c>
-      <c r="C46" s="27">
-        <v>1</v>
-      </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="54"/>
-      <c r="B47" s="27">
-        <v>44</v>
-      </c>
-      <c r="C47" s="27">
-        <v>1</v>
-      </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="F47" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="54"/>
-      <c r="B48" s="27">
-        <v>45</v>
-      </c>
-      <c r="C48" s="27">
-        <v>1</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="F48" s="41" t="s">
+      <c r="D50" s="54"/>
+      <c r="E50" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="54"/>
-      <c r="B49" s="27">
-        <v>46</v>
-      </c>
-      <c r="C49" s="27">
-        <v>1</v>
-      </c>
-      <c r="D49" s="27">
-        <v>0</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="54"/>
-      <c r="B50" s="27">
-        <v>47</v>
-      </c>
-      <c r="C50" s="27">
-        <v>1</v>
-      </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+      <c r="G50" s="37">
+        <v>-14.7</v>
+      </c>
+      <c r="H50" s="37">
+        <v>-3</v>
+      </c>
       <c r="I50" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I50">
-    <sortCondition ref="B4:B50"/>
+    <sortCondition ref="G4:G50"/>
     <sortCondition ref="H4:H50"/>
     <sortCondition ref="I4:I50"/>
   </sortState>
@@ -5637,7 +6114,7 @@
   <dimension ref="A1:AV79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5650,7 +6127,7 @@
         <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -5665,7 +6142,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
@@ -6087,15 +6564,438 @@
       <c r="A4" s="16">
         <v>45651</v>
       </c>
+      <c r="B4">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="C4">
+        <v>-41.8</v>
+      </c>
+      <c r="D4">
+        <v>-39</v>
+      </c>
+      <c r="E4">
+        <v>-31</v>
+      </c>
+      <c r="F4">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="G4">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="H4">
+        <v>-38</v>
+      </c>
+      <c r="I4">
+        <v>-35</v>
+      </c>
+      <c r="J4">
+        <v>-27.7</v>
+      </c>
+      <c r="K4">
+        <v>-22.2</v>
+      </c>
+      <c r="L4">
+        <v>-27.8</v>
+      </c>
+      <c r="M4">
+        <v>-35.9</v>
+      </c>
+      <c r="N4">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="O4">
+        <v>-39.1</v>
+      </c>
+      <c r="P4">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="Q4">
+        <v>-35.5</v>
+      </c>
+      <c r="R4">
+        <v>-25.3</v>
+      </c>
+      <c r="S4">
+        <v>-31.8</v>
+      </c>
+      <c r="T4">
+        <v>-37</v>
+      </c>
+      <c r="U4">
+        <v>-33.1</v>
+      </c>
+      <c r="V4">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="W4">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="X4">
+        <v>-37.1</v>
+      </c>
+      <c r="Y4">
+        <v>-22.8</v>
+      </c>
+      <c r="Z4">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="AA4">
+        <v>-34.5</v>
+      </c>
+      <c r="AB4">
+        <v>-25.4</v>
+      </c>
+      <c r="AC4">
+        <v>-24.4</v>
+      </c>
+      <c r="AD4">
+        <v>-15.5</v>
+      </c>
+      <c r="AE4">
+        <v>-18.2</v>
+      </c>
+      <c r="AF4">
+        <v>-14</v>
+      </c>
+      <c r="AG4">
+        <v>-18.5</v>
+      </c>
+      <c r="AH4">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="AI4">
+        <v>-14.6</v>
+      </c>
+      <c r="AJ4">
+        <v>-17.8</v>
+      </c>
+      <c r="AK4">
+        <v>-12</v>
+      </c>
+      <c r="AL4">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AM4">
+        <v>-28</v>
+      </c>
+      <c r="AN4">
+        <v>-35.6</v>
+      </c>
+      <c r="AO4">
+        <v>-22.2</v>
+      </c>
+      <c r="AP4">
+        <v>-14.2</v>
+      </c>
+      <c r="AQ4">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="AR4">
+        <v>-29.6</v>
+      </c>
+      <c r="AS4">
+        <v>-26.4</v>
+      </c>
+      <c r="AT4">
+        <v>-13</v>
+      </c>
+      <c r="AU4">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="AV4">
+        <v>-32.9</v>
+      </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
         <v>45652</v>
       </c>
+      <c r="B5">
+        <v>-38.1</v>
+      </c>
+      <c r="C5">
+        <v>-41</v>
+      </c>
+      <c r="D5">
+        <v>-41.4</v>
+      </c>
+      <c r="E5">
+        <v>-33</v>
+      </c>
+      <c r="F5">
+        <v>-41.9</v>
+      </c>
+      <c r="G5">
+        <v>-42.4</v>
+      </c>
+      <c r="H5">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="I5">
+        <v>-35.6</v>
+      </c>
+      <c r="J5">
+        <v>-28.2</v>
+      </c>
+      <c r="K5">
+        <v>-26.8</v>
+      </c>
+      <c r="L5">
+        <v>-23.8</v>
+      </c>
+      <c r="M5">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="N5">
+        <v>-37.1</v>
+      </c>
+      <c r="O5">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="P5">
+        <v>-38.9</v>
+      </c>
+      <c r="Q5">
+        <v>-36</v>
+      </c>
+      <c r="R5">
+        <v>-29.5</v>
+      </c>
+      <c r="S5">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="T5">
+        <v>-44.1</v>
+      </c>
+      <c r="U5">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="V5">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="W5">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="X5">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="Y5">
+        <v>-22.9</v>
+      </c>
+      <c r="Z5">
+        <v>-28.6</v>
+      </c>
+      <c r="AA5">
+        <v>-30.6</v>
+      </c>
+      <c r="AB5">
+        <v>-24.4</v>
+      </c>
+      <c r="AC5">
+        <v>-23.8</v>
+      </c>
+      <c r="AD5">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="AE5">
+        <v>-30.2</v>
+      </c>
+      <c r="AF5">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="AG5">
+        <v>-23.7</v>
+      </c>
+      <c r="AH5">
+        <v>-25.9</v>
+      </c>
+      <c r="AI5">
+        <v>-20.2</v>
+      </c>
+      <c r="AJ5">
+        <v>-14.5</v>
+      </c>
+      <c r="AK5">
+        <v>-16.2</v>
+      </c>
+      <c r="AL5">
+        <v>-22</v>
+      </c>
+      <c r="AM5">
+        <v>-31.6</v>
+      </c>
+      <c r="AN5">
+        <v>-34.5</v>
+      </c>
+      <c r="AO5">
+        <v>-29.3</v>
+      </c>
+      <c r="AP5">
+        <v>-26.4</v>
+      </c>
+      <c r="AQ5">
+        <v>-23.2</v>
+      </c>
+      <c r="AR5">
+        <v>-31.1</v>
+      </c>
+      <c r="AS5">
+        <v>-31.6</v>
+      </c>
+      <c r="AT5">
+        <v>-11.2</v>
+      </c>
+      <c r="AU5">
+        <v>-29</v>
+      </c>
+      <c r="AV5">
+        <v>-25.6</v>
+      </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
         <v>45653</v>
+      </c>
+      <c r="B6">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="C6">
+        <v>-41.8</v>
+      </c>
+      <c r="D6">
+        <v>-41.4</v>
+      </c>
+      <c r="E6">
+        <v>-34</v>
+      </c>
+      <c r="F6">
+        <v>-43.7</v>
+      </c>
+      <c r="G6">
+        <v>-41.5</v>
+      </c>
+      <c r="H6">
+        <v>-42</v>
+      </c>
+      <c r="I6">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="J6">
+        <v>-23.4</v>
+      </c>
+      <c r="K6">
+        <v>-23</v>
+      </c>
+      <c r="L6">
+        <v>-28.8</v>
+      </c>
+      <c r="M6">
+        <v>-33.5</v>
+      </c>
+      <c r="N6">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="O6">
+        <v>-39</v>
+      </c>
+      <c r="P6">
+        <v>-41.8</v>
+      </c>
+      <c r="Q6">
+        <v>-37.5</v>
+      </c>
+      <c r="R6">
+        <v>-33.6</v>
+      </c>
+      <c r="S6">
+        <v>-35.5</v>
+      </c>
+      <c r="T6">
+        <v>-44.7</v>
+      </c>
+      <c r="U6">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="V6">
+        <v>-36.6</v>
+      </c>
+      <c r="W6">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="X6">
+        <v>-40.5</v>
+      </c>
+      <c r="Y6">
+        <v>-24</v>
+      </c>
+      <c r="Z6">
+        <v>-31.3</v>
+      </c>
+      <c r="AA6">
+        <v>-31.9</v>
+      </c>
+      <c r="AB6">
+        <v>-29.5</v>
+      </c>
+      <c r="AC6">
+        <v>-21.6</v>
+      </c>
+      <c r="AD6">
+        <v>-22.7</v>
+      </c>
+      <c r="AE6">
+        <v>-28.3</v>
+      </c>
+      <c r="AF6">
+        <v>-15.9</v>
+      </c>
+      <c r="AG6">
+        <v>-28.2</v>
+      </c>
+      <c r="AH6">
+        <v>-22.7</v>
+      </c>
+      <c r="AI6">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="AJ6">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="AK6">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="AL6">
+        <v>-20.9</v>
+      </c>
+      <c r="AM6">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="AN6">
+        <v>-28.9</v>
+      </c>
+      <c r="AO6">
+        <v>-27</v>
+      </c>
+      <c r="AP6">
+        <v>-23.5</v>
+      </c>
+      <c r="AQ6">
+        <v>-23.5</v>
+      </c>
+      <c r="AR6">
+        <v>-31.5</v>
+      </c>
+      <c r="AS6">
+        <v>-29.1</v>
+      </c>
+      <c r="AT6">
+        <v>-14.7</v>
+      </c>
+      <c r="AU6">
+        <v>-32.9</v>
+      </c>
+      <c r="AV6">
+        <v>-29.1</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.4">
@@ -6454,7 +7354,7 @@
   <dimension ref="A1:AV79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6467,7 +7367,7 @@
         <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -6482,7 +7382,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
@@ -6904,15 +7804,438 @@
       <c r="A4" s="16">
         <v>45651</v>
       </c>
+      <c r="B4">
+        <v>-24.1</v>
+      </c>
+      <c r="C4">
+        <v>-25.7</v>
+      </c>
+      <c r="D4">
+        <v>-26</v>
+      </c>
+      <c r="E4">
+        <v>-20.9</v>
+      </c>
+      <c r="F4">
+        <v>-26.2</v>
+      </c>
+      <c r="G4">
+        <v>-26.2</v>
+      </c>
+      <c r="H4">
+        <v>-25.3</v>
+      </c>
+      <c r="I4">
+        <v>-28.5</v>
+      </c>
+      <c r="J4">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="K4">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="L4">
+        <v>-13.4</v>
+      </c>
+      <c r="M4">
+        <v>-22</v>
+      </c>
+      <c r="N4">
+        <v>-25.6</v>
+      </c>
+      <c r="O4">
+        <v>-22.2</v>
+      </c>
+      <c r="P4">
+        <v>-24.5</v>
+      </c>
+      <c r="Q4">
+        <v>-26.4</v>
+      </c>
+      <c r="R4">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="S4">
+        <v>-24.9</v>
+      </c>
+      <c r="T4">
+        <v>-26.4</v>
+      </c>
+      <c r="U4">
+        <v>-22.9</v>
+      </c>
+      <c r="V4">
+        <v>-27.5</v>
+      </c>
+      <c r="W4">
+        <v>-22.3</v>
+      </c>
+      <c r="X4">
+        <v>-23.1</v>
+      </c>
+      <c r="Y4">
+        <v>-15.2</v>
+      </c>
+      <c r="Z4">
+        <v>-21.8</v>
+      </c>
+      <c r="AA4">
+        <v>-16.2</v>
+      </c>
+      <c r="AB4">
+        <v>-14.6</v>
+      </c>
+      <c r="AC4">
+        <v>-14.1</v>
+      </c>
+      <c r="AD4">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="AE4">
+        <v>-11.2</v>
+      </c>
+      <c r="AF4">
+        <v>-5.7</v>
+      </c>
+      <c r="AG4">
+        <v>-10.8</v>
+      </c>
+      <c r="AH4">
+        <v>-12.4</v>
+      </c>
+      <c r="AI4">
+        <v>-5.7</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AL4">
+        <v>-5</v>
+      </c>
+      <c r="AM4">
+        <v>-15.4</v>
+      </c>
+      <c r="AN4">
+        <v>-21.2</v>
+      </c>
+      <c r="AO4">
+        <v>-11.8</v>
+      </c>
+      <c r="AP4">
+        <v>-6.1</v>
+      </c>
+      <c r="AQ4">
+        <v>-5.6</v>
+      </c>
+      <c r="AR4">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="AS4">
+        <v>-11.6</v>
+      </c>
+      <c r="AT4">
+        <v>-4.5</v>
+      </c>
+      <c r="AU4">
+        <v>-16.3</v>
+      </c>
+      <c r="AV4">
+        <v>-18.5</v>
+      </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
         <v>45652</v>
       </c>
+      <c r="B5">
+        <v>-29</v>
+      </c>
+      <c r="C5">
+        <v>-31.5</v>
+      </c>
+      <c r="D5">
+        <v>-26</v>
+      </c>
+      <c r="E5">
+        <v>-24</v>
+      </c>
+      <c r="F5">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="G5">
+        <v>-30.9</v>
+      </c>
+      <c r="H5">
+        <v>-30.9</v>
+      </c>
+      <c r="I5">
+        <v>-29.1</v>
+      </c>
+      <c r="J5">
+        <v>-22.9</v>
+      </c>
+      <c r="K5">
+        <v>-20.5</v>
+      </c>
+      <c r="L5">
+        <v>-12.8</v>
+      </c>
+      <c r="M5">
+        <v>-17.7</v>
+      </c>
+      <c r="N5">
+        <v>-28.3</v>
+      </c>
+      <c r="O5">
+        <v>-21</v>
+      </c>
+      <c r="P5">
+        <v>-25.6</v>
+      </c>
+      <c r="Q5">
+        <v>-25.8</v>
+      </c>
+      <c r="R5">
+        <v>-19.8</v>
+      </c>
+      <c r="S5">
+        <v>-27.8</v>
+      </c>
+      <c r="T5">
+        <v>-29.8</v>
+      </c>
+      <c r="U5">
+        <v>-25.1</v>
+      </c>
+      <c r="V5">
+        <v>-28.9</v>
+      </c>
+      <c r="W5">
+        <v>-22.3</v>
+      </c>
+      <c r="X5">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="Y5">
+        <v>-14.8</v>
+      </c>
+      <c r="Z5">
+        <v>-10.9</v>
+      </c>
+      <c r="AA5">
+        <v>-13.3</v>
+      </c>
+      <c r="AB5">
+        <v>-17.8</v>
+      </c>
+      <c r="AC5">
+        <v>-11</v>
+      </c>
+      <c r="AD5">
+        <v>-14.1</v>
+      </c>
+      <c r="AE5">
+        <v>-15.1</v>
+      </c>
+      <c r="AF5">
+        <v>-5.5</v>
+      </c>
+      <c r="AG5">
+        <v>-13</v>
+      </c>
+      <c r="AH5">
+        <v>-13.9</v>
+      </c>
+      <c r="AI5">
+        <v>-12.3</v>
+      </c>
+      <c r="AJ5">
+        <v>-6.5</v>
+      </c>
+      <c r="AK5">
+        <v>-6</v>
+      </c>
+      <c r="AL5">
+        <v>-7.1</v>
+      </c>
+      <c r="AM5">
+        <v>-18.3</v>
+      </c>
+      <c r="AN5">
+        <v>-14.5</v>
+      </c>
+      <c r="AO5">
+        <v>-18.5</v>
+      </c>
+      <c r="AP5">
+        <v>-6</v>
+      </c>
+      <c r="AQ5">
+        <v>-6.3</v>
+      </c>
+      <c r="AR5">
+        <v>-16</v>
+      </c>
+      <c r="AS5">
+        <v>-18.5</v>
+      </c>
+      <c r="AT5">
+        <v>-5.4</v>
+      </c>
+      <c r="AU5">
+        <v>-12.3</v>
+      </c>
+      <c r="AV5">
+        <v>-16.5</v>
+      </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
         <v>45653</v>
+      </c>
+      <c r="B6">
+        <v>-33.5</v>
+      </c>
+      <c r="C6">
+        <v>-29.7</v>
+      </c>
+      <c r="D6">
+        <v>-24.8</v>
+      </c>
+      <c r="E6">
+        <v>-22</v>
+      </c>
+      <c r="F6">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="G6">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="H6">
+        <v>-34</v>
+      </c>
+      <c r="I6">
+        <v>-29.8</v>
+      </c>
+      <c r="J6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="K6">
+        <v>-18</v>
+      </c>
+      <c r="L6">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="M6">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="N6">
+        <v>-29.9</v>
+      </c>
+      <c r="O6">
+        <v>-20.6</v>
+      </c>
+      <c r="P6">
+        <v>-26.3</v>
+      </c>
+      <c r="Q6">
+        <v>-27.9</v>
+      </c>
+      <c r="R6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="S6">
+        <v>-29.3</v>
+      </c>
+      <c r="T6">
+        <v>-32.5</v>
+      </c>
+      <c r="U6">
+        <v>-26.3</v>
+      </c>
+      <c r="V6">
+        <v>-31</v>
+      </c>
+      <c r="W6">
+        <v>-26</v>
+      </c>
+      <c r="X6">
+        <v>-32.9</v>
+      </c>
+      <c r="Y6">
+        <v>-14.1</v>
+      </c>
+      <c r="Z6">
+        <v>-13</v>
+      </c>
+      <c r="AA6">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="AB6">
+        <v>-19.8</v>
+      </c>
+      <c r="AC6">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="AD6">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="AE6">
+        <v>-15.1</v>
+      </c>
+      <c r="AF6">
+        <v>-5.6</v>
+      </c>
+      <c r="AG6">
+        <v>-6.2</v>
+      </c>
+      <c r="AH6">
+        <v>-14.1</v>
+      </c>
+      <c r="AI6">
+        <v>-11.4</v>
+      </c>
+      <c r="AJ6">
+        <v>-8.6</v>
+      </c>
+      <c r="AK6">
+        <v>-7.4</v>
+      </c>
+      <c r="AL6">
+        <v>-8.9</v>
+      </c>
+      <c r="AM6">
+        <v>-21.8</v>
+      </c>
+      <c r="AN6">
+        <v>-14.7</v>
+      </c>
+      <c r="AO6">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AP6">
+        <v>-1.9</v>
+      </c>
+      <c r="AQ6">
+        <v>-1.9</v>
+      </c>
+      <c r="AR6">
+        <v>-15.2</v>
+      </c>
+      <c r="AS6">
+        <v>-15.1</v>
+      </c>
+      <c r="AT6">
+        <v>-3</v>
+      </c>
+      <c r="AU6">
+        <v>-18.2</v>
+      </c>
+      <c r="AV6">
+        <v>-20.9</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.4">

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F9AF5D-A26C-4BF4-8087-714C6010B1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F958002-9CF6-4659-BF5A-8D5BF867DC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="258">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,10 +681,6 @@
   </si>
   <si>
     <t>黑龙江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1196,17 +1192,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国内冷站(23)
-俄罗斯冷站(12)
-蒙古冷站(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冷站汇总(47)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精选冷站(12)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1636,6 +1622,47 @@
 巴尔古津河</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1交换站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精选冷站(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内冷站(24)
+俄罗斯冷站(12)
+蒙古冷站(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉慈惠农场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1644,7 +1671,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2069,6 +2096,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2248,7 +2293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2330,9 +2375,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2408,11 +2450,17 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2766,10 +2814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0415808A-EC4F-404C-B30D-CD8F1C534364}">
-  <dimension ref="A1:BH48"/>
+  <dimension ref="A1:BI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2777,13 +2825,13 @@
     <col min="1" max="3" width="9.06640625" style="2"/>
     <col min="4" max="4" width="9.06640625" style="1"/>
     <col min="5" max="5" width="18.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" customWidth="1"/>
     <col min="9" max="9" width="20.59765625" style="7" customWidth="1"/>
     <col min="12" max="12" width="9.06640625" style="2"/>
     <col min="13" max="13" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:61" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>90</v>
       </c>
@@ -2821,7 +2869,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:61" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2839,10 +2887,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="4">
-        <v>-40.299999999999997</v>
+        <v>-40.200000000000003</v>
       </c>
       <c r="H2" s="4">
-        <v>-33.5</v>
+        <v>-29</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
@@ -2860,149 +2908,152 @@
         <v>166</v>
       </c>
       <c r="N2" cm="1">
-        <f t="array" ref="N2:BH2">TRANSPOSE(G2:G48)</f>
-        <v>-40.299999999999997</v>
+        <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
+        <v>-40.200000000000003</v>
       </c>
       <c r="O2">
-        <v>-41.8</v>
+        <v>-36.5</v>
       </c>
       <c r="P2">
-        <v>-41.4</v>
+        <v>-30.7</v>
       </c>
       <c r="Q2">
-        <v>-34</v>
+        <v>-33</v>
       </c>
       <c r="R2">
-        <v>-43.7</v>
+        <v>-40.200000000000003</v>
       </c>
       <c r="S2">
+        <v>-36</v>
+      </c>
+      <c r="T2">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="U2" t="str">
+        <v>无</v>
+      </c>
+      <c r="V2">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="W2">
+        <v>-23.3</v>
+      </c>
+      <c r="X2">
+        <v>-30.3</v>
+      </c>
+      <c r="Y2">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="Z2">
+        <v>-40.6</v>
+      </c>
+      <c r="AA2">
         <v>-41.5</v>
       </c>
-      <c r="T2">
-        <v>-42</v>
-      </c>
-      <c r="U2">
-        <v>-36.700000000000003</v>
-      </c>
-      <c r="V2">
-        <v>-23.4</v>
-      </c>
-      <c r="W2">
-        <v>-23</v>
-      </c>
-      <c r="X2">
-        <v>-28.8</v>
-      </c>
-      <c r="Y2">
-        <v>-33.5</v>
-      </c>
-      <c r="Z2">
-        <v>-39.299999999999997</v>
-      </c>
-      <c r="AA2">
-        <v>-39</v>
-      </c>
       <c r="AB2">
-        <v>-41.8</v>
+        <v>-44.1</v>
       </c>
       <c r="AC2">
+        <v>-38.5</v>
+      </c>
+      <c r="AD2">
+        <v>-28.1</v>
+      </c>
+      <c r="AE2">
+        <v>-33.6</v>
+      </c>
+      <c r="AF2">
+        <v>-28.4</v>
+      </c>
+      <c r="AG2">
+        <v>-38.1</v>
+      </c>
+      <c r="AH2">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="AI2">
+        <v>-35.4</v>
+      </c>
+      <c r="AJ2">
         <v>-37.5</v>
       </c>
-      <c r="AD2">
-        <v>-33.6</v>
-      </c>
-      <c r="AE2">
-        <v>-35.5</v>
-      </c>
-      <c r="AF2">
-        <v>-44.7</v>
-      </c>
-      <c r="AG2">
-        <v>-37.799999999999997</v>
-      </c>
-      <c r="AH2">
-        <v>-36.6</v>
-      </c>
-      <c r="AI2">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="AJ2">
-        <v>-40.5</v>
-      </c>
       <c r="AK2">
-        <v>-24</v>
+        <v>-23.5</v>
       </c>
       <c r="AL2">
-        <v>-31.3</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="AM2">
-        <v>-31.9</v>
+        <v>-38.700000000000003</v>
       </c>
       <c r="AN2">
-        <v>-29.5</v>
+        <v>-28.1</v>
       </c>
       <c r="AO2">
+        <v>-9.9</v>
+      </c>
+      <c r="AP2">
+        <v>-12.1</v>
+      </c>
+      <c r="AQ2">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="AR2">
+        <v>-17.7</v>
+      </c>
+      <c r="AS2">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AT2">
+        <v>-15.4</v>
+      </c>
+      <c r="AU2">
+        <v>-22.3</v>
+      </c>
+      <c r="AV2">
+        <v>-18.7</v>
+      </c>
+      <c r="AW2">
+        <v>-22.1</v>
+      </c>
+      <c r="AX2">
         <v>-21.6</v>
       </c>
-      <c r="AP2">
-        <v>-22.7</v>
-      </c>
-      <c r="AQ2">
-        <v>-28.3</v>
-      </c>
-      <c r="AR2">
-        <v>-15.9</v>
-      </c>
-      <c r="AS2">
-        <v>-28.2</v>
-      </c>
-      <c r="AT2">
-        <v>-22.7</v>
-      </c>
-      <c r="AU2">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="AV2">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="AW2">
-        <v>-20.399999999999999</v>
-      </c>
-      <c r="AX2">
-        <v>-20.9</v>
-      </c>
       <c r="AY2">
-        <v>-36.200000000000003</v>
+        <v>-24.1</v>
       </c>
       <c r="AZ2">
-        <v>-28.9</v>
+        <v>-31.5</v>
       </c>
       <c r="BA2">
-        <v>-27</v>
+        <v>-37</v>
       </c>
       <c r="BB2">
-        <v>-23.5</v>
+        <v>-27.3</v>
       </c>
       <c r="BC2">
-        <v>-23.5</v>
+        <v>-23.6</v>
       </c>
       <c r="BD2">
-        <v>-31.5</v>
+        <v>-21.1</v>
       </c>
       <c r="BE2">
-        <v>-29.1</v>
+        <v>-19.399999999999999</v>
       </c>
       <c r="BF2">
-        <v>-14.7</v>
+        <v>-23.3</v>
       </c>
       <c r="BG2">
-        <v>-32.9</v>
+        <v>-14.2</v>
       </c>
       <c r="BH2">
-        <v>-29.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
+        <v>-37.5</v>
+      </c>
+      <c r="BI2">
+        <v>-38.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3020,10 +3071,10 @@
         <v>12</v>
       </c>
       <c r="G3" s="4">
-        <v>-41.8</v>
+        <v>-36.5</v>
       </c>
       <c r="H3" s="4">
-        <v>-29.7</v>
+        <v>-22</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>40</v>
@@ -3041,149 +3092,152 @@
         <v>167</v>
       </c>
       <c r="N3" cm="1">
-        <f t="array" ref="N3:BH3">TRANSPOSE(H2:H48)</f>
-        <v>-33.5</v>
+        <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
+        <v>-29</v>
       </c>
       <c r="O3">
-        <v>-29.7</v>
+        <v>-22</v>
       </c>
       <c r="P3">
-        <v>-24.8</v>
+        <v>-10.9</v>
       </c>
       <c r="Q3">
         <v>-22</v>
       </c>
       <c r="R3">
-        <v>-33.200000000000003</v>
+        <v>-28.8</v>
       </c>
       <c r="S3">
-        <v>-32.200000000000003</v>
+        <v>-24.8</v>
       </c>
       <c r="T3">
-        <v>-34</v>
-      </c>
-      <c r="U3">
-        <v>-29.8</v>
+        <v>-27.2</v>
+      </c>
+      <c r="U3" t="str">
+        <v>无</v>
       </c>
       <c r="V3">
-        <v>-18.399999999999999</v>
+        <v>-28.1</v>
       </c>
       <c r="W3">
+        <v>-15.2</v>
+      </c>
+      <c r="X3">
+        <v>-15.3</v>
+      </c>
+      <c r="Y3">
+        <v>-22.9</v>
+      </c>
+      <c r="Z3">
+        <v>-30</v>
+      </c>
+      <c r="AA3">
+        <v>-23.3</v>
+      </c>
+      <c r="AB3">
+        <v>-24.4</v>
+      </c>
+      <c r="AC3">
+        <v>-28.5</v>
+      </c>
+      <c r="AD3">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="AE3">
+        <v>-24.6</v>
+      </c>
+      <c r="AF3">
+        <v>-20.9</v>
+      </c>
+      <c r="AG3">
+        <v>-26.1</v>
+      </c>
+      <c r="AH3">
+        <v>-30.6</v>
+      </c>
+      <c r="AI3">
+        <v>-27.2</v>
+      </c>
+      <c r="AJ3">
+        <v>-26.7</v>
+      </c>
+      <c r="AK3">
+        <v>-11.2</v>
+      </c>
+      <c r="AL3">
+        <v>-21.8</v>
+      </c>
+      <c r="AM3">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="AN3">
         <v>-18</v>
       </c>
-      <c r="X3">
-        <v>-18.899999999999999</v>
-      </c>
-      <c r="Y3">
-        <v>-20.399999999999999</v>
-      </c>
-      <c r="Z3">
-        <v>-29.9</v>
-      </c>
-      <c r="AA3">
-        <v>-20.6</v>
-      </c>
-      <c r="AB3">
-        <v>-26.3</v>
-      </c>
-      <c r="AC3">
-        <v>-27.9</v>
-      </c>
-      <c r="AD3">
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="AE3">
-        <v>-29.3</v>
-      </c>
-      <c r="AF3">
-        <v>-32.5</v>
-      </c>
-      <c r="AG3">
-        <v>-26.3</v>
-      </c>
-      <c r="AH3">
-        <v>-31</v>
-      </c>
-      <c r="AI3">
-        <v>-26</v>
-      </c>
-      <c r="AJ3">
-        <v>-32.9</v>
-      </c>
-      <c r="AK3">
-        <v>-14.1</v>
-      </c>
-      <c r="AL3">
-        <v>-13</v>
-      </c>
-      <c r="AM3">
-        <v>-17.399999999999999</v>
-      </c>
-      <c r="AN3">
-        <v>-19.8</v>
-      </c>
       <c r="AO3">
-        <v>-9.6999999999999993</v>
+        <v>-3.4</v>
       </c>
       <c r="AP3">
-        <v>-16.600000000000001</v>
+        <v>-0.7</v>
       </c>
       <c r="AQ3">
-        <v>-15.1</v>
+        <v>-20.7</v>
       </c>
       <c r="AR3">
-        <v>-5.6</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="AS3">
-        <v>-6.2</v>
+        <v>12.3</v>
       </c>
       <c r="AT3">
-        <v>-14.1</v>
+        <v>1.8</v>
       </c>
       <c r="AU3">
-        <v>-11.4</v>
+        <v>-5.2</v>
       </c>
       <c r="AV3">
-        <v>-8.6</v>
+        <v>-11.8</v>
       </c>
       <c r="AW3">
-        <v>-7.4</v>
+        <v>-6.9</v>
       </c>
       <c r="AX3">
-        <v>-8.9</v>
+        <v>-5.2</v>
       </c>
       <c r="AY3">
-        <v>-21.8</v>
+        <v>-1.3</v>
       </c>
       <c r="AZ3">
-        <v>-14.7</v>
+        <v>-22.9</v>
       </c>
       <c r="BA3">
-        <v>-17.600000000000001</v>
+        <v>-26.1</v>
       </c>
       <c r="BB3">
-        <v>-1.9</v>
+        <v>-15.3</v>
       </c>
       <c r="BC3">
         <v>-1.9</v>
       </c>
       <c r="BD3">
-        <v>-15.2</v>
+        <v>0.6</v>
       </c>
       <c r="BE3">
-        <v>-15.1</v>
+        <v>-8.4</v>
       </c>
       <c r="BF3">
-        <v>-3</v>
+        <v>-7.3</v>
       </c>
       <c r="BG3">
-        <v>-18.2</v>
+        <v>-4.8</v>
       </c>
       <c r="BH3">
-        <v>-20.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.4">
+        <v>-21</v>
+      </c>
+      <c r="BI3">
+        <v>-28.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3201,10 +3255,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="4">
-        <v>-41.4</v>
+        <v>-30.7</v>
       </c>
       <c r="H4" s="4">
-        <v>-24.8</v>
+        <v>-10.9</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>36</v>
@@ -3219,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3237,7 +3291,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="4">
-        <v>-34</v>
+        <v>-33</v>
       </c>
       <c r="H5" s="4">
         <v>-22</v>
@@ -3255,16 +3309,16 @@
         <v>1</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3282,10 +3336,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="4">
-        <v>-43.7</v>
+        <v>-40.200000000000003</v>
       </c>
       <c r="H6" s="4">
-        <v>-33.200000000000003</v>
+        <v>-28.8</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>117</v>
@@ -3300,16 +3354,16 @@
         <v>1</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -3327,10 +3381,10 @@
         <v>110</v>
       </c>
       <c r="G7" s="4">
-        <v>-41.5</v>
+        <v>-36</v>
       </c>
       <c r="H7" s="4">
-        <v>-32.200000000000003</v>
+        <v>-24.8</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>40</v>
@@ -3345,16 +3399,16 @@
         <v>3</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N7" t="s">
+        <v>187</v>
+      </c>
+      <c r="O7" t="s">
         <v>188</v>
       </c>
-      <c r="O7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60" ht="27.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:61" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -3369,13 +3423,13 @@
         <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8" s="4">
-        <v>-42</v>
+        <v>-40.200000000000003</v>
       </c>
       <c r="H8" s="4">
-        <v>-34</v>
+        <v>-27.2</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>115</v>
@@ -3390,16 +3444,16 @@
         <v>3</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:60" ht="27.75" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -3416,11 +3470,11 @@
       <c r="F9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="4">
-        <v>-36.700000000000003</v>
-      </c>
-      <c r="H9" s="4">
-        <v>-29.8</v>
+      <c r="G9" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>113</v>
@@ -3435,7 +3489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -3453,10 +3507,10 @@
         <v>7</v>
       </c>
       <c r="G10" s="4">
-        <v>-23.4</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="H10" s="4">
-        <v>-18.399999999999999</v>
+        <v>-28.1</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>120</v>
@@ -3469,7 +3523,7 @@
       </c>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -3487,10 +3541,10 @@
         <v>95</v>
       </c>
       <c r="G11" s="4">
-        <v>-23</v>
+        <v>-23.3</v>
       </c>
       <c r="H11" s="4">
-        <v>-18</v>
+        <v>-15.2</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>119</v>
@@ -3503,7 +3557,7 @@
       </c>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -3521,10 +3575,10 @@
         <v>102</v>
       </c>
       <c r="G12" s="4">
-        <v>-28.8</v>
+        <v>-30.3</v>
       </c>
       <c r="H12" s="4">
-        <v>-18.899999999999999</v>
+        <v>-15.3</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>100</v>
@@ -3537,7 +3591,7 @@
       </c>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -3555,10 +3609,10 @@
         <v>53</v>
       </c>
       <c r="G13" s="4">
-        <v>-33.5</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="H13" s="4">
-        <v>-20.399999999999999</v>
+        <v>-22.9</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>54</v>
@@ -3571,7 +3625,7 @@
       </c>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -3589,10 +3643,10 @@
         <v>87</v>
       </c>
       <c r="G14" s="4">
-        <v>-39.299999999999997</v>
+        <v>-40.6</v>
       </c>
       <c r="H14" s="4">
-        <v>-29.9</v>
+        <v>-30</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
@@ -3605,7 +3659,7 @@
       </c>
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -3623,10 +3677,10 @@
         <v>89</v>
       </c>
       <c r="G15" s="4">
-        <v>-39</v>
+        <v>-41.5</v>
       </c>
       <c r="H15" s="4">
-        <v>-20.6</v>
+        <v>-23.3</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>28</v>
@@ -3639,7 +3693,7 @@
       </c>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="1:60" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -3657,10 +3711,10 @@
         <v>27</v>
       </c>
       <c r="G16" s="4">
-        <v>-41.8</v>
+        <v>-44.1</v>
       </c>
       <c r="H16" s="4">
-        <v>-26.3</v>
+        <v>-24.4</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>28</v>
@@ -3688,13 +3742,13 @@
         <v>29</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G17" s="4">
-        <v>-37.5</v>
+        <v>-38.5</v>
       </c>
       <c r="H17" s="4">
-        <v>-27.9</v>
+        <v>-28.5</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>32</v>
@@ -3725,10 +3779,10 @@
         <v>99</v>
       </c>
       <c r="G18" s="4">
-        <v>-33.6</v>
+        <v>-28.1</v>
       </c>
       <c r="H18" s="4">
-        <v>-18.399999999999999</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>96</v>
@@ -3759,10 +3813,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="4">
-        <v>-35.5</v>
+        <v>-33.6</v>
       </c>
       <c r="H19" s="4">
-        <v>-29.3</v>
+        <v>-24.6</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>161</v>
@@ -3793,10 +3847,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="4">
-        <v>-44.7</v>
+        <v>-28.4</v>
       </c>
       <c r="H20" s="4">
-        <v>-32.5</v>
+        <v>-20.9</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>22</v>
@@ -3827,10 +3881,10 @@
         <v>108</v>
       </c>
       <c r="G21" s="4">
-        <v>-37.799999999999997</v>
+        <v>-38.1</v>
       </c>
       <c r="H21" s="4">
-        <v>-26.3</v>
+        <v>-26.1</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>114</v>
@@ -3861,10 +3915,10 @@
         <v>9</v>
       </c>
       <c r="G22" s="4">
-        <v>-36.6</v>
+        <v>-38.299999999999997</v>
       </c>
       <c r="H22" s="4">
-        <v>-31</v>
+        <v>-30.6</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>113</v>
@@ -3895,10 +3949,10 @@
         <v>106</v>
       </c>
       <c r="G23" s="4">
-        <v>-35.200000000000003</v>
+        <v>-35.4</v>
       </c>
       <c r="H23" s="4">
-        <v>-26</v>
+        <v>-27.2</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>115</v>
@@ -3929,10 +3983,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="4">
-        <v>-40.5</v>
+        <v>-37.5</v>
       </c>
       <c r="H24" s="4">
-        <v>-32.9</v>
+        <v>-26.7</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -3963,10 +4017,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="4">
-        <v>-24</v>
+        <v>-23.5</v>
       </c>
       <c r="H25" s="4">
-        <v>-14.1</v>
+        <v>-11.2</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -3999,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>-31.3</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H26" s="4">
-        <v>-13</v>
+        <v>-21.8</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -4030,13 +4084,13 @@
         <v>18</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G27" s="4">
-        <v>-31.9</v>
+        <v>-38.700000000000003</v>
       </c>
       <c r="H27" s="4">
-        <v>-17.399999999999999</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
@@ -4067,10 +4121,10 @@
         <v>77</v>
       </c>
       <c r="G28" s="4">
-        <v>-29.5</v>
+        <v>-28.1</v>
       </c>
       <c r="H28" s="4">
-        <v>-19.8</v>
+        <v>-18</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
@@ -4103,10 +4157,10 @@
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <v>-21.6</v>
+        <v>-9.9</v>
       </c>
       <c r="H29" s="4">
-        <v>-9.6999999999999993</v>
+        <v>-3.4</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -4137,10 +4191,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>-22.7</v>
+        <v>-12.1</v>
       </c>
       <c r="H30" s="4">
-        <v>-16.600000000000001</v>
+        <v>-0.7</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
@@ -4173,10 +4227,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="4">
-        <v>-28.3</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H31" s="4">
-        <v>-15.1</v>
+        <v>-20.7</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
@@ -4207,10 +4261,10 @@
         <v>66</v>
       </c>
       <c r="G32" s="4">
-        <v>-15.9</v>
+        <v>-17.7</v>
       </c>
       <c r="H32" s="4">
-        <v>-5.6</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
@@ -4228,28 +4282,32 @@
       <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
       <c r="D33" s="5" t="s">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>59</v>
+        <v>256</v>
       </c>
       <c r="G33" s="4">
-        <v>-28.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="H33" s="4">
-        <v>-6.2</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" s="4">
-        <v>52323</v>
+        <v>12.3</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" s="13">
+        <v>57494</v>
       </c>
       <c r="L33" s="18"/>
     </row>
@@ -4260,30 +4318,28 @@
       <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G34" s="4">
-        <v>-22.7</v>
+        <v>-15.4</v>
       </c>
       <c r="H34" s="4">
-        <v>-14.1</v>
+        <v>1.8</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
         <v>131</v>
       </c>
       <c r="K34" s="4">
-        <v>53392</v>
+        <v>52323</v>
       </c>
       <c r="L34" s="18"/>
     </row>
@@ -4301,25 +4357,23 @@
         <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G35" s="4">
-        <v>-18.600000000000001</v>
+        <v>-22.3</v>
       </c>
       <c r="H35" s="4">
-        <v>-11.4</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>47</v>
-      </c>
+        <v>-5.2</v>
+      </c>
+      <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K35" s="4">
-        <v>50953</v>
+        <v>53392</v>
       </c>
       <c r="L35" s="18"/>
     </row>
@@ -4337,25 +4391,25 @@
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G36" s="4">
-        <v>-16.899999999999999</v>
+        <v>-18.7</v>
       </c>
       <c r="H36" s="4">
-        <v>-8.6</v>
+        <v>-11.8</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J36" s="14" t="s">
         <v>130</v>
       </c>
       <c r="K36" s="4">
-        <v>54273</v>
+        <v>50953</v>
       </c>
       <c r="L36" s="18"/>
     </row>
@@ -4373,23 +4427,25 @@
         <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G37" s="4">
-        <v>-20.399999999999999</v>
+        <v>-22.1</v>
       </c>
       <c r="H37" s="4">
-        <v>-7.4</v>
-      </c>
-      <c r="I37" s="6"/>
+        <v>-6.9</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="J37" s="14" t="s">
         <v>130</v>
       </c>
       <c r="K37" s="4">
-        <v>54252</v>
+        <v>54273</v>
       </c>
       <c r="L37" s="18"/>
     </row>
@@ -4407,23 +4463,23 @@
         <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G38" s="4">
-        <v>-20.9</v>
+        <v>-21.6</v>
       </c>
       <c r="H38" s="4">
-        <v>-8.9</v>
+        <v>-5.2</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
         <v>130</v>
       </c>
       <c r="K38" s="4">
-        <v>53478</v>
+        <v>54252</v>
       </c>
       <c r="L38" s="18"/>
     </row>
@@ -4434,32 +4490,30 @@
       <c r="B39" s="3">
         <v>1</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="3">
         <v>0</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G39" s="4">
-        <v>-36.200000000000003</v>
+        <v>-24.1</v>
       </c>
       <c r="H39" s="4">
-        <v>-21.8</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>-1.3</v>
+      </c>
+      <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
         <v>130</v>
       </c>
       <c r="K39" s="4">
-        <v>50673</v>
+        <v>53478</v>
       </c>
       <c r="L39" s="18"/>
     </row>
@@ -4470,7 +4524,9 @@
       <c r="B40" s="3">
         <v>1</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="8">
+        <v>0</v>
+      </c>
       <c r="D40" s="5" t="s">
         <v>1</v>
       </c>
@@ -4478,22 +4534,22 @@
         <v>19</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="G40" s="4">
-        <v>-28.9</v>
+        <v>-31.5</v>
       </c>
       <c r="H40" s="4">
-        <v>-14.7</v>
+        <v>-22.9</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="J40" s="14" t="s">
         <v>130</v>
       </c>
       <c r="K40" s="4">
-        <v>50353</v>
+        <v>50673</v>
       </c>
       <c r="L40" s="18"/>
     </row>
@@ -4509,16 +4565,16 @@
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G41" s="4">
-        <v>-27</v>
+        <v>-37</v>
       </c>
       <c r="H41" s="4">
-        <v>-17.600000000000001</v>
+        <v>-26.1</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
@@ -4527,7 +4583,7 @@
         <v>130</v>
       </c>
       <c r="K41" s="4">
-        <v>50727</v>
+        <v>50353</v>
       </c>
       <c r="L41" s="18"/>
     </row>
@@ -4543,25 +4599,25 @@
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G42" s="4">
-        <v>-23.5</v>
+        <v>-27.3</v>
       </c>
       <c r="H42" s="4">
-        <v>-1.9</v>
+        <v>-15.3</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="J42" s="14" t="s">
         <v>130</v>
       </c>
       <c r="K42" s="4">
-        <v>56034</v>
+        <v>50727</v>
       </c>
       <c r="L42" s="18"/>
     </row>
@@ -4577,13 +4633,13 @@
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G43" s="4">
-        <v>-23.5</v>
+        <v>-23.6</v>
       </c>
       <c r="H43" s="4">
         <v>-1.9</v>
@@ -4595,7 +4651,7 @@
         <v>130</v>
       </c>
       <c r="K43" s="4">
-        <v>55294</v>
+        <v>56034</v>
       </c>
       <c r="L43" s="18"/>
     </row>
@@ -4611,25 +4667,25 @@
         <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G44" s="4">
-        <v>-31.5</v>
+        <v>-21.1</v>
       </c>
       <c r="H44" s="4">
-        <v>-15.2</v>
+        <v>0.6</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K44" s="4">
-        <v>51186</v>
+        <v>55294</v>
       </c>
       <c r="L44" s="18"/>
     </row>
@@ -4648,22 +4704,22 @@
         <v>20</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G45" s="4">
-        <v>-29.1</v>
+        <v>-19.399999999999999</v>
       </c>
       <c r="H45" s="4">
-        <v>-15.1</v>
+        <v>-8.4</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K45" s="4">
-        <v>52101</v>
+        <v>51186</v>
       </c>
       <c r="L45" s="18"/>
     </row>
@@ -4682,13 +4738,13 @@
         <v>20</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G46" s="4">
-        <v>-14.7</v>
+        <v>-23.3</v>
       </c>
       <c r="H46" s="4">
-        <v>-3</v>
+        <v>-7.3</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
@@ -4697,7 +4753,7 @@
         <v>130</v>
       </c>
       <c r="K46" s="4">
-        <v>51437</v>
+        <v>52101</v>
       </c>
       <c r="L46" s="18"/>
     </row>
@@ -4708,32 +4764,30 @@
       <c r="B47" s="3">
         <v>1</v>
       </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
+      <c r="C47" s="3"/>
       <c r="D47" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="G47" s="4">
-        <v>-32.9</v>
+        <v>-14.2</v>
       </c>
       <c r="H47" s="4">
-        <v>-18.2</v>
+        <v>-4.8</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>150</v>
+        <v>21</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K47" s="4">
+        <v>51437</v>
       </c>
       <c r="L47" s="18"/>
     </row>
@@ -4744,7 +4798,9 @@
       <c r="B48" s="3">
         <v>1</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
       <c r="D48" s="5" t="s">
         <v>1</v>
       </c>
@@ -4752,13 +4808,13 @@
         <v>18</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G48" s="4">
-        <v>-29.1</v>
+        <v>-37.5</v>
       </c>
       <c r="H48" s="4">
-        <v>-20.9</v>
+        <v>-21</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -4771,10 +4827,44 @@
       </c>
       <c r="L48" s="18"/>
     </row>
+    <row r="49" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="4">
+        <v>-38.9</v>
+      </c>
+      <c r="H49" s="4">
+        <v>-28.9</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L49" s="18"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L48">
-    <sortCondition ref="A2:A48"/>
-    <sortCondition ref="H2:H48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L49">
+    <sortCondition ref="A2:A49"/>
+    <sortCondition ref="H2:H49"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4783,10 +4873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B34FAF-8106-42B6-ACE5-F6D83E641FA4}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4801,51 +4891,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="57" t="s">
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="61">
+        <v>45660</v>
+      </c>
+      <c r="G1" s="62"/>
+      <c r="H1" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="60">
-        <v>45653</v>
-      </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="I2" s="56"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="57"/>
       <c r="K2" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>214</v>
+        <v>177</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="55"/>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>216</v>
+      <c r="C3" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>213</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>126</v>
@@ -4854,1226 +4944,1253 @@
         <v>0</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>116</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>212</v>
+        <v>176</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="55"/>
-      <c r="B4" s="27">
+      <c r="A4" s="56"/>
+      <c r="B4" s="54">
+        <v>1</v>
+      </c>
+      <c r="C4" s="52">
+        <v>3</v>
+      </c>
+      <c r="D4" s="52">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="36">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="H4" s="36">
+        <v>-29</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="56"/>
+      <c r="B5" s="54">
+        <v>2</v>
+      </c>
+      <c r="C5" s="52">
+        <v>3</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="36">
+        <v>-36.5</v>
+      </c>
+      <c r="H5" s="36">
+        <v>-22</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="56"/>
+      <c r="B6" s="54">
+        <v>3</v>
+      </c>
+      <c r="C6" s="52">
+        <v>3</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="36">
+        <v>-30.7</v>
+      </c>
+      <c r="H6" s="36">
+        <v>-10.9</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="56"/>
+      <c r="B7" s="54">
+        <v>4</v>
+      </c>
+      <c r="C7" s="52">
+        <v>3</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="36">
+        <v>-33</v>
+      </c>
+      <c r="H7" s="36">
+        <v>-22</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="56"/>
+      <c r="B8" s="54">
+        <v>5</v>
+      </c>
+      <c r="C8" s="52">
+        <v>3</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="36">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="H8" s="36">
+        <v>-28.8</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="56"/>
+      <c r="B9" s="54">
+        <v>6</v>
+      </c>
+      <c r="C9" s="52">
+        <v>3</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="36">
+        <v>-36</v>
+      </c>
+      <c r="H9" s="36">
+        <v>-24.8</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="56"/>
+      <c r="B10" s="54">
+        <v>7</v>
+      </c>
+      <c r="C10" s="52">
+        <v>3</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="36">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="H10" s="36">
+        <v>-27.2</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="56"/>
+      <c r="B11" s="54">
+        <v>8</v>
+      </c>
+      <c r="C11" s="52">
+        <v>3</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="56"/>
+      <c r="B12" s="54">
+        <v>9</v>
+      </c>
+      <c r="C12" s="52">
+        <v>2</v>
+      </c>
+      <c r="D12" s="52"/>
+      <c r="E12" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="36">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="H12" s="36">
+        <v>-28.1</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="56"/>
+      <c r="B13" s="54">
+        <v>10</v>
+      </c>
+      <c r="C13" s="52">
+        <v>2</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="36">
+        <v>-23.3</v>
+      </c>
+      <c r="H13" s="36">
+        <v>-15.2</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="56"/>
+      <c r="B14" s="54">
+        <v>11</v>
+      </c>
+      <c r="C14" s="52">
+        <v>2</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="36">
+        <v>-30.3</v>
+      </c>
+      <c r="H14" s="36">
+        <v>-15.3</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="56"/>
+      <c r="B15" s="54">
+        <v>12</v>
+      </c>
+      <c r="C15" s="52">
+        <v>2</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="36">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="H15" s="36">
+        <v>-22.9</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="56"/>
+      <c r="B16" s="54">
+        <v>13</v>
+      </c>
+      <c r="C16" s="52">
+        <v>2</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="36">
+        <v>-40.6</v>
+      </c>
+      <c r="H16" s="36">
+        <v>-30</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="56"/>
+      <c r="B17" s="54">
+        <v>14</v>
+      </c>
+      <c r="C17" s="52">
+        <v>2</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="36">
+        <v>-41.5</v>
+      </c>
+      <c r="H17" s="36">
+        <v>-23.3</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="56"/>
+      <c r="B18" s="54">
+        <v>15</v>
+      </c>
+      <c r="C18" s="52">
+        <v>2</v>
+      </c>
+      <c r="D18" s="52">
+        <v>0</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="36">
+        <v>-44.1</v>
+      </c>
+      <c r="H18" s="36">
+        <v>-24.4</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="56"/>
+      <c r="B19" s="54">
+        <v>16</v>
+      </c>
+      <c r="C19" s="52">
+        <v>2</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="36">
+        <v>-38.5</v>
+      </c>
+      <c r="H19" s="36">
+        <v>-28.5</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="56"/>
+      <c r="B20" s="54">
+        <v>17</v>
+      </c>
+      <c r="C20" s="52">
+        <v>2</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="36">
+        <v>-28.1</v>
+      </c>
+      <c r="H20" s="36">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="56"/>
+      <c r="B21" s="54">
+        <v>18</v>
+      </c>
+      <c r="C21" s="52">
+        <v>2</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="36">
+        <v>-33.6</v>
+      </c>
+      <c r="H21" s="36">
+        <v>-24.6</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="56"/>
+      <c r="B22" s="54">
         <v>19</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C22" s="52">
         <v>2</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D22" s="52"/>
+      <c r="E22" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="36">
+        <v>-28.4</v>
+      </c>
+      <c r="H22" s="36">
+        <v>-20.9</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="56"/>
+      <c r="B23" s="54">
+        <v>20</v>
+      </c>
+      <c r="C23" s="52">
+        <v>2</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="36">
+        <v>-38.1</v>
+      </c>
+      <c r="H23" s="36">
+        <v>-26.1</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="56"/>
+      <c r="B24" s="54">
+        <v>21</v>
+      </c>
+      <c r="C24" s="52">
+        <v>3</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="36">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="H24" s="36">
+        <v>-30.6</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="56"/>
+      <c r="B25" s="54">
+        <v>22</v>
+      </c>
+      <c r="C25" s="52">
+        <v>3</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="36">
+        <v>-35.4</v>
+      </c>
+      <c r="H25" s="36">
+        <v>-27.2</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="56"/>
+      <c r="B26" s="54">
+        <v>23</v>
+      </c>
+      <c r="C26" s="52">
+        <v>3</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="36">
+        <v>-37.5</v>
+      </c>
+      <c r="H26" s="36">
+        <v>-26.7</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="56"/>
+      <c r="B27" s="54">
+        <v>24</v>
+      </c>
+      <c r="C27" s="52">
+        <v>3</v>
+      </c>
+      <c r="D27" s="52"/>
+      <c r="E27" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="36">
+        <v>-23.5</v>
+      </c>
+      <c r="H27" s="36">
+        <v>-11.2</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="56"/>
+      <c r="B28" s="54">
+        <v>25</v>
+      </c>
+      <c r="C28" s="52">
+        <v>1</v>
+      </c>
+      <c r="D28" s="52">
         <v>0</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="37">
-        <v>-44.7</v>
-      </c>
-      <c r="H4" s="37">
-        <v>-32.5</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="55"/>
-      <c r="B5" s="27">
-        <v>5</v>
-      </c>
-      <c r="C5" s="54">
-        <v>3</v>
-      </c>
-      <c r="D5" s="54">
+      <c r="E28" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="36">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="H28" s="36">
+        <v>-21.8</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="56"/>
+      <c r="B29" s="54">
+        <v>26</v>
+      </c>
+      <c r="C29" s="52">
+        <v>1</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="36">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="H29" s="36">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="56"/>
+      <c r="B30" s="54">
+        <v>27</v>
+      </c>
+      <c r="C30" s="52">
+        <v>1</v>
+      </c>
+      <c r="D30" s="52"/>
+      <c r="E30" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="36">
+        <v>-28.1</v>
+      </c>
+      <c r="H30" s="36">
+        <v>-18</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="56"/>
+      <c r="B31" s="54">
+        <v>28</v>
+      </c>
+      <c r="C31" s="52">
+        <v>1</v>
+      </c>
+      <c r="D31" s="52">
         <v>0</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="37">
-        <v>-43.7</v>
-      </c>
-      <c r="H5" s="37">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="I5" s="35" t="s">
+      <c r="E31" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="36">
+        <v>-9.9</v>
+      </c>
+      <c r="H31" s="36">
+        <v>-3.4</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="56"/>
+      <c r="B32" s="54">
+        <v>29</v>
+      </c>
+      <c r="C32" s="52">
+        <v>1</v>
+      </c>
+      <c r="D32" s="52"/>
+      <c r="E32" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="36">
+        <v>-12.1</v>
+      </c>
+      <c r="H32" s="36">
+        <v>-0.7</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="56"/>
+      <c r="B33" s="54">
+        <v>30</v>
+      </c>
+      <c r="C33" s="52">
+        <v>1</v>
+      </c>
+      <c r="D33" s="52">
+        <v>0</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="36">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="H33" s="36">
+        <v>-20.7</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="56"/>
+      <c r="B34" s="54">
+        <v>31</v>
+      </c>
+      <c r="C34" s="52">
+        <v>1</v>
+      </c>
+      <c r="D34" s="52"/>
+      <c r="E34" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="36">
+        <v>-17.7</v>
+      </c>
+      <c r="H34" s="36">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="56"/>
+      <c r="B35" s="54">
+        <v>32</v>
+      </c>
+      <c r="C35" s="52">
+        <v>1</v>
+      </c>
+      <c r="D35" s="52">
+        <v>0</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="G35" s="36">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="H35" s="36">
+        <v>12.3</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="56"/>
+      <c r="B36" s="54">
+        <v>33</v>
+      </c>
+      <c r="C36" s="52">
+        <v>1</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="36">
+        <v>-15.4</v>
+      </c>
+      <c r="H36" s="36">
+        <v>1.8</v>
+      </c>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="56"/>
+      <c r="B37" s="54">
+        <v>34</v>
+      </c>
+      <c r="C37" s="52">
+        <v>1</v>
+      </c>
+      <c r="D37" s="52">
+        <v>0</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="36">
+        <v>-22.3</v>
+      </c>
+      <c r="H37" s="36">
+        <v>-5.2</v>
+      </c>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="56"/>
+      <c r="B38" s="54">
+        <v>35</v>
+      </c>
+      <c r="C38" s="52">
+        <v>1</v>
+      </c>
+      <c r="D38" s="52">
+        <v>0</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="36">
+        <v>-18.7</v>
+      </c>
+      <c r="H38" s="36">
+        <v>-11.8</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="56"/>
+      <c r="B39" s="54">
+        <v>36</v>
+      </c>
+      <c r="C39" s="52">
+        <v>1</v>
+      </c>
+      <c r="D39" s="52">
+        <v>0</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="36">
+        <v>-22.1</v>
+      </c>
+      <c r="H39" s="36">
+        <v>-6.9</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="56"/>
+      <c r="B40" s="54">
+        <v>37</v>
+      </c>
+      <c r="C40" s="52">
+        <v>1</v>
+      </c>
+      <c r="D40" s="52">
+        <v>0</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="36">
+        <v>-21.6</v>
+      </c>
+      <c r="H40" s="36">
+        <v>-5.2</v>
+      </c>
+      <c r="I40" s="34"/>
+    </row>
+    <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="56"/>
+      <c r="B41" s="54">
+        <v>38</v>
+      </c>
+      <c r="C41" s="52">
+        <v>1</v>
+      </c>
+      <c r="D41" s="52">
+        <v>0</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="36">
+        <v>-24.1</v>
+      </c>
+      <c r="H41" s="36">
+        <v>-1.3</v>
+      </c>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="56"/>
+      <c r="B42" s="54">
+        <v>39</v>
+      </c>
+      <c r="C42" s="52">
+        <v>1</v>
+      </c>
+      <c r="D42" s="52"/>
+      <c r="E42" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="36">
+        <v>-31.5</v>
+      </c>
+      <c r="H42" s="36">
+        <v>-22.9</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="56"/>
+      <c r="B43" s="54">
+        <v>40</v>
+      </c>
+      <c r="C43" s="52">
+        <v>1</v>
+      </c>
+      <c r="D43" s="52"/>
+      <c r="E43" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="36">
+        <v>-37</v>
+      </c>
+      <c r="H43" s="36">
+        <v>-26.1</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="56"/>
+      <c r="B44" s="54">
+        <v>41</v>
+      </c>
+      <c r="C44" s="52">
+        <v>1</v>
+      </c>
+      <c r="D44" s="52"/>
+      <c r="E44" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="36">
+        <v>-27.3</v>
+      </c>
+      <c r="H44" s="36">
+        <v>-15.3</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="56"/>
+      <c r="B45" s="54">
+        <v>42</v>
+      </c>
+      <c r="C45" s="52">
+        <v>1</v>
+      </c>
+      <c r="D45" s="52"/>
+      <c r="E45" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="36">
+        <v>-23.6</v>
+      </c>
+      <c r="H45" s="36">
+        <v>-1.9</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="56"/>
+      <c r="B46" s="54">
+        <v>43</v>
+      </c>
+      <c r="C46" s="52">
+        <v>1</v>
+      </c>
+      <c r="D46" s="52"/>
+      <c r="E46" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" s="36">
+        <v>-21.1</v>
+      </c>
+      <c r="H46" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="56"/>
+      <c r="B47" s="54">
+        <v>44</v>
+      </c>
+      <c r="C47" s="52">
+        <v>1</v>
+      </c>
+      <c r="D47" s="52"/>
+      <c r="E47" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="36">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="H47" s="36">
+        <v>-8.4</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="56"/>
+      <c r="B48" s="54">
+        <v>45</v>
+      </c>
+      <c r="C48" s="52">
+        <v>1</v>
+      </c>
+      <c r="D48" s="52"/>
+      <c r="E48" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="36">
+        <v>-23.3</v>
+      </c>
+      <c r="H48" s="36">
+        <v>-7.3</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="56"/>
+      <c r="B49" s="54">
+        <v>46</v>
+      </c>
+      <c r="C49" s="52">
+        <v>1</v>
+      </c>
+      <c r="D49" s="52"/>
+      <c r="E49" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="36">
+        <v>-14.2</v>
+      </c>
+      <c r="H49" s="36">
+        <v>-4.8</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="56"/>
+      <c r="B50" s="54">
+        <v>47</v>
+      </c>
+      <c r="C50" s="52">
+        <v>1</v>
+      </c>
+      <c r="D50" s="52">
+        <v>0</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" s="36">
+        <v>-37.5</v>
+      </c>
+      <c r="H50" s="36">
+        <v>-21</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="56"/>
+      <c r="B51" s="54">
+        <v>48</v>
+      </c>
+      <c r="C51" s="52">
+        <v>1</v>
+      </c>
+      <c r="D51" s="52">
+        <v>0</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" s="36">
+        <v>-38.9</v>
+      </c>
+      <c r="H51" s="36">
+        <v>-28.9</v>
+      </c>
+      <c r="I51" s="34" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="55"/>
-      <c r="B6" s="27">
-        <v>7</v>
-      </c>
-      <c r="C6" s="54">
-        <v>3</v>
-      </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="37">
-        <v>-42</v>
-      </c>
-      <c r="H6" s="37">
-        <v>-34</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
-      <c r="B7" s="27">
-        <v>2</v>
-      </c>
-      <c r="C7" s="54">
-        <v>3</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="37">
-        <v>-41.8</v>
-      </c>
-      <c r="H7" s="37">
-        <v>-29.7</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="55"/>
-      <c r="B8" s="27">
-        <v>15</v>
-      </c>
-      <c r="C8" s="54">
-        <v>2</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="37">
-        <v>-41.8</v>
-      </c>
-      <c r="H8" s="37">
-        <v>-26.3</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="55"/>
-      <c r="B9" s="27">
-        <v>6</v>
-      </c>
-      <c r="C9" s="54">
-        <v>3</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="37">
-        <v>-41.5</v>
-      </c>
-      <c r="H9" s="37">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="55"/>
-      <c r="B10" s="27">
-        <v>3</v>
-      </c>
-      <c r="C10" s="54">
-        <v>3</v>
-      </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="37">
-        <v>-41.4</v>
-      </c>
-      <c r="H10" s="37">
-        <v>-24.8</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="55"/>
-      <c r="B11" s="27">
-        <v>23</v>
-      </c>
-      <c r="C11" s="54">
-        <v>3</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="37">
-        <v>-40.5</v>
-      </c>
-      <c r="H11" s="37">
-        <v>-32.9</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="55"/>
-      <c r="B12" s="27">
-        <v>1</v>
-      </c>
-      <c r="C12" s="54">
-        <v>3</v>
-      </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="37">
-        <v>-40.299999999999997</v>
-      </c>
-      <c r="H12" s="37">
-        <v>-33.5</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="55"/>
-      <c r="B13" s="27">
-        <v>13</v>
-      </c>
-      <c r="C13" s="54">
-        <v>2</v>
-      </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="37">
-        <v>-39.299999999999997</v>
-      </c>
-      <c r="H13" s="37">
-        <v>-29.9</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="55"/>
-      <c r="B14" s="27">
-        <v>14</v>
-      </c>
-      <c r="C14" s="54">
-        <v>2</v>
-      </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="37">
-        <v>-39</v>
-      </c>
-      <c r="H14" s="37">
-        <v>-20.6</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="55"/>
-      <c r="B15" s="27">
-        <v>20</v>
-      </c>
-      <c r="C15" s="54">
-        <v>2</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="37">
-        <v>-37.799999999999997</v>
-      </c>
-      <c r="H15" s="37">
-        <v>-26.3</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="55"/>
-      <c r="B16" s="27">
-        <v>16</v>
-      </c>
-      <c r="C16" s="54">
-        <v>2</v>
-      </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="G16" s="37">
-        <v>-37.5</v>
-      </c>
-      <c r="H16" s="37">
-        <v>-27.9</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="55"/>
-      <c r="B17" s="27">
-        <v>8</v>
-      </c>
-      <c r="C17" s="54">
-        <v>3</v>
-      </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="37">
-        <v>-36.700000000000003</v>
-      </c>
-      <c r="H17" s="37">
-        <v>-29.8</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="55"/>
-      <c r="B18" s="27">
-        <v>21</v>
-      </c>
-      <c r="C18" s="54">
-        <v>3</v>
-      </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="37">
-        <v>-36.6</v>
-      </c>
-      <c r="H18" s="37">
-        <v>-31</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="55"/>
-      <c r="B19" s="27">
-        <v>38</v>
-      </c>
-      <c r="C19" s="54">
-        <v>1</v>
-      </c>
-      <c r="D19" s="54">
-        <v>0</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="37">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="H19" s="37">
-        <v>-21.8</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="55"/>
-      <c r="B20" s="27">
-        <v>18</v>
-      </c>
-      <c r="C20" s="54">
-        <v>2</v>
-      </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="37">
-        <v>-35.5</v>
-      </c>
-      <c r="H20" s="37">
-        <v>-29.3</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="55"/>
-      <c r="B21" s="27">
-        <v>22</v>
-      </c>
-      <c r="C21" s="54">
-        <v>3</v>
-      </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="37">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="H21" s="37">
-        <v>-26</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="55"/>
-      <c r="B22" s="27">
-        <v>4</v>
-      </c>
-      <c r="C22" s="54">
-        <v>3</v>
-      </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="37">
-        <v>-34</v>
-      </c>
-      <c r="H22" s="37">
-        <v>-22</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="55"/>
-      <c r="B23" s="27">
-        <v>17</v>
-      </c>
-      <c r="C23" s="54">
-        <v>2</v>
-      </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="37">
-        <v>-33.6</v>
-      </c>
-      <c r="H23" s="37">
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="55"/>
-      <c r="B24" s="27">
-        <v>12</v>
-      </c>
-      <c r="C24" s="54">
-        <v>2</v>
-      </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="37">
-        <v>-33.5</v>
-      </c>
-      <c r="H24" s="37">
-        <v>-20.399999999999999</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="55"/>
-      <c r="B25" s="27">
-        <v>46</v>
-      </c>
-      <c r="C25" s="54">
-        <v>1</v>
-      </c>
-      <c r="D25" s="54">
-        <v>0</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="37">
-        <v>-32.9</v>
-      </c>
-      <c r="H25" s="37">
-        <v>-18.2</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="55"/>
-      <c r="B26" s="27">
-        <v>26</v>
-      </c>
-      <c r="C26" s="54">
-        <v>1</v>
-      </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="37">
-        <v>-31.9</v>
-      </c>
-      <c r="H26" s="37">
-        <v>-17.399999999999999</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="55"/>
-      <c r="B27" s="27">
-        <v>43</v>
-      </c>
-      <c r="C27" s="54">
-        <v>1</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="37">
-        <v>-31.5</v>
-      </c>
-      <c r="H27" s="37">
-        <v>-15.2</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="55"/>
-      <c r="B28" s="27">
-        <v>25</v>
-      </c>
-      <c r="C28" s="54">
-        <v>1</v>
-      </c>
-      <c r="D28" s="54">
-        <v>0</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="37">
-        <v>-31.3</v>
-      </c>
-      <c r="H28" s="37">
-        <v>-13</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="55"/>
-      <c r="B29" s="27">
-        <v>27</v>
-      </c>
-      <c r="C29" s="54">
-        <v>1</v>
-      </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="37">
-        <v>-29.5</v>
-      </c>
-      <c r="H29" s="37">
-        <v>-19.8</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="55"/>
-      <c r="B30" s="27">
-        <v>47</v>
-      </c>
-      <c r="C30" s="54">
-        <v>1</v>
-      </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="37">
-        <v>-29.1</v>
-      </c>
-      <c r="H30" s="37">
-        <v>-20.9</v>
-      </c>
-      <c r="I30" s="35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="55"/>
-      <c r="B31" s="27">
-        <v>44</v>
-      </c>
-      <c r="C31" s="54">
-        <v>1</v>
-      </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="37">
-        <v>-29.1</v>
-      </c>
-      <c r="H31" s="37">
-        <v>-15.1</v>
-      </c>
-      <c r="I31" s="35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="55"/>
-      <c r="B32" s="27">
-        <v>39</v>
-      </c>
-      <c r="C32" s="54">
-        <v>1</v>
-      </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="F32" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="37">
-        <v>-28.9</v>
-      </c>
-      <c r="H32" s="37">
-        <v>-14.7</v>
-      </c>
-      <c r="I32" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="55"/>
-      <c r="B33" s="27">
-        <v>11</v>
-      </c>
-      <c r="C33" s="54">
-        <v>2</v>
-      </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="37">
-        <v>-28.8</v>
-      </c>
-      <c r="H33" s="37">
-        <v>-18.899999999999999</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="55"/>
-      <c r="B34" s="27">
-        <v>30</v>
-      </c>
-      <c r="C34" s="54">
-        <v>1</v>
-      </c>
-      <c r="D34" s="54">
-        <v>0</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="37">
-        <v>-28.3</v>
-      </c>
-      <c r="H34" s="37">
-        <v>-15.1</v>
-      </c>
-      <c r="I34" s="35" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="55"/>
-      <c r="B35" s="27">
-        <v>32</v>
-      </c>
-      <c r="C35" s="54">
-        <v>1</v>
-      </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="37">
-        <v>-28.2</v>
-      </c>
-      <c r="H35" s="37">
-        <v>-6.2</v>
-      </c>
-      <c r="I35" s="35"/>
-    </row>
-    <row r="36" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="55"/>
-      <c r="B36" s="27">
-        <v>40</v>
-      </c>
-      <c r="C36" s="54">
-        <v>1</v>
-      </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="F36" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="37">
-        <v>-27</v>
-      </c>
-      <c r="H36" s="37">
-        <v>-17.600000000000001</v>
-      </c>
-      <c r="I36" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="55"/>
-      <c r="B37" s="27">
-        <v>24</v>
-      </c>
-      <c r="C37" s="54">
-        <v>3</v>
-      </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="F37" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="37">
-        <v>-24</v>
-      </c>
-      <c r="H37" s="37">
-        <v>-14.1</v>
-      </c>
-      <c r="I37" s="35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="55"/>
-      <c r="B38" s="27">
-        <v>41</v>
-      </c>
-      <c r="C38" s="54">
-        <v>1</v>
-      </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" s="37">
-        <v>-23.5</v>
-      </c>
-      <c r="H38" s="37">
-        <v>-1.9</v>
-      </c>
-      <c r="I38" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="55"/>
-      <c r="B39" s="27">
-        <v>42</v>
-      </c>
-      <c r="C39" s="54">
-        <v>1</v>
-      </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="37">
-        <v>-23.5</v>
-      </c>
-      <c r="H39" s="37">
-        <v>-1.9</v>
-      </c>
-      <c r="I39" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="55"/>
-      <c r="B40" s="27">
-        <v>9</v>
-      </c>
-      <c r="C40" s="54">
-        <v>2</v>
-      </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="37">
-        <v>-23.4</v>
-      </c>
-      <c r="H40" s="37">
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="55"/>
-      <c r="B41" s="27">
-        <v>10</v>
-      </c>
-      <c r="C41" s="54">
-        <v>2</v>
-      </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="37">
-        <v>-23</v>
-      </c>
-      <c r="H41" s="37">
-        <v>-18</v>
-      </c>
-      <c r="I41" s="35" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="55"/>
-      <c r="B42" s="27">
-        <v>29</v>
-      </c>
-      <c r="C42" s="54">
-        <v>1</v>
-      </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="F42" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="37">
-        <v>-22.7</v>
-      </c>
-      <c r="H42" s="37">
-        <v>-16.600000000000001</v>
-      </c>
-      <c r="I42" s="35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="55"/>
-      <c r="B43" s="27">
-        <v>33</v>
-      </c>
-      <c r="C43" s="54">
-        <v>1</v>
-      </c>
-      <c r="D43" s="54">
-        <v>0</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="F43" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="37">
-        <v>-22.7</v>
-      </c>
-      <c r="H43" s="37">
-        <v>-14.1</v>
-      </c>
-      <c r="I43" s="35"/>
-    </row>
-    <row r="44" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="55"/>
-      <c r="B44" s="27">
-        <v>28</v>
-      </c>
-      <c r="C44" s="54">
-        <v>1</v>
-      </c>
-      <c r="D44" s="54">
-        <v>0</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" s="37">
-        <v>-21.6</v>
-      </c>
-      <c r="H44" s="37">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="55"/>
-      <c r="B45" s="27">
-        <v>37</v>
-      </c>
-      <c r="C45" s="54">
-        <v>1</v>
-      </c>
-      <c r="D45" s="54">
-        <v>0</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="F45" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="G45" s="37">
-        <v>-20.9</v>
-      </c>
-      <c r="H45" s="37">
-        <v>-8.9</v>
-      </c>
-      <c r="I45" s="35"/>
-    </row>
-    <row r="46" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="55"/>
-      <c r="B46" s="27">
-        <v>36</v>
-      </c>
-      <c r="C46" s="54">
-        <v>1</v>
-      </c>
-      <c r="D46" s="54">
-        <v>0</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="37">
-        <v>-20.399999999999999</v>
-      </c>
-      <c r="H46" s="37">
-        <v>-7.4</v>
-      </c>
-      <c r="I46" s="35"/>
-    </row>
-    <row r="47" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="55"/>
-      <c r="B47" s="27">
-        <v>34</v>
-      </c>
-      <c r="C47" s="54">
-        <v>1</v>
-      </c>
-      <c r="D47" s="54">
-        <v>0</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="F47" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="G47" s="37">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="H47" s="37">
-        <v>-11.4</v>
-      </c>
-      <c r="I47" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="55"/>
-      <c r="B48" s="27">
-        <v>35</v>
-      </c>
-      <c r="C48" s="54">
-        <v>1</v>
-      </c>
-      <c r="D48" s="54">
-        <v>0</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="F48" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" s="37">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="H48" s="37">
-        <v>-8.6</v>
-      </c>
-      <c r="I48" s="35" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="55"/>
-      <c r="B49" s="27">
-        <v>31</v>
-      </c>
-      <c r="C49" s="54">
-        <v>1</v>
-      </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="G49" s="37">
-        <v>-15.9</v>
-      </c>
-      <c r="H49" s="37">
-        <v>-5.6</v>
-      </c>
-      <c r="I49" s="35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="55"/>
-      <c r="B50" s="27">
-        <v>45</v>
-      </c>
-      <c r="C50" s="54">
-        <v>1</v>
-      </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50" s="37">
-        <v>-14.7</v>
-      </c>
-      <c r="H50" s="37">
-        <v>-3</v>
-      </c>
-      <c r="I50" s="35" t="s">
-        <v>159</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I50">
-    <sortCondition ref="G4:G50"/>
-    <sortCondition ref="H4:H50"/>
-    <sortCondition ref="I4:I50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I51">
+    <sortCondition ref="B4:B51"/>
+    <sortCondition ref="G4:G51"/>
+    <sortCondition ref="H4:H51"/>
   </sortState>
   <mergeCells count="6">
-    <mergeCell ref="A3:A50"/>
+    <mergeCell ref="A3:A51"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="H1:I1"/>
@@ -6081,7 +6198,7 @@
     <mergeCell ref="A1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G4:G50">
+  <conditionalFormatting sqref="G4:G51">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6093,7 +6210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H50">
+  <conditionalFormatting sqref="H4:H51">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6111,10 +6228,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6452CB3-0983-4391-8A7D-2C5221219E76}">
-  <dimension ref="A1:AV79"/>
+  <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6122,7 +6239,7 @@
     <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -6220,55 +6337,58 @@
         <v>139</v>
       </c>
       <c r="AG1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH1" t="s">
         <v>140</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>141</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>142</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>143</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>144</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>145</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>146</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>73</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>71</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>147</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>148</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>78</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>80</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>82</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>67</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A2" s="16">
         <v>45649</v>
       </c>
@@ -6365,56 +6485,56 @@
       <c r="AF2">
         <v>-15.1</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>-18.3</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>-26.5</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>-17.899999999999999</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>-17.7</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>-19.100000000000001</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>-23.6</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>-37.6</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>-34.4</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>-28.6</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>-26.3</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>-19</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>-21.7</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>-18.100000000000001</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>-16</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>-33.1</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>-29.4</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <v>45650</v>
       </c>
@@ -6511,56 +6631,56 @@
       <c r="AF3">
         <v>-11</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-18.5</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-23.3</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-15.5</v>
-      </c>
-      <c r="AJ3">
-        <v>-19.899999999999999</v>
       </c>
       <c r="AK3">
         <v>-19.899999999999999</v>
       </c>
       <c r="AL3">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="AM3">
         <v>-17.2</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-31.7</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-31.2</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>-28</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>-16.899999999999999</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>-21.1</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>-27.7</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>-17.8</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>-14.8</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>-32.799999999999997</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>-30.4</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A4" s="16">
         <v>45651</v>
       </c>
@@ -6657,56 +6777,56 @@
       <c r="AF4">
         <v>-14</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>-18.5</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-19.899999999999999</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-14.6</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-17.8</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-12</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>-17.899999999999999</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-28</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>-35.6</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>-22.2</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>-14.2</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>-16.399999999999999</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>-29.6</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>-26.4</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>-13</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>-32.700000000000003</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>-32.9</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
         <v>45652</v>
       </c>
@@ -6803,56 +6923,56 @@
       <c r="AF5">
         <v>-16.899999999999999</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-23.7</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-25.9</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-20.2</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-14.5</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-16.2</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-22</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-31.6</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-34.5</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>-29.3</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>-26.4</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>-23.2</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>-31.1</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>-31.6</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>-11.2</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>-29</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>-25.6</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
         <v>45653</v>
       </c>
@@ -6949,101 +7069,1106 @@
       <c r="AF6">
         <v>-15.9</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-28.2</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-22.7</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-18.600000000000001</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-16.899999999999999</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-20.399999999999999</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-20.9</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-36.200000000000003</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-28.9</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>-27</v>
-      </c>
-      <c r="AP6">
-        <v>-23.5</v>
       </c>
       <c r="AQ6">
         <v>-23.5</v>
       </c>
       <c r="AR6">
+        <v>-23.5</v>
+      </c>
+      <c r="AS6">
         <v>-31.5</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>-29.1</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>-14.7</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>-32.9</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>-29.1</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>45654</v>
       </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>-35.6</v>
+      </c>
+      <c r="C7">
+        <v>-38.9</v>
+      </c>
+      <c r="D7">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="E7">
+        <v>-32</v>
+      </c>
+      <c r="F7">
+        <v>-42.9</v>
+      </c>
+      <c r="G7">
+        <v>-40</v>
+      </c>
+      <c r="H7">
+        <v>-39.9</v>
+      </c>
+      <c r="I7">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="J7">
+        <v>-27.5</v>
+      </c>
+      <c r="K7">
+        <v>-22.8</v>
+      </c>
+      <c r="L7">
+        <v>-29</v>
+      </c>
+      <c r="M7">
+        <v>-34.9</v>
+      </c>
+      <c r="N7">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="O7">
+        <v>-40.5</v>
+      </c>
+      <c r="P7">
+        <v>-41.5</v>
+      </c>
+      <c r="Q7">
+        <v>-38.9</v>
+      </c>
+      <c r="R7">
+        <v>-33</v>
+      </c>
+      <c r="S7">
+        <v>-31.3</v>
+      </c>
+      <c r="T7">
+        <v>-35.5</v>
+      </c>
+      <c r="U7">
+        <v>-35.1</v>
+      </c>
+      <c r="V7">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="W7">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="X7">
+        <v>-40.1</v>
+      </c>
+      <c r="Y7">
+        <v>-21.2</v>
+      </c>
+      <c r="Z7">
+        <v>-27.7</v>
+      </c>
+      <c r="AA7">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="AB7">
+        <v>-26.2</v>
+      </c>
+      <c r="AC7">
+        <v>-19.3</v>
+      </c>
+      <c r="AD7">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AE7">
+        <v>-33.1</v>
+      </c>
+      <c r="AF7">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="AH7">
+        <v>-21</v>
+      </c>
+      <c r="AI7">
+        <v>-20.2</v>
+      </c>
+      <c r="AJ7">
+        <v>-17.5</v>
+      </c>
+      <c r="AK7">
+        <v>-22.8</v>
+      </c>
+      <c r="AL7">
+        <v>-21.4</v>
+      </c>
+      <c r="AM7">
+        <v>-20.9</v>
+      </c>
+      <c r="AN7">
+        <v>-34.4</v>
+      </c>
+      <c r="AO7">
+        <v>-27.6</v>
+      </c>
+      <c r="AP7">
+        <v>-23.8</v>
+      </c>
+      <c r="AQ7">
+        <v>-26.1</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS7">
+        <v>-25.3</v>
+      </c>
+      <c r="AT7">
+        <v>-24.3</v>
+      </c>
+      <c r="AU7">
+        <v>-12.1</v>
+      </c>
+      <c r="AV7">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="AW7">
+        <v>-34.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <v>45655</v>
       </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>-40.700000000000003</v>
+      </c>
+      <c r="C8">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="D8">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="E8">
+        <v>-28.8</v>
+      </c>
+      <c r="F8">
+        <v>-37</v>
+      </c>
+      <c r="G8">
+        <v>-40</v>
+      </c>
+      <c r="H8">
+        <v>-39.6</v>
+      </c>
+      <c r="I8">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="J8">
+        <v>-24.9</v>
+      </c>
+      <c r="K8">
+        <v>-21.5</v>
+      </c>
+      <c r="L8">
+        <v>-29.8</v>
+      </c>
+      <c r="M8">
+        <v>-34.1</v>
+      </c>
+      <c r="N8">
+        <v>-42.2</v>
+      </c>
+      <c r="O8">
+        <v>-42.3</v>
+      </c>
+      <c r="P8">
+        <v>-43.9</v>
+      </c>
+      <c r="Q8">
+        <v>-38.6</v>
+      </c>
+      <c r="R8">
+        <v>-31.8</v>
+      </c>
+      <c r="S8">
+        <v>-29.1</v>
+      </c>
+      <c r="T8">
+        <v>-26.9</v>
+      </c>
+      <c r="U8">
+        <v>-35.1</v>
+      </c>
+      <c r="V8">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="W8">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="X8">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="Y8">
+        <v>-22</v>
+      </c>
+      <c r="Z8">
+        <v>-35.1</v>
+      </c>
+      <c r="AA8">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="AB8">
+        <v>-24.3</v>
+      </c>
+      <c r="AC8">
+        <v>-19.7</v>
+      </c>
+      <c r="AD8">
+        <v>-12.3</v>
+      </c>
+      <c r="AE8">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="AF8">
+        <v>-15.2</v>
+      </c>
+      <c r="AG8">
+        <v>-6.2</v>
+      </c>
+      <c r="AH8">
+        <v>-15.2</v>
+      </c>
+      <c r="AI8">
+        <v>-18.2</v>
+      </c>
+      <c r="AJ8">
+        <v>-22</v>
+      </c>
+      <c r="AK8">
+        <v>-21.2</v>
+      </c>
+      <c r="AL8">
+        <v>-20</v>
+      </c>
+      <c r="AM8">
+        <v>-20.3</v>
+      </c>
+      <c r="AN8">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="AO8">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="AP8">
+        <v>-24</v>
+      </c>
+      <c r="AQ8">
+        <v>-10.7</v>
+      </c>
+      <c r="AR8">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="AS8">
+        <v>-21</v>
+      </c>
+      <c r="AT8">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="AU8">
+        <v>-15.3</v>
+      </c>
+      <c r="AV8">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="AW8">
+        <v>-31.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
         <v>45656</v>
       </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>-38.1</v>
+      </c>
+      <c r="C9">
+        <v>-37.5</v>
+      </c>
+      <c r="D9">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="E9">
+        <v>-31</v>
+      </c>
+      <c r="F9">
+        <v>-35.5</v>
+      </c>
+      <c r="G9">
+        <v>-37</v>
+      </c>
+      <c r="H9">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="I9">
+        <v>-37.4</v>
+      </c>
+      <c r="J9">
+        <v>-22.2</v>
+      </c>
+      <c r="K9">
+        <v>-19.3</v>
+      </c>
+      <c r="L9">
+        <v>-30.3</v>
+      </c>
+      <c r="M9">
+        <v>-34</v>
+      </c>
+      <c r="N9">
+        <v>-41.1</v>
+      </c>
+      <c r="O9">
+        <v>-44.4</v>
+      </c>
+      <c r="P9">
+        <v>-43.2</v>
+      </c>
+      <c r="Q9">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="R9">
+        <v>-27.9</v>
+      </c>
+      <c r="S9">
+        <v>-27.3</v>
+      </c>
+      <c r="T9">
+        <v>-24.7</v>
+      </c>
+      <c r="U9">
+        <v>-35.4</v>
+      </c>
+      <c r="V9">
+        <v>-36.1</v>
+      </c>
+      <c r="W9">
+        <v>-33.1</v>
+      </c>
+      <c r="X9">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="Y9">
+        <v>-20.2</v>
+      </c>
+      <c r="Z9">
+        <v>-30.3</v>
+      </c>
+      <c r="AA9">
+        <v>-25.7</v>
+      </c>
+      <c r="AB9">
+        <v>-22.7</v>
+      </c>
+      <c r="AC9">
+        <v>-14.5</v>
+      </c>
+      <c r="AD9">
+        <v>-14.2</v>
+      </c>
+      <c r="AE9">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="AF9">
+        <v>-13.7</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="AI9">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="AJ9">
+        <v>-17</v>
+      </c>
+      <c r="AK9">
+        <v>-14.6</v>
+      </c>
+      <c r="AL9">
+        <v>-13.9</v>
+      </c>
+      <c r="AM9">
+        <v>-16.5</v>
+      </c>
+      <c r="AN9">
+        <v>-31</v>
+      </c>
+      <c r="AO9">
+        <v>-34</v>
+      </c>
+      <c r="AP9">
+        <v>-24.5</v>
+      </c>
+      <c r="AQ9">
+        <v>-26.3</v>
+      </c>
+      <c r="AR9">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AS9">
+        <v>-23.7</v>
+      </c>
+      <c r="AT9">
+        <v>-19.5</v>
+      </c>
+      <c r="AU9">
+        <v>-12.9</v>
+      </c>
+      <c r="AV9">
+        <v>-25</v>
+      </c>
+      <c r="AW9">
+        <v>-25.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
         <v>45657</v>
       </c>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>-38.9</v>
+      </c>
+      <c r="C10">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="D10">
+        <v>-30.8</v>
+      </c>
+      <c r="E10">
+        <v>-30</v>
+      </c>
+      <c r="F10">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="G10">
+        <v>-36.4</v>
+      </c>
+      <c r="H10">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="I10">
+        <v>-37</v>
+      </c>
+      <c r="J10">
+        <v>-24.7</v>
+      </c>
+      <c r="K10">
+        <v>-19.2</v>
+      </c>
+      <c r="L10">
+        <v>-31.5</v>
+      </c>
+      <c r="M10">
+        <v>-34.6</v>
+      </c>
+      <c r="N10">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="O10">
+        <v>-40.5</v>
+      </c>
+      <c r="P10">
+        <v>-40.4</v>
+      </c>
+      <c r="Q10">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="R10">
+        <v>-29.9</v>
+      </c>
+      <c r="S10">
+        <v>-28.5</v>
+      </c>
+      <c r="T10">
+        <v>-29.1</v>
+      </c>
+      <c r="U10">
+        <v>-31.2</v>
+      </c>
+      <c r="V10">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="W10">
+        <v>-35.4</v>
+      </c>
+      <c r="X10">
+        <v>-30.8</v>
+      </c>
+      <c r="Y10">
+        <v>-22.7</v>
+      </c>
+      <c r="Z10">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="AA10">
+        <v>-32.1</v>
+      </c>
+      <c r="AB10">
+        <v>-22.8</v>
+      </c>
+      <c r="AC10">
+        <v>-13.2</v>
+      </c>
+      <c r="AD10">
+        <v>-11.7</v>
+      </c>
+      <c r="AE10">
+        <v>-35</v>
+      </c>
+      <c r="AF10">
+        <v>-15.3</v>
+      </c>
+      <c r="AG10">
+        <v>-3.3</v>
+      </c>
+      <c r="AH10">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="AI10">
+        <v>-24.1</v>
+      </c>
+      <c r="AJ10">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="AK10">
+        <v>-13.1</v>
+      </c>
+      <c r="AL10">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="AM10">
+        <v>-21.8</v>
+      </c>
+      <c r="AN10">
+        <v>-26.6</v>
+      </c>
+      <c r="AO10">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="AP10">
+        <v>-23.2</v>
+      </c>
+      <c r="AQ10">
+        <v>-33.6</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS10">
+        <v>-21.5</v>
+      </c>
+      <c r="AT10">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="AU10">
+        <v>-12.7</v>
+      </c>
+      <c r="AV10">
+        <v>-31.5</v>
+      </c>
+      <c r="AW10">
+        <v>-31.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
         <v>45658</v>
       </c>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>-42.8</v>
+      </c>
+      <c r="C11">
+        <v>-41.4</v>
+      </c>
+      <c r="D11">
+        <v>-40.9</v>
+      </c>
+      <c r="E11">
+        <v>-29.6</v>
+      </c>
+      <c r="F11">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="G11">
+        <v>-42.2</v>
+      </c>
+      <c r="H11">
+        <v>-42.4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J11">
+        <v>-23</v>
+      </c>
+      <c r="K11">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="L11">
+        <v>-28.9</v>
+      </c>
+      <c r="M11">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="N11">
+        <v>-33.4</v>
+      </c>
+      <c r="O11">
+        <v>-41.3</v>
+      </c>
+      <c r="P11">
+        <v>-40.4</v>
+      </c>
+      <c r="Q11">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="R11">
+        <v>-27.7</v>
+      </c>
+      <c r="S11">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="T11">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="U11">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="V11">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="W11">
+        <v>-37</v>
+      </c>
+      <c r="X11">
+        <v>-35.4</v>
+      </c>
+      <c r="Y11">
+        <v>-23.4</v>
+      </c>
+      <c r="Z11">
+        <v>-36.6</v>
+      </c>
+      <c r="AA11">
+        <v>-32.4</v>
+      </c>
+      <c r="AB11">
+        <v>-25.4</v>
+      </c>
+      <c r="AC11">
+        <v>-12.4</v>
+      </c>
+      <c r="AD11">
+        <v>-10.7</v>
+      </c>
+      <c r="AE11">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="AF11">
+        <v>-12.2</v>
+      </c>
+      <c r="AG11">
+        <v>-2.7</v>
+      </c>
+      <c r="AH11">
+        <v>-11.7</v>
+      </c>
+      <c r="AI11">
+        <v>-23.1</v>
+      </c>
+      <c r="AJ11">
+        <v>-21.4</v>
+      </c>
+      <c r="AK11">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="AL11">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="AM11">
+        <v>-18</v>
+      </c>
+      <c r="AN11">
+        <v>-30.4</v>
+      </c>
+      <c r="AO11">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="AP11">
+        <v>-19.8</v>
+      </c>
+      <c r="AQ11">
+        <v>-24.7</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS11">
+        <v>-14.8</v>
+      </c>
+      <c r="AT11">
+        <v>-18</v>
+      </c>
+      <c r="AU11">
+        <v>-12.2</v>
+      </c>
+      <c r="AV11">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="AW11">
+        <v>-35.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>45659</v>
       </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="C12">
+        <v>-42.3</v>
+      </c>
+      <c r="D12">
+        <v>-41</v>
+      </c>
+      <c r="E12">
+        <v>-30</v>
+      </c>
+      <c r="F12">
+        <v>-45.3</v>
+      </c>
+      <c r="G12">
+        <v>-44.3</v>
+      </c>
+      <c r="H12">
+        <v>-39.5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J12">
+        <v>-27.9</v>
+      </c>
+      <c r="K12">
+        <v>-22.7</v>
+      </c>
+      <c r="L12">
+        <v>-30.7</v>
+      </c>
+      <c r="M12">
+        <v>-37.1</v>
+      </c>
+      <c r="N12">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="O12">
+        <v>-41.2</v>
+      </c>
+      <c r="P12">
+        <v>-41.2</v>
+      </c>
+      <c r="Q12">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="R12">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="S12">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="T12">
+        <v>-35.1</v>
+      </c>
+      <c r="U12">
+        <v>-38.9</v>
+      </c>
+      <c r="V12">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="W12">
+        <v>-36.5</v>
+      </c>
+      <c r="X12">
+        <v>-40.6</v>
+      </c>
+      <c r="Y12">
+        <v>-25.8</v>
+      </c>
+      <c r="Z12">
+        <v>-38</v>
+      </c>
+      <c r="AA12">
+        <v>-34.1</v>
+      </c>
+      <c r="AB12">
+        <v>-26</v>
+      </c>
+      <c r="AC12">
+        <v>-13.1</v>
+      </c>
+      <c r="AD12">
+        <v>-12.6</v>
+      </c>
+      <c r="AE12">
+        <v>-32.6</v>
+      </c>
+      <c r="AF12">
+        <v>-15.2</v>
+      </c>
+      <c r="AG12">
+        <v>-1.6</v>
+      </c>
+      <c r="AH12">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="AI12">
+        <v>-24.9</v>
+      </c>
+      <c r="AJ12">
+        <v>-23.8</v>
+      </c>
+      <c r="AK12">
+        <v>-16.5</v>
+      </c>
+      <c r="AL12">
+        <v>-20</v>
+      </c>
+      <c r="AM12">
+        <v>-22.3</v>
+      </c>
+      <c r="AN12">
+        <v>-34.6</v>
+      </c>
+      <c r="AO12">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="AP12">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="AQ12">
+        <v>-29.2</v>
+      </c>
+      <c r="AR12">
+        <v>-18.7</v>
+      </c>
+      <c r="AS12">
+        <v>-22.5</v>
+      </c>
+      <c r="AT12">
+        <v>-17</v>
+      </c>
+      <c r="AU12">
+        <v>-11.6</v>
+      </c>
+      <c r="AV12">
+        <v>-36</v>
+      </c>
+      <c r="AW12">
+        <v>-36.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>45660</v>
       </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="C13">
+        <v>-36.5</v>
+      </c>
+      <c r="D13">
+        <v>-30.7</v>
+      </c>
+      <c r="E13">
+        <v>-33</v>
+      </c>
+      <c r="F13">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="G13">
+        <v>-36</v>
+      </c>
+      <c r="H13">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="I13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="K13">
+        <v>-23.3</v>
+      </c>
+      <c r="L13">
+        <v>-30.3</v>
+      </c>
+      <c r="M13">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="N13">
+        <v>-40.6</v>
+      </c>
+      <c r="O13">
+        <v>-41.5</v>
+      </c>
+      <c r="P13">
+        <v>-44.1</v>
+      </c>
+      <c r="Q13">
+        <v>-38.5</v>
+      </c>
+      <c r="R13">
+        <v>-28.1</v>
+      </c>
+      <c r="S13">
+        <v>-33.6</v>
+      </c>
+      <c r="T13">
+        <v>-28.4</v>
+      </c>
+      <c r="U13">
+        <v>-38.1</v>
+      </c>
+      <c r="V13">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="W13">
+        <v>-35.4</v>
+      </c>
+      <c r="X13">
+        <v>-37.5</v>
+      </c>
+      <c r="Y13">
+        <v>-23.5</v>
+      </c>
+      <c r="Z13">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="AA13">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="AB13">
+        <v>-28.1</v>
+      </c>
+      <c r="AC13">
+        <v>-9.9</v>
+      </c>
+      <c r="AD13">
+        <v>-12.1</v>
+      </c>
+      <c r="AE13">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="AF13">
+        <v>-17.7</v>
+      </c>
+      <c r="AG13">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AH13">
+        <v>-15.4</v>
+      </c>
+      <c r="AI13">
+        <v>-22.3</v>
+      </c>
+      <c r="AJ13">
+        <v>-18.7</v>
+      </c>
+      <c r="AK13">
+        <v>-22.1</v>
+      </c>
+      <c r="AL13">
+        <v>-21.6</v>
+      </c>
+      <c r="AM13">
+        <v>-24.1</v>
+      </c>
+      <c r="AN13">
+        <v>-31.5</v>
+      </c>
+      <c r="AO13">
+        <v>-37</v>
+      </c>
+      <c r="AP13">
+        <v>-27.3</v>
+      </c>
+      <c r="AQ13">
+        <v>-23.6</v>
+      </c>
+      <c r="AR13">
+        <v>-21.1</v>
+      </c>
+      <c r="AS13">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AT13">
+        <v>-23.3</v>
+      </c>
+      <c r="AU13">
+        <v>-14.2</v>
+      </c>
+      <c r="AV13">
+        <v>-37.5</v>
+      </c>
+      <c r="AW13">
+        <v>-38.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>45661</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
         <v>45662</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>45663</v>
       </c>
@@ -7351,10 +8476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFE5A94-8276-425C-8C4C-F53ED14714E0}">
-  <dimension ref="A1:AV79"/>
+  <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7362,7 +8487,7 @@
     <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -7460,55 +8585,58 @@
         <v>139</v>
       </c>
       <c r="AG1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH1" t="s">
         <v>140</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>141</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>142</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>143</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>144</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>145</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>146</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>73</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>71</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>147</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>148</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>78</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>80</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>82</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>67</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A2" s="16">
         <v>45649</v>
       </c>
@@ -7605,56 +8733,56 @@
       <c r="AF2">
         <v>-0.8</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>-10</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>-9.5</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>-5.9</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>-3.6</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>-0.5</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>-23.6</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>-22</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>-15.9</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>-2.9</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>-1.6</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>-12.3</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>-11.4</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>-11</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>-15.6</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>-18.2</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <v>45650</v>
       </c>
@@ -7751,56 +8879,56 @@
       <c r="AF3">
         <v>-3.9</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-5.5</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-7.9</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-5.6</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-3.3</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-2.5</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-2.1</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-16.399999999999999</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-12.1</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>-8.1</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>-0.7</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>-2</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>-16.399999999999999</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>-7.4</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>-5.7</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>-18.2</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>-22</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A4" s="16">
         <v>45651</v>
       </c>
@@ -7897,56 +9025,56 @@
       <c r="AF4">
         <v>-5.7</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>-10.8</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-12.4</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-5.7</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>0</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>-5</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-15.4</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>-21.2</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>-11.8</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>-6.1</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>-5.6</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>-17.399999999999999</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>-11.6</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>-4.5</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>-16.3</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>-18.5</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
         <v>45652</v>
       </c>
@@ -8043,56 +9171,56 @@
       <c r="AF5">
         <v>-5.5</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-13</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-13.9</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-12.3</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-6.5</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-6</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-7.1</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-18.3</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-14.5</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>-18.5</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>-6</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>-6.3</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>-16</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>-18.5</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>-5.4</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>-12.3</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>-16.5</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
         <v>45653</v>
       </c>
@@ -8189,101 +9317,1106 @@
       <c r="AF6">
         <v>-5.6</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-6.2</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-14.1</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-11.4</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-8.6</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-7.4</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-8.9</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-21.8</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-14.7</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>-17.600000000000001</v>
-      </c>
-      <c r="AP6">
-        <v>-1.9</v>
       </c>
       <c r="AQ6">
         <v>-1.9</v>
       </c>
       <c r="AR6">
+        <v>-1.9</v>
+      </c>
+      <c r="AS6">
         <v>-15.2</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>-15.1</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>-3</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>-18.2</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>-20.9</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>45654</v>
       </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>-27.7</v>
+      </c>
+      <c r="C7">
+        <v>-27.1</v>
+      </c>
+      <c r="D7">
+        <v>-11</v>
+      </c>
+      <c r="E7">
+        <v>-21</v>
+      </c>
+      <c r="F7">
+        <v>-29.7</v>
+      </c>
+      <c r="G7">
+        <v>-29.5</v>
+      </c>
+      <c r="H7">
+        <v>-27.3</v>
+      </c>
+      <c r="I7">
+        <v>-29</v>
+      </c>
+      <c r="J7">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="K7">
+        <v>-16.5</v>
+      </c>
+      <c r="L7">
+        <v>-19.5</v>
+      </c>
+      <c r="M7">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="N7">
+        <v>-31.4</v>
+      </c>
+      <c r="O7">
+        <v>-21.2</v>
+      </c>
+      <c r="P7">
+        <v>-23.9</v>
+      </c>
+      <c r="Q7">
+        <v>-29.3</v>
+      </c>
+      <c r="R7">
+        <v>-15.7</v>
+      </c>
+      <c r="S7">
+        <v>-24.2</v>
+      </c>
+      <c r="T7">
+        <v>-22.8</v>
+      </c>
+      <c r="U7">
+        <v>-25.6</v>
+      </c>
+      <c r="V7">
+        <v>-29.7</v>
+      </c>
+      <c r="W7">
+        <v>-26.6</v>
+      </c>
+      <c r="X7">
+        <v>-29.3</v>
+      </c>
+      <c r="Y7">
+        <v>-6.2</v>
+      </c>
+      <c r="Z7">
+        <v>-13.6</v>
+      </c>
+      <c r="AA7">
+        <v>-17.8</v>
+      </c>
+      <c r="AB7">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="AC7">
+        <v>-10</v>
+      </c>
+      <c r="AD7">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AE7">
+        <v>-25.4</v>
+      </c>
+      <c r="AF7">
+        <v>-7</v>
+      </c>
+      <c r="AH7">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AI7">
+        <v>-7.4</v>
+      </c>
+      <c r="AJ7">
+        <v>-11.7</v>
+      </c>
+      <c r="AK7">
+        <v>-7.3</v>
+      </c>
+      <c r="AL7">
+        <v>-4.5</v>
+      </c>
+      <c r="AM7">
+        <v>-3.9</v>
+      </c>
+      <c r="AN7">
+        <v>-20.5</v>
+      </c>
+      <c r="AO7">
+        <v>-14.3</v>
+      </c>
+      <c r="AP7">
+        <v>-14.7</v>
+      </c>
+      <c r="AQ7">
+        <v>3.1</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS7">
+        <v>-11.5</v>
+      </c>
+      <c r="AT7">
+        <v>-6.1</v>
+      </c>
+      <c r="AU7">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AV7">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="AW7">
+        <v>-23.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <v>45655</v>
       </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>-27.8</v>
+      </c>
+      <c r="C8">
+        <v>-25.7</v>
+      </c>
+      <c r="D8">
+        <v>-10.6</v>
+      </c>
+      <c r="E8">
+        <v>-16</v>
+      </c>
+      <c r="F8">
+        <v>-13.3</v>
+      </c>
+      <c r="G8">
+        <v>-27.5</v>
+      </c>
+      <c r="H8">
+        <v>-29.1</v>
+      </c>
+      <c r="I8">
+        <v>-27.8</v>
+      </c>
+      <c r="J8">
+        <v>-16.2</v>
+      </c>
+      <c r="K8">
+        <v>-14.4</v>
+      </c>
+      <c r="L8">
+        <v>-20</v>
+      </c>
+      <c r="M8">
+        <v>-22.9</v>
+      </c>
+      <c r="N8">
+        <v>-31.6</v>
+      </c>
+      <c r="O8">
+        <v>-23.8</v>
+      </c>
+      <c r="P8">
+        <v>-26.7</v>
+      </c>
+      <c r="Q8">
+        <v>-28.8</v>
+      </c>
+      <c r="R8">
+        <v>-16.7</v>
+      </c>
+      <c r="S8">
+        <v>-22.1</v>
+      </c>
+      <c r="T8">
+        <v>-18.2</v>
+      </c>
+      <c r="U8">
+        <v>-24.8</v>
+      </c>
+      <c r="V8">
+        <v>-26.3</v>
+      </c>
+      <c r="W8">
+        <v>-25.2</v>
+      </c>
+      <c r="X8">
+        <v>-13.7</v>
+      </c>
+      <c r="Y8">
+        <v>-7.1</v>
+      </c>
+      <c r="Z8">
+        <v>-21.7</v>
+      </c>
+      <c r="AA8">
+        <v>-15.2</v>
+      </c>
+      <c r="AB8">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AC8">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="AD8">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AE8">
+        <v>-28.7</v>
+      </c>
+      <c r="AF8">
+        <v>-3.2</v>
+      </c>
+      <c r="AG8">
+        <v>11.6</v>
+      </c>
+      <c r="AH8">
+        <v>-2</v>
+      </c>
+      <c r="AI8">
+        <v>-5.2</v>
+      </c>
+      <c r="AJ8">
+        <v>-7.4</v>
+      </c>
+      <c r="AK8">
+        <v>-4.2</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>-2.5</v>
+      </c>
+      <c r="AN8">
+        <v>-20.3</v>
+      </c>
+      <c r="AO8">
+        <v>-20.3</v>
+      </c>
+      <c r="AP8">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="AQ8">
+        <v>-1.7</v>
+      </c>
+      <c r="AR8">
+        <v>-1.5</v>
+      </c>
+      <c r="AS8">
+        <v>-10</v>
+      </c>
+      <c r="AT8">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="AU8">
+        <v>-2.8</v>
+      </c>
+      <c r="AV8">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="AW8">
+        <v>-18.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
         <v>45656</v>
       </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>-26.2</v>
+      </c>
+      <c r="C9">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="D9">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="E9">
+        <v>-18</v>
+      </c>
+      <c r="F9">
+        <v>-24.2</v>
+      </c>
+      <c r="G9">
+        <v>-24.7</v>
+      </c>
+      <c r="H9">
+        <v>-26.8</v>
+      </c>
+      <c r="I9">
+        <v>-28.1</v>
+      </c>
+      <c r="J9">
+        <v>-15.1</v>
+      </c>
+      <c r="K9">
+        <v>-8.5</v>
+      </c>
+      <c r="L9">
+        <v>-20.5</v>
+      </c>
+      <c r="M9">
+        <v>-22.2</v>
+      </c>
+      <c r="N9">
+        <v>-30.7</v>
+      </c>
+      <c r="O9">
+        <v>-26.2</v>
+      </c>
+      <c r="P9">
+        <v>-28</v>
+      </c>
+      <c r="Q9">
+        <v>-29.9</v>
+      </c>
+      <c r="R9">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="S9">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="T9">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="U9">
+        <v>-25</v>
+      </c>
+      <c r="V9">
+        <v>-27.1</v>
+      </c>
+      <c r="W9">
+        <v>-26.3</v>
+      </c>
+      <c r="X9">
+        <v>-23.8</v>
+      </c>
+      <c r="Y9">
+        <v>-10.9</v>
+      </c>
+      <c r="Z9">
+        <v>-17.8</v>
+      </c>
+      <c r="AA9">
+        <v>-13.5</v>
+      </c>
+      <c r="AB9">
+        <v>-14.9</v>
+      </c>
+      <c r="AC9">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AD9">
+        <v>-6.1</v>
+      </c>
+      <c r="AE9">
+        <v>-26.5</v>
+      </c>
+      <c r="AF9">
+        <v>-3.3</v>
+      </c>
+      <c r="AG9">
+        <v>12.9</v>
+      </c>
+      <c r="AH9">
+        <v>0.5</v>
+      </c>
+      <c r="AI9">
+        <v>-8.4</v>
+      </c>
+      <c r="AJ9">
+        <v>-9</v>
+      </c>
+      <c r="AK9">
+        <v>-0.4</v>
+      </c>
+      <c r="AL9">
+        <v>-2</v>
+      </c>
+      <c r="AM9">
+        <v>-3.8</v>
+      </c>
+      <c r="AN9">
+        <v>-15.5</v>
+      </c>
+      <c r="AO9">
+        <v>-24.9</v>
+      </c>
+      <c r="AP9">
+        <v>-14.6</v>
+      </c>
+      <c r="AQ9">
+        <v>-7.5</v>
+      </c>
+      <c r="AR9">
+        <v>-7.6</v>
+      </c>
+      <c r="AS9">
+        <v>-9.9</v>
+      </c>
+      <c r="AT9">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="AU9">
+        <v>-0.6</v>
+      </c>
+      <c r="AV9">
+        <v>-15.1</v>
+      </c>
+      <c r="AW9">
+        <v>-15.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
         <v>45657</v>
       </c>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>-25.1</v>
+      </c>
+      <c r="C10">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="D10">
+        <v>-13</v>
+      </c>
+      <c r="E10">
+        <v>-18</v>
+      </c>
+      <c r="F10">
+        <v>-23.9</v>
+      </c>
+      <c r="G10">
+        <v>-26.1</v>
+      </c>
+      <c r="H10">
+        <v>-26</v>
+      </c>
+      <c r="I10">
+        <v>-26.7</v>
+      </c>
+      <c r="J10">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="K10">
+        <v>-7.3</v>
+      </c>
+      <c r="L10">
+        <v>-13.5</v>
+      </c>
+      <c r="M10">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="N10">
+        <v>-29</v>
+      </c>
+      <c r="O10">
+        <v>-25.2</v>
+      </c>
+      <c r="P10">
+        <v>-25.8</v>
+      </c>
+      <c r="Q10">
+        <v>-28.2</v>
+      </c>
+      <c r="R10">
+        <v>-17.2</v>
+      </c>
+      <c r="S10">
+        <v>-21.2</v>
+      </c>
+      <c r="T10">
+        <v>-20.7</v>
+      </c>
+      <c r="U10">
+        <v>-22.7</v>
+      </c>
+      <c r="V10">
+        <v>-27.1</v>
+      </c>
+      <c r="W10">
+        <v>-23</v>
+      </c>
+      <c r="X10">
+        <v>-20.2</v>
+      </c>
+      <c r="Y10">
+        <v>-11.1</v>
+      </c>
+      <c r="Z10">
+        <v>-21.9</v>
+      </c>
+      <c r="AA10">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="AB10">
+        <v>-15.3</v>
+      </c>
+      <c r="AC10">
+        <v>-7.3</v>
+      </c>
+      <c r="AD10">
+        <v>-3.3</v>
+      </c>
+      <c r="AE10">
+        <v>-24.3</v>
+      </c>
+      <c r="AF10">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AG10">
+        <v>14.8</v>
+      </c>
+      <c r="AH10">
+        <v>0.4</v>
+      </c>
+      <c r="AI10">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AJ10">
+        <v>-8</v>
+      </c>
+      <c r="AK10">
+        <v>-3.9</v>
+      </c>
+      <c r="AL10">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AM10">
+        <v>1.9</v>
+      </c>
+      <c r="AN10">
+        <v>-20.6</v>
+      </c>
+      <c r="AO10">
+        <v>-25.1</v>
+      </c>
+      <c r="AP10">
+        <v>-10.4</v>
+      </c>
+      <c r="AQ10">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS10">
+        <v>-7.8</v>
+      </c>
+      <c r="AT10">
+        <v>-1</v>
+      </c>
+      <c r="AU10">
+        <v>-2.5</v>
+      </c>
+      <c r="AV10">
+        <v>-18.3</v>
+      </c>
+      <c r="AW10">
+        <v>-19.600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
         <v>45658</v>
       </c>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>-32.1</v>
+      </c>
+      <c r="C11">
+        <v>-25.9</v>
+      </c>
+      <c r="D11">
+        <v>-26.8</v>
+      </c>
+      <c r="E11">
+        <v>-18.5</v>
+      </c>
+      <c r="F11">
+        <v>-26.3</v>
+      </c>
+      <c r="G11">
+        <v>-28.7</v>
+      </c>
+      <c r="H11">
+        <v>-31.8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J11">
+        <v>-14.3</v>
+      </c>
+      <c r="K11">
+        <v>-7.8</v>
+      </c>
+      <c r="L11">
+        <v>-13.5</v>
+      </c>
+      <c r="M11">
+        <v>-21</v>
+      </c>
+      <c r="N11">
+        <v>-26.7</v>
+      </c>
+      <c r="O11">
+        <v>-25.4</v>
+      </c>
+      <c r="P11">
+        <v>-26.4</v>
+      </c>
+      <c r="Q11">
+        <v>-28.6</v>
+      </c>
+      <c r="R11">
+        <v>-16.2</v>
+      </c>
+      <c r="S11">
+        <v>-27.5</v>
+      </c>
+      <c r="T11">
+        <v>-24.8</v>
+      </c>
+      <c r="U11">
+        <v>-26.3</v>
+      </c>
+      <c r="V11">
+        <v>-27.1</v>
+      </c>
+      <c r="W11">
+        <v>-24.7</v>
+      </c>
+      <c r="X11">
+        <v>-28.5</v>
+      </c>
+      <c r="Y11">
+        <v>-13.2</v>
+      </c>
+      <c r="Z11">
+        <v>-19</v>
+      </c>
+      <c r="AA11">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>-18.5</v>
+      </c>
+      <c r="AC11">
+        <v>-4.7</v>
+      </c>
+      <c r="AD11">
+        <v>-1.7</v>
+      </c>
+      <c r="AE11">
+        <v>-23.3</v>
+      </c>
+      <c r="AF11">
+        <v>-1.4</v>
+      </c>
+      <c r="AG11">
+        <v>16.8</v>
+      </c>
+      <c r="AH11">
+        <v>0.6</v>
+      </c>
+      <c r="AI11">
+        <v>-6.8</v>
+      </c>
+      <c r="AJ11">
+        <v>-9.5</v>
+      </c>
+      <c r="AK11">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="AL11">
+        <v>-2.4</v>
+      </c>
+      <c r="AM11">
+        <v>-0.9</v>
+      </c>
+      <c r="AN11">
+        <v>-21.4</v>
+      </c>
+      <c r="AO11">
+        <v>-23.3</v>
+      </c>
+      <c r="AP11">
+        <v>-14.4</v>
+      </c>
+      <c r="AQ11">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS11">
+        <v>-6.5</v>
+      </c>
+      <c r="AT11">
+        <v>-5.4</v>
+      </c>
+      <c r="AU11">
+        <v>-4.2</v>
+      </c>
+      <c r="AV11">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="AW11">
+        <v>-23.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>45659</v>
       </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>-32.5</v>
+      </c>
+      <c r="C12">
+        <v>-25</v>
+      </c>
+      <c r="D12">
+        <v>-19.8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12">
+        <v>-33.4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J12">
+        <v>-16.2</v>
+      </c>
+      <c r="K12">
+        <v>-10.4</v>
+      </c>
+      <c r="L12">
+        <v>-14.4</v>
+      </c>
+      <c r="M12">
+        <v>-22</v>
+      </c>
+      <c r="N12">
+        <v>-29.3</v>
+      </c>
+      <c r="O12">
+        <v>-23.8</v>
+      </c>
+      <c r="P12">
+        <v>-24.8</v>
+      </c>
+      <c r="Q12">
+        <v>-28</v>
+      </c>
+      <c r="R12">
+        <v>-12.6</v>
+      </c>
+      <c r="S12">
+        <v>-28.4</v>
+      </c>
+      <c r="T12">
+        <v>-23.1</v>
+      </c>
+      <c r="U12">
+        <v>-25.3</v>
+      </c>
+      <c r="V12">
+        <v>-30</v>
+      </c>
+      <c r="W12">
+        <v>-26.5</v>
+      </c>
+      <c r="X12">
+        <v>-32.1</v>
+      </c>
+      <c r="Y12">
+        <v>-14.3</v>
+      </c>
+      <c r="Z12">
+        <v>-20.5</v>
+      </c>
+      <c r="AA12">
+        <v>-18.8</v>
+      </c>
+      <c r="AB12">
+        <v>-18.5</v>
+      </c>
+      <c r="AC12">
+        <v>-3.8</v>
+      </c>
+      <c r="AD12">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="AE12">
+        <v>-20.6</v>
+      </c>
+      <c r="AF12">
+        <v>-3.2</v>
+      </c>
+      <c r="AG12">
+        <v>13.3</v>
+      </c>
+      <c r="AH12">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AI12">
+        <v>-11.1</v>
+      </c>
+      <c r="AJ12">
+        <v>-9.4</v>
+      </c>
+      <c r="AK12">
+        <v>-6.1</v>
+      </c>
+      <c r="AL12">
+        <v>-4.5</v>
+      </c>
+      <c r="AM12">
+        <v>-5.7</v>
+      </c>
+      <c r="AN12">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AO12">
+        <v>-27.8</v>
+      </c>
+      <c r="AP12">
+        <v>-15.5</v>
+      </c>
+      <c r="AQ12">
+        <v>-5.8</v>
+      </c>
+      <c r="AR12">
+        <v>-2.9</v>
+      </c>
+      <c r="AS12">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="AT12">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AU12">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AV12">
+        <v>-19.7</v>
+      </c>
+      <c r="AW12">
+        <v>-26.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>45660</v>
       </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>-29</v>
+      </c>
+      <c r="C13">
+        <v>-22</v>
+      </c>
+      <c r="D13">
+        <v>-10.9</v>
+      </c>
+      <c r="E13">
+        <v>-22</v>
+      </c>
+      <c r="F13">
+        <v>-28.8</v>
+      </c>
+      <c r="G13">
+        <v>-24.8</v>
+      </c>
+      <c r="H13">
+        <v>-27.2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13">
+        <v>-28.1</v>
+      </c>
+      <c r="K13">
+        <v>-15.2</v>
+      </c>
+      <c r="L13">
+        <v>-15.3</v>
+      </c>
+      <c r="M13">
+        <v>-22.9</v>
+      </c>
+      <c r="N13">
+        <v>-30</v>
+      </c>
+      <c r="O13">
+        <v>-23.3</v>
+      </c>
+      <c r="P13">
+        <v>-24.4</v>
+      </c>
+      <c r="Q13">
+        <v>-28.5</v>
+      </c>
+      <c r="R13">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="S13">
+        <v>-24.6</v>
+      </c>
+      <c r="T13">
+        <v>-20.9</v>
+      </c>
+      <c r="U13">
+        <v>-26.1</v>
+      </c>
+      <c r="V13">
+        <v>-30.6</v>
+      </c>
+      <c r="W13">
+        <v>-27.2</v>
+      </c>
+      <c r="X13">
+        <v>-26.7</v>
+      </c>
+      <c r="Y13">
+        <v>-11.2</v>
+      </c>
+      <c r="Z13">
+        <v>-21.8</v>
+      </c>
+      <c r="AA13">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>-18</v>
+      </c>
+      <c r="AC13">
+        <v>-3.4</v>
+      </c>
+      <c r="AD13">
+        <v>-0.7</v>
+      </c>
+      <c r="AE13">
+        <v>-20.7</v>
+      </c>
+      <c r="AF13">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AG13">
+        <v>12.3</v>
+      </c>
+      <c r="AH13">
+        <v>1.8</v>
+      </c>
+      <c r="AI13">
+        <v>-5.2</v>
+      </c>
+      <c r="AJ13">
+        <v>-11.8</v>
+      </c>
+      <c r="AK13">
+        <v>-6.9</v>
+      </c>
+      <c r="AL13">
+        <v>-5.2</v>
+      </c>
+      <c r="AM13">
+        <v>-1.3</v>
+      </c>
+      <c r="AN13">
+        <v>-22.9</v>
+      </c>
+      <c r="AO13">
+        <v>-26.1</v>
+      </c>
+      <c r="AP13">
+        <v>-15.3</v>
+      </c>
+      <c r="AQ13">
+        <v>-1.9</v>
+      </c>
+      <c r="AR13">
+        <v>0.6</v>
+      </c>
+      <c r="AS13">
+        <v>-8.4</v>
+      </c>
+      <c r="AT13">
+        <v>-7.3</v>
+      </c>
+      <c r="AU13">
+        <v>-4.8</v>
+      </c>
+      <c r="AV13">
+        <v>-21</v>
+      </c>
+      <c r="AW13">
+        <v>-28.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>45661</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
         <v>45662</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>45663</v>
       </c>

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F958002-9CF6-4659-BF5A-8D5BF867DC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1423C2DE-3E25-4259-BE75-E8BA0285D89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="258">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1192,10 +1192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冷站汇总(47)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分区
 序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1646,21 +1642,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精选冷站(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国内冷站(24)
-俄罗斯冷站(12)
-蒙古冷站(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武汉慈惠农场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2025年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精选冷站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24
+12
+12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内冷站
+俄罗斯冷站
+蒙古冷站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2816,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0415808A-EC4F-404C-B30D-CD8F1C534364}">
   <dimension ref="A1:BI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2887,10 +2889,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="4">
-        <v>-40.200000000000003</v>
+        <v>-39.5</v>
       </c>
       <c r="H2" s="4">
-        <v>-29</v>
+        <v>-24.7</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
@@ -2909,148 +2911,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>-40.200000000000003</v>
+        <v>-39.5</v>
       </c>
       <c r="O2">
-        <v>-36.5</v>
+        <v>-36.4</v>
       </c>
       <c r="P2">
-        <v>-30.7</v>
+        <v>-31.1</v>
       </c>
       <c r="Q2">
-        <v>-33</v>
+        <v>-32</v>
       </c>
       <c r="R2">
-        <v>-40.200000000000003</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="S2">
-        <v>-36</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="T2">
-        <v>-40.200000000000003</v>
+        <v>-38.6</v>
       </c>
       <c r="U2" t="str">
         <v>无</v>
       </c>
       <c r="V2">
-        <v>-35.700000000000003</v>
+        <v>-28.1</v>
       </c>
       <c r="W2">
-        <v>-23.3</v>
+        <v>-25.1</v>
       </c>
       <c r="X2">
-        <v>-30.3</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="Y2">
+        <v>-35.5</v>
+      </c>
+      <c r="Z2">
+        <v>-39.6</v>
+      </c>
+      <c r="AA2">
+        <v>-40.4</v>
+      </c>
+      <c r="AB2">
+        <v>-42.3</v>
+      </c>
+      <c r="AC2">
+        <v>-39.5</v>
+      </c>
+      <c r="AD2">
+        <v>-34.4</v>
+      </c>
+      <c r="AE2">
+        <v>-31.5</v>
+      </c>
+      <c r="AF2">
+        <v>-25.5</v>
+      </c>
+      <c r="AG2">
+        <v>-36.5</v>
+      </c>
+      <c r="AH2">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="AI2">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="AJ2">
+        <v>-34.9</v>
+      </c>
+      <c r="AK2">
+        <v>-22.4</v>
+      </c>
+      <c r="AL2">
+        <v>-42.2</v>
+      </c>
+      <c r="AM2">
+        <v>-39</v>
+      </c>
+      <c r="AN2">
+        <v>-29.4</v>
+      </c>
+      <c r="AO2">
+        <v>-12.5</v>
+      </c>
+      <c r="AP2">
+        <v>-13.9</v>
+      </c>
+      <c r="AQ2">
+        <v>-36.4</v>
+      </c>
+      <c r="AR2">
+        <v>-14.4</v>
+      </c>
+      <c r="AS2">
+        <v>3.7</v>
+      </c>
+      <c r="AT2">
+        <v>-11.9</v>
+      </c>
+      <c r="AU2">
+        <v>-16.7</v>
+      </c>
+      <c r="AV2">
+        <v>-25</v>
+      </c>
+      <c r="AW2">
+        <v>-22.5</v>
+      </c>
+      <c r="AX2">
+        <v>-20.8</v>
+      </c>
+      <c r="AY2">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="AZ2">
+        <v>-36.1</v>
+      </c>
+      <c r="BA2">
+        <v>-43.7</v>
+      </c>
+      <c r="BB2">
+        <v>-25.6</v>
+      </c>
+      <c r="BC2">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="BD2">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="BE2">
+        <v>-22.7</v>
+      </c>
+      <c r="BF2">
+        <v>-14.5</v>
+      </c>
+      <c r="BG2">
+        <v>-14.7</v>
+      </c>
+      <c r="BH2">
         <v>-37.299999999999997</v>
       </c>
-      <c r="Z2">
-        <v>-40.6</v>
-      </c>
-      <c r="AA2">
-        <v>-41.5</v>
-      </c>
-      <c r="AB2">
-        <v>-44.1</v>
-      </c>
-      <c r="AC2">
-        <v>-38.5</v>
-      </c>
-      <c r="AD2">
-        <v>-28.1</v>
-      </c>
-      <c r="AE2">
-        <v>-33.6</v>
-      </c>
-      <c r="AF2">
-        <v>-28.4</v>
-      </c>
-      <c r="AG2">
-        <v>-38.1</v>
-      </c>
-      <c r="AH2">
-        <v>-38.299999999999997</v>
-      </c>
-      <c r="AI2">
-        <v>-35.4</v>
-      </c>
-      <c r="AJ2">
-        <v>-37.5</v>
-      </c>
-      <c r="AK2">
-        <v>-23.5</v>
-      </c>
-      <c r="AL2">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="AM2">
-        <v>-38.700000000000003</v>
-      </c>
-      <c r="AN2">
-        <v>-28.1</v>
-      </c>
-      <c r="AO2">
-        <v>-9.9</v>
-      </c>
-      <c r="AP2">
-        <v>-12.1</v>
-      </c>
-      <c r="AQ2">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="AR2">
-        <v>-17.7</v>
-      </c>
-      <c r="AS2">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="AT2">
-        <v>-15.4</v>
-      </c>
-      <c r="AU2">
-        <v>-22.3</v>
-      </c>
-      <c r="AV2">
-        <v>-18.7</v>
-      </c>
-      <c r="AW2">
-        <v>-22.1</v>
-      </c>
-      <c r="AX2">
-        <v>-21.6</v>
-      </c>
-      <c r="AY2">
-        <v>-24.1</v>
-      </c>
-      <c r="AZ2">
-        <v>-31.5</v>
-      </c>
-      <c r="BA2">
-        <v>-37</v>
-      </c>
-      <c r="BB2">
-        <v>-27.3</v>
-      </c>
-      <c r="BC2">
-        <v>-23.6</v>
-      </c>
-      <c r="BD2">
-        <v>-21.1</v>
-      </c>
-      <c r="BE2">
-        <v>-19.399999999999999</v>
-      </c>
-      <c r="BF2">
-        <v>-23.3</v>
-      </c>
-      <c r="BG2">
-        <v>-14.2</v>
-      </c>
-      <c r="BH2">
-        <v>-37.5</v>
-      </c>
       <c r="BI2">
-        <v>-38.9</v>
+        <v>-36.200000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3071,10 +3073,10 @@
         <v>12</v>
       </c>
       <c r="G3" s="4">
-        <v>-36.5</v>
+        <v>-36.4</v>
       </c>
       <c r="H3" s="4">
-        <v>-22</v>
+        <v>-16.2</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>40</v>
@@ -3093,148 +3095,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>-29</v>
+        <v>-24.7</v>
       </c>
       <c r="O3">
-        <v>-22</v>
+        <v>-16.2</v>
       </c>
       <c r="P3">
-        <v>-10.9</v>
+        <v>-10.6</v>
       </c>
       <c r="Q3">
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="R3">
-        <v>-28.8</v>
+        <v>-18.3</v>
       </c>
       <c r="S3">
-        <v>-24.8</v>
+        <v>-21.5</v>
       </c>
       <c r="T3">
-        <v>-27.2</v>
+        <v>-24.3</v>
       </c>
       <c r="U3" t="str">
         <v>无</v>
       </c>
       <c r="V3">
-        <v>-28.1</v>
+        <v>-18.8</v>
       </c>
       <c r="W3">
-        <v>-15.2</v>
+        <v>-17.2</v>
       </c>
       <c r="X3">
-        <v>-15.3</v>
+        <v>-23.4</v>
       </c>
       <c r="Y3">
-        <v>-22.9</v>
+        <v>-24.8</v>
       </c>
       <c r="Z3">
-        <v>-30</v>
+        <v>-29.5</v>
       </c>
       <c r="AA3">
-        <v>-23.3</v>
+        <v>-27.2</v>
       </c>
       <c r="AB3">
-        <v>-24.4</v>
+        <v>-25.6</v>
       </c>
       <c r="AC3">
-        <v>-28.5</v>
+        <v>-30.7</v>
       </c>
       <c r="AD3">
-        <v>-16.899999999999999</v>
+        <v>-23.4</v>
       </c>
       <c r="AE3">
-        <v>-24.6</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="AF3">
-        <v>-20.9</v>
+        <v>-11.2</v>
       </c>
       <c r="AG3">
-        <v>-26.1</v>
+        <v>-23.1</v>
       </c>
       <c r="AH3">
-        <v>-30.6</v>
+        <v>-27.6</v>
       </c>
       <c r="AI3">
-        <v>-27.2</v>
+        <v>-23.1</v>
       </c>
       <c r="AJ3">
-        <v>-26.7</v>
+        <v>-20.7</v>
       </c>
       <c r="AK3">
-        <v>-11.2</v>
+        <v>-11.1</v>
       </c>
       <c r="AL3">
-        <v>-21.8</v>
+        <v>-27.7</v>
       </c>
       <c r="AM3">
-        <v>-19.600000000000001</v>
+        <v>-21.4</v>
       </c>
       <c r="AN3">
-        <v>-18</v>
+        <v>-18.7</v>
       </c>
       <c r="AO3">
-        <v>-3.4</v>
+        <v>-2.7</v>
       </c>
       <c r="AP3">
-        <v>-0.7</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="AQ3">
-        <v>-20.7</v>
+        <v>-24.5</v>
       </c>
       <c r="AR3">
+        <v>-5</v>
+      </c>
+      <c r="AS3">
+        <v>9.9</v>
+      </c>
+      <c r="AT3">
+        <v>1.6</v>
+      </c>
+      <c r="AU3">
+        <v>-4.3</v>
+      </c>
+      <c r="AV3">
+        <v>-12.4</v>
+      </c>
+      <c r="AW3">
+        <v>-3.8</v>
+      </c>
+      <c r="AX3">
+        <v>-0.1</v>
+      </c>
+      <c r="AY3">
+        <v>-1.4</v>
+      </c>
+      <c r="AZ3">
+        <v>-25.6</v>
+      </c>
+      <c r="BA3">
+        <v>-32.6</v>
+      </c>
+      <c r="BB3">
+        <v>-12.4</v>
+      </c>
+      <c r="BC3">
         <v>-4.5999999999999996</v>
-      </c>
-      <c r="AS3">
-        <v>12.3</v>
-      </c>
-      <c r="AT3">
-        <v>1.8</v>
-      </c>
-      <c r="AU3">
-        <v>-5.2</v>
-      </c>
-      <c r="AV3">
-        <v>-11.8</v>
-      </c>
-      <c r="AW3">
-        <v>-6.9</v>
-      </c>
-      <c r="AX3">
-        <v>-5.2</v>
-      </c>
-      <c r="AY3">
-        <v>-1.3</v>
-      </c>
-      <c r="AZ3">
-        <v>-22.9</v>
-      </c>
-      <c r="BA3">
-        <v>-26.1</v>
-      </c>
-      <c r="BB3">
-        <v>-15.3</v>
-      </c>
-      <c r="BC3">
-        <v>-1.9</v>
       </c>
       <c r="BD3">
         <v>0.6</v>
       </c>
       <c r="BE3">
-        <v>-8.4</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="BF3">
-        <v>-7.3</v>
+        <v>-0.6</v>
       </c>
       <c r="BG3">
-        <v>-4.8</v>
+        <v>-2.1</v>
       </c>
       <c r="BH3">
-        <v>-21</v>
+        <v>-22.7</v>
       </c>
       <c r="BI3">
-        <v>-28.9</v>
+        <v>-27.2</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3255,10 +3257,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="4">
-        <v>-30.7</v>
+        <v>-31.1</v>
       </c>
       <c r="H4" s="4">
-        <v>-10.9</v>
+        <v>-10.6</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>36</v>
@@ -3291,10 +3293,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="4">
-        <v>-33</v>
+        <v>-32</v>
       </c>
       <c r="H5" s="4">
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>38</v>
@@ -3336,10 +3338,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="4">
-        <v>-40.200000000000003</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="H6" s="4">
-        <v>-28.8</v>
+        <v>-18.3</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>117</v>
@@ -3381,10 +3383,10 @@
         <v>110</v>
       </c>
       <c r="G7" s="4">
-        <v>-36</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="H7" s="4">
-        <v>-24.8</v>
+        <v>-21.5</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>40</v>
@@ -3426,10 +3428,10 @@
         <v>179</v>
       </c>
       <c r="G8" s="4">
-        <v>-40.200000000000003</v>
+        <v>-38.6</v>
       </c>
       <c r="H8" s="4">
-        <v>-27.2</v>
+        <v>-24.3</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>115</v>
@@ -3471,10 +3473,10 @@
         <v>17</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>113</v>
@@ -3507,10 +3509,10 @@
         <v>7</v>
       </c>
       <c r="G10" s="4">
-        <v>-35.700000000000003</v>
+        <v>-28.1</v>
       </c>
       <c r="H10" s="4">
-        <v>-28.1</v>
+        <v>-18.8</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>120</v>
@@ -3541,10 +3543,10 @@
         <v>95</v>
       </c>
       <c r="G11" s="4">
-        <v>-23.3</v>
+        <v>-25.1</v>
       </c>
       <c r="H11" s="4">
-        <v>-15.2</v>
+        <v>-17.2</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>119</v>
@@ -3575,10 +3577,10 @@
         <v>102</v>
       </c>
       <c r="G12" s="4">
-        <v>-30.3</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H12" s="4">
-        <v>-15.3</v>
+        <v>-23.4</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>100</v>
@@ -3609,10 +3611,10 @@
         <v>53</v>
       </c>
       <c r="G13" s="4">
-        <v>-37.299999999999997</v>
+        <v>-35.5</v>
       </c>
       <c r="H13" s="4">
-        <v>-22.9</v>
+        <v>-24.8</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>54</v>
@@ -3643,10 +3645,10 @@
         <v>87</v>
       </c>
       <c r="G14" s="4">
-        <v>-40.6</v>
+        <v>-39.6</v>
       </c>
       <c r="H14" s="4">
-        <v>-30</v>
+        <v>-29.5</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
@@ -3677,10 +3679,10 @@
         <v>89</v>
       </c>
       <c r="G15" s="4">
-        <v>-41.5</v>
+        <v>-40.4</v>
       </c>
       <c r="H15" s="4">
-        <v>-23.3</v>
+        <v>-27.2</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>28</v>
@@ -3711,10 +3713,10 @@
         <v>27</v>
       </c>
       <c r="G16" s="4">
-        <v>-44.1</v>
+        <v>-42.3</v>
       </c>
       <c r="H16" s="4">
-        <v>-24.4</v>
+        <v>-25.6</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>28</v>
@@ -3745,10 +3747,10 @@
         <v>180</v>
       </c>
       <c r="G17" s="4">
-        <v>-38.5</v>
+        <v>-39.5</v>
       </c>
       <c r="H17" s="4">
-        <v>-28.5</v>
+        <v>-30.7</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>32</v>
@@ -3779,10 +3781,10 @@
         <v>99</v>
       </c>
       <c r="G18" s="4">
-        <v>-28.1</v>
+        <v>-34.4</v>
       </c>
       <c r="H18" s="4">
-        <v>-16.899999999999999</v>
+        <v>-23.4</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>96</v>
@@ -3813,10 +3815,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="4">
-        <v>-33.6</v>
+        <v>-31.5</v>
       </c>
       <c r="H19" s="4">
-        <v>-24.6</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>161</v>
@@ -3847,10 +3849,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="4">
-        <v>-28.4</v>
+        <v>-25.5</v>
       </c>
       <c r="H20" s="4">
-        <v>-20.9</v>
+        <v>-11.2</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>22</v>
@@ -3881,10 +3883,10 @@
         <v>108</v>
       </c>
       <c r="G21" s="4">
-        <v>-38.1</v>
+        <v>-36.5</v>
       </c>
       <c r="H21" s="4">
-        <v>-26.1</v>
+        <v>-23.1</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>114</v>
@@ -3915,10 +3917,10 @@
         <v>9</v>
       </c>
       <c r="G22" s="4">
-        <v>-38.299999999999997</v>
+        <v>-37.799999999999997</v>
       </c>
       <c r="H22" s="4">
-        <v>-30.6</v>
+        <v>-27.6</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>113</v>
@@ -3949,10 +3951,10 @@
         <v>106</v>
       </c>
       <c r="G23" s="4">
-        <v>-35.4</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="H23" s="4">
-        <v>-27.2</v>
+        <v>-23.1</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>115</v>
@@ -3983,10 +3985,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="4">
-        <v>-37.5</v>
+        <v>-34.9</v>
       </c>
       <c r="H24" s="4">
-        <v>-26.7</v>
+        <v>-20.7</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -4017,10 +4019,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="4">
-        <v>-23.5</v>
+        <v>-22.4</v>
       </c>
       <c r="H25" s="4">
-        <v>-11.2</v>
+        <v>-11.1</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -4053,10 +4055,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>-33.799999999999997</v>
+        <v>-42.2</v>
       </c>
       <c r="H26" s="4">
-        <v>-21.8</v>
+        <v>-27.7</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -4087,10 +4089,10 @@
         <v>181</v>
       </c>
       <c r="G27" s="4">
-        <v>-38.700000000000003</v>
+        <v>-39</v>
       </c>
       <c r="H27" s="4">
-        <v>-19.600000000000001</v>
+        <v>-21.4</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
@@ -4121,10 +4123,10 @@
         <v>77</v>
       </c>
       <c r="G28" s="4">
-        <v>-28.1</v>
+        <v>-29.4</v>
       </c>
       <c r="H28" s="4">
-        <v>-18</v>
+        <v>-18.7</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
@@ -4157,10 +4159,10 @@
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <v>-9.9</v>
+        <v>-12.5</v>
       </c>
       <c r="H29" s="4">
-        <v>-3.4</v>
+        <v>-2.7</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -4191,10 +4193,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>-12.1</v>
+        <v>-13.9</v>
       </c>
       <c r="H30" s="4">
-        <v>-0.7</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
@@ -4227,10 +4229,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="4">
-        <v>-33.799999999999997</v>
+        <v>-36.4</v>
       </c>
       <c r="H31" s="4">
-        <v>-20.7</v>
+        <v>-24.5</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
@@ -4261,10 +4263,10 @@
         <v>66</v>
       </c>
       <c r="G32" s="4">
-        <v>-17.7</v>
+        <v>-14.4</v>
       </c>
       <c r="H32" s="4">
-        <v>-4.5999999999999996</v>
+        <v>-5</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
@@ -4286,25 +4288,25 @@
         <v>0</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="H33" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G33" s="4">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="H33" s="4">
-        <v>12.3</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="J33" s="13" t="s">
         <v>251</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>252</v>
       </c>
       <c r="K33" s="13">
         <v>57494</v>
@@ -4329,10 +4331,10 @@
         <v>59</v>
       </c>
       <c r="G34" s="4">
-        <v>-15.4</v>
+        <v>-11.9</v>
       </c>
       <c r="H34" s="4">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
@@ -4363,10 +4365,10 @@
         <v>56</v>
       </c>
       <c r="G35" s="4">
-        <v>-22.3</v>
+        <v>-16.7</v>
       </c>
       <c r="H35" s="4">
-        <v>-5.2</v>
+        <v>-4.3</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
@@ -4397,10 +4399,10 @@
         <v>46</v>
       </c>
       <c r="G36" s="4">
-        <v>-18.7</v>
+        <v>-25</v>
       </c>
       <c r="H36" s="4">
-        <v>-11.8</v>
+        <v>-12.4</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>47</v>
@@ -4433,10 +4435,10 @@
         <v>49</v>
       </c>
       <c r="G37" s="4">
-        <v>-22.1</v>
+        <v>-22.5</v>
       </c>
       <c r="H37" s="4">
-        <v>-6.9</v>
+        <v>-3.8</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>45</v>
@@ -4469,10 +4471,10 @@
         <v>51</v>
       </c>
       <c r="G38" s="4">
-        <v>-21.6</v>
+        <v>-20.8</v>
       </c>
       <c r="H38" s="4">
-        <v>-5.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
@@ -4503,10 +4505,10 @@
         <v>58</v>
       </c>
       <c r="G39" s="4">
-        <v>-24.1</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="H39" s="4">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
@@ -4537,10 +4539,10 @@
         <v>44</v>
       </c>
       <c r="G40" s="4">
-        <v>-31.5</v>
+        <v>-36.1</v>
       </c>
       <c r="H40" s="4">
-        <v>-22.9</v>
+        <v>-25.6</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>43</v>
@@ -4571,10 +4573,10 @@
         <v>74</v>
       </c>
       <c r="G41" s="4">
-        <v>-37</v>
+        <v>-43.7</v>
       </c>
       <c r="H41" s="4">
-        <v>-26.1</v>
+        <v>-32.6</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
@@ -4605,10 +4607,10 @@
         <v>72</v>
       </c>
       <c r="G42" s="4">
-        <v>-27.3</v>
+        <v>-25.6</v>
       </c>
       <c r="H42" s="4">
-        <v>-15.3</v>
+        <v>-12.4</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>2</v>
@@ -4639,10 +4641,10 @@
         <v>62</v>
       </c>
       <c r="G43" s="4">
-        <v>-23.6</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="H43" s="4">
-        <v>-1.9</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
@@ -4673,7 +4675,7 @@
         <v>64</v>
       </c>
       <c r="G44" s="4">
-        <v>-21.1</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="H44" s="4">
         <v>0.6</v>
@@ -4707,10 +4709,10 @@
         <v>79</v>
       </c>
       <c r="G45" s="4">
-        <v>-19.399999999999999</v>
+        <v>-22.7</v>
       </c>
       <c r="H45" s="4">
-        <v>-8.4</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>22</v>
@@ -4741,10 +4743,10 @@
         <v>81</v>
       </c>
       <c r="G46" s="4">
-        <v>-23.3</v>
+        <v>-14.5</v>
       </c>
       <c r="H46" s="4">
-        <v>-7.3</v>
+        <v>-0.6</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
@@ -4775,10 +4777,10 @@
         <v>83</v>
       </c>
       <c r="G47" s="4">
-        <v>-14.2</v>
+        <v>-14.7</v>
       </c>
       <c r="H47" s="4">
-        <v>-4.8</v>
+        <v>-2.1</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>21</v>
@@ -4811,10 +4813,10 @@
         <v>68</v>
       </c>
       <c r="G48" s="4">
-        <v>-37.5</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="H48" s="4">
-        <v>-21</v>
+        <v>-22.7</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -4845,10 +4847,10 @@
         <v>70</v>
       </c>
       <c r="G49" s="4">
-        <v>-38.9</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="H49" s="4">
-        <v>-28.9</v>
+        <v>-27.2</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>2</v>
@@ -4873,10 +4875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B34FAF-8106-42B6-ACE5-F6D83E641FA4}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4890,16 +4892,16 @@
     <col min="12" max="12" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="63"/>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
       <c r="D1" s="56"/>
       <c r="E1" s="58" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F1" s="61">
-        <v>45660</v>
+        <v>45661</v>
       </c>
       <c r="G1" s="62"/>
       <c r="H1" s="59" t="s">
@@ -4907,7 +4909,7 @@
       </c>
       <c r="I1" s="60"/>
     </row>
-    <row r="2" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -4923,19 +4925,22 @@
         <v>177</v>
       </c>
       <c r="L2" s="50" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="56"/>
       <c r="B3" s="51" t="s">
         <v>168</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>212</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>213</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>126</v>
@@ -4956,10 +4961,13 @@
         <v>176</v>
       </c>
       <c r="L3" s="50" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>257</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="56"/>
       <c r="B4" s="54">
         <v>1</v>
@@ -4971,16 +4979,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>109</v>
       </c>
       <c r="G4" s="36">
-        <v>-40.200000000000003</v>
+        <v>-39.5</v>
       </c>
       <c r="H4" s="36">
-        <v>-29</v>
+        <v>-24.7</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>175</v>
@@ -4989,10 +4997,13 @@
         <v>178</v>
       </c>
       <c r="L4" s="50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+      <c r="M4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="56"/>
       <c r="B5" s="54">
         <v>2</v>
@@ -5002,22 +5013,22 @@
       </c>
       <c r="D5" s="52"/>
       <c r="E5" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="36">
-        <v>-36.5</v>
+        <v>-36.4</v>
       </c>
       <c r="H5" s="36">
-        <v>-22</v>
+        <v>-16.2</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="56"/>
       <c r="B6" s="54">
         <v>3</v>
@@ -5027,22 +5038,22 @@
       </c>
       <c r="D6" s="52"/>
       <c r="E6" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="36">
-        <v>-30.7</v>
+        <v>-31.1</v>
       </c>
       <c r="H6" s="36">
-        <v>-10.9</v>
+        <v>-10.6</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="56"/>
       <c r="B7" s="54">
         <v>4</v>
@@ -5052,22 +5063,22 @@
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="36">
-        <v>-33</v>
+        <v>-32</v>
       </c>
       <c r="H7" s="36">
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="I7" s="34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="56"/>
       <c r="B8" s="54">
         <v>5</v>
@@ -5077,22 +5088,22 @@
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F8" s="47" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="36">
-        <v>-40.200000000000003</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="H8" s="36">
-        <v>-28.8</v>
+        <v>-18.3</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="56"/>
       <c r="B9" s="54">
         <v>6</v>
@@ -5102,22 +5113,22 @@
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>109</v>
       </c>
       <c r="G9" s="36">
-        <v>-36</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="H9" s="36">
-        <v>-24.8</v>
+        <v>-21.5</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
       <c r="B10" s="54">
         <v>7</v>
@@ -5127,22 +5138,22 @@
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>184</v>
       </c>
       <c r="G10" s="36">
-        <v>-40.200000000000003</v>
+        <v>-38.6</v>
       </c>
       <c r="H10" s="36">
-        <v>-27.2</v>
+        <v>-24.3</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="56"/>
       <c r="B11" s="54">
         <v>8</v>
@@ -5152,22 +5163,22 @@
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="56"/>
       <c r="B12" s="54">
         <v>9</v>
@@ -5177,22 +5188,22 @@
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="36">
-        <v>-35.700000000000003</v>
+        <v>-28.1</v>
       </c>
       <c r="H12" s="36">
-        <v>-28.1</v>
+        <v>-18.8</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="56"/>
       <c r="B13" s="54">
         <v>10</v>
@@ -5202,22 +5213,22 @@
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>94</v>
       </c>
       <c r="G13" s="36">
-        <v>-23.3</v>
+        <v>-25.1</v>
       </c>
       <c r="H13" s="36">
-        <v>-15.2</v>
+        <v>-17.2</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="56"/>
       <c r="B14" s="54">
         <v>11</v>
@@ -5227,22 +5238,22 @@
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F14" s="41" t="s">
         <v>101</v>
       </c>
       <c r="G14" s="36">
-        <v>-30.3</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H14" s="36">
-        <v>-15.3</v>
+        <v>-23.4</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="56"/>
       <c r="B15" s="54">
         <v>12</v>
@@ -5252,22 +5263,22 @@
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>135</v>
       </c>
       <c r="G15" s="36">
-        <v>-37.299999999999997</v>
+        <v>-35.5</v>
       </c>
       <c r="H15" s="36">
-        <v>-22.9</v>
+        <v>-24.8</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
       <c r="B16" s="54">
         <v>13</v>
@@ -5277,16 +5288,16 @@
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>86</v>
       </c>
       <c r="G16" s="36">
-        <v>-40.6</v>
+        <v>-39.6</v>
       </c>
       <c r="H16" s="36">
-        <v>-30</v>
+        <v>-29.5</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>154</v>
@@ -5302,16 +5313,16 @@
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F17" s="41" t="s">
         <v>88</v>
       </c>
       <c r="G17" s="36">
-        <v>-41.5</v>
+        <v>-40.4</v>
       </c>
       <c r="H17" s="36">
-        <v>-23.3</v>
+        <v>-27.2</v>
       </c>
       <c r="I17" s="34" t="s">
         <v>154</v>
@@ -5329,16 +5340,16 @@
         <v>0</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>136</v>
       </c>
       <c r="G18" s="36">
-        <v>-44.1</v>
+        <v>-42.3</v>
       </c>
       <c r="H18" s="36">
-        <v>-24.4</v>
+        <v>-25.6</v>
       </c>
       <c r="I18" s="34" t="s">
         <v>154</v>
@@ -5354,19 +5365,19 @@
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>182</v>
       </c>
       <c r="G19" s="36">
-        <v>-38.5</v>
+        <v>-39.5</v>
       </c>
       <c r="H19" s="36">
-        <v>-28.5</v>
+        <v>-30.7</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5379,16 +5390,16 @@
       </c>
       <c r="D20" s="52"/>
       <c r="E20" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>98</v>
       </c>
       <c r="G20" s="36">
-        <v>-28.1</v>
+        <v>-34.4</v>
       </c>
       <c r="H20" s="36">
-        <v>-16.899999999999999</v>
+        <v>-23.4</v>
       </c>
       <c r="I20" s="34" t="s">
         <v>32</v>
@@ -5404,19 +5415,19 @@
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F21" s="41" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="36">
-        <v>-33.6</v>
+        <v>-31.5</v>
       </c>
       <c r="H21" s="36">
-        <v>-24.6</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5429,19 +5440,19 @@
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F22" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="36">
-        <v>-28.4</v>
+        <v>-25.5</v>
       </c>
       <c r="H22" s="36">
-        <v>-20.9</v>
+        <v>-11.2</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5454,16 +5465,16 @@
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F23" s="41" t="s">
         <v>107</v>
       </c>
       <c r="G23" s="36">
-        <v>-38.1</v>
+        <v>-36.5</v>
       </c>
       <c r="H23" s="36">
-        <v>-26.1</v>
+        <v>-23.1</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>175</v>
@@ -5479,19 +5490,19 @@
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F24" s="43" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="36">
-        <v>-38.299999999999997</v>
+        <v>-37.799999999999997</v>
       </c>
       <c r="H24" s="36">
-        <v>-30.6</v>
+        <v>-27.6</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5504,16 +5515,16 @@
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>105</v>
       </c>
       <c r="G25" s="36">
-        <v>-35.4</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="H25" s="36">
-        <v>-27.2</v>
+        <v>-23.1</v>
       </c>
       <c r="I25" s="34" t="s">
         <v>172</v>
@@ -5529,19 +5540,19 @@
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F26" s="48" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="36">
-        <v>-37.5</v>
+        <v>-34.9</v>
       </c>
       <c r="H26" s="36">
-        <v>-26.7</v>
+        <v>-20.7</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5554,16 +5565,16 @@
       </c>
       <c r="D27" s="52"/>
       <c r="E27" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F27" s="43" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="36">
-        <v>-23.5</v>
+        <v>-22.4</v>
       </c>
       <c r="H27" s="36">
-        <v>-11.2</v>
+        <v>-11.1</v>
       </c>
       <c r="I27" s="34" t="s">
         <v>155</v>
@@ -5581,19 +5592,19 @@
         <v>0</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F28" s="40" t="s">
         <v>137</v>
       </c>
       <c r="G28" s="36">
-        <v>-33.799999999999997</v>
+        <v>-42.2</v>
       </c>
       <c r="H28" s="36">
-        <v>-21.8</v>
+        <v>-27.7</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5606,19 +5617,19 @@
       </c>
       <c r="D29" s="52"/>
       <c r="E29" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>183</v>
       </c>
       <c r="G29" s="36">
-        <v>-38.700000000000003</v>
+        <v>-39</v>
       </c>
       <c r="H29" s="36">
-        <v>-19.600000000000001</v>
+        <v>-21.4</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5631,19 +5642,19 @@
       </c>
       <c r="D30" s="52"/>
       <c r="E30" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F30" s="46" t="s">
         <v>76</v>
       </c>
       <c r="G30" s="36">
-        <v>-28.1</v>
+        <v>-29.4</v>
       </c>
       <c r="H30" s="36">
-        <v>-18</v>
+        <v>-18.7</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5658,19 +5669,19 @@
         <v>0</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F31" s="46" t="s">
         <v>103</v>
       </c>
       <c r="G31" s="36">
-        <v>-9.9</v>
+        <v>-12.5</v>
       </c>
       <c r="H31" s="36">
-        <v>-3.4</v>
+        <v>-2.7</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5689,10 +5700,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="36">
-        <v>-12.1</v>
+        <v>-13.9</v>
       </c>
       <c r="H32" s="36">
-        <v>-0.7</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="I32" s="34" t="s">
         <v>159</v>
@@ -5716,13 +5727,13 @@
         <v>4</v>
       </c>
       <c r="G33" s="36">
-        <v>-33.799999999999997</v>
+        <v>-36.4</v>
       </c>
       <c r="H33" s="36">
-        <v>-20.7</v>
+        <v>-24.5</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5741,10 +5752,10 @@
         <v>139</v>
       </c>
       <c r="G34" s="36">
-        <v>-17.7</v>
+        <v>-14.4</v>
       </c>
       <c r="H34" s="36">
-        <v>-4.5999999999999996</v>
+        <v>-5</v>
       </c>
       <c r="I34" s="34" t="s">
         <v>174</v>
@@ -5762,19 +5773,19 @@
         <v>0</v>
       </c>
       <c r="E35" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" s="36">
+        <v>3.7</v>
+      </c>
+      <c r="H35" s="36">
+        <v>9.9</v>
+      </c>
+      <c r="I35" s="34" t="s">
         <v>250</v>
-      </c>
-      <c r="F35" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="G35" s="36">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="H35" s="36">
-        <v>12.3</v>
-      </c>
-      <c r="I35" s="34" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5793,10 +5804,10 @@
         <v>140</v>
       </c>
       <c r="G36" s="36">
-        <v>-15.4</v>
+        <v>-11.9</v>
       </c>
       <c r="H36" s="36">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I36" s="34"/>
     </row>
@@ -5818,10 +5829,10 @@
         <v>141</v>
       </c>
       <c r="G37" s="36">
-        <v>-22.3</v>
+        <v>-16.7</v>
       </c>
       <c r="H37" s="36">
-        <v>-5.2</v>
+        <v>-4.3</v>
       </c>
       <c r="I37" s="34"/>
     </row>
@@ -5843,10 +5854,10 @@
         <v>142</v>
       </c>
       <c r="G38" s="36">
-        <v>-18.7</v>
+        <v>-25</v>
       </c>
       <c r="H38" s="36">
-        <v>-11.8</v>
+        <v>-12.4</v>
       </c>
       <c r="I38" s="34" t="s">
         <v>173</v>
@@ -5870,13 +5881,13 @@
         <v>143</v>
       </c>
       <c r="G39" s="36">
-        <v>-22.1</v>
+        <v>-22.5</v>
       </c>
       <c r="H39" s="36">
-        <v>-6.9</v>
+        <v>-3.8</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5897,10 +5908,10 @@
         <v>144</v>
       </c>
       <c r="G40" s="36">
-        <v>-21.6</v>
+        <v>-20.8</v>
       </c>
       <c r="H40" s="36">
-        <v>-5.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I40" s="34"/>
     </row>
@@ -5922,10 +5933,10 @@
         <v>145</v>
       </c>
       <c r="G41" s="36">
-        <v>-24.1</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="H41" s="36">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="I41" s="34"/>
     </row>
@@ -5945,13 +5956,13 @@
         <v>146</v>
       </c>
       <c r="G42" s="36">
-        <v>-31.5</v>
+        <v>-36.1</v>
       </c>
       <c r="H42" s="36">
-        <v>-22.9</v>
+        <v>-25.6</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5962,21 +5973,23 @@
       <c r="C43" s="52">
         <v>1</v>
       </c>
-      <c r="D43" s="52"/>
+      <c r="D43" s="52">
+        <v>0</v>
+      </c>
       <c r="E43" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F43" s="40" t="s">
         <v>73</v>
       </c>
       <c r="G43" s="36">
-        <v>-37</v>
+        <v>-43.7</v>
       </c>
       <c r="H43" s="36">
-        <v>-26.1</v>
+        <v>-32.6</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5995,10 +6008,10 @@
         <v>71</v>
       </c>
       <c r="G44" s="36">
-        <v>-27.3</v>
+        <v>-25.6</v>
       </c>
       <c r="H44" s="36">
-        <v>-15.3</v>
+        <v>-12.4</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>157</v>
@@ -6020,10 +6033,10 @@
         <v>147</v>
       </c>
       <c r="G45" s="36">
-        <v>-23.6</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="H45" s="36">
-        <v>-1.9</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="I45" s="34" t="s">
         <v>160</v>
@@ -6045,7 +6058,7 @@
         <v>148</v>
       </c>
       <c r="G46" s="36">
-        <v>-21.1</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="H46" s="36">
         <v>0.6</v>
@@ -6064,16 +6077,16 @@
       </c>
       <c r="D47" s="52"/>
       <c r="E47" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F47" s="40" t="s">
         <v>78</v>
       </c>
       <c r="G47" s="36">
-        <v>-19.399999999999999</v>
+        <v>-22.7</v>
       </c>
       <c r="H47" s="36">
-        <v>-8.4</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>156</v>
@@ -6095,13 +6108,13 @@
         <v>80</v>
       </c>
       <c r="G48" s="36">
-        <v>-23.3</v>
+        <v>-14.5</v>
       </c>
       <c r="H48" s="36">
-        <v>-7.3</v>
+        <v>-0.6</v>
       </c>
       <c r="I48" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6120,10 +6133,10 @@
         <v>82</v>
       </c>
       <c r="G49" s="36">
-        <v>-14.2</v>
+        <v>-14.7</v>
       </c>
       <c r="H49" s="36">
-        <v>-4.8</v>
+        <v>-2.1</v>
       </c>
       <c r="I49" s="34" t="s">
         <v>159</v>
@@ -6141,16 +6154,16 @@
         <v>0</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F50" s="40" t="s">
         <v>67</v>
       </c>
       <c r="G50" s="36">
-        <v>-37.5</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="H50" s="36">
-        <v>-21</v>
+        <v>-22.7</v>
       </c>
       <c r="I50" s="34" t="s">
         <v>157</v>
@@ -6164,23 +6177,21 @@
       <c r="C51" s="52">
         <v>1</v>
       </c>
-      <c r="D51" s="52">
-        <v>0</v>
-      </c>
+      <c r="D51" s="52"/>
       <c r="E51" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F51" s="44" t="s">
         <v>69</v>
       </c>
       <c r="G51" s="36">
-        <v>-38.9</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="H51" s="36">
-        <v>-28.9</v>
+        <v>-27.2</v>
       </c>
       <c r="I51" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -6231,7 +6242,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6337,7 +6348,7 @@
         <v>139</v>
       </c>
       <c r="AG1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH1" t="s">
         <v>140</v>
@@ -7246,7 +7257,7 @@
         <v>-26.1</v>
       </c>
       <c r="AR7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AS7">
         <v>-25.3</v>
@@ -7693,7 +7704,7 @@
         <v>-33.6</v>
       </c>
       <c r="AR10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AS10">
         <v>-21.5</v>
@@ -7737,7 +7748,7 @@
         <v>-42.4</v>
       </c>
       <c r="I11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J11">
         <v>-23</v>
@@ -7842,7 +7853,7 @@
         <v>-24.7</v>
       </c>
       <c r="AR11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AS11">
         <v>-14.8</v>
@@ -7886,7 +7897,7 @@
         <v>-39.5</v>
       </c>
       <c r="I12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J12">
         <v>-27.9</v>
@@ -8035,7 +8046,7 @@
         <v>-40.200000000000003</v>
       </c>
       <c r="I13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J13">
         <v>-35.700000000000003</v>
@@ -8161,6 +8172,150 @@
     <row r="14" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>45661</v>
+      </c>
+      <c r="B14">
+        <v>-39.5</v>
+      </c>
+      <c r="C14">
+        <v>-36.4</v>
+      </c>
+      <c r="D14">
+        <v>-31.1</v>
+      </c>
+      <c r="E14">
+        <v>-32</v>
+      </c>
+      <c r="F14">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="G14">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="H14">
+        <v>-38.6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>247</v>
+      </c>
+      <c r="J14">
+        <v>-28.1</v>
+      </c>
+      <c r="K14">
+        <v>-25.1</v>
+      </c>
+      <c r="L14">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="M14">
+        <v>-35.5</v>
+      </c>
+      <c r="N14">
+        <v>-39.6</v>
+      </c>
+      <c r="O14">
+        <v>-40.4</v>
+      </c>
+      <c r="P14">
+        <v>-42.3</v>
+      </c>
+      <c r="Q14">
+        <v>-39.5</v>
+      </c>
+      <c r="R14">
+        <v>-34.4</v>
+      </c>
+      <c r="S14">
+        <v>-31.5</v>
+      </c>
+      <c r="T14">
+        <v>-25.5</v>
+      </c>
+      <c r="U14">
+        <v>-36.5</v>
+      </c>
+      <c r="V14">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="W14">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="X14">
+        <v>-34.9</v>
+      </c>
+      <c r="Y14">
+        <v>-22.4</v>
+      </c>
+      <c r="Z14">
+        <v>-42.2</v>
+      </c>
+      <c r="AA14">
+        <v>-39</v>
+      </c>
+      <c r="AB14">
+        <v>-29.4</v>
+      </c>
+      <c r="AC14">
+        <v>-12.5</v>
+      </c>
+      <c r="AD14">
+        <v>-13.9</v>
+      </c>
+      <c r="AE14">
+        <v>-36.4</v>
+      </c>
+      <c r="AF14">
+        <v>-14.4</v>
+      </c>
+      <c r="AG14">
+        <v>3.7</v>
+      </c>
+      <c r="AH14">
+        <v>-11.9</v>
+      </c>
+      <c r="AI14">
+        <v>-16.7</v>
+      </c>
+      <c r="AJ14">
+        <v>-25</v>
+      </c>
+      <c r="AK14">
+        <v>-22.5</v>
+      </c>
+      <c r="AL14">
+        <v>-20.8</v>
+      </c>
+      <c r="AM14">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="AN14">
+        <v>-36.1</v>
+      </c>
+      <c r="AO14">
+        <v>-43.7</v>
+      </c>
+      <c r="AP14">
+        <v>-25.6</v>
+      </c>
+      <c r="AQ14">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="AR14">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="AS14">
+        <v>-22.7</v>
+      </c>
+      <c r="AT14">
+        <v>-14.5</v>
+      </c>
+      <c r="AU14">
+        <v>-14.7</v>
+      </c>
+      <c r="AV14">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="AW14">
+        <v>-36.200000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.4">
@@ -8479,7 +8634,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8585,7 +8740,7 @@
         <v>139</v>
       </c>
       <c r="AG1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH1" t="s">
         <v>140</v>
@@ -9494,7 +9649,7 @@
         <v>3.1</v>
       </c>
       <c r="AR7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AS7">
         <v>-11.5</v>
@@ -9941,7 +10096,7 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="AR10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AS10">
         <v>-7.8</v>
@@ -9985,7 +10140,7 @@
         <v>-31.8</v>
       </c>
       <c r="I11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J11">
         <v>-14.3</v>
@@ -10090,7 +10245,7 @@
         <v>-4.5999999999999996</v>
       </c>
       <c r="AR11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AS11">
         <v>-6.5</v>
@@ -10122,19 +10277,19 @@
         <v>-19.8</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F12">
         <v>-33.4</v>
       </c>
       <c r="G12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J12">
         <v>-16.2</v>
@@ -10283,7 +10438,7 @@
         <v>-27.2</v>
       </c>
       <c r="I13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J13">
         <v>-28.1</v>
@@ -10409,6 +10564,150 @@
     <row r="14" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>45661</v>
+      </c>
+      <c r="B14">
+        <v>-24.7</v>
+      </c>
+      <c r="C14">
+        <v>-16.2</v>
+      </c>
+      <c r="D14">
+        <v>-10.6</v>
+      </c>
+      <c r="E14">
+        <v>-20</v>
+      </c>
+      <c r="F14">
+        <v>-18.3</v>
+      </c>
+      <c r="G14">
+        <v>-21.5</v>
+      </c>
+      <c r="H14">
+        <v>-24.3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>247</v>
+      </c>
+      <c r="J14">
+        <v>-18.8</v>
+      </c>
+      <c r="K14">
+        <v>-17.2</v>
+      </c>
+      <c r="L14">
+        <v>-23.4</v>
+      </c>
+      <c r="M14">
+        <v>-24.8</v>
+      </c>
+      <c r="N14">
+        <v>-29.5</v>
+      </c>
+      <c r="O14">
+        <v>-27.2</v>
+      </c>
+      <c r="P14">
+        <v>-25.6</v>
+      </c>
+      <c r="Q14">
+        <v>-30.7</v>
+      </c>
+      <c r="R14">
+        <v>-23.4</v>
+      </c>
+      <c r="S14">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="T14">
+        <v>-11.2</v>
+      </c>
+      <c r="U14">
+        <v>-23.1</v>
+      </c>
+      <c r="V14">
+        <v>-27.6</v>
+      </c>
+      <c r="W14">
+        <v>-23.1</v>
+      </c>
+      <c r="X14">
+        <v>-20.7</v>
+      </c>
+      <c r="Y14">
+        <v>-11.1</v>
+      </c>
+      <c r="Z14">
+        <v>-27.7</v>
+      </c>
+      <c r="AA14">
+        <v>-21.4</v>
+      </c>
+      <c r="AB14">
+        <v>-18.7</v>
+      </c>
+      <c r="AC14">
+        <v>-2.7</v>
+      </c>
+      <c r="AD14">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AE14">
+        <v>-24.5</v>
+      </c>
+      <c r="AF14">
+        <v>-5</v>
+      </c>
+      <c r="AG14">
+        <v>9.9</v>
+      </c>
+      <c r="AH14">
+        <v>1.6</v>
+      </c>
+      <c r="AI14">
+        <v>-4.3</v>
+      </c>
+      <c r="AJ14">
+        <v>-12.4</v>
+      </c>
+      <c r="AK14">
+        <v>-3.8</v>
+      </c>
+      <c r="AL14">
+        <v>-0.1</v>
+      </c>
+      <c r="AM14">
+        <v>-1.4</v>
+      </c>
+      <c r="AN14">
+        <v>-25.6</v>
+      </c>
+      <c r="AO14">
+        <v>-32.6</v>
+      </c>
+      <c r="AP14">
+        <v>-12.4</v>
+      </c>
+      <c r="AQ14">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AR14">
+        <v>0.6</v>
+      </c>
+      <c r="AS14">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="AT14">
+        <v>-0.6</v>
+      </c>
+      <c r="AU14">
+        <v>-2.1</v>
+      </c>
+      <c r="AV14">
+        <v>-22.7</v>
+      </c>
+      <c r="AW14">
+        <v>-27.2</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.4">

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1423C2DE-3E25-4259-BE75-E8BA0285D89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8909FEDD-713E-4B63-87CA-217DB9F36F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
   <sheets>
     <sheet name="详细信息表" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="258">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2818,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0415808A-EC4F-404C-B30D-CD8F1C534364}">
   <dimension ref="A1:BI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2889,10 +2889,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="4">
-        <v>-39.5</v>
+        <v>-29.6</v>
       </c>
       <c r="H2" s="4">
-        <v>-24.7</v>
+        <v>-23.5</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
@@ -2911,148 +2911,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>-39.5</v>
+        <v>-29.6</v>
       </c>
       <c r="O2">
-        <v>-36.4</v>
+        <v>-36.9</v>
       </c>
       <c r="P2">
-        <v>-31.1</v>
+        <v>-38.4</v>
       </c>
       <c r="Q2">
+        <v>-35</v>
+      </c>
+      <c r="R2">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="S2" t="str">
+        <v>无</v>
+      </c>
+      <c r="T2">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="U2">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="V2">
+        <v>-24.5</v>
+      </c>
+      <c r="W2">
+        <v>-36</v>
+      </c>
+      <c r="X2">
+        <v>-30.2</v>
+      </c>
+      <c r="Y2">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="Z2">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="AA2">
+        <v>-34.5</v>
+      </c>
+      <c r="AB2">
+        <v>-27.9</v>
+      </c>
+      <c r="AC2">
+        <v>-24.7</v>
+      </c>
+      <c r="AD2">
+        <v>-30.4</v>
+      </c>
+      <c r="AE2">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="AF2">
         <v>-32</v>
       </c>
-      <c r="R2">
+      <c r="AG2">
+        <v>-28.7</v>
+      </c>
+      <c r="AH2">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="AI2">
+        <v>-28.7</v>
+      </c>
+      <c r="AJ2">
+        <v>-32.6</v>
+      </c>
+      <c r="AK2">
+        <v>-22.2</v>
+      </c>
+      <c r="AL2">
         <v>-35.799999999999997</v>
       </c>
-      <c r="S2">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="T2">
-        <v>-38.6</v>
-      </c>
-      <c r="U2" t="str">
-        <v>无</v>
-      </c>
-      <c r="V2">
-        <v>-28.1</v>
-      </c>
-      <c r="W2">
-        <v>-25.1</v>
-      </c>
-      <c r="X2">
+      <c r="AM2">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="AN2">
+        <v>-29.8</v>
+      </c>
+      <c r="AO2">
+        <v>-20.8</v>
+      </c>
+      <c r="AP2">
+        <v>-11.7</v>
+      </c>
+      <c r="AQ2">
+        <v>-31.9</v>
+      </c>
+      <c r="AR2">
+        <v>-15.3</v>
+      </c>
+      <c r="AS2">
+        <v>-5.9</v>
+      </c>
+      <c r="AT2">
+        <v>-12.2</v>
+      </c>
+      <c r="AU2">
         <v>-33.799999999999997</v>
       </c>
-      <c r="Y2">
-        <v>-35.5</v>
-      </c>
-      <c r="Z2">
-        <v>-39.6</v>
-      </c>
-      <c r="AA2">
-        <v>-40.4</v>
-      </c>
-      <c r="AB2">
-        <v>-42.3</v>
-      </c>
-      <c r="AC2">
-        <v>-39.5</v>
-      </c>
-      <c r="AD2">
-        <v>-34.4</v>
-      </c>
-      <c r="AE2">
-        <v>-31.5</v>
-      </c>
-      <c r="AF2">
-        <v>-25.5</v>
-      </c>
-      <c r="AG2">
-        <v>-36.5</v>
-      </c>
-      <c r="AH2">
-        <v>-37.799999999999997</v>
-      </c>
-      <c r="AI2">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="AJ2">
-        <v>-34.9</v>
-      </c>
-      <c r="AK2">
-        <v>-22.4</v>
-      </c>
-      <c r="AL2">
-        <v>-42.2</v>
-      </c>
-      <c r="AM2">
-        <v>-39</v>
-      </c>
-      <c r="AN2">
-        <v>-29.4</v>
-      </c>
-      <c r="AO2">
-        <v>-12.5</v>
-      </c>
-      <c r="AP2">
-        <v>-13.9</v>
-      </c>
-      <c r="AQ2">
-        <v>-36.4</v>
-      </c>
-      <c r="AR2">
-        <v>-14.4</v>
-      </c>
-      <c r="AS2">
-        <v>3.7</v>
-      </c>
-      <c r="AT2">
-        <v>-11.9</v>
-      </c>
-      <c r="AU2">
-        <v>-16.7</v>
-      </c>
       <c r="AV2">
-        <v>-25</v>
+        <v>-25.7</v>
       </c>
       <c r="AW2">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="AX2">
+        <v>-26.1</v>
+      </c>
+      <c r="AY2">
+        <v>-22.3</v>
+      </c>
+      <c r="AZ2">
+        <v>-32.9</v>
+      </c>
+      <c r="BA2">
+        <v>-29.1</v>
+      </c>
+      <c r="BB2">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="BC2">
+        <v>-29.7</v>
+      </c>
+      <c r="BD2">
         <v>-22.5</v>
       </c>
-      <c r="AX2">
-        <v>-20.8</v>
-      </c>
-      <c r="AY2">
-        <v>-20.100000000000001</v>
-      </c>
-      <c r="AZ2">
-        <v>-36.1</v>
-      </c>
-      <c r="BA2">
-        <v>-43.7</v>
-      </c>
-      <c r="BB2">
-        <v>-25.6</v>
-      </c>
-      <c r="BC2">
-        <v>-16.100000000000001</v>
-      </c>
-      <c r="BD2">
-        <v>-9.8000000000000007</v>
-      </c>
       <c r="BE2">
-        <v>-22.7</v>
+        <v>-25.4</v>
       </c>
       <c r="BF2">
-        <v>-14.5</v>
+        <v>-17.8</v>
       </c>
       <c r="BG2">
-        <v>-14.7</v>
+        <v>-22.9</v>
       </c>
       <c r="BH2">
-        <v>-37.299999999999997</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="BI2">
-        <v>-36.200000000000003</v>
+        <v>-33.700000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3067,25 +3067,25 @@
         <v>34</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>-36.4</v>
+        <v>-36.9</v>
       </c>
       <c r="H3" s="4">
-        <v>-16.2</v>
+        <v>-24</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>122</v>
       </c>
       <c r="K3" s="4">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="L3" s="8">
         <v>1</v>
@@ -3095,148 +3095,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>-24.7</v>
+        <v>-23.5</v>
       </c>
       <c r="O3">
-        <v>-16.2</v>
+        <v>-24</v>
       </c>
       <c r="P3">
-        <v>-10.6</v>
+        <v>-24.8</v>
       </c>
       <c r="Q3">
-        <v>-20</v>
+        <v>-23.7</v>
       </c>
       <c r="R3">
+        <v>-23.8</v>
+      </c>
+      <c r="S3" t="str">
+        <v>无</v>
+      </c>
+      <c r="T3">
+        <v>-20.5</v>
+      </c>
+      <c r="U3">
+        <v>-28.3</v>
+      </c>
+      <c r="V3">
+        <v>-11.6</v>
+      </c>
+      <c r="W3">
         <v>-18.3</v>
       </c>
-      <c r="S3">
+      <c r="X3">
+        <v>-20.8</v>
+      </c>
+      <c r="Y3">
+        <v>-12.3</v>
+      </c>
+      <c r="Z3">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="AA3">
         <v>-21.5</v>
       </c>
-      <c r="T3">
+      <c r="AB3">
+        <v>-12.6</v>
+      </c>
+      <c r="AC3">
+        <v>-20.8</v>
+      </c>
+      <c r="AD3">
+        <v>-17.2</v>
+      </c>
+      <c r="AE3">
+        <v>-23.6</v>
+      </c>
+      <c r="AF3">
+        <v>-25.6</v>
+      </c>
+      <c r="AG3">
+        <v>-22.4</v>
+      </c>
+      <c r="AH3">
+        <v>-21.1</v>
+      </c>
+      <c r="AI3">
+        <v>-17.7</v>
+      </c>
+      <c r="AJ3">
+        <v>-24.1</v>
+      </c>
+      <c r="AK3">
+        <v>-15.4</v>
+      </c>
+      <c r="AL3">
+        <v>-15.9</v>
+      </c>
+      <c r="AM3">
+        <v>-15.9</v>
+      </c>
+      <c r="AN3">
+        <v>-21.6</v>
+      </c>
+      <c r="AO3">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="AP3">
+        <v>-3</v>
+      </c>
+      <c r="AQ3">
+        <v>-25</v>
+      </c>
+      <c r="AR3">
+        <v>-5.2</v>
+      </c>
+      <c r="AS3">
+        <v>8.4</v>
+      </c>
+      <c r="AT3">
+        <v>-5.8</v>
+      </c>
+      <c r="AU3">
+        <v>-11</v>
+      </c>
+      <c r="AV3">
+        <v>-11</v>
+      </c>
+      <c r="AW3">
+        <v>-9.6</v>
+      </c>
+      <c r="AX3">
+        <v>-7.5</v>
+      </c>
+      <c r="AY3">
+        <v>-6.3</v>
+      </c>
+      <c r="AZ3">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="BA3">
+        <v>-15.5</v>
+      </c>
+      <c r="BB3">
+        <v>-17.7</v>
+      </c>
+      <c r="BC3">
+        <v>-10</v>
+      </c>
+      <c r="BD3">
+        <v>-4.7</v>
+      </c>
+      <c r="BE3">
+        <v>-13.1</v>
+      </c>
+      <c r="BF3">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="BG3">
+        <v>-6.5</v>
+      </c>
+      <c r="BH3">
+        <v>-17.2</v>
+      </c>
+      <c r="BI3">
         <v>-24.3</v>
-      </c>
-      <c r="U3" t="str">
-        <v>无</v>
-      </c>
-      <c r="V3">
-        <v>-18.8</v>
-      </c>
-      <c r="W3">
-        <v>-17.2</v>
-      </c>
-      <c r="X3">
-        <v>-23.4</v>
-      </c>
-      <c r="Y3">
-        <v>-24.8</v>
-      </c>
-      <c r="Z3">
-        <v>-29.5</v>
-      </c>
-      <c r="AA3">
-        <v>-27.2</v>
-      </c>
-      <c r="AB3">
-        <v>-25.6</v>
-      </c>
-      <c r="AC3">
-        <v>-30.7</v>
-      </c>
-      <c r="AD3">
-        <v>-23.4</v>
-      </c>
-      <c r="AE3">
-        <v>-20.100000000000001</v>
-      </c>
-      <c r="AF3">
-        <v>-11.2</v>
-      </c>
-      <c r="AG3">
-        <v>-23.1</v>
-      </c>
-      <c r="AH3">
-        <v>-27.6</v>
-      </c>
-      <c r="AI3">
-        <v>-23.1</v>
-      </c>
-      <c r="AJ3">
-        <v>-20.7</v>
-      </c>
-      <c r="AK3">
-        <v>-11.1</v>
-      </c>
-      <c r="AL3">
-        <v>-27.7</v>
-      </c>
-      <c r="AM3">
-        <v>-21.4</v>
-      </c>
-      <c r="AN3">
-        <v>-18.7</v>
-      </c>
-      <c r="AO3">
-        <v>-2.7</v>
-      </c>
-      <c r="AP3">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="AQ3">
-        <v>-24.5</v>
-      </c>
-      <c r="AR3">
-        <v>-5</v>
-      </c>
-      <c r="AS3">
-        <v>9.9</v>
-      </c>
-      <c r="AT3">
-        <v>1.6</v>
-      </c>
-      <c r="AU3">
-        <v>-4.3</v>
-      </c>
-      <c r="AV3">
-        <v>-12.4</v>
-      </c>
-      <c r="AW3">
-        <v>-3.8</v>
-      </c>
-      <c r="AX3">
-        <v>-0.1</v>
-      </c>
-      <c r="AY3">
-        <v>-1.4</v>
-      </c>
-      <c r="AZ3">
-        <v>-25.6</v>
-      </c>
-      <c r="BA3">
-        <v>-32.6</v>
-      </c>
-      <c r="BB3">
-        <v>-12.4</v>
-      </c>
-      <c r="BC3">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="BD3">
-        <v>0.6</v>
-      </c>
-      <c r="BE3">
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="BF3">
-        <v>-0.6</v>
-      </c>
-      <c r="BG3">
-        <v>-2.1</v>
-      </c>
-      <c r="BH3">
-        <v>-22.7</v>
-      </c>
-      <c r="BI3">
-        <v>-27.2</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3254,22 +3254,22 @@
         <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>-31.1</v>
+        <v>-38.4</v>
       </c>
       <c r="H4" s="4">
-        <v>-10.6</v>
+        <v>-24.8</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>122</v>
       </c>
       <c r="K4" s="4">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="L4" s="8">
         <v>1</v>
@@ -3287,28 +3287,28 @@
         <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="G5" s="4">
-        <v>-32</v>
+        <v>-35</v>
       </c>
       <c r="H5" s="4">
-        <v>-20</v>
+        <v>-23.7</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>122</v>
       </c>
       <c r="K5" s="4">
-        <v>243</v>
+        <v>687</v>
       </c>
       <c r="L5" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>195</v>
@@ -3320,7 +3320,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:61" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3332,28 +3332,28 @@
         <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="G6" s="4">
-        <v>-35.799999999999997</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="H6" s="4">
-        <v>-18.3</v>
+        <v>-23.8</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>122</v>
       </c>
       <c r="K6" s="4">
-        <v>274</v>
+        <v>828</v>
       </c>
       <c r="L6" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" s="22" t="s">
         <v>192</v>
@@ -3365,7 +3365,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:61" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -3377,28 +3377,28 @@
         <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="4">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="H7" s="4">
-        <v>-21.5</v>
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K7" s="4">
-        <v>687</v>
+        <v>893</v>
       </c>
       <c r="L7" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>193</v>
@@ -3410,41 +3410,39 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:61" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>-38.6</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="H8" s="4">
-        <v>-24.3</v>
+        <v>-20.5</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="K8" s="4">
-        <v>828</v>
-      </c>
-      <c r="L8" s="8">
-        <v>3</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="13">
+        <v>30622</v>
+      </c>
+      <c r="L8" s="18"/>
       <c r="M8" s="22" t="s">
         <v>194</v>
       </c>
@@ -3455,41 +3453,39 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:61" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>247</v>
+        <v>95</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-28.3</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" s="4">
-        <v>893</v>
-      </c>
-      <c r="L9" s="8">
-        <v>4</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="13">
+        <v>30636</v>
+      </c>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
@@ -3500,28 +3496,28 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="G10" s="4">
-        <v>-28.1</v>
+        <v>-24.5</v>
       </c>
       <c r="H10" s="4">
-        <v>-18.8</v>
+        <v>-11.6</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K10" s="13">
-        <v>30622</v>
+        <v>30673</v>
       </c>
       <c r="L10" s="18"/>
     </row>
@@ -3534,28 +3530,28 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="G11" s="4">
-        <v>-25.1</v>
+        <v>-36</v>
       </c>
       <c r="H11" s="4">
-        <v>-17.2</v>
+        <v>-18.3</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K11" s="13">
-        <v>30636</v>
+        <v>30781</v>
       </c>
       <c r="L11" s="18"/>
     </row>
@@ -3568,28 +3564,28 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G12" s="4">
-        <v>-33.799999999999997</v>
+        <v>-30.2</v>
       </c>
       <c r="H12" s="4">
-        <v>-23.4</v>
+        <v>-20.8</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K12" s="13">
-        <v>30673</v>
+        <v>31329</v>
       </c>
       <c r="L12" s="18"/>
     </row>
@@ -3605,25 +3601,25 @@
         <v>24</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G13" s="4">
-        <v>-35.5</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="H13" s="4">
-        <v>-24.8</v>
+        <v>-12.3</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K13" s="13">
-        <v>30781</v>
+        <v>31348</v>
       </c>
       <c r="L13" s="18"/>
     </row>
@@ -3639,25 +3635,25 @@
         <v>24</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4">
-        <v>-39.6</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="H14" s="4">
-        <v>-29.5</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K14" s="13">
-        <v>31329</v>
+        <v>31478</v>
       </c>
       <c r="L14" s="18"/>
     </row>
@@ -3670,28 +3666,28 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="G15" s="4">
-        <v>-40.4</v>
+        <v>-34.5</v>
       </c>
       <c r="H15" s="4">
-        <v>-27.2</v>
+        <v>-21.5</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K15" s="13">
-        <v>31348</v>
+        <v>31532</v>
       </c>
       <c r="L15" s="18"/>
     </row>
@@ -3707,25 +3703,25 @@
         <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="G16" s="4">
-        <v>-42.3</v>
+        <v>-27.9</v>
       </c>
       <c r="H16" s="4">
-        <v>-25.6</v>
+        <v>-12.6</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K16" s="13">
-        <v>31478</v>
+        <v>31702</v>
       </c>
       <c r="L16" s="18"/>
     </row>
@@ -3738,28 +3734,28 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="G17" s="4">
-        <v>-39.5</v>
+        <v>-24.7</v>
       </c>
       <c r="H17" s="4">
-        <v>-30.7</v>
+        <v>-20.8</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K17" s="13">
-        <v>31532</v>
+        <v>36096</v>
       </c>
       <c r="L17" s="18"/>
     </row>
@@ -3775,25 +3771,25 @@
         <v>24</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>-34.4</v>
+        <v>-30.4</v>
       </c>
       <c r="H18" s="4">
-        <v>-23.4</v>
+        <v>-17.2</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="13">
-        <v>31702</v>
+        <v>36259</v>
       </c>
       <c r="L18" s="18"/>
     </row>
@@ -3812,22 +3808,22 @@
         <v>26</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="G19" s="4">
-        <v>-31.5</v>
+        <v>-34.799999999999997</v>
       </c>
       <c r="H19" s="4">
-        <v>-20.100000000000001</v>
+        <v>-23.6</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K19" s="13">
-        <v>36096</v>
+        <v>36307</v>
       </c>
       <c r="L19" s="18"/>
     </row>
@@ -3836,32 +3832,32 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G20" s="4">
-        <v>-25.5</v>
+        <v>-32</v>
       </c>
       <c r="H20" s="4">
-        <v>-11.2</v>
+        <v>-25.6</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>129</v>
       </c>
       <c r="K20" s="13">
-        <v>36259</v>
+        <v>44203</v>
       </c>
       <c r="L20" s="18"/>
     </row>
@@ -3870,32 +3866,32 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G21" s="4">
-        <v>-36.5</v>
+        <v>-28.7</v>
       </c>
       <c r="H21" s="4">
-        <v>-23.1</v>
+        <v>-22.4</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K21" s="13">
-        <v>36307</v>
+        <v>44212</v>
       </c>
       <c r="L21" s="18"/>
     </row>
@@ -3911,27 +3907,29 @@
         <v>34</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G22" s="4">
-        <v>-37.799999999999997</v>
+        <v>-34.799999999999997</v>
       </c>
       <c r="H22" s="4">
-        <v>-27.6</v>
+        <v>-21.1</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K22" s="13">
-        <v>44203</v>
-      </c>
-      <c r="L22" s="18"/>
+        <v>44221</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
@@ -3945,27 +3943,29 @@
         <v>34</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="G23" s="4">
-        <v>-36.200000000000003</v>
+        <v>-28.7</v>
       </c>
       <c r="H23" s="4">
-        <v>-23.1</v>
+        <v>-17.7</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K23" s="13">
-        <v>44212</v>
-      </c>
-      <c r="L23" s="18"/>
+        <v>44224</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
@@ -3985,10 +3985,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="4">
-        <v>-34.9</v>
+        <v>-32.6</v>
       </c>
       <c r="H24" s="4">
-        <v>-20.7</v>
+        <v>-24.1</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -4019,10 +4019,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="4">
-        <v>-22.4</v>
+        <v>-22.2</v>
       </c>
       <c r="H25" s="4">
-        <v>-11.1</v>
+        <v>-15.4</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -4055,10 +4055,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>-42.2</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="H26" s="4">
-        <v>-27.7</v>
+        <v>-15.9</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -4089,10 +4089,10 @@
         <v>181</v>
       </c>
       <c r="G27" s="4">
-        <v>-39</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="H27" s="4">
-        <v>-21.4</v>
+        <v>-15.9</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
@@ -4123,10 +4123,10 @@
         <v>77</v>
       </c>
       <c r="G28" s="4">
-        <v>-29.4</v>
+        <v>-29.8</v>
       </c>
       <c r="H28" s="4">
-        <v>-18.7</v>
+        <v>-21.6</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
@@ -4159,10 +4159,10 @@
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <v>-12.5</v>
+        <v>-20.8</v>
       </c>
       <c r="H29" s="4">
-        <v>-2.7</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -4193,10 +4193,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>-13.9</v>
+        <v>-11.7</v>
       </c>
       <c r="H30" s="4">
-        <v>-1.1000000000000001</v>
+        <v>-3</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
@@ -4229,10 +4229,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="4">
-        <v>-36.4</v>
+        <v>-31.9</v>
       </c>
       <c r="H31" s="4">
-        <v>-24.5</v>
+        <v>-25</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
@@ -4263,10 +4263,10 @@
         <v>66</v>
       </c>
       <c r="G32" s="4">
-        <v>-14.4</v>
+        <v>-15.3</v>
       </c>
       <c r="H32" s="4">
-        <v>-5</v>
+        <v>-5.2</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
@@ -4297,10 +4297,10 @@
         <v>253</v>
       </c>
       <c r="G33" s="4">
-        <v>3.7</v>
+        <v>-5.9</v>
       </c>
       <c r="H33" s="4">
-        <v>9.9</v>
+        <v>8.4</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>250</v>
@@ -4331,10 +4331,10 @@
         <v>59</v>
       </c>
       <c r="G34" s="4">
-        <v>-11.9</v>
+        <v>-12.2</v>
       </c>
       <c r="H34" s="4">
-        <v>1.6</v>
+        <v>-5.8</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
@@ -4365,10 +4365,10 @@
         <v>56</v>
       </c>
       <c r="G35" s="4">
-        <v>-16.7</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H35" s="4">
-        <v>-4.3</v>
+        <v>-11</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
@@ -4399,10 +4399,10 @@
         <v>46</v>
       </c>
       <c r="G36" s="4">
-        <v>-25</v>
+        <v>-25.7</v>
       </c>
       <c r="H36" s="4">
-        <v>-12.4</v>
+        <v>-11</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>47</v>
@@ -4435,10 +4435,10 @@
         <v>49</v>
       </c>
       <c r="G37" s="4">
-        <v>-22.5</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="H37" s="4">
-        <v>-3.8</v>
+        <v>-9.6</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>45</v>
@@ -4471,10 +4471,10 @@
         <v>51</v>
       </c>
       <c r="G38" s="4">
-        <v>-20.8</v>
+        <v>-26.1</v>
       </c>
       <c r="H38" s="4">
-        <v>-0.1</v>
+        <v>-7.5</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
@@ -4505,10 +4505,10 @@
         <v>58</v>
       </c>
       <c r="G39" s="4">
-        <v>-20.100000000000001</v>
+        <v>-22.3</v>
       </c>
       <c r="H39" s="4">
-        <v>-1.4</v>
+        <v>-6.3</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
@@ -4539,10 +4539,10 @@
         <v>44</v>
       </c>
       <c r="G40" s="4">
-        <v>-36.1</v>
+        <v>-32.9</v>
       </c>
       <c r="H40" s="4">
-        <v>-25.6</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>43</v>
@@ -4573,10 +4573,10 @@
         <v>74</v>
       </c>
       <c r="G41" s="4">
-        <v>-43.7</v>
+        <v>-29.1</v>
       </c>
       <c r="H41" s="4">
-        <v>-32.6</v>
+        <v>-15.5</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
@@ -4607,10 +4607,10 @@
         <v>72</v>
       </c>
       <c r="G42" s="4">
-        <v>-25.6</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="H42" s="4">
-        <v>-12.4</v>
+        <v>-17.7</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>2</v>
@@ -4641,10 +4641,10 @@
         <v>62</v>
       </c>
       <c r="G43" s="4">
-        <v>-16.100000000000001</v>
+        <v>-29.7</v>
       </c>
       <c r="H43" s="4">
-        <v>-4.5999999999999996</v>
+        <v>-10</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
@@ -4675,10 +4675,10 @@
         <v>64</v>
       </c>
       <c r="G44" s="4">
-        <v>-9.8000000000000007</v>
+        <v>-22.5</v>
       </c>
       <c r="H44" s="4">
-        <v>0.6</v>
+        <v>-4.7</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>65</v>
@@ -4709,10 +4709,10 @@
         <v>79</v>
       </c>
       <c r="G45" s="4">
-        <v>-22.7</v>
+        <v>-25.4</v>
       </c>
       <c r="H45" s="4">
-        <v>-10.199999999999999</v>
+        <v>-13.1</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>22</v>
@@ -4743,10 +4743,10 @@
         <v>81</v>
       </c>
       <c r="G46" s="4">
-        <v>-14.5</v>
+        <v>-17.8</v>
       </c>
       <c r="H46" s="4">
-        <v>-0.6</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
@@ -4777,10 +4777,10 @@
         <v>83</v>
       </c>
       <c r="G47" s="4">
-        <v>-14.7</v>
+        <v>-22.9</v>
       </c>
       <c r="H47" s="4">
-        <v>-2.1</v>
+        <v>-6.5</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>21</v>
@@ -4813,10 +4813,10 @@
         <v>68</v>
       </c>
       <c r="G48" s="4">
-        <v>-37.299999999999997</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="H48" s="4">
-        <v>-22.7</v>
+        <v>-17.2</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -4847,10 +4847,10 @@
         <v>70</v>
       </c>
       <c r="G49" s="4">
-        <v>-36.200000000000003</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="H49" s="4">
-        <v>-27.2</v>
+        <v>-24.3</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>2</v>
@@ -4875,10 +4875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B34FAF-8106-42B6-ACE5-F6D83E641FA4}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4901,7 +4901,7 @@
         <v>254</v>
       </c>
       <c r="F1" s="61">
-        <v>45661</v>
+        <v>45668</v>
       </c>
       <c r="G1" s="62"/>
       <c r="H1" s="59" t="s">
@@ -4975,21 +4975,15 @@
       <c r="C4" s="52">
         <v>3</v>
       </c>
-      <c r="D4" s="52">
-        <v>0</v>
-      </c>
+      <c r="D4" s="52"/>
       <c r="E4" s="32" t="s">
         <v>216</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="36">
-        <v>-39.5</v>
-      </c>
-      <c r="H4" s="36">
-        <v>-24.7</v>
-      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="34" t="s">
         <v>175</v>
       </c>
@@ -5013,19 +5007,15 @@
       </c>
       <c r="D5" s="52"/>
       <c r="E5" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="36">
-        <v>-36.4</v>
-      </c>
-      <c r="H5" s="36">
-        <v>-16.2</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="34" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5036,21 +5026,19 @@
       <c r="C6" s="52">
         <v>3</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="52">
+        <v>0</v>
+      </c>
       <c r="E6" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="36">
-        <v>-31.1</v>
-      </c>
-      <c r="H6" s="36">
-        <v>-10.6</v>
-      </c>
+      <c r="F6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="34" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5063,19 +5051,15 @@
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="36">
-        <v>-32</v>
-      </c>
-      <c r="H7" s="36">
-        <v>-20</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="34" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5088,19 +5072,15 @@
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="36">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="H8" s="36">
-        <v>-18.3</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="34" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5113,19 +5093,15 @@
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="36">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="H9" s="36">
-        <v>-21.5</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="34" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5134,23 +5110,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="52"/>
-      <c r="E10" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="36">
-        <v>-38.6</v>
-      </c>
-      <c r="H10" s="36">
-        <v>-24.3</v>
-      </c>
+      <c r="E10" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="34" t="s">
-        <v>172</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5159,23 +5131,21 @@
         <v>8</v>
       </c>
       <c r="C11" s="52">
-        <v>3</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>247</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D11" s="52">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="34" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5187,20 +5157,16 @@
         <v>2</v>
       </c>
       <c r="D12" s="52"/>
-      <c r="E12" s="29" t="s">
-        <v>220</v>
+      <c r="E12" s="31" t="s">
+        <v>222</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="36">
-        <v>-28.1</v>
-      </c>
-      <c r="H12" s="36">
-        <v>-18.8</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5213,19 +5179,15 @@
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="36">
-        <v>-25.1</v>
-      </c>
-      <c r="H13" s="36">
-        <v>-17.2</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="34" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5237,20 +5199,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="52"/>
-      <c r="E14" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="36">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="H14" s="36">
-        <v>-23.4</v>
-      </c>
+      <c r="E14" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="34" t="s">
-        <v>244</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5262,20 +5220,16 @@
         <v>2</v>
       </c>
       <c r="D15" s="52"/>
-      <c r="E15" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="36">
-        <v>-35.5</v>
-      </c>
-      <c r="H15" s="36">
-        <v>-24.8</v>
-      </c>
+      <c r="E15" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5287,18 +5241,14 @@
         <v>2</v>
       </c>
       <c r="D16" s="52"/>
-      <c r="E16" s="29" t="s">
-        <v>223</v>
+      <c r="E16" s="27" t="s">
+        <v>224</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="36">
-        <v>-39.6</v>
-      </c>
-      <c r="H16" s="36">
-        <v>-29.5</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="34" t="s">
         <v>154</v>
       </c>
@@ -5315,17 +5265,13 @@
       <c r="E17" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="F17" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="36">
-        <v>-40.4</v>
-      </c>
-      <c r="H17" s="36">
-        <v>-27.2</v>
-      </c>
+      <c r="F17" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="34" t="s">
-        <v>154</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5336,23 +5282,17 @@
       <c r="C18" s="52">
         <v>2</v>
       </c>
-      <c r="D18" s="52">
-        <v>0</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="36">
-        <v>-42.3</v>
-      </c>
-      <c r="H18" s="36">
-        <v>-25.6</v>
-      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="34" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5364,20 +5304,16 @@
         <v>2</v>
       </c>
       <c r="D19" s="52"/>
-      <c r="E19" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="G19" s="36">
-        <v>-39.5</v>
-      </c>
-      <c r="H19" s="36">
-        <v>-30.7</v>
-      </c>
+      <c r="E19" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5389,20 +5325,16 @@
         <v>2</v>
       </c>
       <c r="D20" s="52"/>
-      <c r="E20" s="29" t="s">
-        <v>225</v>
+      <c r="E20" s="28" t="s">
+        <v>227</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="36">
-        <v>-34.4</v>
-      </c>
-      <c r="H20" s="36">
-        <v>-23.4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="34" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5418,16 +5350,12 @@
         <v>226</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="36">
-        <v>-31.5</v>
-      </c>
-      <c r="H21" s="36">
-        <v>-20.100000000000001</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="34" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5436,23 +5364,19 @@
         <v>19</v>
       </c>
       <c r="C22" s="52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="52"/>
-      <c r="E22" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="36">
-        <v>-25.5</v>
-      </c>
-      <c r="H22" s="36">
-        <v>-11.2</v>
-      </c>
+      <c r="E22" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="34" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5461,23 +5385,19 @@
         <v>20</v>
       </c>
       <c r="C23" s="52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="52"/>
-      <c r="E23" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="36">
-        <v>-36.5</v>
-      </c>
-      <c r="H23" s="36">
-        <v>-23.1</v>
-      </c>
+      <c r="E23" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="34" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5490,19 +5410,15 @@
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="36">
-        <v>-37.799999999999997</v>
-      </c>
-      <c r="H24" s="36">
-        <v>-27.6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="34" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5515,19 +5431,15 @@
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="36">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="H25" s="36">
-        <v>-23.1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="34" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5545,12 +5457,8 @@
       <c r="F26" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="36">
-        <v>-34.9</v>
-      </c>
-      <c r="H26" s="36">
-        <v>-20.7</v>
-      </c>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="34" t="s">
         <v>229</v>
       </c>
@@ -5570,12 +5478,8 @@
       <c r="F27" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="36">
-        <v>-22.4</v>
-      </c>
-      <c r="H27" s="36">
-        <v>-11.1</v>
-      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="34" t="s">
         <v>155</v>
       </c>
@@ -5597,12 +5501,8 @@
       <c r="F28" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="36">
-        <v>-42.2</v>
-      </c>
-      <c r="H28" s="36">
-        <v>-27.7</v>
-      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="34" t="s">
         <v>234</v>
       </c>
@@ -5615,19 +5515,17 @@
       <c r="C29" s="52">
         <v>1</v>
       </c>
-      <c r="D29" s="52"/>
+      <c r="D29" s="52">
+        <v>0</v>
+      </c>
       <c r="E29" s="30" t="s">
         <v>215</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="36">
-        <v>-39</v>
-      </c>
-      <c r="H29" s="36">
-        <v>-21.4</v>
-      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="34" t="s">
         <v>232</v>
       </c>
@@ -5647,12 +5545,8 @@
       <c r="F30" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="36">
-        <v>-29.4</v>
-      </c>
-      <c r="H30" s="36">
-        <v>-18.7</v>
-      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="34" t="s">
         <v>237</v>
       </c>
@@ -5674,12 +5568,8 @@
       <c r="F31" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="36">
-        <v>-12.5</v>
-      </c>
-      <c r="H31" s="36">
-        <v>-2.7</v>
-      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="34" t="s">
         <v>238</v>
       </c>
@@ -5699,12 +5589,8 @@
       <c r="F32" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="36">
-        <v>-13.9</v>
-      </c>
-      <c r="H32" s="36">
-        <v>-1.1000000000000001</v>
-      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="34" t="s">
         <v>159</v>
       </c>
@@ -5726,12 +5612,8 @@
       <c r="F33" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="36">
-        <v>-36.4</v>
-      </c>
-      <c r="H33" s="36">
-        <v>-24.5</v>
-      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="34" t="s">
         <v>239</v>
       </c>
@@ -5751,12 +5633,8 @@
       <c r="F34" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="36">
-        <v>-14.4</v>
-      </c>
-      <c r="H34" s="36">
-        <v>-5</v>
-      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="34" t="s">
         <v>174</v>
       </c>
@@ -5778,12 +5656,8 @@
       <c r="F35" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="36">
-        <v>3.7</v>
-      </c>
-      <c r="H35" s="36">
-        <v>9.9</v>
-      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="34" t="s">
         <v>250</v>
       </c>
@@ -5803,12 +5677,8 @@
       <c r="F36" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="36">
-        <v>-11.9</v>
-      </c>
-      <c r="H36" s="36">
-        <v>1.6</v>
-      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5828,12 +5698,8 @@
       <c r="F37" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="36">
-        <v>-16.7</v>
-      </c>
-      <c r="H37" s="36">
-        <v>-4.3</v>
-      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5853,12 +5719,8 @@
       <c r="F38" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="36">
-        <v>-25</v>
-      </c>
-      <c r="H38" s="36">
-        <v>-12.4</v>
-      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="34" t="s">
         <v>173</v>
       </c>
@@ -5880,12 +5742,8 @@
       <c r="F39" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G39" s="36">
-        <v>-22.5</v>
-      </c>
-      <c r="H39" s="36">
-        <v>-3.8</v>
-      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="34" t="s">
         <v>240</v>
       </c>
@@ -5907,12 +5765,8 @@
       <c r="F40" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G40" s="36">
-        <v>-20.8</v>
-      </c>
-      <c r="H40" s="36">
-        <v>-0.1</v>
-      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5932,12 +5786,8 @@
       <c r="F41" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G41" s="36">
-        <v>-20.100000000000001</v>
-      </c>
-      <c r="H41" s="36">
-        <v>-1.4</v>
-      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5955,12 +5805,8 @@
       <c r="F42" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G42" s="36">
-        <v>-36.1</v>
-      </c>
-      <c r="H42" s="36">
-        <v>-25.6</v>
-      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="34" t="s">
         <v>235</v>
       </c>
@@ -5973,21 +5819,15 @@
       <c r="C43" s="52">
         <v>1</v>
       </c>
-      <c r="D43" s="52">
-        <v>0</v>
-      </c>
+      <c r="D43" s="52"/>
       <c r="E43" s="30" t="s">
         <v>214</v>
       </c>
       <c r="F43" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="36">
-        <v>-43.7</v>
-      </c>
-      <c r="H43" s="36">
-        <v>-32.6</v>
-      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="34" t="s">
         <v>234</v>
       </c>
@@ -6007,12 +5847,8 @@
       <c r="F44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="36">
-        <v>-25.6</v>
-      </c>
-      <c r="H44" s="36">
-        <v>-12.4</v>
-      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="34" t="s">
         <v>157</v>
       </c>
@@ -6032,12 +5868,8 @@
       <c r="F45" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="G45" s="36">
-        <v>-16.100000000000001</v>
-      </c>
-      <c r="H45" s="36">
-        <v>-4.5999999999999996</v>
-      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="34" t="s">
         <v>160</v>
       </c>
@@ -6057,12 +5889,8 @@
       <c r="F46" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G46" s="36">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="H46" s="36">
-        <v>0.6</v>
-      </c>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="34" t="s">
         <v>160</v>
       </c>
@@ -6082,12 +5910,8 @@
       <c r="F47" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="36">
-        <v>-22.7</v>
-      </c>
-      <c r="H47" s="36">
-        <v>-10.199999999999999</v>
-      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="34" t="s">
         <v>156</v>
       </c>
@@ -6107,12 +5931,8 @@
       <c r="F48" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="36">
-        <v>-14.5</v>
-      </c>
-      <c r="H48" s="36">
-        <v>-0.6</v>
-      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="34" t="s">
         <v>236</v>
       </c>
@@ -6132,12 +5952,8 @@
       <c r="F49" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="36">
-        <v>-14.7</v>
-      </c>
-      <c r="H49" s="36">
-        <v>-2.1</v>
-      </c>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="34" t="s">
         <v>159</v>
       </c>
@@ -6159,12 +5975,8 @@
       <c r="F50" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="36">
-        <v>-37.299999999999997</v>
-      </c>
-      <c r="H50" s="36">
-        <v>-22.7</v>
-      </c>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="34" t="s">
         <v>157</v>
       </c>
@@ -6184,24 +5996,26 @@
       <c r="F51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G51" s="36">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="H51" s="36">
-        <v>-27.2</v>
-      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="34" t="s">
         <v>233</v>
       </c>
     </row>
+    <row r="52" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="56"/>
+    </row>
+    <row r="53" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="56"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I51">
-    <sortCondition ref="B4:B51"/>
-    <sortCondition ref="G4:G51"/>
-    <sortCondition ref="H4:H51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I53">
+    <sortCondition ref="B4:B53"/>
+    <sortCondition ref="G4:G53"/>
+    <sortCondition ref="H4:H53"/>
   </sortState>
   <mergeCells count="6">
-    <mergeCell ref="A3:A51"/>
+    <mergeCell ref="A3:A53"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="H1:I1"/>
@@ -6241,8 +6055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6452CB3-0983-4391-8A7D-2C5221219E76}">
   <dimension ref="A1:AW79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6258,67 +6072,67 @@
         <v>163</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" t="s">
-        <v>107</v>
-      </c>
-      <c r="V1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" t="s">
-        <v>105</v>
       </c>
       <c r="X1" t="s">
         <v>10</v>
@@ -6407,67 +6221,67 @@
         <v>-30.6</v>
       </c>
       <c r="C2">
+        <v>-35</v>
+      </c>
+      <c r="D2">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="E2">
+        <v>-30.4</v>
+      </c>
+      <c r="F2">
+        <v>-30.8</v>
+      </c>
+      <c r="G2">
+        <v>-35.6</v>
+      </c>
+      <c r="H2">
+        <v>-31</v>
+      </c>
+      <c r="I2">
+        <v>-25.1</v>
+      </c>
+      <c r="J2">
+        <v>-25.9</v>
+      </c>
+      <c r="K2">
+        <v>-32.4</v>
+      </c>
+      <c r="L2">
+        <v>-38.1</v>
+      </c>
+      <c r="M2">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="N2">
+        <v>-42.3</v>
+      </c>
+      <c r="O2">
+        <v>-37.5</v>
+      </c>
+      <c r="P2">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="Q2">
+        <v>-30.8</v>
+      </c>
+      <c r="R2">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="S2">
+        <v>-29.5</v>
+      </c>
+      <c r="T2">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="U2">
+        <v>-28.1</v>
+      </c>
+      <c r="V2">
         <v>-31.2</v>
       </c>
-      <c r="D2">
+      <c r="W2">
         <v>-27.5</v>
-      </c>
-      <c r="E2">
-        <v>-35</v>
-      </c>
-      <c r="F2">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="G2">
-        <v>-30.4</v>
-      </c>
-      <c r="H2">
-        <v>-30.8</v>
-      </c>
-      <c r="I2">
-        <v>-35.6</v>
-      </c>
-      <c r="J2">
-        <v>-31</v>
-      </c>
-      <c r="K2">
-        <v>-25.1</v>
-      </c>
-      <c r="L2">
-        <v>-25.9</v>
-      </c>
-      <c r="M2">
-        <v>-32.4</v>
-      </c>
-      <c r="N2">
-        <v>-38.1</v>
-      </c>
-      <c r="O2">
-        <v>-39.799999999999997</v>
-      </c>
-      <c r="P2">
-        <v>-42.3</v>
-      </c>
-      <c r="Q2">
-        <v>-37.5</v>
-      </c>
-      <c r="R2">
-        <v>-36.700000000000003</v>
-      </c>
-      <c r="S2">
-        <v>-30.8</v>
-      </c>
-      <c r="T2">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="U2">
-        <v>-29.5</v>
-      </c>
-      <c r="V2">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="W2">
-        <v>-28.1</v>
       </c>
       <c r="X2">
         <v>-33.1</v>
@@ -6553,67 +6367,67 @@
         <v>-26.7</v>
       </c>
       <c r="C3">
+        <v>-32</v>
+      </c>
+      <c r="D3">
+        <v>-26.2</v>
+      </c>
+      <c r="E3">
+        <v>-28.4</v>
+      </c>
+      <c r="F3">
+        <v>-28.4</v>
+      </c>
+      <c r="G3">
+        <v>-28.5</v>
+      </c>
+      <c r="H3">
+        <v>-32.4</v>
+      </c>
+      <c r="I3">
+        <v>-22.9</v>
+      </c>
+      <c r="J3">
+        <v>-25.2</v>
+      </c>
+      <c r="K3">
+        <v>-34.4</v>
+      </c>
+      <c r="L3">
+        <v>-37</v>
+      </c>
+      <c r="M3">
+        <v>-31.9</v>
+      </c>
+      <c r="N3">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="O3">
+        <v>-36.4</v>
+      </c>
+      <c r="P3">
+        <v>-32</v>
+      </c>
+      <c r="Q3">
+        <v>-24.8</v>
+      </c>
+      <c r="R3">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="S3">
+        <v>-26.3</v>
+      </c>
+      <c r="T3">
+        <v>-28.3</v>
+      </c>
+      <c r="U3">
+        <v>-27.3</v>
+      </c>
+      <c r="V3">
         <v>-27.7</v>
       </c>
-      <c r="D3">
+      <c r="W3">
         <v>-31.9</v>
-      </c>
-      <c r="E3">
-        <v>-32</v>
-      </c>
-      <c r="F3">
-        <v>-26.2</v>
-      </c>
-      <c r="G3">
-        <v>-28.4</v>
-      </c>
-      <c r="H3">
-        <v>-28.4</v>
-      </c>
-      <c r="I3">
-        <v>-28.5</v>
-      </c>
-      <c r="J3">
-        <v>-32.4</v>
-      </c>
-      <c r="K3">
-        <v>-22.9</v>
-      </c>
-      <c r="L3">
-        <v>-25.2</v>
-      </c>
-      <c r="M3">
-        <v>-34.4</v>
-      </c>
-      <c r="N3">
-        <v>-37</v>
-      </c>
-      <c r="O3">
-        <v>-31.9</v>
-      </c>
-      <c r="P3">
-        <v>-38.200000000000003</v>
-      </c>
-      <c r="Q3">
-        <v>-36.4</v>
-      </c>
-      <c r="R3">
-        <v>-32</v>
-      </c>
-      <c r="S3">
-        <v>-24.8</v>
-      </c>
-      <c r="T3">
-        <v>-37.200000000000003</v>
-      </c>
-      <c r="U3">
-        <v>-26.3</v>
-      </c>
-      <c r="V3">
-        <v>-28.3</v>
-      </c>
-      <c r="W3">
-        <v>-27.3</v>
       </c>
       <c r="X3">
         <v>-23.6</v>
@@ -6699,67 +6513,67 @@
         <v>-36.299999999999997</v>
       </c>
       <c r="C4">
+        <v>-31</v>
+      </c>
+      <c r="D4">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="E4">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="F4">
+        <v>-38</v>
+      </c>
+      <c r="G4">
+        <v>-35</v>
+      </c>
+      <c r="H4">
+        <v>-27.7</v>
+      </c>
+      <c r="I4">
+        <v>-22.2</v>
+      </c>
+      <c r="J4">
+        <v>-27.8</v>
+      </c>
+      <c r="K4">
+        <v>-35.9</v>
+      </c>
+      <c r="L4">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="M4">
+        <v>-39.1</v>
+      </c>
+      <c r="N4">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="O4">
+        <v>-35.5</v>
+      </c>
+      <c r="P4">
+        <v>-25.3</v>
+      </c>
+      <c r="Q4">
+        <v>-31.8</v>
+      </c>
+      <c r="R4">
+        <v>-37</v>
+      </c>
+      <c r="S4">
+        <v>-33.1</v>
+      </c>
+      <c r="T4">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="U4">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="V4">
         <v>-41.8</v>
       </c>
-      <c r="D4">
+      <c r="W4">
         <v>-39</v>
-      </c>
-      <c r="E4">
-        <v>-31</v>
-      </c>
-      <c r="F4">
-        <v>-38.799999999999997</v>
-      </c>
-      <c r="G4">
-        <v>-40.200000000000003</v>
-      </c>
-      <c r="H4">
-        <v>-38</v>
-      </c>
-      <c r="I4">
-        <v>-35</v>
-      </c>
-      <c r="J4">
-        <v>-27.7</v>
-      </c>
-      <c r="K4">
-        <v>-22.2</v>
-      </c>
-      <c r="L4">
-        <v>-27.8</v>
-      </c>
-      <c r="M4">
-        <v>-35.9</v>
-      </c>
-      <c r="N4">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="O4">
-        <v>-39.1</v>
-      </c>
-      <c r="P4">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="Q4">
-        <v>-35.5</v>
-      </c>
-      <c r="R4">
-        <v>-25.3</v>
-      </c>
-      <c r="S4">
-        <v>-31.8</v>
-      </c>
-      <c r="T4">
-        <v>-37</v>
-      </c>
-      <c r="U4">
-        <v>-33.1</v>
-      </c>
-      <c r="V4">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="W4">
-        <v>-34.200000000000003</v>
       </c>
       <c r="X4">
         <v>-37.1</v>
@@ -6845,67 +6659,67 @@
         <v>-38.1</v>
       </c>
       <c r="C5">
+        <v>-33</v>
+      </c>
+      <c r="D5">
+        <v>-41.9</v>
+      </c>
+      <c r="E5">
+        <v>-42.4</v>
+      </c>
+      <c r="F5">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="G5">
+        <v>-35.6</v>
+      </c>
+      <c r="H5">
+        <v>-28.2</v>
+      </c>
+      <c r="I5">
+        <v>-26.8</v>
+      </c>
+      <c r="J5">
+        <v>-23.8</v>
+      </c>
+      <c r="K5">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="L5">
+        <v>-37.1</v>
+      </c>
+      <c r="M5">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="N5">
+        <v>-38.9</v>
+      </c>
+      <c r="O5">
+        <v>-36</v>
+      </c>
+      <c r="P5">
+        <v>-29.5</v>
+      </c>
+      <c r="Q5">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="R5">
+        <v>-44.1</v>
+      </c>
+      <c r="S5">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="T5">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="U5">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="V5">
         <v>-41</v>
       </c>
-      <c r="D5">
+      <c r="W5">
         <v>-41.4</v>
-      </c>
-      <c r="E5">
-        <v>-33</v>
-      </c>
-      <c r="F5">
-        <v>-41.9</v>
-      </c>
-      <c r="G5">
-        <v>-42.4</v>
-      </c>
-      <c r="H5">
-        <v>-39.799999999999997</v>
-      </c>
-      <c r="I5">
-        <v>-35.6</v>
-      </c>
-      <c r="J5">
-        <v>-28.2</v>
-      </c>
-      <c r="K5">
-        <v>-26.8</v>
-      </c>
-      <c r="L5">
-        <v>-23.8</v>
-      </c>
-      <c r="M5">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="N5">
-        <v>-37.1</v>
-      </c>
-      <c r="O5">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="P5">
-        <v>-38.9</v>
-      </c>
-      <c r="Q5">
-        <v>-36</v>
-      </c>
-      <c r="R5">
-        <v>-29.5</v>
-      </c>
-      <c r="S5">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="T5">
-        <v>-44.1</v>
-      </c>
-      <c r="U5">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="V5">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="W5">
-        <v>-34.799999999999997</v>
       </c>
       <c r="X5">
         <v>-39.200000000000003</v>
@@ -6991,67 +6805,67 @@
         <v>-40.299999999999997</v>
       </c>
       <c r="C6">
+        <v>-34</v>
+      </c>
+      <c r="D6">
+        <v>-43.7</v>
+      </c>
+      <c r="E6">
+        <v>-41.5</v>
+      </c>
+      <c r="F6">
+        <v>-42</v>
+      </c>
+      <c r="G6">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="H6">
+        <v>-23.4</v>
+      </c>
+      <c r="I6">
+        <v>-23</v>
+      </c>
+      <c r="J6">
+        <v>-28.8</v>
+      </c>
+      <c r="K6">
+        <v>-33.5</v>
+      </c>
+      <c r="L6">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="M6">
+        <v>-39</v>
+      </c>
+      <c r="N6">
         <v>-41.8</v>
       </c>
-      <c r="D6">
+      <c r="O6">
+        <v>-37.5</v>
+      </c>
+      <c r="P6">
+        <v>-33.6</v>
+      </c>
+      <c r="Q6">
+        <v>-35.5</v>
+      </c>
+      <c r="R6">
+        <v>-44.7</v>
+      </c>
+      <c r="S6">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="T6">
+        <v>-36.6</v>
+      </c>
+      <c r="U6">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="V6">
+        <v>-41.8</v>
+      </c>
+      <c r="W6">
         <v>-41.4</v>
-      </c>
-      <c r="E6">
-        <v>-34</v>
-      </c>
-      <c r="F6">
-        <v>-43.7</v>
-      </c>
-      <c r="G6">
-        <v>-41.5</v>
-      </c>
-      <c r="H6">
-        <v>-42</v>
-      </c>
-      <c r="I6">
-        <v>-36.700000000000003</v>
-      </c>
-      <c r="J6">
-        <v>-23.4</v>
-      </c>
-      <c r="K6">
-        <v>-23</v>
-      </c>
-      <c r="L6">
-        <v>-28.8</v>
-      </c>
-      <c r="M6">
-        <v>-33.5</v>
-      </c>
-      <c r="N6">
-        <v>-39.299999999999997</v>
-      </c>
-      <c r="O6">
-        <v>-39</v>
-      </c>
-      <c r="P6">
-        <v>-41.8</v>
-      </c>
-      <c r="Q6">
-        <v>-37.5</v>
-      </c>
-      <c r="R6">
-        <v>-33.6</v>
-      </c>
-      <c r="S6">
-        <v>-35.5</v>
-      </c>
-      <c r="T6">
-        <v>-44.7</v>
-      </c>
-      <c r="U6">
-        <v>-37.799999999999997</v>
-      </c>
-      <c r="V6">
-        <v>-36.6</v>
-      </c>
-      <c r="W6">
-        <v>-35.200000000000003</v>
       </c>
       <c r="X6">
         <v>-40.5</v>
@@ -7137,67 +6951,67 @@
         <v>-35.6</v>
       </c>
       <c r="C7">
+        <v>-32</v>
+      </c>
+      <c r="D7">
+        <v>-42.9</v>
+      </c>
+      <c r="E7">
+        <v>-40</v>
+      </c>
+      <c r="F7">
+        <v>-39.9</v>
+      </c>
+      <c r="G7">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="H7">
+        <v>-27.5</v>
+      </c>
+      <c r="I7">
+        <v>-22.8</v>
+      </c>
+      <c r="J7">
+        <v>-29</v>
+      </c>
+      <c r="K7">
+        <v>-34.9</v>
+      </c>
+      <c r="L7">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="M7">
+        <v>-40.5</v>
+      </c>
+      <c r="N7">
+        <v>-41.5</v>
+      </c>
+      <c r="O7">
         <v>-38.9</v>
       </c>
-      <c r="D7">
+      <c r="P7">
+        <v>-33</v>
+      </c>
+      <c r="Q7">
+        <v>-31.3</v>
+      </c>
+      <c r="R7">
+        <v>-35.5</v>
+      </c>
+      <c r="S7">
+        <v>-35.1</v>
+      </c>
+      <c r="T7">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="U7">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="V7">
+        <v>-38.9</v>
+      </c>
+      <c r="W7">
         <v>-37.799999999999997</v>
-      </c>
-      <c r="E7">
-        <v>-32</v>
-      </c>
-      <c r="F7">
-        <v>-42.9</v>
-      </c>
-      <c r="G7">
-        <v>-40</v>
-      </c>
-      <c r="H7">
-        <v>-39.9</v>
-      </c>
-      <c r="I7">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="J7">
-        <v>-27.5</v>
-      </c>
-      <c r="K7">
-        <v>-22.8</v>
-      </c>
-      <c r="L7">
-        <v>-29</v>
-      </c>
-      <c r="M7">
-        <v>-34.9</v>
-      </c>
-      <c r="N7">
-        <v>-39.799999999999997</v>
-      </c>
-      <c r="O7">
-        <v>-40.5</v>
-      </c>
-      <c r="P7">
-        <v>-41.5</v>
-      </c>
-      <c r="Q7">
-        <v>-38.9</v>
-      </c>
-      <c r="R7">
-        <v>-33</v>
-      </c>
-      <c r="S7">
-        <v>-31.3</v>
-      </c>
-      <c r="T7">
-        <v>-35.5</v>
-      </c>
-      <c r="U7">
-        <v>-35.1</v>
-      </c>
-      <c r="V7">
-        <v>-36.200000000000003</v>
-      </c>
-      <c r="W7">
-        <v>-32.299999999999997</v>
       </c>
       <c r="X7">
         <v>-40.1</v>
@@ -7283,67 +7097,67 @@
         <v>-40.700000000000003</v>
       </c>
       <c r="C8">
+        <v>-28.8</v>
+      </c>
+      <c r="D8">
+        <v>-37</v>
+      </c>
+      <c r="E8">
+        <v>-40</v>
+      </c>
+      <c r="F8">
+        <v>-39.6</v>
+      </c>
+      <c r="G8">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="H8">
+        <v>-24.9</v>
+      </c>
+      <c r="I8">
+        <v>-21.5</v>
+      </c>
+      <c r="J8">
+        <v>-29.8</v>
+      </c>
+      <c r="K8">
+        <v>-34.1</v>
+      </c>
+      <c r="L8">
+        <v>-42.2</v>
+      </c>
+      <c r="M8">
+        <v>-42.3</v>
+      </c>
+      <c r="N8">
+        <v>-43.9</v>
+      </c>
+      <c r="O8">
+        <v>-38.6</v>
+      </c>
+      <c r="P8">
+        <v>-31.8</v>
+      </c>
+      <c r="Q8">
+        <v>-29.1</v>
+      </c>
+      <c r="R8">
+        <v>-26.9</v>
+      </c>
+      <c r="S8">
+        <v>-35.1</v>
+      </c>
+      <c r="T8">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="U8">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="V8">
         <v>-35.299999999999997</v>
       </c>
-      <c r="D8">
+      <c r="W8">
         <v>-32.299999999999997</v>
-      </c>
-      <c r="E8">
-        <v>-28.8</v>
-      </c>
-      <c r="F8">
-        <v>-37</v>
-      </c>
-      <c r="G8">
-        <v>-40</v>
-      </c>
-      <c r="H8">
-        <v>-39.6</v>
-      </c>
-      <c r="I8">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="J8">
-        <v>-24.9</v>
-      </c>
-      <c r="K8">
-        <v>-21.5</v>
-      </c>
-      <c r="L8">
-        <v>-29.8</v>
-      </c>
-      <c r="M8">
-        <v>-34.1</v>
-      </c>
-      <c r="N8">
-        <v>-42.2</v>
-      </c>
-      <c r="O8">
-        <v>-42.3</v>
-      </c>
-      <c r="P8">
-        <v>-43.9</v>
-      </c>
-      <c r="Q8">
-        <v>-38.6</v>
-      </c>
-      <c r="R8">
-        <v>-31.8</v>
-      </c>
-      <c r="S8">
-        <v>-29.1</v>
-      </c>
-      <c r="T8">
-        <v>-26.9</v>
-      </c>
-      <c r="U8">
-        <v>-35.1</v>
-      </c>
-      <c r="V8">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="W8">
-        <v>-36.700000000000003</v>
       </c>
       <c r="X8">
         <v>-32.799999999999997</v>
@@ -7432,67 +7246,67 @@
         <v>-38.1</v>
       </c>
       <c r="C9">
+        <v>-31</v>
+      </c>
+      <c r="D9">
+        <v>-35.5</v>
+      </c>
+      <c r="E9">
+        <v>-37</v>
+      </c>
+      <c r="F9">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="G9">
+        <v>-37.4</v>
+      </c>
+      <c r="H9">
+        <v>-22.2</v>
+      </c>
+      <c r="I9">
+        <v>-19.3</v>
+      </c>
+      <c r="J9">
+        <v>-30.3</v>
+      </c>
+      <c r="K9">
+        <v>-34</v>
+      </c>
+      <c r="L9">
+        <v>-41.1</v>
+      </c>
+      <c r="M9">
+        <v>-44.4</v>
+      </c>
+      <c r="N9">
+        <v>-43.2</v>
+      </c>
+      <c r="O9">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="P9">
+        <v>-27.9</v>
+      </c>
+      <c r="Q9">
+        <v>-27.3</v>
+      </c>
+      <c r="R9">
+        <v>-24.7</v>
+      </c>
+      <c r="S9">
+        <v>-35.4</v>
+      </c>
+      <c r="T9">
+        <v>-36.1</v>
+      </c>
+      <c r="U9">
+        <v>-33.1</v>
+      </c>
+      <c r="V9">
         <v>-37.5</v>
       </c>
-      <c r="D9">
+      <c r="W9">
         <v>-34.200000000000003</v>
-      </c>
-      <c r="E9">
-        <v>-31</v>
-      </c>
-      <c r="F9">
-        <v>-35.5</v>
-      </c>
-      <c r="G9">
-        <v>-37</v>
-      </c>
-      <c r="H9">
-        <v>-39.299999999999997</v>
-      </c>
-      <c r="I9">
-        <v>-37.4</v>
-      </c>
-      <c r="J9">
-        <v>-22.2</v>
-      </c>
-      <c r="K9">
-        <v>-19.3</v>
-      </c>
-      <c r="L9">
-        <v>-30.3</v>
-      </c>
-      <c r="M9">
-        <v>-34</v>
-      </c>
-      <c r="N9">
-        <v>-41.1</v>
-      </c>
-      <c r="O9">
-        <v>-44.4</v>
-      </c>
-      <c r="P9">
-        <v>-43.2</v>
-      </c>
-      <c r="Q9">
-        <v>-39.700000000000003</v>
-      </c>
-      <c r="R9">
-        <v>-27.9</v>
-      </c>
-      <c r="S9">
-        <v>-27.3</v>
-      </c>
-      <c r="T9">
-        <v>-24.7</v>
-      </c>
-      <c r="U9">
-        <v>-35.4</v>
-      </c>
-      <c r="V9">
-        <v>-36.1</v>
-      </c>
-      <c r="W9">
-        <v>-33.1</v>
       </c>
       <c r="X9">
         <v>-32.200000000000003</v>
@@ -7581,67 +7395,67 @@
         <v>-38.9</v>
       </c>
       <c r="C10">
+        <v>-30</v>
+      </c>
+      <c r="D10">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="E10">
+        <v>-36.4</v>
+      </c>
+      <c r="F10">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="G10">
+        <v>-37</v>
+      </c>
+      <c r="H10">
+        <v>-24.7</v>
+      </c>
+      <c r="I10">
+        <v>-19.2</v>
+      </c>
+      <c r="J10">
+        <v>-31.5</v>
+      </c>
+      <c r="K10">
+        <v>-34.6</v>
+      </c>
+      <c r="L10">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="M10">
+        <v>-40.5</v>
+      </c>
+      <c r="N10">
+        <v>-40.4</v>
+      </c>
+      <c r="O10">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="P10">
+        <v>-29.9</v>
+      </c>
+      <c r="Q10">
+        <v>-28.5</v>
+      </c>
+      <c r="R10">
+        <v>-29.1</v>
+      </c>
+      <c r="S10">
+        <v>-31.2</v>
+      </c>
+      <c r="T10">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="U10">
+        <v>-35.4</v>
+      </c>
+      <c r="V10">
         <v>-34.299999999999997</v>
       </c>
-      <c r="D10">
+      <c r="W10">
         <v>-30.8</v>
-      </c>
-      <c r="E10">
-        <v>-30</v>
-      </c>
-      <c r="F10">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="G10">
-        <v>-36.4</v>
-      </c>
-      <c r="H10">
-        <v>-38.700000000000003</v>
-      </c>
-      <c r="I10">
-        <v>-37</v>
-      </c>
-      <c r="J10">
-        <v>-24.7</v>
-      </c>
-      <c r="K10">
-        <v>-19.2</v>
-      </c>
-      <c r="L10">
-        <v>-31.5</v>
-      </c>
-      <c r="M10">
-        <v>-34.6</v>
-      </c>
-      <c r="N10">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="O10">
-        <v>-40.5</v>
-      </c>
-      <c r="P10">
-        <v>-40.4</v>
-      </c>
-      <c r="Q10">
-        <v>-37.299999999999997</v>
-      </c>
-      <c r="R10">
-        <v>-29.9</v>
-      </c>
-      <c r="S10">
-        <v>-28.5</v>
-      </c>
-      <c r="T10">
-        <v>-29.1</v>
-      </c>
-      <c r="U10">
-        <v>-31.2</v>
-      </c>
-      <c r="V10">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="W10">
-        <v>-35.4</v>
       </c>
       <c r="X10">
         <v>-30.8</v>
@@ -7730,67 +7544,67 @@
         <v>-42.8</v>
       </c>
       <c r="C11">
+        <v>-29.6</v>
+      </c>
+      <c r="D11">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="E11">
+        <v>-42.2</v>
+      </c>
+      <c r="F11">
+        <v>-42.4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11">
+        <v>-23</v>
+      </c>
+      <c r="I11">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="J11">
+        <v>-28.9</v>
+      </c>
+      <c r="K11">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="L11">
+        <v>-33.4</v>
+      </c>
+      <c r="M11">
+        <v>-41.3</v>
+      </c>
+      <c r="N11">
+        <v>-40.4</v>
+      </c>
+      <c r="O11">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="P11">
+        <v>-27.7</v>
+      </c>
+      <c r="Q11">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="R11">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="S11">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="T11">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="U11">
+        <v>-37</v>
+      </c>
+      <c r="V11">
         <v>-41.4</v>
       </c>
-      <c r="D11">
+      <c r="W11">
         <v>-40.9</v>
-      </c>
-      <c r="E11">
-        <v>-29.6</v>
-      </c>
-      <c r="F11">
-        <v>-39.700000000000003</v>
-      </c>
-      <c r="G11">
-        <v>-42.2</v>
-      </c>
-      <c r="H11">
-        <v>-42.4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>247</v>
-      </c>
-      <c r="J11">
-        <v>-23</v>
-      </c>
-      <c r="K11">
-        <v>-18.899999999999999</v>
-      </c>
-      <c r="L11">
-        <v>-28.9</v>
-      </c>
-      <c r="M11">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="N11">
-        <v>-33.4</v>
-      </c>
-      <c r="O11">
-        <v>-41.3</v>
-      </c>
-      <c r="P11">
-        <v>-40.4</v>
-      </c>
-      <c r="Q11">
-        <v>-38.200000000000003</v>
-      </c>
-      <c r="R11">
-        <v>-27.7</v>
-      </c>
-      <c r="S11">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="T11">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="U11">
-        <v>-38.799999999999997</v>
-      </c>
-      <c r="V11">
-        <v>-37.200000000000003</v>
-      </c>
-      <c r="W11">
-        <v>-37</v>
       </c>
       <c r="X11">
         <v>-35.4</v>
@@ -7879,67 +7693,67 @@
         <v>-40.299999999999997</v>
       </c>
       <c r="C12">
+        <v>-30</v>
+      </c>
+      <c r="D12">
+        <v>-45.3</v>
+      </c>
+      <c r="E12">
+        <v>-44.3</v>
+      </c>
+      <c r="F12">
+        <v>-39.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12">
+        <v>-27.9</v>
+      </c>
+      <c r="I12">
+        <v>-22.7</v>
+      </c>
+      <c r="J12">
+        <v>-30.7</v>
+      </c>
+      <c r="K12">
+        <v>-37.1</v>
+      </c>
+      <c r="L12">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="M12">
+        <v>-41.2</v>
+      </c>
+      <c r="N12">
+        <v>-41.2</v>
+      </c>
+      <c r="O12">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="P12">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="Q12">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="R12">
+        <v>-35.1</v>
+      </c>
+      <c r="S12">
+        <v>-38.9</v>
+      </c>
+      <c r="T12">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="U12">
+        <v>-36.5</v>
+      </c>
+      <c r="V12">
         <v>-42.3</v>
       </c>
-      <c r="D12">
+      <c r="W12">
         <v>-41</v>
-      </c>
-      <c r="E12">
-        <v>-30</v>
-      </c>
-      <c r="F12">
-        <v>-45.3</v>
-      </c>
-      <c r="G12">
-        <v>-44.3</v>
-      </c>
-      <c r="H12">
-        <v>-39.5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>247</v>
-      </c>
-      <c r="J12">
-        <v>-27.9</v>
-      </c>
-      <c r="K12">
-        <v>-22.7</v>
-      </c>
-      <c r="L12">
-        <v>-30.7</v>
-      </c>
-      <c r="M12">
-        <v>-37.1</v>
-      </c>
-      <c r="N12">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="O12">
-        <v>-41.2</v>
-      </c>
-      <c r="P12">
-        <v>-41.2</v>
-      </c>
-      <c r="Q12">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="R12">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="S12">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="T12">
-        <v>-35.1</v>
-      </c>
-      <c r="U12">
-        <v>-38.9</v>
-      </c>
-      <c r="V12">
-        <v>-37.700000000000003</v>
-      </c>
-      <c r="W12">
-        <v>-36.5</v>
       </c>
       <c r="X12">
         <v>-40.6</v>
@@ -8028,67 +7842,67 @@
         <v>-40.200000000000003</v>
       </c>
       <c r="C13">
-        <v>-36.5</v>
+        <v>-33</v>
       </c>
       <c r="D13">
-        <v>-30.7</v>
+        <v>-40.200000000000003</v>
       </c>
       <c r="E13">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="F13">
         <v>-40.200000000000003</v>
       </c>
-      <c r="G13">
-        <v>-36</v>
+      <c r="G13" t="s">
+        <v>247</v>
       </c>
       <c r="H13">
-        <v>-40.200000000000003</v>
-      </c>
-      <c r="I13" t="s">
-        <v>247</v>
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="I13">
+        <v>-23.3</v>
       </c>
       <c r="J13">
-        <v>-35.700000000000003</v>
+        <v>-30.3</v>
       </c>
       <c r="K13">
-        <v>-23.3</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="L13">
-        <v>-30.3</v>
+        <v>-40.6</v>
       </c>
       <c r="M13">
-        <v>-37.299999999999997</v>
+        <v>-41.5</v>
       </c>
       <c r="N13">
-        <v>-40.6</v>
+        <v>-44.1</v>
       </c>
       <c r="O13">
-        <v>-41.5</v>
+        <v>-38.5</v>
       </c>
       <c r="P13">
-        <v>-44.1</v>
+        <v>-28.1</v>
       </c>
       <c r="Q13">
-        <v>-38.5</v>
+        <v>-33.6</v>
       </c>
       <c r="R13">
-        <v>-28.1</v>
+        <v>-28.4</v>
       </c>
       <c r="S13">
-        <v>-33.6</v>
+        <v>-38.1</v>
       </c>
       <c r="T13">
-        <v>-28.4</v>
+        <v>-38.299999999999997</v>
       </c>
       <c r="U13">
-        <v>-38.1</v>
+        <v>-35.4</v>
       </c>
       <c r="V13">
-        <v>-38.299999999999997</v>
+        <v>-36.5</v>
       </c>
       <c r="W13">
-        <v>-35.4</v>
+        <v>-30.7</v>
       </c>
       <c r="X13">
         <v>-37.5</v>
@@ -8177,67 +7991,67 @@
         <v>-39.5</v>
       </c>
       <c r="C14">
+        <v>-32</v>
+      </c>
+      <c r="D14">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="E14">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="F14">
+        <v>-38.6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>247</v>
+      </c>
+      <c r="H14">
+        <v>-28.1</v>
+      </c>
+      <c r="I14">
+        <v>-25.1</v>
+      </c>
+      <c r="J14">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="K14">
+        <v>-35.5</v>
+      </c>
+      <c r="L14">
+        <v>-39.6</v>
+      </c>
+      <c r="M14">
+        <v>-40.4</v>
+      </c>
+      <c r="N14">
+        <v>-42.3</v>
+      </c>
+      <c r="O14">
+        <v>-39.5</v>
+      </c>
+      <c r="P14">
+        <v>-34.4</v>
+      </c>
+      <c r="Q14">
+        <v>-31.5</v>
+      </c>
+      <c r="R14">
+        <v>-25.5</v>
+      </c>
+      <c r="S14">
+        <v>-36.5</v>
+      </c>
+      <c r="T14">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="U14">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="V14">
         <v>-36.4</v>
       </c>
-      <c r="D14">
+      <c r="W14">
         <v>-31.1</v>
-      </c>
-      <c r="E14">
-        <v>-32</v>
-      </c>
-      <c r="F14">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="G14">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="H14">
-        <v>-38.6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>247</v>
-      </c>
-      <c r="J14">
-        <v>-28.1</v>
-      </c>
-      <c r="K14">
-        <v>-25.1</v>
-      </c>
-      <c r="L14">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="M14">
-        <v>-35.5</v>
-      </c>
-      <c r="N14">
-        <v>-39.6</v>
-      </c>
-      <c r="O14">
-        <v>-40.4</v>
-      </c>
-      <c r="P14">
-        <v>-42.3</v>
-      </c>
-      <c r="Q14">
-        <v>-39.5</v>
-      </c>
-      <c r="R14">
-        <v>-34.4</v>
-      </c>
-      <c r="S14">
-        <v>-31.5</v>
-      </c>
-      <c r="T14">
-        <v>-25.5</v>
-      </c>
-      <c r="U14">
-        <v>-36.5</v>
-      </c>
-      <c r="V14">
-        <v>-37.799999999999997</v>
-      </c>
-      <c r="W14">
-        <v>-36.200000000000003</v>
       </c>
       <c r="X14">
         <v>-34.9</v>
@@ -8322,88 +8136,952 @@
       <c r="A15" s="16">
         <v>45662</v>
       </c>
+      <c r="B15">
+        <v>-32.9</v>
+      </c>
+      <c r="C15">
+        <v>-30</v>
+      </c>
+      <c r="D15">
+        <v>-30.2</v>
+      </c>
+      <c r="E15">
+        <v>-30.8</v>
+      </c>
+      <c r="F15">
+        <v>-32.9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15">
+        <v>-22.6</v>
+      </c>
+      <c r="I15">
+        <v>-25.9</v>
+      </c>
+      <c r="J15">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="K15">
+        <v>-41.1</v>
+      </c>
+      <c r="L15">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="M15">
+        <v>-31.6</v>
+      </c>
+      <c r="N15">
+        <v>-39.1</v>
+      </c>
+      <c r="O15">
+        <v>-40.4</v>
+      </c>
+      <c r="P15">
+        <v>-37.1</v>
+      </c>
+      <c r="Q15">
+        <v>-23.1</v>
+      </c>
+      <c r="R15">
+        <v>-29.9</v>
+      </c>
+      <c r="S15">
+        <v>-29</v>
+      </c>
+      <c r="T15">
+        <v>-30.4</v>
+      </c>
+      <c r="U15">
+        <v>-33</v>
+      </c>
+      <c r="V15">
+        <v>-21.5</v>
+      </c>
+      <c r="W15">
+        <v>-22.5</v>
+      </c>
+      <c r="X15">
+        <v>-28.1</v>
+      </c>
+      <c r="Y15">
+        <v>-22</v>
+      </c>
+      <c r="Z15">
+        <v>-43.6</v>
+      </c>
+      <c r="AA15">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="AB15">
+        <v>-30.2</v>
+      </c>
+      <c r="AC15">
+        <v>-18.5</v>
+      </c>
+      <c r="AD15">
+        <v>-15.8</v>
+      </c>
+      <c r="AE15">
+        <v>-34</v>
+      </c>
+      <c r="AF15">
+        <v>-11.3</v>
+      </c>
+      <c r="AG15">
+        <v>1.2</v>
+      </c>
+      <c r="AH15">
+        <v>-15.3</v>
+      </c>
+      <c r="AI15">
+        <v>-15.1</v>
+      </c>
+      <c r="AJ15">
+        <v>-26.5</v>
+      </c>
+      <c r="AK15">
+        <v>-15.8</v>
+      </c>
+      <c r="AL15">
+        <v>-15</v>
+      </c>
+      <c r="AM15">
+        <v>-11.5</v>
+      </c>
+      <c r="AN15">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="AO15">
+        <v>-43.2</v>
+      </c>
+      <c r="AP15">
+        <v>-27.2</v>
+      </c>
+      <c r="AQ15">
+        <v>-25.3</v>
+      </c>
+      <c r="AR15">
+        <v>-19.2</v>
+      </c>
+      <c r="AS15">
+        <v>-27.8</v>
+      </c>
+      <c r="AT15">
+        <v>-17.2</v>
+      </c>
+      <c r="AU15">
+        <v>-10.6</v>
+      </c>
+      <c r="AV15">
+        <v>-35</v>
+      </c>
+      <c r="AW15">
+        <v>-33.700000000000003</v>
+      </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>45663</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>-36.1</v>
+      </c>
+      <c r="C16">
+        <v>-28</v>
+      </c>
+      <c r="D16">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="E16">
+        <v>-35.9</v>
+      </c>
+      <c r="F16">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="G16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H16">
+        <v>-22.7</v>
+      </c>
+      <c r="I16">
+        <v>-26.3</v>
+      </c>
+      <c r="J16">
+        <v>-25.1</v>
+      </c>
+      <c r="K16">
+        <v>-37.6</v>
+      </c>
+      <c r="L16">
+        <v>-35.6</v>
+      </c>
+      <c r="M16">
+        <v>-38.1</v>
+      </c>
+      <c r="N16">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="O16">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="P16">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="Q16">
+        <v>-29.3</v>
+      </c>
+      <c r="R16">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="S16">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="T16">
+        <v>-26.1</v>
+      </c>
+      <c r="U16">
+        <v>-34.4</v>
+      </c>
+      <c r="V16">
+        <v>-34.6</v>
+      </c>
+      <c r="W16">
+        <v>-30.6</v>
+      </c>
+      <c r="X16">
+        <v>-26.4</v>
+      </c>
+      <c r="Y16">
+        <v>-22.4</v>
+      </c>
+      <c r="Z16">
+        <v>-34.4</v>
+      </c>
+      <c r="AA16">
+        <v>-35.9</v>
+      </c>
+      <c r="AB16">
+        <v>-31</v>
+      </c>
+      <c r="AC16">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="AD16">
+        <v>-15.8</v>
+      </c>
+      <c r="AE16">
+        <v>-25.1</v>
+      </c>
+      <c r="AF16">
+        <v>-15.5</v>
+      </c>
+      <c r="AG16">
+        <v>-1.5</v>
+      </c>
+      <c r="AH16">
+        <v>-17.2</v>
+      </c>
+      <c r="AI16">
+        <v>-19.5</v>
+      </c>
+      <c r="AJ16">
+        <v>-26</v>
+      </c>
+      <c r="AK16">
+        <v>-19</v>
+      </c>
+      <c r="AL16">
+        <v>-27.2</v>
+      </c>
+      <c r="AM16">
+        <v>-21.6</v>
+      </c>
+      <c r="AN16">
+        <v>-35</v>
+      </c>
+      <c r="AO16">
+        <v>-35.6</v>
+      </c>
+      <c r="AP16">
+        <v>-26.8</v>
+      </c>
+      <c r="AQ16">
+        <v>-24.4</v>
+      </c>
+      <c r="AR16">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AS16">
+        <v>-23.8</v>
+      </c>
+      <c r="AT16">
+        <v>-20.6</v>
+      </c>
+      <c r="AU16">
+        <v>-17.7</v>
+      </c>
+      <c r="AV16">
+        <v>-34.9</v>
+      </c>
+      <c r="AW16">
+        <v>-34.200000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>45664</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>-40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17">
+        <v>-37.6</v>
+      </c>
+      <c r="E17">
+        <v>-39.6</v>
+      </c>
+      <c r="F17">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="G17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17">
+        <v>-31.6</v>
+      </c>
+      <c r="I17">
+        <v>-29.5</v>
+      </c>
+      <c r="J17">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="K17">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="L17">
+        <v>-37.6</v>
+      </c>
+      <c r="M17">
+        <v>-40.1</v>
+      </c>
+      <c r="N17">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="O17">
+        <v>-36.9</v>
+      </c>
+      <c r="P17">
+        <v>-33.5</v>
+      </c>
+      <c r="Q17">
+        <v>-31.4</v>
+      </c>
+      <c r="R17">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="S17">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="T17">
+        <v>-30.5</v>
+      </c>
+      <c r="U17">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="V17">
+        <v>-35.9</v>
+      </c>
+      <c r="W17">
+        <v>-32.6</v>
+      </c>
+      <c r="X17">
+        <v>-31.7</v>
+      </c>
+      <c r="Y17">
+        <v>-17.3</v>
+      </c>
+      <c r="Z17">
+        <v>-23.8</v>
+      </c>
+      <c r="AA17">
+        <v>-33.5</v>
+      </c>
+      <c r="AB17">
+        <v>-28.4</v>
+      </c>
+      <c r="AC17">
+        <v>-21.1</v>
+      </c>
+      <c r="AD17">
+        <v>-12</v>
+      </c>
+      <c r="AE17">
+        <v>-30.6</v>
+      </c>
+      <c r="AF17">
+        <v>-12.5</v>
+      </c>
+      <c r="AG17">
+        <v>3.9</v>
+      </c>
+      <c r="AH17">
+        <v>-19.5</v>
+      </c>
+      <c r="AI17">
+        <v>-17.5</v>
+      </c>
+      <c r="AJ17">
+        <v>-23</v>
+      </c>
+      <c r="AK17">
+        <v>-23.9</v>
+      </c>
+      <c r="AL17">
+        <v>-26.3</v>
+      </c>
+      <c r="AM17">
+        <v>-18</v>
+      </c>
+      <c r="AN17">
+        <v>-31.7</v>
+      </c>
+      <c r="AO17">
+        <v>-35.4</v>
+      </c>
+      <c r="AP17">
+        <v>-27.9</v>
+      </c>
+      <c r="AQ17">
+        <v>-13.3</v>
+      </c>
+      <c r="AR17">
+        <v>-12.9</v>
+      </c>
+      <c r="AS17">
+        <v>-24</v>
+      </c>
+      <c r="AT17">
+        <v>-22.1</v>
+      </c>
+      <c r="AU17">
+        <v>-11.1</v>
+      </c>
+      <c r="AV17">
+        <v>-32.5</v>
+      </c>
+      <c r="AW17">
+        <v>-31.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>45665</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="C18">
+        <v>-34.4</v>
+      </c>
+      <c r="D18">
+        <v>-38.5</v>
+      </c>
+      <c r="E18">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="F18">
+        <v>-36.9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="I18">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="J18">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="K18">
+        <v>-31.4</v>
+      </c>
+      <c r="L18">
+        <v>-29.2</v>
+      </c>
+      <c r="M18">
+        <v>-20.9</v>
+      </c>
+      <c r="N18">
+        <v>-29.7</v>
+      </c>
+      <c r="O18">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="P18">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="Q18">
+        <v>-31.2</v>
+      </c>
+      <c r="R18">
+        <v>-34</v>
+      </c>
+      <c r="S18">
+        <v>-37.5</v>
+      </c>
+      <c r="T18">
+        <v>-31.4</v>
+      </c>
+      <c r="U18">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="V18">
+        <v>-36.4</v>
+      </c>
+      <c r="W18">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="X18">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="Y18">
+        <v>-25.2</v>
+      </c>
+      <c r="Z18">
+        <v>-26.1</v>
+      </c>
+      <c r="AA18">
+        <v>-33.1</v>
+      </c>
+      <c r="AB18">
+        <v>-26.1</v>
+      </c>
+      <c r="AC18">
+        <v>-18.8</v>
+      </c>
+      <c r="AD18">
+        <v>-13.2</v>
+      </c>
+      <c r="AE18">
+        <v>-31</v>
+      </c>
+      <c r="AF18">
+        <v>-14.9</v>
+      </c>
+      <c r="AG18">
+        <v>0.6</v>
+      </c>
+      <c r="AH18">
+        <v>-14.6</v>
+      </c>
+      <c r="AI18">
+        <v>-21.5</v>
+      </c>
+      <c r="AJ18">
+        <v>-28.8</v>
+      </c>
+      <c r="AK18">
+        <v>-17.3</v>
+      </c>
+      <c r="AL18">
+        <v>-18.7</v>
+      </c>
+      <c r="AM18">
+        <v>-22.6</v>
+      </c>
+      <c r="AN18">
+        <v>-41</v>
+      </c>
+      <c r="AO18">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="AP18">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="AQ18">
+        <v>-22.9</v>
+      </c>
+      <c r="AR18">
+        <v>-19.2</v>
+      </c>
+      <c r="AS18">
+        <v>-23.1</v>
+      </c>
+      <c r="AT18">
+        <v>-19</v>
+      </c>
+      <c r="AU18">
+        <v>-13.9</v>
+      </c>
+      <c r="AV18">
+        <v>-30</v>
+      </c>
+      <c r="AW18">
+        <v>-30.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>45666</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>-31</v>
+      </c>
+      <c r="C19">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="D19">
+        <v>-39.4</v>
+      </c>
+      <c r="E19">
+        <v>-39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H19">
+        <v>-37</v>
+      </c>
+      <c r="I19">
+        <v>-36.4</v>
+      </c>
+      <c r="J19">
+        <v>-16.7</v>
+      </c>
+      <c r="K19">
+        <v>-30.5</v>
+      </c>
+      <c r="L19">
+        <v>-25.3</v>
+      </c>
+      <c r="M19">
+        <v>-28.9</v>
+      </c>
+      <c r="N19">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="O19">
+        <v>-31.9</v>
+      </c>
+      <c r="P19">
+        <v>-29.6</v>
+      </c>
+      <c r="Q19">
+        <v>-26.1</v>
+      </c>
+      <c r="R19">
+        <v>-26.8</v>
+      </c>
+      <c r="S19">
+        <v>-34.5</v>
+      </c>
+      <c r="T19">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="U19">
+        <v>-26.2</v>
+      </c>
+      <c r="V19">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="W19">
+        <v>-33</v>
+      </c>
+      <c r="X19">
+        <v>-36.6</v>
+      </c>
+      <c r="Y19">
+        <v>-23.1</v>
+      </c>
+      <c r="Z19">
+        <v>-31.1</v>
+      </c>
+      <c r="AA19">
+        <v>-29.7</v>
+      </c>
+      <c r="AB19">
+        <v>-23.4</v>
+      </c>
+      <c r="AC19">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AD19">
+        <v>-7.8</v>
+      </c>
+      <c r="AE19">
+        <v>-25.9</v>
+      </c>
+      <c r="AF19">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="AG19">
+        <v>-0.9</v>
+      </c>
+      <c r="AH19">
+        <v>-17</v>
+      </c>
+      <c r="AI19">
+        <v>-25</v>
+      </c>
+      <c r="AJ19">
+        <v>-28.4</v>
+      </c>
+      <c r="AK19">
+        <v>-27.2</v>
+      </c>
+      <c r="AL19">
+        <v>-28.3</v>
+      </c>
+      <c r="AM19">
+        <v>-25.6</v>
+      </c>
+      <c r="AN19">
+        <v>-28.3</v>
+      </c>
+      <c r="AO19">
+        <v>-20.3</v>
+      </c>
+      <c r="AP19">
+        <v>-30.8</v>
+      </c>
+      <c r="AQ19">
+        <v>-31.2</v>
+      </c>
+      <c r="AR19">
+        <v>-16.2</v>
+      </c>
+      <c r="AS19">
+        <v>-22</v>
+      </c>
+      <c r="AT19">
+        <v>-12.2</v>
+      </c>
+      <c r="AU19">
+        <v>-14.1</v>
+      </c>
+      <c r="AV19">
+        <v>-27.9</v>
+      </c>
+      <c r="AW19">
+        <v>-25.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A20" s="16">
         <v>45667</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>-29.6</v>
+      </c>
+      <c r="C20">
+        <v>-36.9</v>
+      </c>
+      <c r="D20">
+        <v>-38.4</v>
+      </c>
+      <c r="E20">
+        <v>-35</v>
+      </c>
+      <c r="F20">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="G20" t="s">
+        <v>247</v>
+      </c>
+      <c r="H20">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="I20">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="J20">
+        <v>-24.5</v>
+      </c>
+      <c r="K20">
+        <v>-36</v>
+      </c>
+      <c r="L20">
+        <v>-30.2</v>
+      </c>
+      <c r="M20">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="N20">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="O20">
+        <v>-34.5</v>
+      </c>
+      <c r="P20">
+        <v>-27.9</v>
+      </c>
+      <c r="Q20">
+        <v>-24.7</v>
+      </c>
+      <c r="R20">
+        <v>-30.4</v>
+      </c>
+      <c r="S20">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="T20">
+        <v>-32</v>
+      </c>
+      <c r="U20">
+        <v>-28.7</v>
+      </c>
+      <c r="V20">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="W20">
+        <v>-28.7</v>
+      </c>
+      <c r="X20">
+        <v>-32.6</v>
+      </c>
+      <c r="Y20">
+        <v>-22.2</v>
+      </c>
+      <c r="Z20">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="AA20">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="AB20">
+        <v>-29.8</v>
+      </c>
+      <c r="AC20">
+        <v>-20.8</v>
+      </c>
+      <c r="AD20">
+        <v>-11.7</v>
+      </c>
+      <c r="AE20">
+        <v>-31.9</v>
+      </c>
+      <c r="AF20">
+        <v>-15.3</v>
+      </c>
+      <c r="AG20">
+        <v>-5.9</v>
+      </c>
+      <c r="AH20">
+        <v>-12.2</v>
+      </c>
+      <c r="AI20">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="AJ20">
+        <v>-25.7</v>
+      </c>
+      <c r="AK20">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="AL20">
+        <v>-26.1</v>
+      </c>
+      <c r="AM20">
+        <v>-22.3</v>
+      </c>
+      <c r="AN20">
+        <v>-32.9</v>
+      </c>
+      <c r="AO20">
+        <v>-29.1</v>
+      </c>
+      <c r="AP20">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="AQ20">
+        <v>-29.7</v>
+      </c>
+      <c r="AR20">
+        <v>-22.5</v>
+      </c>
+      <c r="AS20">
+        <v>-25.4</v>
+      </c>
+      <c r="AT20">
+        <v>-17.8</v>
+      </c>
+      <c r="AU20">
+        <v>-22.9</v>
+      </c>
+      <c r="AV20">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="AW20">
+        <v>-33.700000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A21" s="16">
         <v>45668</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A22" s="16">
         <v>45669</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
         <v>45670</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A24" s="16">
         <v>45671</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
         <v>45672</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A26" s="16">
         <v>45673</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A27" s="16">
         <v>45674</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A28" s="16">
         <v>45675</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A29" s="16">
         <v>45676</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A30" s="16">
         <v>45677</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A31" s="16">
         <v>45678</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A32" s="16">
         <v>45679</v>
       </c>
@@ -8633,8 +9311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFE5A94-8276-425C-8C4C-F53ED14714E0}">
   <dimension ref="A1:AW79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8650,67 +9328,67 @@
         <v>162</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" t="s">
-        <v>107</v>
-      </c>
-      <c r="V1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" t="s">
-        <v>105</v>
       </c>
       <c r="X1" t="s">
         <v>10</v>
@@ -8799,67 +9477,67 @@
         <v>-23.2</v>
       </c>
       <c r="C2">
+        <v>-26</v>
+      </c>
+      <c r="D2">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="E2">
+        <v>-22.3</v>
+      </c>
+      <c r="F2">
+        <v>-24</v>
+      </c>
+      <c r="G2">
+        <v>-26.3</v>
+      </c>
+      <c r="H2">
+        <v>-23.4</v>
+      </c>
+      <c r="I2">
         <v>-21.3</v>
       </c>
-      <c r="D2">
+      <c r="J2">
+        <v>-13</v>
+      </c>
+      <c r="K2">
+        <v>-17.8</v>
+      </c>
+      <c r="L2">
+        <v>-27.7</v>
+      </c>
+      <c r="M2">
+        <v>-24.9</v>
+      </c>
+      <c r="N2">
+        <v>-24.7</v>
+      </c>
+      <c r="O2">
+        <v>-29.2</v>
+      </c>
+      <c r="P2">
+        <v>-20.9</v>
+      </c>
+      <c r="Q2">
+        <v>-22.6</v>
+      </c>
+      <c r="R2">
+        <v>-24.5</v>
+      </c>
+      <c r="S2">
+        <v>-22.4</v>
+      </c>
+      <c r="T2">
+        <v>-25.7</v>
+      </c>
+      <c r="U2">
+        <v>-22.8</v>
+      </c>
+      <c r="V2">
+        <v>-21.3</v>
+      </c>
+      <c r="W2">
         <v>-17.2</v>
-      </c>
-      <c r="E2">
-        <v>-26</v>
-      </c>
-      <c r="F2">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="G2">
-        <v>-22.3</v>
-      </c>
-      <c r="H2">
-        <v>-24</v>
-      </c>
-      <c r="I2">
-        <v>-26.3</v>
-      </c>
-      <c r="J2">
-        <v>-23.4</v>
-      </c>
-      <c r="K2">
-        <v>-21.3</v>
-      </c>
-      <c r="L2">
-        <v>-13</v>
-      </c>
-      <c r="M2">
-        <v>-17.8</v>
-      </c>
-      <c r="N2">
-        <v>-27.7</v>
-      </c>
-      <c r="O2">
-        <v>-24.9</v>
-      </c>
-      <c r="P2">
-        <v>-24.7</v>
-      </c>
-      <c r="Q2">
-        <v>-29.2</v>
-      </c>
-      <c r="R2">
-        <v>-20.9</v>
-      </c>
-      <c r="S2">
-        <v>-22.6</v>
-      </c>
-      <c r="T2">
-        <v>-24.5</v>
-      </c>
-      <c r="U2">
-        <v>-22.4</v>
-      </c>
-      <c r="V2">
-        <v>-25.7</v>
-      </c>
-      <c r="W2">
-        <v>-22.8</v>
       </c>
       <c r="X2">
         <v>-20.5</v>
@@ -8945,67 +9623,67 @@
         <v>-23</v>
       </c>
       <c r="C3">
+        <v>-21.5</v>
+      </c>
+      <c r="D3">
+        <v>-20.8</v>
+      </c>
+      <c r="E3">
+        <v>-23.1</v>
+      </c>
+      <c r="F3">
+        <v>-23.2</v>
+      </c>
+      <c r="G3">
+        <v>-23.4</v>
+      </c>
+      <c r="H3">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="I3">
+        <v>-17.7</v>
+      </c>
+      <c r="J3">
+        <v>-15.8</v>
+      </c>
+      <c r="K3">
+        <v>-21.3</v>
+      </c>
+      <c r="L3">
+        <v>-27.3</v>
+      </c>
+      <c r="M3">
+        <v>-21.5</v>
+      </c>
+      <c r="N3">
+        <v>-23</v>
+      </c>
+      <c r="O3">
+        <v>-27.7</v>
+      </c>
+      <c r="P3">
+        <v>-12.4</v>
+      </c>
+      <c r="Q3">
+        <v>-20.3</v>
+      </c>
+      <c r="R3">
+        <v>-26.9</v>
+      </c>
+      <c r="S3">
+        <v>-22.6</v>
+      </c>
+      <c r="T3">
+        <v>-21</v>
+      </c>
+      <c r="U3">
+        <v>-20.8</v>
+      </c>
+      <c r="V3">
         <v>-20.9</v>
       </c>
-      <c r="D3">
+      <c r="W3">
         <v>-23</v>
-      </c>
-      <c r="E3">
-        <v>-21.5</v>
-      </c>
-      <c r="F3">
-        <v>-20.8</v>
-      </c>
-      <c r="G3">
-        <v>-23.1</v>
-      </c>
-      <c r="H3">
-        <v>-23.2</v>
-      </c>
-      <c r="I3">
-        <v>-23.4</v>
-      </c>
-      <c r="J3">
-        <v>-19.100000000000001</v>
-      </c>
-      <c r="K3">
-        <v>-17.7</v>
-      </c>
-      <c r="L3">
-        <v>-15.8</v>
-      </c>
-      <c r="M3">
-        <v>-21.3</v>
-      </c>
-      <c r="N3">
-        <v>-27.3</v>
-      </c>
-      <c r="O3">
-        <v>-21.5</v>
-      </c>
-      <c r="P3">
-        <v>-23</v>
-      </c>
-      <c r="Q3">
-        <v>-27.7</v>
-      </c>
-      <c r="R3">
-        <v>-12.4</v>
-      </c>
-      <c r="S3">
-        <v>-20.3</v>
-      </c>
-      <c r="T3">
-        <v>-26.9</v>
-      </c>
-      <c r="U3">
-        <v>-22.6</v>
-      </c>
-      <c r="V3">
-        <v>-21</v>
-      </c>
-      <c r="W3">
-        <v>-20.8</v>
       </c>
       <c r="X3">
         <v>-21.4</v>
@@ -9091,67 +9769,67 @@
         <v>-24.1</v>
       </c>
       <c r="C4">
+        <v>-20.9</v>
+      </c>
+      <c r="D4">
+        <v>-26.2</v>
+      </c>
+      <c r="E4">
+        <v>-26.2</v>
+      </c>
+      <c r="F4">
+        <v>-25.3</v>
+      </c>
+      <c r="G4">
+        <v>-28.5</v>
+      </c>
+      <c r="H4">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="I4">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="J4">
+        <v>-13.4</v>
+      </c>
+      <c r="K4">
+        <v>-22</v>
+      </c>
+      <c r="L4">
+        <v>-25.6</v>
+      </c>
+      <c r="M4">
+        <v>-22.2</v>
+      </c>
+      <c r="N4">
+        <v>-24.5</v>
+      </c>
+      <c r="O4">
+        <v>-26.4</v>
+      </c>
+      <c r="P4">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>-24.9</v>
+      </c>
+      <c r="R4">
+        <v>-26.4</v>
+      </c>
+      <c r="S4">
+        <v>-22.9</v>
+      </c>
+      <c r="T4">
+        <v>-27.5</v>
+      </c>
+      <c r="U4">
+        <v>-22.3</v>
+      </c>
+      <c r="V4">
         <v>-25.7</v>
       </c>
-      <c r="D4">
+      <c r="W4">
         <v>-26</v>
-      </c>
-      <c r="E4">
-        <v>-20.9</v>
-      </c>
-      <c r="F4">
-        <v>-26.2</v>
-      </c>
-      <c r="G4">
-        <v>-26.2</v>
-      </c>
-      <c r="H4">
-        <v>-25.3</v>
-      </c>
-      <c r="I4">
-        <v>-28.5</v>
-      </c>
-      <c r="J4">
-        <v>-20.399999999999999</v>
-      </c>
-      <c r="K4">
-        <v>-19.399999999999999</v>
-      </c>
-      <c r="L4">
-        <v>-13.4</v>
-      </c>
-      <c r="M4">
-        <v>-22</v>
-      </c>
-      <c r="N4">
-        <v>-25.6</v>
-      </c>
-      <c r="O4">
-        <v>-22.2</v>
-      </c>
-      <c r="P4">
-        <v>-24.5</v>
-      </c>
-      <c r="Q4">
-        <v>-26.4</v>
-      </c>
-      <c r="R4">
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="S4">
-        <v>-24.9</v>
-      </c>
-      <c r="T4">
-        <v>-26.4</v>
-      </c>
-      <c r="U4">
-        <v>-22.9</v>
-      </c>
-      <c r="V4">
-        <v>-27.5</v>
-      </c>
-      <c r="W4">
-        <v>-22.3</v>
       </c>
       <c r="X4">
         <v>-23.1</v>
@@ -9237,67 +9915,67 @@
         <v>-29</v>
       </c>
       <c r="C5">
+        <v>-24</v>
+      </c>
+      <c r="D5">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="E5">
+        <v>-30.9</v>
+      </c>
+      <c r="F5">
+        <v>-30.9</v>
+      </c>
+      <c r="G5">
+        <v>-29.1</v>
+      </c>
+      <c r="H5">
+        <v>-22.9</v>
+      </c>
+      <c r="I5">
+        <v>-20.5</v>
+      </c>
+      <c r="J5">
+        <v>-12.8</v>
+      </c>
+      <c r="K5">
+        <v>-17.7</v>
+      </c>
+      <c r="L5">
+        <v>-28.3</v>
+      </c>
+      <c r="M5">
+        <v>-21</v>
+      </c>
+      <c r="N5">
+        <v>-25.6</v>
+      </c>
+      <c r="O5">
+        <v>-25.8</v>
+      </c>
+      <c r="P5">
+        <v>-19.8</v>
+      </c>
+      <c r="Q5">
+        <v>-27.8</v>
+      </c>
+      <c r="R5">
+        <v>-29.8</v>
+      </c>
+      <c r="S5">
+        <v>-25.1</v>
+      </c>
+      <c r="T5">
+        <v>-28.9</v>
+      </c>
+      <c r="U5">
+        <v>-22.3</v>
+      </c>
+      <c r="V5">
         <v>-31.5</v>
       </c>
-      <c r="D5">
+      <c r="W5">
         <v>-26</v>
-      </c>
-      <c r="E5">
-        <v>-24</v>
-      </c>
-      <c r="F5">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="G5">
-        <v>-30.9</v>
-      </c>
-      <c r="H5">
-        <v>-30.9</v>
-      </c>
-      <c r="I5">
-        <v>-29.1</v>
-      </c>
-      <c r="J5">
-        <v>-22.9</v>
-      </c>
-      <c r="K5">
-        <v>-20.5</v>
-      </c>
-      <c r="L5">
-        <v>-12.8</v>
-      </c>
-      <c r="M5">
-        <v>-17.7</v>
-      </c>
-      <c r="N5">
-        <v>-28.3</v>
-      </c>
-      <c r="O5">
-        <v>-21</v>
-      </c>
-      <c r="P5">
-        <v>-25.6</v>
-      </c>
-      <c r="Q5">
-        <v>-25.8</v>
-      </c>
-      <c r="R5">
-        <v>-19.8</v>
-      </c>
-      <c r="S5">
-        <v>-27.8</v>
-      </c>
-      <c r="T5">
-        <v>-29.8</v>
-      </c>
-      <c r="U5">
-        <v>-25.1</v>
-      </c>
-      <c r="V5">
-        <v>-28.9</v>
-      </c>
-      <c r="W5">
-        <v>-22.3</v>
       </c>
       <c r="X5">
         <v>-32.299999999999997</v>
@@ -9383,67 +10061,67 @@
         <v>-33.5</v>
       </c>
       <c r="C6">
+        <v>-22</v>
+      </c>
+      <c r="D6">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="E6">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="F6">
+        <v>-34</v>
+      </c>
+      <c r="G6">
+        <v>-29.8</v>
+      </c>
+      <c r="H6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="I6">
+        <v>-18</v>
+      </c>
+      <c r="J6">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="K6">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="L6">
+        <v>-29.9</v>
+      </c>
+      <c r="M6">
+        <v>-20.6</v>
+      </c>
+      <c r="N6">
+        <v>-26.3</v>
+      </c>
+      <c r="O6">
+        <v>-27.9</v>
+      </c>
+      <c r="P6">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>-29.3</v>
+      </c>
+      <c r="R6">
+        <v>-32.5</v>
+      </c>
+      <c r="S6">
+        <v>-26.3</v>
+      </c>
+      <c r="T6">
+        <v>-31</v>
+      </c>
+      <c r="U6">
+        <v>-26</v>
+      </c>
+      <c r="V6">
         <v>-29.7</v>
       </c>
-      <c r="D6">
+      <c r="W6">
         <v>-24.8</v>
-      </c>
-      <c r="E6">
-        <v>-22</v>
-      </c>
-      <c r="F6">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="G6">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="H6">
-        <v>-34</v>
-      </c>
-      <c r="I6">
-        <v>-29.8</v>
-      </c>
-      <c r="J6">
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="K6">
-        <v>-18</v>
-      </c>
-      <c r="L6">
-        <v>-18.899999999999999</v>
-      </c>
-      <c r="M6">
-        <v>-20.399999999999999</v>
-      </c>
-      <c r="N6">
-        <v>-29.9</v>
-      </c>
-      <c r="O6">
-        <v>-20.6</v>
-      </c>
-      <c r="P6">
-        <v>-26.3</v>
-      </c>
-      <c r="Q6">
-        <v>-27.9</v>
-      </c>
-      <c r="R6">
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="S6">
-        <v>-29.3</v>
-      </c>
-      <c r="T6">
-        <v>-32.5</v>
-      </c>
-      <c r="U6">
-        <v>-26.3</v>
-      </c>
-      <c r="V6">
-        <v>-31</v>
-      </c>
-      <c r="W6">
-        <v>-26</v>
       </c>
       <c r="X6">
         <v>-32.9</v>
@@ -9529,67 +10207,67 @@
         <v>-27.7</v>
       </c>
       <c r="C7">
+        <v>-21</v>
+      </c>
+      <c r="D7">
+        <v>-29.7</v>
+      </c>
+      <c r="E7">
+        <v>-29.5</v>
+      </c>
+      <c r="F7">
+        <v>-27.3</v>
+      </c>
+      <c r="G7">
+        <v>-29</v>
+      </c>
+      <c r="H7">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="I7">
+        <v>-16.5</v>
+      </c>
+      <c r="J7">
+        <v>-19.5</v>
+      </c>
+      <c r="K7">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="L7">
+        <v>-31.4</v>
+      </c>
+      <c r="M7">
+        <v>-21.2</v>
+      </c>
+      <c r="N7">
+        <v>-23.9</v>
+      </c>
+      <c r="O7">
+        <v>-29.3</v>
+      </c>
+      <c r="P7">
+        <v>-15.7</v>
+      </c>
+      <c r="Q7">
+        <v>-24.2</v>
+      </c>
+      <c r="R7">
+        <v>-22.8</v>
+      </c>
+      <c r="S7">
+        <v>-25.6</v>
+      </c>
+      <c r="T7">
+        <v>-29.7</v>
+      </c>
+      <c r="U7">
+        <v>-26.6</v>
+      </c>
+      <c r="V7">
         <v>-27.1</v>
       </c>
-      <c r="D7">
+      <c r="W7">
         <v>-11</v>
-      </c>
-      <c r="E7">
-        <v>-21</v>
-      </c>
-      <c r="F7">
-        <v>-29.7</v>
-      </c>
-      <c r="G7">
-        <v>-29.5</v>
-      </c>
-      <c r="H7">
-        <v>-27.3</v>
-      </c>
-      <c r="I7">
-        <v>-29</v>
-      </c>
-      <c r="J7">
-        <v>-16.100000000000001</v>
-      </c>
-      <c r="K7">
-        <v>-16.5</v>
-      </c>
-      <c r="L7">
-        <v>-19.5</v>
-      </c>
-      <c r="M7">
-        <v>-19.899999999999999</v>
-      </c>
-      <c r="N7">
-        <v>-31.4</v>
-      </c>
-      <c r="O7">
-        <v>-21.2</v>
-      </c>
-      <c r="P7">
-        <v>-23.9</v>
-      </c>
-      <c r="Q7">
-        <v>-29.3</v>
-      </c>
-      <c r="R7">
-        <v>-15.7</v>
-      </c>
-      <c r="S7">
-        <v>-24.2</v>
-      </c>
-      <c r="T7">
-        <v>-22.8</v>
-      </c>
-      <c r="U7">
-        <v>-25.6</v>
-      </c>
-      <c r="V7">
-        <v>-29.7</v>
-      </c>
-      <c r="W7">
-        <v>-26.6</v>
       </c>
       <c r="X7">
         <v>-29.3</v>
@@ -9675,67 +10353,67 @@
         <v>-27.8</v>
       </c>
       <c r="C8">
+        <v>-16</v>
+      </c>
+      <c r="D8">
+        <v>-13.3</v>
+      </c>
+      <c r="E8">
+        <v>-27.5</v>
+      </c>
+      <c r="F8">
+        <v>-29.1</v>
+      </c>
+      <c r="G8">
+        <v>-27.8</v>
+      </c>
+      <c r="H8">
+        <v>-16.2</v>
+      </c>
+      <c r="I8">
+        <v>-14.4</v>
+      </c>
+      <c r="J8">
+        <v>-20</v>
+      </c>
+      <c r="K8">
+        <v>-22.9</v>
+      </c>
+      <c r="L8">
+        <v>-31.6</v>
+      </c>
+      <c r="M8">
+        <v>-23.8</v>
+      </c>
+      <c r="N8">
+        <v>-26.7</v>
+      </c>
+      <c r="O8">
+        <v>-28.8</v>
+      </c>
+      <c r="P8">
+        <v>-16.7</v>
+      </c>
+      <c r="Q8">
+        <v>-22.1</v>
+      </c>
+      <c r="R8">
+        <v>-18.2</v>
+      </c>
+      <c r="S8">
+        <v>-24.8</v>
+      </c>
+      <c r="T8">
+        <v>-26.3</v>
+      </c>
+      <c r="U8">
+        <v>-25.2</v>
+      </c>
+      <c r="V8">
         <v>-25.7</v>
       </c>
-      <c r="D8">
+      <c r="W8">
         <v>-10.6</v>
-      </c>
-      <c r="E8">
-        <v>-16</v>
-      </c>
-      <c r="F8">
-        <v>-13.3</v>
-      </c>
-      <c r="G8">
-        <v>-27.5</v>
-      </c>
-      <c r="H8">
-        <v>-29.1</v>
-      </c>
-      <c r="I8">
-        <v>-27.8</v>
-      </c>
-      <c r="J8">
-        <v>-16.2</v>
-      </c>
-      <c r="K8">
-        <v>-14.4</v>
-      </c>
-      <c r="L8">
-        <v>-20</v>
-      </c>
-      <c r="M8">
-        <v>-22.9</v>
-      </c>
-      <c r="N8">
-        <v>-31.6</v>
-      </c>
-      <c r="O8">
-        <v>-23.8</v>
-      </c>
-      <c r="P8">
-        <v>-26.7</v>
-      </c>
-      <c r="Q8">
-        <v>-28.8</v>
-      </c>
-      <c r="R8">
-        <v>-16.7</v>
-      </c>
-      <c r="S8">
-        <v>-22.1</v>
-      </c>
-      <c r="T8">
-        <v>-18.2</v>
-      </c>
-      <c r="U8">
-        <v>-24.8</v>
-      </c>
-      <c r="V8">
-        <v>-26.3</v>
-      </c>
-      <c r="W8">
-        <v>-25.2</v>
       </c>
       <c r="X8">
         <v>-13.7</v>
@@ -9824,67 +10502,67 @@
         <v>-26.2</v>
       </c>
       <c r="C9">
+        <v>-18</v>
+      </c>
+      <c r="D9">
+        <v>-24.2</v>
+      </c>
+      <c r="E9">
+        <v>-24.7</v>
+      </c>
+      <c r="F9">
+        <v>-26.8</v>
+      </c>
+      <c r="G9">
+        <v>-28.1</v>
+      </c>
+      <c r="H9">
+        <v>-15.1</v>
+      </c>
+      <c r="I9">
+        <v>-8.5</v>
+      </c>
+      <c r="J9">
+        <v>-20.5</v>
+      </c>
+      <c r="K9">
+        <v>-22.2</v>
+      </c>
+      <c r="L9">
+        <v>-30.7</v>
+      </c>
+      <c r="M9">
+        <v>-26.2</v>
+      </c>
+      <c r="N9">
+        <v>-28</v>
+      </c>
+      <c r="O9">
+        <v>-29.9</v>
+      </c>
+      <c r="P9">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="Q9">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="R9">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="S9">
+        <v>-25</v>
+      </c>
+      <c r="T9">
+        <v>-27.1</v>
+      </c>
+      <c r="U9">
+        <v>-26.3</v>
+      </c>
+      <c r="V9">
         <v>-18.899999999999999</v>
       </c>
-      <c r="D9">
+      <c r="W9">
         <v>-9.6999999999999993</v>
-      </c>
-      <c r="E9">
-        <v>-18</v>
-      </c>
-      <c r="F9">
-        <v>-24.2</v>
-      </c>
-      <c r="G9">
-        <v>-24.7</v>
-      </c>
-      <c r="H9">
-        <v>-26.8</v>
-      </c>
-      <c r="I9">
-        <v>-28.1</v>
-      </c>
-      <c r="J9">
-        <v>-15.1</v>
-      </c>
-      <c r="K9">
-        <v>-8.5</v>
-      </c>
-      <c r="L9">
-        <v>-20.5</v>
-      </c>
-      <c r="M9">
-        <v>-22.2</v>
-      </c>
-      <c r="N9">
-        <v>-30.7</v>
-      </c>
-      <c r="O9">
-        <v>-26.2</v>
-      </c>
-      <c r="P9">
-        <v>-28</v>
-      </c>
-      <c r="Q9">
-        <v>-29.9</v>
-      </c>
-      <c r="R9">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="S9">
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="T9">
-        <v>-16.399999999999999</v>
-      </c>
-      <c r="U9">
-        <v>-25</v>
-      </c>
-      <c r="V9">
-        <v>-27.1</v>
-      </c>
-      <c r="W9">
-        <v>-26.3</v>
       </c>
       <c r="X9">
         <v>-23.8</v>
@@ -9973,67 +10651,67 @@
         <v>-25.1</v>
       </c>
       <c r="C10">
+        <v>-18</v>
+      </c>
+      <c r="D10">
+        <v>-23.9</v>
+      </c>
+      <c r="E10">
+        <v>-26.1</v>
+      </c>
+      <c r="F10">
+        <v>-26</v>
+      </c>
+      <c r="G10">
+        <v>-26.7</v>
+      </c>
+      <c r="H10">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="I10">
+        <v>-7.3</v>
+      </c>
+      <c r="J10">
+        <v>-13.5</v>
+      </c>
+      <c r="K10">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="L10">
+        <v>-29</v>
+      </c>
+      <c r="M10">
+        <v>-25.2</v>
+      </c>
+      <c r="N10">
+        <v>-25.8</v>
+      </c>
+      <c r="O10">
+        <v>-28.2</v>
+      </c>
+      <c r="P10">
+        <v>-17.2</v>
+      </c>
+      <c r="Q10">
+        <v>-21.2</v>
+      </c>
+      <c r="R10">
+        <v>-20.7</v>
+      </c>
+      <c r="S10">
+        <v>-22.7</v>
+      </c>
+      <c r="T10">
+        <v>-27.1</v>
+      </c>
+      <c r="U10">
+        <v>-23</v>
+      </c>
+      <c r="V10">
         <v>-18.399999999999999</v>
       </c>
-      <c r="D10">
+      <c r="W10">
         <v>-13</v>
-      </c>
-      <c r="E10">
-        <v>-18</v>
-      </c>
-      <c r="F10">
-        <v>-23.9</v>
-      </c>
-      <c r="G10">
-        <v>-26.1</v>
-      </c>
-      <c r="H10">
-        <v>-26</v>
-      </c>
-      <c r="I10">
-        <v>-26.7</v>
-      </c>
-      <c r="J10">
-        <v>-17.600000000000001</v>
-      </c>
-      <c r="K10">
-        <v>-7.3</v>
-      </c>
-      <c r="L10">
-        <v>-13.5</v>
-      </c>
-      <c r="M10">
-        <v>-19.899999999999999</v>
-      </c>
-      <c r="N10">
-        <v>-29</v>
-      </c>
-      <c r="O10">
-        <v>-25.2</v>
-      </c>
-      <c r="P10">
-        <v>-25.8</v>
-      </c>
-      <c r="Q10">
-        <v>-28.2</v>
-      </c>
-      <c r="R10">
-        <v>-17.2</v>
-      </c>
-      <c r="S10">
-        <v>-21.2</v>
-      </c>
-      <c r="T10">
-        <v>-20.7</v>
-      </c>
-      <c r="U10">
-        <v>-22.7</v>
-      </c>
-      <c r="V10">
-        <v>-27.1</v>
-      </c>
-      <c r="W10">
-        <v>-23</v>
       </c>
       <c r="X10">
         <v>-20.2</v>
@@ -10122,67 +10800,67 @@
         <v>-32.1</v>
       </c>
       <c r="C11">
+        <v>-18.5</v>
+      </c>
+      <c r="D11">
+        <v>-26.3</v>
+      </c>
+      <c r="E11">
+        <v>-28.7</v>
+      </c>
+      <c r="F11">
+        <v>-31.8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11">
+        <v>-14.3</v>
+      </c>
+      <c r="I11">
+        <v>-7.8</v>
+      </c>
+      <c r="J11">
+        <v>-13.5</v>
+      </c>
+      <c r="K11">
+        <v>-21</v>
+      </c>
+      <c r="L11">
+        <v>-26.7</v>
+      </c>
+      <c r="M11">
+        <v>-25.4</v>
+      </c>
+      <c r="N11">
+        <v>-26.4</v>
+      </c>
+      <c r="O11">
+        <v>-28.6</v>
+      </c>
+      <c r="P11">
+        <v>-16.2</v>
+      </c>
+      <c r="Q11">
+        <v>-27.5</v>
+      </c>
+      <c r="R11">
+        <v>-24.8</v>
+      </c>
+      <c r="S11">
+        <v>-26.3</v>
+      </c>
+      <c r="T11">
+        <v>-27.1</v>
+      </c>
+      <c r="U11">
+        <v>-24.7</v>
+      </c>
+      <c r="V11">
         <v>-25.9</v>
       </c>
-      <c r="D11">
+      <c r="W11">
         <v>-26.8</v>
-      </c>
-      <c r="E11">
-        <v>-18.5</v>
-      </c>
-      <c r="F11">
-        <v>-26.3</v>
-      </c>
-      <c r="G11">
-        <v>-28.7</v>
-      </c>
-      <c r="H11">
-        <v>-31.8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>247</v>
-      </c>
-      <c r="J11">
-        <v>-14.3</v>
-      </c>
-      <c r="K11">
-        <v>-7.8</v>
-      </c>
-      <c r="L11">
-        <v>-13.5</v>
-      </c>
-      <c r="M11">
-        <v>-21</v>
-      </c>
-      <c r="N11">
-        <v>-26.7</v>
-      </c>
-      <c r="O11">
-        <v>-25.4</v>
-      </c>
-      <c r="P11">
-        <v>-26.4</v>
-      </c>
-      <c r="Q11">
-        <v>-28.6</v>
-      </c>
-      <c r="R11">
-        <v>-16.2</v>
-      </c>
-      <c r="S11">
-        <v>-27.5</v>
-      </c>
-      <c r="T11">
-        <v>-24.8</v>
-      </c>
-      <c r="U11">
-        <v>-26.3</v>
-      </c>
-      <c r="V11">
-        <v>-27.1</v>
-      </c>
-      <c r="W11">
-        <v>-24.7</v>
       </c>
       <c r="X11">
         <v>-28.5</v>
@@ -10270,68 +10948,68 @@
       <c r="B12">
         <v>-32.5</v>
       </c>
-      <c r="C12">
-        <v>-25</v>
+      <c r="C12" t="s">
+        <v>247</v>
       </c>
       <c r="D12">
-        <v>-19.8</v>
+        <v>-33.4</v>
       </c>
       <c r="E12" t="s">
         <v>247</v>
       </c>
-      <c r="F12">
-        <v>-33.4</v>
+      <c r="F12" t="s">
+        <v>247</v>
       </c>
       <c r="G12" t="s">
         <v>247</v>
       </c>
-      <c r="H12" t="s">
-        <v>247</v>
-      </c>
-      <c r="I12" t="s">
-        <v>247</v>
+      <c r="H12">
+        <v>-16.2</v>
+      </c>
+      <c r="I12">
+        <v>-10.4</v>
       </c>
       <c r="J12">
-        <v>-16.2</v>
+        <v>-14.4</v>
       </c>
       <c r="K12">
-        <v>-10.4</v>
+        <v>-22</v>
       </c>
       <c r="L12">
-        <v>-14.4</v>
+        <v>-29.3</v>
       </c>
       <c r="M12">
-        <v>-22</v>
+        <v>-23.8</v>
       </c>
       <c r="N12">
-        <v>-29.3</v>
+        <v>-24.8</v>
       </c>
       <c r="O12">
-        <v>-23.8</v>
+        <v>-28</v>
       </c>
       <c r="P12">
-        <v>-24.8</v>
+        <v>-12.6</v>
       </c>
       <c r="Q12">
-        <v>-28</v>
+        <v>-28.4</v>
       </c>
       <c r="R12">
-        <v>-12.6</v>
+        <v>-23.1</v>
       </c>
       <c r="S12">
-        <v>-28.4</v>
+        <v>-25.3</v>
       </c>
       <c r="T12">
-        <v>-23.1</v>
+        <v>-30</v>
       </c>
       <c r="U12">
-        <v>-25.3</v>
+        <v>-26.5</v>
       </c>
       <c r="V12">
-        <v>-30</v>
+        <v>-25</v>
       </c>
       <c r="W12">
-        <v>-26.5</v>
+        <v>-19.8</v>
       </c>
       <c r="X12">
         <v>-32.1</v>
@@ -10423,64 +11101,64 @@
         <v>-22</v>
       </c>
       <c r="D13">
+        <v>-28.8</v>
+      </c>
+      <c r="E13">
+        <v>-24.8</v>
+      </c>
+      <c r="F13">
+        <v>-27.2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13">
+        <v>-28.1</v>
+      </c>
+      <c r="I13">
+        <v>-15.2</v>
+      </c>
+      <c r="J13">
+        <v>-15.3</v>
+      </c>
+      <c r="K13">
+        <v>-22.9</v>
+      </c>
+      <c r="L13">
+        <v>-30</v>
+      </c>
+      <c r="M13">
+        <v>-23.3</v>
+      </c>
+      <c r="N13">
+        <v>-24.4</v>
+      </c>
+      <c r="O13">
+        <v>-28.5</v>
+      </c>
+      <c r="P13">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>-24.6</v>
+      </c>
+      <c r="R13">
+        <v>-20.9</v>
+      </c>
+      <c r="S13">
+        <v>-26.1</v>
+      </c>
+      <c r="T13">
+        <v>-30.6</v>
+      </c>
+      <c r="U13">
+        <v>-27.2</v>
+      </c>
+      <c r="V13">
+        <v>-22</v>
+      </c>
+      <c r="W13">
         <v>-10.9</v>
-      </c>
-      <c r="E13">
-        <v>-22</v>
-      </c>
-      <c r="F13">
-        <v>-28.8</v>
-      </c>
-      <c r="G13">
-        <v>-24.8</v>
-      </c>
-      <c r="H13">
-        <v>-27.2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>247</v>
-      </c>
-      <c r="J13">
-        <v>-28.1</v>
-      </c>
-      <c r="K13">
-        <v>-15.2</v>
-      </c>
-      <c r="L13">
-        <v>-15.3</v>
-      </c>
-      <c r="M13">
-        <v>-22.9</v>
-      </c>
-      <c r="N13">
-        <v>-30</v>
-      </c>
-      <c r="O13">
-        <v>-23.3</v>
-      </c>
-      <c r="P13">
-        <v>-24.4</v>
-      </c>
-      <c r="Q13">
-        <v>-28.5</v>
-      </c>
-      <c r="R13">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="S13">
-        <v>-24.6</v>
-      </c>
-      <c r="T13">
-        <v>-20.9</v>
-      </c>
-      <c r="U13">
-        <v>-26.1</v>
-      </c>
-      <c r="V13">
-        <v>-30.6</v>
-      </c>
-      <c r="W13">
-        <v>-27.2</v>
       </c>
       <c r="X13">
         <v>-26.7</v>
@@ -10569,67 +11247,67 @@
         <v>-24.7</v>
       </c>
       <c r="C14">
-        <v>-16.2</v>
+        <v>-20</v>
       </c>
       <c r="D14">
-        <v>-10.6</v>
+        <v>-18.3</v>
       </c>
       <c r="E14">
-        <v>-20</v>
+        <v>-21.5</v>
       </c>
       <c r="F14">
-        <v>-18.3</v>
-      </c>
-      <c r="G14">
-        <v>-21.5</v>
+        <v>-24.3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>247</v>
       </c>
       <c r="H14">
-        <v>-24.3</v>
-      </c>
-      <c r="I14" t="s">
-        <v>247</v>
+        <v>-18.8</v>
+      </c>
+      <c r="I14">
+        <v>-17.2</v>
       </c>
       <c r="J14">
-        <v>-18.8</v>
+        <v>-23.4</v>
       </c>
       <c r="K14">
-        <v>-17.2</v>
+        <v>-24.8</v>
       </c>
       <c r="L14">
+        <v>-29.5</v>
+      </c>
+      <c r="M14">
+        <v>-27.2</v>
+      </c>
+      <c r="N14">
+        <v>-25.6</v>
+      </c>
+      <c r="O14">
+        <v>-30.7</v>
+      </c>
+      <c r="P14">
         <v>-23.4</v>
       </c>
-      <c r="M14">
-        <v>-24.8</v>
-      </c>
-      <c r="N14">
-        <v>-29.5</v>
-      </c>
-      <c r="O14">
-        <v>-27.2</v>
-      </c>
-      <c r="P14">
-        <v>-25.6</v>
-      </c>
       <c r="Q14">
-        <v>-30.7</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="R14">
-        <v>-23.4</v>
+        <v>-11.2</v>
       </c>
       <c r="S14">
-        <v>-20.100000000000001</v>
+        <v>-23.1</v>
       </c>
       <c r="T14">
-        <v>-11.2</v>
+        <v>-27.6</v>
       </c>
       <c r="U14">
         <v>-23.1</v>
       </c>
       <c r="V14">
-        <v>-27.6</v>
+        <v>-16.2</v>
       </c>
       <c r="W14">
-        <v>-23.1</v>
+        <v>-10.6</v>
       </c>
       <c r="X14">
         <v>-20.7</v>
@@ -10714,88 +11392,952 @@
       <c r="A15" s="16">
         <v>45662</v>
       </c>
+      <c r="B15">
+        <v>-23.8</v>
+      </c>
+      <c r="C15">
+        <v>-19</v>
+      </c>
+      <c r="D15">
+        <v>-19</v>
+      </c>
+      <c r="E15">
+        <v>-18</v>
+      </c>
+      <c r="F15">
+        <v>-25.1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15">
+        <v>-16.5</v>
+      </c>
+      <c r="I15">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="J15">
+        <v>-21.9</v>
+      </c>
+      <c r="K15">
+        <v>-26.1</v>
+      </c>
+      <c r="L15">
+        <v>-27.7</v>
+      </c>
+      <c r="M15">
+        <v>-23.2</v>
+      </c>
+      <c r="N15">
+        <v>-28.5</v>
+      </c>
+      <c r="O15">
+        <v>-31.5</v>
+      </c>
+      <c r="P15">
+        <v>-23.2</v>
+      </c>
+      <c r="Q15">
+        <v>-14.8</v>
+      </c>
+      <c r="R15">
+        <v>-21.5</v>
+      </c>
+      <c r="S15">
+        <v>-21.1</v>
+      </c>
+      <c r="T15">
+        <v>-21.5</v>
+      </c>
+      <c r="U15">
+        <v>-22.5</v>
+      </c>
+      <c r="V15">
+        <v>-15</v>
+      </c>
+      <c r="W15">
+        <v>-7.5</v>
+      </c>
+      <c r="X15">
+        <v>-12.9</v>
+      </c>
+      <c r="Y15">
+        <v>-11.6</v>
+      </c>
+      <c r="Z15">
+        <v>-25.5</v>
+      </c>
+      <c r="AA15">
+        <v>-20.2</v>
+      </c>
+      <c r="AB15">
+        <v>-21.6</v>
+      </c>
+      <c r="AC15">
+        <v>-6</v>
+      </c>
+      <c r="AD15">
+        <v>-8.5</v>
+      </c>
+      <c r="AE15">
+        <v>-23.8</v>
+      </c>
+      <c r="AF15">
+        <v>-2.7</v>
+      </c>
+      <c r="AG15">
+        <v>11.7</v>
+      </c>
+      <c r="AH15">
+        <v>2.8</v>
+      </c>
+      <c r="AI15">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="AJ15">
+        <v>-15.2</v>
+      </c>
+      <c r="AK15">
+        <v>-5.2</v>
+      </c>
+      <c r="AL15">
+        <v>-6.1</v>
+      </c>
+      <c r="AM15">
+        <v>-3.4</v>
+      </c>
+      <c r="AN15">
+        <v>-26.9</v>
+      </c>
+      <c r="AO15">
+        <v>-31</v>
+      </c>
+      <c r="AP15">
+        <v>-17.7</v>
+      </c>
+      <c r="AQ15">
+        <v>0.6</v>
+      </c>
+      <c r="AR15">
+        <v>1.9</v>
+      </c>
+      <c r="AS15">
+        <v>-13.1</v>
+      </c>
+      <c r="AT15">
+        <v>-5.7</v>
+      </c>
+      <c r="AU15">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AV15">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="AW15">
+        <v>-27.5</v>
+      </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>45663</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>-29.3</v>
+      </c>
+      <c r="C16">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="D16">
+        <v>-24.3</v>
+      </c>
+      <c r="E16">
+        <v>-26.1</v>
+      </c>
+      <c r="F16">
+        <v>-27.7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H16">
+        <v>-14.2</v>
+      </c>
+      <c r="I16">
+        <v>-20.8</v>
+      </c>
+      <c r="J16">
+        <v>-12.2</v>
+      </c>
+      <c r="K16">
+        <v>-21.5</v>
+      </c>
+      <c r="L16">
+        <v>-27.5</v>
+      </c>
+      <c r="M16">
+        <v>-23.7</v>
+      </c>
+      <c r="N16">
+        <v>-28.9</v>
+      </c>
+      <c r="O16">
+        <v>-28.9</v>
+      </c>
+      <c r="P16">
+        <v>-19.8</v>
+      </c>
+      <c r="Q16">
+        <v>-22.3</v>
+      </c>
+      <c r="R16">
+        <v>-22.9</v>
+      </c>
+      <c r="S16">
+        <v>-22.1</v>
+      </c>
+      <c r="T16">
+        <v>-17.5</v>
+      </c>
+      <c r="U16">
+        <v>-21.2</v>
+      </c>
+      <c r="V16">
+        <v>-20.8</v>
+      </c>
+      <c r="W16">
+        <v>-17</v>
+      </c>
+      <c r="X16">
+        <v>-14.8</v>
+      </c>
+      <c r="Y16">
+        <v>-10.7</v>
+      </c>
+      <c r="Z16">
+        <v>-13.7</v>
+      </c>
+      <c r="AA16">
+        <v>-20.3</v>
+      </c>
+      <c r="AB16">
+        <v>-21.6</v>
+      </c>
+      <c r="AC16">
+        <v>-7.4</v>
+      </c>
+      <c r="AD16">
+        <v>-7.2</v>
+      </c>
+      <c r="AE16">
+        <v>-16.5</v>
+      </c>
+      <c r="AF16">
+        <v>-1.6</v>
+      </c>
+      <c r="AG16">
+        <v>13.3</v>
+      </c>
+      <c r="AH16">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AI16">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="AJ16">
+        <v>-13.7</v>
+      </c>
+      <c r="AK16">
+        <v>-7.4</v>
+      </c>
+      <c r="AL16">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="AM16">
+        <v>-3.6</v>
+      </c>
+      <c r="AN16">
+        <v>-19.8</v>
+      </c>
+      <c r="AO16">
+        <v>-15.2</v>
+      </c>
+      <c r="AP16">
+        <v>-18.8</v>
+      </c>
+      <c r="AQ16">
+        <v>2.1</v>
+      </c>
+      <c r="AR16">
+        <v>1.6</v>
+      </c>
+      <c r="AS16">
+        <v>-6.6</v>
+      </c>
+      <c r="AT16">
+        <v>-7.9</v>
+      </c>
+      <c r="AU16">
+        <v>-5</v>
+      </c>
+      <c r="AV16">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="AW16">
+        <v>-25.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>45664</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>-29.6</v>
+      </c>
+      <c r="C17">
+        <v>-7</v>
+      </c>
+      <c r="D17">
+        <v>-25.4</v>
+      </c>
+      <c r="E17">
+        <v>-28.4</v>
+      </c>
+      <c r="F17">
+        <v>-27.9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17">
+        <v>-23.8</v>
+      </c>
+      <c r="I17">
+        <v>-22.4</v>
+      </c>
+      <c r="J17">
+        <v>-13.3</v>
+      </c>
+      <c r="K17">
+        <v>-14.9</v>
+      </c>
+      <c r="L17">
+        <v>-25.6</v>
+      </c>
+      <c r="M17">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="N17">
+        <v>-20.2</v>
+      </c>
+      <c r="O17">
+        <v>-27.6</v>
+      </c>
+      <c r="P17">
+        <v>-18.5</v>
+      </c>
+      <c r="Q17">
+        <v>-24.8</v>
+      </c>
+      <c r="R17">
+        <v>-20.7</v>
+      </c>
+      <c r="S17">
+        <v>-25.1</v>
+      </c>
+      <c r="T17">
+        <v>-22.9</v>
+      </c>
+      <c r="U17">
+        <v>-23.7</v>
+      </c>
+      <c r="V17">
+        <v>-25.6</v>
+      </c>
+      <c r="W17">
+        <v>-17.8</v>
+      </c>
+      <c r="X17">
+        <v>-21.5</v>
+      </c>
+      <c r="Y17">
+        <v>-9.6</v>
+      </c>
+      <c r="Z17">
+        <v>-14.3</v>
+      </c>
+      <c r="AA17">
+        <v>-16.3</v>
+      </c>
+      <c r="AB17">
+        <v>-18.7</v>
+      </c>
+      <c r="AC17">
+        <v>-7.9</v>
+      </c>
+      <c r="AD17">
+        <v>-3.7</v>
+      </c>
+      <c r="AE17">
+        <v>-18.5</v>
+      </c>
+      <c r="AF17">
+        <v>-0.5</v>
+      </c>
+      <c r="AG17">
+        <v>10.9</v>
+      </c>
+      <c r="AH17">
+        <v>-1.5</v>
+      </c>
+      <c r="AI17">
+        <v>-9.5</v>
+      </c>
+      <c r="AJ17">
+        <v>-13.1</v>
+      </c>
+      <c r="AK17">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="AL17">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="AM17">
+        <v>-2.6</v>
+      </c>
+      <c r="AN17">
+        <v>-22.1</v>
+      </c>
+      <c r="AO17">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="AP17">
+        <v>-19</v>
+      </c>
+      <c r="AQ17">
+        <v>-3.5</v>
+      </c>
+      <c r="AR17">
+        <v>-2.8</v>
+      </c>
+      <c r="AS17">
+        <v>-7</v>
+      </c>
+      <c r="AT17">
+        <v>-10.9</v>
+      </c>
+      <c r="AU17">
+        <v>-3</v>
+      </c>
+      <c r="AV17">
+        <v>-16.5</v>
+      </c>
+      <c r="AW17">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>45665</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>-28.3</v>
+      </c>
+      <c r="C18">
+        <v>-21.8</v>
+      </c>
+      <c r="D18">
+        <v>-28.7</v>
+      </c>
+      <c r="E18">
+        <v>-29</v>
+      </c>
+      <c r="F18">
+        <v>-27.5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18">
+        <v>-28.5</v>
+      </c>
+      <c r="I18">
+        <v>-27.6</v>
+      </c>
+      <c r="J18">
+        <v>-13.5</v>
+      </c>
+      <c r="K18">
+        <v>-11.9</v>
+      </c>
+      <c r="L18">
+        <v>-15.3</v>
+      </c>
+      <c r="M18">
+        <v>-10.3</v>
+      </c>
+      <c r="N18">
+        <v>-18.3</v>
+      </c>
+      <c r="O18">
+        <v>-25.9</v>
+      </c>
+      <c r="P18">
+        <v>-24.7</v>
+      </c>
+      <c r="Q18">
+        <v>-24.2</v>
+      </c>
+      <c r="R18">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="S18">
+        <v>-24.5</v>
+      </c>
+      <c r="T18">
+        <v>-23</v>
+      </c>
+      <c r="U18">
+        <v>-24.5</v>
+      </c>
+      <c r="V18">
+        <v>-23.2</v>
+      </c>
+      <c r="W18">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="X18">
+        <v>-26.1</v>
+      </c>
+      <c r="Y18">
+        <v>-13.3</v>
+      </c>
+      <c r="Z18">
+        <v>-13.1</v>
+      </c>
+      <c r="AA18">
+        <v>-15.5</v>
+      </c>
+      <c r="AB18">
+        <v>-18.2</v>
+      </c>
+      <c r="AC18">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AD18">
+        <v>-4.2</v>
+      </c>
+      <c r="AE18">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="AF18">
+        <v>-7</v>
+      </c>
+      <c r="AG18">
+        <v>12.7</v>
+      </c>
+      <c r="AH18">
+        <v>-0.4</v>
+      </c>
+      <c r="AI18">
+        <v>-13.2</v>
+      </c>
+      <c r="AJ18">
+        <v>-20.7</v>
+      </c>
+      <c r="AK18">
+        <v>-9.9</v>
+      </c>
+      <c r="AL18">
+        <v>-11</v>
+      </c>
+      <c r="AM18">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="AN18">
+        <v>-26.2</v>
+      </c>
+      <c r="AO18">
+        <v>-12</v>
+      </c>
+      <c r="AP18">
+        <v>-21.8</v>
+      </c>
+      <c r="AQ18">
+        <v>-8.6</v>
+      </c>
+      <c r="AR18">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="AS18">
+        <v>-7.8</v>
+      </c>
+      <c r="AT18">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AU18">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="AV18">
+        <v>-15.1</v>
+      </c>
+      <c r="AW18">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>45666</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>-25.3</v>
+      </c>
+      <c r="C19">
+        <v>-24.6</v>
+      </c>
+      <c r="D19">
+        <v>-26.9</v>
+      </c>
+      <c r="E19">
+        <v>-28</v>
+      </c>
+      <c r="F19">
+        <v>-23.7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H19">
+        <v>-29.1</v>
+      </c>
+      <c r="I19">
+        <v>-26.8</v>
+      </c>
+      <c r="J19">
+        <v>-9.5</v>
+      </c>
+      <c r="K19">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="L19">
+        <v>-13.1</v>
+      </c>
+      <c r="M19">
+        <v>-10.6</v>
+      </c>
+      <c r="N19">
+        <v>-15.3</v>
+      </c>
+      <c r="O19">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="P19">
+        <v>-15.7</v>
+      </c>
+      <c r="Q19">
+        <v>-20.6</v>
+      </c>
+      <c r="R19">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="S19">
+        <v>-23.6</v>
+      </c>
+      <c r="T19">
+        <v>-25.2</v>
+      </c>
+      <c r="U19">
+        <v>-21.6</v>
+      </c>
+      <c r="V19">
+        <v>-25.4</v>
+      </c>
+      <c r="W19">
+        <v>-20.7</v>
+      </c>
+      <c r="X19">
+        <v>-25.9</v>
+      </c>
+      <c r="Y19">
+        <v>-12.4</v>
+      </c>
+      <c r="Z19">
+        <v>-14.3</v>
+      </c>
+      <c r="AA19">
+        <v>-12.4</v>
+      </c>
+      <c r="AB19">
+        <v>-16.7</v>
+      </c>
+      <c r="AC19">
+        <v>-9.9</v>
+      </c>
+      <c r="AD19">
+        <v>-3.4</v>
+      </c>
+      <c r="AE19">
+        <v>-12.8</v>
+      </c>
+      <c r="AF19">
+        <v>-6</v>
+      </c>
+      <c r="AG19">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AH19">
+        <v>-4</v>
+      </c>
+      <c r="AI19">
+        <v>-15.2</v>
+      </c>
+      <c r="AJ19">
+        <v>-13.9</v>
+      </c>
+      <c r="AK19">
+        <v>-15.7</v>
+      </c>
+      <c r="AL19">
+        <v>-13.6</v>
+      </c>
+      <c r="AM19">
+        <v>-6.7</v>
+      </c>
+      <c r="AN19">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="AO19">
+        <v>-10.8</v>
+      </c>
+      <c r="AP19">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="AQ19">
+        <v>-6.6</v>
+      </c>
+      <c r="AR19">
+        <v>-4</v>
+      </c>
+      <c r="AS19">
+        <v>-9.4</v>
+      </c>
+      <c r="AT19">
+        <v>-5.8</v>
+      </c>
+      <c r="AU19">
+        <v>-7.9</v>
+      </c>
+      <c r="AV19">
+        <v>-11.7</v>
+      </c>
+      <c r="AW19">
+        <v>-16.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A20" s="16">
         <v>45667</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>-23.5</v>
+      </c>
+      <c r="C20">
+        <v>-24</v>
+      </c>
+      <c r="D20">
+        <v>-24.8</v>
+      </c>
+      <c r="E20">
+        <v>-23.7</v>
+      </c>
+      <c r="F20">
+        <v>-23.8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>247</v>
+      </c>
+      <c r="H20">
+        <v>-20.5</v>
+      </c>
+      <c r="I20">
+        <v>-28.3</v>
+      </c>
+      <c r="J20">
+        <v>-11.6</v>
+      </c>
+      <c r="K20">
+        <v>-18.3</v>
+      </c>
+      <c r="L20">
+        <v>-20.8</v>
+      </c>
+      <c r="M20">
+        <v>-12.3</v>
+      </c>
+      <c r="N20">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="O20">
+        <v>-21.5</v>
+      </c>
+      <c r="P20">
+        <v>-12.6</v>
+      </c>
+      <c r="Q20">
+        <v>-20.8</v>
+      </c>
+      <c r="R20">
+        <v>-17.2</v>
+      </c>
+      <c r="S20">
+        <v>-23.6</v>
+      </c>
+      <c r="T20">
+        <v>-25.6</v>
+      </c>
+      <c r="U20">
+        <v>-22.4</v>
+      </c>
+      <c r="V20">
+        <v>-21.1</v>
+      </c>
+      <c r="W20">
+        <v>-17.7</v>
+      </c>
+      <c r="X20">
+        <v>-24.1</v>
+      </c>
+      <c r="Y20">
+        <v>-15.4</v>
+      </c>
+      <c r="Z20">
+        <v>-15.9</v>
+      </c>
+      <c r="AA20">
+        <v>-15.9</v>
+      </c>
+      <c r="AB20">
+        <v>-21.6</v>
+      </c>
+      <c r="AC20">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="AD20">
+        <v>-3</v>
+      </c>
+      <c r="AE20">
+        <v>-25</v>
+      </c>
+      <c r="AF20">
+        <v>-5.2</v>
+      </c>
+      <c r="AG20">
+        <v>8.4</v>
+      </c>
+      <c r="AH20">
+        <v>-5.8</v>
+      </c>
+      <c r="AI20">
+        <v>-11</v>
+      </c>
+      <c r="AJ20">
+        <v>-11</v>
+      </c>
+      <c r="AK20">
+        <v>-9.6</v>
+      </c>
+      <c r="AL20">
+        <v>-7.5</v>
+      </c>
+      <c r="AM20">
+        <v>-6.3</v>
+      </c>
+      <c r="AN20">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="AO20">
+        <v>-15.5</v>
+      </c>
+      <c r="AP20">
+        <v>-17.7</v>
+      </c>
+      <c r="AQ20">
+        <v>-10</v>
+      </c>
+      <c r="AR20">
+        <v>-4.7</v>
+      </c>
+      <c r="AS20">
+        <v>-13.1</v>
+      </c>
+      <c r="AT20">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="AU20">
+        <v>-6.5</v>
+      </c>
+      <c r="AV20">
+        <v>-17.2</v>
+      </c>
+      <c r="AW20">
+        <v>-24.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A21" s="16">
         <v>45668</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A22" s="16">
         <v>45669</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
         <v>45670</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A24" s="16">
         <v>45671</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
         <v>45672</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A26" s="16">
         <v>45673</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A27" s="16">
         <v>45674</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A28" s="16">
         <v>45675</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A29" s="16">
         <v>45676</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A30" s="16">
         <v>45677</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A31" s="16">
         <v>45678</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A32" s="16">
         <v>45679</v>
       </c>

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8909FEDD-713E-4B63-87CA-217DB9F36F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0590F5AD-F04D-4C35-B062-1E522991A5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
   <sheets>
     <sheet name="详细信息表" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="258">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2818,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0415808A-EC4F-404C-B30D-CD8F1C534364}">
   <dimension ref="A1:BI49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2889,10 +2889,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="4">
-        <v>-29.6</v>
+        <v>-23.6</v>
       </c>
       <c r="H2" s="4">
-        <v>-23.5</v>
+        <v>-22.1</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
@@ -2911,148 +2911,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>-29.6</v>
+        <v>-23.6</v>
       </c>
       <c r="O2">
-        <v>-36.9</v>
+        <v>-32.9</v>
       </c>
       <c r="P2">
-        <v>-38.4</v>
+        <v>-32.9</v>
       </c>
       <c r="Q2">
-        <v>-35</v>
+        <v>-30.8</v>
       </c>
       <c r="R2">
-        <v>-36.299999999999997</v>
+        <v>-27.2</v>
       </c>
       <c r="S2" t="str">
         <v>无</v>
       </c>
       <c r="T2">
-        <v>-32.700000000000003</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="U2">
-        <v>-36.799999999999997</v>
+        <v>-31.1</v>
       </c>
       <c r="V2">
-        <v>-24.5</v>
+        <v>-28.9</v>
       </c>
       <c r="W2">
+        <v>-35.6</v>
+      </c>
+      <c r="X2">
+        <v>-31.7</v>
+      </c>
+      <c r="Y2">
+        <v>-33.1</v>
+      </c>
+      <c r="Z2">
+        <v>-35.1</v>
+      </c>
+      <c r="AA2">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="AB2">
+        <v>-30.8</v>
+      </c>
+      <c r="AC2">
+        <v>-21</v>
+      </c>
+      <c r="AD2">
+        <v>-22.8</v>
+      </c>
+      <c r="AE2">
+        <v>-26</v>
+      </c>
+      <c r="AF2">
         <v>-36</v>
       </c>
-      <c r="X2">
-        <v>-30.2</v>
-      </c>
-      <c r="Y2">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="Z2">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="AA2">
-        <v>-34.5</v>
-      </c>
-      <c r="AB2">
-        <v>-27.9</v>
-      </c>
-      <c r="AC2">
-        <v>-24.7</v>
-      </c>
-      <c r="AD2">
-        <v>-30.4</v>
-      </c>
-      <c r="AE2">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="AF2">
-        <v>-32</v>
-      </c>
       <c r="AG2">
-        <v>-28.7</v>
+        <v>-24.8</v>
       </c>
       <c r="AH2">
-        <v>-34.799999999999997</v>
+        <v>-33.6</v>
       </c>
       <c r="AI2">
-        <v>-28.7</v>
+        <v>-30.8</v>
       </c>
       <c r="AJ2">
-        <v>-32.6</v>
+        <v>-32.299999999999997</v>
       </c>
       <c r="AK2">
-        <v>-22.2</v>
+        <v>-24.4</v>
       </c>
       <c r="AL2">
-        <v>-35.799999999999997</v>
+        <v>-36.6</v>
       </c>
       <c r="AM2">
-        <v>-35.200000000000003</v>
+        <v>-37.799999999999997</v>
       </c>
       <c r="AN2">
-        <v>-29.8</v>
+        <v>-29.5</v>
       </c>
       <c r="AO2">
-        <v>-20.8</v>
+        <v>-18</v>
       </c>
       <c r="AP2">
-        <v>-11.7</v>
+        <v>-17</v>
       </c>
       <c r="AQ2">
-        <v>-31.9</v>
+        <v>-34.6</v>
       </c>
       <c r="AR2">
-        <v>-15.3</v>
+        <v>-15.1</v>
       </c>
       <c r="AS2">
-        <v>-5.9</v>
+        <v>-2.4</v>
       </c>
       <c r="AT2">
-        <v>-12.2</v>
+        <v>-11</v>
       </c>
       <c r="AU2">
+        <v>-26.1</v>
+      </c>
+      <c r="AV2">
+        <v>-26.5</v>
+      </c>
+      <c r="AW2">
+        <v>-19.3</v>
+      </c>
+      <c r="AX2">
+        <v>-25.7</v>
+      </c>
+      <c r="AY2">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="AZ2">
         <v>-33.799999999999997</v>
       </c>
-      <c r="AV2">
-        <v>-25.7</v>
-      </c>
-      <c r="AW2">
-        <v>-20.399999999999999</v>
-      </c>
-      <c r="AX2">
-        <v>-26.1</v>
-      </c>
-      <c r="AY2">
+      <c r="BA2">
+        <v>-34</v>
+      </c>
+      <c r="BB2">
+        <v>-31.8</v>
+      </c>
+      <c r="BC2">
+        <v>-35.9</v>
+      </c>
+      <c r="BD2">
         <v>-22.3</v>
       </c>
-      <c r="AZ2">
-        <v>-32.9</v>
-      </c>
-      <c r="BA2">
-        <v>-29.1</v>
-      </c>
-      <c r="BB2">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="BC2">
-        <v>-29.7</v>
-      </c>
-      <c r="BD2">
-        <v>-22.5</v>
-      </c>
       <c r="BE2">
-        <v>-25.4</v>
+        <v>-23.4</v>
       </c>
       <c r="BF2">
-        <v>-17.8</v>
+        <v>-17.2</v>
       </c>
       <c r="BG2">
-        <v>-22.9</v>
+        <v>-14.2</v>
       </c>
       <c r="BH2">
-        <v>-33.299999999999997</v>
+        <v>-35.6</v>
       </c>
       <c r="BI2">
-        <v>-33.700000000000003</v>
+        <v>-35.5</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3073,10 +3073,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>-36.9</v>
+        <v>-32.9</v>
       </c>
       <c r="H3" s="4">
-        <v>-24</v>
+        <v>-23.4</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>38</v>
@@ -3095,148 +3095,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>-23.5</v>
+        <v>-22.1</v>
       </c>
       <c r="O3">
-        <v>-24</v>
+        <v>-23.4</v>
       </c>
       <c r="P3">
-        <v>-24.8</v>
+        <v>-20.7</v>
       </c>
       <c r="Q3">
-        <v>-23.7</v>
+        <v>-21.5</v>
       </c>
       <c r="R3">
-        <v>-23.8</v>
+        <v>-21.6</v>
       </c>
       <c r="S3" t="str">
         <v>无</v>
       </c>
       <c r="T3">
-        <v>-20.5</v>
+        <v>-21.2</v>
       </c>
       <c r="U3">
-        <v>-28.3</v>
+        <v>-22.5</v>
       </c>
       <c r="V3">
-        <v>-11.6</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="W3">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="X3">
+        <v>-20.6</v>
+      </c>
+      <c r="Y3">
+        <v>-15.2</v>
+      </c>
+      <c r="Z3">
+        <v>-17.2</v>
+      </c>
+      <c r="AA3">
+        <v>-22.9</v>
+      </c>
+      <c r="AB3">
+        <v>-11.4</v>
+      </c>
+      <c r="AC3">
+        <v>-17.3</v>
+      </c>
+      <c r="AD3">
+        <v>-15.8</v>
+      </c>
+      <c r="AE3">
+        <v>-22.3</v>
+      </c>
+      <c r="AF3">
+        <v>-26.4</v>
+      </c>
+      <c r="AG3">
         <v>-18.3</v>
-      </c>
-      <c r="X3">
-        <v>-20.8</v>
-      </c>
-      <c r="Y3">
-        <v>-12.3</v>
-      </c>
-      <c r="Z3">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="AA3">
-        <v>-21.5</v>
-      </c>
-      <c r="AB3">
-        <v>-12.6</v>
-      </c>
-      <c r="AC3">
-        <v>-20.8</v>
-      </c>
-      <c r="AD3">
-        <v>-17.2</v>
-      </c>
-      <c r="AE3">
-        <v>-23.6</v>
-      </c>
-      <c r="AF3">
-        <v>-25.6</v>
-      </c>
-      <c r="AG3">
-        <v>-22.4</v>
       </c>
       <c r="AH3">
         <v>-21.1</v>
       </c>
       <c r="AI3">
-        <v>-17.7</v>
+        <v>-16</v>
       </c>
       <c r="AJ3">
-        <v>-24.1</v>
+        <v>-21.9</v>
       </c>
       <c r="AK3">
-        <v>-15.4</v>
+        <v>-15.9</v>
       </c>
       <c r="AL3">
-        <v>-15.9</v>
+        <v>-17.8</v>
       </c>
       <c r="AM3">
-        <v>-15.9</v>
+        <v>-19</v>
       </c>
       <c r="AN3">
-        <v>-21.6</v>
+        <v>-18.2</v>
       </c>
       <c r="AO3">
-        <v>-10.199999999999999</v>
+        <v>-7.2</v>
       </c>
       <c r="AP3">
-        <v>-3</v>
+        <v>-7.8</v>
       </c>
       <c r="AQ3">
         <v>-25</v>
       </c>
       <c r="AR3">
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="AS3">
-        <v>8.4</v>
+        <v>12.3</v>
       </c>
       <c r="AT3">
-        <v>-5.8</v>
+        <v>0.3</v>
       </c>
       <c r="AU3">
-        <v>-11</v>
+        <v>-10.3</v>
       </c>
       <c r="AV3">
-        <v>-11</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AW3">
-        <v>-9.6</v>
+        <v>-16.5</v>
       </c>
       <c r="AX3">
-        <v>-7.5</v>
+        <v>-5.5</v>
       </c>
       <c r="AY3">
-        <v>-6.3</v>
+        <v>-5.5</v>
       </c>
       <c r="AZ3">
-        <v>-17.100000000000001</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="BA3">
+        <v>-22.5</v>
+      </c>
+      <c r="BB3">
         <v>-15.5</v>
       </c>
-      <c r="BB3">
-        <v>-17.7</v>
-      </c>
       <c r="BC3">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="BD3">
-        <v>-4.7</v>
+        <v>-3.1</v>
       </c>
       <c r="BE3">
-        <v>-13.1</v>
+        <v>-11.4</v>
       </c>
       <c r="BF3">
-        <v>-8.3000000000000007</v>
+        <v>-1.4</v>
       </c>
       <c r="BG3">
-        <v>-6.5</v>
+        <v>0.5</v>
       </c>
       <c r="BH3">
-        <v>-17.2</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="BI3">
-        <v>-24.3</v>
+        <v>-27.6</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3257,10 +3257,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>-38.4</v>
+        <v>-32.9</v>
       </c>
       <c r="H4" s="4">
-        <v>-24.8</v>
+        <v>-20.7</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>117</v>
@@ -3293,10 +3293,10 @@
         <v>110</v>
       </c>
       <c r="G5" s="4">
-        <v>-35</v>
+        <v>-30.8</v>
       </c>
       <c r="H5" s="4">
-        <v>-23.7</v>
+        <v>-21.5</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
@@ -3338,10 +3338,10 @@
         <v>179</v>
       </c>
       <c r="G6" s="4">
-        <v>-36.299999999999997</v>
+        <v>-27.2</v>
       </c>
       <c r="H6" s="4">
-        <v>-23.8</v>
+        <v>-21.6</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>115</v>
@@ -3428,10 +3428,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>-32.700000000000003</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="H8" s="4">
-        <v>-20.5</v>
+        <v>-21.2</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>120</v>
@@ -3471,10 +3471,10 @@
         <v>95</v>
       </c>
       <c r="G9" s="4">
-        <v>-36.799999999999997</v>
+        <v>-31.1</v>
       </c>
       <c r="H9" s="4">
-        <v>-28.3</v>
+        <v>-22.5</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>119</v>
@@ -3505,10 +3505,10 @@
         <v>102</v>
       </c>
       <c r="G10" s="4">
-        <v>-24.5</v>
+        <v>-28.9</v>
       </c>
       <c r="H10" s="4">
-        <v>-11.6</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>100</v>
@@ -3539,10 +3539,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="4">
-        <v>-36</v>
+        <v>-35.6</v>
       </c>
       <c r="H11" s="4">
-        <v>-18.3</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>54</v>
@@ -3573,10 +3573,10 @@
         <v>87</v>
       </c>
       <c r="G12" s="4">
-        <v>-30.2</v>
+        <v>-31.7</v>
       </c>
       <c r="H12" s="4">
-        <v>-20.8</v>
+        <v>-20.6</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>28</v>
@@ -3607,10 +3607,10 @@
         <v>89</v>
       </c>
       <c r="G13" s="4">
-        <v>-34.299999999999997</v>
+        <v>-33.1</v>
       </c>
       <c r="H13" s="4">
-        <v>-12.3</v>
+        <v>-15.2</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
@@ -3641,10 +3641,10 @@
         <v>27</v>
       </c>
       <c r="G14" s="4">
-        <v>-35.299999999999997</v>
+        <v>-35.1</v>
       </c>
       <c r="H14" s="4">
-        <v>-16.899999999999999</v>
+        <v>-17.2</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
@@ -3675,10 +3675,10 @@
         <v>180</v>
       </c>
       <c r="G15" s="4">
-        <v>-34.5</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="H15" s="4">
-        <v>-21.5</v>
+        <v>-22.9</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
@@ -3709,10 +3709,10 @@
         <v>99</v>
       </c>
       <c r="G16" s="4">
-        <v>-27.9</v>
+        <v>-30.8</v>
       </c>
       <c r="H16" s="4">
-        <v>-12.6</v>
+        <v>-11.4</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>96</v>
@@ -3743,10 +3743,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="4">
-        <v>-24.7</v>
+        <v>-21</v>
       </c>
       <c r="H17" s="4">
-        <v>-20.8</v>
+        <v>-17.3</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>161</v>
@@ -3777,10 +3777,10 @@
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>-30.4</v>
+        <v>-22.8</v>
       </c>
       <c r="H18" s="4">
-        <v>-17.2</v>
+        <v>-15.8</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
@@ -3811,10 +3811,10 @@
         <v>108</v>
       </c>
       <c r="G19" s="4">
-        <v>-34.799999999999997</v>
+        <v>-26</v>
       </c>
       <c r="H19" s="4">
-        <v>-23.6</v>
+        <v>-22.3</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>114</v>
@@ -3845,10 +3845,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="4">
-        <v>-32</v>
+        <v>-36</v>
       </c>
       <c r="H20" s="4">
-        <v>-25.6</v>
+        <v>-26.4</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
@@ -3879,10 +3879,10 @@
         <v>106</v>
       </c>
       <c r="G21" s="4">
-        <v>-28.7</v>
+        <v>-24.8</v>
       </c>
       <c r="H21" s="4">
-        <v>-22.4</v>
+        <v>-18.3</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>115</v>
@@ -3913,7 +3913,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="4">
-        <v>-34.799999999999997</v>
+        <v>-33.6</v>
       </c>
       <c r="H22" s="4">
         <v>-21.1</v>
@@ -3949,10 +3949,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="4">
-        <v>-28.7</v>
+        <v>-30.8</v>
       </c>
       <c r="H23" s="4">
-        <v>-17.7</v>
+        <v>-16</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
@@ -3985,10 +3985,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="4">
-        <v>-32.6</v>
+        <v>-32.299999999999997</v>
       </c>
       <c r="H24" s="4">
-        <v>-24.1</v>
+        <v>-21.9</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -4019,10 +4019,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="4">
-        <v>-22.2</v>
+        <v>-24.4</v>
       </c>
       <c r="H25" s="4">
-        <v>-15.4</v>
+        <v>-15.9</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -4055,10 +4055,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>-35.799999999999997</v>
+        <v>-36.6</v>
       </c>
       <c r="H26" s="4">
-        <v>-15.9</v>
+        <v>-17.8</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -4089,10 +4089,10 @@
         <v>181</v>
       </c>
       <c r="G27" s="4">
-        <v>-35.200000000000003</v>
+        <v>-37.799999999999997</v>
       </c>
       <c r="H27" s="4">
-        <v>-15.9</v>
+        <v>-19</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
@@ -4123,10 +4123,10 @@
         <v>77</v>
       </c>
       <c r="G28" s="4">
-        <v>-29.8</v>
+        <v>-29.5</v>
       </c>
       <c r="H28" s="4">
-        <v>-21.6</v>
+        <v>-18.2</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
@@ -4159,10 +4159,10 @@
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <v>-20.8</v>
+        <v>-18</v>
       </c>
       <c r="H29" s="4">
-        <v>-10.199999999999999</v>
+        <v>-7.2</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -4193,10 +4193,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>-11.7</v>
+        <v>-17</v>
       </c>
       <c r="H30" s="4">
-        <v>-3</v>
+        <v>-7.8</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
@@ -4229,7 +4229,7 @@
         <v>4</v>
       </c>
       <c r="G31" s="4">
-        <v>-31.9</v>
+        <v>-34.6</v>
       </c>
       <c r="H31" s="4">
         <v>-25</v>
@@ -4263,10 +4263,10 @@
         <v>66</v>
       </c>
       <c r="G32" s="4">
-        <v>-15.3</v>
+        <v>-15.1</v>
       </c>
       <c r="H32" s="4">
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
@@ -4297,10 +4297,10 @@
         <v>253</v>
       </c>
       <c r="G33" s="4">
-        <v>-5.9</v>
+        <v>-2.4</v>
       </c>
       <c r="H33" s="4">
-        <v>8.4</v>
+        <v>12.3</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>250</v>
@@ -4331,10 +4331,10 @@
         <v>59</v>
       </c>
       <c r="G34" s="4">
-        <v>-12.2</v>
+        <v>-11</v>
       </c>
       <c r="H34" s="4">
-        <v>-5.8</v>
+        <v>0.3</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
@@ -4365,10 +4365,10 @@
         <v>56</v>
       </c>
       <c r="G35" s="4">
-        <v>-33.799999999999997</v>
+        <v>-26.1</v>
       </c>
       <c r="H35" s="4">
-        <v>-11</v>
+        <v>-10.3</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
@@ -4399,10 +4399,10 @@
         <v>46</v>
       </c>
       <c r="G36" s="4">
-        <v>-25.7</v>
+        <v>-26.5</v>
       </c>
       <c r="H36" s="4">
-        <v>-11</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>47</v>
@@ -4435,10 +4435,10 @@
         <v>49</v>
       </c>
       <c r="G37" s="4">
-        <v>-20.399999999999999</v>
+        <v>-19.3</v>
       </c>
       <c r="H37" s="4">
-        <v>-9.6</v>
+        <v>-16.5</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>45</v>
@@ -4471,10 +4471,10 @@
         <v>51</v>
       </c>
       <c r="G38" s="4">
-        <v>-26.1</v>
+        <v>-25.7</v>
       </c>
       <c r="H38" s="4">
-        <v>-7.5</v>
+        <v>-5.5</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
@@ -4505,10 +4505,10 @@
         <v>58</v>
       </c>
       <c r="G39" s="4">
-        <v>-22.3</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="H39" s="4">
-        <v>-6.3</v>
+        <v>-5.5</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
@@ -4539,10 +4539,10 @@
         <v>44</v>
       </c>
       <c r="G40" s="4">
-        <v>-32.9</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H40" s="4">
-        <v>-17.100000000000001</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>43</v>
@@ -4573,10 +4573,10 @@
         <v>74</v>
       </c>
       <c r="G41" s="4">
-        <v>-29.1</v>
+        <v>-34</v>
       </c>
       <c r="H41" s="4">
-        <v>-15.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
@@ -4607,10 +4607,10 @@
         <v>72</v>
       </c>
       <c r="G42" s="4">
-        <v>-32.799999999999997</v>
+        <v>-31.8</v>
       </c>
       <c r="H42" s="4">
-        <v>-17.7</v>
+        <v>-15.5</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>2</v>
@@ -4641,10 +4641,10 @@
         <v>62</v>
       </c>
       <c r="G43" s="4">
-        <v>-29.7</v>
+        <v>-35.9</v>
       </c>
       <c r="H43" s="4">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
@@ -4675,10 +4675,10 @@
         <v>64</v>
       </c>
       <c r="G44" s="4">
-        <v>-22.5</v>
+        <v>-22.3</v>
       </c>
       <c r="H44" s="4">
-        <v>-4.7</v>
+        <v>-3.1</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>65</v>
@@ -4709,10 +4709,10 @@
         <v>79</v>
       </c>
       <c r="G45" s="4">
-        <v>-25.4</v>
+        <v>-23.4</v>
       </c>
       <c r="H45" s="4">
-        <v>-13.1</v>
+        <v>-11.4</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>22</v>
@@ -4743,10 +4743,10 @@
         <v>81</v>
       </c>
       <c r="G46" s="4">
-        <v>-17.8</v>
+        <v>-17.2</v>
       </c>
       <c r="H46" s="4">
-        <v>-8.3000000000000007</v>
+        <v>-1.4</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
@@ -4777,10 +4777,10 @@
         <v>83</v>
       </c>
       <c r="G47" s="4">
-        <v>-22.9</v>
+        <v>-14.2</v>
       </c>
       <c r="H47" s="4">
-        <v>-6.5</v>
+        <v>0.5</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>21</v>
@@ -4813,10 +4813,10 @@
         <v>68</v>
       </c>
       <c r="G48" s="4">
-        <v>-33.299999999999997</v>
+        <v>-35.6</v>
       </c>
       <c r="H48" s="4">
-        <v>-17.2</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -4847,10 +4847,10 @@
         <v>70</v>
       </c>
       <c r="G49" s="4">
-        <v>-33.700000000000003</v>
+        <v>-35.5</v>
       </c>
       <c r="H49" s="4">
-        <v>-24.3</v>
+        <v>-27.6</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>2</v>
@@ -4877,8 +4877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B34FAF-8106-42B6-ACE5-F6D83E641FA4}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4982,8 +4982,12 @@
       <c r="F4" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="G4" s="36">
+        <v>-23.6</v>
+      </c>
+      <c r="H4" s="36">
+        <v>-22.1</v>
+      </c>
       <c r="I4" s="34" t="s">
         <v>175</v>
       </c>
@@ -5012,8 +5016,12 @@
       <c r="F5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="G5" s="36">
+        <v>-32.9</v>
+      </c>
+      <c r="H5" s="36">
+        <v>-23.4</v>
+      </c>
       <c r="I5" s="34" t="s">
         <v>155</v>
       </c>
@@ -5026,17 +5034,19 @@
       <c r="C6" s="52">
         <v>3</v>
       </c>
-      <c r="D6" s="52">
-        <v>0</v>
-      </c>
+      <c r="D6" s="52"/>
       <c r="E6" s="32" t="s">
         <v>217</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="G6" s="36">
+        <v>-32.9</v>
+      </c>
+      <c r="H6" s="36">
+        <v>-20.7</v>
+      </c>
       <c r="I6" s="34" t="s">
         <v>230</v>
       </c>
@@ -5056,8 +5066,12 @@
       <c r="F7" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="G7" s="36">
+        <v>-30.8</v>
+      </c>
+      <c r="H7" s="36">
+        <v>-21.5</v>
+      </c>
       <c r="I7" s="34" t="s">
         <v>111</v>
       </c>
@@ -5077,8 +5091,12 @@
       <c r="F8" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="G8" s="36">
+        <v>-27.2</v>
+      </c>
+      <c r="H8" s="36">
+        <v>-21.6</v>
+      </c>
       <c r="I8" s="34" t="s">
         <v>172</v>
       </c>
@@ -5098,8 +5116,12 @@
       <c r="F9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="G9" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>247</v>
+      </c>
       <c r="I9" s="34" t="s">
         <v>231</v>
       </c>
@@ -5119,8 +5141,12 @@
       <c r="F10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="G10" s="36">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="H10" s="36">
+        <v>-21.2</v>
+      </c>
       <c r="I10" s="34" t="s">
         <v>245</v>
       </c>
@@ -5133,17 +5159,19 @@
       <c r="C11" s="52">
         <v>2</v>
       </c>
-      <c r="D11" s="52">
-        <v>0</v>
-      </c>
+      <c r="D11" s="52"/>
       <c r="E11" s="31" t="s">
         <v>221</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="G11" s="36">
+        <v>-31.1</v>
+      </c>
+      <c r="H11" s="36">
+        <v>-22.5</v>
+      </c>
       <c r="I11" s="34" t="s">
         <v>246</v>
       </c>
@@ -5163,8 +5191,12 @@
       <c r="F12" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="G12" s="36">
+        <v>-28.9</v>
+      </c>
+      <c r="H12" s="36">
+        <v>-17.399999999999999</v>
+      </c>
       <c r="I12" s="34" t="s">
         <v>244</v>
       </c>
@@ -5177,15 +5209,21 @@
       <c r="C13" s="52">
         <v>2</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="52">
+        <v>0</v>
+      </c>
       <c r="E13" s="31" t="s">
         <v>222</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="G13" s="36">
+        <v>-35.6</v>
+      </c>
+      <c r="H13" s="36">
+        <v>-20.399999999999999</v>
+      </c>
       <c r="I13" s="34" t="s">
         <v>158</v>
       </c>
@@ -5205,8 +5243,12 @@
       <c r="F14" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="G14" s="36">
+        <v>-31.7</v>
+      </c>
+      <c r="H14" s="36">
+        <v>-20.6</v>
+      </c>
       <c r="I14" s="34" t="s">
         <v>154</v>
       </c>
@@ -5226,8 +5268,12 @@
       <c r="F15" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="G15" s="36">
+        <v>-33.1</v>
+      </c>
+      <c r="H15" s="36">
+        <v>-15.2</v>
+      </c>
       <c r="I15" s="34" t="s">
         <v>154</v>
       </c>
@@ -5247,8 +5293,12 @@
       <c r="F16" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="G16" s="36">
+        <v>-35.1</v>
+      </c>
+      <c r="H16" s="36">
+        <v>-17.2</v>
+      </c>
       <c r="I16" s="34" t="s">
         <v>154</v>
       </c>
@@ -5268,8 +5318,12 @@
       <c r="F17" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="G17" s="36">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="H17" s="36">
+        <v>-22.9</v>
+      </c>
       <c r="I17" s="34" t="s">
         <v>242</v>
       </c>
@@ -5289,8 +5343,12 @@
       <c r="F18" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="G18" s="36">
+        <v>-30.8</v>
+      </c>
+      <c r="H18" s="36">
+        <v>-11.4</v>
+      </c>
       <c r="I18" s="34" t="s">
         <v>32</v>
       </c>
@@ -5310,8 +5368,12 @@
       <c r="F19" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="G19" s="36">
+        <v>-21</v>
+      </c>
+      <c r="H19" s="36">
+        <v>-17.3</v>
+      </c>
       <c r="I19" s="34" t="s">
         <v>243</v>
       </c>
@@ -5331,8 +5393,12 @@
       <c r="F20" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="G20" s="36">
+        <v>-22.8</v>
+      </c>
+      <c r="H20" s="36">
+        <v>-15.8</v>
+      </c>
       <c r="I20" s="34" t="s">
         <v>241</v>
       </c>
@@ -5352,8 +5418,12 @@
       <c r="F21" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="G21" s="36">
+        <v>-26</v>
+      </c>
+      <c r="H21" s="36">
+        <v>-22.3</v>
+      </c>
       <c r="I21" s="34" t="s">
         <v>175</v>
       </c>
@@ -5366,15 +5436,21 @@
       <c r="C22" s="52">
         <v>3</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="52">
+        <v>0</v>
+      </c>
       <c r="E22" s="32" t="s">
         <v>219</v>
       </c>
       <c r="F22" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="G22" s="36">
+        <v>-36</v>
+      </c>
+      <c r="H22" s="36">
+        <v>-26.4</v>
+      </c>
       <c r="I22" s="34" t="s">
         <v>231</v>
       </c>
@@ -5394,8 +5470,12 @@
       <c r="F23" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
+      <c r="G23" s="36">
+        <v>-24.8</v>
+      </c>
+      <c r="H23" s="36">
+        <v>-18.3</v>
+      </c>
       <c r="I23" s="34" t="s">
         <v>172</v>
       </c>
@@ -5415,8 +5495,12 @@
       <c r="F24" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="G24" s="36">
+        <v>-33.6</v>
+      </c>
+      <c r="H24" s="36">
+        <v>-21.1</v>
+      </c>
       <c r="I24" s="34" t="s">
         <v>111</v>
       </c>
@@ -5436,8 +5520,12 @@
       <c r="F25" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
+      <c r="G25" s="36">
+        <v>-30.8</v>
+      </c>
+      <c r="H25" s="36">
+        <v>-16</v>
+      </c>
       <c r="I25" s="34" t="s">
         <v>151</v>
       </c>
@@ -5457,8 +5545,12 @@
       <c r="F26" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="G26" s="36">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="H26" s="36">
+        <v>-21.9</v>
+      </c>
       <c r="I26" s="34" t="s">
         <v>229</v>
       </c>
@@ -5478,8 +5570,12 @@
       <c r="F27" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
+      <c r="G27" s="36">
+        <v>-24.4</v>
+      </c>
+      <c r="H27" s="36">
+        <v>-15.9</v>
+      </c>
       <c r="I27" s="34" t="s">
         <v>155</v>
       </c>
@@ -5501,8 +5597,12 @@
       <c r="F28" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="G28" s="36">
+        <v>-36.6</v>
+      </c>
+      <c r="H28" s="36">
+        <v>-17.8</v>
+      </c>
       <c r="I28" s="34" t="s">
         <v>234</v>
       </c>
@@ -5524,8 +5624,12 @@
       <c r="F29" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="G29" s="36">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="H29" s="36">
+        <v>-19</v>
+      </c>
       <c r="I29" s="34" t="s">
         <v>232</v>
       </c>
@@ -5545,8 +5649,12 @@
       <c r="F30" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
+      <c r="G30" s="36">
+        <v>-29.5</v>
+      </c>
+      <c r="H30" s="36">
+        <v>-18.2</v>
+      </c>
       <c r="I30" s="34" t="s">
         <v>237</v>
       </c>
@@ -5568,8 +5676,12 @@
       <c r="F31" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
+      <c r="G31" s="36">
+        <v>-18</v>
+      </c>
+      <c r="H31" s="36">
+        <v>-7.2</v>
+      </c>
       <c r="I31" s="34" t="s">
         <v>238</v>
       </c>
@@ -5589,8 +5701,12 @@
       <c r="F32" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
+      <c r="G32" s="36">
+        <v>-17</v>
+      </c>
+      <c r="H32" s="36">
+        <v>-7.8</v>
+      </c>
       <c r="I32" s="34" t="s">
         <v>159</v>
       </c>
@@ -5612,8 +5728,12 @@
       <c r="F33" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
+      <c r="G33" s="36">
+        <v>-34.6</v>
+      </c>
+      <c r="H33" s="36">
+        <v>-25</v>
+      </c>
       <c r="I33" s="34" t="s">
         <v>239</v>
       </c>
@@ -5633,8 +5753,12 @@
       <c r="F34" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="G34" s="36">
+        <v>-15.1</v>
+      </c>
+      <c r="H34" s="36">
+        <v>-5</v>
+      </c>
       <c r="I34" s="34" t="s">
         <v>174</v>
       </c>
@@ -5656,8 +5780,12 @@
       <c r="F35" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
+      <c r="G35" s="36">
+        <v>-2.4</v>
+      </c>
+      <c r="H35" s="36">
+        <v>12.3</v>
+      </c>
       <c r="I35" s="34" t="s">
         <v>250</v>
       </c>
@@ -5677,8 +5805,12 @@
       <c r="F36" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
+      <c r="G36" s="36">
+        <v>-11</v>
+      </c>
+      <c r="H36" s="36">
+        <v>0.3</v>
+      </c>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5698,8 +5830,12 @@
       <c r="F37" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
+      <c r="G37" s="36">
+        <v>-26.1</v>
+      </c>
+      <c r="H37" s="36">
+        <v>-10.3</v>
+      </c>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5719,8 +5855,12 @@
       <c r="F38" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
+      <c r="G38" s="36">
+        <v>-26.5</v>
+      </c>
+      <c r="H38" s="36">
+        <v>-9.1999999999999993</v>
+      </c>
       <c r="I38" s="34" t="s">
         <v>173</v>
       </c>
@@ -5742,8 +5882,12 @@
       <c r="F39" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
+      <c r="G39" s="36">
+        <v>-19.3</v>
+      </c>
+      <c r="H39" s="36">
+        <v>-16.5</v>
+      </c>
       <c r="I39" s="34" t="s">
         <v>240</v>
       </c>
@@ -5765,8 +5909,12 @@
       <c r="F40" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
+      <c r="G40" s="36">
+        <v>-25.7</v>
+      </c>
+      <c r="H40" s="36">
+        <v>-5.5</v>
+      </c>
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5786,8 +5934,12 @@
       <c r="F41" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="G41" s="36">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="H41" s="36">
+        <v>-5.5</v>
+      </c>
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5805,8 +5957,12 @@
       <c r="F42" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
+      <c r="G42" s="36">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="H42" s="36">
+        <v>-19.100000000000001</v>
+      </c>
       <c r="I42" s="34" t="s">
         <v>235</v>
       </c>
@@ -5826,8 +5982,12 @@
       <c r="F43" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
+      <c r="G43" s="36">
+        <v>-34</v>
+      </c>
+      <c r="H43" s="36">
+        <v>-22.5</v>
+      </c>
       <c r="I43" s="34" t="s">
         <v>234</v>
       </c>
@@ -5847,8 +6007,12 @@
       <c r="F44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
+      <c r="G44" s="36">
+        <v>-31.8</v>
+      </c>
+      <c r="H44" s="36">
+        <v>-15.5</v>
+      </c>
       <c r="I44" s="34" t="s">
         <v>157</v>
       </c>
@@ -5868,8 +6032,12 @@
       <c r="F45" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
+      <c r="G45" s="36">
+        <v>-35.9</v>
+      </c>
+      <c r="H45" s="36">
+        <v>-9</v>
+      </c>
       <c r="I45" s="34" t="s">
         <v>160</v>
       </c>
@@ -5889,8 +6057,12 @@
       <c r="F46" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
+      <c r="G46" s="36">
+        <v>-22.3</v>
+      </c>
+      <c r="H46" s="36">
+        <v>-3.1</v>
+      </c>
       <c r="I46" s="34" t="s">
         <v>160</v>
       </c>
@@ -5910,8 +6082,12 @@
       <c r="F47" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
+      <c r="G47" s="36">
+        <v>-23.4</v>
+      </c>
+      <c r="H47" s="36">
+        <v>-11.4</v>
+      </c>
       <c r="I47" s="34" t="s">
         <v>156</v>
       </c>
@@ -5931,8 +6107,12 @@
       <c r="F48" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
+      <c r="G48" s="36">
+        <v>-17.2</v>
+      </c>
+      <c r="H48" s="36">
+        <v>-1.4</v>
+      </c>
       <c r="I48" s="34" t="s">
         <v>236</v>
       </c>
@@ -5952,8 +6132,12 @@
       <c r="F49" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
+      <c r="G49" s="36">
+        <v>-14.2</v>
+      </c>
+      <c r="H49" s="36">
+        <v>0.5</v>
+      </c>
       <c r="I49" s="34" t="s">
         <v>159</v>
       </c>
@@ -5975,8 +6159,12 @@
       <c r="F50" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
+      <c r="G50" s="36">
+        <v>-35.6</v>
+      </c>
+      <c r="H50" s="36">
+        <v>-19.100000000000001</v>
+      </c>
       <c r="I50" s="34" t="s">
         <v>157</v>
       </c>
@@ -5996,8 +6184,12 @@
       <c r="F51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
+      <c r="G51" s="36">
+        <v>-35.5</v>
+      </c>
+      <c r="H51" s="36">
+        <v>-27.6</v>
+      </c>
       <c r="I51" s="34" t="s">
         <v>233</v>
       </c>
@@ -6009,10 +6201,10 @@
       <c r="A53" s="56"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I53">
-    <sortCondition ref="B4:B53"/>
-    <sortCondition ref="G4:G53"/>
-    <sortCondition ref="H4:H53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I51">
+    <sortCondition ref="B4:B51"/>
+    <sortCondition ref="G4:G51"/>
+    <sortCondition ref="H4:H51"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="A3:A53"/>
@@ -6055,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6452CB3-0983-4391-8A7D-2C5221219E76}">
   <dimension ref="A1:AW79"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -9030,6 +9222,150 @@
       <c r="A21" s="16">
         <v>45668</v>
       </c>
+      <c r="B21">
+        <v>-23.6</v>
+      </c>
+      <c r="C21">
+        <v>-32.9</v>
+      </c>
+      <c r="D21">
+        <v>-32.9</v>
+      </c>
+      <c r="E21">
+        <v>-30.8</v>
+      </c>
+      <c r="F21">
+        <v>-27.2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="I21">
+        <v>-31.1</v>
+      </c>
+      <c r="J21">
+        <v>-28.9</v>
+      </c>
+      <c r="K21">
+        <v>-35.6</v>
+      </c>
+      <c r="L21">
+        <v>-31.7</v>
+      </c>
+      <c r="M21">
+        <v>-33.1</v>
+      </c>
+      <c r="N21">
+        <v>-35.1</v>
+      </c>
+      <c r="O21">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="P21">
+        <v>-30.8</v>
+      </c>
+      <c r="Q21">
+        <v>-21</v>
+      </c>
+      <c r="R21">
+        <v>-22.8</v>
+      </c>
+      <c r="S21">
+        <v>-26</v>
+      </c>
+      <c r="T21">
+        <v>-36</v>
+      </c>
+      <c r="U21">
+        <v>-24.8</v>
+      </c>
+      <c r="V21">
+        <v>-33.6</v>
+      </c>
+      <c r="W21">
+        <v>-30.8</v>
+      </c>
+      <c r="X21">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="Y21">
+        <v>-24.4</v>
+      </c>
+      <c r="Z21">
+        <v>-36.6</v>
+      </c>
+      <c r="AA21">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="AB21">
+        <v>-29.5</v>
+      </c>
+      <c r="AC21">
+        <v>-18</v>
+      </c>
+      <c r="AD21">
+        <v>-17</v>
+      </c>
+      <c r="AE21">
+        <v>-34.6</v>
+      </c>
+      <c r="AF21">
+        <v>-15.1</v>
+      </c>
+      <c r="AG21">
+        <v>-2.4</v>
+      </c>
+      <c r="AH21">
+        <v>-11</v>
+      </c>
+      <c r="AI21">
+        <v>-26.1</v>
+      </c>
+      <c r="AJ21">
+        <v>-26.5</v>
+      </c>
+      <c r="AK21">
+        <v>-19.3</v>
+      </c>
+      <c r="AL21">
+        <v>-25.7</v>
+      </c>
+      <c r="AM21">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="AN21">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="AO21">
+        <v>-34</v>
+      </c>
+      <c r="AP21">
+        <v>-31.8</v>
+      </c>
+      <c r="AQ21">
+        <v>-35.9</v>
+      </c>
+      <c r="AR21">
+        <v>-22.3</v>
+      </c>
+      <c r="AS21">
+        <v>-23.4</v>
+      </c>
+      <c r="AT21">
+        <v>-17.2</v>
+      </c>
+      <c r="AU21">
+        <v>-14.2</v>
+      </c>
+      <c r="AV21">
+        <v>-35.6</v>
+      </c>
+      <c r="AW21">
+        <v>-35.5</v>
+      </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A22" s="16">
@@ -9311,8 +9647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFE5A94-8276-425C-8C4C-F53ED14714E0}">
   <dimension ref="A1:AW79"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10860,7 +11196,7 @@
         <v>-25.9</v>
       </c>
       <c r="W11">
-        <v>-26.8</v>
+        <v>-24.1</v>
       </c>
       <c r="X11">
         <v>-28.5</v>
@@ -12285,6 +12621,150 @@
     <row r="21" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A21" s="16">
         <v>45668</v>
+      </c>
+      <c r="B21">
+        <v>-22.1</v>
+      </c>
+      <c r="C21">
+        <v>-23.4</v>
+      </c>
+      <c r="D21">
+        <v>-20.7</v>
+      </c>
+      <c r="E21">
+        <v>-21.5</v>
+      </c>
+      <c r="F21">
+        <v>-21.6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21">
+        <v>-21.2</v>
+      </c>
+      <c r="I21">
+        <v>-22.5</v>
+      </c>
+      <c r="J21">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="K21">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="L21">
+        <v>-20.6</v>
+      </c>
+      <c r="M21">
+        <v>-15.2</v>
+      </c>
+      <c r="N21">
+        <v>-17.2</v>
+      </c>
+      <c r="O21">
+        <v>-22.9</v>
+      </c>
+      <c r="P21">
+        <v>-11.4</v>
+      </c>
+      <c r="Q21">
+        <v>-17.3</v>
+      </c>
+      <c r="R21">
+        <v>-15.8</v>
+      </c>
+      <c r="S21">
+        <v>-22.3</v>
+      </c>
+      <c r="T21">
+        <v>-26.4</v>
+      </c>
+      <c r="U21">
+        <v>-18.3</v>
+      </c>
+      <c r="V21">
+        <v>-21.1</v>
+      </c>
+      <c r="W21">
+        <v>-16</v>
+      </c>
+      <c r="X21">
+        <v>-21.9</v>
+      </c>
+      <c r="Y21">
+        <v>-15.9</v>
+      </c>
+      <c r="Z21">
+        <v>-17.8</v>
+      </c>
+      <c r="AA21">
+        <v>-19</v>
+      </c>
+      <c r="AB21">
+        <v>-18.2</v>
+      </c>
+      <c r="AC21">
+        <v>-7.2</v>
+      </c>
+      <c r="AD21">
+        <v>-7.8</v>
+      </c>
+      <c r="AE21">
+        <v>-26.4</v>
+      </c>
+      <c r="AF21">
+        <v>-5</v>
+      </c>
+      <c r="AG21">
+        <v>12.3</v>
+      </c>
+      <c r="AH21">
+        <v>0.3</v>
+      </c>
+      <c r="AI21">
+        <v>-10.3</v>
+      </c>
+      <c r="AJ21">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AK21">
+        <v>-16.5</v>
+      </c>
+      <c r="AL21">
+        <v>-5.5</v>
+      </c>
+      <c r="AM21">
+        <v>-5.5</v>
+      </c>
+      <c r="AN21">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="AO21">
+        <v>-22.5</v>
+      </c>
+      <c r="AP21">
+        <v>-15.5</v>
+      </c>
+      <c r="AQ21">
+        <v>-9</v>
+      </c>
+      <c r="AR21">
+        <v>-3.1</v>
+      </c>
+      <c r="AS21">
+        <v>-11.4</v>
+      </c>
+      <c r="AT21">
+        <v>-1.4</v>
+      </c>
+      <c r="AU21">
+        <v>0.5</v>
+      </c>
+      <c r="AV21">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="AW21">
+        <v>-27.6</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.4">

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0590F5AD-F04D-4C35-B062-1E522991A5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6D9904-249F-4D75-92FC-4FBE841626B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="258">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2819,7 +2819,7 @@
   <dimension ref="A1:BI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2889,10 +2889,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="4">
-        <v>-23.6</v>
+        <v>-39.1</v>
       </c>
       <c r="H2" s="4">
-        <v>-22.1</v>
+        <v>-30.5</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
@@ -2911,148 +2911,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>-23.6</v>
+        <v>-39.1</v>
       </c>
       <c r="O2">
-        <v>-32.9</v>
+        <v>-26.4</v>
       </c>
       <c r="P2">
-        <v>-32.9</v>
+        <v>-35.9</v>
       </c>
       <c r="Q2">
-        <v>-30.8</v>
+        <v>-40.4</v>
       </c>
       <c r="R2">
-        <v>-27.2</v>
+        <v>-39.1</v>
       </c>
       <c r="S2" t="str">
         <v>无</v>
       </c>
       <c r="T2">
-        <v>-33.700000000000003</v>
+        <v>-24.5</v>
       </c>
       <c r="U2">
-        <v>-31.1</v>
+        <v>-25.5</v>
       </c>
       <c r="V2">
-        <v>-28.9</v>
+        <v>-28.6</v>
       </c>
       <c r="W2">
-        <v>-35.6</v>
+        <v>-33.5</v>
       </c>
       <c r="X2">
-        <v>-31.7</v>
+        <v>-34.4</v>
       </c>
       <c r="Y2">
-        <v>-33.1</v>
+        <v>-37.700000000000003</v>
       </c>
       <c r="Z2">
-        <v>-35.1</v>
+        <v>-36</v>
       </c>
       <c r="AA2">
+        <v>-36.1</v>
+      </c>
+      <c r="AB2">
+        <v>-25.8</v>
+      </c>
+      <c r="AC2">
+        <v>-29.8</v>
+      </c>
+      <c r="AD2">
+        <v>-29.4</v>
+      </c>
+      <c r="AE2">
+        <v>-36</v>
+      </c>
+      <c r="AF2">
         <v>-35.299999999999997</v>
       </c>
-      <c r="AB2">
-        <v>-30.8</v>
-      </c>
-      <c r="AC2">
-        <v>-21</v>
-      </c>
-      <c r="AD2">
+      <c r="AG2">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="AH2">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="AI2">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="AJ2">
+        <v>-32.4</v>
+      </c>
+      <c r="AK2">
+        <v>-23.1</v>
+      </c>
+      <c r="AL2">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="AM2">
+        <v>-34.4</v>
+      </c>
+      <c r="AN2">
+        <v>-26.7</v>
+      </c>
+      <c r="AO2">
         <v>-22.8</v>
       </c>
-      <c r="AE2">
-        <v>-26</v>
-      </c>
-      <c r="AF2">
-        <v>-36</v>
-      </c>
-      <c r="AG2">
-        <v>-24.8</v>
-      </c>
-      <c r="AH2">
-        <v>-33.6</v>
-      </c>
-      <c r="AI2">
-        <v>-30.8</v>
-      </c>
-      <c r="AJ2">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="AK2">
-        <v>-24.4</v>
-      </c>
-      <c r="AL2">
-        <v>-36.6</v>
-      </c>
-      <c r="AM2">
-        <v>-37.799999999999997</v>
-      </c>
-      <c r="AN2">
-        <v>-29.5</v>
-      </c>
-      <c r="AO2">
-        <v>-18</v>
-      </c>
       <c r="AP2">
-        <v>-17</v>
+        <v>-11.2</v>
       </c>
       <c r="AQ2">
-        <v>-34.6</v>
+        <v>-37.4</v>
       </c>
       <c r="AR2">
-        <v>-15.1</v>
+        <v>-12.8</v>
       </c>
       <c r="AS2">
         <v>-2.4</v>
       </c>
       <c r="AT2">
-        <v>-11</v>
+        <v>-13.2</v>
       </c>
       <c r="AU2">
-        <v>-26.1</v>
+        <v>-17.2</v>
       </c>
       <c r="AV2">
-        <v>-26.5</v>
+        <v>-21.8</v>
       </c>
       <c r="AW2">
-        <v>-19.3</v>
+        <v>-24</v>
       </c>
       <c r="AX2">
-        <v>-25.7</v>
+        <v>-23.2</v>
       </c>
       <c r="AY2">
-        <v>-18.600000000000001</v>
+        <v>-14</v>
       </c>
       <c r="AZ2">
-        <v>-33.799999999999997</v>
+        <v>-30.8</v>
       </c>
       <c r="BA2">
-        <v>-34</v>
+        <v>-35.6</v>
       </c>
       <c r="BB2">
-        <v>-31.8</v>
+        <v>-27.8</v>
       </c>
       <c r="BC2">
-        <v>-35.9</v>
+        <v>-27</v>
       </c>
       <c r="BD2">
-        <v>-22.3</v>
+        <v>-13.2</v>
       </c>
       <c r="BE2">
-        <v>-23.4</v>
+        <v>-25.8</v>
       </c>
       <c r="BF2">
-        <v>-17.2</v>
+        <v>-13.4</v>
       </c>
       <c r="BG2">
-        <v>-14.2</v>
+        <v>-10.4</v>
       </c>
       <c r="BH2">
-        <v>-35.6</v>
+        <v>-30.3</v>
       </c>
       <c r="BI2">
-        <v>-35.5</v>
+        <v>-33.299999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3073,10 +3073,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>-32.9</v>
+        <v>-26.4</v>
       </c>
       <c r="H3" s="4">
-        <v>-23.4</v>
+        <v>-18.7</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>38</v>
@@ -3095,148 +3095,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>-22.1</v>
+        <v>-30.5</v>
       </c>
       <c r="O3">
-        <v>-23.4</v>
+        <v>-18.7</v>
       </c>
       <c r="P3">
-        <v>-20.7</v>
+        <v>-14.9</v>
       </c>
       <c r="Q3">
-        <v>-21.5</v>
+        <v>-25.8</v>
       </c>
       <c r="R3">
-        <v>-21.6</v>
+        <v>-26.6</v>
       </c>
       <c r="S3" t="str">
         <v>无</v>
       </c>
       <c r="T3">
+        <v>-12.6</v>
+      </c>
+      <c r="U3">
+        <v>-11.7</v>
+      </c>
+      <c r="V3">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="W3">
+        <v>-20.2</v>
+      </c>
+      <c r="X3">
+        <v>-25.1</v>
+      </c>
+      <c r="Y3">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>-19.5</v>
+      </c>
+      <c r="AA3">
+        <v>-25.9</v>
+      </c>
+      <c r="AB3">
+        <v>-9.1</v>
+      </c>
+      <c r="AC3">
+        <v>-22.8</v>
+      </c>
+      <c r="AD3">
+        <v>-19</v>
+      </c>
+      <c r="AE3">
+        <v>-20</v>
+      </c>
+      <c r="AF3">
+        <v>-24.1</v>
+      </c>
+      <c r="AG3">
+        <v>-20.3</v>
+      </c>
+      <c r="AH3">
+        <v>-28.6</v>
+      </c>
+      <c r="AI3">
+        <v>-24.2</v>
+      </c>
+      <c r="AJ3">
         <v>-21.2</v>
       </c>
-      <c r="U3">
-        <v>-22.5</v>
-      </c>
-      <c r="V3">
-        <v>-17.399999999999999</v>
-      </c>
-      <c r="W3">
-        <v>-20.399999999999999</v>
-      </c>
-      <c r="X3">
-        <v>-20.6</v>
-      </c>
-      <c r="Y3">
-        <v>-15.2</v>
-      </c>
-      <c r="Z3">
+      <c r="AK3">
+        <v>-11.9</v>
+      </c>
+      <c r="AL3">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="AM3">
+        <v>-17.8</v>
+      </c>
+      <c r="AN3">
+        <v>-19.7</v>
+      </c>
+      <c r="AO3">
+        <v>-11.7</v>
+      </c>
+      <c r="AP3">
+        <v>-4.2</v>
+      </c>
+      <c r="AQ3">
+        <v>-25.9</v>
+      </c>
+      <c r="AR3">
+        <v>-4</v>
+      </c>
+      <c r="AS3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AT3">
+        <v>-7.4</v>
+      </c>
+      <c r="AU3">
+        <v>-9</v>
+      </c>
+      <c r="AV3">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="AW3">
+        <v>-6.7</v>
+      </c>
+      <c r="AX3">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AY3">
+        <v>-4</v>
+      </c>
+      <c r="AZ3">
+        <v>-16.2</v>
+      </c>
+      <c r="BA3">
+        <v>-23.3</v>
+      </c>
+      <c r="BB3">
         <v>-17.2</v>
       </c>
-      <c r="AA3">
-        <v>-22.9</v>
-      </c>
-      <c r="AB3">
-        <v>-11.4</v>
-      </c>
-      <c r="AC3">
-        <v>-17.3</v>
-      </c>
-      <c r="AD3">
-        <v>-15.8</v>
-      </c>
-      <c r="AE3">
-        <v>-22.3</v>
-      </c>
-      <c r="AF3">
-        <v>-26.4</v>
-      </c>
-      <c r="AG3">
-        <v>-18.3</v>
-      </c>
-      <c r="AH3">
-        <v>-21.1</v>
-      </c>
-      <c r="AI3">
-        <v>-16</v>
-      </c>
-      <c r="AJ3">
-        <v>-21.9</v>
-      </c>
-      <c r="AK3">
-        <v>-15.9</v>
-      </c>
-      <c r="AL3">
-        <v>-17.8</v>
-      </c>
-      <c r="AM3">
-        <v>-19</v>
-      </c>
-      <c r="AN3">
+      <c r="BC3">
+        <v>-6.4</v>
+      </c>
+      <c r="BD3">
+        <v>-7.2</v>
+      </c>
+      <c r="BE3">
+        <v>-12.3</v>
+      </c>
+      <c r="BF3">
+        <v>-0.6</v>
+      </c>
+      <c r="BG3">
+        <v>0.3</v>
+      </c>
+      <c r="BH3">
         <v>-18.2</v>
       </c>
-      <c r="AO3">
-        <v>-7.2</v>
-      </c>
-      <c r="AP3">
-        <v>-7.8</v>
-      </c>
-      <c r="AQ3">
-        <v>-25</v>
-      </c>
-      <c r="AR3">
-        <v>-5</v>
-      </c>
-      <c r="AS3">
-        <v>12.3</v>
-      </c>
-      <c r="AT3">
-        <v>0.3</v>
-      </c>
-      <c r="AU3">
-        <v>-10.3</v>
-      </c>
-      <c r="AV3">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="AW3">
-        <v>-16.5</v>
-      </c>
-      <c r="AX3">
-        <v>-5.5</v>
-      </c>
-      <c r="AY3">
-        <v>-5.5</v>
-      </c>
-      <c r="AZ3">
-        <v>-19.100000000000001</v>
-      </c>
-      <c r="BA3">
-        <v>-22.5</v>
-      </c>
-      <c r="BB3">
-        <v>-15.5</v>
-      </c>
-      <c r="BC3">
-        <v>-9</v>
-      </c>
-      <c r="BD3">
-        <v>-3.1</v>
-      </c>
-      <c r="BE3">
-        <v>-11.4</v>
-      </c>
-      <c r="BF3">
-        <v>-1.4</v>
-      </c>
-      <c r="BG3">
-        <v>0.5</v>
-      </c>
-      <c r="BH3">
-        <v>-19.100000000000001</v>
-      </c>
       <c r="BI3">
-        <v>-27.6</v>
+        <v>-23.3</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3257,10 +3257,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>-32.9</v>
+        <v>-35.9</v>
       </c>
       <c r="H4" s="4">
-        <v>-20.7</v>
+        <v>-14.9</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>117</v>
@@ -3293,10 +3293,10 @@
         <v>110</v>
       </c>
       <c r="G5" s="4">
-        <v>-30.8</v>
+        <v>-40.4</v>
       </c>
       <c r="H5" s="4">
-        <v>-21.5</v>
+        <v>-25.8</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
@@ -3338,10 +3338,10 @@
         <v>179</v>
       </c>
       <c r="G6" s="4">
-        <v>-27.2</v>
+        <v>-39.1</v>
       </c>
       <c r="H6" s="4">
-        <v>-21.6</v>
+        <v>-26.6</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>115</v>
@@ -3428,10 +3428,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>-33.700000000000003</v>
+        <v>-24.5</v>
       </c>
       <c r="H8" s="4">
-        <v>-21.2</v>
+        <v>-12.6</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>120</v>
@@ -3471,10 +3471,10 @@
         <v>95</v>
       </c>
       <c r="G9" s="4">
-        <v>-31.1</v>
+        <v>-25.5</v>
       </c>
       <c r="H9" s="4">
-        <v>-22.5</v>
+        <v>-11.7</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>119</v>
@@ -3505,10 +3505,10 @@
         <v>102</v>
       </c>
       <c r="G10" s="4">
-        <v>-28.9</v>
+        <v>-28.6</v>
       </c>
       <c r="H10" s="4">
-        <v>-17.399999999999999</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>100</v>
@@ -3539,10 +3539,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="4">
-        <v>-35.6</v>
+        <v>-33.5</v>
       </c>
       <c r="H11" s="4">
-        <v>-20.399999999999999</v>
+        <v>-20.2</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>54</v>
@@ -3573,10 +3573,10 @@
         <v>87</v>
       </c>
       <c r="G12" s="4">
-        <v>-31.7</v>
+        <v>-34.4</v>
       </c>
       <c r="H12" s="4">
-        <v>-20.6</v>
+        <v>-25.1</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>28</v>
@@ -3607,10 +3607,10 @@
         <v>89</v>
       </c>
       <c r="G13" s="4">
-        <v>-33.1</v>
+        <v>-37.700000000000003</v>
       </c>
       <c r="H13" s="4">
-        <v>-15.2</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
@@ -3641,10 +3641,10 @@
         <v>27</v>
       </c>
       <c r="G14" s="4">
-        <v>-35.1</v>
+        <v>-36</v>
       </c>
       <c r="H14" s="4">
-        <v>-17.2</v>
+        <v>-19.5</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
@@ -3675,10 +3675,10 @@
         <v>180</v>
       </c>
       <c r="G15" s="4">
-        <v>-35.299999999999997</v>
+        <v>-36.1</v>
       </c>
       <c r="H15" s="4">
-        <v>-22.9</v>
+        <v>-25.9</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
@@ -3709,10 +3709,10 @@
         <v>99</v>
       </c>
       <c r="G16" s="4">
-        <v>-30.8</v>
+        <v>-25.8</v>
       </c>
       <c r="H16" s="4">
-        <v>-11.4</v>
+        <v>-9.1</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>96</v>
@@ -3743,10 +3743,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="4">
-        <v>-21</v>
+        <v>-29.8</v>
       </c>
       <c r="H17" s="4">
-        <v>-17.3</v>
+        <v>-22.8</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>161</v>
@@ -3777,10 +3777,10 @@
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>-22.8</v>
+        <v>-29.4</v>
       </c>
       <c r="H18" s="4">
-        <v>-15.8</v>
+        <v>-19</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
@@ -3811,10 +3811,10 @@
         <v>108</v>
       </c>
       <c r="G19" s="4">
-        <v>-26</v>
+        <v>-36</v>
       </c>
       <c r="H19" s="4">
-        <v>-22.3</v>
+        <v>-20</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>114</v>
@@ -3845,10 +3845,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="4">
-        <v>-36</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="H20" s="4">
-        <v>-26.4</v>
+        <v>-24.1</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
@@ -3879,10 +3879,10 @@
         <v>106</v>
       </c>
       <c r="G21" s="4">
-        <v>-24.8</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="H21" s="4">
-        <v>-18.3</v>
+        <v>-20.3</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>115</v>
@@ -3913,10 +3913,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="4">
-        <v>-33.6</v>
+        <v>-40.799999999999997</v>
       </c>
       <c r="H22" s="4">
-        <v>-21.1</v>
+        <v>-28.6</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>40</v>
@@ -3949,10 +3949,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="4">
-        <v>-30.8</v>
+        <v>-36.700000000000003</v>
       </c>
       <c r="H23" s="4">
-        <v>-16</v>
+        <v>-24.2</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
@@ -3985,10 +3985,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="4">
-        <v>-32.299999999999997</v>
+        <v>-32.4</v>
       </c>
       <c r="H24" s="4">
-        <v>-21.9</v>
+        <v>-21.2</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -4019,10 +4019,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="4">
-        <v>-24.4</v>
+        <v>-23.1</v>
       </c>
       <c r="H25" s="4">
-        <v>-15.9</v>
+        <v>-11.9</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -4055,10 +4055,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>-36.6</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="H26" s="4">
-        <v>-17.8</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -4089,10 +4089,10 @@
         <v>181</v>
       </c>
       <c r="G27" s="4">
-        <v>-37.799999999999997</v>
+        <v>-34.4</v>
       </c>
       <c r="H27" s="4">
-        <v>-19</v>
+        <v>-17.8</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
@@ -4123,10 +4123,10 @@
         <v>77</v>
       </c>
       <c r="G28" s="4">
-        <v>-29.5</v>
+        <v>-26.7</v>
       </c>
       <c r="H28" s="4">
-        <v>-18.2</v>
+        <v>-19.7</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
@@ -4159,10 +4159,10 @@
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <v>-18</v>
+        <v>-22.8</v>
       </c>
       <c r="H29" s="4">
-        <v>-7.2</v>
+        <v>-11.7</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -4193,10 +4193,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>-17</v>
+        <v>-11.2</v>
       </c>
       <c r="H30" s="4">
-        <v>-7.8</v>
+        <v>-4.2</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
@@ -4229,10 +4229,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="4">
-        <v>-34.6</v>
+        <v>-37.4</v>
       </c>
       <c r="H31" s="4">
-        <v>-25</v>
+        <v>-25.9</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
@@ -4263,10 +4263,10 @@
         <v>66</v>
       </c>
       <c r="G32" s="4">
-        <v>-15.1</v>
+        <v>-12.8</v>
       </c>
       <c r="H32" s="4">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
@@ -4300,7 +4300,7 @@
         <v>-2.4</v>
       </c>
       <c r="H33" s="4">
-        <v>12.3</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>250</v>
@@ -4331,10 +4331,10 @@
         <v>59</v>
       </c>
       <c r="G34" s="4">
-        <v>-11</v>
+        <v>-13.2</v>
       </c>
       <c r="H34" s="4">
-        <v>0.3</v>
+        <v>-7.4</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
@@ -4365,10 +4365,10 @@
         <v>56</v>
       </c>
       <c r="G35" s="4">
-        <v>-26.1</v>
+        <v>-17.2</v>
       </c>
       <c r="H35" s="4">
-        <v>-10.3</v>
+        <v>-9</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
@@ -4399,10 +4399,10 @@
         <v>46</v>
       </c>
       <c r="G36" s="4">
-        <v>-26.5</v>
+        <v>-21.8</v>
       </c>
       <c r="H36" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>47</v>
@@ -4435,10 +4435,10 @@
         <v>49</v>
       </c>
       <c r="G37" s="4">
-        <v>-19.3</v>
+        <v>-24</v>
       </c>
       <c r="H37" s="4">
-        <v>-16.5</v>
+        <v>-6.7</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>45</v>
@@ -4471,10 +4471,10 @@
         <v>51</v>
       </c>
       <c r="G38" s="4">
-        <v>-25.7</v>
+        <v>-23.2</v>
       </c>
       <c r="H38" s="4">
-        <v>-5.5</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
@@ -4505,10 +4505,10 @@
         <v>58</v>
       </c>
       <c r="G39" s="4">
-        <v>-18.600000000000001</v>
+        <v>-14</v>
       </c>
       <c r="H39" s="4">
-        <v>-5.5</v>
+        <v>-4</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
@@ -4539,10 +4539,10 @@
         <v>44</v>
       </c>
       <c r="G40" s="4">
-        <v>-33.799999999999997</v>
+        <v>-30.8</v>
       </c>
       <c r="H40" s="4">
-        <v>-19.100000000000001</v>
+        <v>-16.2</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>43</v>
@@ -4573,10 +4573,10 @@
         <v>74</v>
       </c>
       <c r="G41" s="4">
-        <v>-34</v>
+        <v>-35.6</v>
       </c>
       <c r="H41" s="4">
-        <v>-22.5</v>
+        <v>-23.3</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
@@ -4607,10 +4607,10 @@
         <v>72</v>
       </c>
       <c r="G42" s="4">
-        <v>-31.8</v>
+        <v>-27.8</v>
       </c>
       <c r="H42" s="4">
-        <v>-15.5</v>
+        <v>-17.2</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>2</v>
@@ -4641,10 +4641,10 @@
         <v>62</v>
       </c>
       <c r="G43" s="4">
-        <v>-35.9</v>
+        <v>-27</v>
       </c>
       <c r="H43" s="4">
-        <v>-9</v>
+        <v>-6.4</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
@@ -4675,10 +4675,10 @@
         <v>64</v>
       </c>
       <c r="G44" s="4">
-        <v>-22.3</v>
+        <v>-13.2</v>
       </c>
       <c r="H44" s="4">
-        <v>-3.1</v>
+        <v>-7.2</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>65</v>
@@ -4709,10 +4709,10 @@
         <v>79</v>
       </c>
       <c r="G45" s="4">
-        <v>-23.4</v>
+        <v>-25.8</v>
       </c>
       <c r="H45" s="4">
-        <v>-11.4</v>
+        <v>-12.3</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>22</v>
@@ -4743,10 +4743,10 @@
         <v>81</v>
       </c>
       <c r="G46" s="4">
-        <v>-17.2</v>
+        <v>-13.4</v>
       </c>
       <c r="H46" s="4">
-        <v>-1.4</v>
+        <v>-0.6</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
@@ -4777,10 +4777,10 @@
         <v>83</v>
       </c>
       <c r="G47" s="4">
-        <v>-14.2</v>
+        <v>-10.4</v>
       </c>
       <c r="H47" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>21</v>
@@ -4813,10 +4813,10 @@
         <v>68</v>
       </c>
       <c r="G48" s="4">
-        <v>-35.6</v>
+        <v>-30.3</v>
       </c>
       <c r="H48" s="4">
-        <v>-19.100000000000001</v>
+        <v>-18.2</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -4847,10 +4847,10 @@
         <v>70</v>
       </c>
       <c r="G49" s="4">
-        <v>-35.5</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="H49" s="4">
-        <v>-27.6</v>
+        <v>-23.3</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>2</v>
@@ -4878,7 +4878,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4901,7 +4901,7 @@
         <v>254</v>
       </c>
       <c r="F1" s="61">
-        <v>45668</v>
+        <v>45670</v>
       </c>
       <c r="G1" s="62"/>
       <c r="H1" s="59" t="s">
@@ -4983,10 +4983,10 @@
         <v>109</v>
       </c>
       <c r="G4" s="36">
-        <v>-23.6</v>
+        <v>-39.1</v>
       </c>
       <c r="H4" s="36">
-        <v>-22.1</v>
+        <v>-30.5</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>175</v>
@@ -5017,10 +5017,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="36">
-        <v>-32.9</v>
+        <v>-26.4</v>
       </c>
       <c r="H5" s="36">
-        <v>-23.4</v>
+        <v>-18.7</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>155</v>
@@ -5042,10 +5042,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="36">
-        <v>-32.9</v>
+        <v>-35.9</v>
       </c>
       <c r="H6" s="36">
-        <v>-20.7</v>
+        <v>-14.9</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>230</v>
@@ -5067,10 +5067,10 @@
         <v>109</v>
       </c>
       <c r="G7" s="36">
-        <v>-30.8</v>
+        <v>-40.4</v>
       </c>
       <c r="H7" s="36">
-        <v>-21.5</v>
+        <v>-25.8</v>
       </c>
       <c r="I7" s="34" t="s">
         <v>111</v>
@@ -5092,10 +5092,10 @@
         <v>184</v>
       </c>
       <c r="G8" s="36">
-        <v>-27.2</v>
+        <v>-39.1</v>
       </c>
       <c r="H8" s="36">
-        <v>-21.6</v>
+        <v>-26.6</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>172</v>
@@ -5142,10 +5142,10 @@
         <v>7</v>
       </c>
       <c r="G10" s="36">
-        <v>-33.700000000000003</v>
+        <v>-24.5</v>
       </c>
       <c r="H10" s="36">
-        <v>-21.2</v>
+        <v>-12.6</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>245</v>
@@ -5167,10 +5167,10 @@
         <v>94</v>
       </c>
       <c r="G11" s="36">
-        <v>-31.1</v>
+        <v>-25.5</v>
       </c>
       <c r="H11" s="36">
-        <v>-22.5</v>
+        <v>-11.7</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>246</v>
@@ -5192,10 +5192,10 @@
         <v>101</v>
       </c>
       <c r="G12" s="36">
-        <v>-28.9</v>
+        <v>-28.6</v>
       </c>
       <c r="H12" s="36">
-        <v>-17.399999999999999</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>244</v>
@@ -5209,9 +5209,7 @@
       <c r="C13" s="52">
         <v>2</v>
       </c>
-      <c r="D13" s="52">
-        <v>0</v>
-      </c>
+      <c r="D13" s="52"/>
       <c r="E13" s="31" t="s">
         <v>222</v>
       </c>
@@ -5219,10 +5217,10 @@
         <v>135</v>
       </c>
       <c r="G13" s="36">
-        <v>-35.6</v>
+        <v>-33.5</v>
       </c>
       <c r="H13" s="36">
-        <v>-20.399999999999999</v>
+        <v>-20.2</v>
       </c>
       <c r="I13" s="34" t="s">
         <v>158</v>
@@ -5244,10 +5242,10 @@
         <v>86</v>
       </c>
       <c r="G14" s="36">
-        <v>-31.7</v>
+        <v>-34.4</v>
       </c>
       <c r="H14" s="36">
-        <v>-20.6</v>
+        <v>-25.1</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>154</v>
@@ -5261,7 +5259,9 @@
       <c r="C15" s="52">
         <v>2</v>
       </c>
-      <c r="D15" s="52"/>
+      <c r="D15" s="52">
+        <v>0</v>
+      </c>
       <c r="E15" s="27" t="s">
         <v>224</v>
       </c>
@@ -5269,10 +5269,10 @@
         <v>88</v>
       </c>
       <c r="G15" s="36">
-        <v>-33.1</v>
+        <v>-37.700000000000003</v>
       </c>
       <c r="H15" s="36">
-        <v>-15.2</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>154</v>
@@ -5294,10 +5294,10 @@
         <v>136</v>
       </c>
       <c r="G16" s="36">
-        <v>-35.1</v>
+        <v>-36</v>
       </c>
       <c r="H16" s="36">
-        <v>-17.2</v>
+        <v>-19.5</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>154</v>
@@ -5319,10 +5319,10 @@
         <v>182</v>
       </c>
       <c r="G17" s="36">
-        <v>-35.299999999999997</v>
+        <v>-36.1</v>
       </c>
       <c r="H17" s="36">
-        <v>-22.9</v>
+        <v>-25.9</v>
       </c>
       <c r="I17" s="34" t="s">
         <v>242</v>
@@ -5344,10 +5344,10 @@
         <v>98</v>
       </c>
       <c r="G18" s="36">
-        <v>-30.8</v>
+        <v>-25.8</v>
       </c>
       <c r="H18" s="36">
-        <v>-11.4</v>
+        <v>-9.1</v>
       </c>
       <c r="I18" s="34" t="s">
         <v>32</v>
@@ -5369,10 +5369,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="36">
-        <v>-21</v>
+        <v>-29.8</v>
       </c>
       <c r="H19" s="36">
-        <v>-17.3</v>
+        <v>-22.8</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>243</v>
@@ -5394,10 +5394,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="36">
-        <v>-22.8</v>
+        <v>-29.4</v>
       </c>
       <c r="H20" s="36">
-        <v>-15.8</v>
+        <v>-19</v>
       </c>
       <c r="I20" s="34" t="s">
         <v>241</v>
@@ -5419,10 +5419,10 @@
         <v>107</v>
       </c>
       <c r="G21" s="36">
-        <v>-26</v>
+        <v>-36</v>
       </c>
       <c r="H21" s="36">
-        <v>-22.3</v>
+        <v>-20</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>175</v>
@@ -5436,9 +5436,7 @@
       <c r="C22" s="52">
         <v>3</v>
       </c>
-      <c r="D22" s="52">
-        <v>0</v>
-      </c>
+      <c r="D22" s="52"/>
       <c r="E22" s="32" t="s">
         <v>219</v>
       </c>
@@ -5446,10 +5444,10 @@
         <v>9</v>
       </c>
       <c r="G22" s="36">
-        <v>-36</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="H22" s="36">
-        <v>-26.4</v>
+        <v>-24.1</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>231</v>
@@ -5471,10 +5469,10 @@
         <v>105</v>
       </c>
       <c r="G23" s="36">
-        <v>-24.8</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="H23" s="36">
-        <v>-18.3</v>
+        <v>-20.3</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>172</v>
@@ -5488,7 +5486,9 @@
       <c r="C24" s="52">
         <v>3</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="52">
+        <v>0</v>
+      </c>
       <c r="E24" s="32" t="s">
         <v>217</v>
       </c>
@@ -5496,10 +5496,10 @@
         <v>12</v>
       </c>
       <c r="G24" s="36">
-        <v>-33.6</v>
+        <v>-40.799999999999997</v>
       </c>
       <c r="H24" s="36">
-        <v>-21.1</v>
+        <v>-28.6</v>
       </c>
       <c r="I24" s="34" t="s">
         <v>111</v>
@@ -5521,10 +5521,10 @@
         <v>13</v>
       </c>
       <c r="G25" s="36">
-        <v>-30.8</v>
+        <v>-36.700000000000003</v>
       </c>
       <c r="H25" s="36">
-        <v>-16</v>
+        <v>-24.2</v>
       </c>
       <c r="I25" s="34" t="s">
         <v>151</v>
@@ -5546,10 +5546,10 @@
         <v>10</v>
       </c>
       <c r="G26" s="36">
-        <v>-32.299999999999997</v>
+        <v>-32.4</v>
       </c>
       <c r="H26" s="36">
-        <v>-21.9</v>
+        <v>-21.2</v>
       </c>
       <c r="I26" s="34" t="s">
         <v>229</v>
@@ -5571,10 +5571,10 @@
         <v>11</v>
       </c>
       <c r="G27" s="36">
-        <v>-24.4</v>
+        <v>-23.1</v>
       </c>
       <c r="H27" s="36">
-        <v>-15.9</v>
+        <v>-11.9</v>
       </c>
       <c r="I27" s="34" t="s">
         <v>155</v>
@@ -5598,10 +5598,10 @@
         <v>137</v>
       </c>
       <c r="G28" s="36">
-        <v>-36.6</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="H28" s="36">
-        <v>-17.8</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="I28" s="34" t="s">
         <v>234</v>
@@ -5615,9 +5615,7 @@
       <c r="C29" s="52">
         <v>1</v>
       </c>
-      <c r="D29" s="52">
-        <v>0</v>
-      </c>
+      <c r="D29" s="52"/>
       <c r="E29" s="30" t="s">
         <v>215</v>
       </c>
@@ -5625,10 +5623,10 @@
         <v>183</v>
       </c>
       <c r="G29" s="36">
-        <v>-37.799999999999997</v>
+        <v>-34.4</v>
       </c>
       <c r="H29" s="36">
-        <v>-19</v>
+        <v>-17.8</v>
       </c>
       <c r="I29" s="34" t="s">
         <v>232</v>
@@ -5650,10 +5648,10 @@
         <v>76</v>
       </c>
       <c r="G30" s="36">
-        <v>-29.5</v>
+        <v>-26.7</v>
       </c>
       <c r="H30" s="36">
-        <v>-18.2</v>
+        <v>-19.7</v>
       </c>
       <c r="I30" s="34" t="s">
         <v>237</v>
@@ -5677,10 +5675,10 @@
         <v>103</v>
       </c>
       <c r="G31" s="36">
-        <v>-18</v>
+        <v>-22.8</v>
       </c>
       <c r="H31" s="36">
-        <v>-7.2</v>
+        <v>-11.7</v>
       </c>
       <c r="I31" s="34" t="s">
         <v>238</v>
@@ -5702,10 +5700,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="36">
-        <v>-17</v>
+        <v>-11.2</v>
       </c>
       <c r="H32" s="36">
-        <v>-7.8</v>
+        <v>-4.2</v>
       </c>
       <c r="I32" s="34" t="s">
         <v>159</v>
@@ -5729,10 +5727,10 @@
         <v>4</v>
       </c>
       <c r="G33" s="36">
-        <v>-34.6</v>
+        <v>-37.4</v>
       </c>
       <c r="H33" s="36">
-        <v>-25</v>
+        <v>-25.9</v>
       </c>
       <c r="I33" s="34" t="s">
         <v>239</v>
@@ -5754,10 +5752,10 @@
         <v>139</v>
       </c>
       <c r="G34" s="36">
-        <v>-15.1</v>
+        <v>-12.8</v>
       </c>
       <c r="H34" s="36">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="I34" s="34" t="s">
         <v>174</v>
@@ -5784,7 +5782,7 @@
         <v>-2.4</v>
       </c>
       <c r="H35" s="36">
-        <v>12.3</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I35" s="34" t="s">
         <v>250</v>
@@ -5806,10 +5804,10 @@
         <v>140</v>
       </c>
       <c r="G36" s="36">
-        <v>-11</v>
+        <v>-13.2</v>
       </c>
       <c r="H36" s="36">
-        <v>0.3</v>
+        <v>-7.4</v>
       </c>
       <c r="I36" s="34"/>
     </row>
@@ -5831,10 +5829,10 @@
         <v>141</v>
       </c>
       <c r="G37" s="36">
-        <v>-26.1</v>
+        <v>-17.2</v>
       </c>
       <c r="H37" s="36">
-        <v>-10.3</v>
+        <v>-9</v>
       </c>
       <c r="I37" s="34"/>
     </row>
@@ -5856,10 +5854,10 @@
         <v>142</v>
       </c>
       <c r="G38" s="36">
-        <v>-26.5</v>
+        <v>-21.8</v>
       </c>
       <c r="H38" s="36">
-        <v>-9.1999999999999993</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="I38" s="34" t="s">
         <v>173</v>
@@ -5883,10 +5881,10 @@
         <v>143</v>
       </c>
       <c r="G39" s="36">
-        <v>-19.3</v>
+        <v>-24</v>
       </c>
       <c r="H39" s="36">
-        <v>-16.5</v>
+        <v>-6.7</v>
       </c>
       <c r="I39" s="34" t="s">
         <v>240</v>
@@ -5910,10 +5908,10 @@
         <v>144</v>
       </c>
       <c r="G40" s="36">
-        <v>-25.7</v>
+        <v>-23.2</v>
       </c>
       <c r="H40" s="36">
-        <v>-5.5</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="I40" s="34"/>
     </row>
@@ -5935,10 +5933,10 @@
         <v>145</v>
       </c>
       <c r="G41" s="36">
-        <v>-18.600000000000001</v>
+        <v>-14</v>
       </c>
       <c r="H41" s="36">
-        <v>-5.5</v>
+        <v>-4</v>
       </c>
       <c r="I41" s="34"/>
     </row>
@@ -5958,10 +5956,10 @@
         <v>146</v>
       </c>
       <c r="G42" s="36">
-        <v>-33.799999999999997</v>
+        <v>-30.8</v>
       </c>
       <c r="H42" s="36">
-        <v>-19.100000000000001</v>
+        <v>-16.2</v>
       </c>
       <c r="I42" s="34" t="s">
         <v>235</v>
@@ -5975,7 +5973,9 @@
       <c r="C43" s="52">
         <v>1</v>
       </c>
-      <c r="D43" s="52"/>
+      <c r="D43" s="52">
+        <v>0</v>
+      </c>
       <c r="E43" s="30" t="s">
         <v>214</v>
       </c>
@@ -5983,10 +5983,10 @@
         <v>73</v>
       </c>
       <c r="G43" s="36">
-        <v>-34</v>
+        <v>-35.6</v>
       </c>
       <c r="H43" s="36">
-        <v>-22.5</v>
+        <v>-23.3</v>
       </c>
       <c r="I43" s="34" t="s">
         <v>234</v>
@@ -6008,10 +6008,10 @@
         <v>71</v>
       </c>
       <c r="G44" s="36">
-        <v>-31.8</v>
+        <v>-27.8</v>
       </c>
       <c r="H44" s="36">
-        <v>-15.5</v>
+        <v>-17.2</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>157</v>
@@ -6033,10 +6033,10 @@
         <v>147</v>
       </c>
       <c r="G45" s="36">
-        <v>-35.9</v>
+        <v>-27</v>
       </c>
       <c r="H45" s="36">
-        <v>-9</v>
+        <v>-6.4</v>
       </c>
       <c r="I45" s="34" t="s">
         <v>160</v>
@@ -6058,10 +6058,10 @@
         <v>148</v>
       </c>
       <c r="G46" s="36">
-        <v>-22.3</v>
+        <v>-13.2</v>
       </c>
       <c r="H46" s="36">
-        <v>-3.1</v>
+        <v>-7.2</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>160</v>
@@ -6083,10 +6083,10 @@
         <v>78</v>
       </c>
       <c r="G47" s="36">
-        <v>-23.4</v>
+        <v>-25.8</v>
       </c>
       <c r="H47" s="36">
-        <v>-11.4</v>
+        <v>-12.3</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>156</v>
@@ -6108,10 +6108,10 @@
         <v>80</v>
       </c>
       <c r="G48" s="36">
-        <v>-17.2</v>
+        <v>-13.4</v>
       </c>
       <c r="H48" s="36">
-        <v>-1.4</v>
+        <v>-0.6</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>236</v>
@@ -6133,10 +6133,10 @@
         <v>82</v>
       </c>
       <c r="G49" s="36">
-        <v>-14.2</v>
+        <v>-10.4</v>
       </c>
       <c r="H49" s="36">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I49" s="34" t="s">
         <v>159</v>
@@ -6160,10 +6160,10 @@
         <v>67</v>
       </c>
       <c r="G50" s="36">
-        <v>-35.6</v>
+        <v>-30.3</v>
       </c>
       <c r="H50" s="36">
-        <v>-19.100000000000001</v>
+        <v>-18.2</v>
       </c>
       <c r="I50" s="34" t="s">
         <v>157</v>
@@ -6185,10 +6185,10 @@
         <v>69</v>
       </c>
       <c r="G51" s="36">
-        <v>-35.5</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="H51" s="36">
-        <v>-27.6</v>
+        <v>-23.3</v>
       </c>
       <c r="I51" s="34" t="s">
         <v>233</v>
@@ -6248,7 +6248,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -9371,10 +9371,298 @@
       <c r="A22" s="16">
         <v>45669</v>
       </c>
+      <c r="B22">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="C22">
+        <v>-32.9</v>
+      </c>
+      <c r="D22">
+        <v>-28.6</v>
+      </c>
+      <c r="E22">
+        <v>-27.4</v>
+      </c>
+      <c r="F22">
+        <v>-35.6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22">
+        <v>-24.5</v>
+      </c>
+      <c r="I22">
+        <v>-27.5</v>
+      </c>
+      <c r="J22">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="K22">
+        <v>-36.5</v>
+      </c>
+      <c r="L22">
+        <v>-34.1</v>
+      </c>
+      <c r="M22">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="N22">
+        <v>-36.9</v>
+      </c>
+      <c r="O22">
+        <v>-35.9</v>
+      </c>
+      <c r="P22">
+        <v>-26.5</v>
+      </c>
+      <c r="Q22">
+        <v>-22</v>
+      </c>
+      <c r="R22">
+        <v>-30.7</v>
+      </c>
+      <c r="S22">
+        <v>-28.9</v>
+      </c>
+      <c r="T22">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="U22">
+        <v>-33.5</v>
+      </c>
+      <c r="V22">
+        <v>-31.3</v>
+      </c>
+      <c r="W22">
+        <v>-26.6</v>
+      </c>
+      <c r="X22">
+        <v>-24.8</v>
+      </c>
+      <c r="Y22">
+        <v>-22.5</v>
+      </c>
+      <c r="Z22">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="AA22">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="AB22">
+        <v>-30.5</v>
+      </c>
+      <c r="AC22">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="AD22">
+        <v>-13.9</v>
+      </c>
+      <c r="AE22">
+        <v>-37</v>
+      </c>
+      <c r="AF22">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="AG22">
+        <v>-2.1</v>
+      </c>
+      <c r="AH22">
+        <v>-13.7</v>
+      </c>
+      <c r="AI22">
+        <v>-28</v>
+      </c>
+      <c r="AJ22">
+        <v>-26.4</v>
+      </c>
+      <c r="AK22">
+        <v>-25.1</v>
+      </c>
+      <c r="AL22">
+        <v>-24.9</v>
+      </c>
+      <c r="AM22">
+        <v>-24.3</v>
+      </c>
+      <c r="AN22">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="AO22">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="AP22">
+        <v>-30.8</v>
+      </c>
+      <c r="AQ22">
+        <v>-28</v>
+      </c>
+      <c r="AR22">
+        <v>-21</v>
+      </c>
+      <c r="AS22">
+        <v>-12.6</v>
+      </c>
+      <c r="AT22">
+        <v>-13.5</v>
+      </c>
+      <c r="AU22">
+        <v>-10.4</v>
+      </c>
+      <c r="AV22">
+        <v>-36.6</v>
+      </c>
+      <c r="AW22">
+        <v>-37.1</v>
+      </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
         <v>45670</v>
+      </c>
+      <c r="B23">
+        <v>-39.1</v>
+      </c>
+      <c r="C23">
+        <v>-26.4</v>
+      </c>
+      <c r="D23">
+        <v>-35.9</v>
+      </c>
+      <c r="E23">
+        <v>-40.4</v>
+      </c>
+      <c r="F23">
+        <v>-39.1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23">
+        <v>-24.5</v>
+      </c>
+      <c r="I23">
+        <v>-25.5</v>
+      </c>
+      <c r="J23">
+        <v>-28.6</v>
+      </c>
+      <c r="K23">
+        <v>-33.5</v>
+      </c>
+      <c r="L23">
+        <v>-34.4</v>
+      </c>
+      <c r="M23">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="N23">
+        <v>-36</v>
+      </c>
+      <c r="O23">
+        <v>-36.1</v>
+      </c>
+      <c r="P23">
+        <v>-25.8</v>
+      </c>
+      <c r="Q23">
+        <v>-29.8</v>
+      </c>
+      <c r="R23">
+        <v>-29.4</v>
+      </c>
+      <c r="S23">
+        <v>-36</v>
+      </c>
+      <c r="T23">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="U23">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="V23">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="W23">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="X23">
+        <v>-32.4</v>
+      </c>
+      <c r="Y23">
+        <v>-23.1</v>
+      </c>
+      <c r="Z23">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="AA23">
+        <v>-34.4</v>
+      </c>
+      <c r="AB23">
+        <v>-26.7</v>
+      </c>
+      <c r="AC23">
+        <v>-22.8</v>
+      </c>
+      <c r="AD23">
+        <v>-11.2</v>
+      </c>
+      <c r="AE23">
+        <v>-37.4</v>
+      </c>
+      <c r="AF23">
+        <v>-12.8</v>
+      </c>
+      <c r="AG23">
+        <v>-2.4</v>
+      </c>
+      <c r="AH23">
+        <v>-13.2</v>
+      </c>
+      <c r="AI23">
+        <v>-17.2</v>
+      </c>
+      <c r="AJ23">
+        <v>-21.8</v>
+      </c>
+      <c r="AK23">
+        <v>-24</v>
+      </c>
+      <c r="AL23">
+        <v>-23.2</v>
+      </c>
+      <c r="AM23">
+        <v>-14</v>
+      </c>
+      <c r="AN23">
+        <v>-30.8</v>
+      </c>
+      <c r="AO23">
+        <v>-35.6</v>
+      </c>
+      <c r="AP23">
+        <v>-27.8</v>
+      </c>
+      <c r="AQ23">
+        <v>-27</v>
+      </c>
+      <c r="AR23">
+        <v>-13.2</v>
+      </c>
+      <c r="AS23">
+        <v>-25.8</v>
+      </c>
+      <c r="AT23">
+        <v>-13.4</v>
+      </c>
+      <c r="AU23">
+        <v>-10.4</v>
+      </c>
+      <c r="AV23">
+        <v>-30.3</v>
+      </c>
+      <c r="AW23">
+        <v>-33.299999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.4">
@@ -9648,7 +9936,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -12771,10 +13059,298 @@
       <c r="A22" s="16">
         <v>45669</v>
       </c>
+      <c r="B22">
+        <v>-22.1</v>
+      </c>
+      <c r="C22">
+        <v>-20.7</v>
+      </c>
+      <c r="D22">
+        <v>-14.4</v>
+      </c>
+      <c r="E22">
+        <v>-18.5</v>
+      </c>
+      <c r="F22">
+        <v>-22.2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22">
+        <v>-19.8</v>
+      </c>
+      <c r="I22">
+        <v>-20.5</v>
+      </c>
+      <c r="J22">
+        <v>-21.4</v>
+      </c>
+      <c r="K22">
+        <v>-21.4</v>
+      </c>
+      <c r="L22">
+        <v>-22.7</v>
+      </c>
+      <c r="M22">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="N22">
+        <v>-17.5</v>
+      </c>
+      <c r="O22">
+        <v>-24</v>
+      </c>
+      <c r="P22">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="Q22">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="R22">
+        <v>-9</v>
+      </c>
+      <c r="S22">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="T22">
+        <v>-26.1</v>
+      </c>
+      <c r="U22">
+        <v>-21.1</v>
+      </c>
+      <c r="V22">
+        <v>-16.7</v>
+      </c>
+      <c r="W22">
+        <v>-13.2</v>
+      </c>
+      <c r="X22">
+        <v>-15.8</v>
+      </c>
+      <c r="Y22">
+        <v>-14.1</v>
+      </c>
+      <c r="Z22">
+        <v>-19.8</v>
+      </c>
+      <c r="AA22">
+        <v>-19.5</v>
+      </c>
+      <c r="AB22">
+        <v>-20.3</v>
+      </c>
+      <c r="AC22">
+        <v>-8.9</v>
+      </c>
+      <c r="AD22">
+        <v>-2.7</v>
+      </c>
+      <c r="AE22">
+        <v>-26.6</v>
+      </c>
+      <c r="AF22">
+        <v>-7.6</v>
+      </c>
+      <c r="AG22">
+        <v>12.4</v>
+      </c>
+      <c r="AH22">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AI22">
+        <v>-9.6</v>
+      </c>
+      <c r="AJ22">
+        <v>-9</v>
+      </c>
+      <c r="AK22">
+        <v>-6.7</v>
+      </c>
+      <c r="AL22">
+        <v>-4.7</v>
+      </c>
+      <c r="AM22">
+        <v>-5.3</v>
+      </c>
+      <c r="AN22">
+        <v>-18</v>
+      </c>
+      <c r="AO22">
+        <v>-25.2</v>
+      </c>
+      <c r="AP22">
+        <v>-13.9</v>
+      </c>
+      <c r="AQ22">
+        <v>-4.3</v>
+      </c>
+      <c r="AR22">
+        <v>-3.2</v>
+      </c>
+      <c r="AS22">
+        <v>-6.9</v>
+      </c>
+      <c r="AT22">
+        <v>0.9</v>
+      </c>
+      <c r="AU22">
+        <v>-0.3</v>
+      </c>
+      <c r="AV22">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="AW22">
+        <v>-28.5</v>
+      </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
         <v>45670</v>
+      </c>
+      <c r="B23">
+        <v>-30.5</v>
+      </c>
+      <c r="C23">
+        <v>-18.7</v>
+      </c>
+      <c r="D23">
+        <v>-14.9</v>
+      </c>
+      <c r="E23">
+        <v>-25.8</v>
+      </c>
+      <c r="F23">
+        <v>-26.6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23">
+        <v>-12.6</v>
+      </c>
+      <c r="I23">
+        <v>-11.7</v>
+      </c>
+      <c r="J23">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="K23">
+        <v>-20.2</v>
+      </c>
+      <c r="L23">
+        <v>-25.1</v>
+      </c>
+      <c r="M23">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="N23">
+        <v>-19.5</v>
+      </c>
+      <c r="O23">
+        <v>-25.9</v>
+      </c>
+      <c r="P23">
+        <v>-9.1</v>
+      </c>
+      <c r="Q23">
+        <v>-22.8</v>
+      </c>
+      <c r="R23">
+        <v>-19</v>
+      </c>
+      <c r="S23">
+        <v>-20</v>
+      </c>
+      <c r="T23">
+        <v>-24.1</v>
+      </c>
+      <c r="U23">
+        <v>-20.3</v>
+      </c>
+      <c r="V23">
+        <v>-28.6</v>
+      </c>
+      <c r="W23">
+        <v>-24.2</v>
+      </c>
+      <c r="X23">
+        <v>-21.2</v>
+      </c>
+      <c r="Y23">
+        <v>-11.9</v>
+      </c>
+      <c r="Z23">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="AA23">
+        <v>-17.8</v>
+      </c>
+      <c r="AB23">
+        <v>-19.7</v>
+      </c>
+      <c r="AC23">
+        <v>-11.7</v>
+      </c>
+      <c r="AD23">
+        <v>-4.2</v>
+      </c>
+      <c r="AE23">
+        <v>-25.9</v>
+      </c>
+      <c r="AF23">
+        <v>-4</v>
+      </c>
+      <c r="AG23">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AH23">
+        <v>-7.4</v>
+      </c>
+      <c r="AI23">
+        <v>-9</v>
+      </c>
+      <c r="AJ23">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="AK23">
+        <v>-6.7</v>
+      </c>
+      <c r="AL23">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AM23">
+        <v>-4</v>
+      </c>
+      <c r="AN23">
+        <v>-16.2</v>
+      </c>
+      <c r="AO23">
+        <v>-23.3</v>
+      </c>
+      <c r="AP23">
+        <v>-17.2</v>
+      </c>
+      <c r="AQ23">
+        <v>-6.4</v>
+      </c>
+      <c r="AR23">
+        <v>-7.2</v>
+      </c>
+      <c r="AS23">
+        <v>-12.3</v>
+      </c>
+      <c r="AT23">
+        <v>-0.6</v>
+      </c>
+      <c r="AU23">
+        <v>0.3</v>
+      </c>
+      <c r="AV23">
+        <v>-18.2</v>
+      </c>
+      <c r="AW23">
+        <v>-23.3</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.4">

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6D9904-249F-4D75-92FC-4FBE841626B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5A1D7B-666C-40D5-B642-32CC30CB3BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="258">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1673,7 +1673,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2116,6 +2116,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2295,7 +2312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2464,6 +2481,9 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2487,6 +2507,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2819,7 +2842,7 @@
   <dimension ref="A1:BI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2889,10 +2912,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="4">
-        <v>-39.1</v>
+        <v>-44.8</v>
       </c>
       <c r="H2" s="4">
-        <v>-30.5</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
@@ -2911,148 +2934,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>-39.1</v>
+        <v>-44.8</v>
       </c>
       <c r="O2">
-        <v>-26.4</v>
+        <v>-28.3</v>
       </c>
       <c r="P2">
-        <v>-35.9</v>
+        <v>-42</v>
       </c>
       <c r="Q2">
-        <v>-40.4</v>
+        <v>-45.6</v>
       </c>
       <c r="R2">
-        <v>-39.1</v>
+        <v>-44.2</v>
       </c>
       <c r="S2" t="str">
         <v>无</v>
       </c>
       <c r="T2">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="U2">
+        <v>-10</v>
+      </c>
+      <c r="V2">
+        <v>-23.4</v>
+      </c>
+      <c r="W2">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="X2">
+        <v>-33.9</v>
+      </c>
+      <c r="Y2">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="Z2">
+        <v>-37.4</v>
+      </c>
+      <c r="AA2">
+        <v>-32.4</v>
+      </c>
+      <c r="AB2">
+        <v>-27.3</v>
+      </c>
+      <c r="AC2">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="AD2">
+        <v>-41.9</v>
+      </c>
+      <c r="AE2">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="AF2">
+        <v>-31.8</v>
+      </c>
+      <c r="AG2">
+        <v>-40</v>
+      </c>
+      <c r="AH2">
+        <v>-40.6</v>
+      </c>
+      <c r="AI2">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="AJ2">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="AK2">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>-31.3</v>
+      </c>
+      <c r="AM2">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="AN2">
+        <v>-20.8</v>
+      </c>
+      <c r="AO2">
+        <v>-19.2</v>
+      </c>
+      <c r="AP2">
+        <v>-15.3</v>
+      </c>
+      <c r="AQ2">
+        <v>-37.5</v>
+      </c>
+      <c r="AR2">
+        <v>-17.2</v>
+      </c>
+      <c r="AS2">
+        <v>-3.1</v>
+      </c>
+      <c r="AT2">
+        <v>-22.7</v>
+      </c>
+      <c r="AU2">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AV2">
+        <v>-20.8</v>
+      </c>
+      <c r="AW2">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="AX2">
+        <v>-14.2</v>
+      </c>
+      <c r="AY2">
+        <v>-21.2</v>
+      </c>
+      <c r="AZ2">
+        <v>-30.7</v>
+      </c>
+      <c r="BA2">
+        <v>-37.1</v>
+      </c>
+      <c r="BB2">
         <v>-24.5</v>
       </c>
-      <c r="U2">
-        <v>-25.5</v>
-      </c>
-      <c r="V2">
-        <v>-28.6</v>
-      </c>
-      <c r="W2">
-        <v>-33.5</v>
-      </c>
-      <c r="X2">
+      <c r="BC2">
+        <v>-28.9</v>
+      </c>
+      <c r="BD2">
+        <v>-22.2</v>
+      </c>
+      <c r="BE2">
+        <v>-28.2</v>
+      </c>
+      <c r="BF2">
+        <v>-25</v>
+      </c>
+      <c r="BG2">
+        <v>-11</v>
+      </c>
+      <c r="BH2">
         <v>-34.4</v>
       </c>
-      <c r="Y2">
-        <v>-37.700000000000003</v>
-      </c>
-      <c r="Z2">
-        <v>-36</v>
-      </c>
-      <c r="AA2">
-        <v>-36.1</v>
-      </c>
-      <c r="AB2">
-        <v>-25.8</v>
-      </c>
-      <c r="AC2">
-        <v>-29.8</v>
-      </c>
-      <c r="AD2">
-        <v>-29.4</v>
-      </c>
-      <c r="AE2">
-        <v>-36</v>
-      </c>
-      <c r="AF2">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="AG2">
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="AH2">
-        <v>-40.799999999999997</v>
-      </c>
-      <c r="AI2">
-        <v>-36.700000000000003</v>
-      </c>
-      <c r="AJ2">
-        <v>-32.4</v>
-      </c>
-      <c r="AK2">
-        <v>-23.1</v>
-      </c>
-      <c r="AL2">
+      <c r="BI2">
         <v>-32.700000000000003</v>
-      </c>
-      <c r="AM2">
-        <v>-34.4</v>
-      </c>
-      <c r="AN2">
-        <v>-26.7</v>
-      </c>
-      <c r="AO2">
-        <v>-22.8</v>
-      </c>
-      <c r="AP2">
-        <v>-11.2</v>
-      </c>
-      <c r="AQ2">
-        <v>-37.4</v>
-      </c>
-      <c r="AR2">
-        <v>-12.8</v>
-      </c>
-      <c r="AS2">
-        <v>-2.4</v>
-      </c>
-      <c r="AT2">
-        <v>-13.2</v>
-      </c>
-      <c r="AU2">
-        <v>-17.2</v>
-      </c>
-      <c r="AV2">
-        <v>-21.8</v>
-      </c>
-      <c r="AW2">
-        <v>-24</v>
-      </c>
-      <c r="AX2">
-        <v>-23.2</v>
-      </c>
-      <c r="AY2">
-        <v>-14</v>
-      </c>
-      <c r="AZ2">
-        <v>-30.8</v>
-      </c>
-      <c r="BA2">
-        <v>-35.6</v>
-      </c>
-      <c r="BB2">
-        <v>-27.8</v>
-      </c>
-      <c r="BC2">
-        <v>-27</v>
-      </c>
-      <c r="BD2">
-        <v>-13.2</v>
-      </c>
-      <c r="BE2">
-        <v>-25.8</v>
-      </c>
-      <c r="BF2">
-        <v>-13.4</v>
-      </c>
-      <c r="BG2">
-        <v>-10.4</v>
-      </c>
-      <c r="BH2">
-        <v>-30.3</v>
-      </c>
-      <c r="BI2">
-        <v>-33.299999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3073,10 +3096,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>-26.4</v>
+        <v>-28.3</v>
       </c>
       <c r="H3" s="4">
-        <v>-18.7</v>
+        <v>-14.8</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>38</v>
@@ -3095,148 +3118,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>-30.5</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="O3">
-        <v>-18.7</v>
+        <v>-14.8</v>
       </c>
       <c r="P3">
-        <v>-14.9</v>
+        <v>-29.9</v>
       </c>
       <c r="Q3">
-        <v>-25.8</v>
+        <v>-31.6</v>
       </c>
       <c r="R3">
-        <v>-26.6</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="S3" t="str">
         <v>无</v>
       </c>
       <c r="T3">
-        <v>-12.6</v>
+        <v>-6.1</v>
       </c>
       <c r="U3">
-        <v>-11.7</v>
+        <v>1.5</v>
       </c>
       <c r="V3">
-        <v>-19.100000000000001</v>
+        <v>-11.1</v>
       </c>
       <c r="W3">
-        <v>-20.2</v>
+        <v>-17.3</v>
       </c>
       <c r="X3">
-        <v>-25.1</v>
+        <v>-25.2</v>
       </c>
       <c r="Y3">
-        <v>-19.600000000000001</v>
+        <v>-23.5</v>
       </c>
       <c r="Z3">
-        <v>-19.5</v>
+        <v>-24.1</v>
       </c>
       <c r="AA3">
-        <v>-25.9</v>
+        <v>-21.5</v>
       </c>
       <c r="AB3">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AC3">
+        <v>-28.9</v>
+      </c>
+      <c r="AD3">
+        <v>-30.5</v>
+      </c>
+      <c r="AE3">
+        <v>-27.8</v>
+      </c>
+      <c r="AF3">
+        <v>-22.6</v>
+      </c>
+      <c r="AG3">
+        <v>-26.1</v>
+      </c>
+      <c r="AH3">
+        <v>-24.9</v>
+      </c>
+      <c r="AI3">
+        <v>-10.9</v>
+      </c>
+      <c r="AJ3">
+        <v>-27.6</v>
+      </c>
+      <c r="AK3">
+        <v>-5.6</v>
+      </c>
+      <c r="AL3">
+        <v>-13.8</v>
+      </c>
+      <c r="AM3">
+        <v>-12.5</v>
+      </c>
+      <c r="AN3">
+        <v>-9.6</v>
+      </c>
+      <c r="AO3">
+        <v>-8.5</v>
+      </c>
+      <c r="AP3">
+        <v>-5.3</v>
+      </c>
+      <c r="AQ3">
+        <v>-25.8</v>
+      </c>
+      <c r="AR3">
+        <v>-3.9</v>
+      </c>
+      <c r="AS3">
+        <v>13.1</v>
+      </c>
+      <c r="AT3">
+        <v>-2.4</v>
+      </c>
+      <c r="AU3">
+        <v>-5.7</v>
+      </c>
+      <c r="AV3">
+        <v>-7.9</v>
+      </c>
+      <c r="AW3">
+        <v>-3.7</v>
+      </c>
+      <c r="AX3">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AY3">
+        <v>-1.2</v>
+      </c>
+      <c r="AZ3">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="BA3">
+        <v>-21.9</v>
+      </c>
+      <c r="BB3">
         <v>-9.1</v>
       </c>
-      <c r="AC3">
-        <v>-22.8</v>
-      </c>
-      <c r="AD3">
-        <v>-19</v>
-      </c>
-      <c r="AE3">
-        <v>-20</v>
-      </c>
-      <c r="AF3">
-        <v>-24.1</v>
-      </c>
-      <c r="AG3">
-        <v>-20.3</v>
-      </c>
-      <c r="AH3">
-        <v>-28.6</v>
-      </c>
-      <c r="AI3">
-        <v>-24.2</v>
-      </c>
-      <c r="AJ3">
-        <v>-21.2</v>
-      </c>
-      <c r="AK3">
-        <v>-11.9</v>
-      </c>
-      <c r="AL3">
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="AM3">
-        <v>-17.8</v>
-      </c>
-      <c r="AN3">
-        <v>-19.7</v>
-      </c>
-      <c r="AO3">
-        <v>-11.7</v>
-      </c>
-      <c r="AP3">
-        <v>-4.2</v>
-      </c>
-      <c r="AQ3">
-        <v>-25.9</v>
-      </c>
-      <c r="AR3">
-        <v>-4</v>
-      </c>
-      <c r="AS3">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="AT3">
-        <v>-7.4</v>
-      </c>
-      <c r="AU3">
-        <v>-9</v>
-      </c>
-      <c r="AV3">
-        <v>-8.3000000000000007</v>
-      </c>
-      <c r="AW3">
-        <v>-6.7</v>
-      </c>
-      <c r="AX3">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="AY3">
-        <v>-4</v>
-      </c>
-      <c r="AZ3">
-        <v>-16.2</v>
-      </c>
-      <c r="BA3">
-        <v>-23.3</v>
-      </c>
-      <c r="BB3">
-        <v>-17.2</v>
-      </c>
       <c r="BC3">
-        <v>-6.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BD3">
-        <v>-7.2</v>
+        <v>1.5</v>
       </c>
       <c r="BE3">
-        <v>-12.3</v>
+        <v>-11.3</v>
       </c>
       <c r="BF3">
-        <v>-0.6</v>
+        <v>-4.8</v>
       </c>
       <c r="BG3">
-        <v>0.3</v>
+        <v>-1.2</v>
       </c>
       <c r="BH3">
-        <v>-18.2</v>
+        <v>-13.4</v>
       </c>
       <c r="BI3">
-        <v>-23.3</v>
+        <v>-15.8</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3257,10 +3280,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>-35.9</v>
+        <v>-42</v>
       </c>
       <c r="H4" s="4">
-        <v>-14.9</v>
+        <v>-29.9</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>117</v>
@@ -3293,10 +3316,10 @@
         <v>110</v>
       </c>
       <c r="G5" s="4">
-        <v>-40.4</v>
+        <v>-45.6</v>
       </c>
       <c r="H5" s="4">
-        <v>-25.8</v>
+        <v>-31.6</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
@@ -3338,10 +3361,10 @@
         <v>179</v>
       </c>
       <c r="G6" s="4">
-        <v>-39.1</v>
+        <v>-44.2</v>
       </c>
       <c r="H6" s="4">
-        <v>-26.6</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>115</v>
@@ -3428,10 +3451,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>-24.5</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="H8" s="4">
-        <v>-12.6</v>
+        <v>-6.1</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>120</v>
@@ -3471,10 +3494,10 @@
         <v>95</v>
       </c>
       <c r="G9" s="4">
-        <v>-25.5</v>
+        <v>-10</v>
       </c>
       <c r="H9" s="4">
-        <v>-11.7</v>
+        <v>1.5</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>119</v>
@@ -3505,10 +3528,10 @@
         <v>102</v>
       </c>
       <c r="G10" s="4">
-        <v>-28.6</v>
+        <v>-23.4</v>
       </c>
       <c r="H10" s="4">
-        <v>-19.100000000000001</v>
+        <v>-11.1</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>100</v>
@@ -3539,10 +3562,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="4">
-        <v>-33.5</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="H11" s="4">
-        <v>-20.2</v>
+        <v>-17.3</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>54</v>
@@ -3573,10 +3596,10 @@
         <v>87</v>
       </c>
       <c r="G12" s="4">
-        <v>-34.4</v>
+        <v>-33.9</v>
       </c>
       <c r="H12" s="4">
-        <v>-25.1</v>
+        <v>-25.2</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>28</v>
@@ -3607,10 +3630,10 @@
         <v>89</v>
       </c>
       <c r="G13" s="4">
-        <v>-37.700000000000003</v>
+        <v>-38.700000000000003</v>
       </c>
       <c r="H13" s="4">
-        <v>-19.600000000000001</v>
+        <v>-23.5</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
@@ -3641,10 +3664,10 @@
         <v>27</v>
       </c>
       <c r="G14" s="4">
-        <v>-36</v>
+        <v>-37.4</v>
       </c>
       <c r="H14" s="4">
-        <v>-19.5</v>
+        <v>-24.1</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
@@ -3675,10 +3698,10 @@
         <v>180</v>
       </c>
       <c r="G15" s="4">
-        <v>-36.1</v>
+        <v>-32.4</v>
       </c>
       <c r="H15" s="4">
-        <v>-25.9</v>
+        <v>-21.5</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
@@ -3709,10 +3732,10 @@
         <v>99</v>
       </c>
       <c r="G16" s="4">
-        <v>-25.8</v>
+        <v>-27.3</v>
       </c>
       <c r="H16" s="4">
-        <v>-9.1</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>96</v>
@@ -3743,10 +3766,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="4">
-        <v>-29.8</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="H17" s="4">
-        <v>-22.8</v>
+        <v>-28.9</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>161</v>
@@ -3777,10 +3800,10 @@
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>-29.4</v>
+        <v>-41.9</v>
       </c>
       <c r="H18" s="4">
-        <v>-19</v>
+        <v>-30.5</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
@@ -3811,10 +3834,10 @@
         <v>108</v>
       </c>
       <c r="G19" s="4">
-        <v>-36</v>
+        <v>-40.799999999999997</v>
       </c>
       <c r="H19" s="4">
-        <v>-20</v>
+        <v>-27.8</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>114</v>
@@ -3845,10 +3868,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="4">
-        <v>-35.299999999999997</v>
+        <v>-31.8</v>
       </c>
       <c r="H20" s="4">
-        <v>-24.1</v>
+        <v>-22.6</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
@@ -3879,10 +3902,10 @@
         <v>106</v>
       </c>
       <c r="G21" s="4">
-        <v>-34.299999999999997</v>
+        <v>-40</v>
       </c>
       <c r="H21" s="4">
-        <v>-20.3</v>
+        <v>-26.1</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>115</v>
@@ -3912,11 +3935,11 @@
       <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="4">
-        <v>-40.799999999999997</v>
-      </c>
-      <c r="H22" s="4">
-        <v>-28.6</v>
+      <c r="G22" s="13">
+        <v>-40.6</v>
+      </c>
+      <c r="H22" s="13">
+        <v>-24.9</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>40</v>
@@ -3949,10 +3972,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="4">
-        <v>-36.700000000000003</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="H23" s="4">
-        <v>-24.2</v>
+        <v>-10.9</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
@@ -3985,10 +4008,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="4">
-        <v>-32.4</v>
+        <v>-39.799999999999997</v>
       </c>
       <c r="H24" s="4">
-        <v>-21.2</v>
+        <v>-27.6</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -4019,10 +4042,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="4">
-        <v>-23.1</v>
+        <v>-19.399999999999999</v>
       </c>
       <c r="H25" s="4">
-        <v>-11.9</v>
+        <v>-5.6</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -4055,10 +4078,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>-32.700000000000003</v>
+        <v>-31.3</v>
       </c>
       <c r="H26" s="4">
-        <v>-19.600000000000001</v>
+        <v>-13.8</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -4089,10 +4112,10 @@
         <v>181</v>
       </c>
       <c r="G27" s="4">
-        <v>-34.4</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="H27" s="4">
-        <v>-17.8</v>
+        <v>-12.5</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
@@ -4123,10 +4146,10 @@
         <v>77</v>
       </c>
       <c r="G28" s="4">
-        <v>-26.7</v>
+        <v>-20.8</v>
       </c>
       <c r="H28" s="4">
-        <v>-19.7</v>
+        <v>-9.6</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
@@ -4159,10 +4182,10 @@
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <v>-22.8</v>
+        <v>-19.2</v>
       </c>
       <c r="H29" s="4">
-        <v>-11.7</v>
+        <v>-8.5</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -4193,10 +4216,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>-11.2</v>
+        <v>-15.3</v>
       </c>
       <c r="H30" s="4">
-        <v>-4.2</v>
+        <v>-5.3</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
@@ -4229,10 +4252,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="4">
-        <v>-37.4</v>
+        <v>-37.5</v>
       </c>
       <c r="H31" s="4">
-        <v>-25.9</v>
+        <v>-25.8</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
@@ -4263,10 +4286,10 @@
         <v>66</v>
       </c>
       <c r="G32" s="4">
-        <v>-12.8</v>
+        <v>-17.2</v>
       </c>
       <c r="H32" s="4">
-        <v>-4</v>
+        <v>-3.9</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
@@ -4297,10 +4320,10 @@
         <v>253</v>
       </c>
       <c r="G33" s="4">
-        <v>-2.4</v>
+        <v>-3.1</v>
       </c>
       <c r="H33" s="4">
-        <v>17.899999999999999</v>
+        <v>13.1</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>250</v>
@@ -4331,10 +4354,10 @@
         <v>59</v>
       </c>
       <c r="G34" s="4">
-        <v>-13.2</v>
+        <v>-22.7</v>
       </c>
       <c r="H34" s="4">
-        <v>-7.4</v>
+        <v>-2.4</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
@@ -4365,10 +4388,10 @@
         <v>56</v>
       </c>
       <c r="G35" s="4">
-        <v>-17.2</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="H35" s="4">
-        <v>-9</v>
+        <v>-5.7</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
@@ -4399,10 +4422,10 @@
         <v>46</v>
       </c>
       <c r="G36" s="4">
-        <v>-21.8</v>
+        <v>-20.8</v>
       </c>
       <c r="H36" s="4">
-        <v>-8.3000000000000007</v>
+        <v>-7.9</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>47</v>
@@ -4435,10 +4458,10 @@
         <v>49</v>
       </c>
       <c r="G37" s="4">
-        <v>-24</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="H37" s="4">
-        <v>-6.7</v>
+        <v>-3.7</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>45</v>
@@ -4471,10 +4494,10 @@
         <v>51</v>
       </c>
       <c r="G38" s="4">
-        <v>-23.2</v>
+        <v>-14.2</v>
       </c>
       <c r="H38" s="4">
-        <v>-2.2000000000000002</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
@@ -4505,10 +4528,10 @@
         <v>58</v>
       </c>
       <c r="G39" s="4">
-        <v>-14</v>
+        <v>-21.2</v>
       </c>
       <c r="H39" s="4">
-        <v>-4</v>
+        <v>-1.2</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
@@ -4539,10 +4562,10 @@
         <v>44</v>
       </c>
       <c r="G40" s="4">
-        <v>-30.8</v>
+        <v>-30.7</v>
       </c>
       <c r="H40" s="4">
-        <v>-16.2</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>43</v>
@@ -4573,10 +4596,10 @@
         <v>74</v>
       </c>
       <c r="G41" s="4">
-        <v>-35.6</v>
+        <v>-37.1</v>
       </c>
       <c r="H41" s="4">
-        <v>-23.3</v>
+        <v>-21.9</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
@@ -4607,10 +4630,10 @@
         <v>72</v>
       </c>
       <c r="G42" s="4">
-        <v>-27.8</v>
+        <v>-24.5</v>
       </c>
       <c r="H42" s="4">
-        <v>-17.2</v>
+        <v>-9.1</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>2</v>
@@ -4641,10 +4664,10 @@
         <v>62</v>
       </c>
       <c r="G43" s="4">
-        <v>-27</v>
+        <v>-28.9</v>
       </c>
       <c r="H43" s="4">
-        <v>-6.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
@@ -4675,10 +4698,10 @@
         <v>64</v>
       </c>
       <c r="G44" s="4">
-        <v>-13.2</v>
+        <v>-22.2</v>
       </c>
       <c r="H44" s="4">
-        <v>-7.2</v>
+        <v>1.5</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>65</v>
@@ -4709,10 +4732,10 @@
         <v>79</v>
       </c>
       <c r="G45" s="4">
-        <v>-25.8</v>
+        <v>-28.2</v>
       </c>
       <c r="H45" s="4">
-        <v>-12.3</v>
+        <v>-11.3</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>22</v>
@@ -4743,10 +4766,10 @@
         <v>81</v>
       </c>
       <c r="G46" s="4">
-        <v>-13.4</v>
+        <v>-25</v>
       </c>
       <c r="H46" s="4">
-        <v>-0.6</v>
+        <v>-4.8</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
@@ -4777,10 +4800,10 @@
         <v>83</v>
       </c>
       <c r="G47" s="4">
-        <v>-10.4</v>
+        <v>-11</v>
       </c>
       <c r="H47" s="4">
-        <v>0.3</v>
+        <v>-1.2</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>21</v>
@@ -4813,10 +4836,10 @@
         <v>68</v>
       </c>
       <c r="G48" s="4">
-        <v>-30.3</v>
+        <v>-34.4</v>
       </c>
       <c r="H48" s="4">
-        <v>-18.2</v>
+        <v>-13.4</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -4847,10 +4870,10 @@
         <v>70</v>
       </c>
       <c r="G49" s="4">
-        <v>-33.299999999999997</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="H49" s="4">
-        <v>-23.3</v>
+        <v>-15.8</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>2</v>
@@ -4878,7 +4901,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4893,34 +4916,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="58" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="61">
-        <v>45670</v>
-      </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="59" t="s">
+      <c r="F1" s="62">
+        <v>45673</v>
+      </c>
+      <c r="G1" s="63"/>
+      <c r="H1" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="60"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="57" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="I2" s="57"/>
+      <c r="I2" s="58"/>
       <c r="K2" s="21" t="s">
         <v>177</v>
       </c>
@@ -4932,7 +4955,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="56"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="51" t="s">
         <v>168</v>
       </c>
@@ -4968,7 +4991,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="56"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="54">
         <v>1</v>
       </c>
@@ -4983,10 +5006,10 @@
         <v>109</v>
       </c>
       <c r="G4" s="36">
-        <v>-39.1</v>
+        <v>-44.8</v>
       </c>
       <c r="H4" s="36">
-        <v>-30.5</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>175</v>
@@ -5002,7 +5025,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="54">
         <v>2</v>
       </c>
@@ -5017,17 +5040,17 @@
         <v>14</v>
       </c>
       <c r="G5" s="36">
-        <v>-26.4</v>
+        <v>-28.3</v>
       </c>
       <c r="H5" s="36">
-        <v>-18.7</v>
+        <v>-14.8</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="54">
         <v>3</v>
       </c>
@@ -5042,24 +5065,26 @@
         <v>15</v>
       </c>
       <c r="G6" s="36">
-        <v>-35.9</v>
+        <v>-42</v>
       </c>
       <c r="H6" s="36">
-        <v>-14.9</v>
+        <v>-29.9</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="54">
         <v>4</v>
       </c>
       <c r="C7" s="52">
         <v>3</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="52">
+        <v>0</v>
+      </c>
       <c r="E7" s="32" t="s">
         <v>217</v>
       </c>
@@ -5067,17 +5092,17 @@
         <v>109</v>
       </c>
       <c r="G7" s="36">
-        <v>-40.4</v>
+        <v>-45.6</v>
       </c>
       <c r="H7" s="36">
-        <v>-25.8</v>
+        <v>-31.6</v>
       </c>
       <c r="I7" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="54">
         <v>5</v>
       </c>
@@ -5091,18 +5116,18 @@
       <c r="F8" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="36">
-        <v>-39.1</v>
+      <c r="G8" s="65">
+        <v>-44.2</v>
       </c>
       <c r="H8" s="36">
-        <v>-26.6</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="54">
         <v>6</v>
       </c>
@@ -5127,7 +5152,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="54">
         <v>7</v>
       </c>
@@ -5142,17 +5167,17 @@
         <v>7</v>
       </c>
       <c r="G10" s="36">
-        <v>-24.5</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="H10" s="36">
-        <v>-12.6</v>
+        <v>-6.1</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="54">
         <v>8</v>
       </c>
@@ -5167,17 +5192,17 @@
         <v>94</v>
       </c>
       <c r="G11" s="36">
-        <v>-25.5</v>
+        <v>-10</v>
       </c>
       <c r="H11" s="36">
-        <v>-11.7</v>
+        <v>1.5</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="54">
         <v>9</v>
       </c>
@@ -5192,17 +5217,17 @@
         <v>101</v>
       </c>
       <c r="G12" s="36">
-        <v>-28.6</v>
+        <v>-23.4</v>
       </c>
       <c r="H12" s="36">
-        <v>-19.100000000000001</v>
+        <v>-11.1</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="54">
         <v>10</v>
       </c>
@@ -5217,17 +5242,17 @@
         <v>135</v>
       </c>
       <c r="G13" s="36">
-        <v>-33.5</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="H13" s="36">
-        <v>-20.2</v>
+        <v>-17.3</v>
       </c>
       <c r="I13" s="34" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="54">
         <v>11</v>
       </c>
@@ -5242,26 +5267,24 @@
         <v>86</v>
       </c>
       <c r="G14" s="36">
-        <v>-34.4</v>
+        <v>-33.9</v>
       </c>
       <c r="H14" s="36">
-        <v>-25.1</v>
+        <v>-25.2</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="54">
         <v>12</v>
       </c>
       <c r="C15" s="52">
         <v>2</v>
       </c>
-      <c r="D15" s="52">
-        <v>0</v>
-      </c>
+      <c r="D15" s="52"/>
       <c r="E15" s="27" t="s">
         <v>224</v>
       </c>
@@ -5269,17 +5292,17 @@
         <v>88</v>
       </c>
       <c r="G15" s="36">
-        <v>-37.700000000000003</v>
+        <v>-38.700000000000003</v>
       </c>
       <c r="H15" s="36">
-        <v>-19.600000000000001</v>
+        <v>-23.5</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="54">
         <v>13</v>
       </c>
@@ -5294,17 +5317,17 @@
         <v>136</v>
       </c>
       <c r="G16" s="36">
-        <v>-36</v>
+        <v>-37.4</v>
       </c>
       <c r="H16" s="36">
-        <v>-19.5</v>
+        <v>-24.1</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="54">
         <v>14</v>
       </c>
@@ -5319,17 +5342,17 @@
         <v>182</v>
       </c>
       <c r="G17" s="36">
-        <v>-36.1</v>
+        <v>-32.4</v>
       </c>
       <c r="H17" s="36">
-        <v>-25.9</v>
+        <v>-21.5</v>
       </c>
       <c r="I17" s="34" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="54">
         <v>15</v>
       </c>
@@ -5344,17 +5367,17 @@
         <v>98</v>
       </c>
       <c r="G18" s="36">
-        <v>-25.8</v>
+        <v>-27.3</v>
       </c>
       <c r="H18" s="36">
-        <v>-9.1</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="I18" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="54">
         <v>16</v>
       </c>
@@ -5369,24 +5392,26 @@
         <v>6</v>
       </c>
       <c r="G19" s="36">
-        <v>-29.8</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="H19" s="36">
-        <v>-22.8</v>
+        <v>-28.9</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="54">
         <v>17</v>
       </c>
       <c r="C20" s="52">
         <v>2</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="52">
+        <v>0</v>
+      </c>
       <c r="E20" s="28" t="s">
         <v>227</v>
       </c>
@@ -5394,17 +5419,17 @@
         <v>5</v>
       </c>
       <c r="G20" s="36">
-        <v>-29.4</v>
+        <v>-41.9</v>
       </c>
       <c r="H20" s="36">
-        <v>-19</v>
+        <v>-30.5</v>
       </c>
       <c r="I20" s="34" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="54">
         <v>18</v>
       </c>
@@ -5419,17 +5444,17 @@
         <v>107</v>
       </c>
       <c r="G21" s="36">
-        <v>-36</v>
+        <v>-40.799999999999997</v>
       </c>
       <c r="H21" s="36">
-        <v>-20</v>
+        <v>-27.8</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="56"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="54">
         <v>19</v>
       </c>
@@ -5444,17 +5469,17 @@
         <v>9</v>
       </c>
       <c r="G22" s="36">
-        <v>-35.299999999999997</v>
+        <v>-31.8</v>
       </c>
       <c r="H22" s="36">
-        <v>-24.1</v>
+        <v>-22.6</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="56"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="54">
         <v>20</v>
       </c>
@@ -5469,26 +5494,24 @@
         <v>105</v>
       </c>
       <c r="G23" s="36">
-        <v>-34.299999999999997</v>
+        <v>-40</v>
       </c>
       <c r="H23" s="36">
-        <v>-20.3</v>
+        <v>-26.1</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="56"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="54">
         <v>21</v>
       </c>
       <c r="C24" s="52">
         <v>3</v>
       </c>
-      <c r="D24" s="52">
-        <v>0</v>
-      </c>
+      <c r="D24" s="52"/>
       <c r="E24" s="32" t="s">
         <v>217</v>
       </c>
@@ -5496,17 +5519,17 @@
         <v>12</v>
       </c>
       <c r="G24" s="36">
-        <v>-40.799999999999997</v>
+        <v>-40.6</v>
       </c>
       <c r="H24" s="36">
-        <v>-28.6</v>
+        <v>-24.9</v>
       </c>
       <c r="I24" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="56"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="54">
         <v>22</v>
       </c>
@@ -5521,17 +5544,17 @@
         <v>13</v>
       </c>
       <c r="G25" s="36">
-        <v>-36.700000000000003</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="H25" s="36">
-        <v>-24.2</v>
+        <v>-10.9</v>
       </c>
       <c r="I25" s="34" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="54">
         <v>23</v>
       </c>
@@ -5546,17 +5569,17 @@
         <v>10</v>
       </c>
       <c r="G26" s="36">
-        <v>-32.4</v>
+        <v>-39.799999999999997</v>
       </c>
       <c r="H26" s="36">
-        <v>-21.2</v>
+        <v>-27.6</v>
       </c>
       <c r="I26" s="34" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="56"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="54">
         <v>24</v>
       </c>
@@ -5571,17 +5594,17 @@
         <v>11</v>
       </c>
       <c r="G27" s="36">
-        <v>-23.1</v>
+        <v>-19.399999999999999</v>
       </c>
       <c r="H27" s="36">
-        <v>-11.9</v>
+        <v>-5.6</v>
       </c>
       <c r="I27" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="54">
         <v>25</v>
       </c>
@@ -5598,17 +5621,17 @@
         <v>137</v>
       </c>
       <c r="G28" s="36">
-        <v>-32.700000000000003</v>
+        <v>-31.3</v>
       </c>
       <c r="H28" s="36">
-        <v>-19.600000000000001</v>
+        <v>-13.8</v>
       </c>
       <c r="I28" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="56"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="54">
         <v>26</v>
       </c>
@@ -5623,17 +5646,17 @@
         <v>183</v>
       </c>
       <c r="G29" s="36">
-        <v>-34.4</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="H29" s="36">
-        <v>-17.8</v>
+        <v>-12.5</v>
       </c>
       <c r="I29" s="34" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="56"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="54">
         <v>27</v>
       </c>
@@ -5648,17 +5671,17 @@
         <v>76</v>
       </c>
       <c r="G30" s="36">
-        <v>-26.7</v>
+        <v>-20.8</v>
       </c>
       <c r="H30" s="36">
-        <v>-19.7</v>
+        <v>-9.6</v>
       </c>
       <c r="I30" s="34" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="56"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="54">
         <v>28</v>
       </c>
@@ -5675,17 +5698,17 @@
         <v>103</v>
       </c>
       <c r="G31" s="36">
-        <v>-22.8</v>
+        <v>-19.2</v>
       </c>
       <c r="H31" s="36">
-        <v>-11.7</v>
+        <v>-8.5</v>
       </c>
       <c r="I31" s="34" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="54">
         <v>29</v>
       </c>
@@ -5700,17 +5723,17 @@
         <v>84</v>
       </c>
       <c r="G32" s="36">
-        <v>-11.2</v>
+        <v>-15.3</v>
       </c>
       <c r="H32" s="36">
-        <v>-4.2</v>
+        <v>-5.3</v>
       </c>
       <c r="I32" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="56"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="54">
         <v>30</v>
       </c>
@@ -5727,17 +5750,17 @@
         <v>4</v>
       </c>
       <c r="G33" s="36">
-        <v>-37.4</v>
+        <v>-37.5</v>
       </c>
       <c r="H33" s="36">
-        <v>-25.9</v>
+        <v>-25.8</v>
       </c>
       <c r="I33" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="56"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="54">
         <v>31</v>
       </c>
@@ -5752,17 +5775,17 @@
         <v>139</v>
       </c>
       <c r="G34" s="36">
-        <v>-12.8</v>
+        <v>-17.2</v>
       </c>
       <c r="H34" s="36">
-        <v>-4</v>
+        <v>-3.9</v>
       </c>
       <c r="I34" s="34" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="56"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="54">
         <v>32</v>
       </c>
@@ -5779,17 +5802,17 @@
         <v>253</v>
       </c>
       <c r="G35" s="36">
-        <v>-2.4</v>
+        <v>-3.1</v>
       </c>
       <c r="H35" s="36">
-        <v>17.899999999999999</v>
+        <v>13.1</v>
       </c>
       <c r="I35" s="34" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="56"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="54">
         <v>33</v>
       </c>
@@ -5804,15 +5827,15 @@
         <v>140</v>
       </c>
       <c r="G36" s="36">
-        <v>-13.2</v>
+        <v>-22.7</v>
       </c>
       <c r="H36" s="36">
-        <v>-7.4</v>
+        <v>-2.4</v>
       </c>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="56"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="54">
         <v>34</v>
       </c>
@@ -5829,15 +5852,15 @@
         <v>141</v>
       </c>
       <c r="G37" s="36">
-        <v>-17.2</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="H37" s="36">
-        <v>-9</v>
+        <v>-5.7</v>
       </c>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="56"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="54">
         <v>35</v>
       </c>
@@ -5854,17 +5877,17 @@
         <v>142</v>
       </c>
       <c r="G38" s="36">
-        <v>-21.8</v>
+        <v>-20.8</v>
       </c>
       <c r="H38" s="36">
-        <v>-8.3000000000000007</v>
+        <v>-7.9</v>
       </c>
       <c r="I38" s="34" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="56"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="54">
         <v>36</v>
       </c>
@@ -5881,17 +5904,17 @@
         <v>143</v>
       </c>
       <c r="G39" s="36">
-        <v>-24</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="H39" s="36">
-        <v>-6.7</v>
+        <v>-3.7</v>
       </c>
       <c r="I39" s="34" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="56"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="54">
         <v>37</v>
       </c>
@@ -5908,15 +5931,15 @@
         <v>144</v>
       </c>
       <c r="G40" s="36">
-        <v>-23.2</v>
+        <v>-14.2</v>
       </c>
       <c r="H40" s="36">
-        <v>-2.2000000000000002</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="56"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="54">
         <v>38</v>
       </c>
@@ -5933,15 +5956,15 @@
         <v>145</v>
       </c>
       <c r="G41" s="36">
-        <v>-14</v>
+        <v>-21.2</v>
       </c>
       <c r="H41" s="36">
-        <v>-4</v>
+        <v>-1.2</v>
       </c>
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="56"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="54">
         <v>39</v>
       </c>
@@ -5956,17 +5979,17 @@
         <v>146</v>
       </c>
       <c r="G42" s="36">
-        <v>-30.8</v>
+        <v>-30.7</v>
       </c>
       <c r="H42" s="36">
-        <v>-16.2</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="I42" s="34" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="56"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="54">
         <v>40</v>
       </c>
@@ -5983,17 +6006,17 @@
         <v>73</v>
       </c>
       <c r="G43" s="36">
-        <v>-35.6</v>
+        <v>-37.1</v>
       </c>
       <c r="H43" s="36">
-        <v>-23.3</v>
+        <v>-21.9</v>
       </c>
       <c r="I43" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="56"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="54">
         <v>41</v>
       </c>
@@ -6008,17 +6031,17 @@
         <v>71</v>
       </c>
       <c r="G44" s="36">
-        <v>-27.8</v>
+        <v>-24.5</v>
       </c>
       <c r="H44" s="36">
-        <v>-17.2</v>
+        <v>-9.1</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="56"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="54">
         <v>42</v>
       </c>
@@ -6033,17 +6056,17 @@
         <v>147</v>
       </c>
       <c r="G45" s="36">
-        <v>-27</v>
+        <v>-28.9</v>
       </c>
       <c r="H45" s="36">
-        <v>-6.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I45" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="56"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="54">
         <v>43</v>
       </c>
@@ -6058,17 +6081,17 @@
         <v>148</v>
       </c>
       <c r="G46" s="36">
-        <v>-13.2</v>
+        <v>-22.2</v>
       </c>
       <c r="H46" s="36">
-        <v>-7.2</v>
+        <v>1.5</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="56"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="54">
         <v>44</v>
       </c>
@@ -6083,17 +6106,17 @@
         <v>78</v>
       </c>
       <c r="G47" s="36">
-        <v>-25.8</v>
+        <v>-28.2</v>
       </c>
       <c r="H47" s="36">
-        <v>-12.3</v>
+        <v>-11.3</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="56"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="54">
         <v>45</v>
       </c>
@@ -6108,17 +6131,17 @@
         <v>80</v>
       </c>
       <c r="G48" s="36">
-        <v>-13.4</v>
+        <v>-25</v>
       </c>
       <c r="H48" s="36">
-        <v>-0.6</v>
+        <v>-4.8</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="56"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="54">
         <v>46</v>
       </c>
@@ -6133,17 +6156,17 @@
         <v>82</v>
       </c>
       <c r="G49" s="36">
-        <v>-10.4</v>
+        <v>-11</v>
       </c>
       <c r="H49" s="36">
-        <v>0.3</v>
+        <v>-1.2</v>
       </c>
       <c r="I49" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="56"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="54">
         <v>47</v>
       </c>
@@ -6160,17 +6183,17 @@
         <v>67</v>
       </c>
       <c r="G50" s="36">
-        <v>-30.3</v>
+        <v>-34.4</v>
       </c>
       <c r="H50" s="36">
-        <v>-18.2</v>
+        <v>-13.4</v>
       </c>
       <c r="I50" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="56"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="54">
         <v>48</v>
       </c>
@@ -6185,20 +6208,20 @@
         <v>69</v>
       </c>
       <c r="G51" s="36">
-        <v>-33.299999999999997</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="H51" s="36">
-        <v>-23.3</v>
+        <v>-15.8</v>
       </c>
       <c r="I51" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="56"/>
+      <c r="A52" s="57"/>
     </row>
     <row r="53" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="56"/>
+      <c r="A53" s="57"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I51">
@@ -6248,7 +6271,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -9669,15 +9692,447 @@
       <c r="A24" s="16">
         <v>45671</v>
       </c>
+      <c r="B24">
+        <v>-40.700000000000003</v>
+      </c>
+      <c r="C24">
+        <v>-33.6</v>
+      </c>
+      <c r="D24">
+        <v>-42.9</v>
+      </c>
+      <c r="E24" s="56">
+        <v>-36.5</v>
+      </c>
+      <c r="F24" s="56">
+        <v>-39.9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24">
+        <v>-30.4</v>
+      </c>
+      <c r="I24">
+        <v>-16.2</v>
+      </c>
+      <c r="J24">
+        <v>-31.7</v>
+      </c>
+      <c r="K24">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="L24">
+        <v>-28.1</v>
+      </c>
+      <c r="M24">
+        <v>-35.6</v>
+      </c>
+      <c r="N24">
+        <v>-31.1</v>
+      </c>
+      <c r="O24">
+        <v>-29.2</v>
+      </c>
+      <c r="P24">
+        <v>-23</v>
+      </c>
+      <c r="Q24">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="R24">
+        <v>-37.4</v>
+      </c>
+      <c r="S24">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="T24">
+        <v>-35.6</v>
+      </c>
+      <c r="U24">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="V24">
+        <v>-41.3</v>
+      </c>
+      <c r="W24">
+        <v>-41.4</v>
+      </c>
+      <c r="X24">
+        <v>-36.4</v>
+      </c>
+      <c r="Y24">
+        <v>-24.1</v>
+      </c>
+      <c r="Z24">
+        <v>-39.6</v>
+      </c>
+      <c r="AA24">
+        <v>-36.1</v>
+      </c>
+      <c r="AB24">
+        <v>-26.6</v>
+      </c>
+      <c r="AC24">
+        <v>-20.5</v>
+      </c>
+      <c r="AD24">
+        <v>-17.8</v>
+      </c>
+      <c r="AE24">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="AF24">
+        <v>-15.8</v>
+      </c>
+      <c r="AG24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AH24">
+        <v>-24.2</v>
+      </c>
+      <c r="AI24">
+        <v>-21.8</v>
+      </c>
+      <c r="AJ24">
+        <v>-23.4</v>
+      </c>
+      <c r="AK24">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="AL24">
+        <v>-22.3</v>
+      </c>
+      <c r="AM24">
+        <v>-18.5</v>
+      </c>
+      <c r="AN24">
+        <v>-22.8</v>
+      </c>
+      <c r="AO24">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="AP24">
+        <v>-22</v>
+      </c>
+      <c r="AQ24">
+        <v>-32.4</v>
+      </c>
+      <c r="AR24">
+        <v>-24.9</v>
+      </c>
+      <c r="AS24">
+        <v>-28.6</v>
+      </c>
+      <c r="AT24">
+        <v>-23.1</v>
+      </c>
+      <c r="AU24">
+        <v>-10.3</v>
+      </c>
+      <c r="AV24">
+        <v>-36.9</v>
+      </c>
+      <c r="AW24">
+        <v>-34.700000000000003</v>
+      </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
         <v>45672</v>
       </c>
+      <c r="B25">
+        <v>-42.5</v>
+      </c>
+      <c r="C25">
+        <v>-28.8</v>
+      </c>
+      <c r="D25">
+        <v>-40.6</v>
+      </c>
+      <c r="E25" s="56">
+        <v>-42.2</v>
+      </c>
+      <c r="F25" s="56">
+        <v>-42.2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25">
+        <v>-14</v>
+      </c>
+      <c r="I25">
+        <v>-8.5</v>
+      </c>
+      <c r="J25">
+        <v>-29</v>
+      </c>
+      <c r="K25">
+        <v>-33.4</v>
+      </c>
+      <c r="L25">
+        <v>-36.5</v>
+      </c>
+      <c r="M25">
+        <v>-35.9</v>
+      </c>
+      <c r="N25">
+        <v>-38.5</v>
+      </c>
+      <c r="O25">
+        <v>-34.4</v>
+      </c>
+      <c r="P25">
+        <v>-34.4</v>
+      </c>
+      <c r="Q25">
+        <v>-32.9</v>
+      </c>
+      <c r="R25">
+        <v>-42.1</v>
+      </c>
+      <c r="S25">
+        <v>-36.5</v>
+      </c>
+      <c r="T25">
+        <v>-33.9</v>
+      </c>
+      <c r="U25">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="V25">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="W25">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="X25">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="Y25">
+        <v>-23.1</v>
+      </c>
+      <c r="Z25">
+        <v>-38</v>
+      </c>
+      <c r="AA25">
+        <v>-38.5</v>
+      </c>
+      <c r="AB25">
+        <v>-25.5</v>
+      </c>
+      <c r="AC25">
+        <v>-18.7</v>
+      </c>
+      <c r="AD25">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AE25">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="AF25">
+        <v>-21.3</v>
+      </c>
+      <c r="AG25">
+        <v>0.6</v>
+      </c>
+      <c r="AH25">
+        <v>-26.2</v>
+      </c>
+      <c r="AI25">
+        <v>-21</v>
+      </c>
+      <c r="AJ25">
+        <v>-21.2</v>
+      </c>
+      <c r="AK25">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="AL25">
+        <v>-22.7</v>
+      </c>
+      <c r="AM25">
+        <v>-25.1</v>
+      </c>
+      <c r="AN25">
+        <v>-37.5</v>
+      </c>
+      <c r="AO25">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="AP25">
+        <v>-26.6</v>
+      </c>
+      <c r="AQ25">
+        <v>-27</v>
+      </c>
+      <c r="AR25">
+        <v>-25.5</v>
+      </c>
+      <c r="AS25">
+        <v>-30.7</v>
+      </c>
+      <c r="AT25">
+        <v>-24.9</v>
+      </c>
+      <c r="AU25">
+        <v>-11.3</v>
+      </c>
+      <c r="AV25">
+        <v>-35</v>
+      </c>
+      <c r="AW25">
+        <v>-34.5</v>
+      </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A26" s="16">
         <v>45673</v>
+      </c>
+      <c r="B26">
+        <v>-44.8</v>
+      </c>
+      <c r="C26">
+        <v>-28.3</v>
+      </c>
+      <c r="D26">
+        <v>-42</v>
+      </c>
+      <c r="E26">
+        <v>-45.6</v>
+      </c>
+      <c r="F26" s="56">
+        <v>-44.2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>247</v>
+      </c>
+      <c r="H26">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="I26">
+        <v>-10</v>
+      </c>
+      <c r="J26">
+        <v>-23.4</v>
+      </c>
+      <c r="K26">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="L26">
+        <v>-33.9</v>
+      </c>
+      <c r="M26">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="N26">
+        <v>-37.4</v>
+      </c>
+      <c r="O26">
+        <v>-32.4</v>
+      </c>
+      <c r="P26">
+        <v>-27.3</v>
+      </c>
+      <c r="Q26">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="R26">
+        <v>-41.9</v>
+      </c>
+      <c r="S26">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="T26">
+        <v>-31.8</v>
+      </c>
+      <c r="U26">
+        <v>-40</v>
+      </c>
+      <c r="V26">
+        <v>-40.6</v>
+      </c>
+      <c r="W26">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="X26">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="Y26">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="Z26">
+        <v>-31.3</v>
+      </c>
+      <c r="AA26">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="AB26">
+        <v>-20.8</v>
+      </c>
+      <c r="AC26">
+        <v>-19.2</v>
+      </c>
+      <c r="AD26">
+        <v>-15.3</v>
+      </c>
+      <c r="AE26">
+        <v>-37.5</v>
+      </c>
+      <c r="AF26">
+        <v>-17.2</v>
+      </c>
+      <c r="AG26">
+        <v>-3.1</v>
+      </c>
+      <c r="AH26">
+        <v>-22.7</v>
+      </c>
+      <c r="AI26">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AJ26">
+        <v>-20.8</v>
+      </c>
+      <c r="AK26">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="AL26">
+        <v>-14.2</v>
+      </c>
+      <c r="AM26">
+        <v>-21.2</v>
+      </c>
+      <c r="AN26">
+        <v>-30.7</v>
+      </c>
+      <c r="AO26">
+        <v>-37.1</v>
+      </c>
+      <c r="AP26">
+        <v>-24.5</v>
+      </c>
+      <c r="AQ26">
+        <v>-28.9</v>
+      </c>
+      <c r="AR26">
+        <v>-22.2</v>
+      </c>
+      <c r="AS26">
+        <v>-28.2</v>
+      </c>
+      <c r="AT26">
+        <v>-25</v>
+      </c>
+      <c r="AU26">
+        <v>-11</v>
+      </c>
+      <c r="AV26">
+        <v>-34.4</v>
+      </c>
+      <c r="AW26">
+        <v>-32.700000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.4">
@@ -9936,7 +10391,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -13357,15 +13812,447 @@
       <c r="A24" s="16">
         <v>45671</v>
       </c>
+      <c r="B24">
+        <v>-30.7</v>
+      </c>
+      <c r="C24">
+        <v>-22.1</v>
+      </c>
+      <c r="D24">
+        <v>-30.6</v>
+      </c>
+      <c r="E24">
+        <v>-25.1</v>
+      </c>
+      <c r="F24">
+        <v>-23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24">
+        <v>-13.6</v>
+      </c>
+      <c r="I24">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="J24">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="K24">
+        <v>-22</v>
+      </c>
+      <c r="L24">
+        <v>-22.6</v>
+      </c>
+      <c r="M24">
+        <v>-21.2</v>
+      </c>
+      <c r="N24">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="O24">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="P24">
+        <v>-15</v>
+      </c>
+      <c r="Q24">
+        <v>-23.5</v>
+      </c>
+      <c r="R24">
+        <v>-28</v>
+      </c>
+      <c r="S24">
+        <v>-23.1</v>
+      </c>
+      <c r="T24">
+        <v>-24.3</v>
+      </c>
+      <c r="U24">
+        <v>-26</v>
+      </c>
+      <c r="V24">
+        <v>-24.2</v>
+      </c>
+      <c r="W24">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="X24">
+        <v>-25.9</v>
+      </c>
+      <c r="Y24">
+        <v>-15.3</v>
+      </c>
+      <c r="Z24">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AA24">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="AB24">
+        <v>-20.7</v>
+      </c>
+      <c r="AC24">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AD24">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="AE24">
+        <v>-25.7</v>
+      </c>
+      <c r="AF24">
+        <v>-5.2</v>
+      </c>
+      <c r="AG24">
+        <v>14.8</v>
+      </c>
+      <c r="AH24">
+        <v>-10.5</v>
+      </c>
+      <c r="AI24">
+        <v>-11</v>
+      </c>
+      <c r="AJ24">
+        <v>-13.2</v>
+      </c>
+      <c r="AK24">
+        <v>-6.7</v>
+      </c>
+      <c r="AL24">
+        <v>-5</v>
+      </c>
+      <c r="AM24">
+        <v>-7.2</v>
+      </c>
+      <c r="AN24">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="AO24">
+        <v>-17.8</v>
+      </c>
+      <c r="AP24">
+        <v>-15.1</v>
+      </c>
+      <c r="AQ24">
+        <v>-6.6</v>
+      </c>
+      <c r="AR24">
+        <v>-7.3</v>
+      </c>
+      <c r="AS24">
+        <v>-12.2</v>
+      </c>
+      <c r="AT24">
+        <v>-11</v>
+      </c>
+      <c r="AU24">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AV24">
+        <v>-20</v>
+      </c>
+      <c r="AW24">
+        <v>-25.4</v>
+      </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
         <v>45672</v>
       </c>
+      <c r="B25">
+        <v>-32</v>
+      </c>
+      <c r="C25">
+        <v>-14.6</v>
+      </c>
+      <c r="D25">
+        <v>-29.3</v>
+      </c>
+      <c r="E25">
+        <v>-30.8</v>
+      </c>
+      <c r="F25">
+        <v>-31.8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25">
+        <v>-2.4</v>
+      </c>
+      <c r="I25">
+        <v>-2.1</v>
+      </c>
+      <c r="J25">
+        <v>-10</v>
+      </c>
+      <c r="K25">
+        <v>-17.8</v>
+      </c>
+      <c r="L25">
+        <v>-26.4</v>
+      </c>
+      <c r="M25">
+        <v>-17.5</v>
+      </c>
+      <c r="N25">
+        <v>-23.4</v>
+      </c>
+      <c r="O25">
+        <v>-23.2</v>
+      </c>
+      <c r="P25">
+        <v>-16.5</v>
+      </c>
+      <c r="Q25">
+        <v>-24.8</v>
+      </c>
+      <c r="R25">
+        <v>-30.4</v>
+      </c>
+      <c r="S25">
+        <v>-25</v>
+      </c>
+      <c r="T25">
+        <v>-21.1</v>
+      </c>
+      <c r="U25">
+        <v>-25.5</v>
+      </c>
+      <c r="V25">
+        <v>-28.3</v>
+      </c>
+      <c r="W25">
+        <v>-19.8</v>
+      </c>
+      <c r="X25">
+        <v>-26.9</v>
+      </c>
+      <c r="Y25">
+        <v>-9.6</v>
+      </c>
+      <c r="Z25">
+        <v>-21.4</v>
+      </c>
+      <c r="AA25">
+        <v>-17.8</v>
+      </c>
+      <c r="AB25">
+        <v>-10.6</v>
+      </c>
+      <c r="AC25">
+        <v>-8.6</v>
+      </c>
+      <c r="AD25">
+        <v>-11.8</v>
+      </c>
+      <c r="AE25">
+        <v>-26.6</v>
+      </c>
+      <c r="AF25">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="AG25">
+        <v>10</v>
+      </c>
+      <c r="AH25">
+        <v>-2.7</v>
+      </c>
+      <c r="AI25">
+        <v>-9.1</v>
+      </c>
+      <c r="AJ25">
+        <v>-9.1</v>
+      </c>
+      <c r="AK25">
+        <v>-8.1</v>
+      </c>
+      <c r="AL25">
+        <v>-5.6</v>
+      </c>
+      <c r="AM25">
+        <v>-6.2</v>
+      </c>
+      <c r="AN25">
+        <v>-21.9</v>
+      </c>
+      <c r="AO25">
+        <v>-21.1</v>
+      </c>
+      <c r="AP25">
+        <v>-9.5</v>
+      </c>
+      <c r="AQ25">
+        <v>-2.8</v>
+      </c>
+      <c r="AR25">
+        <v>-6.7</v>
+      </c>
+      <c r="AS25">
+        <v>-13.1</v>
+      </c>
+      <c r="AT25">
+        <v>-11.5</v>
+      </c>
+      <c r="AU25">
+        <v>-0.7</v>
+      </c>
+      <c r="AV25">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="AW25">
+        <v>-20.2</v>
+      </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A26" s="16">
         <v>45673</v>
+      </c>
+      <c r="B26">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="C26">
+        <v>-14.8</v>
+      </c>
+      <c r="D26">
+        <v>-29.9</v>
+      </c>
+      <c r="E26">
+        <v>-31.6</v>
+      </c>
+      <c r="F26">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="G26" t="s">
+        <v>247</v>
+      </c>
+      <c r="H26">
+        <v>-6.1</v>
+      </c>
+      <c r="I26">
+        <v>1.5</v>
+      </c>
+      <c r="J26">
+        <v>-11.1</v>
+      </c>
+      <c r="K26">
+        <v>-17.3</v>
+      </c>
+      <c r="L26">
+        <v>-25.2</v>
+      </c>
+      <c r="M26">
+        <v>-23.5</v>
+      </c>
+      <c r="N26">
+        <v>-24.1</v>
+      </c>
+      <c r="O26">
+        <v>-21.5</v>
+      </c>
+      <c r="P26">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="Q26">
+        <v>-28.9</v>
+      </c>
+      <c r="R26">
+        <v>-30.5</v>
+      </c>
+      <c r="S26">
+        <v>-27.8</v>
+      </c>
+      <c r="T26">
+        <v>-22.6</v>
+      </c>
+      <c r="U26">
+        <v>-26.1</v>
+      </c>
+      <c r="V26">
+        <v>-24.9</v>
+      </c>
+      <c r="W26">
+        <v>-10.9</v>
+      </c>
+      <c r="X26">
+        <v>-27.6</v>
+      </c>
+      <c r="Y26">
+        <v>-5.6</v>
+      </c>
+      <c r="Z26">
+        <v>-13.8</v>
+      </c>
+      <c r="AA26">
+        <v>-12.5</v>
+      </c>
+      <c r="AB26">
+        <v>-9.6</v>
+      </c>
+      <c r="AC26">
+        <v>-8.5</v>
+      </c>
+      <c r="AD26">
+        <v>-5.3</v>
+      </c>
+      <c r="AE26">
+        <v>-25.8</v>
+      </c>
+      <c r="AF26">
+        <v>-3.9</v>
+      </c>
+      <c r="AG26">
+        <v>13.1</v>
+      </c>
+      <c r="AH26">
+        <v>-2.4</v>
+      </c>
+      <c r="AI26">
+        <v>-5.7</v>
+      </c>
+      <c r="AJ26">
+        <v>-7.9</v>
+      </c>
+      <c r="AK26">
+        <v>-3.7</v>
+      </c>
+      <c r="AL26">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AM26">
+        <v>-1.2</v>
+      </c>
+      <c r="AN26">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AO26">
+        <v>-21.9</v>
+      </c>
+      <c r="AP26">
+        <v>-9.1</v>
+      </c>
+      <c r="AQ26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AR26">
+        <v>1.5</v>
+      </c>
+      <c r="AS26">
+        <v>-11.3</v>
+      </c>
+      <c r="AT26">
+        <v>-4.8</v>
+      </c>
+      <c r="AU26">
+        <v>-1.2</v>
+      </c>
+      <c r="AV26">
+        <v>-13.4</v>
+      </c>
+      <c r="AW26">
+        <v>-15.8</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.4">

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5A1D7B-666C-40D5-B642-32CC30CB3BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EBA2F3-C737-4A74-9037-E03C2BA93BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="258">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1673,7 +1673,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2124,15 +2124,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="40"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2312,7 +2303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2507,9 +2498,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="51" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2842,7 +2830,7 @@
   <dimension ref="A1:BI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2912,10 +2900,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="4">
-        <v>-44.8</v>
+        <v>-42.5</v>
       </c>
       <c r="H2" s="4">
-        <v>-34.700000000000003</v>
+        <v>-30.5</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
@@ -2934,148 +2922,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>-44.8</v>
+        <v>-42.5</v>
       </c>
       <c r="O2">
-        <v>-28.3</v>
+        <v>-31.1</v>
       </c>
       <c r="P2">
-        <v>-42</v>
+        <v>-43.5</v>
       </c>
       <c r="Q2">
-        <v>-45.6</v>
+        <v>-44.4</v>
       </c>
       <c r="R2">
-        <v>-44.2</v>
+        <v>-42.1</v>
       </c>
       <c r="S2" t="str">
         <v>无</v>
       </c>
       <c r="T2">
-        <v>-19.100000000000001</v>
+        <v>-24.2</v>
       </c>
       <c r="U2">
-        <v>-10</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="V2">
-        <v>-23.4</v>
+        <v>-22.3</v>
       </c>
       <c r="W2">
-        <v>-35.700000000000003</v>
+        <v>-26.4</v>
       </c>
       <c r="X2">
-        <v>-33.9</v>
+        <v>-39.299999999999997</v>
       </c>
       <c r="Y2">
-        <v>-38.700000000000003</v>
+        <v>-42.4</v>
       </c>
       <c r="Z2">
-        <v>-37.4</v>
+        <v>-41.8</v>
       </c>
       <c r="AA2">
-        <v>-32.4</v>
+        <v>-38</v>
       </c>
       <c r="AB2">
-        <v>-27.3</v>
+        <v>-32</v>
       </c>
       <c r="AC2">
-        <v>-35.700000000000003</v>
+        <v>-35</v>
       </c>
       <c r="AD2">
-        <v>-41.9</v>
+        <v>-35.5</v>
       </c>
       <c r="AE2">
-        <v>-40.799999999999997</v>
+        <v>-39.700000000000003</v>
       </c>
       <c r="AF2">
-        <v>-31.8</v>
+        <v>-33.6</v>
       </c>
       <c r="AG2">
-        <v>-40</v>
+        <v>-38.4</v>
       </c>
       <c r="AH2">
-        <v>-40.6</v>
+        <v>-41.4</v>
       </c>
       <c r="AI2">
-        <v>-36.299999999999997</v>
+        <v>-33.5</v>
       </c>
       <c r="AJ2">
-        <v>-39.799999999999997</v>
+        <v>-39.299999999999997</v>
       </c>
       <c r="AK2">
-        <v>-19.399999999999999</v>
+        <v>-19.7</v>
       </c>
       <c r="AL2">
-        <v>-31.3</v>
+        <v>-29.9</v>
       </c>
       <c r="AM2">
-        <v>-35.299999999999997</v>
+        <v>-26</v>
       </c>
       <c r="AN2">
-        <v>-20.8</v>
+        <v>-15.5</v>
       </c>
       <c r="AO2">
-        <v>-19.2</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="AP2">
-        <v>-15.3</v>
+        <v>-13.5</v>
       </c>
       <c r="AQ2">
         <v>-37.5</v>
       </c>
       <c r="AR2">
-        <v>-17.2</v>
+        <v>-13.4</v>
       </c>
       <c r="AS2">
-        <v>-3.1</v>
+        <v>-4.5</v>
       </c>
       <c r="AT2">
-        <v>-22.7</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="AU2">
-        <v>-17.600000000000001</v>
+        <v>-22.9</v>
       </c>
       <c r="AV2">
-        <v>-20.8</v>
+        <v>-20.7</v>
       </c>
       <c r="AW2">
-        <v>-16.600000000000001</v>
+        <v>-19.8</v>
       </c>
       <c r="AX2">
-        <v>-14.2</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="AY2">
-        <v>-21.2</v>
+        <v>-21.8</v>
       </c>
       <c r="AZ2">
-        <v>-30.7</v>
+        <v>-34</v>
       </c>
       <c r="BA2">
-        <v>-37.1</v>
+        <v>-29.8</v>
       </c>
       <c r="BB2">
-        <v>-24.5</v>
+        <v>-19.8</v>
       </c>
       <c r="BC2">
-        <v>-28.9</v>
+        <v>-22</v>
       </c>
       <c r="BD2">
-        <v>-22.2</v>
+        <v>-18</v>
       </c>
       <c r="BE2">
-        <v>-28.2</v>
+        <v>-24.9</v>
       </c>
       <c r="BF2">
-        <v>-25</v>
+        <v>-20.7</v>
       </c>
       <c r="BG2">
-        <v>-11</v>
+        <v>-11.5</v>
       </c>
       <c r="BH2">
-        <v>-34.4</v>
+        <v>-26.9</v>
       </c>
       <c r="BI2">
-        <v>-32.700000000000003</v>
+        <v>-25.2</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3096,10 +3084,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>-28.3</v>
+        <v>-31.1</v>
       </c>
       <c r="H3" s="4">
-        <v>-14.8</v>
+        <v>-16.8</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>38</v>
@@ -3118,148 +3106,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>-34.700000000000003</v>
+        <v>-30.5</v>
       </c>
       <c r="O3">
-        <v>-14.8</v>
+        <v>-16.8</v>
       </c>
       <c r="P3">
-        <v>-29.9</v>
+        <v>-27.5</v>
       </c>
       <c r="Q3">
-        <v>-31.6</v>
+        <v>-27.9</v>
       </c>
       <c r="R3">
-        <v>-33.799999999999997</v>
+        <v>-28.1</v>
       </c>
       <c r="S3" t="str">
         <v>无</v>
       </c>
       <c r="T3">
-        <v>-6.1</v>
+        <v>-17.5</v>
       </c>
       <c r="U3">
-        <v>1.5</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="V3">
-        <v>-11.1</v>
+        <v>-12.5</v>
       </c>
       <c r="W3">
-        <v>-17.3</v>
+        <v>-13.8</v>
       </c>
       <c r="X3">
-        <v>-25.2</v>
+        <v>-27</v>
       </c>
       <c r="Y3">
-        <v>-23.5</v>
+        <v>-23.6</v>
       </c>
       <c r="Z3">
-        <v>-24.1</v>
+        <v>-24.2</v>
       </c>
       <c r="AA3">
-        <v>-21.5</v>
+        <v>-25.6</v>
       </c>
       <c r="AB3">
-        <v>-18.100000000000001</v>
+        <v>-10.9</v>
       </c>
       <c r="AC3">
-        <v>-28.9</v>
+        <v>-22.4</v>
       </c>
       <c r="AD3">
-        <v>-30.5</v>
+        <v>-21</v>
       </c>
       <c r="AE3">
-        <v>-27.8</v>
+        <v>-26.8</v>
       </c>
       <c r="AF3">
-        <v>-22.6</v>
+        <v>-23.7</v>
       </c>
       <c r="AG3">
-        <v>-26.1</v>
+        <v>-28.5</v>
       </c>
       <c r="AH3">
-        <v>-24.9</v>
+        <v>-27.7</v>
       </c>
       <c r="AI3">
-        <v>-10.9</v>
+        <v>-12.1</v>
       </c>
       <c r="AJ3">
-        <v>-27.6</v>
+        <v>-24.2</v>
       </c>
       <c r="AK3">
-        <v>-5.6</v>
+        <v>-2.4</v>
       </c>
       <c r="AL3">
-        <v>-13.8</v>
+        <v>-13.3</v>
       </c>
       <c r="AM3">
-        <v>-12.5</v>
+        <v>-7.6</v>
       </c>
       <c r="AN3">
-        <v>-9.6</v>
+        <v>-8.6</v>
       </c>
       <c r="AO3">
-        <v>-8.5</v>
+        <v>-4.7</v>
       </c>
       <c r="AP3">
-        <v>-5.3</v>
+        <v>-3.1</v>
       </c>
       <c r="AQ3">
-        <v>-25.8</v>
+        <v>-24.7</v>
       </c>
       <c r="AR3">
-        <v>-3.9</v>
+        <v>0.2</v>
       </c>
       <c r="AS3">
         <v>13.1</v>
       </c>
       <c r="AT3">
-        <v>-2.4</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="AU3">
-        <v>-5.7</v>
+        <v>-1.3</v>
       </c>
       <c r="AV3">
-        <v>-7.9</v>
+        <v>-1.7</v>
       </c>
       <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>3.5</v>
+      </c>
+      <c r="AY3">
+        <v>3.3</v>
+      </c>
+      <c r="AZ3">
+        <v>-19.2</v>
+      </c>
+      <c r="BA3">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="BB3">
         <v>-3.7</v>
       </c>
-      <c r="AX3">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="AY3">
-        <v>-1.2</v>
-      </c>
-      <c r="AZ3">
-        <v>-18.100000000000001</v>
-      </c>
-      <c r="BA3">
-        <v>-21.9</v>
-      </c>
-      <c r="BB3">
-        <v>-9.1</v>
-      </c>
       <c r="BC3">
-        <v>2.2999999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="BD3">
-        <v>1.5</v>
+        <v>-0.8</v>
       </c>
       <c r="BE3">
-        <v>-11.3</v>
+        <v>-10.1</v>
       </c>
       <c r="BF3">
-        <v>-4.8</v>
+        <v>-5.3</v>
       </c>
       <c r="BG3">
-        <v>-1.2</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="BH3">
-        <v>-13.4</v>
+        <v>-9.4</v>
       </c>
       <c r="BI3">
-        <v>-15.8</v>
+        <v>-12.2</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3280,10 +3268,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>-42</v>
+        <v>-43.5</v>
       </c>
       <c r="H4" s="4">
-        <v>-29.9</v>
+        <v>-27.5</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>117</v>
@@ -3316,10 +3304,10 @@
         <v>110</v>
       </c>
       <c r="G5" s="4">
-        <v>-45.6</v>
+        <v>-44.4</v>
       </c>
       <c r="H5" s="4">
-        <v>-31.6</v>
+        <v>-27.9</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
@@ -3361,10 +3349,10 @@
         <v>179</v>
       </c>
       <c r="G6" s="4">
-        <v>-44.2</v>
+        <v>-42.1</v>
       </c>
       <c r="H6" s="4">
-        <v>-33.799999999999997</v>
+        <v>-28.1</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>115</v>
@@ -3451,10 +3439,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>-19.100000000000001</v>
+        <v>-24.2</v>
       </c>
       <c r="H8" s="4">
-        <v>-6.1</v>
+        <v>-17.5</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>120</v>
@@ -3494,10 +3482,10 @@
         <v>95</v>
       </c>
       <c r="G9" s="4">
-        <v>-10</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="H9" s="4">
-        <v>1.5</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>119</v>
@@ -3528,10 +3516,10 @@
         <v>102</v>
       </c>
       <c r="G10" s="4">
-        <v>-23.4</v>
+        <v>-22.3</v>
       </c>
       <c r="H10" s="4">
-        <v>-11.1</v>
+        <v>-12.5</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>100</v>
@@ -3562,10 +3550,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="4">
-        <v>-35.700000000000003</v>
+        <v>-26.4</v>
       </c>
       <c r="H11" s="4">
-        <v>-17.3</v>
+        <v>-13.8</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>54</v>
@@ -3596,10 +3584,10 @@
         <v>87</v>
       </c>
       <c r="G12" s="4">
-        <v>-33.9</v>
+        <v>-39.299999999999997</v>
       </c>
       <c r="H12" s="4">
-        <v>-25.2</v>
+        <v>-27</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>28</v>
@@ -3630,10 +3618,10 @@
         <v>89</v>
       </c>
       <c r="G13" s="4">
-        <v>-38.700000000000003</v>
+        <v>-42.4</v>
       </c>
       <c r="H13" s="4">
-        <v>-23.5</v>
+        <v>-23.6</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
@@ -3664,10 +3652,10 @@
         <v>27</v>
       </c>
       <c r="G14" s="4">
-        <v>-37.4</v>
+        <v>-41.8</v>
       </c>
       <c r="H14" s="4">
-        <v>-24.1</v>
+        <v>-24.2</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
@@ -3698,10 +3686,10 @@
         <v>180</v>
       </c>
       <c r="G15" s="4">
-        <v>-32.4</v>
+        <v>-38</v>
       </c>
       <c r="H15" s="4">
-        <v>-21.5</v>
+        <v>-25.6</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
@@ -3732,10 +3720,10 @@
         <v>99</v>
       </c>
       <c r="G16" s="4">
-        <v>-27.3</v>
+        <v>-32</v>
       </c>
       <c r="H16" s="4">
-        <v>-18.100000000000001</v>
+        <v>-10.9</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>96</v>
@@ -3766,10 +3754,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="4">
-        <v>-35.700000000000003</v>
+        <v>-35</v>
       </c>
       <c r="H17" s="4">
-        <v>-28.9</v>
+        <v>-22.4</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>161</v>
@@ -3800,10 +3788,10 @@
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>-41.9</v>
+        <v>-35.5</v>
       </c>
       <c r="H18" s="4">
-        <v>-30.5</v>
+        <v>-21</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
@@ -3834,10 +3822,10 @@
         <v>108</v>
       </c>
       <c r="G19" s="4">
-        <v>-40.799999999999997</v>
+        <v>-39.700000000000003</v>
       </c>
       <c r="H19" s="4">
-        <v>-27.8</v>
+        <v>-26.8</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>114</v>
@@ -3868,10 +3856,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="4">
-        <v>-31.8</v>
+        <v>-33.6</v>
       </c>
       <c r="H20" s="4">
-        <v>-22.6</v>
+        <v>-23.7</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
@@ -3902,10 +3890,10 @@
         <v>106</v>
       </c>
       <c r="G21" s="4">
-        <v>-40</v>
+        <v>-38.4</v>
       </c>
       <c r="H21" s="4">
-        <v>-26.1</v>
+        <v>-28.5</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>115</v>
@@ -3936,10 +3924,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="13">
-        <v>-40.6</v>
+        <v>-41.4</v>
       </c>
       <c r="H22" s="13">
-        <v>-24.9</v>
+        <v>-27.7</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>40</v>
@@ -3972,10 +3960,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="4">
-        <v>-36.299999999999997</v>
+        <v>-33.5</v>
       </c>
       <c r="H23" s="4">
-        <v>-10.9</v>
+        <v>-12.1</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
@@ -4008,10 +3996,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="4">
-        <v>-39.799999999999997</v>
+        <v>-39.299999999999997</v>
       </c>
       <c r="H24" s="4">
-        <v>-27.6</v>
+        <v>-24.2</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -4042,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="4">
-        <v>-19.399999999999999</v>
+        <v>-19.7</v>
       </c>
       <c r="H25" s="4">
-        <v>-5.6</v>
+        <v>-2.4</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -4078,10 +4066,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>-31.3</v>
+        <v>-29.9</v>
       </c>
       <c r="H26" s="4">
-        <v>-13.8</v>
+        <v>-13.3</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -4112,10 +4100,10 @@
         <v>181</v>
       </c>
       <c r="G27" s="4">
-        <v>-35.299999999999997</v>
+        <v>-26</v>
       </c>
       <c r="H27" s="4">
-        <v>-12.5</v>
+        <v>-7.6</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
@@ -4146,10 +4134,10 @@
         <v>77</v>
       </c>
       <c r="G28" s="4">
-        <v>-20.8</v>
+        <v>-15.5</v>
       </c>
       <c r="H28" s="4">
-        <v>-9.6</v>
+        <v>-8.6</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
@@ -4182,10 +4170,10 @@
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <v>-19.2</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="H29" s="4">
-        <v>-8.5</v>
+        <v>-4.7</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -4216,10 +4204,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>-15.3</v>
+        <v>-13.5</v>
       </c>
       <c r="H30" s="4">
-        <v>-5.3</v>
+        <v>-3.1</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
@@ -4255,7 +4243,7 @@
         <v>-37.5</v>
       </c>
       <c r="H31" s="4">
-        <v>-25.8</v>
+        <v>-24.7</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
@@ -4286,10 +4274,10 @@
         <v>66</v>
       </c>
       <c r="G32" s="4">
-        <v>-17.2</v>
+        <v>-13.4</v>
       </c>
       <c r="H32" s="4">
-        <v>-3.9</v>
+        <v>0.2</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
@@ -4320,7 +4308,7 @@
         <v>253</v>
       </c>
       <c r="G33" s="4">
-        <v>-3.1</v>
+        <v>-4.5</v>
       </c>
       <c r="H33" s="4">
         <v>13.1</v>
@@ -4354,10 +4342,10 @@
         <v>59</v>
       </c>
       <c r="G34" s="4">
-        <v>-22.7</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="H34" s="4">
-        <v>-2.4</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
@@ -4388,10 +4376,10 @@
         <v>56</v>
       </c>
       <c r="G35" s="4">
-        <v>-17.600000000000001</v>
+        <v>-22.9</v>
       </c>
       <c r="H35" s="4">
-        <v>-5.7</v>
+        <v>-1.3</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
@@ -4422,10 +4410,10 @@
         <v>46</v>
       </c>
       <c r="G36" s="4">
-        <v>-20.8</v>
+        <v>-20.7</v>
       </c>
       <c r="H36" s="4">
-        <v>-7.9</v>
+        <v>-1.7</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>47</v>
@@ -4458,10 +4446,10 @@
         <v>49</v>
       </c>
       <c r="G37" s="4">
-        <v>-16.600000000000001</v>
+        <v>-19.8</v>
       </c>
       <c r="H37" s="4">
-        <v>-3.7</v>
+        <v>1</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>45</v>
@@ -4494,10 +4482,10 @@
         <v>51</v>
       </c>
       <c r="G38" s="4">
-        <v>-14.2</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="H38" s="4">
-        <v>-1.1000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
@@ -4528,10 +4516,10 @@
         <v>58</v>
       </c>
       <c r="G39" s="4">
-        <v>-21.2</v>
+        <v>-21.8</v>
       </c>
       <c r="H39" s="4">
-        <v>-1.2</v>
+        <v>3.3</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
@@ -4562,10 +4550,10 @@
         <v>44</v>
       </c>
       <c r="G40" s="4">
-        <v>-30.7</v>
+        <v>-34</v>
       </c>
       <c r="H40" s="4">
-        <v>-18.100000000000001</v>
+        <v>-19.2</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>43</v>
@@ -4596,10 +4584,10 @@
         <v>74</v>
       </c>
       <c r="G41" s="4">
-        <v>-37.1</v>
+        <v>-29.8</v>
       </c>
       <c r="H41" s="4">
-        <v>-21.9</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
@@ -4630,10 +4618,10 @@
         <v>72</v>
       </c>
       <c r="G42" s="4">
-        <v>-24.5</v>
+        <v>-19.8</v>
       </c>
       <c r="H42" s="4">
-        <v>-9.1</v>
+        <v>-3.7</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>2</v>
@@ -4664,10 +4652,10 @@
         <v>62</v>
       </c>
       <c r="G43" s="4">
-        <v>-28.9</v>
+        <v>-22</v>
       </c>
       <c r="H43" s="4">
-        <v>2.2999999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
@@ -4698,10 +4686,10 @@
         <v>64</v>
       </c>
       <c r="G44" s="4">
-        <v>-22.2</v>
+        <v>-18</v>
       </c>
       <c r="H44" s="4">
-        <v>1.5</v>
+        <v>-0.8</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>65</v>
@@ -4732,10 +4720,10 @@
         <v>79</v>
       </c>
       <c r="G45" s="4">
-        <v>-28.2</v>
+        <v>-24.9</v>
       </c>
       <c r="H45" s="4">
-        <v>-11.3</v>
+        <v>-10.1</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>22</v>
@@ -4766,10 +4754,10 @@
         <v>81</v>
       </c>
       <c r="G46" s="4">
-        <v>-25</v>
+        <v>-20.7</v>
       </c>
       <c r="H46" s="4">
-        <v>-4.8</v>
+        <v>-5.3</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
@@ -4800,10 +4788,10 @@
         <v>83</v>
       </c>
       <c r="G47" s="4">
-        <v>-11</v>
+        <v>-11.5</v>
       </c>
       <c r="H47" s="4">
-        <v>-1.2</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>21</v>
@@ -4836,10 +4824,10 @@
         <v>68</v>
       </c>
       <c r="G48" s="4">
-        <v>-34.4</v>
+        <v>-26.9</v>
       </c>
       <c r="H48" s="4">
-        <v>-13.4</v>
+        <v>-9.4</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -4870,10 +4858,10 @@
         <v>70</v>
       </c>
       <c r="G49" s="4">
-        <v>-32.700000000000003</v>
+        <v>-25.2</v>
       </c>
       <c r="H49" s="4">
-        <v>-15.8</v>
+        <v>-12.2</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>2</v>
@@ -4901,7 +4889,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4924,7 +4912,7 @@
         <v>254</v>
       </c>
       <c r="F1" s="62">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="G1" s="63"/>
       <c r="H1" s="60" t="s">
@@ -5006,10 +4994,10 @@
         <v>109</v>
       </c>
       <c r="G4" s="36">
-        <v>-44.8</v>
+        <v>-42.5</v>
       </c>
       <c r="H4" s="36">
-        <v>-34.700000000000003</v>
+        <v>-30.5</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>175</v>
@@ -5040,10 +5028,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="36">
-        <v>-28.3</v>
+        <v>-31.1</v>
       </c>
       <c r="H5" s="36">
-        <v>-14.8</v>
+        <v>-16.8</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>155</v>
@@ -5065,10 +5053,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="36">
-        <v>-42</v>
+        <v>-43.5</v>
       </c>
       <c r="H6" s="36">
-        <v>-29.9</v>
+        <v>-27.5</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>230</v>
@@ -5092,10 +5080,10 @@
         <v>109</v>
       </c>
       <c r="G7" s="36">
-        <v>-45.6</v>
+        <v>-44.4</v>
       </c>
       <c r="H7" s="36">
-        <v>-31.6</v>
+        <v>-27.9</v>
       </c>
       <c r="I7" s="34" t="s">
         <v>111</v>
@@ -5116,11 +5104,11 @@
       <c r="F8" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="65">
-        <v>-44.2</v>
+      <c r="G8" s="36">
+        <v>-42.1</v>
       </c>
       <c r="H8" s="36">
-        <v>-33.799999999999997</v>
+        <v>-28.1</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>172</v>
@@ -5167,10 +5155,10 @@
         <v>7</v>
       </c>
       <c r="G10" s="36">
-        <v>-19.100000000000001</v>
+        <v>-24.2</v>
       </c>
       <c r="H10" s="36">
-        <v>-6.1</v>
+        <v>-17.5</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>245</v>
@@ -5192,10 +5180,10 @@
         <v>94</v>
       </c>
       <c r="G11" s="36">
-        <v>-10</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="H11" s="36">
-        <v>1.5</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>246</v>
@@ -5217,10 +5205,10 @@
         <v>101</v>
       </c>
       <c r="G12" s="36">
-        <v>-23.4</v>
+        <v>-22.3</v>
       </c>
       <c r="H12" s="36">
-        <v>-11.1</v>
+        <v>-12.5</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>244</v>
@@ -5242,10 +5230,10 @@
         <v>135</v>
       </c>
       <c r="G13" s="36">
-        <v>-35.700000000000003</v>
+        <v>-26.4</v>
       </c>
       <c r="H13" s="36">
-        <v>-17.3</v>
+        <v>-13.8</v>
       </c>
       <c r="I13" s="34" t="s">
         <v>158</v>
@@ -5267,10 +5255,10 @@
         <v>86</v>
       </c>
       <c r="G14" s="36">
-        <v>-33.9</v>
+        <v>-39.299999999999997</v>
       </c>
       <c r="H14" s="36">
-        <v>-25.2</v>
+        <v>-27</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>154</v>
@@ -5284,7 +5272,9 @@
       <c r="C15" s="52">
         <v>2</v>
       </c>
-      <c r="D15" s="52"/>
+      <c r="D15" s="52">
+        <v>0</v>
+      </c>
       <c r="E15" s="27" t="s">
         <v>224</v>
       </c>
@@ -5292,10 +5282,10 @@
         <v>88</v>
       </c>
       <c r="G15" s="36">
-        <v>-38.700000000000003</v>
+        <v>-42.4</v>
       </c>
       <c r="H15" s="36">
-        <v>-23.5</v>
+        <v>-23.6</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>154</v>
@@ -5317,10 +5307,10 @@
         <v>136</v>
       </c>
       <c r="G16" s="36">
-        <v>-37.4</v>
+        <v>-41.8</v>
       </c>
       <c r="H16" s="36">
-        <v>-24.1</v>
+        <v>-24.2</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>154</v>
@@ -5342,10 +5332,10 @@
         <v>182</v>
       </c>
       <c r="G17" s="36">
-        <v>-32.4</v>
+        <v>-38</v>
       </c>
       <c r="H17" s="36">
-        <v>-21.5</v>
+        <v>-25.6</v>
       </c>
       <c r="I17" s="34" t="s">
         <v>242</v>
@@ -5367,10 +5357,10 @@
         <v>98</v>
       </c>
       <c r="G18" s="36">
-        <v>-27.3</v>
+        <v>-32</v>
       </c>
       <c r="H18" s="36">
-        <v>-18.100000000000001</v>
+        <v>-10.9</v>
       </c>
       <c r="I18" s="34" t="s">
         <v>32</v>
@@ -5392,10 +5382,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="36">
-        <v>-35.700000000000003</v>
+        <v>-35</v>
       </c>
       <c r="H19" s="36">
-        <v>-28.9</v>
+        <v>-22.4</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>243</v>
@@ -5409,9 +5399,7 @@
       <c r="C20" s="52">
         <v>2</v>
       </c>
-      <c r="D20" s="52">
-        <v>0</v>
-      </c>
+      <c r="D20" s="52"/>
       <c r="E20" s="28" t="s">
         <v>227</v>
       </c>
@@ -5419,10 +5407,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="36">
-        <v>-41.9</v>
+        <v>-35.5</v>
       </c>
       <c r="H20" s="36">
-        <v>-30.5</v>
+        <v>-21</v>
       </c>
       <c r="I20" s="34" t="s">
         <v>241</v>
@@ -5444,10 +5432,10 @@
         <v>107</v>
       </c>
       <c r="G21" s="36">
-        <v>-40.799999999999997</v>
+        <v>-39.700000000000003</v>
       </c>
       <c r="H21" s="36">
-        <v>-27.8</v>
+        <v>-26.8</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>175</v>
@@ -5469,10 +5457,10 @@
         <v>9</v>
       </c>
       <c r="G22" s="36">
-        <v>-31.8</v>
+        <v>-33.6</v>
       </c>
       <c r="H22" s="36">
-        <v>-22.6</v>
+        <v>-23.7</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>231</v>
@@ -5494,10 +5482,10 @@
         <v>105</v>
       </c>
       <c r="G23" s="36">
-        <v>-40</v>
+        <v>-38.4</v>
       </c>
       <c r="H23" s="36">
-        <v>-26.1</v>
+        <v>-28.5</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>172</v>
@@ -5519,10 +5507,10 @@
         <v>12</v>
       </c>
       <c r="G24" s="36">
-        <v>-40.6</v>
+        <v>-41.4</v>
       </c>
       <c r="H24" s="36">
-        <v>-24.9</v>
+        <v>-27.7</v>
       </c>
       <c r="I24" s="34" t="s">
         <v>111</v>
@@ -5544,10 +5532,10 @@
         <v>13</v>
       </c>
       <c r="G25" s="36">
-        <v>-36.299999999999997</v>
+        <v>-33.5</v>
       </c>
       <c r="H25" s="36">
-        <v>-10.9</v>
+        <v>-12.1</v>
       </c>
       <c r="I25" s="34" t="s">
         <v>151</v>
@@ -5569,10 +5557,10 @@
         <v>10</v>
       </c>
       <c r="G26" s="36">
-        <v>-39.799999999999997</v>
+        <v>-39.299999999999997</v>
       </c>
       <c r="H26" s="36">
-        <v>-27.6</v>
+        <v>-24.2</v>
       </c>
       <c r="I26" s="34" t="s">
         <v>229</v>
@@ -5594,10 +5582,10 @@
         <v>11</v>
       </c>
       <c r="G27" s="36">
-        <v>-19.399999999999999</v>
+        <v>-19.7</v>
       </c>
       <c r="H27" s="36">
-        <v>-5.6</v>
+        <v>-2.4</v>
       </c>
       <c r="I27" s="34" t="s">
         <v>155</v>
@@ -5621,10 +5609,10 @@
         <v>137</v>
       </c>
       <c r="G28" s="36">
-        <v>-31.3</v>
+        <v>-29.9</v>
       </c>
       <c r="H28" s="36">
-        <v>-13.8</v>
+        <v>-13.3</v>
       </c>
       <c r="I28" s="34" t="s">
         <v>234</v>
@@ -5646,10 +5634,10 @@
         <v>183</v>
       </c>
       <c r="G29" s="36">
-        <v>-35.299999999999997</v>
+        <v>-26</v>
       </c>
       <c r="H29" s="36">
-        <v>-12.5</v>
+        <v>-7.6</v>
       </c>
       <c r="I29" s="34" t="s">
         <v>232</v>
@@ -5671,10 +5659,10 @@
         <v>76</v>
       </c>
       <c r="G30" s="36">
-        <v>-20.8</v>
+        <v>-15.5</v>
       </c>
       <c r="H30" s="36">
-        <v>-9.6</v>
+        <v>-8.6</v>
       </c>
       <c r="I30" s="34" t="s">
         <v>237</v>
@@ -5698,10 +5686,10 @@
         <v>103</v>
       </c>
       <c r="G31" s="36">
-        <v>-19.2</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="H31" s="36">
-        <v>-8.5</v>
+        <v>-4.7</v>
       </c>
       <c r="I31" s="34" t="s">
         <v>238</v>
@@ -5723,10 +5711,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="36">
-        <v>-15.3</v>
+        <v>-13.5</v>
       </c>
       <c r="H32" s="36">
-        <v>-5.3</v>
+        <v>-3.1</v>
       </c>
       <c r="I32" s="34" t="s">
         <v>159</v>
@@ -5753,7 +5741,7 @@
         <v>-37.5</v>
       </c>
       <c r="H33" s="36">
-        <v>-25.8</v>
+        <v>-24.7</v>
       </c>
       <c r="I33" s="34" t="s">
         <v>239</v>
@@ -5775,10 +5763,10 @@
         <v>139</v>
       </c>
       <c r="G34" s="36">
-        <v>-17.2</v>
+        <v>-13.4</v>
       </c>
       <c r="H34" s="36">
-        <v>-3.9</v>
+        <v>0.2</v>
       </c>
       <c r="I34" s="34" t="s">
         <v>174</v>
@@ -5802,7 +5790,7 @@
         <v>253</v>
       </c>
       <c r="G35" s="36">
-        <v>-3.1</v>
+        <v>-4.5</v>
       </c>
       <c r="H35" s="36">
         <v>13.1</v>
@@ -5827,10 +5815,10 @@
         <v>140</v>
       </c>
       <c r="G36" s="36">
-        <v>-22.7</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="H36" s="36">
-        <v>-2.4</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="I36" s="34"/>
     </row>
@@ -5852,10 +5840,10 @@
         <v>141</v>
       </c>
       <c r="G37" s="36">
-        <v>-17.600000000000001</v>
+        <v>-22.9</v>
       </c>
       <c r="H37" s="36">
-        <v>-5.7</v>
+        <v>-1.3</v>
       </c>
       <c r="I37" s="34"/>
     </row>
@@ -5877,10 +5865,10 @@
         <v>142</v>
       </c>
       <c r="G38" s="36">
-        <v>-20.8</v>
+        <v>-20.7</v>
       </c>
       <c r="H38" s="36">
-        <v>-7.9</v>
+        <v>-1.7</v>
       </c>
       <c r="I38" s="34" t="s">
         <v>173</v>
@@ -5904,10 +5892,10 @@
         <v>143</v>
       </c>
       <c r="G39" s="36">
-        <v>-16.600000000000001</v>
+        <v>-19.8</v>
       </c>
       <c r="H39" s="36">
-        <v>-3.7</v>
+        <v>1</v>
       </c>
       <c r="I39" s="34" t="s">
         <v>240</v>
@@ -5931,10 +5919,10 @@
         <v>144</v>
       </c>
       <c r="G40" s="36">
-        <v>-14.2</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="H40" s="36">
-        <v>-1.1000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="I40" s="34"/>
     </row>
@@ -5956,10 +5944,10 @@
         <v>145</v>
       </c>
       <c r="G41" s="36">
-        <v>-21.2</v>
+        <v>-21.8</v>
       </c>
       <c r="H41" s="36">
-        <v>-1.2</v>
+        <v>3.3</v>
       </c>
       <c r="I41" s="34"/>
     </row>
@@ -5971,7 +5959,9 @@
       <c r="C42" s="52">
         <v>1</v>
       </c>
-      <c r="D42" s="52"/>
+      <c r="D42" s="52">
+        <v>0</v>
+      </c>
       <c r="E42" s="30" t="s">
         <v>209</v>
       </c>
@@ -5979,10 +5969,10 @@
         <v>146</v>
       </c>
       <c r="G42" s="36">
-        <v>-30.7</v>
+        <v>-34</v>
       </c>
       <c r="H42" s="36">
-        <v>-18.100000000000001</v>
+        <v>-19.2</v>
       </c>
       <c r="I42" s="34" t="s">
         <v>235</v>
@@ -5996,9 +5986,7 @@
       <c r="C43" s="52">
         <v>1</v>
       </c>
-      <c r="D43" s="52">
-        <v>0</v>
-      </c>
+      <c r="D43" s="52"/>
       <c r="E43" s="30" t="s">
         <v>214</v>
       </c>
@@ -6006,10 +5994,10 @@
         <v>73</v>
       </c>
       <c r="G43" s="36">
-        <v>-37.1</v>
+        <v>-29.8</v>
       </c>
       <c r="H43" s="36">
-        <v>-21.9</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="I43" s="34" t="s">
         <v>234</v>
@@ -6031,10 +6019,10 @@
         <v>71</v>
       </c>
       <c r="G44" s="36">
-        <v>-24.5</v>
+        <v>-19.8</v>
       </c>
       <c r="H44" s="36">
-        <v>-9.1</v>
+        <v>-3.7</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>157</v>
@@ -6056,10 +6044,10 @@
         <v>147</v>
       </c>
       <c r="G45" s="36">
-        <v>-28.9</v>
+        <v>-22</v>
       </c>
       <c r="H45" s="36">
-        <v>2.2999999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="I45" s="34" t="s">
         <v>160</v>
@@ -6081,10 +6069,10 @@
         <v>148</v>
       </c>
       <c r="G46" s="36">
-        <v>-22.2</v>
+        <v>-18</v>
       </c>
       <c r="H46" s="36">
-        <v>1.5</v>
+        <v>-0.8</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>160</v>
@@ -6106,10 +6094,10 @@
         <v>78</v>
       </c>
       <c r="G47" s="36">
-        <v>-28.2</v>
+        <v>-24.9</v>
       </c>
       <c r="H47" s="36">
-        <v>-11.3</v>
+        <v>-10.1</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>156</v>
@@ -6131,10 +6119,10 @@
         <v>80</v>
       </c>
       <c r="G48" s="36">
-        <v>-25</v>
+        <v>-20.7</v>
       </c>
       <c r="H48" s="36">
-        <v>-4.8</v>
+        <v>-5.3</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>236</v>
@@ -6156,10 +6144,10 @@
         <v>82</v>
       </c>
       <c r="G49" s="36">
-        <v>-11</v>
+        <v>-11.5</v>
       </c>
       <c r="H49" s="36">
-        <v>-1.2</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="I49" s="34" t="s">
         <v>159</v>
@@ -6183,10 +6171,10 @@
         <v>67</v>
       </c>
       <c r="G50" s="36">
-        <v>-34.4</v>
+        <v>-26.9</v>
       </c>
       <c r="H50" s="36">
-        <v>-13.4</v>
+        <v>-9.4</v>
       </c>
       <c r="I50" s="34" t="s">
         <v>157</v>
@@ -6208,10 +6196,10 @@
         <v>69</v>
       </c>
       <c r="G51" s="36">
-        <v>-32.700000000000003</v>
+        <v>-25.2</v>
       </c>
       <c r="H51" s="36">
-        <v>-15.8</v>
+        <v>-12.2</v>
       </c>
       <c r="I51" s="34" t="s">
         <v>233</v>
@@ -6271,7 +6259,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10138,6 +10126,150 @@
     <row r="27" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A27" s="16">
         <v>45674</v>
+      </c>
+      <c r="B27">
+        <v>-42.5</v>
+      </c>
+      <c r="C27">
+        <v>-31.1</v>
+      </c>
+      <c r="D27">
+        <v>-43.5</v>
+      </c>
+      <c r="E27">
+        <v>-44.4</v>
+      </c>
+      <c r="F27">
+        <v>-42.1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>247</v>
+      </c>
+      <c r="H27">
+        <v>-24.2</v>
+      </c>
+      <c r="I27">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="J27">
+        <v>-22.3</v>
+      </c>
+      <c r="K27">
+        <v>-26.4</v>
+      </c>
+      <c r="L27">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="M27">
+        <v>-42.4</v>
+      </c>
+      <c r="N27">
+        <v>-41.8</v>
+      </c>
+      <c r="O27">
+        <v>-38</v>
+      </c>
+      <c r="P27">
+        <v>-32</v>
+      </c>
+      <c r="Q27">
+        <v>-35</v>
+      </c>
+      <c r="R27">
+        <v>-35.5</v>
+      </c>
+      <c r="S27">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="T27">
+        <v>-33.6</v>
+      </c>
+      <c r="U27">
+        <v>-38.4</v>
+      </c>
+      <c r="V27">
+        <v>-41.4</v>
+      </c>
+      <c r="W27">
+        <v>-33.5</v>
+      </c>
+      <c r="X27">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="Y27">
+        <v>-19.7</v>
+      </c>
+      <c r="Z27">
+        <v>-29.9</v>
+      </c>
+      <c r="AA27">
+        <v>-26</v>
+      </c>
+      <c r="AB27">
+        <v>-15.5</v>
+      </c>
+      <c r="AC27">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AD27">
+        <v>-13.5</v>
+      </c>
+      <c r="AE27">
+        <v>-37.5</v>
+      </c>
+      <c r="AF27">
+        <v>-13.4</v>
+      </c>
+      <c r="AG27">
+        <v>-4.5</v>
+      </c>
+      <c r="AH27">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="AI27">
+        <v>-22.9</v>
+      </c>
+      <c r="AJ27">
+        <v>-20.7</v>
+      </c>
+      <c r="AK27">
+        <v>-19.8</v>
+      </c>
+      <c r="AL27">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="AM27">
+        <v>-21.8</v>
+      </c>
+      <c r="AN27">
+        <v>-34</v>
+      </c>
+      <c r="AO27">
+        <v>-29.8</v>
+      </c>
+      <c r="AP27">
+        <v>-19.8</v>
+      </c>
+      <c r="AQ27">
+        <v>-22</v>
+      </c>
+      <c r="AR27">
+        <v>-18</v>
+      </c>
+      <c r="AS27">
+        <v>-24.9</v>
+      </c>
+      <c r="AT27">
+        <v>-20.7</v>
+      </c>
+      <c r="AU27">
+        <v>-11.5</v>
+      </c>
+      <c r="AV27">
+        <v>-26.9</v>
+      </c>
+      <c r="AW27">
+        <v>-25.2</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.4">
@@ -14259,6 +14391,150 @@
       <c r="A27" s="16">
         <v>45674</v>
       </c>
+      <c r="B27">
+        <v>-30.5</v>
+      </c>
+      <c r="C27">
+        <v>-16.8</v>
+      </c>
+      <c r="D27">
+        <v>-27.5</v>
+      </c>
+      <c r="E27">
+        <v>-27.9</v>
+      </c>
+      <c r="F27">
+        <v>-28.1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>247</v>
+      </c>
+      <c r="H27">
+        <v>-17.5</v>
+      </c>
+      <c r="I27">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="J27">
+        <v>-12.5</v>
+      </c>
+      <c r="K27">
+        <v>-13.8</v>
+      </c>
+      <c r="L27">
+        <v>-27</v>
+      </c>
+      <c r="M27">
+        <v>-23.6</v>
+      </c>
+      <c r="N27">
+        <v>-24.2</v>
+      </c>
+      <c r="O27">
+        <v>-25.6</v>
+      </c>
+      <c r="P27">
+        <v>-10.9</v>
+      </c>
+      <c r="Q27">
+        <v>-22.4</v>
+      </c>
+      <c r="R27">
+        <v>-21</v>
+      </c>
+      <c r="S27">
+        <v>-26.8</v>
+      </c>
+      <c r="T27">
+        <v>-23.7</v>
+      </c>
+      <c r="U27">
+        <v>-28.5</v>
+      </c>
+      <c r="V27">
+        <v>-27.7</v>
+      </c>
+      <c r="W27">
+        <v>-12.1</v>
+      </c>
+      <c r="X27">
+        <v>-24.2</v>
+      </c>
+      <c r="Y27">
+        <v>-2.4</v>
+      </c>
+      <c r="Z27">
+        <v>-13.3</v>
+      </c>
+      <c r="AA27">
+        <v>-7.6</v>
+      </c>
+      <c r="AB27">
+        <v>-8.6</v>
+      </c>
+      <c r="AC27">
+        <v>-4.7</v>
+      </c>
+      <c r="AD27">
+        <v>-3.1</v>
+      </c>
+      <c r="AE27">
+        <v>-24.7</v>
+      </c>
+      <c r="AF27">
+        <v>0.2</v>
+      </c>
+      <c r="AG27">
+        <v>13.1</v>
+      </c>
+      <c r="AH27">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="AI27">
+        <v>-1.3</v>
+      </c>
+      <c r="AJ27">
+        <v>-1.7</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>3.5</v>
+      </c>
+      <c r="AM27">
+        <v>3.3</v>
+      </c>
+      <c r="AN27">
+        <v>-19.2</v>
+      </c>
+      <c r="AO27">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="AP27">
+        <v>-3.7</v>
+      </c>
+      <c r="AQ27">
+        <v>3.6</v>
+      </c>
+      <c r="AR27">
+        <v>-0.8</v>
+      </c>
+      <c r="AS27">
+        <v>-10.1</v>
+      </c>
+      <c r="AT27">
+        <v>-5.3</v>
+      </c>
+      <c r="AU27">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AV27">
+        <v>-9.4</v>
+      </c>
+      <c r="AW27">
+        <v>-12.2</v>
+      </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A28" s="16">

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EBA2F3-C737-4A74-9037-E03C2BA93BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC3FBE0-8DD7-4B10-AE28-72E9F6A783A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="258">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2830,7 +2830,7 @@
   <dimension ref="A1:BI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2900,10 +2900,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="4">
-        <v>-42.5</v>
+        <v>-34.799999999999997</v>
       </c>
       <c r="H2" s="4">
-        <v>-30.5</v>
+        <v>-27.2</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
@@ -2922,148 +2922,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>-42.5</v>
+        <v>-34.799999999999997</v>
       </c>
       <c r="O2">
-        <v>-31.1</v>
+        <v>-27.5</v>
       </c>
       <c r="P2">
-        <v>-43.5</v>
+        <v>-35.9</v>
       </c>
       <c r="Q2">
-        <v>-44.4</v>
+        <v>-30.9</v>
       </c>
       <c r="R2">
-        <v>-42.1</v>
+        <v>-31.2</v>
       </c>
       <c r="S2" t="str">
         <v>无</v>
       </c>
       <c r="T2">
-        <v>-24.2</v>
+        <v>-25.8</v>
       </c>
       <c r="U2">
-        <v>-8.3000000000000007</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="V2">
-        <v>-22.3</v>
+        <v>-26.8</v>
       </c>
       <c r="W2">
-        <v>-26.4</v>
+        <v>-34.200000000000003</v>
       </c>
       <c r="X2">
-        <v>-39.299999999999997</v>
+        <v>-21.3</v>
       </c>
       <c r="Y2">
-        <v>-42.4</v>
+        <v>-22.9</v>
       </c>
       <c r="Z2">
-        <v>-41.8</v>
+        <v>-28.8</v>
       </c>
       <c r="AA2">
-        <v>-38</v>
+        <v>-25.3</v>
       </c>
       <c r="AB2">
-        <v>-32</v>
+        <v>-19.5</v>
       </c>
       <c r="AC2">
-        <v>-35</v>
+        <v>-23.8</v>
       </c>
       <c r="AD2">
-        <v>-35.5</v>
+        <v>-26.8</v>
       </c>
       <c r="AE2">
-        <v>-39.700000000000003</v>
+        <v>-29.6</v>
       </c>
       <c r="AF2">
-        <v>-33.6</v>
+        <v>-31.5</v>
       </c>
       <c r="AG2">
-        <v>-38.4</v>
+        <v>-33.1</v>
       </c>
       <c r="AH2">
-        <v>-41.4</v>
+        <v>-29.2</v>
       </c>
       <c r="AI2">
-        <v>-33.5</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="AJ2">
-        <v>-39.299999999999997</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="AK2">
-        <v>-19.7</v>
+        <v>-16.5</v>
       </c>
       <c r="AL2">
-        <v>-29.9</v>
+        <v>-34.6</v>
       </c>
       <c r="AM2">
-        <v>-26</v>
+        <v>-31.8</v>
       </c>
       <c r="AN2">
-        <v>-15.5</v>
+        <v>-22.5</v>
       </c>
       <c r="AO2">
-        <v>-17.899999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="AP2">
+        <v>-13.7</v>
+      </c>
+      <c r="AQ2">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="AR2">
         <v>-13.5</v>
       </c>
-      <c r="AQ2">
-        <v>-37.5</v>
-      </c>
-      <c r="AR2">
-        <v>-13.4</v>
-      </c>
       <c r="AS2">
-        <v>-4.5</v>
+        <v>-1.2</v>
       </c>
       <c r="AT2">
-        <v>-19.899999999999999</v>
+        <v>-14</v>
       </c>
       <c r="AU2">
         <v>-22.9</v>
       </c>
       <c r="AV2">
+        <v>-18</v>
+      </c>
+      <c r="AW2">
+        <v>-13.9</v>
+      </c>
+      <c r="AX2">
+        <v>-11.2</v>
+      </c>
+      <c r="AY2">
+        <v>-20.5</v>
+      </c>
+      <c r="AZ2">
+        <v>-25</v>
+      </c>
+      <c r="BA2">
+        <v>-26.8</v>
+      </c>
+      <c r="BB2">
+        <v>-23.9</v>
+      </c>
+      <c r="BC2">
+        <v>-26.2</v>
+      </c>
+      <c r="BD2">
         <v>-20.7</v>
       </c>
-      <c r="AW2">
-        <v>-19.8</v>
-      </c>
-      <c r="AX2">
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="AY2">
-        <v>-21.8</v>
-      </c>
-      <c r="AZ2">
-        <v>-34</v>
-      </c>
-      <c r="BA2">
-        <v>-29.8</v>
-      </c>
-      <c r="BB2">
-        <v>-19.8</v>
-      </c>
-      <c r="BC2">
-        <v>-22</v>
-      </c>
-      <c r="BD2">
-        <v>-18</v>
-      </c>
       <c r="BE2">
-        <v>-24.9</v>
+        <v>-20.6</v>
       </c>
       <c r="BF2">
-        <v>-20.7</v>
+        <v>-17</v>
       </c>
       <c r="BG2">
-        <v>-11.5</v>
+        <v>-8.1</v>
       </c>
       <c r="BH2">
-        <v>-26.9</v>
+        <v>-31.3</v>
       </c>
       <c r="BI2">
-        <v>-25.2</v>
+        <v>-30.7</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3084,10 +3084,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>-31.1</v>
+        <v>-27.5</v>
       </c>
       <c r="H3" s="4">
-        <v>-16.8</v>
+        <v>-14.5</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>38</v>
@@ -3106,148 +3106,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>-30.5</v>
+        <v>-27.2</v>
       </c>
       <c r="O3">
-        <v>-16.8</v>
+        <v>-14.5</v>
       </c>
       <c r="P3">
-        <v>-27.5</v>
+        <v>-22.8</v>
       </c>
       <c r="Q3">
-        <v>-27.9</v>
+        <v>-21.3</v>
       </c>
       <c r="R3">
-        <v>-28.1</v>
+        <v>-26.1</v>
       </c>
       <c r="S3" t="str">
         <v>无</v>
       </c>
       <c r="T3">
+        <v>-11.8</v>
+      </c>
+      <c r="U3">
+        <v>-5.5</v>
+      </c>
+      <c r="V3">
+        <v>-14.4</v>
+      </c>
+      <c r="W3">
+        <v>-15.7</v>
+      </c>
+      <c r="X3">
+        <v>-13.3</v>
+      </c>
+      <c r="Y3">
+        <v>-13.8</v>
+      </c>
+      <c r="Z3">
+        <v>-12.2</v>
+      </c>
+      <c r="AA3">
+        <v>-13.9</v>
+      </c>
+      <c r="AB3">
+        <v>-13.7</v>
+      </c>
+      <c r="AC3">
         <v>-17.5</v>
       </c>
-      <c r="U3">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="V3">
-        <v>-12.5</v>
-      </c>
-      <c r="W3">
-        <v>-13.8</v>
-      </c>
-      <c r="X3">
-        <v>-27</v>
-      </c>
-      <c r="Y3">
-        <v>-23.6</v>
-      </c>
-      <c r="Z3">
-        <v>-24.2</v>
-      </c>
-      <c r="AA3">
-        <v>-25.6</v>
-      </c>
-      <c r="AB3">
-        <v>-10.9</v>
-      </c>
-      <c r="AC3">
-        <v>-22.4</v>
-      </c>
       <c r="AD3">
-        <v>-21</v>
+        <v>-12.6</v>
       </c>
       <c r="AE3">
-        <v>-26.8</v>
+        <v>-25</v>
       </c>
       <c r="AF3">
-        <v>-23.7</v>
+        <v>-18.3</v>
       </c>
       <c r="AG3">
-        <v>-28.5</v>
+        <v>-24.4</v>
       </c>
       <c r="AH3">
-        <v>-27.7</v>
+        <v>-20</v>
       </c>
       <c r="AI3">
-        <v>-12.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AJ3">
-        <v>-24.2</v>
+        <v>-18.7</v>
       </c>
       <c r="AK3">
-        <v>-2.4</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="AL3">
-        <v>-13.3</v>
+        <v>-15.3</v>
       </c>
       <c r="AM3">
-        <v>-7.6</v>
+        <v>-11.3</v>
       </c>
       <c r="AN3">
-        <v>-8.6</v>
+        <v>-13.9</v>
       </c>
       <c r="AO3">
-        <v>-4.7</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="AP3">
-        <v>-3.1</v>
+        <v>-3.3</v>
       </c>
       <c r="AQ3">
-        <v>-24.7</v>
+        <v>-23.1</v>
       </c>
       <c r="AR3">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AS3">
-        <v>13.1</v>
+        <v>16.7</v>
       </c>
       <c r="AT3">
-        <v>-4.0999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="AU3">
-        <v>-1.3</v>
+        <v>-3.9</v>
       </c>
       <c r="AV3">
-        <v>-1.7</v>
+        <v>-3.3</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AX3">
-        <v>3.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AY3">
-        <v>3.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AZ3">
-        <v>-19.2</v>
+        <v>-11.5</v>
       </c>
       <c r="BA3">
-        <v>-17.100000000000001</v>
+        <v>-14.8</v>
       </c>
       <c r="BB3">
-        <v>-3.7</v>
+        <v>-10.4</v>
       </c>
       <c r="BC3">
-        <v>3.6</v>
+        <v>-0.6</v>
       </c>
       <c r="BD3">
-        <v>-0.8</v>
+        <v>-1.5</v>
       </c>
       <c r="BE3">
-        <v>-10.1</v>
+        <v>-4.8</v>
       </c>
       <c r="BF3">
-        <v>-5.3</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>-2.2999999999999998</v>
+        <v>-3.3</v>
       </c>
       <c r="BH3">
-        <v>-9.4</v>
+        <v>-10.8</v>
       </c>
       <c r="BI3">
-        <v>-12.2</v>
+        <v>-20.7</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3268,10 +3268,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>-43.5</v>
+        <v>-35.9</v>
       </c>
       <c r="H4" s="4">
-        <v>-27.5</v>
+        <v>-22.8</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>117</v>
@@ -3304,10 +3304,10 @@
         <v>110</v>
       </c>
       <c r="G5" s="4">
-        <v>-44.4</v>
+        <v>-30.9</v>
       </c>
       <c r="H5" s="4">
-        <v>-27.9</v>
+        <v>-21.3</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
@@ -3349,10 +3349,10 @@
         <v>179</v>
       </c>
       <c r="G6" s="4">
-        <v>-42.1</v>
+        <v>-31.2</v>
       </c>
       <c r="H6" s="4">
-        <v>-28.1</v>
+        <v>-26.1</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>115</v>
@@ -3439,10 +3439,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>-24.2</v>
+        <v>-25.8</v>
       </c>
       <c r="H8" s="4">
-        <v>-17.5</v>
+        <v>-11.8</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>120</v>
@@ -3482,10 +3482,10 @@
         <v>95</v>
       </c>
       <c r="G9" s="4">
-        <v>-8.3000000000000007</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="H9" s="4">
-        <v>-1.1000000000000001</v>
+        <v>-5.5</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>119</v>
@@ -3516,10 +3516,10 @@
         <v>102</v>
       </c>
       <c r="G10" s="4">
-        <v>-22.3</v>
+        <v>-26.8</v>
       </c>
       <c r="H10" s="4">
-        <v>-12.5</v>
+        <v>-14.4</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>100</v>
@@ -3550,10 +3550,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="4">
-        <v>-26.4</v>
+        <v>-34.200000000000003</v>
       </c>
       <c r="H11" s="4">
-        <v>-13.8</v>
+        <v>-15.7</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>54</v>
@@ -3584,10 +3584,10 @@
         <v>87</v>
       </c>
       <c r="G12" s="4">
-        <v>-39.299999999999997</v>
+        <v>-21.3</v>
       </c>
       <c r="H12" s="4">
-        <v>-27</v>
+        <v>-13.3</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>28</v>
@@ -3618,10 +3618,10 @@
         <v>89</v>
       </c>
       <c r="G13" s="4">
-        <v>-42.4</v>
+        <v>-22.9</v>
       </c>
       <c r="H13" s="4">
-        <v>-23.6</v>
+        <v>-13.8</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
@@ -3652,10 +3652,10 @@
         <v>27</v>
       </c>
       <c r="G14" s="4">
-        <v>-41.8</v>
+        <v>-28.8</v>
       </c>
       <c r="H14" s="4">
-        <v>-24.2</v>
+        <v>-12.2</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
@@ -3686,10 +3686,10 @@
         <v>180</v>
       </c>
       <c r="G15" s="4">
-        <v>-38</v>
+        <v>-25.3</v>
       </c>
       <c r="H15" s="4">
-        <v>-25.6</v>
+        <v>-13.9</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
@@ -3720,10 +3720,10 @@
         <v>99</v>
       </c>
       <c r="G16" s="4">
-        <v>-32</v>
+        <v>-19.5</v>
       </c>
       <c r="H16" s="4">
-        <v>-10.9</v>
+        <v>-13.7</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>96</v>
@@ -3754,10 +3754,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="4">
-        <v>-35</v>
+        <v>-23.8</v>
       </c>
       <c r="H17" s="4">
-        <v>-22.4</v>
+        <v>-17.5</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>161</v>
@@ -3788,10 +3788,10 @@
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>-35.5</v>
+        <v>-26.8</v>
       </c>
       <c r="H18" s="4">
-        <v>-21</v>
+        <v>-12.6</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
@@ -3822,10 +3822,10 @@
         <v>108</v>
       </c>
       <c r="G19" s="4">
-        <v>-39.700000000000003</v>
+        <v>-29.6</v>
       </c>
       <c r="H19" s="4">
-        <v>-26.8</v>
+        <v>-25</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>114</v>
@@ -3856,10 +3856,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="4">
-        <v>-33.6</v>
+        <v>-31.5</v>
       </c>
       <c r="H20" s="4">
-        <v>-23.7</v>
+        <v>-18.3</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
@@ -3890,10 +3890,10 @@
         <v>106</v>
       </c>
       <c r="G21" s="4">
-        <v>-38.4</v>
+        <v>-33.1</v>
       </c>
       <c r="H21" s="4">
-        <v>-28.5</v>
+        <v>-24.4</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>115</v>
@@ -3924,10 +3924,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="13">
-        <v>-41.4</v>
+        <v>-29.2</v>
       </c>
       <c r="H22" s="13">
-        <v>-27.7</v>
+        <v>-20</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>40</v>
@@ -3960,10 +3960,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="4">
-        <v>-33.5</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="H23" s="4">
-        <v>-12.1</v>
+        <v>-5.3</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
@@ -3996,10 +3996,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="4">
-        <v>-39.299999999999997</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="H24" s="4">
-        <v>-24.2</v>
+        <v>-18.7</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="4">
-        <v>-19.7</v>
+        <v>-16.5</v>
       </c>
       <c r="H25" s="4">
-        <v>-2.4</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -4066,10 +4066,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>-29.9</v>
+        <v>-34.6</v>
       </c>
       <c r="H26" s="4">
-        <v>-13.3</v>
+        <v>-15.3</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -4100,10 +4100,10 @@
         <v>181</v>
       </c>
       <c r="G27" s="4">
-        <v>-26</v>
+        <v>-31.8</v>
       </c>
       <c r="H27" s="4">
-        <v>-7.6</v>
+        <v>-11.3</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
@@ -4134,10 +4134,10 @@
         <v>77</v>
       </c>
       <c r="G28" s="4">
-        <v>-15.5</v>
+        <v>-22.5</v>
       </c>
       <c r="H28" s="4">
-        <v>-8.6</v>
+        <v>-13.9</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
@@ -4170,10 +4170,10 @@
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <v>-17.899999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="H29" s="4">
-        <v>-4.7</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -4204,10 +4204,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>-13.5</v>
+        <v>-13.7</v>
       </c>
       <c r="H30" s="4">
-        <v>-3.1</v>
+        <v>-3.3</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
@@ -4240,10 +4240,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="4">
-        <v>-37.5</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="H31" s="4">
-        <v>-24.7</v>
+        <v>-23.1</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
@@ -4274,10 +4274,10 @@
         <v>66</v>
       </c>
       <c r="G32" s="4">
-        <v>-13.4</v>
+        <v>-13.5</v>
       </c>
       <c r="H32" s="4">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
@@ -4308,10 +4308,10 @@
         <v>253</v>
       </c>
       <c r="G33" s="4">
-        <v>-4.5</v>
+        <v>-1.2</v>
       </c>
       <c r="H33" s="4">
-        <v>13.1</v>
+        <v>16.7</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>250</v>
@@ -4342,10 +4342,10 @@
         <v>59</v>
       </c>
       <c r="G34" s="4">
-        <v>-19.899999999999999</v>
+        <v>-14</v>
       </c>
       <c r="H34" s="4">
-        <v>-4.0999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
@@ -4379,7 +4379,7 @@
         <v>-22.9</v>
       </c>
       <c r="H35" s="4">
-        <v>-1.3</v>
+        <v>-3.9</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
@@ -4410,10 +4410,10 @@
         <v>46</v>
       </c>
       <c r="G36" s="4">
-        <v>-20.7</v>
+        <v>-18</v>
       </c>
       <c r="H36" s="4">
-        <v>-1.7</v>
+        <v>-3.3</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>47</v>
@@ -4446,10 +4446,10 @@
         <v>49</v>
       </c>
       <c r="G37" s="4">
-        <v>-19.8</v>
+        <v>-13.9</v>
       </c>
       <c r="H37" s="4">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>45</v>
@@ -4482,10 +4482,10 @@
         <v>51</v>
       </c>
       <c r="G38" s="4">
-        <v>-18.399999999999999</v>
+        <v>-11.2</v>
       </c>
       <c r="H38" s="4">
-        <v>3.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
@@ -4516,10 +4516,10 @@
         <v>58</v>
       </c>
       <c r="G39" s="4">
-        <v>-21.8</v>
+        <v>-20.5</v>
       </c>
       <c r="H39" s="4">
-        <v>3.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
@@ -4550,10 +4550,10 @@
         <v>44</v>
       </c>
       <c r="G40" s="4">
-        <v>-34</v>
+        <v>-25</v>
       </c>
       <c r="H40" s="4">
-        <v>-19.2</v>
+        <v>-11.5</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>43</v>
@@ -4584,10 +4584,10 @@
         <v>74</v>
       </c>
       <c r="G41" s="4">
-        <v>-29.8</v>
+        <v>-26.8</v>
       </c>
       <c r="H41" s="4">
-        <v>-17.100000000000001</v>
+        <v>-14.8</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
@@ -4618,10 +4618,10 @@
         <v>72</v>
       </c>
       <c r="G42" s="4">
-        <v>-19.8</v>
+        <v>-23.9</v>
       </c>
       <c r="H42" s="4">
-        <v>-3.7</v>
+        <v>-10.4</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>2</v>
@@ -4652,10 +4652,10 @@
         <v>62</v>
       </c>
       <c r="G43" s="4">
-        <v>-22</v>
+        <v>-26.2</v>
       </c>
       <c r="H43" s="4">
-        <v>3.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
@@ -4686,10 +4686,10 @@
         <v>64</v>
       </c>
       <c r="G44" s="4">
-        <v>-18</v>
+        <v>-20.7</v>
       </c>
       <c r="H44" s="4">
-        <v>-0.8</v>
+        <v>-1.5</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>65</v>
@@ -4720,10 +4720,10 @@
         <v>79</v>
       </c>
       <c r="G45" s="4">
-        <v>-24.9</v>
+        <v>-20.6</v>
       </c>
       <c r="H45" s="4">
-        <v>-10.1</v>
+        <v>-4.8</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>22</v>
@@ -4754,10 +4754,10 @@
         <v>81</v>
       </c>
       <c r="G46" s="4">
-        <v>-20.7</v>
+        <v>-17</v>
       </c>
       <c r="H46" s="4">
-        <v>-5.3</v>
+        <v>0</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
@@ -4788,10 +4788,10 @@
         <v>83</v>
       </c>
       <c r="G47" s="4">
-        <v>-11.5</v>
+        <v>-8.1</v>
       </c>
       <c r="H47" s="4">
-        <v>-2.2999999999999998</v>
+        <v>-3.3</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>21</v>
@@ -4824,10 +4824,10 @@
         <v>68</v>
       </c>
       <c r="G48" s="4">
-        <v>-26.9</v>
+        <v>-31.3</v>
       </c>
       <c r="H48" s="4">
-        <v>-9.4</v>
+        <v>-10.8</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -4858,10 +4858,10 @@
         <v>70</v>
       </c>
       <c r="G49" s="4">
-        <v>-25.2</v>
+        <v>-30.7</v>
       </c>
       <c r="H49" s="4">
-        <v>-12.2</v>
+        <v>-20.7</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>2</v>
@@ -4889,7 +4889,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4912,7 +4912,7 @@
         <v>254</v>
       </c>
       <c r="F1" s="62">
-        <v>45674</v>
+        <v>45676</v>
       </c>
       <c r="G1" s="63"/>
       <c r="H1" s="60" t="s">
@@ -4994,10 +4994,10 @@
         <v>109</v>
       </c>
       <c r="G4" s="36">
-        <v>-42.5</v>
+        <v>-34.799999999999997</v>
       </c>
       <c r="H4" s="36">
-        <v>-30.5</v>
+        <v>-27.2</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>175</v>
@@ -5028,10 +5028,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="36">
-        <v>-31.1</v>
+        <v>-27.5</v>
       </c>
       <c r="H5" s="36">
-        <v>-16.8</v>
+        <v>-14.5</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>155</v>
@@ -5045,7 +5045,9 @@
       <c r="C6" s="52">
         <v>3</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="52">
+        <v>0</v>
+      </c>
       <c r="E6" s="32" t="s">
         <v>217</v>
       </c>
@@ -5053,10 +5055,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="36">
-        <v>-43.5</v>
+        <v>-35.9</v>
       </c>
       <c r="H6" s="36">
-        <v>-27.5</v>
+        <v>-22.8</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>230</v>
@@ -5070,9 +5072,7 @@
       <c r="C7" s="52">
         <v>3</v>
       </c>
-      <c r="D7" s="52">
-        <v>0</v>
-      </c>
+      <c r="D7" s="52"/>
       <c r="E7" s="32" t="s">
         <v>217</v>
       </c>
@@ -5080,10 +5080,10 @@
         <v>109</v>
       </c>
       <c r="G7" s="36">
-        <v>-44.4</v>
+        <v>-30.9</v>
       </c>
       <c r="H7" s="36">
-        <v>-27.9</v>
+        <v>-21.3</v>
       </c>
       <c r="I7" s="34" t="s">
         <v>111</v>
@@ -5105,10 +5105,10 @@
         <v>184</v>
       </c>
       <c r="G8" s="36">
-        <v>-42.1</v>
+        <v>-31.2</v>
       </c>
       <c r="H8" s="36">
-        <v>-28.1</v>
+        <v>-26.1</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>172</v>
@@ -5155,10 +5155,10 @@
         <v>7</v>
       </c>
       <c r="G10" s="36">
-        <v>-24.2</v>
+        <v>-25.8</v>
       </c>
       <c r="H10" s="36">
-        <v>-17.5</v>
+        <v>-11.8</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>245</v>
@@ -5180,10 +5180,10 @@
         <v>94</v>
       </c>
       <c r="G11" s="36">
-        <v>-8.3000000000000007</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="H11" s="36">
-        <v>-1.1000000000000001</v>
+        <v>-5.5</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>246</v>
@@ -5205,10 +5205,10 @@
         <v>101</v>
       </c>
       <c r="G12" s="36">
-        <v>-22.3</v>
+        <v>-26.8</v>
       </c>
       <c r="H12" s="36">
-        <v>-12.5</v>
+        <v>-14.4</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>244</v>
@@ -5222,7 +5222,9 @@
       <c r="C13" s="52">
         <v>2</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="52">
+        <v>0</v>
+      </c>
       <c r="E13" s="31" t="s">
         <v>222</v>
       </c>
@@ -5230,10 +5232,10 @@
         <v>135</v>
       </c>
       <c r="G13" s="36">
-        <v>-26.4</v>
+        <v>-34.200000000000003</v>
       </c>
       <c r="H13" s="36">
-        <v>-13.8</v>
+        <v>-15.7</v>
       </c>
       <c r="I13" s="34" t="s">
         <v>158</v>
@@ -5255,10 +5257,10 @@
         <v>86</v>
       </c>
       <c r="G14" s="36">
-        <v>-39.299999999999997</v>
+        <v>-21.3</v>
       </c>
       <c r="H14" s="36">
-        <v>-27</v>
+        <v>-13.3</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>154</v>
@@ -5272,9 +5274,7 @@
       <c r="C15" s="52">
         <v>2</v>
       </c>
-      <c r="D15" s="52">
-        <v>0</v>
-      </c>
+      <c r="D15" s="52"/>
       <c r="E15" s="27" t="s">
         <v>224</v>
       </c>
@@ -5282,10 +5282,10 @@
         <v>88</v>
       </c>
       <c r="G15" s="36">
-        <v>-42.4</v>
+        <v>-22.9</v>
       </c>
       <c r="H15" s="36">
-        <v>-23.6</v>
+        <v>-13.8</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>154</v>
@@ -5307,10 +5307,10 @@
         <v>136</v>
       </c>
       <c r="G16" s="36">
-        <v>-41.8</v>
+        <v>-28.8</v>
       </c>
       <c r="H16" s="36">
-        <v>-24.2</v>
+        <v>-12.2</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>154</v>
@@ -5332,10 +5332,10 @@
         <v>182</v>
       </c>
       <c r="G17" s="36">
-        <v>-38</v>
+        <v>-25.3</v>
       </c>
       <c r="H17" s="36">
-        <v>-25.6</v>
+        <v>-13.9</v>
       </c>
       <c r="I17" s="34" t="s">
         <v>242</v>
@@ -5357,10 +5357,10 @@
         <v>98</v>
       </c>
       <c r="G18" s="36">
-        <v>-32</v>
+        <v>-19.5</v>
       </c>
       <c r="H18" s="36">
-        <v>-10.9</v>
+        <v>-13.7</v>
       </c>
       <c r="I18" s="34" t="s">
         <v>32</v>
@@ -5382,10 +5382,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="36">
-        <v>-35</v>
+        <v>-23.8</v>
       </c>
       <c r="H19" s="36">
-        <v>-22.4</v>
+        <v>-17.5</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>243</v>
@@ -5407,10 +5407,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="36">
-        <v>-35.5</v>
+        <v>-26.8</v>
       </c>
       <c r="H20" s="36">
-        <v>-21</v>
+        <v>-12.6</v>
       </c>
       <c r="I20" s="34" t="s">
         <v>241</v>
@@ -5432,10 +5432,10 @@
         <v>107</v>
       </c>
       <c r="G21" s="36">
-        <v>-39.700000000000003</v>
+        <v>-29.6</v>
       </c>
       <c r="H21" s="36">
-        <v>-26.8</v>
+        <v>-25</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>175</v>
@@ -5457,10 +5457,10 @@
         <v>9</v>
       </c>
       <c r="G22" s="36">
-        <v>-33.6</v>
+        <v>-31.5</v>
       </c>
       <c r="H22" s="36">
-        <v>-23.7</v>
+        <v>-18.3</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>231</v>
@@ -5482,10 +5482,10 @@
         <v>105</v>
       </c>
       <c r="G23" s="36">
-        <v>-38.4</v>
+        <v>-33.1</v>
       </c>
       <c r="H23" s="36">
-        <v>-28.5</v>
+        <v>-24.4</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>172</v>
@@ -5507,10 +5507,10 @@
         <v>12</v>
       </c>
       <c r="G24" s="36">
-        <v>-41.4</v>
+        <v>-29.2</v>
       </c>
       <c r="H24" s="36">
-        <v>-27.7</v>
+        <v>-20</v>
       </c>
       <c r="I24" s="34" t="s">
         <v>111</v>
@@ -5532,10 +5532,10 @@
         <v>13</v>
       </c>
       <c r="G25" s="36">
-        <v>-33.5</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="H25" s="36">
-        <v>-12.1</v>
+        <v>-5.3</v>
       </c>
       <c r="I25" s="34" t="s">
         <v>151</v>
@@ -5557,10 +5557,10 @@
         <v>10</v>
       </c>
       <c r="G26" s="36">
-        <v>-39.299999999999997</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="H26" s="36">
-        <v>-24.2</v>
+        <v>-18.7</v>
       </c>
       <c r="I26" s="34" t="s">
         <v>229</v>
@@ -5582,10 +5582,10 @@
         <v>11</v>
       </c>
       <c r="G27" s="36">
-        <v>-19.7</v>
+        <v>-16.5</v>
       </c>
       <c r="H27" s="36">
-        <v>-2.4</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="I27" s="34" t="s">
         <v>155</v>
@@ -5609,10 +5609,10 @@
         <v>137</v>
       </c>
       <c r="G28" s="36">
-        <v>-29.9</v>
+        <v>-34.6</v>
       </c>
       <c r="H28" s="36">
-        <v>-13.3</v>
+        <v>-15.3</v>
       </c>
       <c r="I28" s="34" t="s">
         <v>234</v>
@@ -5626,7 +5626,9 @@
       <c r="C29" s="52">
         <v>1</v>
       </c>
-      <c r="D29" s="52"/>
+      <c r="D29" s="52">
+        <v>0</v>
+      </c>
       <c r="E29" s="30" t="s">
         <v>215</v>
       </c>
@@ -5634,10 +5636,10 @@
         <v>183</v>
       </c>
       <c r="G29" s="36">
-        <v>-26</v>
+        <v>-31.8</v>
       </c>
       <c r="H29" s="36">
-        <v>-7.6</v>
+        <v>-11.3</v>
       </c>
       <c r="I29" s="34" t="s">
         <v>232</v>
@@ -5659,10 +5661,10 @@
         <v>76</v>
       </c>
       <c r="G30" s="36">
-        <v>-15.5</v>
+        <v>-22.5</v>
       </c>
       <c r="H30" s="36">
-        <v>-8.6</v>
+        <v>-13.9</v>
       </c>
       <c r="I30" s="34" t="s">
         <v>237</v>
@@ -5686,10 +5688,10 @@
         <v>103</v>
       </c>
       <c r="G31" s="36">
-        <v>-17.899999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="H31" s="36">
-        <v>-4.7</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="I31" s="34" t="s">
         <v>238</v>
@@ -5711,10 +5713,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="36">
-        <v>-13.5</v>
+        <v>-13.7</v>
       </c>
       <c r="H32" s="36">
-        <v>-3.1</v>
+        <v>-3.3</v>
       </c>
       <c r="I32" s="34" t="s">
         <v>159</v>
@@ -5738,10 +5740,10 @@
         <v>4</v>
       </c>
       <c r="G33" s="36">
-        <v>-37.5</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="H33" s="36">
-        <v>-24.7</v>
+        <v>-23.1</v>
       </c>
       <c r="I33" s="34" t="s">
         <v>239</v>
@@ -5763,10 +5765,10 @@
         <v>139</v>
       </c>
       <c r="G34" s="36">
-        <v>-13.4</v>
+        <v>-13.5</v>
       </c>
       <c r="H34" s="36">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="I34" s="34" t="s">
         <v>174</v>
@@ -5790,10 +5792,10 @@
         <v>253</v>
       </c>
       <c r="G35" s="36">
-        <v>-4.5</v>
+        <v>-1.2</v>
       </c>
       <c r="H35" s="36">
-        <v>13.1</v>
+        <v>16.7</v>
       </c>
       <c r="I35" s="34" t="s">
         <v>250</v>
@@ -5815,10 +5817,10 @@
         <v>140</v>
       </c>
       <c r="G36" s="36">
-        <v>-19.899999999999999</v>
+        <v>-14</v>
       </c>
       <c r="H36" s="36">
-        <v>-4.0999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="I36" s="34"/>
     </row>
@@ -5843,7 +5845,7 @@
         <v>-22.9</v>
       </c>
       <c r="H37" s="36">
-        <v>-1.3</v>
+        <v>-3.9</v>
       </c>
       <c r="I37" s="34"/>
     </row>
@@ -5865,10 +5867,10 @@
         <v>142</v>
       </c>
       <c r="G38" s="36">
-        <v>-20.7</v>
+        <v>-18</v>
       </c>
       <c r="H38" s="36">
-        <v>-1.7</v>
+        <v>-3.3</v>
       </c>
       <c r="I38" s="34" t="s">
         <v>173</v>
@@ -5892,10 +5894,10 @@
         <v>143</v>
       </c>
       <c r="G39" s="36">
-        <v>-19.8</v>
+        <v>-13.9</v>
       </c>
       <c r="H39" s="36">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="I39" s="34" t="s">
         <v>240</v>
@@ -5919,10 +5921,10 @@
         <v>144</v>
       </c>
       <c r="G40" s="36">
-        <v>-18.399999999999999</v>
+        <v>-11.2</v>
       </c>
       <c r="H40" s="36">
-        <v>3.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I40" s="34"/>
     </row>
@@ -5944,10 +5946,10 @@
         <v>145</v>
       </c>
       <c r="G41" s="36">
-        <v>-21.8</v>
+        <v>-20.5</v>
       </c>
       <c r="H41" s="36">
-        <v>3.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I41" s="34"/>
     </row>
@@ -5959,9 +5961,7 @@
       <c r="C42" s="52">
         <v>1</v>
       </c>
-      <c r="D42" s="52">
-        <v>0</v>
-      </c>
+      <c r="D42" s="52"/>
       <c r="E42" s="30" t="s">
         <v>209</v>
       </c>
@@ -5969,10 +5969,10 @@
         <v>146</v>
       </c>
       <c r="G42" s="36">
-        <v>-34</v>
+        <v>-25</v>
       </c>
       <c r="H42" s="36">
-        <v>-19.2</v>
+        <v>-11.5</v>
       </c>
       <c r="I42" s="34" t="s">
         <v>235</v>
@@ -5994,10 +5994,10 @@
         <v>73</v>
       </c>
       <c r="G43" s="36">
-        <v>-29.8</v>
+        <v>-26.8</v>
       </c>
       <c r="H43" s="36">
-        <v>-17.100000000000001</v>
+        <v>-14.8</v>
       </c>
       <c r="I43" s="34" t="s">
         <v>234</v>
@@ -6019,10 +6019,10 @@
         <v>71</v>
       </c>
       <c r="G44" s="36">
-        <v>-19.8</v>
+        <v>-23.9</v>
       </c>
       <c r="H44" s="36">
-        <v>-3.7</v>
+        <v>-10.4</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>157</v>
@@ -6044,10 +6044,10 @@
         <v>147</v>
       </c>
       <c r="G45" s="36">
-        <v>-22</v>
+        <v>-26.2</v>
       </c>
       <c r="H45" s="36">
-        <v>3.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I45" s="34" t="s">
         <v>160</v>
@@ -6069,10 +6069,10 @@
         <v>148</v>
       </c>
       <c r="G46" s="36">
-        <v>-18</v>
+        <v>-20.7</v>
       </c>
       <c r="H46" s="36">
-        <v>-0.8</v>
+        <v>-1.5</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>160</v>
@@ -6094,10 +6094,10 @@
         <v>78</v>
       </c>
       <c r="G47" s="36">
-        <v>-24.9</v>
+        <v>-20.6</v>
       </c>
       <c r="H47" s="36">
-        <v>-10.1</v>
+        <v>-4.8</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>156</v>
@@ -6119,10 +6119,10 @@
         <v>80</v>
       </c>
       <c r="G48" s="36">
-        <v>-20.7</v>
+        <v>-17</v>
       </c>
       <c r="H48" s="36">
-        <v>-5.3</v>
+        <v>0</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>236</v>
@@ -6144,10 +6144,10 @@
         <v>82</v>
       </c>
       <c r="G49" s="36">
-        <v>-11.5</v>
+        <v>-8.1</v>
       </c>
       <c r="H49" s="36">
-        <v>-2.2999999999999998</v>
+        <v>-3.3</v>
       </c>
       <c r="I49" s="34" t="s">
         <v>159</v>
@@ -6171,10 +6171,10 @@
         <v>67</v>
       </c>
       <c r="G50" s="36">
-        <v>-26.9</v>
+        <v>-31.3</v>
       </c>
       <c r="H50" s="36">
-        <v>-9.4</v>
+        <v>-10.8</v>
       </c>
       <c r="I50" s="34" t="s">
         <v>157</v>
@@ -6196,10 +6196,10 @@
         <v>69</v>
       </c>
       <c r="G51" s="36">
-        <v>-25.2</v>
+        <v>-30.7</v>
       </c>
       <c r="H51" s="36">
-        <v>-12.2</v>
+        <v>-20.7</v>
       </c>
       <c r="I51" s="34" t="s">
         <v>233</v>
@@ -6258,8 +6258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6452CB3-0983-4391-8A7D-2C5221219E76}">
   <dimension ref="A1:AW79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10276,10 +10276,298 @@
       <c r="A28" s="16">
         <v>45675</v>
       </c>
+      <c r="B28">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="C28">
+        <v>-30.4</v>
+      </c>
+      <c r="D28">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="E28">
+        <v>-40</v>
+      </c>
+      <c r="F28">
+        <v>-39.1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28">
+        <v>-27.5</v>
+      </c>
+      <c r="I28">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="J28">
+        <v>-23.8</v>
+      </c>
+      <c r="K28">
+        <v>-28.8</v>
+      </c>
+      <c r="L28">
+        <v>-27</v>
+      </c>
+      <c r="M28">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="N28">
+        <v>-34.6</v>
+      </c>
+      <c r="O28">
+        <v>-34.9</v>
+      </c>
+      <c r="P28">
+        <v>-24.6</v>
+      </c>
+      <c r="Q28">
+        <v>-25.2</v>
+      </c>
+      <c r="R28">
+        <v>-29.8</v>
+      </c>
+      <c r="S28">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="T28">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="U28">
+        <v>-36.6</v>
+      </c>
+      <c r="V28">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="W28">
+        <v>-27.2</v>
+      </c>
+      <c r="X28">
+        <v>-34.9</v>
+      </c>
+      <c r="Y28">
+        <v>-21.3</v>
+      </c>
+      <c r="Z28">
+        <v>-31.8</v>
+      </c>
+      <c r="AA28">
+        <v>-30.1</v>
+      </c>
+      <c r="AB28">
+        <v>-21.2</v>
+      </c>
+      <c r="AC28">
+        <v>-12.6</v>
+      </c>
+      <c r="AD28">
+        <v>-15</v>
+      </c>
+      <c r="AE28">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="AF28">
+        <v>-15.4</v>
+      </c>
+      <c r="AG28">
+        <v>-1.4</v>
+      </c>
+      <c r="AH28">
+        <v>-13.2</v>
+      </c>
+      <c r="AI28">
+        <v>-22.3</v>
+      </c>
+      <c r="AJ28">
+        <v>-14.2</v>
+      </c>
+      <c r="AK28">
+        <v>-18.3</v>
+      </c>
+      <c r="AL28">
+        <v>-14.9</v>
+      </c>
+      <c r="AM28">
+        <v>-18</v>
+      </c>
+      <c r="AN28">
+        <v>-28.4</v>
+      </c>
+      <c r="AO28">
+        <v>-27.3</v>
+      </c>
+      <c r="AP28">
+        <v>-22.1</v>
+      </c>
+      <c r="AQ28">
+        <v>-27.3</v>
+      </c>
+      <c r="AR28">
+        <v>-21.7</v>
+      </c>
+      <c r="AS28">
+        <v>-22.8</v>
+      </c>
+      <c r="AT28">
+        <v>-18.8</v>
+      </c>
+      <c r="AU28">
+        <v>-11.6</v>
+      </c>
+      <c r="AV28">
+        <v>-27.1</v>
+      </c>
+      <c r="AW28">
+        <v>-27.3</v>
+      </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A29" s="16">
         <v>45676</v>
+      </c>
+      <c r="B29">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="C29">
+        <v>-27.5</v>
+      </c>
+      <c r="D29">
+        <v>-35.9</v>
+      </c>
+      <c r="E29">
+        <v>-30.9</v>
+      </c>
+      <c r="F29">
+        <v>-31.2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>247</v>
+      </c>
+      <c r="H29">
+        <v>-25.8</v>
+      </c>
+      <c r="I29">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="J29">
+        <v>-26.8</v>
+      </c>
+      <c r="K29">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="L29">
+        <v>-21.3</v>
+      </c>
+      <c r="M29">
+        <v>-22.9</v>
+      </c>
+      <c r="N29">
+        <v>-28.8</v>
+      </c>
+      <c r="O29">
+        <v>-25.3</v>
+      </c>
+      <c r="P29">
+        <v>-19.5</v>
+      </c>
+      <c r="Q29">
+        <v>-23.8</v>
+      </c>
+      <c r="R29">
+        <v>-26.8</v>
+      </c>
+      <c r="S29">
+        <v>-29.6</v>
+      </c>
+      <c r="T29">
+        <v>-31.5</v>
+      </c>
+      <c r="U29">
+        <v>-33.1</v>
+      </c>
+      <c r="V29">
+        <v>-29.2</v>
+      </c>
+      <c r="W29">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="X29">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="Y29">
+        <v>-16.5</v>
+      </c>
+      <c r="Z29">
+        <v>-34.6</v>
+      </c>
+      <c r="AA29">
+        <v>-31.8</v>
+      </c>
+      <c r="AB29">
+        <v>-22.5</v>
+      </c>
+      <c r="AC29">
+        <v>-8.9</v>
+      </c>
+      <c r="AD29">
+        <v>-13.7</v>
+      </c>
+      <c r="AE29">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="AF29">
+        <v>-13.5</v>
+      </c>
+      <c r="AG29">
+        <v>-1.2</v>
+      </c>
+      <c r="AH29">
+        <v>-14</v>
+      </c>
+      <c r="AI29">
+        <v>-22.9</v>
+      </c>
+      <c r="AJ29">
+        <v>-18</v>
+      </c>
+      <c r="AK29">
+        <v>-13.9</v>
+      </c>
+      <c r="AL29">
+        <v>-11.2</v>
+      </c>
+      <c r="AM29">
+        <v>-20.5</v>
+      </c>
+      <c r="AN29">
+        <v>-25</v>
+      </c>
+      <c r="AO29">
+        <v>-26.8</v>
+      </c>
+      <c r="AP29">
+        <v>-23.9</v>
+      </c>
+      <c r="AQ29">
+        <v>-26.2</v>
+      </c>
+      <c r="AR29">
+        <v>-20.7</v>
+      </c>
+      <c r="AS29">
+        <v>-20.6</v>
+      </c>
+      <c r="AT29">
+        <v>-17</v>
+      </c>
+      <c r="AU29">
+        <v>-8.1</v>
+      </c>
+      <c r="AV29">
+        <v>-31.3</v>
+      </c>
+      <c r="AW29">
+        <v>-30.7</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.4">
@@ -10522,8 +10810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFE5A94-8276-425C-8C4C-F53ED14714E0}">
   <dimension ref="A1:AW79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -14540,10 +14828,298 @@
       <c r="A28" s="16">
         <v>45675</v>
       </c>
+      <c r="B28">
+        <v>-29.6</v>
+      </c>
+      <c r="C28">
+        <v>-16.8</v>
+      </c>
+      <c r="D28">
+        <v>-25.7</v>
+      </c>
+      <c r="E28">
+        <v>-27.6</v>
+      </c>
+      <c r="F28">
+        <v>-27.5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28">
+        <v>-17.3</v>
+      </c>
+      <c r="I28">
+        <v>-2.5</v>
+      </c>
+      <c r="J28">
+        <v>-17.7</v>
+      </c>
+      <c r="K28">
+        <v>-17.7</v>
+      </c>
+      <c r="L28">
+        <v>-17.5</v>
+      </c>
+      <c r="M28">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="N28">
+        <v>-14.5</v>
+      </c>
+      <c r="O28">
+        <v>-21.6</v>
+      </c>
+      <c r="P28">
+        <v>-8.1</v>
+      </c>
+      <c r="Q28">
+        <v>-20.6</v>
+      </c>
+      <c r="R28">
+        <v>-17.2</v>
+      </c>
+      <c r="S28">
+        <v>-27.2</v>
+      </c>
+      <c r="T28">
+        <v>-19.5</v>
+      </c>
+      <c r="U28">
+        <v>-26.4</v>
+      </c>
+      <c r="V28">
+        <v>-23.5</v>
+      </c>
+      <c r="W28">
+        <v>-5.4</v>
+      </c>
+      <c r="X28">
+        <v>-23.5</v>
+      </c>
+      <c r="Y28">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="Z28">
+        <v>-20.9</v>
+      </c>
+      <c r="AA28">
+        <v>-12.2</v>
+      </c>
+      <c r="AB28">
+        <v>-13</v>
+      </c>
+      <c r="AC28">
+        <v>-2.6</v>
+      </c>
+      <c r="AD28">
+        <v>-3.1</v>
+      </c>
+      <c r="AE28">
+        <v>-23.4</v>
+      </c>
+      <c r="AF28">
+        <v>-1.8</v>
+      </c>
+      <c r="AG28">
+        <v>14.4</v>
+      </c>
+      <c r="AH28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AI28">
+        <v>-4.5</v>
+      </c>
+      <c r="AJ28">
+        <v>0.7</v>
+      </c>
+      <c r="AK28">
+        <v>3.2</v>
+      </c>
+      <c r="AL28">
+        <v>5.5</v>
+      </c>
+      <c r="AM28">
+        <v>-0.5</v>
+      </c>
+      <c r="AN28">
+        <v>-6.8</v>
+      </c>
+      <c r="AO28">
+        <v>-17.3</v>
+      </c>
+      <c r="AP28">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="AQ28">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AR28">
+        <v>-2.1</v>
+      </c>
+      <c r="AS28">
+        <v>-7.6</v>
+      </c>
+      <c r="AT28">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AU28">
+        <v>1.5</v>
+      </c>
+      <c r="AV28">
+        <v>-12.5</v>
+      </c>
+      <c r="AW28">
+        <v>-16.2</v>
+      </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A29" s="16">
         <v>45676</v>
+      </c>
+      <c r="B29">
+        <v>-27.2</v>
+      </c>
+      <c r="C29">
+        <v>-14.5</v>
+      </c>
+      <c r="D29">
+        <v>-22.8</v>
+      </c>
+      <c r="E29">
+        <v>-21.3</v>
+      </c>
+      <c r="F29">
+        <v>-26.1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>247</v>
+      </c>
+      <c r="H29">
+        <v>-11.8</v>
+      </c>
+      <c r="I29">
+        <v>-5.5</v>
+      </c>
+      <c r="J29">
+        <v>-14.4</v>
+      </c>
+      <c r="K29">
+        <v>-15.7</v>
+      </c>
+      <c r="L29">
+        <v>-13.3</v>
+      </c>
+      <c r="M29">
+        <v>-13.8</v>
+      </c>
+      <c r="N29">
+        <v>-12.2</v>
+      </c>
+      <c r="O29">
+        <v>-13.9</v>
+      </c>
+      <c r="P29">
+        <v>-13.7</v>
+      </c>
+      <c r="Q29">
+        <v>-17.5</v>
+      </c>
+      <c r="R29">
+        <v>-12.6</v>
+      </c>
+      <c r="S29">
+        <v>-25</v>
+      </c>
+      <c r="T29">
+        <v>-18.3</v>
+      </c>
+      <c r="U29">
+        <v>-24.4</v>
+      </c>
+      <c r="V29">
+        <v>-20</v>
+      </c>
+      <c r="W29">
+        <v>-5.3</v>
+      </c>
+      <c r="X29">
+        <v>-18.7</v>
+      </c>
+      <c r="Y29">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="Z29">
+        <v>-15.3</v>
+      </c>
+      <c r="AA29">
+        <v>-11.3</v>
+      </c>
+      <c r="AB29">
+        <v>-13.9</v>
+      </c>
+      <c r="AC29">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="AD29">
+        <v>-3.3</v>
+      </c>
+      <c r="AE29">
+        <v>-23.1</v>
+      </c>
+      <c r="AF29">
+        <v>-0.3</v>
+      </c>
+      <c r="AG29">
+        <v>16.7</v>
+      </c>
+      <c r="AH29">
+        <v>5.6</v>
+      </c>
+      <c r="AI29">
+        <v>-3.9</v>
+      </c>
+      <c r="AJ29">
+        <v>-3.3</v>
+      </c>
+      <c r="AK29">
+        <v>1.3</v>
+      </c>
+      <c r="AL29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AM29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AN29">
+        <v>-11.5</v>
+      </c>
+      <c r="AO29">
+        <v>-14.8</v>
+      </c>
+      <c r="AP29">
+        <v>-10.4</v>
+      </c>
+      <c r="AQ29">
+        <v>-0.6</v>
+      </c>
+      <c r="AR29">
+        <v>-1.5</v>
+      </c>
+      <c r="AS29">
+        <v>-4.8</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>-3.3</v>
+      </c>
+      <c r="AV29">
+        <v>-10.8</v>
+      </c>
+      <c r="AW29">
+        <v>-20.7</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.4">

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC3FBE0-8DD7-4B10-AE28-72E9F6A783A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2168D577-9A8F-4722-A0A0-B926B6643EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="258">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2830,7 +2830,7 @@
   <dimension ref="A1:BI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2899,12 +2899,8 @@
       <c r="F2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="4">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="H2" s="4">
-        <v>-27.2</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="6" t="s">
         <v>114</v>
       </c>
@@ -2922,148 +2918,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>-34.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-27.5</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-35.9</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-30.9</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-31.2</v>
-      </c>
-      <c r="S2" t="str">
-        <v>无</v>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>-25.8</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>-16.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-26.8</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-34.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-21.3</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>-22.9</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>-28.8</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-25.3</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-23.8</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-26.8</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-29.6</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-31.5</v>
+        <v>-31.1</v>
       </c>
       <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="AI2">
         <v>-33.1</v>
       </c>
-      <c r="AH2">
-        <v>-29.2</v>
-      </c>
-      <c r="AI2">
-        <v>-18.600000000000001</v>
-      </c>
       <c r="AJ2">
-        <v>-32.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-16.5</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-34.6</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-31.8</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>-22.5</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-8.9</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-13.7</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-35.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>-13.5</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>-22.9</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>-13.9</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>-11.2</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>-20.5</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>-26.8</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>-23.9</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>-26.2</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>-20.7</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>-20.6</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>-8.1</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>-31.3</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>-30.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3083,12 +3079,8 @@
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4">
-        <v>-27.5</v>
-      </c>
-      <c r="H3" s="4">
-        <v>-14.5</v>
-      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="6" t="s">
         <v>38</v>
       </c>
@@ -3106,148 +3098,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>-27.2</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-14.5</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-22.8</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-21.3</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-26.1</v>
-      </c>
-      <c r="S3" t="str">
-        <v>无</v>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>-11.8</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-5.5</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-14.4</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-15.7</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-13.3</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>-13.8</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-12.2</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-13.9</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-13.7</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-17.5</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-12.6</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>-18.3</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="AG3">
-        <v>-24.4</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-20</v>
+        <v>-22.5</v>
       </c>
       <c r="AI3">
-        <v>-5.3</v>
+        <v>-17.8</v>
       </c>
       <c r="AJ3">
-        <v>-18.7</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-15.3</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-11.3</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-13.9</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-3.3</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-23.1</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>16.7</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>-3.9</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>-3.3</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>-11.5</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>-14.8</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>-10.4</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>-4.8</v>
+        <v>0</v>
       </c>
       <c r="BF3">
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>-3.3</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>-10.8</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>-20.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3267,12 +3259,8 @@
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4">
-        <v>-35.9</v>
-      </c>
-      <c r="H4" s="4">
-        <v>-22.8</v>
-      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="6" t="s">
         <v>117</v>
       </c>
@@ -3303,12 +3291,8 @@
       <c r="F5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="4">
-        <v>-30.9</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-21.3</v>
-      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="6" t="s">
         <v>40</v>
       </c>
@@ -3348,12 +3332,8 @@
       <c r="F6" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="4">
-        <v>-31.2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-26.1</v>
-      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="6" t="s">
         <v>115</v>
       </c>
@@ -3393,12 +3373,8 @@
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="6" t="s">
         <v>113</v>
       </c>
@@ -3438,12 +3414,8 @@
       <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="4">
-        <v>-25.8</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-11.8</v>
-      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="6" t="s">
         <v>120</v>
       </c>
@@ -3481,12 +3453,8 @@
       <c r="F9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="4">
-        <v>-16.100000000000001</v>
-      </c>
-      <c r="H9" s="4">
-        <v>-5.5</v>
-      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="6" t="s">
         <v>119</v>
       </c>
@@ -3515,12 +3483,8 @@
       <c r="F10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="4">
-        <v>-26.8</v>
-      </c>
-      <c r="H10" s="4">
-        <v>-14.4</v>
-      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="6" t="s">
         <v>100</v>
       </c>
@@ -3549,12 +3513,8 @@
       <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="4">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="H11" s="4">
-        <v>-15.7</v>
-      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="6" t="s">
         <v>54</v>
       </c>
@@ -3583,12 +3543,8 @@
       <c r="F12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="4">
-        <v>-21.3</v>
-      </c>
-      <c r="H12" s="4">
-        <v>-13.3</v>
-      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="6" t="s">
         <v>28</v>
       </c>
@@ -3617,12 +3573,8 @@
       <c r="F13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="4">
-        <v>-22.9</v>
-      </c>
-      <c r="H13" s="4">
-        <v>-13.8</v>
-      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
@@ -3651,12 +3603,8 @@
       <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="4">
-        <v>-28.8</v>
-      </c>
-      <c r="H14" s="4">
-        <v>-12.2</v>
-      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
@@ -3685,12 +3633,8 @@
       <c r="F15" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="4">
-        <v>-25.3</v>
-      </c>
-      <c r="H15" s="4">
-        <v>-13.9</v>
-      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="6" t="s">
         <v>32</v>
       </c>
@@ -3719,12 +3663,8 @@
       <c r="F16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="4">
-        <v>-19.5</v>
-      </c>
-      <c r="H16" s="4">
-        <v>-13.7</v>
-      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="6" t="s">
         <v>96</v>
       </c>
@@ -3753,12 +3693,8 @@
       <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="4">
-        <v>-23.8</v>
-      </c>
-      <c r="H17" s="4">
-        <v>-17.5</v>
-      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="6" t="s">
         <v>161</v>
       </c>
@@ -3787,12 +3723,8 @@
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="4">
-        <v>-26.8</v>
-      </c>
-      <c r="H18" s="4">
-        <v>-12.6</v>
-      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="6" t="s">
         <v>22</v>
       </c>
@@ -3821,12 +3753,8 @@
       <c r="F19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="4">
-        <v>-29.6</v>
-      </c>
-      <c r="H19" s="4">
-        <v>-25</v>
-      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="6" t="s">
         <v>114</v>
       </c>
@@ -3856,10 +3784,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="4">
-        <v>-31.5</v>
+        <v>-31.1</v>
       </c>
       <c r="H20" s="4">
-        <v>-18.3</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
@@ -3889,12 +3817,8 @@
       <c r="F21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="4">
-        <v>-33.1</v>
-      </c>
-      <c r="H21" s="4">
-        <v>-24.4</v>
-      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="6" t="s">
         <v>115</v>
       </c>
@@ -3924,10 +3848,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="13">
-        <v>-29.2</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H22" s="13">
-        <v>-20</v>
+        <v>-22.5</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>40</v>
@@ -3959,11 +3883,11 @@
       <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="4">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="H23" s="4">
-        <v>-5.3</v>
+      <c r="G23" s="13">
+        <v>-33.1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>-17.8</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
@@ -3995,12 +3919,8 @@
       <c r="F24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="4">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="H24" s="4">
-        <v>-18.7</v>
-      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="6" t="s">
         <v>118</v>
       </c>
@@ -4029,12 +3949,8 @@
       <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="4">
-        <v>-16.5</v>
-      </c>
-      <c r="H25" s="4">
-        <v>-4.0999999999999996</v>
-      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
@@ -4065,12 +3981,8 @@
       <c r="F26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="4">
-        <v>-34.6</v>
-      </c>
-      <c r="H26" s="4">
-        <v>-15.3</v>
-      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="6" t="s">
         <v>2</v>
       </c>
@@ -4099,12 +4011,8 @@
       <c r="F27" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="4">
-        <v>-31.8</v>
-      </c>
-      <c r="H27" s="4">
-        <v>-11.3</v>
-      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="6" t="s">
         <v>2</v>
       </c>
@@ -4133,12 +4041,8 @@
       <c r="F28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="4">
-        <v>-22.5</v>
-      </c>
-      <c r="H28" s="4">
-        <v>-13.9</v>
-      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="6" t="s">
         <v>75</v>
       </c>
@@ -4169,12 +4073,8 @@
       <c r="F29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="4">
-        <v>-8.9</v>
-      </c>
-      <c r="H29" s="4">
-        <v>-4.4000000000000004</v>
-      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="6" t="s">
         <v>22</v>
       </c>
@@ -4203,12 +4103,8 @@
       <c r="F30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="4">
-        <v>-13.7</v>
-      </c>
-      <c r="H30" s="4">
-        <v>-3.3</v>
-      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="6" t="s">
         <v>21</v>
       </c>
@@ -4239,12 +4135,8 @@
       <c r="F31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="4">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="H31" s="4">
-        <v>-23.1</v>
-      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="6" t="s">
         <v>21</v>
       </c>
@@ -4273,12 +4165,8 @@
       <c r="F32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="4">
-        <v>-13.5</v>
-      </c>
-      <c r="H32" s="4">
-        <v>-0.3</v>
-      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
         <v>129</v>
@@ -4307,12 +4195,8 @@
       <c r="F33" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G33" s="4">
-        <v>-1.2</v>
-      </c>
-      <c r="H33" s="4">
-        <v>16.7</v>
-      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
         <v>250</v>
       </c>
@@ -4341,12 +4225,8 @@
       <c r="F34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="4">
-        <v>-14</v>
-      </c>
-      <c r="H34" s="4">
-        <v>5.6</v>
-      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
         <v>131</v>
@@ -4375,12 +4255,8 @@
       <c r="F35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="4">
-        <v>-22.9</v>
-      </c>
-      <c r="H35" s="4">
-        <v>-3.9</v>
-      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
         <v>131</v>
@@ -4409,12 +4285,8 @@
       <c r="F36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="4">
-        <v>-18</v>
-      </c>
-      <c r="H36" s="4">
-        <v>-3.3</v>
-      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="6" t="s">
         <v>47</v>
       </c>
@@ -4445,12 +4317,8 @@
       <c r="F37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="4">
-        <v>-13.9</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1.3</v>
-      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="6" t="s">
         <v>45</v>
       </c>
@@ -4481,12 +4349,8 @@
       <c r="F38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="4">
-        <v>-11.2</v>
-      </c>
-      <c r="H38" s="4">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
         <v>130</v>
@@ -4515,12 +4379,8 @@
       <c r="F39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="4">
-        <v>-20.5</v>
-      </c>
-      <c r="H39" s="4">
-        <v>2.2000000000000002</v>
-      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
         <v>130</v>
@@ -4549,12 +4409,8 @@
       <c r="F40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="4">
-        <v>-25</v>
-      </c>
-      <c r="H40" s="4">
-        <v>-11.5</v>
-      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="6" t="s">
         <v>43</v>
       </c>
@@ -4583,12 +4439,8 @@
       <c r="F41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="4">
-        <v>-26.8</v>
-      </c>
-      <c r="H41" s="4">
-        <v>-14.8</v>
-      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
       <c r="I41" s="6" t="s">
         <v>2</v>
       </c>
@@ -4617,12 +4469,8 @@
       <c r="F42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="4">
-        <v>-23.9</v>
-      </c>
-      <c r="H42" s="4">
-        <v>-10.4</v>
-      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
       <c r="I42" s="6" t="s">
         <v>2</v>
       </c>
@@ -4651,12 +4499,8 @@
       <c r="F43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G43" s="4">
-        <v>-26.2</v>
-      </c>
-      <c r="H43" s="4">
-        <v>-0.6</v>
-      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
       <c r="I43" s="6" t="s">
         <v>65</v>
       </c>
@@ -4685,12 +4529,8 @@
       <c r="F44" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="4">
-        <v>-20.7</v>
-      </c>
-      <c r="H44" s="4">
-        <v>-1.5</v>
-      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
       <c r="I44" s="6" t="s">
         <v>65</v>
       </c>
@@ -4719,12 +4559,8 @@
       <c r="F45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="4">
-        <v>-20.6</v>
-      </c>
-      <c r="H45" s="4">
-        <v>-4.8</v>
-      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
       <c r="I45" s="6" t="s">
         <v>22</v>
       </c>
@@ -4753,12 +4589,8 @@
       <c r="F46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="4">
-        <v>-17</v>
-      </c>
-      <c r="H46" s="4">
-        <v>0</v>
-      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
       <c r="I46" s="6" t="s">
         <v>21</v>
       </c>
@@ -4787,12 +4619,8 @@
       <c r="F47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G47" s="4">
-        <v>-8.1</v>
-      </c>
-      <c r="H47" s="4">
-        <v>-3.3</v>
-      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
       <c r="I47" s="6" t="s">
         <v>21</v>
       </c>
@@ -4823,12 +4651,8 @@
       <c r="F48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="4">
-        <v>-31.3</v>
-      </c>
-      <c r="H48" s="4">
-        <v>-10.8</v>
-      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
       <c r="I48" s="6" t="s">
         <v>2</v>
       </c>
@@ -4857,12 +4681,8 @@
       <c r="F49" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="4">
-        <v>-30.7</v>
-      </c>
-      <c r="H49" s="4">
-        <v>-20.7</v>
-      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
       <c r="I49" s="6" t="s">
         <v>2</v>
       </c>
@@ -4889,7 +4709,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4912,7 +4732,7 @@
         <v>254</v>
       </c>
       <c r="F1" s="62">
-        <v>45676</v>
+        <v>45678</v>
       </c>
       <c r="G1" s="63"/>
       <c r="H1" s="60" t="s">
@@ -4993,12 +4813,8 @@
       <c r="F4" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="36">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="H4" s="36">
-        <v>-27.2</v>
-      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="34" t="s">
         <v>175</v>
       </c>
@@ -5027,12 +4843,8 @@
       <c r="F5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="36">
-        <v>-27.5</v>
-      </c>
-      <c r="H5" s="36">
-        <v>-14.5</v>
-      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="34" t="s">
         <v>155</v>
       </c>
@@ -5045,21 +4857,15 @@
       <c r="C6" s="52">
         <v>3</v>
       </c>
-      <c r="D6" s="52">
-        <v>0</v>
-      </c>
+      <c r="D6" s="52"/>
       <c r="E6" s="32" t="s">
         <v>217</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="36">
-        <v>-35.9</v>
-      </c>
-      <c r="H6" s="36">
-        <v>-22.8</v>
-      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="34" t="s">
         <v>230</v>
       </c>
@@ -5079,12 +4885,8 @@
       <c r="F7" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="36">
-        <v>-30.9</v>
-      </c>
-      <c r="H7" s="36">
-        <v>-21.3</v>
-      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="34" t="s">
         <v>111</v>
       </c>
@@ -5097,19 +4899,17 @@
       <c r="C8" s="52">
         <v>3</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="52">
+        <v>0</v>
+      </c>
       <c r="E8" s="32" t="s">
         <v>216</v>
       </c>
       <c r="F8" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="36">
-        <v>-31.2</v>
-      </c>
-      <c r="H8" s="36">
-        <v>-26.1</v>
-      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="34" t="s">
         <v>172</v>
       </c>
@@ -5129,12 +4929,8 @@
       <c r="F9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>247</v>
-      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="34" t="s">
         <v>231</v>
       </c>
@@ -5154,12 +4950,8 @@
       <c r="F10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="36">
-        <v>-25.8</v>
-      </c>
-      <c r="H10" s="36">
-        <v>-11.8</v>
-      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="34" t="s">
         <v>245</v>
       </c>
@@ -5179,12 +4971,8 @@
       <c r="F11" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="36">
-        <v>-16.100000000000001</v>
-      </c>
-      <c r="H11" s="36">
-        <v>-5.5</v>
-      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="34" t="s">
         <v>246</v>
       </c>
@@ -5204,12 +4992,8 @@
       <c r="F12" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="36">
-        <v>-26.8</v>
-      </c>
-      <c r="H12" s="36">
-        <v>-14.4</v>
-      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="34" t="s">
         <v>244</v>
       </c>
@@ -5222,21 +5006,15 @@
       <c r="C13" s="52">
         <v>2</v>
       </c>
-      <c r="D13" s="52">
-        <v>0</v>
-      </c>
+      <c r="D13" s="52"/>
       <c r="E13" s="31" t="s">
         <v>222</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="36">
-        <v>-34.200000000000003</v>
-      </c>
-      <c r="H13" s="36">
-        <v>-15.7</v>
-      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="34" t="s">
         <v>158</v>
       </c>
@@ -5256,12 +5034,8 @@
       <c r="F14" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="36">
-        <v>-21.3</v>
-      </c>
-      <c r="H14" s="36">
-        <v>-13.3</v>
-      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="34" t="s">
         <v>154</v>
       </c>
@@ -5274,19 +5048,17 @@
       <c r="C15" s="52">
         <v>2</v>
       </c>
-      <c r="D15" s="52"/>
+      <c r="D15" s="52">
+        <v>0</v>
+      </c>
       <c r="E15" s="27" t="s">
         <v>224</v>
       </c>
       <c r="F15" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="36">
-        <v>-22.9</v>
-      </c>
-      <c r="H15" s="36">
-        <v>-13.8</v>
-      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="34" t="s">
         <v>154</v>
       </c>
@@ -5306,12 +5078,8 @@
       <c r="F16" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="36">
-        <v>-28.8</v>
-      </c>
-      <c r="H16" s="36">
-        <v>-12.2</v>
-      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="34" t="s">
         <v>154</v>
       </c>
@@ -5331,12 +5099,8 @@
       <c r="F17" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G17" s="36">
-        <v>-25.3</v>
-      </c>
-      <c r="H17" s="36">
-        <v>-13.9</v>
-      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="34" t="s">
         <v>242</v>
       </c>
@@ -5356,12 +5120,8 @@
       <c r="F18" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="36">
-        <v>-19.5</v>
-      </c>
-      <c r="H18" s="36">
-        <v>-13.7</v>
-      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="34" t="s">
         <v>32</v>
       </c>
@@ -5381,12 +5141,8 @@
       <c r="F19" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="36">
-        <v>-23.8</v>
-      </c>
-      <c r="H19" s="36">
-        <v>-17.5</v>
-      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="34" t="s">
         <v>243</v>
       </c>
@@ -5406,12 +5162,8 @@
       <c r="F20" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="36">
-        <v>-26.8</v>
-      </c>
-      <c r="H20" s="36">
-        <v>-12.6</v>
-      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="34" t="s">
         <v>241</v>
       </c>
@@ -5431,12 +5183,8 @@
       <c r="F21" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="36">
-        <v>-29.6</v>
-      </c>
-      <c r="H21" s="36">
-        <v>-25</v>
-      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="34" t="s">
         <v>175</v>
       </c>
@@ -5456,12 +5204,8 @@
       <c r="F22" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="36">
-        <v>-31.5</v>
-      </c>
-      <c r="H22" s="36">
-        <v>-18.3</v>
-      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="34" t="s">
         <v>231</v>
       </c>
@@ -5481,12 +5225,8 @@
       <c r="F23" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="36">
-        <v>-33.1</v>
-      </c>
-      <c r="H23" s="36">
-        <v>-24.4</v>
-      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="34" t="s">
         <v>172</v>
       </c>
@@ -5506,12 +5246,8 @@
       <c r="F24" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="36">
-        <v>-29.2</v>
-      </c>
-      <c r="H24" s="36">
-        <v>-20</v>
-      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="34" t="s">
         <v>111</v>
       </c>
@@ -5531,12 +5267,8 @@
       <c r="F25" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="36">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="H25" s="36">
-        <v>-5.3</v>
-      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="34" t="s">
         <v>151</v>
       </c>
@@ -5556,12 +5288,8 @@
       <c r="F26" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="36">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="H26" s="36">
-        <v>-18.7</v>
-      </c>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="34" t="s">
         <v>229</v>
       </c>
@@ -5581,12 +5309,8 @@
       <c r="F27" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="36">
-        <v>-16.5</v>
-      </c>
-      <c r="H27" s="36">
-        <v>-4.0999999999999996</v>
-      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="34" t="s">
         <v>155</v>
       </c>
@@ -5608,12 +5332,8 @@
       <c r="F28" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="36">
-        <v>-34.6</v>
-      </c>
-      <c r="H28" s="36">
-        <v>-15.3</v>
-      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="34" t="s">
         <v>234</v>
       </c>
@@ -5626,21 +5346,15 @@
       <c r="C29" s="52">
         <v>1</v>
       </c>
-      <c r="D29" s="52">
-        <v>0</v>
-      </c>
+      <c r="D29" s="52"/>
       <c r="E29" s="30" t="s">
         <v>215</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="36">
-        <v>-31.8</v>
-      </c>
-      <c r="H29" s="36">
-        <v>-11.3</v>
-      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="34" t="s">
         <v>232</v>
       </c>
@@ -5660,12 +5374,8 @@
       <c r="F30" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="36">
-        <v>-22.5</v>
-      </c>
-      <c r="H30" s="36">
-        <v>-13.9</v>
-      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="34" t="s">
         <v>237</v>
       </c>
@@ -5687,12 +5397,8 @@
       <c r="F31" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="36">
-        <v>-8.9</v>
-      </c>
-      <c r="H31" s="36">
-        <v>-4.4000000000000004</v>
-      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="34" t="s">
         <v>238</v>
       </c>
@@ -5712,12 +5418,8 @@
       <c r="F32" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="36">
-        <v>-13.7</v>
-      </c>
-      <c r="H32" s="36">
-        <v>-3.3</v>
-      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="34" t="s">
         <v>159</v>
       </c>
@@ -5739,12 +5441,8 @@
       <c r="F33" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="36">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="H33" s="36">
-        <v>-23.1</v>
-      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="34" t="s">
         <v>239</v>
       </c>
@@ -5764,12 +5462,8 @@
       <c r="F34" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="36">
-        <v>-13.5</v>
-      </c>
-      <c r="H34" s="36">
-        <v>-0.3</v>
-      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="34" t="s">
         <v>174</v>
       </c>
@@ -5791,12 +5485,8 @@
       <c r="F35" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="36">
-        <v>-1.2</v>
-      </c>
-      <c r="H35" s="36">
-        <v>16.7</v>
-      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="34" t="s">
         <v>250</v>
       </c>
@@ -5816,12 +5506,8 @@
       <c r="F36" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="36">
-        <v>-14</v>
-      </c>
-      <c r="H36" s="36">
-        <v>5.6</v>
-      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5841,12 +5527,8 @@
       <c r="F37" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="36">
-        <v>-22.9</v>
-      </c>
-      <c r="H37" s="36">
-        <v>-3.9</v>
-      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5866,12 +5548,8 @@
       <c r="F38" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="36">
-        <v>-18</v>
-      </c>
-      <c r="H38" s="36">
-        <v>-3.3</v>
-      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="34" t="s">
         <v>173</v>
       </c>
@@ -5893,12 +5571,8 @@
       <c r="F39" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G39" s="36">
-        <v>-13.9</v>
-      </c>
-      <c r="H39" s="36">
-        <v>1.3</v>
-      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="34" t="s">
         <v>240</v>
       </c>
@@ -5920,12 +5594,8 @@
       <c r="F40" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G40" s="36">
-        <v>-11.2</v>
-      </c>
-      <c r="H40" s="36">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5945,12 +5615,8 @@
       <c r="F41" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G41" s="36">
-        <v>-20.5</v>
-      </c>
-      <c r="H41" s="36">
-        <v>2.2000000000000002</v>
-      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5961,19 +5627,17 @@
       <c r="C42" s="52">
         <v>1</v>
       </c>
-      <c r="D42" s="52"/>
+      <c r="D42" s="52">
+        <v>0</v>
+      </c>
       <c r="E42" s="30" t="s">
         <v>209</v>
       </c>
       <c r="F42" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G42" s="36">
-        <v>-25</v>
-      </c>
-      <c r="H42" s="36">
-        <v>-11.5</v>
-      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="34" t="s">
         <v>235</v>
       </c>
@@ -5993,12 +5657,8 @@
       <c r="F43" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="36">
-        <v>-26.8</v>
-      </c>
-      <c r="H43" s="36">
-        <v>-14.8</v>
-      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="34" t="s">
         <v>234</v>
       </c>
@@ -6018,12 +5678,8 @@
       <c r="F44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="36">
-        <v>-23.9</v>
-      </c>
-      <c r="H44" s="36">
-        <v>-10.4</v>
-      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="34" t="s">
         <v>157</v>
       </c>
@@ -6043,12 +5699,8 @@
       <c r="F45" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="G45" s="36">
-        <v>-26.2</v>
-      </c>
-      <c r="H45" s="36">
-        <v>-0.6</v>
-      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="34" t="s">
         <v>160</v>
       </c>
@@ -6068,12 +5720,8 @@
       <c r="F46" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G46" s="36">
-        <v>-20.7</v>
-      </c>
-      <c r="H46" s="36">
-        <v>-1.5</v>
-      </c>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="34" t="s">
         <v>160</v>
       </c>
@@ -6093,12 +5741,8 @@
       <c r="F47" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="36">
-        <v>-20.6</v>
-      </c>
-      <c r="H47" s="36">
-        <v>-4.8</v>
-      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="34" t="s">
         <v>156</v>
       </c>
@@ -6118,12 +5762,8 @@
       <c r="F48" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="36">
-        <v>-17</v>
-      </c>
-      <c r="H48" s="36">
-        <v>0</v>
-      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="34" t="s">
         <v>236</v>
       </c>
@@ -6143,12 +5783,8 @@
       <c r="F49" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="36">
-        <v>-8.1</v>
-      </c>
-      <c r="H49" s="36">
-        <v>-3.3</v>
-      </c>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="34" t="s">
         <v>159</v>
       </c>
@@ -6170,12 +5806,8 @@
       <c r="F50" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="36">
-        <v>-31.3</v>
-      </c>
-      <c r="H50" s="36">
-        <v>-10.8</v>
-      </c>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="34" t="s">
         <v>157</v>
       </c>
@@ -6195,12 +5827,8 @@
       <c r="F51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G51" s="36">
-        <v>-30.7</v>
-      </c>
-      <c r="H51" s="36">
-        <v>-20.7</v>
-      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="34" t="s">
         <v>233</v>
       </c>
@@ -10574,6 +10202,150 @@
       <c r="A30" s="16">
         <v>45677</v>
       </c>
+      <c r="B30">
+        <v>-34.1</v>
+      </c>
+      <c r="C30">
+        <v>-25.3</v>
+      </c>
+      <c r="D30">
+        <v>-31.9</v>
+      </c>
+      <c r="E30">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="F30">
+        <v>-35.5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H30">
+        <v>-25.7</v>
+      </c>
+      <c r="I30">
+        <v>-21.4</v>
+      </c>
+      <c r="J30">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="K30">
+        <v>-24.6</v>
+      </c>
+      <c r="L30">
+        <v>-24.1</v>
+      </c>
+      <c r="M30">
+        <v>-33.5</v>
+      </c>
+      <c r="N30">
+        <v>-31.8</v>
+      </c>
+      <c r="O30">
+        <v>-28</v>
+      </c>
+      <c r="P30">
+        <v>-29.7</v>
+      </c>
+      <c r="Q30">
+        <v>-20.9</v>
+      </c>
+      <c r="R30">
+        <v>-26.7</v>
+      </c>
+      <c r="S30">
+        <v>-32.5</v>
+      </c>
+      <c r="T30">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="U30">
+        <v>-31.8</v>
+      </c>
+      <c r="V30">
+        <v>-32.5</v>
+      </c>
+      <c r="W30">
+        <v>-24.2</v>
+      </c>
+      <c r="X30">
+        <v>-28.1</v>
+      </c>
+      <c r="Y30">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="Z30">
+        <v>-26.7</v>
+      </c>
+      <c r="AA30">
+        <v>-26.7</v>
+      </c>
+      <c r="AB30">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AC30">
+        <v>-13.6</v>
+      </c>
+      <c r="AD30">
+        <v>-9.1</v>
+      </c>
+      <c r="AE30">
+        <v>-32.9</v>
+      </c>
+      <c r="AF30">
+        <v>-12.1</v>
+      </c>
+      <c r="AG30">
+        <v>-1.8</v>
+      </c>
+      <c r="AH30">
+        <v>-12.8</v>
+      </c>
+      <c r="AI30">
+        <v>-21.4</v>
+      </c>
+      <c r="AJ30">
+        <v>-24.2</v>
+      </c>
+      <c r="AK30">
+        <v>-19</v>
+      </c>
+      <c r="AL30">
+        <v>-17.5</v>
+      </c>
+      <c r="AM30">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="AN30">
+        <v>-33.6</v>
+      </c>
+      <c r="AO30">
+        <v>-30.2</v>
+      </c>
+      <c r="AP30">
+        <v>-23.1</v>
+      </c>
+      <c r="AQ30">
+        <v>-20.5</v>
+      </c>
+      <c r="AR30">
+        <v>-18.8</v>
+      </c>
+      <c r="AS30">
+        <v>-17.2</v>
+      </c>
+      <c r="AT30">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="AU30">
+        <v>-14.2</v>
+      </c>
+      <c r="AV30">
+        <v>-24.2</v>
+      </c>
+      <c r="AW30">
+        <v>-24.1</v>
+      </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A31" s="16">
@@ -10811,7 +10583,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -15126,6 +14898,150 @@
       <c r="A30" s="16">
         <v>45677</v>
       </c>
+      <c r="B30">
+        <v>-25</v>
+      </c>
+      <c r="C30">
+        <v>-13</v>
+      </c>
+      <c r="D30">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="E30">
+        <v>-22</v>
+      </c>
+      <c r="F30">
+        <v>-26.1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H30">
+        <v>-13.3</v>
+      </c>
+      <c r="I30">
+        <v>-10.8</v>
+      </c>
+      <c r="J30">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="K30">
+        <v>-7.9</v>
+      </c>
+      <c r="L30">
+        <v>-15</v>
+      </c>
+      <c r="M30">
+        <v>-15.8</v>
+      </c>
+      <c r="N30">
+        <v>-15.3</v>
+      </c>
+      <c r="O30">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="P30">
+        <v>-11.1</v>
+      </c>
+      <c r="Q30">
+        <v>-15.1</v>
+      </c>
+      <c r="R30">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="S30">
+        <v>-22</v>
+      </c>
+      <c r="T30">
+        <v>-21.3</v>
+      </c>
+      <c r="U30">
+        <v>-22.7</v>
+      </c>
+      <c r="V30">
+        <v>-20.6</v>
+      </c>
+      <c r="W30">
+        <v>-13</v>
+      </c>
+      <c r="X30">
+        <v>-18.2</v>
+      </c>
+      <c r="Y30">
+        <v>-7</v>
+      </c>
+      <c r="Z30">
+        <v>-9</v>
+      </c>
+      <c r="AA30">
+        <v>-9</v>
+      </c>
+      <c r="AB30">
+        <v>-10</v>
+      </c>
+      <c r="AC30">
+        <v>-7.3</v>
+      </c>
+      <c r="AD30">
+        <v>-2.1</v>
+      </c>
+      <c r="AE30">
+        <v>-21.3</v>
+      </c>
+      <c r="AF30">
+        <v>1.3</v>
+      </c>
+      <c r="AG30">
+        <v>18</v>
+      </c>
+      <c r="AH30">
+        <v>7.6</v>
+      </c>
+      <c r="AI30">
+        <v>-1.6</v>
+      </c>
+      <c r="AJ30">
+        <v>-12.9</v>
+      </c>
+      <c r="AK30">
+        <v>-0.8</v>
+      </c>
+      <c r="AL30">
+        <v>1.6</v>
+      </c>
+      <c r="AM30">
+        <v>4.5</v>
+      </c>
+      <c r="AN30">
+        <v>-17.2</v>
+      </c>
+      <c r="AO30">
+        <v>-11.1</v>
+      </c>
+      <c r="AP30">
+        <v>-7.7</v>
+      </c>
+      <c r="AQ30">
+        <v>-0.4</v>
+      </c>
+      <c r="AR30">
+        <v>1.3</v>
+      </c>
+      <c r="AS30">
+        <v>-7.5</v>
+      </c>
+      <c r="AT30">
+        <v>-6.7</v>
+      </c>
+      <c r="AU30">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="AV30">
+        <v>-10.5</v>
+      </c>
+      <c r="AW30">
+        <v>-11.1</v>
+      </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A31" s="16">

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2168D577-9A8F-4722-A0A0-B926B6643EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3D512B-E8A7-4C90-A282-02AF731EB7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="258">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2830,7 +2830,7 @@
   <dimension ref="A1:BI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2899,8 +2899,12 @@
       <c r="F2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="4">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-25.9</v>
+      </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
       </c>
@@ -2918,148 +2922,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>0</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-30.2</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-39.5</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
+        <v>-32.9</v>
+      </c>
+      <c r="S2" t="str">
+        <v>无</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-28.6</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-26.2</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-29.6</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-34.9</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-33.1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-33.1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>-30.2</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>-24.3</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="AF2">
-        <v>-31.1</v>
+        <v>-31.9</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>-31.3</v>
       </c>
       <c r="AH2">
-        <v>-33.799999999999997</v>
+        <v>-32</v>
       </c>
       <c r="AI2">
-        <v>-33.1</v>
+        <v>-28</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>-33.5</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-30.5</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>-27.6</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-11.6</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-15.9</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>-12.9</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>-17.8</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>-18.8</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>-32.299999999999997</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>-33.6</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>-11.5</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>-21.4</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>-11.2</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>-32.6</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3079,8 +3083,12 @@
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="4">
+        <v>-30.2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-20</v>
+      </c>
       <c r="I3" s="6" t="s">
         <v>38</v>
       </c>
@@ -3098,148 +3106,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>0</v>
+        <v>-25.9</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>-26.9</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
+        <v>-23.9</v>
+      </c>
+      <c r="S3" t="str">
+        <v>无</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-18.7</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-13.2</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-15.6</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-14.1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-19.2</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-22.7</v>
       </c>
       <c r="AF3">
-        <v>-19.100000000000001</v>
+        <v>-21.2</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-22.7</v>
       </c>
       <c r="AH3">
-        <v>-22.5</v>
+        <v>-15.6</v>
       </c>
       <c r="AI3">
-        <v>-17.8</v>
+        <v>-10.4</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>-22.2</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>-6.3</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-14.5</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-13.3</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>-16.3</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>-20.7</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>-10.6</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>-4.2</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>-18.3</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>-21.4</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>-10.8</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="BG3">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>-13.7</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>-23.4</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3259,8 +3267,12 @@
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4">
+        <v>-39.5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-26.9</v>
+      </c>
       <c r="I4" s="6" t="s">
         <v>117</v>
       </c>
@@ -3291,8 +3303,12 @@
       <c r="F5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-19.899999999999999</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
       </c>
@@ -3332,8 +3348,12 @@
       <c r="F6" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="4">
+        <v>-32.9</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-23.9</v>
+      </c>
       <c r="I6" s="6" t="s">
         <v>115</v>
       </c>
@@ -3373,8 +3393,12 @@
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="I7" s="6" t="s">
         <v>113</v>
       </c>
@@ -3414,8 +3438,12 @@
       <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="4">
+        <v>-28.6</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-18.7</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>120</v>
       </c>
@@ -3453,8 +3481,12 @@
       <c r="F9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="4">
+        <v>-26.2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-13.2</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>119</v>
       </c>
@@ -3483,8 +3515,12 @@
       <c r="F10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="4">
+        <v>-29.6</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-15</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>100</v>
       </c>
@@ -3513,8 +3549,12 @@
       <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="4">
+        <v>-34.9</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-16.600000000000001</v>
+      </c>
       <c r="I11" s="6" t="s">
         <v>54</v>
       </c>
@@ -3543,8 +3583,12 @@
       <c r="F12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="4">
+        <v>-27</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-15.6</v>
+      </c>
       <c r="I12" s="6" t="s">
         <v>28</v>
       </c>
@@ -3573,8 +3617,12 @@
       <c r="F13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="4">
+        <v>-34</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-15</v>
+      </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
@@ -3603,8 +3651,12 @@
       <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="4">
+        <v>-33.1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-14.1</v>
+      </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
@@ -3633,8 +3685,12 @@
       <c r="F15" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="4">
+        <v>-33.1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-19.2</v>
+      </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
       </c>
@@ -3663,8 +3719,12 @@
       <c r="F16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="4">
+        <v>-30.2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-14</v>
+      </c>
       <c r="I16" s="6" t="s">
         <v>96</v>
       </c>
@@ -3693,8 +3753,12 @@
       <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="4">
+        <v>-24.3</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-17.399999999999999</v>
+      </c>
       <c r="I17" s="6" t="s">
         <v>161</v>
       </c>
@@ -3723,8 +3787,12 @@
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="4">
+        <v>-28</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-1.9</v>
+      </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
       </c>
@@ -3753,8 +3821,12 @@
       <c r="F19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="4">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-22.7</v>
+      </c>
       <c r="I19" s="6" t="s">
         <v>114</v>
       </c>
@@ -3783,11 +3855,11 @@
       <c r="F20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="4">
-        <v>-31.1</v>
-      </c>
-      <c r="H20" s="4">
-        <v>-19.100000000000001</v>
+      <c r="G20" s="13">
+        <v>-31.9</v>
+      </c>
+      <c r="H20" s="13">
+        <v>-21.2</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
@@ -3817,8 +3889,12 @@
       <c r="F21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="G21" s="13">
+        <v>-31.3</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-22.7</v>
+      </c>
       <c r="I21" s="6" t="s">
         <v>115</v>
       </c>
@@ -3848,10 +3924,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="13">
-        <v>-33.799999999999997</v>
+        <v>-32</v>
       </c>
       <c r="H22" s="13">
-        <v>-22.5</v>
+        <v>-15.6</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>40</v>
@@ -3884,10 +3960,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="13">
-        <v>-33.1</v>
+        <v>-28</v>
       </c>
       <c r="H23" s="13">
-        <v>-17.8</v>
+        <v>-10.4</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
@@ -3919,8 +3995,12 @@
       <c r="F24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="G24" s="13">
+        <v>-33.5</v>
+      </c>
+      <c r="H24" s="13">
+        <v>-22.2</v>
+      </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
       </c>
@@ -3949,8 +4029,12 @@
       <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="G25" s="4">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-6.3</v>
+      </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
@@ -3981,8 +4065,12 @@
       <c r="F26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="G26" s="4">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-14.5</v>
+      </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
       </c>
@@ -4011,8 +4099,12 @@
       <c r="F27" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="G27" s="4">
+        <v>-30.5</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-13.3</v>
+      </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
       </c>
@@ -4041,8 +4133,12 @@
       <c r="F28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="4">
+        <v>-27.6</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-16.3</v>
+      </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
       </c>
@@ -4073,8 +4169,12 @@
       <c r="F29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="G29" s="4">
+        <v>-11.6</v>
+      </c>
+      <c r="H29" s="4">
+        <v>-0.8</v>
+      </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
       </c>
@@ -4103,8 +4203,12 @@
       <c r="F30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="G30" s="4">
+        <v>-15.9</v>
+      </c>
+      <c r="H30" s="4">
+        <v>-4.0999999999999996</v>
+      </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
       </c>
@@ -4135,8 +4239,12 @@
       <c r="F31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="4">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="H31" s="4">
+        <v>-20.7</v>
+      </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
       </c>
@@ -4165,8 +4273,12 @@
       <c r="F32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="G32" s="4">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H32" s="4">
+        <v>4</v>
+      </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
         <v>129</v>
@@ -4195,8 +4307,12 @@
       <c r="F33" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="G33" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="H33" s="4">
+        <v>16.2</v>
+      </c>
       <c r="I33" s="6" t="s">
         <v>250</v>
       </c>
@@ -4225,8 +4341,12 @@
       <c r="F34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="G34" s="4">
+        <v>-12.9</v>
+      </c>
+      <c r="H34" s="4">
+        <v>5.4</v>
+      </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
         <v>131</v>
@@ -4255,8 +4375,12 @@
       <c r="F35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="4">
+        <v>-23</v>
+      </c>
+      <c r="H35" s="4">
+        <v>-1.3</v>
+      </c>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
         <v>131</v>
@@ -4285,8 +4409,12 @@
       <c r="F36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="G36" s="4">
+        <v>-18</v>
+      </c>
+      <c r="H36" s="4">
+        <v>-10.6</v>
+      </c>
       <c r="I36" s="6" t="s">
         <v>47</v>
       </c>
@@ -4317,8 +4445,12 @@
       <c r="F37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="G37" s="4">
+        <v>-17.8</v>
+      </c>
+      <c r="H37" s="4">
+        <v>-4.2</v>
+      </c>
       <c r="I37" s="6" t="s">
         <v>45</v>
       </c>
@@ -4349,8 +4481,12 @@
       <c r="F38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="G38" s="4">
+        <v>-18.8</v>
+      </c>
+      <c r="H38" s="4">
+        <v>-1.4</v>
+      </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
         <v>130</v>
@@ -4379,8 +4515,12 @@
       <c r="F39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="G39" s="4">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="H39" s="4">
+        <v>5.3</v>
+      </c>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
         <v>130</v>
@@ -4409,8 +4549,12 @@
       <c r="F40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="G40" s="4">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="H40" s="4">
+        <v>-18.3</v>
+      </c>
       <c r="I40" s="6" t="s">
         <v>43</v>
       </c>
@@ -4439,8 +4583,12 @@
       <c r="F41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="G41" s="4">
+        <v>-33.6</v>
+      </c>
+      <c r="H41" s="4">
+        <v>-21.4</v>
+      </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
       </c>
@@ -4469,8 +4617,12 @@
       <c r="F42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="G42" s="4">
+        <v>-29</v>
+      </c>
+      <c r="H42" s="4">
+        <v>-10.8</v>
+      </c>
       <c r="I42" s="6" t="s">
         <v>2</v>
       </c>
@@ -4499,8 +4651,12 @@
       <c r="F43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="G43" s="4">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="H43" s="4">
+        <v>-0.7</v>
+      </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
       </c>
@@ -4529,8 +4685,12 @@
       <c r="F44" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="G44" s="4">
+        <v>-11.5</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1.7</v>
+      </c>
       <c r="I44" s="6" t="s">
         <v>65</v>
       </c>
@@ -4559,8 +4719,12 @@
       <c r="F45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="G45" s="4">
+        <v>-21.4</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-2.2999999999999998</v>
+      </c>
       <c r="I45" s="6" t="s">
         <v>22</v>
       </c>
@@ -4589,8 +4753,12 @@
       <c r="F46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="G46" s="4">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="H46" s="4">
+        <v>-0.5</v>
+      </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
       </c>
@@ -4619,8 +4787,12 @@
       <c r="F47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="G47" s="4">
+        <v>-11.2</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1.8</v>
+      </c>
       <c r="I47" s="6" t="s">
         <v>21</v>
       </c>
@@ -4651,8 +4823,12 @@
       <c r="F48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="G48" s="4">
+        <v>-26</v>
+      </c>
+      <c r="H48" s="4">
+        <v>-13.7</v>
+      </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
       </c>
@@ -4681,8 +4857,12 @@
       <c r="F49" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="G49" s="4">
+        <v>-32.6</v>
+      </c>
+      <c r="H49" s="4">
+        <v>-23.4</v>
+      </c>
       <c r="I49" s="6" t="s">
         <v>2</v>
       </c>
@@ -4709,7 +4889,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4732,7 +4912,7 @@
         <v>254</v>
       </c>
       <c r="F1" s="62">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="G1" s="63"/>
       <c r="H1" s="60" t="s">
@@ -4813,8 +4993,12 @@
       <c r="F4" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="G4" s="36">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="H4" s="36">
+        <v>-25.9</v>
+      </c>
       <c r="I4" s="34" t="s">
         <v>175</v>
       </c>
@@ -4843,8 +5027,12 @@
       <c r="F5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="G5" s="36">
+        <v>-30.2</v>
+      </c>
+      <c r="H5" s="36">
+        <v>-20</v>
+      </c>
       <c r="I5" s="34" t="s">
         <v>155</v>
       </c>
@@ -4857,15 +5045,21 @@
       <c r="C6" s="52">
         <v>3</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="52">
+        <v>0</v>
+      </c>
       <c r="E6" s="32" t="s">
         <v>217</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="G6" s="36">
+        <v>-39.5</v>
+      </c>
+      <c r="H6" s="36">
+        <v>-26.9</v>
+      </c>
       <c r="I6" s="34" t="s">
         <v>230</v>
       </c>
@@ -4885,8 +5079,12 @@
       <c r="F7" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="G7" s="36">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="H7" s="36">
+        <v>-19.899999999999999</v>
+      </c>
       <c r="I7" s="34" t="s">
         <v>111</v>
       </c>
@@ -4899,17 +5097,19 @@
       <c r="C8" s="52">
         <v>3</v>
       </c>
-      <c r="D8" s="52">
-        <v>0</v>
-      </c>
+      <c r="D8" s="52"/>
       <c r="E8" s="32" t="s">
         <v>216</v>
       </c>
       <c r="F8" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="G8" s="36">
+        <v>-32.9</v>
+      </c>
+      <c r="H8" s="36">
+        <v>-23.9</v>
+      </c>
       <c r="I8" s="34" t="s">
         <v>172</v>
       </c>
@@ -4929,8 +5129,12 @@
       <c r="F9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="G9" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>247</v>
+      </c>
       <c r="I9" s="34" t="s">
         <v>231</v>
       </c>
@@ -4950,8 +5154,12 @@
       <c r="F10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="G10" s="36">
+        <v>-28.6</v>
+      </c>
+      <c r="H10" s="36">
+        <v>-18.7</v>
+      </c>
       <c r="I10" s="34" t="s">
         <v>245</v>
       </c>
@@ -4971,8 +5179,12 @@
       <c r="F11" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="G11" s="36">
+        <v>-26.2</v>
+      </c>
+      <c r="H11" s="36">
+        <v>-13.2</v>
+      </c>
       <c r="I11" s="34" t="s">
         <v>246</v>
       </c>
@@ -4992,8 +5204,12 @@
       <c r="F12" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="G12" s="36">
+        <v>-29.6</v>
+      </c>
+      <c r="H12" s="36">
+        <v>-15</v>
+      </c>
       <c r="I12" s="34" t="s">
         <v>244</v>
       </c>
@@ -5006,15 +5222,21 @@
       <c r="C13" s="52">
         <v>2</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="52">
+        <v>0</v>
+      </c>
       <c r="E13" s="31" t="s">
         <v>222</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="G13" s="36">
+        <v>-34.9</v>
+      </c>
+      <c r="H13" s="36">
+        <v>-16.600000000000001</v>
+      </c>
       <c r="I13" s="34" t="s">
         <v>158</v>
       </c>
@@ -5034,8 +5256,12 @@
       <c r="F14" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="G14" s="36">
+        <v>-27</v>
+      </c>
+      <c r="H14" s="36">
+        <v>-15.6</v>
+      </c>
       <c r="I14" s="34" t="s">
         <v>154</v>
       </c>
@@ -5048,17 +5274,19 @@
       <c r="C15" s="52">
         <v>2</v>
       </c>
-      <c r="D15" s="52">
-        <v>0</v>
-      </c>
+      <c r="D15" s="52"/>
       <c r="E15" s="27" t="s">
         <v>224</v>
       </c>
       <c r="F15" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="G15" s="36">
+        <v>-34</v>
+      </c>
+      <c r="H15" s="36">
+        <v>-15</v>
+      </c>
       <c r="I15" s="34" t="s">
         <v>154</v>
       </c>
@@ -5078,8 +5306,12 @@
       <c r="F16" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="G16" s="36">
+        <v>-33.1</v>
+      </c>
+      <c r="H16" s="36">
+        <v>-14.1</v>
+      </c>
       <c r="I16" s="34" t="s">
         <v>154</v>
       </c>
@@ -5099,8 +5331,12 @@
       <c r="F17" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="G17" s="36">
+        <v>-33.1</v>
+      </c>
+      <c r="H17" s="36">
+        <v>-19.2</v>
+      </c>
       <c r="I17" s="34" t="s">
         <v>242</v>
       </c>
@@ -5120,8 +5356,12 @@
       <c r="F18" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="G18" s="36">
+        <v>-30.2</v>
+      </c>
+      <c r="H18" s="36">
+        <v>-14</v>
+      </c>
       <c r="I18" s="34" t="s">
         <v>32</v>
       </c>
@@ -5141,8 +5381,12 @@
       <c r="F19" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="G19" s="36">
+        <v>-24.3</v>
+      </c>
+      <c r="H19" s="36">
+        <v>-17.399999999999999</v>
+      </c>
       <c r="I19" s="34" t="s">
         <v>243</v>
       </c>
@@ -5162,8 +5406,12 @@
       <c r="F20" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="G20" s="36">
+        <v>-28</v>
+      </c>
+      <c r="H20" s="36">
+        <v>-1.9</v>
+      </c>
       <c r="I20" s="34" t="s">
         <v>241</v>
       </c>
@@ -5183,8 +5431,12 @@
       <c r="F21" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="G21" s="36">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="H21" s="36">
+        <v>-22.7</v>
+      </c>
       <c r="I21" s="34" t="s">
         <v>175</v>
       </c>
@@ -5204,8 +5456,12 @@
       <c r="F22" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="G22" s="36">
+        <v>-31.9</v>
+      </c>
+      <c r="H22" s="36">
+        <v>-21.2</v>
+      </c>
       <c r="I22" s="34" t="s">
         <v>231</v>
       </c>
@@ -5225,8 +5481,12 @@
       <c r="F23" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
+      <c r="G23" s="36">
+        <v>-31.3</v>
+      </c>
+      <c r="H23" s="36">
+        <v>-22.7</v>
+      </c>
       <c r="I23" s="34" t="s">
         <v>172</v>
       </c>
@@ -5246,8 +5506,12 @@
       <c r="F24" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="G24" s="36">
+        <v>-32</v>
+      </c>
+      <c r="H24" s="36">
+        <v>-15.6</v>
+      </c>
       <c r="I24" s="34" t="s">
         <v>111</v>
       </c>
@@ -5267,8 +5531,12 @@
       <c r="F25" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
+      <c r="G25" s="36">
+        <v>-28</v>
+      </c>
+      <c r="H25" s="36">
+        <v>-10.4</v>
+      </c>
       <c r="I25" s="34" t="s">
         <v>151</v>
       </c>
@@ -5288,8 +5556,12 @@
       <c r="F26" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="G26" s="36">
+        <v>-33.5</v>
+      </c>
+      <c r="H26" s="36">
+        <v>-22.2</v>
+      </c>
       <c r="I26" s="34" t="s">
         <v>229</v>
       </c>
@@ -5309,8 +5581,12 @@
       <c r="F27" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
+      <c r="G27" s="36">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="H27" s="36">
+        <v>-6.3</v>
+      </c>
       <c r="I27" s="34" t="s">
         <v>155</v>
       </c>
@@ -5332,8 +5608,12 @@
       <c r="F28" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="G28" s="36">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="H28" s="36">
+        <v>-14.5</v>
+      </c>
       <c r="I28" s="34" t="s">
         <v>234</v>
       </c>
@@ -5353,8 +5633,12 @@
       <c r="F29" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="G29" s="36">
+        <v>-30.5</v>
+      </c>
+      <c r="H29" s="36">
+        <v>-13.3</v>
+      </c>
       <c r="I29" s="34" t="s">
         <v>232</v>
       </c>
@@ -5374,8 +5658,12 @@
       <c r="F30" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
+      <c r="G30" s="36">
+        <v>-27.6</v>
+      </c>
+      <c r="H30" s="36">
+        <v>-16.3</v>
+      </c>
       <c r="I30" s="34" t="s">
         <v>237</v>
       </c>
@@ -5397,8 +5685,12 @@
       <c r="F31" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
+      <c r="G31" s="36">
+        <v>-11.6</v>
+      </c>
+      <c r="H31" s="36">
+        <v>-0.8</v>
+      </c>
       <c r="I31" s="34" t="s">
         <v>238</v>
       </c>
@@ -5418,8 +5710,12 @@
       <c r="F32" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
+      <c r="G32" s="36">
+        <v>-15.9</v>
+      </c>
+      <c r="H32" s="36">
+        <v>-4.0999999999999996</v>
+      </c>
       <c r="I32" s="34" t="s">
         <v>159</v>
       </c>
@@ -5441,8 +5737,12 @@
       <c r="F33" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
+      <c r="G33" s="36">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="H33" s="36">
+        <v>-20.7</v>
+      </c>
       <c r="I33" s="34" t="s">
         <v>239</v>
       </c>
@@ -5462,8 +5762,12 @@
       <c r="F34" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="G34" s="36">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H34" s="36">
+        <v>4</v>
+      </c>
       <c r="I34" s="34" t="s">
         <v>174</v>
       </c>
@@ -5485,8 +5789,12 @@
       <c r="F35" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
+      <c r="G35" s="36">
+        <v>1.8</v>
+      </c>
+      <c r="H35" s="36">
+        <v>16.2</v>
+      </c>
       <c r="I35" s="34" t="s">
         <v>250</v>
       </c>
@@ -5506,8 +5814,12 @@
       <c r="F36" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
+      <c r="G36" s="36">
+        <v>-12.9</v>
+      </c>
+      <c r="H36" s="36">
+        <v>5.4</v>
+      </c>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5527,8 +5839,12 @@
       <c r="F37" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
+      <c r="G37" s="36">
+        <v>-23</v>
+      </c>
+      <c r="H37" s="36">
+        <v>-1.3</v>
+      </c>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5548,8 +5864,12 @@
       <c r="F38" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
+      <c r="G38" s="36">
+        <v>-18</v>
+      </c>
+      <c r="H38" s="36">
+        <v>-10.6</v>
+      </c>
       <c r="I38" s="34" t="s">
         <v>173</v>
       </c>
@@ -5571,8 +5891,12 @@
       <c r="F39" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
+      <c r="G39" s="36">
+        <v>-17.8</v>
+      </c>
+      <c r="H39" s="36">
+        <v>-4.2</v>
+      </c>
       <c r="I39" s="34" t="s">
         <v>240</v>
       </c>
@@ -5594,8 +5918,12 @@
       <c r="F40" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
+      <c r="G40" s="36">
+        <v>-18.8</v>
+      </c>
+      <c r="H40" s="36">
+        <v>-1.4</v>
+      </c>
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5615,8 +5943,12 @@
       <c r="F41" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="G41" s="36">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="H41" s="36">
+        <v>5.3</v>
+      </c>
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5627,17 +5959,19 @@
       <c r="C42" s="52">
         <v>1</v>
       </c>
-      <c r="D42" s="52">
-        <v>0</v>
-      </c>
+      <c r="D42" s="52"/>
       <c r="E42" s="30" t="s">
         <v>209</v>
       </c>
       <c r="F42" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
+      <c r="G42" s="36">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="H42" s="36">
+        <v>-18.3</v>
+      </c>
       <c r="I42" s="34" t="s">
         <v>235</v>
       </c>
@@ -5650,15 +5984,21 @@
       <c r="C43" s="52">
         <v>1</v>
       </c>
-      <c r="D43" s="52"/>
+      <c r="D43" s="52">
+        <v>0</v>
+      </c>
       <c r="E43" s="30" t="s">
         <v>214</v>
       </c>
       <c r="F43" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
+      <c r="G43" s="36">
+        <v>-33.6</v>
+      </c>
+      <c r="H43" s="36">
+        <v>-21.4</v>
+      </c>
       <c r="I43" s="34" t="s">
         <v>234</v>
       </c>
@@ -5678,8 +6018,12 @@
       <c r="F44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
+      <c r="G44" s="36">
+        <v>-29</v>
+      </c>
+      <c r="H44" s="36">
+        <v>-10.8</v>
+      </c>
       <c r="I44" s="34" t="s">
         <v>157</v>
       </c>
@@ -5699,8 +6043,12 @@
       <c r="F45" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
+      <c r="G45" s="36">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="H45" s="36">
+        <v>-0.7</v>
+      </c>
       <c r="I45" s="34" t="s">
         <v>160</v>
       </c>
@@ -5720,8 +6068,12 @@
       <c r="F46" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
+      <c r="G46" s="36">
+        <v>-11.5</v>
+      </c>
+      <c r="H46" s="36">
+        <v>1.7</v>
+      </c>
       <c r="I46" s="34" t="s">
         <v>160</v>
       </c>
@@ -5741,8 +6093,12 @@
       <c r="F47" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
+      <c r="G47" s="36">
+        <v>-21.4</v>
+      </c>
+      <c r="H47" s="36">
+        <v>-2.2999999999999998</v>
+      </c>
       <c r="I47" s="34" t="s">
         <v>156</v>
       </c>
@@ -5762,8 +6118,12 @@
       <c r="F48" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
+      <c r="G48" s="36">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="H48" s="36">
+        <v>-0.5</v>
+      </c>
       <c r="I48" s="34" t="s">
         <v>236</v>
       </c>
@@ -5783,8 +6143,12 @@
       <c r="F49" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
+      <c r="G49" s="36">
+        <v>-11.2</v>
+      </c>
+      <c r="H49" s="36">
+        <v>1.8</v>
+      </c>
       <c r="I49" s="34" t="s">
         <v>159</v>
       </c>
@@ -5806,8 +6170,12 @@
       <c r="F50" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
+      <c r="G50" s="36">
+        <v>-26</v>
+      </c>
+      <c r="H50" s="36">
+        <v>-13.7</v>
+      </c>
       <c r="I50" s="34" t="s">
         <v>157</v>
       </c>
@@ -5827,8 +6195,12 @@
       <c r="F51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
+      <c r="G51" s="36">
+        <v>-32.6</v>
+      </c>
+      <c r="H51" s="36">
+        <v>-23.4</v>
+      </c>
       <c r="I51" s="34" t="s">
         <v>233</v>
       </c>
@@ -5887,7 +6259,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10351,10 +10723,298 @@
       <c r="A31" s="16">
         <v>45678</v>
       </c>
+      <c r="B31">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="C31">
+        <v>-28.2</v>
+      </c>
+      <c r="D31">
+        <v>-36.9</v>
+      </c>
+      <c r="E31">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="F31">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="G31" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31">
+        <v>-29</v>
+      </c>
+      <c r="I31">
+        <v>-25.5</v>
+      </c>
+      <c r="J31">
+        <v>-29.5</v>
+      </c>
+      <c r="K31">
+        <v>-28.7</v>
+      </c>
+      <c r="L31">
+        <v>-31.2</v>
+      </c>
+      <c r="M31">
+        <v>-33.4</v>
+      </c>
+      <c r="N31">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="O31">
+        <v>-32.4</v>
+      </c>
+      <c r="P31">
+        <v>-24.9</v>
+      </c>
+      <c r="Q31">
+        <v>-24.4</v>
+      </c>
+      <c r="R31">
+        <v>-30.4</v>
+      </c>
+      <c r="S31">
+        <v>-33.5</v>
+      </c>
+      <c r="T31">
+        <v>-31.1</v>
+      </c>
+      <c r="U31">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="V31">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="W31">
+        <v>-33.1</v>
+      </c>
+      <c r="X31">
+        <v>-31.7</v>
+      </c>
+      <c r="Y31">
+        <v>-18.8</v>
+      </c>
+      <c r="Z31">
+        <v>-31.2</v>
+      </c>
+      <c r="AA31">
+        <v>-26.5</v>
+      </c>
+      <c r="AB31">
+        <v>-23.1</v>
+      </c>
+      <c r="AC31">
+        <v>-13.8</v>
+      </c>
+      <c r="AD31">
+        <v>-15.5</v>
+      </c>
+      <c r="AE31">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="AF31">
+        <v>-7.6</v>
+      </c>
+      <c r="AG31">
+        <v>0.1</v>
+      </c>
+      <c r="AH31">
+        <v>-14.5</v>
+      </c>
+      <c r="AI31">
+        <v>-22.4</v>
+      </c>
+      <c r="AJ31">
+        <v>-19.2</v>
+      </c>
+      <c r="AK31">
+        <v>-17.2</v>
+      </c>
+      <c r="AL31">
+        <v>-16.3</v>
+      </c>
+      <c r="AM31">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AN31">
+        <v>-26.9</v>
+      </c>
+      <c r="AO31">
+        <v>-26.9</v>
+      </c>
+      <c r="AP31">
+        <v>-23.1</v>
+      </c>
+      <c r="AQ31">
+        <v>-15.8</v>
+      </c>
+      <c r="AR31">
+        <v>-17.3</v>
+      </c>
+      <c r="AS31">
+        <v>-23.3</v>
+      </c>
+      <c r="AT31">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="AU31">
+        <v>-12.9</v>
+      </c>
+      <c r="AV31">
+        <v>-23.7</v>
+      </c>
+      <c r="AW31">
+        <v>-26.1</v>
+      </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A32" s="16">
         <v>45679</v>
+      </c>
+      <c r="B32">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="C32">
+        <v>-30.2</v>
+      </c>
+      <c r="D32">
+        <v>-39.5</v>
+      </c>
+      <c r="E32">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="F32">
+        <v>-32.9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>247</v>
+      </c>
+      <c r="H32">
+        <v>-28.6</v>
+      </c>
+      <c r="I32">
+        <v>-26.2</v>
+      </c>
+      <c r="J32">
+        <v>-29.6</v>
+      </c>
+      <c r="K32">
+        <v>-34.9</v>
+      </c>
+      <c r="L32">
+        <v>-27</v>
+      </c>
+      <c r="M32">
+        <v>-34</v>
+      </c>
+      <c r="N32">
+        <v>-33.1</v>
+      </c>
+      <c r="O32">
+        <v>-33.1</v>
+      </c>
+      <c r="P32">
+        <v>-30.2</v>
+      </c>
+      <c r="Q32">
+        <v>-24.3</v>
+      </c>
+      <c r="R32">
+        <v>-28</v>
+      </c>
+      <c r="S32">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="T32">
+        <v>-31.9</v>
+      </c>
+      <c r="U32">
+        <v>-31.3</v>
+      </c>
+      <c r="V32">
+        <v>-32</v>
+      </c>
+      <c r="W32">
+        <v>-28</v>
+      </c>
+      <c r="X32">
+        <v>-33.5</v>
+      </c>
+      <c r="Y32">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="Z32">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="AA32">
+        <v>-30.5</v>
+      </c>
+      <c r="AB32">
+        <v>-27.6</v>
+      </c>
+      <c r="AC32">
+        <v>-11.6</v>
+      </c>
+      <c r="AD32">
+        <v>-15.9</v>
+      </c>
+      <c r="AE32">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="AF32">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="AG32">
+        <v>1.8</v>
+      </c>
+      <c r="AH32">
+        <v>-12.9</v>
+      </c>
+      <c r="AI32">
+        <v>-23</v>
+      </c>
+      <c r="AJ32">
+        <v>-18</v>
+      </c>
+      <c r="AK32">
+        <v>-17.8</v>
+      </c>
+      <c r="AL32">
+        <v>-18.8</v>
+      </c>
+      <c r="AM32">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="AN32">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="AO32">
+        <v>-33.6</v>
+      </c>
+      <c r="AP32">
+        <v>-29</v>
+      </c>
+      <c r="AQ32">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="AR32">
+        <v>-11.5</v>
+      </c>
+      <c r="AS32">
+        <v>-21.4</v>
+      </c>
+      <c r="AT32">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AU32">
+        <v>-11.2</v>
+      </c>
+      <c r="AV32">
+        <v>-26</v>
+      </c>
+      <c r="AW32">
+        <v>-32.6</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
@@ -10583,7 +11243,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -15047,10 +15707,298 @@
       <c r="A31" s="16">
         <v>45678</v>
       </c>
+      <c r="B31">
+        <v>-26.8</v>
+      </c>
+      <c r="C31">
+        <v>-21.9</v>
+      </c>
+      <c r="D31">
+        <v>-26.9</v>
+      </c>
+      <c r="E31">
+        <v>-23</v>
+      </c>
+      <c r="F31">
+        <v>-26.5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31">
+        <v>-16.5</v>
+      </c>
+      <c r="I31">
+        <v>-12.8</v>
+      </c>
+      <c r="J31">
+        <v>-10.9</v>
+      </c>
+      <c r="K31">
+        <v>-13.1</v>
+      </c>
+      <c r="L31">
+        <v>-19</v>
+      </c>
+      <c r="M31">
+        <v>-15.1</v>
+      </c>
+      <c r="N31">
+        <v>-16</v>
+      </c>
+      <c r="O31">
+        <v>-20.2</v>
+      </c>
+      <c r="P31">
+        <v>-7.3</v>
+      </c>
+      <c r="Q31">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="R31">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="S31">
+        <v>-24.2</v>
+      </c>
+      <c r="T31">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="U31">
+        <v>-19.5</v>
+      </c>
+      <c r="V31">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="W31">
+        <v>-8.9</v>
+      </c>
+      <c r="X31">
+        <v>-21</v>
+      </c>
+      <c r="Y31">
+        <v>-7.2</v>
+      </c>
+      <c r="Z31">
+        <v>-13.2</v>
+      </c>
+      <c r="AA31">
+        <v>-8.4</v>
+      </c>
+      <c r="AB31">
+        <v>-13.8</v>
+      </c>
+      <c r="AC31">
+        <v>-4.2</v>
+      </c>
+      <c r="AD31">
+        <v>-3.1</v>
+      </c>
+      <c r="AE31">
+        <v>-21.2</v>
+      </c>
+      <c r="AF31">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AG31">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AH31">
+        <v>5.6</v>
+      </c>
+      <c r="AI31">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="AJ31">
+        <v>-7.8</v>
+      </c>
+      <c r="AK31">
+        <v>-1.2</v>
+      </c>
+      <c r="AL31">
+        <v>-0.8</v>
+      </c>
+      <c r="AM31">
+        <v>4.5</v>
+      </c>
+      <c r="AN31">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="AO31">
+        <v>-15</v>
+      </c>
+      <c r="AP31">
+        <v>-12.2</v>
+      </c>
+      <c r="AQ31">
+        <v>-1</v>
+      </c>
+      <c r="AR31">
+        <v>1.7</v>
+      </c>
+      <c r="AS31">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="AT31">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AU31">
+        <v>0.5</v>
+      </c>
+      <c r="AV31">
+        <v>-7.2</v>
+      </c>
+      <c r="AW31">
+        <v>-11.6</v>
+      </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A32" s="16">
         <v>45679</v>
+      </c>
+      <c r="B32">
+        <v>-25.9</v>
+      </c>
+      <c r="C32">
+        <v>-20</v>
+      </c>
+      <c r="D32">
+        <v>-26.9</v>
+      </c>
+      <c r="E32">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="F32">
+        <v>-23.9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>247</v>
+      </c>
+      <c r="H32">
+        <v>-18.7</v>
+      </c>
+      <c r="I32">
+        <v>-13.2</v>
+      </c>
+      <c r="J32">
+        <v>-15</v>
+      </c>
+      <c r="K32">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="L32">
+        <v>-15.6</v>
+      </c>
+      <c r="M32">
+        <v>-15</v>
+      </c>
+      <c r="N32">
+        <v>-14.1</v>
+      </c>
+      <c r="O32">
+        <v>-19.2</v>
+      </c>
+      <c r="P32">
+        <v>-14</v>
+      </c>
+      <c r="Q32">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="R32">
+        <v>-1.9</v>
+      </c>
+      <c r="S32">
+        <v>-22.7</v>
+      </c>
+      <c r="T32">
+        <v>-21.2</v>
+      </c>
+      <c r="U32">
+        <v>-22.7</v>
+      </c>
+      <c r="V32">
+        <v>-15.6</v>
+      </c>
+      <c r="W32">
+        <v>-10.4</v>
+      </c>
+      <c r="X32">
+        <v>-22.2</v>
+      </c>
+      <c r="Y32">
+        <v>-6.3</v>
+      </c>
+      <c r="Z32">
+        <v>-14.5</v>
+      </c>
+      <c r="AA32">
+        <v>-13.3</v>
+      </c>
+      <c r="AB32">
+        <v>-16.3</v>
+      </c>
+      <c r="AC32">
+        <v>-0.8</v>
+      </c>
+      <c r="AD32">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="AE32">
+        <v>-20.7</v>
+      </c>
+      <c r="AF32">
+        <v>4</v>
+      </c>
+      <c r="AG32">
+        <v>16.2</v>
+      </c>
+      <c r="AH32">
+        <v>5.4</v>
+      </c>
+      <c r="AI32">
+        <v>-1.3</v>
+      </c>
+      <c r="AJ32">
+        <v>-10.6</v>
+      </c>
+      <c r="AK32">
+        <v>-4.2</v>
+      </c>
+      <c r="AL32">
+        <v>-1.4</v>
+      </c>
+      <c r="AM32">
+        <v>5.3</v>
+      </c>
+      <c r="AN32">
+        <v>-18.3</v>
+      </c>
+      <c r="AO32">
+        <v>-21.4</v>
+      </c>
+      <c r="AP32">
+        <v>-10.8</v>
+      </c>
+      <c r="AQ32">
+        <v>-0.7</v>
+      </c>
+      <c r="AR32">
+        <v>1.7</v>
+      </c>
+      <c r="AS32">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AT32">
+        <v>-0.5</v>
+      </c>
+      <c r="AU32">
+        <v>1.8</v>
+      </c>
+      <c r="AV32">
+        <v>-13.7</v>
+      </c>
+      <c r="AW32">
+        <v>-23.4</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3D512B-E8A7-4C90-A282-02AF731EB7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF67C23-B2EF-4716-A153-0E0A6693D3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
   <sheets>
     <sheet name="详细信息表" sheetId="1" r:id="rId1"/>
     <sheet name="今日汇总" sheetId="6" r:id="rId2"/>
     <sheet name="低温存档" sheetId="3" r:id="rId3"/>
     <sheet name="高温存档" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="284">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1663,6 +1664,110 @@
     <t>国内冷站
 俄罗斯冷站
 蒙古冷站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kachug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barguzin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mogocha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uryupino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ekimchan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burukan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sofiysk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cekunda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obluchye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyzyl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kosh-Agach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erzin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rinchinlhumbe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ulaangom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gandan_Huryee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsetsen-Uul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tosontsengel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ulan_Bator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xilinji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tulihe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhengyang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aletai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urumqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baianbulak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hohhot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wuhan_(airport)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2303,7 +2408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2498,6 +2603,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2829,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0415808A-EC4F-404C-B30D-CD8F1C534364}">
   <dimension ref="A1:BI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2899,12 +3007,8 @@
       <c r="F2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="4">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="H2" s="4">
-        <v>-25.9</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="6" t="s">
         <v>114</v>
       </c>
@@ -2922,148 +3026,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>-32.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-30.2</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-39.5</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-34.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-32.9</v>
-      </c>
-      <c r="S2" t="str">
-        <v>无</v>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>-28.6</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>-26.2</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-29.6</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-34.9</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>-33.1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-33.1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-30.2</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-24.3</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-32.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-31.9</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>-31.3</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-33.5</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-17.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-34.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-30.5</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>-27.6</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-11.6</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-15.9</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-33.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>-9.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>-12.9</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>-17.8</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>-18.8</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>-18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>-32.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>-33.6</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>-16.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>-11.5</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>-21.4</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>-18.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>-11.2</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>-32.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3083,12 +3187,8 @@
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4">
-        <v>-30.2</v>
-      </c>
-      <c r="H3" s="4">
-        <v>-20</v>
-      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="6" t="s">
         <v>38</v>
       </c>
@@ -3106,148 +3206,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>-25.9</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-26.9</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-19.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-23.9</v>
-      </c>
-      <c r="S3" t="str">
-        <v>无</v>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>-18.7</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-13.2</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-16.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-15.6</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-14.1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-19.2</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-17.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-1.9</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-22.7</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>-21.2</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-22.7</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-15.6</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-10.4</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-22.2</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-6.3</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-14.5</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-13.3</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-16.3</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-20.7</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>-10.6</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>-18.3</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>-21.4</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>-10.8</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>-2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>-13.7</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>-23.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3267,12 +3367,8 @@
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4">
-        <v>-39.5</v>
-      </c>
-      <c r="H4" s="4">
-        <v>-26.9</v>
-      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="6" t="s">
         <v>117</v>
       </c>
@@ -3303,12 +3399,8 @@
       <c r="F5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="4">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-19.899999999999999</v>
-      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="6" t="s">
         <v>40</v>
       </c>
@@ -3348,12 +3440,8 @@
       <c r="F6" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="4">
-        <v>-32.9</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-23.9</v>
-      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="6" t="s">
         <v>115</v>
       </c>
@@ -3393,12 +3481,8 @@
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="6" t="s">
         <v>113</v>
       </c>
@@ -3438,12 +3522,8 @@
       <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="4">
-        <v>-28.6</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-18.7</v>
-      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="6" t="s">
         <v>120</v>
       </c>
@@ -3481,12 +3561,8 @@
       <c r="F9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="4">
-        <v>-26.2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>-13.2</v>
-      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="6" t="s">
         <v>119</v>
       </c>
@@ -3515,12 +3591,8 @@
       <c r="F10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="4">
-        <v>-29.6</v>
-      </c>
-      <c r="H10" s="4">
-        <v>-15</v>
-      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="6" t="s">
         <v>100</v>
       </c>
@@ -3549,12 +3621,8 @@
       <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="4">
-        <v>-34.9</v>
-      </c>
-      <c r="H11" s="4">
-        <v>-16.600000000000001</v>
-      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="6" t="s">
         <v>54</v>
       </c>
@@ -3583,12 +3651,8 @@
       <c r="F12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="4">
-        <v>-27</v>
-      </c>
-      <c r="H12" s="4">
-        <v>-15.6</v>
-      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="6" t="s">
         <v>28</v>
       </c>
@@ -3617,12 +3681,8 @@
       <c r="F13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="4">
-        <v>-34</v>
-      </c>
-      <c r="H13" s="4">
-        <v>-15</v>
-      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
@@ -3651,12 +3711,8 @@
       <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="4">
-        <v>-33.1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>-14.1</v>
-      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
@@ -3685,12 +3741,8 @@
       <c r="F15" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="4">
-        <v>-33.1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>-19.2</v>
-      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="6" t="s">
         <v>32</v>
       </c>
@@ -3719,12 +3771,8 @@
       <c r="F16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="4">
-        <v>-30.2</v>
-      </c>
-      <c r="H16" s="4">
-        <v>-14</v>
-      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="6" t="s">
         <v>96</v>
       </c>
@@ -3753,12 +3801,8 @@
       <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="4">
-        <v>-24.3</v>
-      </c>
-      <c r="H17" s="4">
-        <v>-17.399999999999999</v>
-      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="6" t="s">
         <v>161</v>
       </c>
@@ -3787,12 +3831,8 @@
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="4">
-        <v>-28</v>
-      </c>
-      <c r="H18" s="4">
-        <v>-1.9</v>
-      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="6" t="s">
         <v>22</v>
       </c>
@@ -3821,12 +3861,8 @@
       <c r="F19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="4">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="H19" s="4">
-        <v>-22.7</v>
-      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="6" t="s">
         <v>114</v>
       </c>
@@ -3855,12 +3891,8 @@
       <c r="F20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="13">
-        <v>-31.9</v>
-      </c>
-      <c r="H20" s="13">
-        <v>-21.2</v>
-      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="6" t="s">
         <v>113</v>
       </c>
@@ -3889,12 +3921,8 @@
       <c r="F21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="13">
-        <v>-31.3</v>
-      </c>
-      <c r="H21" s="13">
-        <v>-22.7</v>
-      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="6" t="s">
         <v>115</v>
       </c>
@@ -3923,12 +3951,8 @@
       <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="13">
-        <v>-32</v>
-      </c>
-      <c r="H22" s="13">
-        <v>-15.6</v>
-      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="6" t="s">
         <v>40</v>
       </c>
@@ -3959,12 +3983,8 @@
       <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="13">
-        <v>-28</v>
-      </c>
-      <c r="H23" s="13">
-        <v>-10.4</v>
-      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="6" t="s">
         <v>36</v>
       </c>
@@ -3995,12 +4015,8 @@
       <c r="F24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="13">
-        <v>-33.5</v>
-      </c>
-      <c r="H24" s="13">
-        <v>-22.2</v>
-      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="6" t="s">
         <v>118</v>
       </c>
@@ -4029,12 +4045,8 @@
       <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="4">
-        <v>-17.600000000000001</v>
-      </c>
-      <c r="H25" s="4">
-        <v>-6.3</v>
-      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
@@ -4065,12 +4077,8 @@
       <c r="F26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="4">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="H26" s="4">
-        <v>-14.5</v>
-      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="6" t="s">
         <v>2</v>
       </c>
@@ -4099,12 +4107,8 @@
       <c r="F27" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="4">
-        <v>-30.5</v>
-      </c>
-      <c r="H27" s="4">
-        <v>-13.3</v>
-      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="6" t="s">
         <v>2</v>
       </c>
@@ -4133,12 +4137,8 @@
       <c r="F28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="4">
-        <v>-27.6</v>
-      </c>
-      <c r="H28" s="4">
-        <v>-16.3</v>
-      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="6" t="s">
         <v>75</v>
       </c>
@@ -4169,12 +4169,8 @@
       <c r="F29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="4">
-        <v>-11.6</v>
-      </c>
-      <c r="H29" s="4">
-        <v>-0.8</v>
-      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="6" t="s">
         <v>22</v>
       </c>
@@ -4203,12 +4199,8 @@
       <c r="F30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="4">
-        <v>-15.9</v>
-      </c>
-      <c r="H30" s="4">
-        <v>-4.0999999999999996</v>
-      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="6" t="s">
         <v>21</v>
       </c>
@@ -4239,12 +4231,8 @@
       <c r="F31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="4">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="H31" s="4">
-        <v>-20.7</v>
-      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="6" t="s">
         <v>21</v>
       </c>
@@ -4273,12 +4261,8 @@
       <c r="F32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="4">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="H32" s="4">
-        <v>4</v>
-      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
         <v>129</v>
@@ -4307,12 +4291,8 @@
       <c r="F33" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="H33" s="4">
-        <v>16.2</v>
-      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
         <v>250</v>
       </c>
@@ -4341,12 +4321,8 @@
       <c r="F34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="4">
-        <v>-12.9</v>
-      </c>
-      <c r="H34" s="4">
-        <v>5.4</v>
-      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
         <v>131</v>
@@ -4375,12 +4351,8 @@
       <c r="F35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="4">
-        <v>-23</v>
-      </c>
-      <c r="H35" s="4">
-        <v>-1.3</v>
-      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
         <v>131</v>
@@ -4409,12 +4381,8 @@
       <c r="F36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="4">
-        <v>-18</v>
-      </c>
-      <c r="H36" s="4">
-        <v>-10.6</v>
-      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="6" t="s">
         <v>47</v>
       </c>
@@ -4445,12 +4413,8 @@
       <c r="F37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="4">
-        <v>-17.8</v>
-      </c>
-      <c r="H37" s="4">
-        <v>-4.2</v>
-      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="6" t="s">
         <v>45</v>
       </c>
@@ -4481,12 +4445,8 @@
       <c r="F38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="4">
-        <v>-18.8</v>
-      </c>
-      <c r="H38" s="4">
-        <v>-1.4</v>
-      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
         <v>130</v>
@@ -4515,12 +4475,8 @@
       <c r="F39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="4">
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="H39" s="4">
-        <v>5.3</v>
-      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
         <v>130</v>
@@ -4549,12 +4505,8 @@
       <c r="F40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="4">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="H40" s="4">
-        <v>-18.3</v>
-      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="6" t="s">
         <v>43</v>
       </c>
@@ -4583,12 +4535,8 @@
       <c r="F41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="4">
-        <v>-33.6</v>
-      </c>
-      <c r="H41" s="4">
-        <v>-21.4</v>
-      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
       <c r="I41" s="6" t="s">
         <v>2</v>
       </c>
@@ -4617,12 +4565,8 @@
       <c r="F42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="4">
-        <v>-29</v>
-      </c>
-      <c r="H42" s="4">
-        <v>-10.8</v>
-      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
       <c r="I42" s="6" t="s">
         <v>2</v>
       </c>
@@ -4651,12 +4595,8 @@
       <c r="F43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G43" s="4">
-        <v>-16.399999999999999</v>
-      </c>
-      <c r="H43" s="4">
-        <v>-0.7</v>
-      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
       <c r="I43" s="6" t="s">
         <v>65</v>
       </c>
@@ -4685,12 +4625,8 @@
       <c r="F44" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="4">
-        <v>-11.5</v>
-      </c>
-      <c r="H44" s="4">
-        <v>1.7</v>
-      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
       <c r="I44" s="6" t="s">
         <v>65</v>
       </c>
@@ -4719,12 +4655,8 @@
       <c r="F45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="4">
-        <v>-21.4</v>
-      </c>
-      <c r="H45" s="4">
-        <v>-2.2999999999999998</v>
-      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
       <c r="I45" s="6" t="s">
         <v>22</v>
       </c>
@@ -4753,12 +4685,8 @@
       <c r="F46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="4">
-        <v>-18.100000000000001</v>
-      </c>
-      <c r="H46" s="4">
-        <v>-0.5</v>
-      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
       <c r="I46" s="6" t="s">
         <v>21</v>
       </c>
@@ -4787,12 +4715,8 @@
       <c r="F47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G47" s="4">
-        <v>-11.2</v>
-      </c>
-      <c r="H47" s="4">
-        <v>1.8</v>
-      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
       <c r="I47" s="6" t="s">
         <v>21</v>
       </c>
@@ -4823,12 +4747,8 @@
       <c r="F48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="4">
-        <v>-26</v>
-      </c>
-      <c r="H48" s="4">
-        <v>-13.7</v>
-      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
       <c r="I48" s="6" t="s">
         <v>2</v>
       </c>
@@ -4857,12 +4777,8 @@
       <c r="F49" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="4">
-        <v>-32.6</v>
-      </c>
-      <c r="H49" s="4">
-        <v>-23.4</v>
-      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
       <c r="I49" s="6" t="s">
         <v>2</v>
       </c>
@@ -4889,7 +4805,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4912,7 +4828,7 @@
         <v>254</v>
       </c>
       <c r="F1" s="62">
-        <v>45679</v>
+        <v>45681</v>
       </c>
       <c r="G1" s="63"/>
       <c r="H1" s="60" t="s">
@@ -4993,12 +4909,8 @@
       <c r="F4" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="36">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="H4" s="36">
-        <v>-25.9</v>
-      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="34" t="s">
         <v>175</v>
       </c>
@@ -5027,12 +4939,8 @@
       <c r="F5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="36">
-        <v>-30.2</v>
-      </c>
-      <c r="H5" s="36">
-        <v>-20</v>
-      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="34" t="s">
         <v>155</v>
       </c>
@@ -5054,12 +4962,8 @@
       <c r="F6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="36">
-        <v>-39.5</v>
-      </c>
-      <c r="H6" s="36">
-        <v>-26.9</v>
-      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="34" t="s">
         <v>230</v>
       </c>
@@ -5079,12 +4983,8 @@
       <c r="F7" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="36">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="H7" s="36">
-        <v>-19.899999999999999</v>
-      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="34" t="s">
         <v>111</v>
       </c>
@@ -5104,12 +5004,8 @@
       <c r="F8" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="36">
-        <v>-32.9</v>
-      </c>
-      <c r="H8" s="36">
-        <v>-23.9</v>
-      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="34" t="s">
         <v>172</v>
       </c>
@@ -5129,12 +5025,8 @@
       <c r="F9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>247</v>
-      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="34" t="s">
         <v>231</v>
       </c>
@@ -5154,12 +5046,8 @@
       <c r="F10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="36">
-        <v>-28.6</v>
-      </c>
-      <c r="H10" s="36">
-        <v>-18.7</v>
-      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="34" t="s">
         <v>245</v>
       </c>
@@ -5179,12 +5067,8 @@
       <c r="F11" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="36">
-        <v>-26.2</v>
-      </c>
-      <c r="H11" s="36">
-        <v>-13.2</v>
-      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="34" t="s">
         <v>246</v>
       </c>
@@ -5204,12 +5088,8 @@
       <c r="F12" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="36">
-        <v>-29.6</v>
-      </c>
-      <c r="H12" s="36">
-        <v>-15</v>
-      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="34" t="s">
         <v>244</v>
       </c>
@@ -5231,12 +5111,8 @@
       <c r="F13" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="36">
-        <v>-34.9</v>
-      </c>
-      <c r="H13" s="36">
-        <v>-16.600000000000001</v>
-      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="34" t="s">
         <v>158</v>
       </c>
@@ -5256,12 +5132,8 @@
       <c r="F14" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="36">
-        <v>-27</v>
-      </c>
-      <c r="H14" s="36">
-        <v>-15.6</v>
-      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="34" t="s">
         <v>154</v>
       </c>
@@ -5281,12 +5153,8 @@
       <c r="F15" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="36">
-        <v>-34</v>
-      </c>
-      <c r="H15" s="36">
-        <v>-15</v>
-      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="34" t="s">
         <v>154</v>
       </c>
@@ -5306,12 +5174,8 @@
       <c r="F16" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="36">
-        <v>-33.1</v>
-      </c>
-      <c r="H16" s="36">
-        <v>-14.1</v>
-      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="34" t="s">
         <v>154</v>
       </c>
@@ -5331,12 +5195,8 @@
       <c r="F17" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G17" s="36">
-        <v>-33.1</v>
-      </c>
-      <c r="H17" s="36">
-        <v>-19.2</v>
-      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="34" t="s">
         <v>242</v>
       </c>
@@ -5356,12 +5216,8 @@
       <c r="F18" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="36">
-        <v>-30.2</v>
-      </c>
-      <c r="H18" s="36">
-        <v>-14</v>
-      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="34" t="s">
         <v>32</v>
       </c>
@@ -5381,12 +5237,8 @@
       <c r="F19" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="36">
-        <v>-24.3</v>
-      </c>
-      <c r="H19" s="36">
-        <v>-17.399999999999999</v>
-      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="34" t="s">
         <v>243</v>
       </c>
@@ -5406,12 +5258,8 @@
       <c r="F20" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="36">
-        <v>-28</v>
-      </c>
-      <c r="H20" s="36">
-        <v>-1.9</v>
-      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="34" t="s">
         <v>241</v>
       </c>
@@ -5431,12 +5279,8 @@
       <c r="F21" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="36">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="H21" s="36">
-        <v>-22.7</v>
-      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="34" t="s">
         <v>175</v>
       </c>
@@ -5456,12 +5300,8 @@
       <c r="F22" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="36">
-        <v>-31.9</v>
-      </c>
-      <c r="H22" s="36">
-        <v>-21.2</v>
-      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="34" t="s">
         <v>231</v>
       </c>
@@ -5481,12 +5321,8 @@
       <c r="F23" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="36">
-        <v>-31.3</v>
-      </c>
-      <c r="H23" s="36">
-        <v>-22.7</v>
-      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="34" t="s">
         <v>172</v>
       </c>
@@ -5506,12 +5342,8 @@
       <c r="F24" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="36">
-        <v>-32</v>
-      </c>
-      <c r="H24" s="36">
-        <v>-15.6</v>
-      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="34" t="s">
         <v>111</v>
       </c>
@@ -5531,12 +5363,8 @@
       <c r="F25" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="36">
-        <v>-28</v>
-      </c>
-      <c r="H25" s="36">
-        <v>-10.4</v>
-      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="34" t="s">
         <v>151</v>
       </c>
@@ -5556,12 +5384,8 @@
       <c r="F26" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="36">
-        <v>-33.5</v>
-      </c>
-      <c r="H26" s="36">
-        <v>-22.2</v>
-      </c>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="34" t="s">
         <v>229</v>
       </c>
@@ -5581,12 +5405,8 @@
       <c r="F27" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="36">
-        <v>-17.600000000000001</v>
-      </c>
-      <c r="H27" s="36">
-        <v>-6.3</v>
-      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="34" t="s">
         <v>155</v>
       </c>
@@ -5608,12 +5428,8 @@
       <c r="F28" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="36">
-        <v>-34.700000000000003</v>
-      </c>
-      <c r="H28" s="36">
-        <v>-14.5</v>
-      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="34" t="s">
         <v>234</v>
       </c>
@@ -5626,19 +5442,17 @@
       <c r="C29" s="52">
         <v>1</v>
       </c>
-      <c r="D29" s="52"/>
+      <c r="D29" s="52">
+        <v>0</v>
+      </c>
       <c r="E29" s="30" t="s">
         <v>215</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="36">
-        <v>-30.5</v>
-      </c>
-      <c r="H29" s="36">
-        <v>-13.3</v>
-      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="34" t="s">
         <v>232</v>
       </c>
@@ -5658,12 +5472,8 @@
       <c r="F30" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="36">
-        <v>-27.6</v>
-      </c>
-      <c r="H30" s="36">
-        <v>-16.3</v>
-      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="34" t="s">
         <v>237</v>
       </c>
@@ -5685,12 +5495,8 @@
       <c r="F31" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="36">
-        <v>-11.6</v>
-      </c>
-      <c r="H31" s="36">
-        <v>-0.8</v>
-      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="34" t="s">
         <v>238</v>
       </c>
@@ -5710,12 +5516,8 @@
       <c r="F32" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="36">
-        <v>-15.9</v>
-      </c>
-      <c r="H32" s="36">
-        <v>-4.0999999999999996</v>
-      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="34" t="s">
         <v>159</v>
       </c>
@@ -5737,12 +5539,8 @@
       <c r="F33" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="36">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="H33" s="36">
-        <v>-20.7</v>
-      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="34" t="s">
         <v>239</v>
       </c>
@@ -5762,12 +5560,8 @@
       <c r="F34" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="36">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="H34" s="36">
-        <v>4</v>
-      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="34" t="s">
         <v>174</v>
       </c>
@@ -5789,12 +5583,8 @@
       <c r="F35" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="36">
-        <v>1.8</v>
-      </c>
-      <c r="H35" s="36">
-        <v>16.2</v>
-      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="34" t="s">
         <v>250</v>
       </c>
@@ -5814,12 +5604,8 @@
       <c r="F36" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="36">
-        <v>-12.9</v>
-      </c>
-      <c r="H36" s="36">
-        <v>5.4</v>
-      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5839,12 +5625,8 @@
       <c r="F37" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="36">
-        <v>-23</v>
-      </c>
-      <c r="H37" s="36">
-        <v>-1.3</v>
-      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5864,12 +5646,8 @@
       <c r="F38" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="36">
-        <v>-18</v>
-      </c>
-      <c r="H38" s="36">
-        <v>-10.6</v>
-      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="34" t="s">
         <v>173</v>
       </c>
@@ -5891,12 +5669,8 @@
       <c r="F39" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G39" s="36">
-        <v>-17.8</v>
-      </c>
-      <c r="H39" s="36">
-        <v>-4.2</v>
-      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="34" t="s">
         <v>240</v>
       </c>
@@ -5918,12 +5692,8 @@
       <c r="F40" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G40" s="36">
-        <v>-18.8</v>
-      </c>
-      <c r="H40" s="36">
-        <v>-1.4</v>
-      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5943,12 +5713,8 @@
       <c r="F41" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G41" s="36">
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="H41" s="36">
-        <v>5.3</v>
-      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5966,12 +5732,8 @@
       <c r="F42" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G42" s="36">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="H42" s="36">
-        <v>-18.3</v>
-      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="34" t="s">
         <v>235</v>
       </c>
@@ -5984,21 +5746,15 @@
       <c r="C43" s="52">
         <v>1</v>
       </c>
-      <c r="D43" s="52">
-        <v>0</v>
-      </c>
+      <c r="D43" s="52"/>
       <c r="E43" s="30" t="s">
         <v>214</v>
       </c>
       <c r="F43" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="36">
-        <v>-33.6</v>
-      </c>
-      <c r="H43" s="36">
-        <v>-21.4</v>
-      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="34" t="s">
         <v>234</v>
       </c>
@@ -6018,12 +5774,8 @@
       <c r="F44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="36">
-        <v>-29</v>
-      </c>
-      <c r="H44" s="36">
-        <v>-10.8</v>
-      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="34" t="s">
         <v>157</v>
       </c>
@@ -6043,12 +5795,8 @@
       <c r="F45" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="G45" s="36">
-        <v>-16.399999999999999</v>
-      </c>
-      <c r="H45" s="36">
-        <v>-0.7</v>
-      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="34" t="s">
         <v>160</v>
       </c>
@@ -6068,12 +5816,8 @@
       <c r="F46" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G46" s="36">
-        <v>-11.5</v>
-      </c>
-      <c r="H46" s="36">
-        <v>1.7</v>
-      </c>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="34" t="s">
         <v>160</v>
       </c>
@@ -6093,12 +5837,8 @@
       <c r="F47" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="36">
-        <v>-21.4</v>
-      </c>
-      <c r="H47" s="36">
-        <v>-2.2999999999999998</v>
-      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="34" t="s">
         <v>156</v>
       </c>
@@ -6118,12 +5858,8 @@
       <c r="F48" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="36">
-        <v>-18.100000000000001</v>
-      </c>
-      <c r="H48" s="36">
-        <v>-0.5</v>
-      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="34" t="s">
         <v>236</v>
       </c>
@@ -6143,12 +5879,8 @@
       <c r="F49" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="36">
-        <v>-11.2</v>
-      </c>
-      <c r="H49" s="36">
-        <v>1.8</v>
-      </c>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="34" t="s">
         <v>159</v>
       </c>
@@ -6170,12 +5902,8 @@
       <c r="F50" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="36">
-        <v>-26</v>
-      </c>
-      <c r="H50" s="36">
-        <v>-13.7</v>
-      </c>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="34" t="s">
         <v>157</v>
       </c>
@@ -6195,12 +5923,8 @@
       <c r="F51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G51" s="36">
-        <v>-32.6</v>
-      </c>
-      <c r="H51" s="36">
-        <v>-23.4</v>
-      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="34" t="s">
         <v>233</v>
       </c>
@@ -6258,8 +5982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6452CB3-0983-4391-8A7D-2C5221219E76}">
   <dimension ref="A1:AW79"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -11017,82 +10741,226 @@
         <v>-32.6</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A33" s="16">
         <v>45680</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>-35.4</v>
+      </c>
+      <c r="C33">
+        <v>-30.2</v>
+      </c>
+      <c r="D33">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="E33">
+        <v>-26.3</v>
+      </c>
+      <c r="F33">
+        <v>-34.5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>247</v>
+      </c>
+      <c r="H33">
+        <v>-30.7</v>
+      </c>
+      <c r="I33">
+        <v>-28.3</v>
+      </c>
+      <c r="J33">
+        <v>-24.3</v>
+      </c>
+      <c r="K33">
+        <v>-34.1</v>
+      </c>
+      <c r="L33">
+        <v>-24.5</v>
+      </c>
+      <c r="M33">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="N33">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="O33">
+        <v>-32.9</v>
+      </c>
+      <c r="P33">
+        <v>-29.9</v>
+      </c>
+      <c r="Q33">
+        <v>-25.7</v>
+      </c>
+      <c r="R33">
+        <v>-21.6</v>
+      </c>
+      <c r="S33">
+        <v>-32.9</v>
+      </c>
+      <c r="T33">
+        <v>-32.5</v>
+      </c>
+      <c r="U33">
+        <v>-34.6</v>
+      </c>
+      <c r="V33">
+        <v>-26.9</v>
+      </c>
+      <c r="W33">
+        <v>-24.6</v>
+      </c>
+      <c r="X33">
+        <v>-33</v>
+      </c>
+      <c r="Y33">
+        <v>-17.3</v>
+      </c>
+      <c r="Z33">
+        <v>-34.9</v>
+      </c>
+      <c r="AA33">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="AB33">
+        <v>-26.5</v>
+      </c>
+      <c r="AC33">
+        <v>-15.2</v>
+      </c>
+      <c r="AD33">
+        <v>-12.2</v>
+      </c>
+      <c r="AE33">
+        <v>-28.2</v>
+      </c>
+      <c r="AF33">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="AG33">
+        <v>9.1</v>
+      </c>
+      <c r="AH33">
+        <v>-15.2</v>
+      </c>
+      <c r="AI33">
+        <v>-23</v>
+      </c>
+      <c r="AJ33">
+        <v>-24.1</v>
+      </c>
+      <c r="AK33">
+        <v>-20.2</v>
+      </c>
+      <c r="AL33">
+        <v>-19</v>
+      </c>
+      <c r="AM33">
+        <v>-18.3</v>
+      </c>
+      <c r="AN33">
+        <v>-31.8</v>
+      </c>
+      <c r="AO33">
+        <v>-33.6</v>
+      </c>
+      <c r="AP33">
+        <v>-27.6</v>
+      </c>
+      <c r="AQ33">
+        <v>-22.4</v>
+      </c>
+      <c r="AR33">
+        <v>-12.7</v>
+      </c>
+      <c r="AS33">
+        <v>-15.4</v>
+      </c>
+      <c r="AT33">
+        <v>-14.2</v>
+      </c>
+      <c r="AU33">
+        <v>-14.6</v>
+      </c>
+      <c r="AV33">
+        <v>-31.9</v>
+      </c>
+      <c r="AW33">
+        <v>-32.200000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A34" s="16">
         <v>45681</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A35" s="16">
         <v>45682</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>45683</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>45684</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>45685</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>45686</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>45687</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>45688</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>45689</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>45690</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>45691</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>45692</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>45693</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>45694</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>45695</v>
       </c>
@@ -11243,7 +11111,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -16001,82 +15869,226 @@
         <v>-23.4</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A33" s="16">
         <v>45680</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>-26.7</v>
+      </c>
+      <c r="C33">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="D33">
+        <v>-22.1</v>
+      </c>
+      <c r="E33">
+        <v>-13.4</v>
+      </c>
+      <c r="F33">
+        <v>-24.6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>247</v>
+      </c>
+      <c r="H33">
+        <v>-13.6</v>
+      </c>
+      <c r="I33">
+        <v>-18.8</v>
+      </c>
+      <c r="J33">
+        <v>-11.2</v>
+      </c>
+      <c r="K33">
+        <v>-15.6</v>
+      </c>
+      <c r="L33">
+        <v>-13.5</v>
+      </c>
+      <c r="M33">
+        <v>-14.4</v>
+      </c>
+      <c r="N33">
+        <v>-15</v>
+      </c>
+      <c r="O33">
+        <v>-19.5</v>
+      </c>
+      <c r="P33">
+        <v>-12.8</v>
+      </c>
+      <c r="Q33">
+        <v>-17.2</v>
+      </c>
+      <c r="R33">
+        <v>-5.3</v>
+      </c>
+      <c r="S33">
+        <v>-22.5</v>
+      </c>
+      <c r="T33">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="U33">
+        <v>-23.9</v>
+      </c>
+      <c r="V33">
+        <v>-13.1</v>
+      </c>
+      <c r="W33">
+        <v>-3</v>
+      </c>
+      <c r="X33">
+        <v>-18.8</v>
+      </c>
+      <c r="Y33">
+        <v>-3.3</v>
+      </c>
+      <c r="Z33">
+        <v>-15.3</v>
+      </c>
+      <c r="AA33">
+        <v>-13.5</v>
+      </c>
+      <c r="AB33">
+        <v>-21.2</v>
+      </c>
+      <c r="AC33">
+        <v>-4.2</v>
+      </c>
+      <c r="AD33">
+        <v>-2.7</v>
+      </c>
+      <c r="AE33">
+        <v>-13.1</v>
+      </c>
+      <c r="AF33">
+        <v>5</v>
+      </c>
+      <c r="AG33">
+        <v>13</v>
+      </c>
+      <c r="AH33">
+        <v>1.4</v>
+      </c>
+      <c r="AI33">
+        <v>0.5</v>
+      </c>
+      <c r="AJ33">
+        <v>-10.5</v>
+      </c>
+      <c r="AK33">
+        <v>-3.5</v>
+      </c>
+      <c r="AL33">
+        <v>-0.5</v>
+      </c>
+      <c r="AM33">
+        <v>7.2</v>
+      </c>
+      <c r="AN33">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AO33">
+        <v>-21</v>
+      </c>
+      <c r="AP33">
+        <v>-9.4</v>
+      </c>
+      <c r="AQ33">
+        <v>1.5</v>
+      </c>
+      <c r="AR33">
+        <v>3.4</v>
+      </c>
+      <c r="AS33">
+        <v>-5.8</v>
+      </c>
+      <c r="AT33">
+        <v>-5.4</v>
+      </c>
+      <c r="AU33">
+        <v>-5.7</v>
+      </c>
+      <c r="AV33">
+        <v>-14.3</v>
+      </c>
+      <c r="AW33">
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A34" s="16">
         <v>45681</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A35" s="16">
         <v>45682</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>45683</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>45684</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>45685</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>45686</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>45687</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>45688</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>45689</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>45690</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>45691</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>45692</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>45693</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>45694</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>45695</v>
       </c>
@@ -16215,6 +16227,312 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72C0E64-6BBC-484E-A6E9-208453B8EABB}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>30622</v>
+      </c>
+      <c r="C1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>30636</v>
+      </c>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>30673</v>
+      </c>
+      <c r="C3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>30781</v>
+      </c>
+      <c r="C4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>31329</v>
+      </c>
+      <c r="C5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>31348</v>
+      </c>
+      <c r="C6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>31478</v>
+      </c>
+      <c r="C7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8">
+        <v>31532</v>
+      </c>
+      <c r="C8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9">
+        <v>31702</v>
+      </c>
+      <c r="C9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>36096</v>
+      </c>
+      <c r="C10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>36259</v>
+      </c>
+      <c r="C11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12">
+        <v>36307</v>
+      </c>
+      <c r="C12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>44203</v>
+      </c>
+      <c r="C13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14">
+        <v>44212</v>
+      </c>
+      <c r="C14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>44221</v>
+      </c>
+      <c r="C15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>44224</v>
+      </c>
+      <c r="C16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>44225</v>
+      </c>
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>44292</v>
+      </c>
+      <c r="C18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>50136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20">
+        <v>50434</v>
+      </c>
+      <c r="C20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>50527</v>
+      </c>
+      <c r="C21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22">
+        <v>51076</v>
+      </c>
+      <c r="C22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23">
+        <v>51463</v>
+      </c>
+      <c r="C23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>51542</v>
+      </c>
+      <c r="C24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25">
+        <v>53463</v>
+      </c>
+      <c r="C25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26">
+        <v>57494</v>
+      </c>
+      <c r="C26" t="s">
+        <v>283</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF67C23-B2EF-4716-A153-0E0A6693D3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36DC176-2795-4D98-8486-EB9747614DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
   <sheets>
     <sheet name="详细信息表" sheetId="1" r:id="rId1"/>
     <sheet name="今日汇总" sheetId="6" r:id="rId2"/>
     <sheet name="低温存档" sheetId="3" r:id="rId3"/>
     <sheet name="高温存档" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="258">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1666,110 +1665,6 @@
 蒙古冷站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>Kachug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barguzin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mogocha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uryupino</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ekimchan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Burukan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sofiysk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cekunda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Obluchye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kyzyl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kosh-Agach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Erzin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rinchinlhumbe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ulaangom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gandan_Huryee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tsetsen-Uul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tosontsengel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ulan_Bator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xilinji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tulihe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhengyang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aletai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Urumqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baianbulak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hohhot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wuhan_(airport)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -1778,7 +1673,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2229,6 +2124,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2408,7 +2321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2604,8 +2517,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2937,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0415808A-EC4F-404C-B30D-CD8F1C534364}">
   <dimension ref="A1:BI49"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3007,8 +2923,12 @@
       <c r="F2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="4">
+        <v>-30.1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-24.7</v>
+      </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
       </c>
@@ -3026,148 +2946,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>0</v>
+        <v>-30.1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-38.299999999999997</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-42.6</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-36.9</v>
       </c>
       <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
+        <v>-32.1</v>
+      </c>
+      <c r="S2" t="str">
+        <v>无</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-38.5</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-20.2</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-25.3</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-26.2</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-28.6</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>-22.6</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>-26.5</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-35.4</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>-30.3</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>-36.700000000000003</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>-33.1</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>-36.9</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>-35.1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>-27.9</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-22.6</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-21.4</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>-22.8</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-23.5</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-20.2</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>-38.200000000000003</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>-21.5</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>-7.4</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>-29.6</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>-18.2</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>-26.2</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>-24.7</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>-28.9</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>-23.3</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>-12.2</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>-17.2</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3187,8 +3107,12 @@
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="4">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-24.9</v>
+      </c>
       <c r="I3" s="6" t="s">
         <v>38</v>
       </c>
@@ -3206,148 +3130,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>0</v>
+        <v>-24.7</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-24.9</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>-28.5</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-22.8</v>
       </c>
       <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
+        <v>-24.2</v>
+      </c>
+      <c r="S3" t="str">
+        <v>无</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-26.2</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-24.9</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-14.3</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-10.6</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-12.1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>-8.6</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-24.8</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-22.3</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>-27.2</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-23.4</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>-22.7</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>-17.5</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>-24.4</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>-18.5</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-15.2</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-12.9</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-12.4</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>-24.8</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>-10.7</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>-19.3</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>-6.2</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>-13.5</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>-13.1</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>-18.2</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>-6.1</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>-4.8</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>-12.7</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>-9.5</v>
       </c>
       <c r="BG3">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>-12.9</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>-12.6</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3367,8 +3291,12 @@
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4">
+        <v>-42.6</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-28.5</v>
+      </c>
       <c r="I4" s="6" t="s">
         <v>117</v>
       </c>
@@ -3399,8 +3327,12 @@
       <c r="F5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4">
+        <v>-36.9</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-22.8</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
       </c>
@@ -3440,8 +3372,12 @@
       <c r="F6" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="4">
+        <v>-32.1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-24.2</v>
+      </c>
       <c r="I6" s="6" t="s">
         <v>115</v>
       </c>
@@ -3481,8 +3417,12 @@
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="I7" s="6" t="s">
         <v>113</v>
       </c>
@@ -3522,8 +3462,12 @@
       <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="4">
+        <v>-38.5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-26.2</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>120</v>
       </c>
@@ -3561,8 +3505,12 @@
       <c r="F9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="4">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-24.9</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>119</v>
       </c>
@@ -3591,8 +3539,12 @@
       <c r="F10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="4">
+        <v>-20.2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-17.899999999999999</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>100</v>
       </c>
@@ -3621,8 +3573,12 @@
       <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="4">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-14.3</v>
+      </c>
       <c r="I11" s="6" t="s">
         <v>54</v>
       </c>
@@ -3651,8 +3607,12 @@
       <c r="F12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="4">
+        <v>-25.3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-15</v>
+      </c>
       <c r="I12" s="6" t="s">
         <v>28</v>
       </c>
@@ -3681,8 +3641,12 @@
       <c r="F13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="4">
+        <v>-21</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-10.6</v>
+      </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
@@ -3711,8 +3675,12 @@
       <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="4">
+        <v>-26.2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-12.1</v>
+      </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
@@ -3741,8 +3709,12 @@
       <c r="F15" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="4">
+        <v>-28.6</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-18.100000000000001</v>
+      </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
       </c>
@@ -3771,8 +3743,12 @@
       <c r="F16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="4">
+        <v>-22.6</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-8.6</v>
+      </c>
       <c r="I16" s="6" t="s">
         <v>96</v>
       </c>
@@ -3801,8 +3777,12 @@
       <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="4">
+        <v>-26.5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-20</v>
+      </c>
       <c r="I17" s="6" t="s">
         <v>161</v>
       </c>
@@ -3831,8 +3811,12 @@
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="4">
+        <v>-35.4</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-24.8</v>
+      </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
       </c>
@@ -3861,8 +3845,12 @@
       <c r="F19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="4">
+        <v>-30.3</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-22.3</v>
+      </c>
       <c r="I19" s="6" t="s">
         <v>114</v>
       </c>
@@ -3891,8 +3879,12 @@
       <c r="F20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="13">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="H20" s="13">
+        <v>-27.2</v>
+      </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
       </c>
@@ -3921,8 +3913,12 @@
       <c r="F21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="13">
+        <v>-33.1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-23.4</v>
+      </c>
       <c r="I21" s="6" t="s">
         <v>115</v>
       </c>
@@ -3951,8 +3947,12 @@
       <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="G22" s="13">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="H22" s="13">
+        <v>-22.7</v>
+      </c>
       <c r="I22" s="6" t="s">
         <v>40</v>
       </c>
@@ -3983,8 +3983,12 @@
       <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="G23" s="13">
+        <v>-36.9</v>
+      </c>
+      <c r="H23" s="13">
+        <v>-17.5</v>
+      </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
       </c>
@@ -4015,8 +4019,12 @@
       <c r="F24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="G24" s="13">
+        <v>-35.1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>-24.4</v>
+      </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
       </c>
@@ -4045,8 +4053,12 @@
       <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="G25" s="4">
+        <v>-27.9</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-18.5</v>
+      </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
@@ -4077,8 +4089,12 @@
       <c r="F26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="G26" s="4">
+        <v>-22.6</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-15.2</v>
+      </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
       </c>
@@ -4107,8 +4123,12 @@
       <c r="F27" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="G27" s="4">
+        <v>-21.4</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-12.9</v>
+      </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
       </c>
@@ -4137,8 +4157,12 @@
       <c r="F28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="4">
+        <v>-22.8</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-15</v>
+      </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
       </c>
@@ -4169,8 +4193,12 @@
       <c r="F29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="G29" s="4">
+        <v>-23.5</v>
+      </c>
+      <c r="H29" s="4">
+        <v>-11</v>
+      </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
       </c>
@@ -4199,8 +4227,12 @@
       <c r="F30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="G30" s="4">
+        <v>-20.2</v>
+      </c>
+      <c r="H30" s="4">
+        <v>-12.4</v>
+      </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
       </c>
@@ -4231,8 +4263,12 @@
       <c r="F31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="4">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="H31" s="4">
+        <v>-24.8</v>
+      </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
       </c>
@@ -4261,8 +4297,12 @@
       <c r="F32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="G32" s="4">
+        <v>-21.5</v>
+      </c>
+      <c r="H32" s="4">
+        <v>-10.7</v>
+      </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
         <v>129</v>
@@ -4291,8 +4331,12 @@
       <c r="F33" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="G33" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="H33" s="4">
+        <v>9</v>
+      </c>
       <c r="I33" s="6" t="s">
         <v>250</v>
       </c>
@@ -4321,8 +4365,12 @@
       <c r="F34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="G34" s="4">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="H34" s="4">
+        <v>-2.2999999999999998</v>
+      </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
         <v>131</v>
@@ -4351,8 +4399,12 @@
       <c r="F35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="4">
+        <v>-25</v>
+      </c>
+      <c r="H35" s="4">
+        <v>-19.3</v>
+      </c>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
         <v>131</v>
@@ -4381,8 +4433,12 @@
       <c r="F36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="G36" s="4">
+        <v>-12</v>
+      </c>
+      <c r="H36" s="4">
+        <v>-6.2</v>
+      </c>
       <c r="I36" s="6" t="s">
         <v>47</v>
       </c>
@@ -4413,8 +4469,12 @@
       <c r="F37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="G37" s="4">
+        <v>-7.4</v>
+      </c>
+      <c r="H37" s="4">
+        <v>-0.4</v>
+      </c>
       <c r="I37" s="6" t="s">
         <v>45</v>
       </c>
@@ -4445,8 +4505,12 @@
       <c r="F38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="G38" s="4">
+        <v>-10</v>
+      </c>
+      <c r="H38" s="4">
+        <v>-2.9</v>
+      </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
         <v>130</v>
@@ -4475,8 +4539,12 @@
       <c r="F39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="G39" s="4">
+        <v>-29.6</v>
+      </c>
+      <c r="H39" s="4">
+        <v>-13.5</v>
+      </c>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
         <v>130</v>
@@ -4505,8 +4573,12 @@
       <c r="F40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="G40" s="4">
+        <v>-28</v>
+      </c>
+      <c r="H40" s="4">
+        <v>-12</v>
+      </c>
       <c r="I40" s="6" t="s">
         <v>43</v>
       </c>
@@ -4535,8 +4607,12 @@
       <c r="F41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="G41" s="4">
+        <v>-18.2</v>
+      </c>
+      <c r="H41" s="4">
+        <v>-13.1</v>
+      </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
       </c>
@@ -4565,8 +4641,12 @@
       <c r="F42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="G42" s="4">
+        <v>-26.2</v>
+      </c>
+      <c r="H42" s="4">
+        <v>-18.2</v>
+      </c>
       <c r="I42" s="6" t="s">
         <v>2</v>
       </c>
@@ -4595,8 +4675,12 @@
       <c r="F43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="G43" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="H43" s="4">
+        <v>-6.1</v>
+      </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
       </c>
@@ -4625,8 +4709,12 @@
       <c r="F44" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="G44" s="4">
+        <v>-24.7</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-4.8</v>
+      </c>
       <c r="I44" s="6" t="s">
         <v>65</v>
       </c>
@@ -4655,8 +4743,12 @@
       <c r="F45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="G45" s="4">
+        <v>-28.9</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-12.7</v>
+      </c>
       <c r="I45" s="6" t="s">
         <v>22</v>
       </c>
@@ -4685,8 +4777,12 @@
       <c r="F46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="G46" s="4">
+        <v>-23.3</v>
+      </c>
+      <c r="H46" s="4">
+        <v>-9.5</v>
+      </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
       </c>
@@ -4715,8 +4811,12 @@
       <c r="F47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="G47" s="4">
+        <v>-12.2</v>
+      </c>
+      <c r="H47" s="4">
+        <v>-2</v>
+      </c>
       <c r="I47" s="6" t="s">
         <v>21</v>
       </c>
@@ -4747,8 +4847,12 @@
       <c r="F48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="G48" s="4">
+        <v>-17.2</v>
+      </c>
+      <c r="H48" s="4">
+        <v>-12.9</v>
+      </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
       </c>
@@ -4777,8 +4881,12 @@
       <c r="F49" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="G49" s="4">
+        <v>-19.5</v>
+      </c>
+      <c r="H49" s="4">
+        <v>-12.6</v>
+      </c>
       <c r="I49" s="6" t="s">
         <v>2</v>
       </c>
@@ -4828,7 +4936,7 @@
         <v>254</v>
       </c>
       <c r="F1" s="62">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="G1" s="63"/>
       <c r="H1" s="60" t="s">
@@ -4909,8 +5017,12 @@
       <c r="F4" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="G4" s="36">
+        <v>-30.1</v>
+      </c>
+      <c r="H4" s="36">
+        <v>-24.7</v>
+      </c>
       <c r="I4" s="34" t="s">
         <v>175</v>
       </c>
@@ -4939,8 +5051,12 @@
       <c r="F5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="G5" s="36">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="H5" s="36">
+        <v>-24.9</v>
+      </c>
       <c r="I5" s="34" t="s">
         <v>155</v>
       </c>
@@ -4962,8 +5078,12 @@
       <c r="F6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="G6" s="65">
+        <v>-42.6</v>
+      </c>
+      <c r="H6" s="65">
+        <v>-28.5</v>
+      </c>
       <c r="I6" s="34" t="s">
         <v>230</v>
       </c>
@@ -4983,8 +5103,12 @@
       <c r="F7" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="G7" s="36">
+        <v>-36.9</v>
+      </c>
+      <c r="H7" s="36">
+        <v>-22.8</v>
+      </c>
       <c r="I7" s="34" t="s">
         <v>111</v>
       </c>
@@ -5004,8 +5128,12 @@
       <c r="F8" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="G8" s="36">
+        <v>-32.1</v>
+      </c>
+      <c r="H8" s="36">
+        <v>-24.2</v>
+      </c>
       <c r="I8" s="34" t="s">
         <v>172</v>
       </c>
@@ -5025,8 +5153,12 @@
       <c r="F9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="G9" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>247</v>
+      </c>
       <c r="I9" s="34" t="s">
         <v>231</v>
       </c>
@@ -5039,15 +5171,21 @@
       <c r="C10" s="52">
         <v>2</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="52">
+        <v>0</v>
+      </c>
       <c r="E10" s="29" t="s">
         <v>220</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="G10" s="36">
+        <v>-38.5</v>
+      </c>
+      <c r="H10" s="36">
+        <v>-26.2</v>
+      </c>
       <c r="I10" s="34" t="s">
         <v>245</v>
       </c>
@@ -5067,8 +5205,12 @@
       <c r="F11" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="G11" s="36">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="H11" s="36">
+        <v>-24.9</v>
+      </c>
       <c r="I11" s="34" t="s">
         <v>246</v>
       </c>
@@ -5088,8 +5230,12 @@
       <c r="F12" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="G12" s="36">
+        <v>-20.2</v>
+      </c>
+      <c r="H12" s="36">
+        <v>-17.899999999999999</v>
+      </c>
       <c r="I12" s="34" t="s">
         <v>244</v>
       </c>
@@ -5102,17 +5248,19 @@
       <c r="C13" s="52">
         <v>2</v>
       </c>
-      <c r="D13" s="52">
-        <v>0</v>
-      </c>
+      <c r="D13" s="52"/>
       <c r="E13" s="31" t="s">
         <v>222</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="G13" s="66">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="H13" s="66">
+        <v>-14.3</v>
+      </c>
       <c r="I13" s="34" t="s">
         <v>158</v>
       </c>
@@ -5132,8 +5280,12 @@
       <c r="F14" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="G14" s="36">
+        <v>-25.3</v>
+      </c>
+      <c r="H14" s="36">
+        <v>-15</v>
+      </c>
       <c r="I14" s="34" t="s">
         <v>154</v>
       </c>
@@ -5153,8 +5305,12 @@
       <c r="F15" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="G15" s="36">
+        <v>-21</v>
+      </c>
+      <c r="H15" s="36">
+        <v>-10.6</v>
+      </c>
       <c r="I15" s="34" t="s">
         <v>154</v>
       </c>
@@ -5174,8 +5330,12 @@
       <c r="F16" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="G16" s="36">
+        <v>-26.2</v>
+      </c>
+      <c r="H16" s="36">
+        <v>-12.1</v>
+      </c>
       <c r="I16" s="34" t="s">
         <v>154</v>
       </c>
@@ -5195,8 +5355,12 @@
       <c r="F17" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="G17" s="36">
+        <v>-28.6</v>
+      </c>
+      <c r="H17" s="36">
+        <v>-18.100000000000001</v>
+      </c>
       <c r="I17" s="34" t="s">
         <v>242</v>
       </c>
@@ -5216,8 +5380,12 @@
       <c r="F18" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="G18" s="36">
+        <v>-22.6</v>
+      </c>
+      <c r="H18" s="36">
+        <v>-8.6</v>
+      </c>
       <c r="I18" s="34" t="s">
         <v>32</v>
       </c>
@@ -5237,8 +5405,12 @@
       <c r="F19" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="G19" s="36">
+        <v>-26.5</v>
+      </c>
+      <c r="H19" s="36">
+        <v>-20</v>
+      </c>
       <c r="I19" s="34" t="s">
         <v>243</v>
       </c>
@@ -5258,8 +5430,12 @@
       <c r="F20" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="G20" s="36">
+        <v>-35.4</v>
+      </c>
+      <c r="H20" s="36">
+        <v>-24.8</v>
+      </c>
       <c r="I20" s="34" t="s">
         <v>241</v>
       </c>
@@ -5279,8 +5455,12 @@
       <c r="F21" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="G21" s="36">
+        <v>-30.3</v>
+      </c>
+      <c r="H21" s="36">
+        <v>-22.3</v>
+      </c>
       <c r="I21" s="34" t="s">
         <v>175</v>
       </c>
@@ -5300,8 +5480,12 @@
       <c r="F22" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="G22" s="36">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="H22" s="36">
+        <v>-27.2</v>
+      </c>
       <c r="I22" s="34" t="s">
         <v>231</v>
       </c>
@@ -5321,8 +5505,12 @@
       <c r="F23" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
+      <c r="G23" s="36">
+        <v>-33.1</v>
+      </c>
+      <c r="H23" s="36">
+        <v>-23.4</v>
+      </c>
       <c r="I23" s="34" t="s">
         <v>172</v>
       </c>
@@ -5342,8 +5530,12 @@
       <c r="F24" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="G24" s="36">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="H24" s="36">
+        <v>-22.7</v>
+      </c>
       <c r="I24" s="34" t="s">
         <v>111</v>
       </c>
@@ -5363,8 +5555,12 @@
       <c r="F25" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
+      <c r="G25" s="36">
+        <v>-36.9</v>
+      </c>
+      <c r="H25" s="36">
+        <v>-17.5</v>
+      </c>
       <c r="I25" s="34" t="s">
         <v>151</v>
       </c>
@@ -5384,8 +5580,12 @@
       <c r="F26" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="G26" s="36">
+        <v>-35.1</v>
+      </c>
+      <c r="H26" s="36">
+        <v>-24.4</v>
+      </c>
       <c r="I26" s="34" t="s">
         <v>229</v>
       </c>
@@ -5405,8 +5605,12 @@
       <c r="F27" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
+      <c r="G27" s="36">
+        <v>-27.9</v>
+      </c>
+      <c r="H27" s="36">
+        <v>-18.5</v>
+      </c>
       <c r="I27" s="34" t="s">
         <v>155</v>
       </c>
@@ -5419,17 +5623,19 @@
       <c r="C28" s="52">
         <v>1</v>
       </c>
-      <c r="D28" s="52">
-        <v>0</v>
-      </c>
+      <c r="D28" s="52"/>
       <c r="E28" s="30" t="s">
         <v>214</v>
       </c>
       <c r="F28" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="G28" s="36">
+        <v>-22.6</v>
+      </c>
+      <c r="H28" s="36">
+        <v>-15.2</v>
+      </c>
       <c r="I28" s="34" t="s">
         <v>234</v>
       </c>
@@ -5442,17 +5648,19 @@
       <c r="C29" s="52">
         <v>1</v>
       </c>
-      <c r="D29" s="52">
-        <v>0</v>
-      </c>
+      <c r="D29" s="52"/>
       <c r="E29" s="30" t="s">
         <v>215</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="G29" s="36">
+        <v>-21.4</v>
+      </c>
+      <c r="H29" s="36">
+        <v>-12.9</v>
+      </c>
       <c r="I29" s="34" t="s">
         <v>232</v>
       </c>
@@ -5472,8 +5680,12 @@
       <c r="F30" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
+      <c r="G30" s="36">
+        <v>-22.8</v>
+      </c>
+      <c r="H30" s="36">
+        <v>-15</v>
+      </c>
       <c r="I30" s="34" t="s">
         <v>237</v>
       </c>
@@ -5495,8 +5707,12 @@
       <c r="F31" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
+      <c r="G31" s="36">
+        <v>-23.5</v>
+      </c>
+      <c r="H31" s="36">
+        <v>-11</v>
+      </c>
       <c r="I31" s="34" t="s">
         <v>238</v>
       </c>
@@ -5516,8 +5732,12 @@
       <c r="F32" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
+      <c r="G32" s="36">
+        <v>-20.2</v>
+      </c>
+      <c r="H32" s="36">
+        <v>-12.4</v>
+      </c>
       <c r="I32" s="34" t="s">
         <v>159</v>
       </c>
@@ -5539,8 +5759,12 @@
       <c r="F33" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
+      <c r="G33" s="36">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="H33" s="36">
+        <v>-24.8</v>
+      </c>
       <c r="I33" s="34" t="s">
         <v>239</v>
       </c>
@@ -5560,8 +5784,12 @@
       <c r="F34" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="G34" s="36">
+        <v>-21.5</v>
+      </c>
+      <c r="H34" s="36">
+        <v>-10.7</v>
+      </c>
       <c r="I34" s="34" t="s">
         <v>174</v>
       </c>
@@ -5574,17 +5802,19 @@
       <c r="C35" s="52">
         <v>1</v>
       </c>
-      <c r="D35" s="52">
-        <v>0</v>
-      </c>
+      <c r="D35" s="52"/>
       <c r="E35" s="30" t="s">
         <v>249</v>
       </c>
       <c r="F35" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
+      <c r="G35" s="36">
+        <v>-1.9</v>
+      </c>
+      <c r="H35" s="36">
+        <v>9</v>
+      </c>
       <c r="I35" s="34" t="s">
         <v>250</v>
       </c>
@@ -5604,8 +5834,12 @@
       <c r="F36" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
+      <c r="G36" s="36">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="H36" s="36">
+        <v>-2.2999999999999998</v>
+      </c>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5625,8 +5859,12 @@
       <c r="F37" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
+      <c r="G37" s="36">
+        <v>-25</v>
+      </c>
+      <c r="H37" s="36">
+        <v>-19.3</v>
+      </c>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5646,8 +5884,12 @@
       <c r="F38" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
+      <c r="G38" s="36">
+        <v>-12</v>
+      </c>
+      <c r="H38" s="36">
+        <v>-6.2</v>
+      </c>
       <c r="I38" s="34" t="s">
         <v>173</v>
       </c>
@@ -5669,8 +5911,12 @@
       <c r="F39" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
+      <c r="G39" s="36">
+        <v>-7.4</v>
+      </c>
+      <c r="H39" s="36">
+        <v>-0.4</v>
+      </c>
       <c r="I39" s="34" t="s">
         <v>240</v>
       </c>
@@ -5692,8 +5938,12 @@
       <c r="F40" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
+      <c r="G40" s="36">
+        <v>-10</v>
+      </c>
+      <c r="H40" s="36">
+        <v>-2.9</v>
+      </c>
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5713,8 +5963,12 @@
       <c r="F41" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="G41" s="36">
+        <v>-29.6</v>
+      </c>
+      <c r="H41" s="36">
+        <v>-13.5</v>
+      </c>
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5725,15 +5979,21 @@
       <c r="C42" s="52">
         <v>1</v>
       </c>
-      <c r="D42" s="52"/>
+      <c r="D42" s="52">
+        <v>0</v>
+      </c>
       <c r="E42" s="30" t="s">
         <v>209</v>
       </c>
       <c r="F42" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
+      <c r="G42" s="36">
+        <v>-28</v>
+      </c>
+      <c r="H42" s="36">
+        <v>-12</v>
+      </c>
       <c r="I42" s="34" t="s">
         <v>235</v>
       </c>
@@ -5753,8 +6013,12 @@
       <c r="F43" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
+      <c r="G43" s="36">
+        <v>-18.2</v>
+      </c>
+      <c r="H43" s="36">
+        <v>-13.1</v>
+      </c>
       <c r="I43" s="34" t="s">
         <v>234</v>
       </c>
@@ -5767,15 +6031,21 @@
       <c r="C44" s="52">
         <v>1</v>
       </c>
-      <c r="D44" s="52"/>
+      <c r="D44" s="52">
+        <v>0</v>
+      </c>
       <c r="E44" s="30" t="s">
         <v>208</v>
       </c>
       <c r="F44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
+      <c r="G44" s="36">
+        <v>-26.2</v>
+      </c>
+      <c r="H44" s="36">
+        <v>-18.2</v>
+      </c>
       <c r="I44" s="34" t="s">
         <v>157</v>
       </c>
@@ -5788,15 +6058,21 @@
       <c r="C45" s="52">
         <v>1</v>
       </c>
-      <c r="D45" s="52"/>
+      <c r="D45" s="52">
+        <v>0</v>
+      </c>
       <c r="E45" s="30" t="s">
         <v>199</v>
       </c>
       <c r="F45" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
+      <c r="G45" s="36">
+        <v>-32.5</v>
+      </c>
+      <c r="H45" s="36">
+        <v>-6.1</v>
+      </c>
       <c r="I45" s="34" t="s">
         <v>160</v>
       </c>
@@ -5816,8 +6092,12 @@
       <c r="F46" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
+      <c r="G46" s="36">
+        <v>-24.7</v>
+      </c>
+      <c r="H46" s="36">
+        <v>-4.8</v>
+      </c>
       <c r="I46" s="34" t="s">
         <v>160</v>
       </c>
@@ -5837,8 +6117,12 @@
       <c r="F47" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
+      <c r="G47" s="36">
+        <v>-28.9</v>
+      </c>
+      <c r="H47" s="36">
+        <v>-12.7</v>
+      </c>
       <c r="I47" s="34" t="s">
         <v>156</v>
       </c>
@@ -5858,8 +6142,12 @@
       <c r="F48" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
+      <c r="G48" s="36">
+        <v>-23.3</v>
+      </c>
+      <c r="H48" s="36">
+        <v>-9.5</v>
+      </c>
       <c r="I48" s="34" t="s">
         <v>236</v>
       </c>
@@ -5879,8 +6167,12 @@
       <c r="F49" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
+      <c r="G49" s="36">
+        <v>-12.2</v>
+      </c>
+      <c r="H49" s="36">
+        <v>-2</v>
+      </c>
       <c r="I49" s="34" t="s">
         <v>159</v>
       </c>
@@ -5893,17 +6185,19 @@
       <c r="C50" s="52">
         <v>1</v>
       </c>
-      <c r="D50" s="52">
-        <v>0</v>
-      </c>
+      <c r="D50" s="52"/>
       <c r="E50" s="30" t="s">
         <v>215</v>
       </c>
       <c r="F50" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
+      <c r="G50" s="36">
+        <v>-17.2</v>
+      </c>
+      <c r="H50" s="36">
+        <v>-12.9</v>
+      </c>
       <c r="I50" s="34" t="s">
         <v>157</v>
       </c>
@@ -5923,8 +6217,12 @@
       <c r="F51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
+      <c r="G51" s="36">
+        <v>-19.5</v>
+      </c>
+      <c r="H51" s="36">
+        <v>-12.6</v>
+      </c>
       <c r="I51" s="34" t="s">
         <v>233</v>
       </c>
@@ -5982,8 +6280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6452CB3-0983-4391-8A7D-2C5221219E76}">
   <dimension ref="A1:AW79"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10894,20 +11192,596 @@
       <c r="A34" s="16">
         <v>45681</v>
       </c>
+      <c r="B34">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="C34">
+        <v>-28.5</v>
+      </c>
+      <c r="D34">
+        <v>-27.2</v>
+      </c>
+      <c r="E34">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="F34">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="G34" t="s">
+        <v>247</v>
+      </c>
+      <c r="H34">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="I34">
+        <v>-25</v>
+      </c>
+      <c r="J34">
+        <v>-26.8</v>
+      </c>
+      <c r="K34">
+        <v>-31.7</v>
+      </c>
+      <c r="L34">
+        <v>-26.2</v>
+      </c>
+      <c r="M34">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="N34">
+        <v>-34.1</v>
+      </c>
+      <c r="O34">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="P34">
+        <v>-29.2</v>
+      </c>
+      <c r="Q34">
+        <v>-23.4</v>
+      </c>
+      <c r="R34">
+        <v>-30.5</v>
+      </c>
+      <c r="S34">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="T34">
+        <v>-25.1</v>
+      </c>
+      <c r="U34">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="V34">
+        <v>-32.1</v>
+      </c>
+      <c r="W34">
+        <v>-30.6</v>
+      </c>
+      <c r="X34">
+        <v>-28.2</v>
+      </c>
+      <c r="Y34">
+        <v>-14.9</v>
+      </c>
+      <c r="Z34">
+        <v>-33.9</v>
+      </c>
+      <c r="AA34">
+        <v>-33</v>
+      </c>
+      <c r="AB34">
+        <v>-28.3</v>
+      </c>
+      <c r="AC34">
+        <v>-22.4</v>
+      </c>
+      <c r="AD34">
+        <v>-19.2</v>
+      </c>
+      <c r="AE34">
+        <v>-26.6</v>
+      </c>
+      <c r="AF34">
+        <v>-6.4</v>
+      </c>
+      <c r="AG34">
+        <v>7.2</v>
+      </c>
+      <c r="AH34">
+        <v>-14.2</v>
+      </c>
+      <c r="AI34">
+        <v>-22.8</v>
+      </c>
+      <c r="AJ34">
+        <v>-25.8</v>
+      </c>
+      <c r="AK34">
+        <v>-20.8</v>
+      </c>
+      <c r="AL34">
+        <v>-15.1</v>
+      </c>
+      <c r="AM34">
+        <v>-17.5</v>
+      </c>
+      <c r="AN34">
+        <v>-32.9</v>
+      </c>
+      <c r="AO34">
+        <v>-33</v>
+      </c>
+      <c r="AP34">
+        <v>-27.9</v>
+      </c>
+      <c r="AQ34">
+        <v>-11.2</v>
+      </c>
+      <c r="AR34">
+        <v>-13.8</v>
+      </c>
+      <c r="AS34">
+        <v>-24.7</v>
+      </c>
+      <c r="AT34">
+        <v>-16.5</v>
+      </c>
+      <c r="AU34">
+        <v>-19.2</v>
+      </c>
+      <c r="AV34">
+        <v>-28.4</v>
+      </c>
+      <c r="AW34">
+        <v>-32.700000000000003</v>
+      </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A35" s="16">
         <v>45682</v>
       </c>
+      <c r="B35">
+        <v>-42.7</v>
+      </c>
+      <c r="C35">
+        <v>-21.8</v>
+      </c>
+      <c r="D35">
+        <v>-41.4</v>
+      </c>
+      <c r="E35">
+        <v>-39.9</v>
+      </c>
+      <c r="F35">
+        <v>-41.6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>247</v>
+      </c>
+      <c r="H35">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="I35">
+        <v>-17.7</v>
+      </c>
+      <c r="J35">
+        <v>-19.3</v>
+      </c>
+      <c r="K35">
+        <v>-26.9</v>
+      </c>
+      <c r="L35">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="M35">
+        <v>-35.6</v>
+      </c>
+      <c r="N35">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="O35">
+        <v>-33.4</v>
+      </c>
+      <c r="P35">
+        <v>-27.7</v>
+      </c>
+      <c r="Q35">
+        <v>-32.5</v>
+      </c>
+      <c r="R35">
+        <v>-38.1</v>
+      </c>
+      <c r="S35">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="T35">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="U35">
+        <v>-39.1</v>
+      </c>
+      <c r="V35">
+        <v>-39.5</v>
+      </c>
+      <c r="W35">
+        <v>-42.3</v>
+      </c>
+      <c r="X35">
+        <v>-36.5</v>
+      </c>
+      <c r="Y35">
+        <v>-21.2</v>
+      </c>
+      <c r="Z35">
+        <v>-28</v>
+      </c>
+      <c r="AA35">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="AB35">
+        <v>-25.2</v>
+      </c>
+      <c r="AC35">
+        <v>-29.9</v>
+      </c>
+      <c r="AD35">
+        <v>-21.6</v>
+      </c>
+      <c r="AE35">
+        <v>-38.9</v>
+      </c>
+      <c r="AF35">
+        <v>-5.9</v>
+      </c>
+      <c r="AG35">
+        <v>3.6</v>
+      </c>
+      <c r="AH35">
+        <v>-23.6</v>
+      </c>
+      <c r="AI35">
+        <v>-19.5</v>
+      </c>
+      <c r="AJ35">
+        <v>-24</v>
+      </c>
+      <c r="AK35">
+        <v>-21.2</v>
+      </c>
+      <c r="AL35">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="AM35">
+        <v>-10.4</v>
+      </c>
+      <c r="AN35">
+        <v>-32.1</v>
+      </c>
+      <c r="AO35">
+        <v>-31.4</v>
+      </c>
+      <c r="AP35">
+        <v>-25.6</v>
+      </c>
+      <c r="AQ35">
+        <v>-25</v>
+      </c>
+      <c r="AR35">
+        <v>-19.8</v>
+      </c>
+      <c r="AS35">
+        <v>-34.4</v>
+      </c>
+      <c r="AT35">
+        <v>-28.3</v>
+      </c>
+      <c r="AU35">
+        <v>-27.7</v>
+      </c>
+      <c r="AV35">
+        <v>-29.2</v>
+      </c>
+      <c r="AW35">
+        <v>-29.7</v>
+      </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>45683</v>
       </c>
+      <c r="B36">
+        <v>-37.4</v>
+      </c>
+      <c r="C36">
+        <v>-37.5</v>
+      </c>
+      <c r="D36">
+        <v>-44.5</v>
+      </c>
+      <c r="E36">
+        <v>-36</v>
+      </c>
+      <c r="F36">
+        <v>-37.4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H36">
+        <v>-41.5</v>
+      </c>
+      <c r="I36">
+        <v>-31.9</v>
+      </c>
+      <c r="J36">
+        <v>-18.3</v>
+      </c>
+      <c r="K36">
+        <v>-16.5</v>
+      </c>
+      <c r="L36">
+        <v>-28.2</v>
+      </c>
+      <c r="M36">
+        <v>-31.3</v>
+      </c>
+      <c r="N36">
+        <v>-29.6</v>
+      </c>
+      <c r="O36">
+        <v>-31.9</v>
+      </c>
+      <c r="P36">
+        <v>-25</v>
+      </c>
+      <c r="Q36">
+        <v>-28.3</v>
+      </c>
+      <c r="R36">
+        <v>-31.3</v>
+      </c>
+      <c r="S36">
+        <v>-33</v>
+      </c>
+      <c r="T36">
+        <v>-40.700000000000003</v>
+      </c>
+      <c r="U36">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="V36">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="W36">
+        <v>-41.7</v>
+      </c>
+      <c r="X36">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="Y36">
+        <v>-24.9</v>
+      </c>
+      <c r="Z36">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="AA36">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="AB36">
+        <v>-17.5</v>
+      </c>
+      <c r="AC36">
+        <v>-23.1</v>
+      </c>
+      <c r="AD36">
+        <v>-23.6</v>
+      </c>
+      <c r="AE36">
+        <v>-39.9</v>
+      </c>
+      <c r="AF36">
+        <v>-15.4</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36">
+        <v>-22.6</v>
+      </c>
+      <c r="AI36">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AJ36">
+        <v>-20.6</v>
+      </c>
+      <c r="AK36">
+        <v>-17.8</v>
+      </c>
+      <c r="AL36">
+        <v>-16.2</v>
+      </c>
+      <c r="AM36">
+        <v>-17.3</v>
+      </c>
+      <c r="AN36">
+        <v>-30.2</v>
+      </c>
+      <c r="AO36">
+        <v>-26.1</v>
+      </c>
+      <c r="AP36">
+        <v>-18.2</v>
+      </c>
+      <c r="AQ36">
+        <v>-33.5</v>
+      </c>
+      <c r="AR36">
+        <v>-27.4</v>
+      </c>
+      <c r="AS36">
+        <v>-30.8</v>
+      </c>
+      <c r="AT36">
+        <v>-25.6</v>
+      </c>
+      <c r="AU36">
+        <v>-19.3</v>
+      </c>
+      <c r="AV36">
+        <v>-16.7</v>
+      </c>
+      <c r="AW36">
+        <v>-18.100000000000001</v>
+      </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>45684</v>
+      </c>
+      <c r="B37">
+        <v>-30.1</v>
+      </c>
+      <c r="C37">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="D37">
+        <v>-42.6</v>
+      </c>
+      <c r="E37">
+        <v>-36.9</v>
+      </c>
+      <c r="F37">
+        <v>-32.1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>247</v>
+      </c>
+      <c r="H37">
+        <v>-38.5</v>
+      </c>
+      <c r="I37">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="J37">
+        <v>-20.2</v>
+      </c>
+      <c r="K37">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="L37">
+        <v>-25.3</v>
+      </c>
+      <c r="M37">
+        <v>-21</v>
+      </c>
+      <c r="N37">
+        <v>-26.2</v>
+      </c>
+      <c r="O37">
+        <v>-28.6</v>
+      </c>
+      <c r="P37">
+        <v>-22.6</v>
+      </c>
+      <c r="Q37">
+        <v>-26.5</v>
+      </c>
+      <c r="R37">
+        <v>-35.4</v>
+      </c>
+      <c r="S37">
+        <v>-30.3</v>
+      </c>
+      <c r="T37">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="U37">
+        <v>-33.1</v>
+      </c>
+      <c r="V37">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="W37">
+        <v>-36.9</v>
+      </c>
+      <c r="X37">
+        <v>-35.1</v>
+      </c>
+      <c r="Y37">
+        <v>-27.9</v>
+      </c>
+      <c r="Z37">
+        <v>-22.6</v>
+      </c>
+      <c r="AA37">
+        <v>-21.4</v>
+      </c>
+      <c r="AB37">
+        <v>-22.8</v>
+      </c>
+      <c r="AC37">
+        <v>-23.5</v>
+      </c>
+      <c r="AD37">
+        <v>-20.2</v>
+      </c>
+      <c r="AE37">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="AF37">
+        <v>-21.5</v>
+      </c>
+      <c r="AG37">
+        <v>-1.9</v>
+      </c>
+      <c r="AH37">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AI37">
+        <v>-25</v>
+      </c>
+      <c r="AJ37">
+        <v>-12</v>
+      </c>
+      <c r="AK37">
+        <v>-7.4</v>
+      </c>
+      <c r="AL37">
+        <v>-10</v>
+      </c>
+      <c r="AM37">
+        <v>-29.6</v>
+      </c>
+      <c r="AN37">
+        <v>-28</v>
+      </c>
+      <c r="AO37">
+        <v>-18.2</v>
+      </c>
+      <c r="AP37">
+        <v>-26.2</v>
+      </c>
+      <c r="AQ37">
+        <v>-32.5</v>
+      </c>
+      <c r="AR37">
+        <v>-24.7</v>
+      </c>
+      <c r="AS37">
+        <v>-28.9</v>
+      </c>
+      <c r="AT37">
+        <v>-23.3</v>
+      </c>
+      <c r="AU37">
+        <v>-12.2</v>
+      </c>
+      <c r="AV37">
+        <v>-17.2</v>
+      </c>
+      <c r="AW37">
+        <v>-19.5</v>
       </c>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.4">
@@ -11111,7 +11985,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -16022,21 +16896,597 @@
       <c r="A34" s="16">
         <v>45681</v>
       </c>
+      <c r="B34">
+        <v>-26.9</v>
+      </c>
+      <c r="C34">
+        <v>-9.5</v>
+      </c>
+      <c r="D34">
+        <v>-13.3</v>
+      </c>
+      <c r="E34">
+        <v>-15.4</v>
+      </c>
+      <c r="F34">
+        <v>-24.3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>247</v>
+      </c>
+      <c r="H34">
+        <v>-8.4</v>
+      </c>
+      <c r="I34">
+        <v>-14.9</v>
+      </c>
+      <c r="J34">
+        <v>-12.3</v>
+      </c>
+      <c r="K34">
+        <v>-12.3</v>
+      </c>
+      <c r="L34">
+        <v>-14.8</v>
+      </c>
+      <c r="M34">
+        <v>-15.3</v>
+      </c>
+      <c r="N34">
+        <v>-14.7</v>
+      </c>
+      <c r="O34">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="P34">
+        <v>-9.4</v>
+      </c>
+      <c r="Q34">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="R34">
+        <v>-19.3</v>
+      </c>
+      <c r="S34">
+        <v>-22.3</v>
+      </c>
+      <c r="T34">
+        <v>-15.7</v>
+      </c>
+      <c r="U34">
+        <v>-21.2</v>
+      </c>
+      <c r="V34">
+        <v>-10.5</v>
+      </c>
+      <c r="W34">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="X34">
+        <v>-14.4</v>
+      </c>
+      <c r="Y34">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="Z34">
+        <v>-11.8</v>
+      </c>
+      <c r="AA34">
+        <v>-12.9</v>
+      </c>
+      <c r="AB34">
+        <v>-20</v>
+      </c>
+      <c r="AC34">
+        <v>-15.2</v>
+      </c>
+      <c r="AD34">
+        <v>-11.6</v>
+      </c>
+      <c r="AE34">
+        <v>-18.3</v>
+      </c>
+      <c r="AF34">
+        <v>8</v>
+      </c>
+      <c r="AG34">
+        <v>9.1</v>
+      </c>
+      <c r="AH34">
+        <v>-8.4</v>
+      </c>
+      <c r="AI34">
+        <v>-0.2</v>
+      </c>
+      <c r="AJ34">
+        <v>-8.1</v>
+      </c>
+      <c r="AK34">
+        <v>-2.5</v>
+      </c>
+      <c r="AL34">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AM34">
+        <v>6</v>
+      </c>
+      <c r="AN34">
+        <v>-15.3</v>
+      </c>
+      <c r="AO34">
+        <v>-20.5</v>
+      </c>
+      <c r="AP34">
+        <v>-9.1</v>
+      </c>
+      <c r="AQ34">
+        <v>0.6</v>
+      </c>
+      <c r="AR34">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AS34">
+        <v>-10.6</v>
+      </c>
+      <c r="AT34">
+        <v>-10.1</v>
+      </c>
+      <c r="AU34">
+        <v>-14.5</v>
+      </c>
+      <c r="AV34">
+        <v>-12.8</v>
+      </c>
+      <c r="AW34">
+        <v>-23</v>
+      </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A35" s="16">
         <v>45682</v>
       </c>
+      <c r="B35">
+        <v>-30.4</v>
+      </c>
+      <c r="C35">
+        <v>-11.2</v>
+      </c>
+      <c r="D35">
+        <v>-22.7</v>
+      </c>
+      <c r="E35">
+        <v>-25</v>
+      </c>
+      <c r="F35">
+        <v>-26.9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>247</v>
+      </c>
+      <c r="H35">
+        <v>-19.3</v>
+      </c>
+      <c r="I35">
+        <v>-10.3</v>
+      </c>
+      <c r="J35">
+        <v>-11.5</v>
+      </c>
+      <c r="K35">
+        <v>-13.2</v>
+      </c>
+      <c r="L35">
+        <v>-18.3</v>
+      </c>
+      <c r="M35">
+        <v>-14.7</v>
+      </c>
+      <c r="N35">
+        <v>-14.6</v>
+      </c>
+      <c r="O35">
+        <v>-19</v>
+      </c>
+      <c r="P35">
+        <v>-10.9</v>
+      </c>
+      <c r="Q35">
+        <v>-22.4</v>
+      </c>
+      <c r="R35">
+        <v>-26.5</v>
+      </c>
+      <c r="S35">
+        <v>-21.9</v>
+      </c>
+      <c r="T35">
+        <v>-21.2</v>
+      </c>
+      <c r="U35">
+        <v>-22.5</v>
+      </c>
+      <c r="V35">
+        <v>-22.5</v>
+      </c>
+      <c r="W35">
+        <v>-26.7</v>
+      </c>
+      <c r="X35">
+        <v>-23.4</v>
+      </c>
+      <c r="Y35">
+        <v>-10.7</v>
+      </c>
+      <c r="Z35">
+        <v>-13.9</v>
+      </c>
+      <c r="AA35">
+        <v>-13.5</v>
+      </c>
+      <c r="AB35">
+        <v>-16</v>
+      </c>
+      <c r="AC35">
+        <v>-16.8</v>
+      </c>
+      <c r="AD35">
+        <v>-12.6</v>
+      </c>
+      <c r="AE35">
+        <v>-24.7</v>
+      </c>
+      <c r="AF35">
+        <v>-0.1</v>
+      </c>
+      <c r="AG35">
+        <v>9.1</v>
+      </c>
+      <c r="AH35">
+        <v>-11.8</v>
+      </c>
+      <c r="AI35">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AJ35">
+        <v>-8.1</v>
+      </c>
+      <c r="AK35">
+        <v>-2.6</v>
+      </c>
+      <c r="AL35">
+        <v>0.3</v>
+      </c>
+      <c r="AM35">
+        <v>-3.6</v>
+      </c>
+      <c r="AN35">
+        <v>-15.1</v>
+      </c>
+      <c r="AO35">
+        <v>-20.3</v>
+      </c>
+      <c r="AP35">
+        <v>-5.8</v>
+      </c>
+      <c r="AQ35">
+        <v>-7.5</v>
+      </c>
+      <c r="AR35">
+        <v>-5.6</v>
+      </c>
+      <c r="AS35">
+        <v>-20.9</v>
+      </c>
+      <c r="AT35">
+        <v>-15.5</v>
+      </c>
+      <c r="AU35">
+        <v>-11.6</v>
+      </c>
+      <c r="AV35">
+        <v>-14.1</v>
+      </c>
+      <c r="AW35">
+        <v>-18</v>
+      </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>45683</v>
       </c>
+      <c r="B36">
+        <v>-27.4</v>
+      </c>
+      <c r="C36">
+        <v>-21</v>
+      </c>
+      <c r="D36">
+        <v>-31.5</v>
+      </c>
+      <c r="E36">
+        <v>-26.6</v>
+      </c>
+      <c r="F36">
+        <v>-25.8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H36">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="I36">
+        <v>-22.3</v>
+      </c>
+      <c r="J36">
+        <v>-14.7</v>
+      </c>
+      <c r="K36">
+        <v>-12.1</v>
+      </c>
+      <c r="L36">
+        <v>-17.5</v>
+      </c>
+      <c r="M36">
+        <v>-12.7</v>
+      </c>
+      <c r="N36">
+        <v>-12.5</v>
+      </c>
+      <c r="O36">
+        <v>-19.8</v>
+      </c>
+      <c r="P36">
+        <v>-6.9</v>
+      </c>
+      <c r="Q36">
+        <v>-21</v>
+      </c>
+      <c r="R36">
+        <v>-23.7</v>
+      </c>
+      <c r="S36">
+        <v>-21</v>
+      </c>
+      <c r="T36">
+        <v>-29</v>
+      </c>
+      <c r="U36">
+        <v>-23.8</v>
+      </c>
+      <c r="V36">
+        <v>-27.2</v>
+      </c>
+      <c r="W36">
+        <v>-20.8</v>
+      </c>
+      <c r="X36">
+        <v>-27</v>
+      </c>
+      <c r="Y36">
+        <v>-15.9</v>
+      </c>
+      <c r="Z36">
+        <v>-13.8</v>
+      </c>
+      <c r="AA36">
+        <v>-12.6</v>
+      </c>
+      <c r="AB36">
+        <v>-14.4</v>
+      </c>
+      <c r="AC36">
+        <v>-10.7</v>
+      </c>
+      <c r="AD36">
+        <v>-16.2</v>
+      </c>
+      <c r="AE36">
+        <v>-26.4</v>
+      </c>
+      <c r="AF36">
+        <v>-6</v>
+      </c>
+      <c r="AG36">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AH36">
+        <v>-4.2</v>
+      </c>
+      <c r="AI36">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="AJ36">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="AK36">
+        <v>-2.6</v>
+      </c>
+      <c r="AL36">
+        <v>0.9</v>
+      </c>
+      <c r="AM36">
+        <v>-6.7</v>
+      </c>
+      <c r="AN36">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AO36">
+        <v>-16.8</v>
+      </c>
+      <c r="AP36">
+        <v>-8.5</v>
+      </c>
+      <c r="AQ36">
+        <v>-7.9</v>
+      </c>
+      <c r="AR36">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="AS36">
+        <v>-13.3</v>
+      </c>
+      <c r="AT36">
+        <v>-11.5</v>
+      </c>
+      <c r="AU36">
+        <v>-3.7</v>
+      </c>
+      <c r="AV36">
+        <v>-12.7</v>
+      </c>
+      <c r="AW36">
+        <v>-12</v>
+      </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>45684</v>
       </c>
+      <c r="B37">
+        <v>-24.7</v>
+      </c>
+      <c r="C37">
+        <v>-24.9</v>
+      </c>
+      <c r="D37">
+        <v>-28.5</v>
+      </c>
+      <c r="E37">
+        <v>-22.8</v>
+      </c>
+      <c r="F37">
+        <v>-24.2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>247</v>
+      </c>
+      <c r="H37">
+        <v>-26.2</v>
+      </c>
+      <c r="I37">
+        <v>-24.9</v>
+      </c>
+      <c r="J37">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="K37" t="s">
+        <v>247</v>
+      </c>
+      <c r="L37">
+        <v>-15</v>
+      </c>
+      <c r="M37">
+        <v>-10.6</v>
+      </c>
+      <c r="N37">
+        <v>-12.1</v>
+      </c>
+      <c r="O37">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="P37">
+        <v>-8.6</v>
+      </c>
+      <c r="Q37">
+        <v>-20</v>
+      </c>
+      <c r="R37">
+        <v>-24.8</v>
+      </c>
+      <c r="S37">
+        <v>-22.3</v>
+      </c>
+      <c r="T37">
+        <v>-27.2</v>
+      </c>
+      <c r="U37">
+        <v>-23.4</v>
+      </c>
+      <c r="V37">
+        <v>-22.7</v>
+      </c>
+      <c r="W37">
+        <v>-17.5</v>
+      </c>
+      <c r="X37">
+        <v>-24.4</v>
+      </c>
+      <c r="Y37">
+        <v>-18.5</v>
+      </c>
+      <c r="Z37">
+        <v>-15.2</v>
+      </c>
+      <c r="AA37">
+        <v>-12.9</v>
+      </c>
+      <c r="AB37">
+        <v>-15</v>
+      </c>
+      <c r="AC37">
+        <v>-11</v>
+      </c>
+      <c r="AD37">
+        <v>-12.4</v>
+      </c>
+      <c r="AE37">
+        <v>-24.8</v>
+      </c>
+      <c r="AF37">
+        <v>-10.7</v>
+      </c>
+      <c r="AG37">
+        <v>9</v>
+      </c>
+      <c r="AH37">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AI37">
+        <v>-19.3</v>
+      </c>
+      <c r="AJ37">
+        <v>-6.2</v>
+      </c>
+      <c r="AK37">
+        <v>-0.4</v>
+      </c>
+      <c r="AL37">
+        <v>-2.9</v>
+      </c>
+      <c r="AM37">
+        <v>-13.5</v>
+      </c>
+      <c r="AN37">
+        <v>-12</v>
+      </c>
+      <c r="AO37">
+        <v>-13.1</v>
+      </c>
+      <c r="AP37">
+        <v>-18.2</v>
+      </c>
+      <c r="AQ37">
+        <v>-6.1</v>
+      </c>
+      <c r="AR37">
+        <v>-4.8</v>
+      </c>
+      <c r="AS37">
+        <v>-12.7</v>
+      </c>
+      <c r="AT37">
+        <v>-9.5</v>
+      </c>
+      <c r="AU37">
+        <v>-2</v>
+      </c>
+      <c r="AV37">
+        <v>-12.9</v>
+      </c>
+      <c r="AW37">
+        <v>-12.6</v>
+      </c>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
@@ -16227,312 +17677,6 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72C0E64-6BBC-484E-A6E9-208453B8EABB}">
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1">
-        <v>30622</v>
-      </c>
-      <c r="C1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2">
-        <v>30636</v>
-      </c>
-      <c r="C2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3">
-        <v>30673</v>
-      </c>
-      <c r="C3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4">
-        <v>30781</v>
-      </c>
-      <c r="C4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5">
-        <v>31329</v>
-      </c>
-      <c r="C5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6">
-        <v>31348</v>
-      </c>
-      <c r="C6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>31478</v>
-      </c>
-      <c r="C7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8">
-        <v>31532</v>
-      </c>
-      <c r="C8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9">
-        <v>31702</v>
-      </c>
-      <c r="C9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>36096</v>
-      </c>
-      <c r="C10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>36259</v>
-      </c>
-      <c r="C11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12">
-        <v>36307</v>
-      </c>
-      <c r="C12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>44203</v>
-      </c>
-      <c r="C13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14">
-        <v>44212</v>
-      </c>
-      <c r="C14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>44221</v>
-      </c>
-      <c r="C15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>44224</v>
-      </c>
-      <c r="C16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>44225</v>
-      </c>
-      <c r="C17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>44292</v>
-      </c>
-      <c r="C18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>50136</v>
-      </c>
-      <c r="C19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A20" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20">
-        <v>50434</v>
-      </c>
-      <c r="C20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21">
-        <v>50527</v>
-      </c>
-      <c r="C21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22">
-        <v>51076</v>
-      </c>
-      <c r="C22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23">
-        <v>51463</v>
-      </c>
-      <c r="C23" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>51542</v>
-      </c>
-      <c r="C24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25">
-        <v>53463</v>
-      </c>
-      <c r="C25" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="B26">
-        <v>57494</v>
-      </c>
-      <c r="C26" t="s">
-        <v>283</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36DC176-2795-4D98-8486-EB9747614DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3CF9E2-EF8F-48A0-9DDB-A8C8307F81C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="258">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2493,6 +2493,12 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="51" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2516,12 +2522,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="51" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="52" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2854,7 +2854,7 @@
   <dimension ref="A1:BI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2924,10 +2924,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="4">
-        <v>-30.1</v>
+        <v>-30.3</v>
       </c>
       <c r="H2" s="4">
-        <v>-24.7</v>
+        <v>-24.6</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
@@ -2946,148 +2946,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>-30.1</v>
+        <v>-30.3</v>
       </c>
       <c r="O2">
-        <v>-38.299999999999997</v>
+        <v>-37.6</v>
       </c>
       <c r="P2">
-        <v>-42.6</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="Q2">
-        <v>-36.9</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="R2">
-        <v>-32.1</v>
+        <v>-31.1</v>
       </c>
       <c r="S2" t="str">
         <v>无</v>
       </c>
       <c r="T2">
-        <v>-38.5</v>
+        <v>-41.8</v>
       </c>
       <c r="U2">
-        <v>-34.700000000000003</v>
+        <v>-38.799999999999997</v>
       </c>
       <c r="V2">
-        <v>-20.2</v>
+        <v>-28.1</v>
       </c>
       <c r="W2">
-        <v>-16.899999999999999</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="X2">
+        <v>-17.8</v>
+      </c>
+      <c r="Y2">
+        <v>-20.6</v>
+      </c>
+      <c r="Z2">
+        <v>-15.3</v>
+      </c>
+      <c r="AA2">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="AC2">
+        <v>-22.8</v>
+      </c>
+      <c r="AD2">
+        <v>-24.7</v>
+      </c>
+      <c r="AE2">
+        <v>-31.3</v>
+      </c>
+      <c r="AF2">
+        <v>-31.1</v>
+      </c>
+      <c r="AG2">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="AH2">
+        <v>-29.1</v>
+      </c>
+      <c r="AI2">
+        <v>-28.9</v>
+      </c>
+      <c r="AJ2">
+        <v>-25.7</v>
+      </c>
+      <c r="AK2">
+        <v>-25.9</v>
+      </c>
+      <c r="AL2">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="AM2">
+        <v>-31</v>
+      </c>
+      <c r="AN2">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="AO2">
+        <v>-19.5</v>
+      </c>
+      <c r="AP2">
+        <v>-11.8</v>
+      </c>
+      <c r="AQ2">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="AR2">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AS2">
+        <v>-2.8</v>
+      </c>
+      <c r="AT2">
+        <v>-12.8</v>
+      </c>
+      <c r="AU2">
+        <v>-25.9</v>
+      </c>
+      <c r="AV2">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AW2">
+        <v>-14.8</v>
+      </c>
+      <c r="AX2">
+        <v>-22.7</v>
+      </c>
+      <c r="AY2">
+        <v>-25.9</v>
+      </c>
+      <c r="AZ2">
+        <v>-14.8</v>
+      </c>
+      <c r="BA2">
+        <v>-23.5</v>
+      </c>
+      <c r="BB2">
+        <v>-31.4</v>
+      </c>
+      <c r="BC2">
+        <v>-26</v>
+      </c>
+      <c r="BD2">
+        <v>-20.8</v>
+      </c>
+      <c r="BE2">
         <v>-25.3</v>
       </c>
-      <c r="Y2">
-        <v>-21</v>
-      </c>
-      <c r="Z2">
-        <v>-26.2</v>
-      </c>
-      <c r="AA2">
-        <v>-28.6</v>
-      </c>
-      <c r="AB2">
-        <v>-22.6</v>
-      </c>
-      <c r="AC2">
-        <v>-26.5</v>
-      </c>
-      <c r="AD2">
-        <v>-35.4</v>
-      </c>
-      <c r="AE2">
-        <v>-30.3</v>
-      </c>
-      <c r="AF2">
-        <v>-36.700000000000003</v>
-      </c>
-      <c r="AG2">
-        <v>-33.1</v>
-      </c>
-      <c r="AH2">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="AI2">
-        <v>-36.9</v>
-      </c>
-      <c r="AJ2">
-        <v>-35.1</v>
-      </c>
-      <c r="AK2">
-        <v>-27.9</v>
-      </c>
-      <c r="AL2">
-        <v>-22.6</v>
-      </c>
-      <c r="AM2">
-        <v>-21.4</v>
-      </c>
-      <c r="AN2">
-        <v>-22.8</v>
-      </c>
-      <c r="AO2">
-        <v>-23.5</v>
-      </c>
-      <c r="AP2">
-        <v>-20.2</v>
-      </c>
-      <c r="AQ2">
-        <v>-38.200000000000003</v>
-      </c>
-      <c r="AR2">
-        <v>-21.5</v>
-      </c>
-      <c r="AS2">
-        <v>-1.9</v>
-      </c>
-      <c r="AT2">
+      <c r="BF2">
         <v>-17.899999999999999</v>
       </c>
-      <c r="AU2">
-        <v>-25</v>
-      </c>
-      <c r="AV2">
-        <v>-12</v>
-      </c>
-      <c r="AW2">
-        <v>-7.4</v>
-      </c>
-      <c r="AX2">
-        <v>-10</v>
-      </c>
-      <c r="AY2">
+      <c r="BG2">
+        <v>-11.3</v>
+      </c>
+      <c r="BH2">
         <v>-29.6</v>
       </c>
-      <c r="AZ2">
-        <v>-28</v>
-      </c>
-      <c r="BA2">
-        <v>-18.2</v>
-      </c>
-      <c r="BB2">
-        <v>-26.2</v>
-      </c>
-      <c r="BC2">
-        <v>-32.5</v>
-      </c>
-      <c r="BD2">
-        <v>-24.7</v>
-      </c>
-      <c r="BE2">
-        <v>-28.9</v>
-      </c>
-      <c r="BF2">
-        <v>-23.3</v>
-      </c>
-      <c r="BG2">
-        <v>-12.2</v>
-      </c>
-      <c r="BH2">
-        <v>-17.2</v>
-      </c>
       <c r="BI2">
-        <v>-19.5</v>
+        <v>-30.5</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3108,10 +3108,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>-38.299999999999997</v>
+        <v>-37.6</v>
       </c>
       <c r="H3" s="4">
-        <v>-24.9</v>
+        <v>-26.8</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>38</v>
@@ -3130,148 +3130,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>-24.7</v>
+        <v>-24.6</v>
       </c>
       <c r="O3">
-        <v>-24.9</v>
+        <v>-26.8</v>
       </c>
       <c r="P3">
-        <v>-28.5</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="Q3">
-        <v>-22.8</v>
+        <v>-22.9</v>
       </c>
       <c r="R3">
-        <v>-24.2</v>
+        <v>-24</v>
       </c>
       <c r="S3" t="str">
         <v>无</v>
       </c>
       <c r="T3">
-        <v>-26.2</v>
+        <v>-30.9</v>
       </c>
       <c r="U3">
-        <v>-24.9</v>
+        <v>-27</v>
       </c>
       <c r="V3">
-        <v>-17.899999999999999</v>
+        <v>-17.2</v>
       </c>
       <c r="W3">
+        <v>-18</v>
+      </c>
+      <c r="X3">
         <v>-14.3</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
+        <v>-14.1</v>
+      </c>
+      <c r="Z3">
+        <v>-12.3</v>
+      </c>
+      <c r="AA3">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="AB3">
+        <v>-12.7</v>
+      </c>
+      <c r="AC3">
+        <v>-17.3</v>
+      </c>
+      <c r="AD3">
         <v>-15</v>
       </c>
-      <c r="Y3">
-        <v>-10.6</v>
-      </c>
-      <c r="Z3">
-        <v>-12.1</v>
-      </c>
-      <c r="AA3">
+      <c r="AE3">
+        <v>-19.8</v>
+      </c>
+      <c r="AF3">
+        <v>-23.5</v>
+      </c>
+      <c r="AG3">
+        <v>-22.8</v>
+      </c>
+      <c r="AH3">
+        <v>-21.4</v>
+      </c>
+      <c r="AI3">
+        <v>-12.8</v>
+      </c>
+      <c r="AJ3">
+        <v>-17.8</v>
+      </c>
+      <c r="AK3">
+        <v>-17.2</v>
+      </c>
+      <c r="AL3">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AM3">
         <v>-18.100000000000001</v>
       </c>
-      <c r="AB3">
-        <v>-8.6</v>
-      </c>
-      <c r="AC3">
-        <v>-20</v>
-      </c>
-      <c r="AD3">
-        <v>-24.8</v>
-      </c>
-      <c r="AE3">
-        <v>-22.3</v>
-      </c>
-      <c r="AF3">
+      <c r="AN3">
         <v>-27.2</v>
       </c>
-      <c r="AG3">
-        <v>-23.4</v>
-      </c>
-      <c r="AH3">
-        <v>-22.7</v>
-      </c>
-      <c r="AI3">
-        <v>-17.5</v>
-      </c>
-      <c r="AJ3">
-        <v>-24.4</v>
-      </c>
-      <c r="AK3">
-        <v>-18.5</v>
-      </c>
-      <c r="AL3">
-        <v>-15.2</v>
-      </c>
-      <c r="AM3">
+      <c r="AO3">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="AP3">
+        <v>-1.7</v>
+      </c>
+      <c r="AQ3">
+        <v>-22.5</v>
+      </c>
+      <c r="AR3">
+        <v>-5.3</v>
+      </c>
+      <c r="AS3">
+        <v>15.6</v>
+      </c>
+      <c r="AT3">
+        <v>3.6</v>
+      </c>
+      <c r="AU3">
+        <v>-14.9</v>
+      </c>
+      <c r="AV3">
+        <v>-12.4</v>
+      </c>
+      <c r="AW3">
+        <v>-11.4</v>
+      </c>
+      <c r="AX3">
         <v>-12.9</v>
       </c>
-      <c r="AN3">
-        <v>-15</v>
-      </c>
-      <c r="AO3">
-        <v>-11</v>
-      </c>
-      <c r="AP3">
-        <v>-12.4</v>
-      </c>
-      <c r="AQ3">
-        <v>-24.8</v>
-      </c>
-      <c r="AR3">
-        <v>-10.7</v>
-      </c>
-      <c r="AS3">
-        <v>9</v>
-      </c>
-      <c r="AT3">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="AU3">
-        <v>-19.3</v>
-      </c>
-      <c r="AV3">
-        <v>-6.2</v>
-      </c>
-      <c r="AW3">
-        <v>-0.4</v>
-      </c>
-      <c r="AX3">
-        <v>-2.9</v>
-      </c>
       <c r="AY3">
-        <v>-13.5</v>
+        <v>-1.7</v>
       </c>
       <c r="AZ3">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="BA3">
-        <v>-13.1</v>
+        <v>-14.6</v>
       </c>
       <c r="BB3">
-        <v>-18.2</v>
+        <v>-22.5</v>
       </c>
       <c r="BC3">
-        <v>-6.1</v>
+        <v>-1</v>
       </c>
       <c r="BD3">
-        <v>-4.8</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="BE3">
-        <v>-12.7</v>
+        <v>-9.1</v>
       </c>
       <c r="BF3">
-        <v>-9.5</v>
+        <v>-1.7</v>
       </c>
       <c r="BG3">
-        <v>-2</v>
+        <v>-3.4</v>
       </c>
       <c r="BH3">
-        <v>-12.9</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="BI3">
-        <v>-12.6</v>
+        <v>-25.1</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3292,10 +3292,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>-42.6</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="H4" s="4">
-        <v>-28.5</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>117</v>
@@ -3328,10 +3328,10 @@
         <v>110</v>
       </c>
       <c r="G5" s="4">
-        <v>-36.9</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H5" s="4">
-        <v>-22.8</v>
+        <v>-22.9</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
@@ -3373,10 +3373,10 @@
         <v>179</v>
       </c>
       <c r="G6" s="4">
-        <v>-32.1</v>
+        <v>-31.1</v>
       </c>
       <c r="H6" s="4">
-        <v>-24.2</v>
+        <v>-24</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>115</v>
@@ -3463,10 +3463,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>-38.5</v>
+        <v>-41.8</v>
       </c>
       <c r="H8" s="4">
-        <v>-26.2</v>
+        <v>-30.9</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>120</v>
@@ -3506,10 +3506,10 @@
         <v>95</v>
       </c>
       <c r="G9" s="4">
-        <v>-34.700000000000003</v>
+        <v>-38.799999999999997</v>
       </c>
       <c r="H9" s="4">
-        <v>-24.9</v>
+        <v>-27</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>119</v>
@@ -3540,10 +3540,10 @@
         <v>102</v>
       </c>
       <c r="G10" s="4">
-        <v>-20.2</v>
+        <v>-28.1</v>
       </c>
       <c r="H10" s="4">
-        <v>-17.899999999999999</v>
+        <v>-17.2</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>100</v>
@@ -3574,10 +3574,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="4">
-        <v>-16.899999999999999</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H11" s="4">
-        <v>-14.3</v>
+        <v>-18</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>54</v>
@@ -3608,10 +3608,10 @@
         <v>87</v>
       </c>
       <c r="G12" s="4">
-        <v>-25.3</v>
+        <v>-17.8</v>
       </c>
       <c r="H12" s="4">
-        <v>-15</v>
+        <v>-14.3</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>28</v>
@@ -3642,10 +3642,10 @@
         <v>89</v>
       </c>
       <c r="G13" s="4">
-        <v>-21</v>
+        <v>-20.6</v>
       </c>
       <c r="H13" s="4">
-        <v>-10.6</v>
+        <v>-14.1</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
@@ -3676,10 +3676,10 @@
         <v>27</v>
       </c>
       <c r="G14" s="4">
-        <v>-26.2</v>
+        <v>-15.3</v>
       </c>
       <c r="H14" s="4">
-        <v>-12.1</v>
+        <v>-12.3</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
@@ -3710,10 +3710,10 @@
         <v>180</v>
       </c>
       <c r="G15" s="4">
-        <v>-28.6</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="H15" s="4">
-        <v>-18.100000000000001</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
@@ -3744,10 +3744,10 @@
         <v>99</v>
       </c>
       <c r="G16" s="4">
-        <v>-22.6</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="H16" s="4">
-        <v>-8.6</v>
+        <v>-12.7</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>96</v>
@@ -3778,10 +3778,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="4">
-        <v>-26.5</v>
+        <v>-22.8</v>
       </c>
       <c r="H17" s="4">
-        <v>-20</v>
+        <v>-17.3</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>161</v>
@@ -3812,10 +3812,10 @@
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>-35.4</v>
+        <v>-24.7</v>
       </c>
       <c r="H18" s="4">
-        <v>-24.8</v>
+        <v>-15</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
@@ -3846,10 +3846,10 @@
         <v>108</v>
       </c>
       <c r="G19" s="4">
-        <v>-30.3</v>
+        <v>-31.3</v>
       </c>
       <c r="H19" s="4">
-        <v>-22.3</v>
+        <v>-19.8</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>114</v>
@@ -3880,10 +3880,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="13">
-        <v>-36.700000000000003</v>
+        <v>-31.1</v>
       </c>
       <c r="H20" s="13">
-        <v>-27.2</v>
+        <v>-23.5</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
@@ -3914,10 +3914,10 @@
         <v>106</v>
       </c>
       <c r="G21" s="13">
-        <v>-33.1</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H21" s="13">
-        <v>-23.4</v>
+        <v>-22.8</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>115</v>
@@ -3948,10 +3948,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="13">
-        <v>-32.799999999999997</v>
+        <v>-29.1</v>
       </c>
       <c r="H22" s="13">
-        <v>-22.7</v>
+        <v>-21.4</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>40</v>
@@ -3984,10 +3984,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="13">
-        <v>-36.9</v>
+        <v>-28.9</v>
       </c>
       <c r="H23" s="13">
-        <v>-17.5</v>
+        <v>-12.8</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
@@ -4020,10 +4020,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="13">
-        <v>-35.1</v>
+        <v>-25.7</v>
       </c>
       <c r="H24" s="13">
-        <v>-24.4</v>
+        <v>-17.8</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -4054,10 +4054,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="4">
-        <v>-27.9</v>
+        <v>-25.9</v>
       </c>
       <c r="H25" s="4">
-        <v>-18.5</v>
+        <v>-17.2</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -4090,10 +4090,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>-22.6</v>
+        <v>-37.700000000000003</v>
       </c>
       <c r="H26" s="4">
-        <v>-15.2</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -4124,10 +4124,10 @@
         <v>181</v>
       </c>
       <c r="G27" s="4">
-        <v>-21.4</v>
+        <v>-31</v>
       </c>
       <c r="H27" s="4">
-        <v>-12.9</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
@@ -4158,10 +4158,10 @@
         <v>77</v>
       </c>
       <c r="G28" s="4">
-        <v>-22.8</v>
+        <v>-34.200000000000003</v>
       </c>
       <c r="H28" s="4">
-        <v>-15</v>
+        <v>-27.2</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
@@ -4194,10 +4194,10 @@
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <v>-23.5</v>
+        <v>-19.5</v>
       </c>
       <c r="H29" s="4">
-        <v>-11</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -4228,10 +4228,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>-20.2</v>
+        <v>-11.8</v>
       </c>
       <c r="H30" s="4">
-        <v>-12.4</v>
+        <v>-1.7</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
@@ -4264,10 +4264,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="4">
-        <v>-38.200000000000003</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="H31" s="4">
-        <v>-24.8</v>
+        <v>-22.5</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
@@ -4298,10 +4298,10 @@
         <v>66</v>
       </c>
       <c r="G32" s="4">
-        <v>-21.5</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="H32" s="4">
-        <v>-10.7</v>
+        <v>-5.3</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
@@ -4332,10 +4332,10 @@
         <v>253</v>
       </c>
       <c r="G33" s="4">
-        <v>-1.9</v>
+        <v>-2.8</v>
       </c>
       <c r="H33" s="4">
-        <v>9</v>
+        <v>15.6</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>250</v>
@@ -4366,10 +4366,10 @@
         <v>59</v>
       </c>
       <c r="G34" s="4">
-        <v>-17.899999999999999</v>
+        <v>-12.8</v>
       </c>
       <c r="H34" s="4">
-        <v>-2.2999999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
@@ -4400,10 +4400,10 @@
         <v>56</v>
       </c>
       <c r="G35" s="4">
-        <v>-25</v>
+        <v>-25.9</v>
       </c>
       <c r="H35" s="4">
-        <v>-19.3</v>
+        <v>-14.9</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
@@ -4434,10 +4434,10 @@
         <v>46</v>
       </c>
       <c r="G36" s="4">
-        <v>-12</v>
+        <v>-19.399999999999999</v>
       </c>
       <c r="H36" s="4">
-        <v>-6.2</v>
+        <v>-12.4</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>47</v>
@@ -4470,10 +4470,10 @@
         <v>49</v>
       </c>
       <c r="G37" s="4">
-        <v>-7.4</v>
+        <v>-14.8</v>
       </c>
       <c r="H37" s="4">
-        <v>-0.4</v>
+        <v>-11.4</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>45</v>
@@ -4506,10 +4506,10 @@
         <v>51</v>
       </c>
       <c r="G38" s="4">
-        <v>-10</v>
+        <v>-22.7</v>
       </c>
       <c r="H38" s="4">
-        <v>-2.9</v>
+        <v>-12.9</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
@@ -4540,10 +4540,10 @@
         <v>58</v>
       </c>
       <c r="G39" s="4">
-        <v>-29.6</v>
+        <v>-25.9</v>
       </c>
       <c r="H39" s="4">
-        <v>-13.5</v>
+        <v>-1.7</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
@@ -4574,10 +4574,10 @@
         <v>44</v>
       </c>
       <c r="G40" s="4">
-        <v>-28</v>
+        <v>-14.8</v>
       </c>
       <c r="H40" s="4">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>43</v>
@@ -4608,10 +4608,10 @@
         <v>74</v>
       </c>
       <c r="G41" s="4">
-        <v>-18.2</v>
+        <v>-23.5</v>
       </c>
       <c r="H41" s="4">
-        <v>-13.1</v>
+        <v>-14.6</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
@@ -4642,10 +4642,10 @@
         <v>72</v>
       </c>
       <c r="G42" s="4">
-        <v>-26.2</v>
+        <v>-31.4</v>
       </c>
       <c r="H42" s="4">
-        <v>-18.2</v>
+        <v>-22.5</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>2</v>
@@ -4676,10 +4676,10 @@
         <v>62</v>
       </c>
       <c r="G43" s="4">
-        <v>-32.5</v>
+        <v>-26</v>
       </c>
       <c r="H43" s="4">
-        <v>-6.1</v>
+        <v>-1</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
@@ -4710,10 +4710,10 @@
         <v>64</v>
       </c>
       <c r="G44" s="4">
-        <v>-24.7</v>
+        <v>-20.8</v>
       </c>
       <c r="H44" s="4">
-        <v>-4.8</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>65</v>
@@ -4744,10 +4744,10 @@
         <v>79</v>
       </c>
       <c r="G45" s="4">
-        <v>-28.9</v>
+        <v>-25.3</v>
       </c>
       <c r="H45" s="4">
-        <v>-12.7</v>
+        <v>-9.1</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>22</v>
@@ -4778,10 +4778,10 @@
         <v>81</v>
       </c>
       <c r="G46" s="4">
-        <v>-23.3</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="H46" s="4">
-        <v>-9.5</v>
+        <v>-1.7</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
@@ -4812,10 +4812,10 @@
         <v>83</v>
       </c>
       <c r="G47" s="4">
-        <v>-12.2</v>
+        <v>-11.3</v>
       </c>
       <c r="H47" s="4">
-        <v>-2</v>
+        <v>-3.4</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>21</v>
@@ -4848,10 +4848,10 @@
         <v>68</v>
       </c>
       <c r="G48" s="4">
-        <v>-17.2</v>
+        <v>-29.6</v>
       </c>
       <c r="H48" s="4">
-        <v>-12.9</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -4882,10 +4882,10 @@
         <v>70</v>
       </c>
       <c r="G49" s="4">
-        <v>-19.5</v>
+        <v>-30.5</v>
       </c>
       <c r="H49" s="4">
-        <v>-12.6</v>
+        <v>-25.1</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>2</v>
@@ -4928,34 +4928,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="59" t="s">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="62">
-        <v>45684</v>
-      </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="60" t="s">
+      <c r="F1" s="64">
+        <v>45686</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="61"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="58" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="I2" s="58"/>
+      <c r="I2" s="60"/>
       <c r="K2" s="21" t="s">
         <v>177</v>
       </c>
@@ -4967,7 +4967,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="57"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="51" t="s">
         <v>168</v>
       </c>
@@ -5003,7 +5003,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="57"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="54">
         <v>1</v>
       </c>
@@ -5018,10 +5018,10 @@
         <v>109</v>
       </c>
       <c r="G4" s="36">
-        <v>-30.1</v>
+        <v>-30.3</v>
       </c>
       <c r="H4" s="36">
-        <v>-24.7</v>
+        <v>-24.6</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>175</v>
@@ -5037,14 +5037,16 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="57"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="54">
         <v>2</v>
       </c>
       <c r="C5" s="52">
         <v>3</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="52">
+        <v>0</v>
+      </c>
       <c r="E5" s="32" t="s">
         <v>218</v>
       </c>
@@ -5052,44 +5054,42 @@
         <v>14</v>
       </c>
       <c r="G5" s="36">
-        <v>-38.299999999999997</v>
+        <v>-37.6</v>
       </c>
       <c r="H5" s="36">
-        <v>-24.9</v>
+        <v>-26.8</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="57"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="54">
         <v>3</v>
       </c>
       <c r="C6" s="52">
         <v>3</v>
       </c>
-      <c r="D6" s="52">
-        <v>0</v>
-      </c>
+      <c r="D6" s="52"/>
       <c r="E6" s="32" t="s">
         <v>217</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="65">
-        <v>-42.6</v>
-      </c>
-      <c r="H6" s="65">
-        <v>-28.5</v>
+      <c r="G6" s="36">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="H6" s="36">
+        <v>-19.899999999999999</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="57"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="54">
         <v>4</v>
       </c>
@@ -5104,17 +5104,17 @@
         <v>109</v>
       </c>
       <c r="G7" s="36">
-        <v>-36.9</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H7" s="36">
-        <v>-22.8</v>
+        <v>-22.9</v>
       </c>
       <c r="I7" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="57"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="54">
         <v>5</v>
       </c>
@@ -5128,18 +5128,18 @@
       <c r="F8" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="36">
-        <v>-32.1</v>
+      <c r="G8" s="58">
+        <v>-31.1</v>
       </c>
       <c r="H8" s="36">
-        <v>-24.2</v>
+        <v>-24</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="57"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="54">
         <v>6</v>
       </c>
@@ -5164,7 +5164,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="57"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="54">
         <v>7</v>
       </c>
@@ -5180,18 +5180,18 @@
       <c r="F10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="36">
-        <v>-38.5</v>
-      </c>
-      <c r="H10" s="36">
-        <v>-26.2</v>
+      <c r="G10" s="57">
+        <v>-41.8</v>
+      </c>
+      <c r="H10" s="57">
+        <v>-30.9</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="57"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="54">
         <v>8</v>
       </c>
@@ -5206,17 +5206,17 @@
         <v>94</v>
       </c>
       <c r="G11" s="36">
-        <v>-34.700000000000003</v>
+        <v>-38.799999999999997</v>
       </c>
       <c r="H11" s="36">
-        <v>-24.9</v>
+        <v>-27</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="57"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="54">
         <v>9</v>
       </c>
@@ -5231,17 +5231,17 @@
         <v>101</v>
       </c>
       <c r="G12" s="36">
-        <v>-20.2</v>
+        <v>-28.1</v>
       </c>
       <c r="H12" s="36">
-        <v>-17.899999999999999</v>
+        <v>-17.2</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="57"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="54">
         <v>10</v>
       </c>
@@ -5255,18 +5255,18 @@
       <c r="F13" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="66">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="H13" s="66">
-        <v>-14.3</v>
+      <c r="G13" s="58">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="H13" s="58">
+        <v>-18</v>
       </c>
       <c r="I13" s="34" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="57"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="54">
         <v>11</v>
       </c>
@@ -5281,17 +5281,17 @@
         <v>86</v>
       </c>
       <c r="G14" s="36">
-        <v>-25.3</v>
+        <v>-17.8</v>
       </c>
       <c r="H14" s="36">
-        <v>-15</v>
+        <v>-14.3</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="57"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="54">
         <v>12</v>
       </c>
@@ -5306,17 +5306,17 @@
         <v>88</v>
       </c>
       <c r="G15" s="36">
-        <v>-21</v>
+        <v>-20.6</v>
       </c>
       <c r="H15" s="36">
-        <v>-10.6</v>
+        <v>-14.1</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="57"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="54">
         <v>13</v>
       </c>
@@ -5331,17 +5331,17 @@
         <v>136</v>
       </c>
       <c r="G16" s="36">
-        <v>-26.2</v>
+        <v>-15.3</v>
       </c>
       <c r="H16" s="36">
-        <v>-12.1</v>
+        <v>-12.3</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="57"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="54">
         <v>14</v>
       </c>
@@ -5356,17 +5356,17 @@
         <v>182</v>
       </c>
       <c r="G17" s="36">
-        <v>-28.6</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="H17" s="36">
-        <v>-18.100000000000001</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="I17" s="34" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="57"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="54">
         <v>15</v>
       </c>
@@ -5381,17 +5381,17 @@
         <v>98</v>
       </c>
       <c r="G18" s="36">
-        <v>-22.6</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="H18" s="36">
-        <v>-8.6</v>
+        <v>-12.7</v>
       </c>
       <c r="I18" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="57"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="54">
         <v>16</v>
       </c>
@@ -5406,17 +5406,17 @@
         <v>6</v>
       </c>
       <c r="G19" s="36">
-        <v>-26.5</v>
+        <v>-22.8</v>
       </c>
       <c r="H19" s="36">
-        <v>-20</v>
+        <v>-17.3</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="57"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="54">
         <v>17</v>
       </c>
@@ -5431,17 +5431,17 @@
         <v>5</v>
       </c>
       <c r="G20" s="36">
-        <v>-35.4</v>
+        <v>-24.7</v>
       </c>
       <c r="H20" s="36">
-        <v>-24.8</v>
+        <v>-15</v>
       </c>
       <c r="I20" s="34" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="57"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="54">
         <v>18</v>
       </c>
@@ -5456,17 +5456,17 @@
         <v>107</v>
       </c>
       <c r="G21" s="36">
-        <v>-30.3</v>
+        <v>-31.3</v>
       </c>
       <c r="H21" s="36">
-        <v>-22.3</v>
+        <v>-19.8</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="57"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="54">
         <v>19</v>
       </c>
@@ -5481,17 +5481,17 @@
         <v>9</v>
       </c>
       <c r="G22" s="36">
-        <v>-36.700000000000003</v>
+        <v>-31.1</v>
       </c>
       <c r="H22" s="36">
-        <v>-27.2</v>
+        <v>-23.5</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="57"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="54">
         <v>20</v>
       </c>
@@ -5506,17 +5506,17 @@
         <v>105</v>
       </c>
       <c r="G23" s="36">
-        <v>-33.1</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H23" s="36">
-        <v>-23.4</v>
+        <v>-22.8</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="57"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="54">
         <v>21</v>
       </c>
@@ -5531,17 +5531,17 @@
         <v>12</v>
       </c>
       <c r="G24" s="36">
-        <v>-32.799999999999997</v>
+        <v>-29.1</v>
       </c>
       <c r="H24" s="36">
-        <v>-22.7</v>
+        <v>-21.4</v>
       </c>
       <c r="I24" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="57"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="54">
         <v>22</v>
       </c>
@@ -5556,17 +5556,17 @@
         <v>13</v>
       </c>
       <c r="G25" s="36">
-        <v>-36.9</v>
+        <v>-28.9</v>
       </c>
       <c r="H25" s="36">
-        <v>-17.5</v>
+        <v>-12.8</v>
       </c>
       <c r="I25" s="34" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="57"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="54">
         <v>23</v>
       </c>
@@ -5581,17 +5581,17 @@
         <v>10</v>
       </c>
       <c r="G26" s="36">
-        <v>-35.1</v>
+        <v>-25.7</v>
       </c>
       <c r="H26" s="36">
-        <v>-24.4</v>
+        <v>-17.8</v>
       </c>
       <c r="I26" s="34" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="57"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="54">
         <v>24</v>
       </c>
@@ -5606,24 +5606,26 @@
         <v>11</v>
       </c>
       <c r="G27" s="36">
-        <v>-27.9</v>
+        <v>-25.9</v>
       </c>
       <c r="H27" s="36">
-        <v>-18.5</v>
+        <v>-17.2</v>
       </c>
       <c r="I27" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="57"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="54">
         <v>25</v>
       </c>
       <c r="C28" s="52">
         <v>1</v>
       </c>
-      <c r="D28" s="52"/>
+      <c r="D28" s="52">
+        <v>0</v>
+      </c>
       <c r="E28" s="30" t="s">
         <v>214</v>
       </c>
@@ -5631,17 +5633,17 @@
         <v>137</v>
       </c>
       <c r="G28" s="36">
-        <v>-22.6</v>
+        <v>-37.700000000000003</v>
       </c>
       <c r="H28" s="36">
-        <v>-15.2</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="I28" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="57"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="54">
         <v>26</v>
       </c>
@@ -5656,24 +5658,26 @@
         <v>183</v>
       </c>
       <c r="G29" s="36">
-        <v>-21.4</v>
+        <v>-31</v>
       </c>
       <c r="H29" s="36">
-        <v>-12.9</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="I29" s="34" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="57"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="54">
         <v>27</v>
       </c>
       <c r="C30" s="52">
         <v>1</v>
       </c>
-      <c r="D30" s="52"/>
+      <c r="D30" s="52">
+        <v>0</v>
+      </c>
       <c r="E30" s="30" t="s">
         <v>215</v>
       </c>
@@ -5681,17 +5685,17 @@
         <v>76</v>
       </c>
       <c r="G30" s="36">
-        <v>-22.8</v>
+        <v>-34.200000000000003</v>
       </c>
       <c r="H30" s="36">
-        <v>-15</v>
+        <v>-27.2</v>
       </c>
       <c r="I30" s="34" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="57"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="54">
         <v>28</v>
       </c>
@@ -5708,17 +5712,17 @@
         <v>103</v>
       </c>
       <c r="G31" s="36">
-        <v>-23.5</v>
+        <v>-19.5</v>
       </c>
       <c r="H31" s="36">
-        <v>-11</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="I31" s="34" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="57"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="54">
         <v>29</v>
       </c>
@@ -5733,17 +5737,17 @@
         <v>84</v>
       </c>
       <c r="G32" s="36">
-        <v>-20.2</v>
+        <v>-11.8</v>
       </c>
       <c r="H32" s="36">
-        <v>-12.4</v>
+        <v>-1.7</v>
       </c>
       <c r="I32" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="57"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="54">
         <v>30</v>
       </c>
@@ -5760,17 +5764,17 @@
         <v>4</v>
       </c>
       <c r="G33" s="36">
-        <v>-38.200000000000003</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="H33" s="36">
-        <v>-24.8</v>
+        <v>-22.5</v>
       </c>
       <c r="I33" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="57"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="54">
         <v>31</v>
       </c>
@@ -5785,24 +5789,26 @@
         <v>139</v>
       </c>
       <c r="G34" s="36">
-        <v>-21.5</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="H34" s="36">
-        <v>-10.7</v>
+        <v>-5.3</v>
       </c>
       <c r="I34" s="34" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="57"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="54">
         <v>32</v>
       </c>
       <c r="C35" s="52">
         <v>1</v>
       </c>
-      <c r="D35" s="52"/>
+      <c r="D35" s="52">
+        <v>0</v>
+      </c>
       <c r="E35" s="30" t="s">
         <v>249</v>
       </c>
@@ -5810,17 +5816,17 @@
         <v>253</v>
       </c>
       <c r="G35" s="36">
-        <v>-1.9</v>
+        <v>-2.8</v>
       </c>
       <c r="H35" s="36">
-        <v>9</v>
+        <v>15.6</v>
       </c>
       <c r="I35" s="34" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="57"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="54">
         <v>33</v>
       </c>
@@ -5835,15 +5841,15 @@
         <v>140</v>
       </c>
       <c r="G36" s="36">
-        <v>-17.899999999999999</v>
+        <v>-12.8</v>
       </c>
       <c r="H36" s="36">
-        <v>-2.2999999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="57"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="54">
         <v>34</v>
       </c>
@@ -5860,15 +5866,15 @@
         <v>141</v>
       </c>
       <c r="G37" s="36">
-        <v>-25</v>
+        <v>-25.9</v>
       </c>
       <c r="H37" s="36">
-        <v>-19.3</v>
+        <v>-14.9</v>
       </c>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="57"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="54">
         <v>35</v>
       </c>
@@ -5885,17 +5891,17 @@
         <v>142</v>
       </c>
       <c r="G38" s="36">
-        <v>-12</v>
+        <v>-19.399999999999999</v>
       </c>
       <c r="H38" s="36">
-        <v>-6.2</v>
+        <v>-12.4</v>
       </c>
       <c r="I38" s="34" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="57"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="54">
         <v>36</v>
       </c>
@@ -5912,17 +5918,17 @@
         <v>143</v>
       </c>
       <c r="G39" s="36">
-        <v>-7.4</v>
+        <v>-14.8</v>
       </c>
       <c r="H39" s="36">
-        <v>-0.4</v>
+        <v>-11.4</v>
       </c>
       <c r="I39" s="34" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="57"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="54">
         <v>37</v>
       </c>
@@ -5939,15 +5945,15 @@
         <v>144</v>
       </c>
       <c r="G40" s="36">
-        <v>-10</v>
+        <v>-22.7</v>
       </c>
       <c r="H40" s="36">
-        <v>-2.9</v>
+        <v>-12.9</v>
       </c>
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="57"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="54">
         <v>38</v>
       </c>
@@ -5964,24 +5970,22 @@
         <v>145</v>
       </c>
       <c r="G41" s="36">
-        <v>-29.6</v>
+        <v>-25.9</v>
       </c>
       <c r="H41" s="36">
-        <v>-13.5</v>
+        <v>-1.7</v>
       </c>
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="57"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="54">
         <v>39</v>
       </c>
       <c r="C42" s="52">
         <v>1</v>
       </c>
-      <c r="D42" s="52">
-        <v>0</v>
-      </c>
+      <c r="D42" s="52"/>
       <c r="E42" s="30" t="s">
         <v>209</v>
       </c>
@@ -5989,17 +5993,17 @@
         <v>146</v>
       </c>
       <c r="G42" s="36">
-        <v>-28</v>
+        <v>-14.8</v>
       </c>
       <c r="H42" s="36">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="I42" s="34" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="57"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="54">
         <v>40</v>
       </c>
@@ -6014,26 +6018,24 @@
         <v>73</v>
       </c>
       <c r="G43" s="36">
-        <v>-18.2</v>
+        <v>-23.5</v>
       </c>
       <c r="H43" s="36">
-        <v>-13.1</v>
+        <v>-14.6</v>
       </c>
       <c r="I43" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="57"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="54">
         <v>41</v>
       </c>
       <c r="C44" s="52">
         <v>1</v>
       </c>
-      <c r="D44" s="52">
-        <v>0</v>
-      </c>
+      <c r="D44" s="52"/>
       <c r="E44" s="30" t="s">
         <v>208</v>
       </c>
@@ -6041,26 +6043,24 @@
         <v>71</v>
       </c>
       <c r="G44" s="36">
-        <v>-26.2</v>
+        <v>-31.4</v>
       </c>
       <c r="H44" s="36">
-        <v>-18.2</v>
+        <v>-22.5</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="57"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="54">
         <v>42</v>
       </c>
       <c r="C45" s="52">
         <v>1</v>
       </c>
-      <c r="D45" s="52">
-        <v>0</v>
-      </c>
+      <c r="D45" s="52"/>
       <c r="E45" s="30" t="s">
         <v>199</v>
       </c>
@@ -6068,17 +6068,17 @@
         <v>147</v>
       </c>
       <c r="G45" s="36">
-        <v>-32.5</v>
+        <v>-26</v>
       </c>
       <c r="H45" s="36">
-        <v>-6.1</v>
+        <v>-1</v>
       </c>
       <c r="I45" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="57"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="54">
         <v>43</v>
       </c>
@@ -6093,17 +6093,17 @@
         <v>148</v>
       </c>
       <c r="G46" s="36">
-        <v>-24.7</v>
+        <v>-20.8</v>
       </c>
       <c r="H46" s="36">
-        <v>-4.8</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="57"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="54">
         <v>44</v>
       </c>
@@ -6118,17 +6118,17 @@
         <v>78</v>
       </c>
       <c r="G47" s="36">
-        <v>-28.9</v>
+        <v>-25.3</v>
       </c>
       <c r="H47" s="36">
-        <v>-12.7</v>
+        <v>-9.1</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="57"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="54">
         <v>45</v>
       </c>
@@ -6143,17 +6143,17 @@
         <v>80</v>
       </c>
       <c r="G48" s="36">
-        <v>-23.3</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="H48" s="36">
-        <v>-9.5</v>
+        <v>-1.7</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="57"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="54">
         <v>46</v>
       </c>
@@ -6168,17 +6168,17 @@
         <v>82</v>
       </c>
       <c r="G49" s="36">
-        <v>-12.2</v>
+        <v>-11.3</v>
       </c>
       <c r="H49" s="36">
-        <v>-2</v>
+        <v>-3.4</v>
       </c>
       <c r="I49" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="57"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="54">
         <v>47</v>
       </c>
@@ -6193,17 +6193,17 @@
         <v>67</v>
       </c>
       <c r="G50" s="36">
-        <v>-17.2</v>
+        <v>-29.6</v>
       </c>
       <c r="H50" s="36">
-        <v>-12.9</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="I50" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="57"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="54">
         <v>48</v>
       </c>
@@ -6218,20 +6218,20 @@
         <v>69</v>
       </c>
       <c r="G51" s="36">
-        <v>-19.5</v>
+        <v>-30.5</v>
       </c>
       <c r="H51" s="36">
-        <v>-12.6</v>
+        <v>-25.1</v>
       </c>
       <c r="I51" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="57"/>
+      <c r="A52" s="59"/>
     </row>
     <row r="53" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="57"/>
+      <c r="A53" s="59"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I51">
@@ -6280,8 +6280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6452CB3-0983-4391-8A7D-2C5221219E76}">
   <dimension ref="A1:AW79"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -11788,10 +11788,298 @@
       <c r="A38" s="16">
         <v>45685</v>
       </c>
+      <c r="B38">
+        <v>-35.4</v>
+      </c>
+      <c r="C38">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="D38">
+        <v>-38.4</v>
+      </c>
+      <c r="E38">
+        <v>-29.2</v>
+      </c>
+      <c r="F38">
+        <v>-36.6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>247</v>
+      </c>
+      <c r="H38">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="I38">
+        <v>-36.1</v>
+      </c>
+      <c r="J38">
+        <v>-24.8</v>
+      </c>
+      <c r="K38">
+        <v>-27.8</v>
+      </c>
+      <c r="L38">
+        <v>-27.4</v>
+      </c>
+      <c r="M38">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="N38">
+        <v>-17.5</v>
+      </c>
+      <c r="O38">
+        <v>-29.1</v>
+      </c>
+      <c r="P38">
+        <v>-19.7</v>
+      </c>
+      <c r="Q38">
+        <v>-26.5</v>
+      </c>
+      <c r="R38">
+        <v>-31.5</v>
+      </c>
+      <c r="S38">
+        <v>-31.8</v>
+      </c>
+      <c r="T38">
+        <v>-34.5</v>
+      </c>
+      <c r="U38">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="V38">
+        <v>-30.7</v>
+      </c>
+      <c r="W38">
+        <v>-29.8</v>
+      </c>
+      <c r="X38">
+        <v>-30.6</v>
+      </c>
+      <c r="Y38">
+        <v>-24.2</v>
+      </c>
+      <c r="Z38">
+        <v>-29.4</v>
+      </c>
+      <c r="AA38">
+        <v>-33</v>
+      </c>
+      <c r="AB38">
+        <v>-31</v>
+      </c>
+      <c r="AC38">
+        <v>-21</v>
+      </c>
+      <c r="AD38">
+        <v>-18.3</v>
+      </c>
+      <c r="AE38">
+        <v>-36.9</v>
+      </c>
+      <c r="AF38">
+        <v>-22.1</v>
+      </c>
+      <c r="AG38">
+        <v>-3.7</v>
+      </c>
+      <c r="AH38">
+        <v>-17.3</v>
+      </c>
+      <c r="AI38">
+        <v>-29.8</v>
+      </c>
+      <c r="AJ38">
+        <v>-12.4</v>
+      </c>
+      <c r="AK38">
+        <v>-11.8</v>
+      </c>
+      <c r="AL38">
+        <v>-12.9</v>
+      </c>
+      <c r="AM38">
+        <v>-30.2</v>
+      </c>
+      <c r="AN38">
+        <v>-25.9</v>
+      </c>
+      <c r="AO38">
+        <v>-21.1</v>
+      </c>
+      <c r="AP38">
+        <v>-30.5</v>
+      </c>
+      <c r="AQ38">
+        <v>-30.5</v>
+      </c>
+      <c r="AR38">
+        <v>-22.9</v>
+      </c>
+      <c r="AS38">
+        <v>-26</v>
+      </c>
+      <c r="AT38">
+        <v>-20</v>
+      </c>
+      <c r="AU38">
+        <v>-11.8</v>
+      </c>
+      <c r="AV38">
+        <v>-29.6</v>
+      </c>
+      <c r="AW38">
+        <v>-29.7</v>
+      </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>45686</v>
+      </c>
+      <c r="B39">
+        <v>-30.3</v>
+      </c>
+      <c r="C39">
+        <v>-37.6</v>
+      </c>
+      <c r="D39">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="E39">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="F39">
+        <v>-31.1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>247</v>
+      </c>
+      <c r="H39">
+        <v>-41.8</v>
+      </c>
+      <c r="I39">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="J39">
+        <v>-28.1</v>
+      </c>
+      <c r="K39">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="L39">
+        <v>-17.8</v>
+      </c>
+      <c r="M39">
+        <v>-20.6</v>
+      </c>
+      <c r="N39">
+        <v>-15.3</v>
+      </c>
+      <c r="O39">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="P39">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="Q39">
+        <v>-22.8</v>
+      </c>
+      <c r="R39">
+        <v>-24.7</v>
+      </c>
+      <c r="S39">
+        <v>-31.3</v>
+      </c>
+      <c r="T39">
+        <v>-31.1</v>
+      </c>
+      <c r="U39">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="V39">
+        <v>-29.1</v>
+      </c>
+      <c r="W39">
+        <v>-28.9</v>
+      </c>
+      <c r="X39">
+        <v>-25.7</v>
+      </c>
+      <c r="Y39">
+        <v>-25.9</v>
+      </c>
+      <c r="Z39">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="AA39">
+        <v>-31</v>
+      </c>
+      <c r="AB39">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="AC39">
+        <v>-19.5</v>
+      </c>
+      <c r="AD39">
+        <v>-11.8</v>
+      </c>
+      <c r="AE39">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="AF39">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AG39">
+        <v>-2.8</v>
+      </c>
+      <c r="AH39">
+        <v>-12.8</v>
+      </c>
+      <c r="AI39">
+        <v>-25.9</v>
+      </c>
+      <c r="AJ39">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AK39">
+        <v>-14.8</v>
+      </c>
+      <c r="AL39">
+        <v>-22.7</v>
+      </c>
+      <c r="AM39">
+        <v>-25.9</v>
+      </c>
+      <c r="AN39">
+        <v>-14.8</v>
+      </c>
+      <c r="AO39">
+        <v>-23.5</v>
+      </c>
+      <c r="AP39">
+        <v>-31.4</v>
+      </c>
+      <c r="AQ39">
+        <v>-26</v>
+      </c>
+      <c r="AR39">
+        <v>-20.8</v>
+      </c>
+      <c r="AS39">
+        <v>-25.3</v>
+      </c>
+      <c r="AT39">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AU39">
+        <v>-11.3</v>
+      </c>
+      <c r="AV39">
+        <v>-29.6</v>
+      </c>
+      <c r="AW39">
+        <v>-30.5</v>
       </c>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.4">
@@ -11984,8 +12272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFE5A94-8276-425C-8C4C-F53ED14714E0}">
   <dimension ref="A1:AW79"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AG39" sqref="AG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -17370,8 +17658,8 @@
       <c r="J37">
         <v>-17.899999999999999</v>
       </c>
-      <c r="K37" t="s">
-        <v>247</v>
+      <c r="K37">
+        <v>-13.2</v>
       </c>
       <c r="L37">
         <v>-15</v>
@@ -17492,10 +17780,298 @@
       <c r="A38" s="16">
         <v>45685</v>
       </c>
+      <c r="B38">
+        <v>-26.3</v>
+      </c>
+      <c r="C38">
+        <v>-23.6</v>
+      </c>
+      <c r="D38">
+        <v>-15.8</v>
+      </c>
+      <c r="E38">
+        <v>-24</v>
+      </c>
+      <c r="F38">
+        <v>-25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>247</v>
+      </c>
+      <c r="H38">
+        <v>-24</v>
+      </c>
+      <c r="I38">
+        <v>-25.1</v>
+      </c>
+      <c r="J38">
+        <v>-18</v>
+      </c>
+      <c r="K38">
+        <v>-15.1</v>
+      </c>
+      <c r="L38">
+        <v>-15</v>
+      </c>
+      <c r="M38">
+        <v>-13.8</v>
+      </c>
+      <c r="N38">
+        <v>-12.1</v>
+      </c>
+      <c r="O38">
+        <v>-16.7</v>
+      </c>
+      <c r="P38">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="Q38">
+        <v>-21.5</v>
+      </c>
+      <c r="R38">
+        <v>-21.2</v>
+      </c>
+      <c r="S38">
+        <v>-22.9</v>
+      </c>
+      <c r="T38">
+        <v>-24.9</v>
+      </c>
+      <c r="U38">
+        <v>-22.6</v>
+      </c>
+      <c r="V38">
+        <v>-22.7</v>
+      </c>
+      <c r="W38">
+        <v>-15.1</v>
+      </c>
+      <c r="X38">
+        <v>-21.1</v>
+      </c>
+      <c r="Y38">
+        <v>-14.9</v>
+      </c>
+      <c r="Z38">
+        <v>-16.5</v>
+      </c>
+      <c r="AA38">
+        <v>-17.2</v>
+      </c>
+      <c r="AB38">
+        <v>-22.5</v>
+      </c>
+      <c r="AC38">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="AD38">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AE38">
+        <v>-23.1</v>
+      </c>
+      <c r="AF38">
+        <v>-9.6</v>
+      </c>
+      <c r="AG38">
+        <v>11.1</v>
+      </c>
+      <c r="AH38">
+        <v>0.7</v>
+      </c>
+      <c r="AI38">
+        <v>-14.8</v>
+      </c>
+      <c r="AJ38">
+        <v>-8.1</v>
+      </c>
+      <c r="AK38">
+        <v>-0.3</v>
+      </c>
+      <c r="AL38">
+        <v>-10</v>
+      </c>
+      <c r="AM38">
+        <v>-8.5</v>
+      </c>
+      <c r="AN38">
+        <v>-12.2</v>
+      </c>
+      <c r="AO38">
+        <v>-13.2</v>
+      </c>
+      <c r="AP38">
+        <v>-22.3</v>
+      </c>
+      <c r="AQ38">
+        <v>-5.6</v>
+      </c>
+      <c r="AR38">
+        <v>-3.7</v>
+      </c>
+      <c r="AS38">
+        <v>-10</v>
+      </c>
+      <c r="AT38">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AU38">
+        <v>-3.3</v>
+      </c>
+      <c r="AV38">
+        <v>-16.7</v>
+      </c>
+      <c r="AW38">
+        <v>-19.399999999999999</v>
+      </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>45686</v>
+      </c>
+      <c r="B39">
+        <v>-24.6</v>
+      </c>
+      <c r="C39">
+        <v>-26.8</v>
+      </c>
+      <c r="D39">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="E39">
+        <v>-22.9</v>
+      </c>
+      <c r="F39">
+        <v>-24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>247</v>
+      </c>
+      <c r="H39">
+        <v>-30.9</v>
+      </c>
+      <c r="I39">
+        <v>-27</v>
+      </c>
+      <c r="J39">
+        <v>-17.2</v>
+      </c>
+      <c r="K39">
+        <v>-18</v>
+      </c>
+      <c r="L39">
+        <v>-14.3</v>
+      </c>
+      <c r="M39">
+        <v>-14.1</v>
+      </c>
+      <c r="N39">
+        <v>-12.3</v>
+      </c>
+      <c r="O39">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="P39">
+        <v>-12.7</v>
+      </c>
+      <c r="Q39">
+        <v>-17.3</v>
+      </c>
+      <c r="R39">
+        <v>-15</v>
+      </c>
+      <c r="S39">
+        <v>-19.8</v>
+      </c>
+      <c r="T39">
+        <v>-23.5</v>
+      </c>
+      <c r="U39">
+        <v>-22.8</v>
+      </c>
+      <c r="V39">
+        <v>-21.4</v>
+      </c>
+      <c r="W39">
+        <v>-12.8</v>
+      </c>
+      <c r="X39">
+        <v>-17.8</v>
+      </c>
+      <c r="Y39">
+        <v>-17.2</v>
+      </c>
+      <c r="Z39">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AA39">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AB39">
+        <v>-27.2</v>
+      </c>
+      <c r="AC39">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="AD39">
+        <v>-1.7</v>
+      </c>
+      <c r="AE39">
+        <v>-22.5</v>
+      </c>
+      <c r="AF39">
+        <v>-5.3</v>
+      </c>
+      <c r="AG39">
+        <v>15.6</v>
+      </c>
+      <c r="AH39">
+        <v>3.6</v>
+      </c>
+      <c r="AI39">
+        <v>-14.9</v>
+      </c>
+      <c r="AJ39">
+        <v>-12.4</v>
+      </c>
+      <c r="AK39">
+        <v>-11.4</v>
+      </c>
+      <c r="AL39">
+        <v>-12.9</v>
+      </c>
+      <c r="AM39">
+        <v>-1.7</v>
+      </c>
+      <c r="AN39">
+        <v>-13</v>
+      </c>
+      <c r="AO39">
+        <v>-14.6</v>
+      </c>
+      <c r="AP39">
+        <v>-22.5</v>
+      </c>
+      <c r="AQ39">
+        <v>-1</v>
+      </c>
+      <c r="AR39">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AS39">
+        <v>-9.1</v>
+      </c>
+      <c r="AT39">
+        <v>-1.7</v>
+      </c>
+      <c r="AU39">
+        <v>-3.4</v>
+      </c>
+      <c r="AV39">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AW39">
+        <v>-25.1</v>
       </c>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.4">

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3CF9E2-EF8F-48A0-9DDB-A8C8307F81C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793A6F94-BAE5-45C1-947E-1B5C2345B780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="257">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,10 +669,6 @@
   </si>
   <si>
     <t>高温TRANSPOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1673,7 +1669,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2142,6 +2138,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2321,7 +2326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2499,6 +2504,9 @@
     <xf numFmtId="176" fontId="52" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="176" fontId="53" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2531,16 +2539,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF63BE7B"/>
-      <color rgb="FF710000"/>
-      <color rgb="FFC36F09"/>
+      <color rgb="FF3A0CA3"/>
+      <color rgb="FFBF3100"/>
+      <color rgb="FFEC9F05"/>
+      <color rgb="FF8EA604"/>
+      <color rgb="FF3C1518"/>
+      <color rgb="FF69140E"/>
+      <color rgb="FFA44200"/>
+      <color rgb="FFF72585"/>
       <color rgb="FF4CC9F0"/>
-      <color rgb="FF480CA8"/>
-      <color rgb="FF3A0CA3"/>
-      <color rgb="FFF72585"/>
-      <color rgb="FFD90429"/>
-      <color rgb="FF6FFFE9"/>
-      <color rgb="FF2D6A4F"/>
+      <color rgb="FF4361EE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2854,7 +2862,7 @@
   <dimension ref="A1:BI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2924,10 +2932,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="4">
-        <v>-30.3</v>
+        <v>-35</v>
       </c>
       <c r="H2" s="4">
-        <v>-24.6</v>
+        <v>-22.4</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
@@ -2946,148 +2954,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>-30.3</v>
+        <v>-35</v>
       </c>
       <c r="O2">
-        <v>-37.6</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="P2">
-        <v>-32.799999999999997</v>
+        <v>-36.5</v>
       </c>
       <c r="Q2">
-        <v>-33.799999999999997</v>
+        <v>-30.4</v>
       </c>
       <c r="R2">
-        <v>-31.1</v>
+        <v>-34.9</v>
       </c>
       <c r="S2" t="str">
         <v>无</v>
       </c>
       <c r="T2">
-        <v>-41.8</v>
+        <v>-39.9</v>
       </c>
       <c r="U2">
-        <v>-38.799999999999997</v>
+        <v>-40.799999999999997</v>
       </c>
       <c r="V2">
-        <v>-28.1</v>
+        <v>-30.9</v>
       </c>
       <c r="W2">
-        <v>-33.799999999999997</v>
+        <v>-37.200000000000003</v>
       </c>
       <c r="X2">
-        <v>-17.8</v>
+        <v>-24.1</v>
       </c>
       <c r="Y2">
-        <v>-20.6</v>
+        <v>-25.5</v>
       </c>
       <c r="Z2">
-        <v>-15.3</v>
+        <v>-24</v>
       </c>
       <c r="AA2">
-        <v>-17.600000000000001</v>
+        <v>-22.2</v>
       </c>
       <c r="AB2">
-        <v>-16.100000000000001</v>
+        <v>-24.8</v>
       </c>
       <c r="AC2">
-        <v>-22.8</v>
+        <v>-23.1</v>
       </c>
       <c r="AD2">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="AE2">
+        <v>-30.9</v>
+      </c>
+      <c r="AF2">
+        <v>-30.3</v>
+      </c>
+      <c r="AG2">
+        <v>-30.1</v>
+      </c>
+      <c r="AH2">
         <v>-24.7</v>
       </c>
-      <c r="AE2">
-        <v>-31.3</v>
-      </c>
-      <c r="AF2">
-        <v>-31.1</v>
-      </c>
-      <c r="AG2">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="AH2">
-        <v>-29.1</v>
-      </c>
       <c r="AI2">
-        <v>-28.9</v>
+        <v>-36.1</v>
       </c>
       <c r="AJ2">
-        <v>-25.7</v>
+        <v>-27.1</v>
       </c>
       <c r="AK2">
-        <v>-25.9</v>
+        <v>-23.2</v>
       </c>
       <c r="AL2">
-        <v>-37.700000000000003</v>
+        <v>-38.299999999999997</v>
       </c>
       <c r="AM2">
-        <v>-31</v>
+        <v>-37.9</v>
       </c>
       <c r="AN2">
-        <v>-34.200000000000003</v>
+        <v>-33.9</v>
       </c>
       <c r="AO2">
-        <v>-19.5</v>
+        <v>-25</v>
       </c>
       <c r="AP2">
-        <v>-11.8</v>
+        <v>-13.1</v>
       </c>
       <c r="AQ2">
-        <v>-35.799999999999997</v>
+        <v>-35.9</v>
       </c>
       <c r="AR2">
-        <v>-18.100000000000001</v>
+        <v>-20.3</v>
       </c>
       <c r="AS2">
-        <v>-2.8</v>
+        <v>-6.2</v>
       </c>
       <c r="AT2">
-        <v>-12.8</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="AU2">
-        <v>-25.9</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="AV2">
-        <v>-19.399999999999999</v>
+        <v>-20</v>
       </c>
       <c r="AW2">
-        <v>-14.8</v>
+        <v>-26.7</v>
       </c>
       <c r="AX2">
-        <v>-22.7</v>
+        <v>-31.4</v>
       </c>
       <c r="AY2">
-        <v>-25.9</v>
+        <v>-26.5</v>
       </c>
       <c r="AZ2">
-        <v>-14.8</v>
+        <v>-30.8</v>
       </c>
       <c r="BA2">
-        <v>-23.5</v>
+        <v>-29.2</v>
       </c>
       <c r="BB2">
-        <v>-31.4</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="BC2">
-        <v>-26</v>
+        <v>-24.7</v>
       </c>
       <c r="BD2">
-        <v>-20.8</v>
+        <v>-13.9</v>
       </c>
       <c r="BE2">
-        <v>-25.3</v>
+        <v>-26.9</v>
       </c>
       <c r="BF2">
-        <v>-17.899999999999999</v>
+        <v>-21.4</v>
       </c>
       <c r="BG2">
-        <v>-11.3</v>
+        <v>-9.9</v>
       </c>
       <c r="BH2">
-        <v>-29.6</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="BI2">
-        <v>-30.5</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3108,10 +3116,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>-37.6</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="H3" s="4">
-        <v>-26.8</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>38</v>
@@ -3130,148 +3138,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>-24.6</v>
+        <v>-22.4</v>
       </c>
       <c r="O3">
-        <v>-26.8</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="P3">
-        <v>-19.899999999999999</v>
+        <v>-22.4</v>
       </c>
       <c r="Q3">
-        <v>-22.9</v>
+        <v>-14.1</v>
       </c>
       <c r="R3">
-        <v>-24</v>
+        <v>-20.9</v>
       </c>
       <c r="S3" t="str">
         <v>无</v>
       </c>
       <c r="T3">
-        <v>-30.9</v>
+        <v>-25.7</v>
       </c>
       <c r="U3">
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="V3">
+        <v>-12.7</v>
+      </c>
+      <c r="W3">
+        <v>-14.6</v>
+      </c>
+      <c r="X3">
+        <v>-11.4</v>
+      </c>
+      <c r="Y3">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="Z3">
+        <v>-8.6</v>
+      </c>
+      <c r="AA3">
+        <v>-11.5</v>
+      </c>
+      <c r="AB3">
+        <v>-13</v>
+      </c>
+      <c r="AC3">
+        <v>-15.2</v>
+      </c>
+      <c r="AD3">
+        <v>-21.9</v>
+      </c>
+      <c r="AE3">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="AF3">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="AG3">
+        <v>-19.3</v>
+      </c>
+      <c r="AH3">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="AI3">
+        <v>-13.3</v>
+      </c>
+      <c r="AJ3">
+        <v>-12.7</v>
+      </c>
+      <c r="AK3">
+        <v>-10.9</v>
+      </c>
+      <c r="AL3">
+        <v>-14</v>
+      </c>
+      <c r="AM3">
         <v>-17.2</v>
       </c>
-      <c r="W3">
-        <v>-18</v>
-      </c>
-      <c r="X3">
-        <v>-14.3</v>
-      </c>
-      <c r="Y3">
-        <v>-14.1</v>
-      </c>
-      <c r="Z3">
-        <v>-12.3</v>
-      </c>
-      <c r="AA3">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="AB3">
-        <v>-12.7</v>
-      </c>
-      <c r="AC3">
-        <v>-17.3</v>
-      </c>
-      <c r="AD3">
-        <v>-15</v>
-      </c>
-      <c r="AE3">
-        <v>-19.8</v>
-      </c>
-      <c r="AF3">
-        <v>-23.5</v>
-      </c>
-      <c r="AG3">
-        <v>-22.8</v>
-      </c>
-      <c r="AH3">
-        <v>-21.4</v>
-      </c>
-      <c r="AI3">
-        <v>-12.8</v>
-      </c>
-      <c r="AJ3">
-        <v>-17.8</v>
-      </c>
-      <c r="AK3">
-        <v>-17.2</v>
-      </c>
-      <c r="AL3">
-        <v>-17.600000000000001</v>
-      </c>
-      <c r="AM3">
-        <v>-18.100000000000001</v>
-      </c>
       <c r="AN3">
-        <v>-27.2</v>
+        <v>-22.3</v>
       </c>
       <c r="AO3">
-        <v>-9.8000000000000007</v>
+        <v>-11.3</v>
       </c>
       <c r="AP3">
-        <v>-1.7</v>
+        <v>-5.3</v>
       </c>
       <c r="AQ3">
-        <v>-22.5</v>
+        <v>-19</v>
       </c>
       <c r="AR3">
-        <v>-5.3</v>
+        <v>-5.4</v>
       </c>
       <c r="AS3">
-        <v>15.6</v>
+        <v>8.6</v>
       </c>
       <c r="AT3">
-        <v>3.6</v>
+        <v>0.2</v>
       </c>
       <c r="AU3">
-        <v>-14.9</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="AV3">
-        <v>-12.4</v>
+        <v>-10.6</v>
       </c>
       <c r="AW3">
-        <v>-11.4</v>
+        <v>-8.6</v>
       </c>
       <c r="AX3">
-        <v>-12.9</v>
+        <v>-9</v>
       </c>
       <c r="AY3">
-        <v>-1.7</v>
+        <v>-2.9</v>
       </c>
       <c r="AZ3">
+        <v>-15.2</v>
+      </c>
+      <c r="BA3">
         <v>-13</v>
       </c>
-      <c r="BA3">
-        <v>-14.6</v>
-      </c>
       <c r="BB3">
-        <v>-22.5</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="BC3">
-        <v>-1</v>
+        <v>-2.7</v>
       </c>
       <c r="BD3">
-        <v>-1.1000000000000001</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="BE3">
-        <v>-9.1</v>
+        <v>-8</v>
       </c>
       <c r="BF3">
-        <v>-1.7</v>
+        <v>-0.9</v>
       </c>
       <c r="BG3">
-        <v>-3.4</v>
+        <v>1.2</v>
       </c>
       <c r="BH3">
-        <v>-18.100000000000001</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="BI3">
-        <v>-25.1</v>
+        <v>-24.8</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3292,10 +3300,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>-32.799999999999997</v>
+        <v>-36.5</v>
       </c>
       <c r="H4" s="4">
-        <v>-19.899999999999999</v>
+        <v>-22.4</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>117</v>
@@ -3328,10 +3336,10 @@
         <v>110</v>
       </c>
       <c r="G5" s="4">
-        <v>-33.799999999999997</v>
+        <v>-30.4</v>
       </c>
       <c r="H5" s="4">
-        <v>-22.9</v>
+        <v>-14.1</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
@@ -3346,13 +3354,13 @@
         <v>3</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:61" ht="27.75" x14ac:dyDescent="0.4">
@@ -3370,13 +3378,13 @@
         <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G6" s="4">
-        <v>-31.1</v>
+        <v>-34.9</v>
       </c>
       <c r="H6" s="4">
-        <v>-24</v>
+        <v>-20.9</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>115</v>
@@ -3391,13 +3399,13 @@
         <v>3</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:61" ht="27.75" x14ac:dyDescent="0.4">
@@ -3418,10 +3426,10 @@
         <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>113</v>
@@ -3436,13 +3444,13 @@
         <v>4</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N7" t="s">
+        <v>186</v>
+      </c>
+      <c r="O7" t="s">
         <v>187</v>
-      </c>
-      <c r="O7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.4">
@@ -3463,10 +3471,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>-41.8</v>
+        <v>-39.9</v>
       </c>
       <c r="H8" s="4">
-        <v>-30.9</v>
+        <v>-25.7</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>120</v>
@@ -3479,13 +3487,13 @@
       </c>
       <c r="L8" s="18"/>
       <c r="M8" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.4">
@@ -3506,10 +3514,10 @@
         <v>95</v>
       </c>
       <c r="G9" s="4">
-        <v>-38.799999999999997</v>
+        <v>-40.799999999999997</v>
       </c>
       <c r="H9" s="4">
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>119</v>
@@ -3540,10 +3548,10 @@
         <v>102</v>
       </c>
       <c r="G10" s="4">
-        <v>-28.1</v>
+        <v>-30.9</v>
       </c>
       <c r="H10" s="4">
-        <v>-17.2</v>
+        <v>-12.7</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>100</v>
@@ -3574,10 +3582,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="4">
-        <v>-33.799999999999997</v>
+        <v>-37.200000000000003</v>
       </c>
       <c r="H11" s="4">
-        <v>-18</v>
+        <v>-14.6</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>54</v>
@@ -3608,10 +3616,10 @@
         <v>87</v>
       </c>
       <c r="G12" s="4">
-        <v>-17.8</v>
+        <v>-24.1</v>
       </c>
       <c r="H12" s="4">
-        <v>-14.3</v>
+        <v>-11.4</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>28</v>
@@ -3642,10 +3650,10 @@
         <v>89</v>
       </c>
       <c r="G13" s="4">
-        <v>-20.6</v>
+        <v>-25.5</v>
       </c>
       <c r="H13" s="4">
-        <v>-14.1</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
@@ -3676,10 +3684,10 @@
         <v>27</v>
       </c>
       <c r="G14" s="4">
-        <v>-15.3</v>
+        <v>-24</v>
       </c>
       <c r="H14" s="4">
-        <v>-12.3</v>
+        <v>-8.6</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
@@ -3707,13 +3715,13 @@
         <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G15" s="4">
-        <v>-17.600000000000001</v>
+        <v>-22.2</v>
       </c>
       <c r="H15" s="4">
-        <v>-9.8000000000000007</v>
+        <v>-11.5</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
@@ -3744,10 +3752,10 @@
         <v>99</v>
       </c>
       <c r="G16" s="4">
-        <v>-16.100000000000001</v>
+        <v>-24.8</v>
       </c>
       <c r="H16" s="4">
-        <v>-12.7</v>
+        <v>-13</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>96</v>
@@ -3778,10 +3786,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="4">
-        <v>-22.8</v>
+        <v>-23.1</v>
       </c>
       <c r="H17" s="4">
-        <v>-17.3</v>
+        <v>-15.2</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>161</v>
@@ -3812,10 +3820,10 @@
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>-24.7</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="H18" s="4">
-        <v>-15</v>
+        <v>-21.9</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
@@ -3846,10 +3854,10 @@
         <v>108</v>
       </c>
       <c r="G19" s="4">
-        <v>-31.3</v>
+        <v>-30.9</v>
       </c>
       <c r="H19" s="4">
-        <v>-19.8</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>114</v>
@@ -3880,10 +3888,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="13">
-        <v>-31.1</v>
+        <v>-30.3</v>
       </c>
       <c r="H20" s="13">
-        <v>-23.5</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
@@ -3914,10 +3922,10 @@
         <v>106</v>
       </c>
       <c r="G21" s="13">
-        <v>-33.799999999999997</v>
+        <v>-30.1</v>
       </c>
       <c r="H21" s="13">
-        <v>-22.8</v>
+        <v>-19.3</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>115</v>
@@ -3948,10 +3956,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="13">
-        <v>-29.1</v>
+        <v>-24.7</v>
       </c>
       <c r="H22" s="13">
-        <v>-21.4</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>40</v>
@@ -3984,10 +3992,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="13">
-        <v>-28.9</v>
+        <v>-36.1</v>
       </c>
       <c r="H23" s="13">
-        <v>-12.8</v>
+        <v>-13.3</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
@@ -4020,10 +4028,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="13">
-        <v>-25.7</v>
+        <v>-27.1</v>
       </c>
       <c r="H24" s="13">
-        <v>-17.8</v>
+        <v>-12.7</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -4054,10 +4062,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="4">
-        <v>-25.9</v>
+        <v>-23.2</v>
       </c>
       <c r="H25" s="4">
-        <v>-17.2</v>
+        <v>-10.9</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -4090,10 +4098,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>-37.700000000000003</v>
+        <v>-38.299999999999997</v>
       </c>
       <c r="H26" s="4">
-        <v>-17.600000000000001</v>
+        <v>-14</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -4121,13 +4129,13 @@
         <v>18</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G27" s="4">
-        <v>-31</v>
+        <v>-37.9</v>
       </c>
       <c r="H27" s="4">
-        <v>-18.100000000000001</v>
+        <v>-17.2</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
@@ -4158,10 +4166,10 @@
         <v>77</v>
       </c>
       <c r="G28" s="4">
-        <v>-34.200000000000003</v>
+        <v>-33.9</v>
       </c>
       <c r="H28" s="4">
-        <v>-27.2</v>
+        <v>-22.3</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
@@ -4194,10 +4202,10 @@
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <v>-19.5</v>
+        <v>-25</v>
       </c>
       <c r="H29" s="4">
-        <v>-9.8000000000000007</v>
+        <v>-11.3</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -4228,10 +4236,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>-11.8</v>
+        <v>-13.1</v>
       </c>
       <c r="H30" s="4">
-        <v>-1.7</v>
+        <v>-5.3</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
@@ -4264,10 +4272,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="4">
-        <v>-35.799999999999997</v>
+        <v>-35.9</v>
       </c>
       <c r="H31" s="4">
-        <v>-22.5</v>
+        <v>-19</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
@@ -4298,10 +4306,10 @@
         <v>66</v>
       </c>
       <c r="G32" s="4">
-        <v>-18.100000000000001</v>
+        <v>-20.3</v>
       </c>
       <c r="H32" s="4">
-        <v>-5.3</v>
+        <v>-5.4</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
@@ -4323,25 +4331,25 @@
         <v>0</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G33" s="4">
+        <v>-6.2</v>
+      </c>
+      <c r="H33" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="G33" s="4">
-        <v>-2.8</v>
-      </c>
-      <c r="H33" s="4">
-        <v>15.6</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="J33" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>251</v>
       </c>
       <c r="K33" s="13">
         <v>57494</v>
@@ -4366,10 +4374,10 @@
         <v>59</v>
       </c>
       <c r="G34" s="4">
-        <v>-12.8</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="H34" s="4">
-        <v>3.6</v>
+        <v>0.2</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
@@ -4400,10 +4408,10 @@
         <v>56</v>
       </c>
       <c r="G35" s="4">
-        <v>-25.9</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="H35" s="4">
-        <v>-14.9</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
@@ -4434,10 +4442,10 @@
         <v>46</v>
       </c>
       <c r="G36" s="4">
-        <v>-19.399999999999999</v>
+        <v>-20</v>
       </c>
       <c r="H36" s="4">
-        <v>-12.4</v>
+        <v>-10.6</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>47</v>
@@ -4470,10 +4478,10 @@
         <v>49</v>
       </c>
       <c r="G37" s="4">
-        <v>-14.8</v>
+        <v>-26.7</v>
       </c>
       <c r="H37" s="4">
-        <v>-11.4</v>
+        <v>-8.6</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>45</v>
@@ -4506,10 +4514,10 @@
         <v>51</v>
       </c>
       <c r="G38" s="4">
-        <v>-22.7</v>
+        <v>-31.4</v>
       </c>
       <c r="H38" s="4">
-        <v>-12.9</v>
+        <v>-9</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
@@ -4540,10 +4548,10 @@
         <v>58</v>
       </c>
       <c r="G39" s="4">
-        <v>-25.9</v>
+        <v>-26.5</v>
       </c>
       <c r="H39" s="4">
-        <v>-1.7</v>
+        <v>-2.9</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
@@ -4574,10 +4582,10 @@
         <v>44</v>
       </c>
       <c r="G40" s="4">
-        <v>-14.8</v>
+        <v>-30.8</v>
       </c>
       <c r="H40" s="4">
-        <v>-13</v>
+        <v>-15.2</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>43</v>
@@ -4608,10 +4616,10 @@
         <v>74</v>
       </c>
       <c r="G41" s="4">
-        <v>-23.5</v>
+        <v>-29.2</v>
       </c>
       <c r="H41" s="4">
-        <v>-14.6</v>
+        <v>-13</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
@@ -4642,10 +4650,10 @@
         <v>72</v>
       </c>
       <c r="G42" s="4">
-        <v>-31.4</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="H42" s="4">
-        <v>-22.5</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>2</v>
@@ -4676,10 +4684,10 @@
         <v>62</v>
       </c>
       <c r="G43" s="4">
-        <v>-26</v>
+        <v>-24.7</v>
       </c>
       <c r="H43" s="4">
-        <v>-1</v>
+        <v>-2.7</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
@@ -4710,10 +4718,10 @@
         <v>64</v>
       </c>
       <c r="G44" s="4">
-        <v>-20.8</v>
+        <v>-13.9</v>
       </c>
       <c r="H44" s="4">
-        <v>-1.1000000000000001</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>65</v>
@@ -4744,10 +4752,10 @@
         <v>79</v>
       </c>
       <c r="G45" s="4">
-        <v>-25.3</v>
+        <v>-26.9</v>
       </c>
       <c r="H45" s="4">
-        <v>-9.1</v>
+        <v>-8</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>22</v>
@@ -4778,10 +4786,10 @@
         <v>81</v>
       </c>
       <c r="G46" s="4">
-        <v>-17.899999999999999</v>
+        <v>-21.4</v>
       </c>
       <c r="H46" s="4">
-        <v>-1.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
@@ -4812,10 +4820,10 @@
         <v>83</v>
       </c>
       <c r="G47" s="4">
-        <v>-11.3</v>
+        <v>-9.9</v>
       </c>
       <c r="H47" s="4">
-        <v>-3.4</v>
+        <v>1.2</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>21</v>
@@ -4848,10 +4856,10 @@
         <v>68</v>
       </c>
       <c r="G48" s="4">
-        <v>-29.6</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="H48" s="4">
-        <v>-18.100000000000001</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -4882,10 +4890,10 @@
         <v>70</v>
       </c>
       <c r="G49" s="4">
-        <v>-30.5</v>
+        <v>-37.9</v>
       </c>
       <c r="H49" s="4">
-        <v>-25.1</v>
+        <v>-24.8</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>2</v>
@@ -4905,6 +4913,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4928,54 +4937,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="61" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="65">
+        <v>45697</v>
+      </c>
+      <c r="G1" s="66"/>
+      <c r="H1" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="61"/>
+      <c r="K2" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2" s="50" t="s">
         <v>254</v>
-      </c>
-      <c r="F1" s="64">
-        <v>45686</v>
-      </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="K2" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>255</v>
       </c>
       <c r="M2">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="59"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="51" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>211</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>212</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>126</v>
@@ -4984,26 +4993,26 @@
         <v>0</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>196</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>197</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>116</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L3" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="54">
         <v>1</v>
       </c>
@@ -5012,84 +5021,84 @@
       </c>
       <c r="D4" s="52"/>
       <c r="E4" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>109</v>
       </c>
       <c r="G4" s="36">
-        <v>-30.3</v>
+        <v>-35</v>
       </c>
       <c r="H4" s="36">
-        <v>-24.6</v>
+        <v>-22.4</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L4" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M4">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="54">
         <v>2</v>
       </c>
       <c r="C5" s="52">
         <v>3</v>
       </c>
-      <c r="D5" s="52">
-        <v>0</v>
-      </c>
+      <c r="D5" s="52"/>
       <c r="E5" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="36">
-        <v>-37.6</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="H5" s="36">
-        <v>-26.8</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="54">
         <v>3</v>
       </c>
       <c r="C6" s="52">
         <v>3</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="52">
+        <v>0</v>
+      </c>
       <c r="E6" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="36">
-        <v>-32.799999999999997</v>
+      <c r="G6" s="59">
+        <v>-36.5</v>
       </c>
       <c r="H6" s="36">
-        <v>-19.899999999999999</v>
+        <v>-22.4</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="54">
         <v>4</v>
       </c>
@@ -5098,23 +5107,23 @@
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>109</v>
       </c>
       <c r="G7" s="36">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="H7" s="36">
-        <v>-22.9</v>
+        <v>-30.4</v>
+      </c>
+      <c r="H7" s="58">
+        <v>-14.1</v>
       </c>
       <c r="I7" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="59"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="54">
         <v>5</v>
       </c>
@@ -5123,23 +5132,23 @@
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G8" s="58">
-        <v>-31.1</v>
+        <v>-34.9</v>
       </c>
       <c r="H8" s="36">
-        <v>-24</v>
+        <v>-20.9</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="54">
         <v>6</v>
       </c>
@@ -5148,75 +5157,75 @@
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="54">
         <v>7</v>
       </c>
       <c r="C10" s="52">
         <v>2</v>
       </c>
-      <c r="D10" s="52">
-        <v>0</v>
-      </c>
+      <c r="D10" s="52"/>
       <c r="E10" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="57">
-        <v>-41.8</v>
-      </c>
-      <c r="H10" s="57">
-        <v>-30.9</v>
+      <c r="G10" s="36">
+        <v>-39.9</v>
+      </c>
+      <c r="H10" s="36">
+        <v>-25.7</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="54">
         <v>8</v>
       </c>
       <c r="C11" s="52">
         <v>2</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="52">
+        <v>0</v>
+      </c>
       <c r="E11" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="36">
-        <v>-38.799999999999997</v>
-      </c>
-      <c r="H11" s="36">
-        <v>-27</v>
+      <c r="G11" s="57">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="H11" s="57">
+        <v>-26</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="59"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="54">
         <v>9</v>
       </c>
@@ -5225,23 +5234,23 @@
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="36">
-        <v>-28.1</v>
+        <v>-30.9</v>
       </c>
       <c r="H12" s="36">
-        <v>-17.2</v>
+        <v>-12.7</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="59"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="54">
         <v>10</v>
       </c>
@@ -5250,23 +5259,23 @@
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>135</v>
       </c>
       <c r="G13" s="58">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="H13" s="58">
-        <v>-18</v>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="H13" s="36">
+        <v>-14.6</v>
       </c>
       <c r="I13" s="34" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="59"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="54">
         <v>11</v>
       </c>
@@ -5275,23 +5284,23 @@
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="36">
-        <v>-17.8</v>
+        <v>-24.1</v>
       </c>
       <c r="H14" s="36">
-        <v>-14.3</v>
+        <v>-11.4</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="59"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="54">
         <v>12</v>
       </c>
@@ -5300,23 +5309,23 @@
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F15" s="41" t="s">
         <v>88</v>
       </c>
       <c r="G15" s="36">
-        <v>-20.6</v>
+        <v>-25.5</v>
       </c>
       <c r="H15" s="36">
-        <v>-14.1</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="54">
         <v>13</v>
       </c>
@@ -5325,23 +5334,23 @@
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>136</v>
       </c>
       <c r="G16" s="36">
-        <v>-15.3</v>
+        <v>-24</v>
       </c>
       <c r="H16" s="36">
-        <v>-12.3</v>
+        <v>-8.6</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="59"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="54">
         <v>14</v>
       </c>
@@ -5350,23 +5359,23 @@
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G17" s="36">
-        <v>-17.600000000000001</v>
+        <v>-22.2</v>
       </c>
       <c r="H17" s="36">
-        <v>-9.8000000000000007</v>
+        <v>-11.5</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="54">
         <v>15</v>
       </c>
@@ -5375,23 +5384,23 @@
       </c>
       <c r="D18" s="52"/>
       <c r="E18" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F18" s="37" t="s">
         <v>98</v>
       </c>
       <c r="G18" s="36">
-        <v>-16.100000000000001</v>
+        <v>-24.8</v>
       </c>
       <c r="H18" s="36">
-        <v>-12.7</v>
+        <v>-13</v>
       </c>
       <c r="I18" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="54">
         <v>16</v>
       </c>
@@ -5400,23 +5409,23 @@
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F19" s="41" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="36">
-        <v>-22.8</v>
+        <v>-23.1</v>
       </c>
       <c r="H19" s="36">
-        <v>-17.3</v>
+        <v>-15.2</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="59"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="54">
         <v>17</v>
       </c>
@@ -5425,23 +5434,23 @@
       </c>
       <c r="D20" s="52"/>
       <c r="E20" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="36">
-        <v>-24.7</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="H20" s="36">
-        <v>-15</v>
+        <v>-21.9</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="59"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="54">
         <v>18</v>
       </c>
@@ -5450,23 +5459,23 @@
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F21" s="41" t="s">
         <v>107</v>
       </c>
       <c r="G21" s="36">
-        <v>-31.3</v>
+        <v>-30.9</v>
       </c>
       <c r="H21" s="36">
-        <v>-19.8</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="59"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="54">
         <v>19</v>
       </c>
@@ -5475,23 +5484,23 @@
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F22" s="43" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="36">
-        <v>-31.1</v>
+        <v>-30.3</v>
       </c>
       <c r="H22" s="36">
-        <v>-23.5</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="59"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="54">
         <v>20</v>
       </c>
@@ -5500,23 +5509,23 @@
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F23" s="43" t="s">
         <v>105</v>
       </c>
       <c r="G23" s="36">
-        <v>-33.799999999999997</v>
+        <v>-30.1</v>
       </c>
       <c r="H23" s="36">
-        <v>-22.8</v>
+        <v>-19.3</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="59"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="54">
         <v>21</v>
       </c>
@@ -5525,23 +5534,23 @@
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F24" s="43" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="36">
-        <v>-29.1</v>
+        <v>-24.7</v>
       </c>
       <c r="H24" s="36">
-        <v>-21.4</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="I24" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="59"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="54">
         <v>22</v>
       </c>
@@ -5550,23 +5559,23 @@
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="36">
-        <v>-28.9</v>
+        <v>-36.1</v>
       </c>
       <c r="H25" s="36">
-        <v>-12.8</v>
+        <v>-13.3</v>
       </c>
       <c r="I25" s="34" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="59"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="54">
         <v>23</v>
       </c>
@@ -5575,23 +5584,23 @@
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F26" s="48" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="36">
-        <v>-25.7</v>
+        <v>-27.1</v>
       </c>
       <c r="H26" s="36">
-        <v>-17.8</v>
+        <v>-12.7</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="59"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="54">
         <v>24</v>
       </c>
@@ -5600,23 +5609,23 @@
       </c>
       <c r="D27" s="52"/>
       <c r="E27" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F27" s="43" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="36">
-        <v>-25.9</v>
+        <v>-23.2</v>
       </c>
       <c r="H27" s="36">
-        <v>-17.2</v>
+        <v>-10.9</v>
       </c>
       <c r="I27" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="59"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="54">
         <v>25</v>
       </c>
@@ -5627,23 +5636,23 @@
         <v>0</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F28" s="40" t="s">
         <v>137</v>
       </c>
       <c r="G28" s="36">
-        <v>-37.700000000000003</v>
+        <v>-38.299999999999997</v>
       </c>
       <c r="H28" s="36">
-        <v>-17.600000000000001</v>
+        <v>-14</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="59"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="54">
         <v>26</v>
       </c>
@@ -5652,50 +5661,48 @@
       </c>
       <c r="D29" s="52"/>
       <c r="E29" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G29" s="36">
-        <v>-31</v>
+        <v>-37.9</v>
       </c>
       <c r="H29" s="36">
-        <v>-18.100000000000001</v>
+        <v>-17.2</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="59"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="54">
         <v>27</v>
       </c>
       <c r="C30" s="52">
         <v>1</v>
       </c>
-      <c r="D30" s="52">
-        <v>0</v>
-      </c>
+      <c r="D30" s="52"/>
       <c r="E30" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F30" s="46" t="s">
         <v>76</v>
       </c>
       <c r="G30" s="36">
-        <v>-34.200000000000003</v>
+        <v>-33.9</v>
       </c>
       <c r="H30" s="36">
-        <v>-27.2</v>
+        <v>-22.3</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="59"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="54">
         <v>28</v>
       </c>
@@ -5706,23 +5713,23 @@
         <v>0</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F31" s="46" t="s">
         <v>103</v>
       </c>
       <c r="G31" s="36">
-        <v>-19.5</v>
+        <v>-25</v>
       </c>
       <c r="H31" s="36">
-        <v>-9.8000000000000007</v>
+        <v>-11.3</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="59"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="54">
         <v>29</v>
       </c>
@@ -5731,23 +5738,23 @@
       </c>
       <c r="D32" s="52"/>
       <c r="E32" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F32" s="44" t="s">
         <v>84</v>
       </c>
       <c r="G32" s="36">
-        <v>-11.8</v>
+        <v>-13.1</v>
       </c>
       <c r="H32" s="36">
-        <v>-1.7</v>
+        <v>-5.3</v>
       </c>
       <c r="I32" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="59"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="54">
         <v>30</v>
       </c>
@@ -5758,23 +5765,23 @@
         <v>0</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F33" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G33" s="36">
-        <v>-35.799999999999997</v>
+        <v>-35.9</v>
       </c>
       <c r="H33" s="36">
-        <v>-22.5</v>
+        <v>-19</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="59"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="54">
         <v>31</v>
       </c>
@@ -5789,44 +5796,42 @@
         <v>139</v>
       </c>
       <c r="G34" s="36">
-        <v>-18.100000000000001</v>
+        <v>-20.3</v>
       </c>
       <c r="H34" s="36">
-        <v>-5.3</v>
+        <v>-5.4</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="59"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="54">
         <v>32</v>
       </c>
       <c r="C35" s="52">
         <v>1</v>
       </c>
-      <c r="D35" s="52">
-        <v>0</v>
-      </c>
+      <c r="D35" s="52"/>
       <c r="E35" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" s="36">
+        <v>-6.2</v>
+      </c>
+      <c r="H35" s="36">
+        <v>8.6</v>
+      </c>
+      <c r="I35" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="F35" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="G35" s="36">
-        <v>-2.8</v>
-      </c>
-      <c r="H35" s="36">
-        <v>15.6</v>
-      </c>
-      <c r="I35" s="34" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="36" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="59"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="54">
         <v>33</v>
       </c>
@@ -5835,21 +5840,21 @@
       </c>
       <c r="D36" s="52"/>
       <c r="E36" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F36" s="46" t="s">
         <v>140</v>
       </c>
       <c r="G36" s="36">
-        <v>-12.8</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="H36" s="36">
-        <v>3.6</v>
+        <v>0.2</v>
       </c>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="59"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="54">
         <v>34</v>
       </c>
@@ -5860,21 +5865,21 @@
         <v>0</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F37" s="40" t="s">
         <v>141</v>
       </c>
       <c r="G37" s="36">
-        <v>-25.9</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="H37" s="36">
-        <v>-14.9</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="59"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="54">
         <v>35</v>
       </c>
@@ -5885,23 +5890,23 @@
         <v>0</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F38" s="46" t="s">
         <v>142</v>
       </c>
       <c r="G38" s="36">
-        <v>-19.399999999999999</v>
+        <v>-20</v>
       </c>
       <c r="H38" s="36">
-        <v>-12.4</v>
+        <v>-10.6</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="59"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="54">
         <v>36</v>
       </c>
@@ -5912,23 +5917,23 @@
         <v>0</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F39" s="40" t="s">
         <v>143</v>
       </c>
       <c r="G39" s="36">
-        <v>-14.8</v>
+        <v>-26.7</v>
       </c>
       <c r="H39" s="36">
-        <v>-11.4</v>
+        <v>-8.6</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="59"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="54">
         <v>37</v>
       </c>
@@ -5939,21 +5944,21 @@
         <v>0</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F40" s="40" t="s">
         <v>144</v>
       </c>
       <c r="G40" s="36">
-        <v>-22.7</v>
+        <v>-31.4</v>
       </c>
       <c r="H40" s="36">
-        <v>-12.9</v>
+        <v>-9</v>
       </c>
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="59"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="54">
         <v>38</v>
       </c>
@@ -5964,21 +5969,21 @@
         <v>0</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F41" s="40" t="s">
         <v>145</v>
       </c>
       <c r="G41" s="36">
-        <v>-25.9</v>
+        <v>-26.5</v>
       </c>
       <c r="H41" s="36">
-        <v>-1.7</v>
+        <v>-2.9</v>
       </c>
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="59"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="54">
         <v>39</v>
       </c>
@@ -5987,23 +5992,23 @@
       </c>
       <c r="D42" s="52"/>
       <c r="E42" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F42" s="40" t="s">
         <v>146</v>
       </c>
       <c r="G42" s="36">
-        <v>-14.8</v>
+        <v>-30.8</v>
       </c>
       <c r="H42" s="36">
-        <v>-13</v>
+        <v>-15.2</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="59"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="54">
         <v>40</v>
       </c>
@@ -6012,48 +6017,50 @@
       </c>
       <c r="D43" s="52"/>
       <c r="E43" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F43" s="40" t="s">
         <v>73</v>
       </c>
       <c r="G43" s="36">
-        <v>-23.5</v>
+        <v>-29.2</v>
       </c>
       <c r="H43" s="36">
-        <v>-14.6</v>
+        <v>-13</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="59"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="54">
         <v>41</v>
       </c>
       <c r="C44" s="52">
         <v>1</v>
       </c>
-      <c r="D44" s="52"/>
+      <c r="D44" s="52">
+        <v>0</v>
+      </c>
       <c r="E44" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F44" s="46" t="s">
         <v>71</v>
       </c>
       <c r="G44" s="36">
-        <v>-31.4</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="H44" s="36">
-        <v>-22.5</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="59"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="54">
         <v>42</v>
       </c>
@@ -6062,23 +6069,23 @@
       </c>
       <c r="D45" s="52"/>
       <c r="E45" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F45" s="46" t="s">
         <v>147</v>
       </c>
       <c r="G45" s="36">
-        <v>-26</v>
+        <v>-24.7</v>
       </c>
       <c r="H45" s="36">
-        <v>-1</v>
+        <v>-2.7</v>
       </c>
       <c r="I45" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="59"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="54">
         <v>43</v>
       </c>
@@ -6087,23 +6094,23 @@
       </c>
       <c r="D46" s="52"/>
       <c r="E46" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F46" s="40" t="s">
         <v>148</v>
       </c>
       <c r="G46" s="36">
-        <v>-20.8</v>
+        <v>-13.9</v>
       </c>
       <c r="H46" s="36">
-        <v>-1.1000000000000001</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="59"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="54">
         <v>44</v>
       </c>
@@ -6112,23 +6119,23 @@
       </c>
       <c r="D47" s="52"/>
       <c r="E47" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F47" s="40" t="s">
         <v>78</v>
       </c>
       <c r="G47" s="36">
-        <v>-25.3</v>
+        <v>-26.9</v>
       </c>
       <c r="H47" s="36">
-        <v>-9.1</v>
+        <v>-8</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="59"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="54">
         <v>45</v>
       </c>
@@ -6137,23 +6144,23 @@
       </c>
       <c r="D48" s="52"/>
       <c r="E48" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F48" s="46" t="s">
         <v>80</v>
       </c>
       <c r="G48" s="36">
-        <v>-17.899999999999999</v>
+        <v>-21.4</v>
       </c>
       <c r="H48" s="36">
-        <v>-1.7</v>
+        <v>-0.9</v>
       </c>
       <c r="I48" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="59"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="54">
         <v>46</v>
       </c>
@@ -6162,23 +6169,23 @@
       </c>
       <c r="D49" s="52"/>
       <c r="E49" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F49" s="40" t="s">
         <v>82</v>
       </c>
       <c r="G49" s="36">
-        <v>-11.3</v>
+        <v>-9.9</v>
       </c>
       <c r="H49" s="36">
-        <v>-3.4</v>
+        <v>1.2</v>
       </c>
       <c r="I49" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="59"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="54">
         <v>47</v>
       </c>
@@ -6187,51 +6194,53 @@
       </c>
       <c r="D50" s="52"/>
       <c r="E50" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F50" s="40" t="s">
         <v>67</v>
       </c>
       <c r="G50" s="36">
-        <v>-29.6</v>
+        <v>-36.200000000000003</v>
       </c>
       <c r="H50" s="36">
-        <v>-18.100000000000001</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="I50" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="59"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="54">
         <v>48</v>
       </c>
       <c r="C51" s="52">
         <v>1</v>
       </c>
-      <c r="D51" s="52"/>
+      <c r="D51" s="52">
+        <v>0</v>
+      </c>
       <c r="E51" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F51" s="44" t="s">
         <v>69</v>
       </c>
       <c r="G51" s="36">
-        <v>-30.5</v>
+        <v>-37.9</v>
       </c>
       <c r="H51" s="36">
-        <v>-25.1</v>
+        <v>-24.8</v>
       </c>
       <c r="I51" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="59"/>
+      <c r="A52" s="60"/>
     </row>
     <row r="53" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="59"/>
+      <c r="A53" s="60"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I51">
@@ -6280,8 +6289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6452CB3-0983-4391-8A7D-2C5221219E76}">
   <dimension ref="A1:AW79"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6387,7 +6396,7 @@
         <v>139</v>
       </c>
       <c r="AG1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH1" t="s">
         <v>140</v>
@@ -7296,7 +7305,7 @@
         <v>-26.1</v>
       </c>
       <c r="AR7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AS7">
         <v>-25.3</v>
@@ -7743,7 +7752,7 @@
         <v>-33.6</v>
       </c>
       <c r="AR10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AS10">
         <v>-21.5</v>
@@ -7781,7 +7790,7 @@
         <v>-42.4</v>
       </c>
       <c r="G11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H11">
         <v>-23</v>
@@ -7892,7 +7901,7 @@
         <v>-24.7</v>
       </c>
       <c r="AR11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AS11">
         <v>-14.8</v>
@@ -7930,7 +7939,7 @@
         <v>-39.5</v>
       </c>
       <c r="G12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H12">
         <v>-27.9</v>
@@ -8079,7 +8088,7 @@
         <v>-40.200000000000003</v>
       </c>
       <c r="G13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H13">
         <v>-35.700000000000003</v>
@@ -8228,7 +8237,7 @@
         <v>-38.6</v>
       </c>
       <c r="G14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H14">
         <v>-28.1</v>
@@ -8377,7 +8386,7 @@
         <v>-32.9</v>
       </c>
       <c r="G15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H15">
         <v>-22.6</v>
@@ -8526,7 +8535,7 @@
         <v>-37.299999999999997</v>
       </c>
       <c r="G16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H16">
         <v>-22.7</v>
@@ -8663,7 +8672,7 @@
         <v>-40</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17">
         <v>-37.6</v>
@@ -8675,7 +8684,7 @@
         <v>-38.799999999999997</v>
       </c>
       <c r="G17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H17">
         <v>-31.6</v>
@@ -8824,7 +8833,7 @@
         <v>-36.9</v>
       </c>
       <c r="G18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H18">
         <v>-38.700000000000003</v>
@@ -8970,10 +8979,10 @@
         <v>-39</v>
       </c>
       <c r="F19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H19">
         <v>-37</v>
@@ -9122,7 +9131,7 @@
         <v>-36.299999999999997</v>
       </c>
       <c r="G20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H20">
         <v>-32.700000000000003</v>
@@ -9271,7 +9280,7 @@
         <v>-27.2</v>
       </c>
       <c r="G21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H21">
         <v>-33.700000000000003</v>
@@ -9420,7 +9429,7 @@
         <v>-35.6</v>
       </c>
       <c r="G22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H22">
         <v>-24.5</v>
@@ -9569,7 +9578,7 @@
         <v>-39.1</v>
       </c>
       <c r="G23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H23">
         <v>-24.5</v>
@@ -9718,7 +9727,7 @@
         <v>-39.9</v>
       </c>
       <c r="G24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H24">
         <v>-30.4</v>
@@ -9867,7 +9876,7 @@
         <v>-42.2</v>
       </c>
       <c r="G25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H25">
         <v>-14</v>
@@ -10016,7 +10025,7 @@
         <v>-44.2</v>
       </c>
       <c r="G26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H26">
         <v>-19.100000000000001</v>
@@ -10165,7 +10174,7 @@
         <v>-42.1</v>
       </c>
       <c r="G27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H27">
         <v>-24.2</v>
@@ -10314,7 +10323,7 @@
         <v>-39.1</v>
       </c>
       <c r="G28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H28">
         <v>-27.5</v>
@@ -10463,7 +10472,7 @@
         <v>-31.2</v>
       </c>
       <c r="G29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H29">
         <v>-25.8</v>
@@ -10612,7 +10621,7 @@
         <v>-35.5</v>
       </c>
       <c r="G30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H30">
         <v>-25.7</v>
@@ -10761,7 +10770,7 @@
         <v>-37.299999999999997</v>
       </c>
       <c r="G31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H31">
         <v>-29</v>
@@ -10910,7 +10919,7 @@
         <v>-32.9</v>
       </c>
       <c r="G32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H32">
         <v>-28.6</v>
@@ -11059,7 +11068,7 @@
         <v>-34.5</v>
       </c>
       <c r="G33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H33">
         <v>-30.7</v>
@@ -11208,7 +11217,7 @@
         <v>-39.700000000000003</v>
       </c>
       <c r="G34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H34">
         <v>-19.899999999999999</v>
@@ -11357,7 +11366,7 @@
         <v>-41.6</v>
       </c>
       <c r="G35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H35">
         <v>-34.200000000000003</v>
@@ -11506,7 +11515,7 @@
         <v>-37.4</v>
       </c>
       <c r="G36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H36">
         <v>-41.5</v>
@@ -11655,7 +11664,7 @@
         <v>-32.1</v>
       </c>
       <c r="G37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H37">
         <v>-38.5</v>
@@ -11804,7 +11813,7 @@
         <v>-36.6</v>
       </c>
       <c r="G38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H38">
         <v>-33.799999999999997</v>
@@ -11953,7 +11962,7 @@
         <v>-31.1</v>
       </c>
       <c r="G39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H39">
         <v>-41.8</v>
@@ -12086,123 +12095,1707 @@
       <c r="A40" s="16">
         <v>45687</v>
       </c>
+      <c r="B40">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="C40">
+        <v>-32.4</v>
+      </c>
+      <c r="D40">
+        <v>-29.4</v>
+      </c>
+      <c r="E40">
+        <v>-36.1</v>
+      </c>
+      <c r="F40">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="G40" t="s">
+        <v>246</v>
+      </c>
+      <c r="H40">
+        <v>-41.8</v>
+      </c>
+      <c r="I40">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="J40">
+        <v>-25.3</v>
+      </c>
+      <c r="K40">
+        <v>-33.6</v>
+      </c>
+      <c r="L40">
+        <v>-22.8</v>
+      </c>
+      <c r="M40">
+        <v>-27.2</v>
+      </c>
+      <c r="N40">
+        <v>-24</v>
+      </c>
+      <c r="O40">
+        <v>-21</v>
+      </c>
+      <c r="P40">
+        <v>-16.5</v>
+      </c>
+      <c r="Q40">
+        <v>-26.5</v>
+      </c>
+      <c r="R40">
+        <v>-24.9</v>
+      </c>
+      <c r="S40">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="T40">
+        <v>-32.4</v>
+      </c>
+      <c r="U40">
+        <v>-25</v>
+      </c>
+      <c r="V40">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="W40">
+        <v>-26.6</v>
+      </c>
+      <c r="X40">
+        <v>-27.7</v>
+      </c>
+      <c r="Y40">
+        <v>-23.9</v>
+      </c>
+      <c r="Z40">
+        <v>-28</v>
+      </c>
+      <c r="AA40">
+        <v>-28.8</v>
+      </c>
+      <c r="AB40">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="AC40">
+        <v>-14</v>
+      </c>
+      <c r="AD40">
+        <v>-7.2</v>
+      </c>
+      <c r="AE40">
+        <v>-27.3</v>
+      </c>
+      <c r="AF40">
+        <v>-14.5</v>
+      </c>
+      <c r="AG40">
+        <v>-0.1</v>
+      </c>
+      <c r="AH40">
+        <v>-14</v>
+      </c>
+      <c r="AI40">
+        <v>-25.9</v>
+      </c>
+      <c r="AJ40">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AK40">
+        <v>-22.1</v>
+      </c>
+      <c r="AL40">
+        <v>-35.1</v>
+      </c>
+      <c r="AM40">
+        <v>-22.1</v>
+      </c>
+      <c r="AN40">
+        <v>-15.8</v>
+      </c>
+      <c r="AO40">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AP40">
+        <v>-30.6</v>
+      </c>
+      <c r="AQ40">
+        <v>-22.2</v>
+      </c>
+      <c r="AR40">
+        <v>-10.4</v>
+      </c>
+      <c r="AS40">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="AT40">
+        <v>-15</v>
+      </c>
+      <c r="AU40">
+        <v>-9.6</v>
+      </c>
+      <c r="AV40">
+        <v>-29.2</v>
+      </c>
+      <c r="AW40">
+        <v>-33.799999999999997</v>
+      </c>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>45688</v>
       </c>
+      <c r="B41">
+        <v>-25.2</v>
+      </c>
+      <c r="C41">
+        <v>-34.4</v>
+      </c>
+      <c r="D41">
+        <v>-29.9</v>
+      </c>
+      <c r="E41">
+        <v>-30</v>
+      </c>
+      <c r="F41">
+        <v>-28.5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>246</v>
+      </c>
+      <c r="H41">
+        <v>-42.3</v>
+      </c>
+      <c r="I41">
+        <v>-38.9</v>
+      </c>
+      <c r="J41">
+        <v>-23</v>
+      </c>
+      <c r="K41">
+        <v>-31.2</v>
+      </c>
+      <c r="L41">
+        <v>-27.7</v>
+      </c>
+      <c r="M41">
+        <v>-30.8</v>
+      </c>
+      <c r="N41">
+        <v>-28</v>
+      </c>
+      <c r="O41">
+        <v>-29.2</v>
+      </c>
+      <c r="P41">
+        <v>-22</v>
+      </c>
+      <c r="Q41">
+        <v>-21.8</v>
+      </c>
+      <c r="R41">
+        <v>-22.1</v>
+      </c>
+      <c r="S41">
+        <v>-26.8</v>
+      </c>
+      <c r="T41">
+        <v>-34.4</v>
+      </c>
+      <c r="U41">
+        <v>-23.9</v>
+      </c>
+      <c r="V41">
+        <v>-31.8</v>
+      </c>
+      <c r="W41">
+        <v>-30.4</v>
+      </c>
+      <c r="X41">
+        <v>-29.9</v>
+      </c>
+      <c r="Y41">
+        <v>-24.3</v>
+      </c>
+      <c r="Z41">
+        <v>-25</v>
+      </c>
+      <c r="AA41">
+        <v>-36</v>
+      </c>
+      <c r="AB41">
+        <v>-34</v>
+      </c>
+      <c r="AC41">
+        <v>-16.3</v>
+      </c>
+      <c r="AD41">
+        <v>-13.9</v>
+      </c>
+      <c r="AE41">
+        <v>-27</v>
+      </c>
+      <c r="AF41">
+        <v>-13.9</v>
+      </c>
+      <c r="AG41">
+        <v>3.8</v>
+      </c>
+      <c r="AH41">
+        <v>-13.8</v>
+      </c>
+      <c r="AI41">
+        <v>-26</v>
+      </c>
+      <c r="AJ41">
+        <v>-19.5</v>
+      </c>
+      <c r="AK41">
+        <v>-29.4</v>
+      </c>
+      <c r="AL41">
+        <v>-34.6</v>
+      </c>
+      <c r="AM41">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="AN41">
+        <v>-23.5</v>
+      </c>
+      <c r="AO41">
+        <v>-27.7</v>
+      </c>
+      <c r="AP41">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="AQ41">
+        <v>-21.6</v>
+      </c>
+      <c r="AR41">
+        <v>-21.4</v>
+      </c>
+      <c r="AS41">
+        <v>-15.1</v>
+      </c>
+      <c r="AT41">
+        <v>-18.2</v>
+      </c>
+      <c r="AU41">
+        <v>-10.1</v>
+      </c>
+      <c r="AV41">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="AW41">
+        <v>-38.299999999999997</v>
+      </c>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>45689</v>
       </c>
+      <c r="B42">
+        <v>-31</v>
+      </c>
+      <c r="C42">
+        <v>-37.6</v>
+      </c>
+      <c r="D42">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="E42">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="F42">
+        <v>-30.5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42">
+        <v>-42.3</v>
+      </c>
+      <c r="I42">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="J42">
+        <v>-27.7</v>
+      </c>
+      <c r="K42">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="L42">
+        <v>-29.8</v>
+      </c>
+      <c r="M42">
+        <v>-32.4</v>
+      </c>
+      <c r="N42">
+        <v>-31</v>
+      </c>
+      <c r="O42">
+        <v>-28.2</v>
+      </c>
+      <c r="P42">
+        <v>-24.3</v>
+      </c>
+      <c r="Q42">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="R42">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="S42">
+        <v>-31.8</v>
+      </c>
+      <c r="T42">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="U42">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="V42">
+        <v>-38.4</v>
+      </c>
+      <c r="W42">
+        <v>-36</v>
+      </c>
+      <c r="X42">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="Y42">
+        <v>-26.1</v>
+      </c>
+      <c r="Z42">
+        <v>-28.3</v>
+      </c>
+      <c r="AA42">
+        <v>-41.1</v>
+      </c>
+      <c r="AB42">
+        <v>-33.4</v>
+      </c>
+      <c r="AC42">
+        <v>-20.7</v>
+      </c>
+      <c r="AD42">
+        <v>-10.1</v>
+      </c>
+      <c r="AE42">
+        <v>-30.6</v>
+      </c>
+      <c r="AF42">
+        <v>-11.9</v>
+      </c>
+      <c r="AG42">
+        <v>2.5</v>
+      </c>
+      <c r="AH42">
+        <v>-11.5</v>
+      </c>
+      <c r="AI42">
+        <v>-24.1</v>
+      </c>
+      <c r="AJ42">
+        <v>-26.4</v>
+      </c>
+      <c r="AK42">
+        <v>-29.7</v>
+      </c>
+      <c r="AL42">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="AM42">
+        <v>-19.2</v>
+      </c>
+      <c r="AN42">
+        <v>-25.4</v>
+      </c>
+      <c r="AO42">
+        <v>-26.5</v>
+      </c>
+      <c r="AP42">
+        <v>-31.6</v>
+      </c>
+      <c r="AQ42">
+        <v>-25.6</v>
+      </c>
+      <c r="AR42">
+        <v>-10</v>
+      </c>
+      <c r="AS42">
+        <v>-26.7</v>
+      </c>
+      <c r="AT42">
+        <v>-15.5</v>
+      </c>
+      <c r="AU42">
+        <v>-12.7</v>
+      </c>
+      <c r="AV42">
+        <v>-38</v>
+      </c>
+      <c r="AW42">
+        <v>-39.4</v>
+      </c>
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>45690</v>
       </c>
+      <c r="B43">
+        <v>-34.9</v>
+      </c>
+      <c r="C43">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="D43">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="E43">
+        <v>-37.1</v>
+      </c>
+      <c r="F43">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="G43" t="s">
+        <v>246</v>
+      </c>
+      <c r="H43">
+        <v>-41</v>
+      </c>
+      <c r="I43">
+        <v>-36.4</v>
+      </c>
+      <c r="J43">
+        <v>-27.7</v>
+      </c>
+      <c r="K43">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="L43">
+        <v>-28</v>
+      </c>
+      <c r="M43">
+        <v>-30.1</v>
+      </c>
+      <c r="N43">
+        <v>-31.1</v>
+      </c>
+      <c r="O43">
+        <v>-28.5</v>
+      </c>
+      <c r="P43">
+        <v>-26.8</v>
+      </c>
+      <c r="Q43">
+        <v>-24.6</v>
+      </c>
+      <c r="R43">
+        <v>-35.9</v>
+      </c>
+      <c r="S43">
+        <v>-31.3</v>
+      </c>
+      <c r="T43">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="U43">
+        <v>-29.6</v>
+      </c>
+      <c r="V43">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="W43">
+        <v>-36.1</v>
+      </c>
+      <c r="X43">
+        <v>-32.6</v>
+      </c>
+      <c r="Y43">
+        <v>-25.7</v>
+      </c>
+      <c r="Z43">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="AA43">
+        <v>-40.1</v>
+      </c>
+      <c r="AB43">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="AC43">
+        <v>-22.2</v>
+      </c>
+      <c r="AD43">
+        <v>-13.1</v>
+      </c>
+      <c r="AE43">
+        <v>-36.5</v>
+      </c>
+      <c r="AF43">
+        <v>-12.5</v>
+      </c>
+      <c r="AG43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH43">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="AI43">
+        <v>-21.2</v>
+      </c>
+      <c r="AJ43">
+        <v>-20.3</v>
+      </c>
+      <c r="AK43">
+        <v>-23.4</v>
+      </c>
+      <c r="AL43">
+        <v>-26.6</v>
+      </c>
+      <c r="AM43">
+        <v>-14.8</v>
+      </c>
+      <c r="AN43">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="AO43">
+        <v>-29</v>
+      </c>
+      <c r="AP43">
+        <v>-30.2</v>
+      </c>
+      <c r="AQ43">
+        <v>-26.4</v>
+      </c>
+      <c r="AR43">
+        <v>-15.8</v>
+      </c>
+      <c r="AS43">
+        <v>-28.7</v>
+      </c>
+      <c r="AT43">
+        <v>-20.6</v>
+      </c>
+      <c r="AU43">
+        <v>-24</v>
+      </c>
+      <c r="AV43">
+        <v>-37.1</v>
+      </c>
+      <c r="AW43">
+        <v>-39</v>
+      </c>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>45691</v>
       </c>
+      <c r="B44">
+        <v>-36.1</v>
+      </c>
+      <c r="C44">
+        <v>-38.6</v>
+      </c>
+      <c r="D44">
+        <v>-41.5</v>
+      </c>
+      <c r="E44">
+        <v>-37</v>
+      </c>
+      <c r="F44">
+        <v>-35.1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>246</v>
+      </c>
+      <c r="H44">
+        <v>-40.9</v>
+      </c>
+      <c r="I44">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="J44">
+        <v>-23.8</v>
+      </c>
+      <c r="K44">
+        <v>-37.9</v>
+      </c>
+      <c r="L44">
+        <v>-28.3</v>
+      </c>
+      <c r="M44">
+        <v>-31.1</v>
+      </c>
+      <c r="N44">
+        <v>-31.9</v>
+      </c>
+      <c r="O44">
+        <v>-29.9</v>
+      </c>
+      <c r="P44">
+        <v>-29.9</v>
+      </c>
+      <c r="Q44">
+        <v>-28.5</v>
+      </c>
+      <c r="R44">
+        <v>-34</v>
+      </c>
+      <c r="S44">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="T44">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="U44">
+        <v>-30.9</v>
+      </c>
+      <c r="V44">
+        <v>-36.4</v>
+      </c>
+      <c r="W44">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="X44">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="Y44">
+        <v>-26.9</v>
+      </c>
+      <c r="Z44">
+        <v>-30.7</v>
+      </c>
+      <c r="AA44">
+        <v>-39.6</v>
+      </c>
+      <c r="AB44">
+        <v>-34.9</v>
+      </c>
+      <c r="AC44">
+        <v>-22.5</v>
+      </c>
+      <c r="AD44">
+        <v>-15.6</v>
+      </c>
+      <c r="AE44">
+        <v>-38.4</v>
+      </c>
+      <c r="AF44">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="AG44">
+        <v>1.9</v>
+      </c>
+      <c r="AH44">
+        <v>-19.5</v>
+      </c>
+      <c r="AI44">
+        <v>-23.2</v>
+      </c>
+      <c r="AJ44">
+        <v>-24.5</v>
+      </c>
+      <c r="AK44">
+        <v>-23.7</v>
+      </c>
+      <c r="AL44">
+        <v>-33</v>
+      </c>
+      <c r="AM44">
+        <v>-23.2</v>
+      </c>
+      <c r="AN44">
+        <v>-30.4</v>
+      </c>
+      <c r="AO44">
+        <v>-30</v>
+      </c>
+      <c r="AP44">
+        <v>-34</v>
+      </c>
+      <c r="AQ44">
+        <v>-30.2</v>
+      </c>
+      <c r="AR44">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="AS44">
+        <v>-29.3</v>
+      </c>
+      <c r="AT44">
+        <v>-22.3</v>
+      </c>
+      <c r="AU44">
+        <v>-16.5</v>
+      </c>
+      <c r="AV44">
+        <v>-38</v>
+      </c>
+      <c r="AW44">
+        <v>-39.6</v>
+      </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>45692</v>
       </c>
+      <c r="B45">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="C45">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="D45">
+        <v>-43.4</v>
+      </c>
+      <c r="E45">
+        <v>-37.9</v>
+      </c>
+      <c r="F45">
+        <v>-37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45">
+        <v>-42.1</v>
+      </c>
+      <c r="I45">
+        <v>-37.5</v>
+      </c>
+      <c r="J45">
+        <v>-30</v>
+      </c>
+      <c r="K45">
+        <v>-41.3</v>
+      </c>
+      <c r="L45">
+        <v>-27.8</v>
+      </c>
+      <c r="M45">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="N45">
+        <v>-34.1</v>
+      </c>
+      <c r="O45">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="P45">
+        <v>-32.6</v>
+      </c>
+      <c r="Q45">
+        <v>-24.2</v>
+      </c>
+      <c r="R45">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="S45">
+        <v>-34.5</v>
+      </c>
+      <c r="T45">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="U45">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="V45">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="W45">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="X45">
+        <v>-32.5</v>
+      </c>
+      <c r="Y45">
+        <v>-25.7</v>
+      </c>
+      <c r="Z45">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="AA45">
+        <v>-40.4</v>
+      </c>
+      <c r="AB45">
+        <v>-35.6</v>
+      </c>
+      <c r="AC45">
+        <v>-25.5</v>
+      </c>
+      <c r="AD45">
+        <v>-16.8</v>
+      </c>
+      <c r="AE45">
+        <v>-40</v>
+      </c>
+      <c r="AF45">
+        <v>-18.8</v>
+      </c>
+      <c r="AG45">
+        <v>-2.7</v>
+      </c>
+      <c r="AH45">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="AI45">
+        <v>-30</v>
+      </c>
+      <c r="AJ45">
+        <v>-25.1</v>
+      </c>
+      <c r="AK45">
+        <v>-25.5</v>
+      </c>
+      <c r="AL45">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="AM45">
+        <v>-26</v>
+      </c>
+      <c r="AN45">
+        <v>-35.5</v>
+      </c>
+      <c r="AO45">
+        <v>-32</v>
+      </c>
+      <c r="AP45">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="AQ45">
+        <v>-26.5</v>
+      </c>
+      <c r="AR45">
+        <v>-19.3</v>
+      </c>
+      <c r="AS45">
+        <v>-30.4</v>
+      </c>
+      <c r="AT45">
+        <v>-22.3</v>
+      </c>
+      <c r="AU45">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="AV45">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="AW45">
+        <v>-36.1</v>
+      </c>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>45693</v>
       </c>
+      <c r="B46">
+        <v>-40</v>
+      </c>
+      <c r="C46">
+        <v>-25.6</v>
+      </c>
+      <c r="D46">
+        <v>-36.5</v>
+      </c>
+      <c r="E46">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="F46">
+        <v>-39.9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46">
+        <v>-24.3</v>
+      </c>
+      <c r="I46">
+        <v>-26.9</v>
+      </c>
+      <c r="J46">
+        <v>-29.6</v>
+      </c>
+      <c r="K46">
+        <v>-34.4</v>
+      </c>
+      <c r="L46">
+        <v>-31.2</v>
+      </c>
+      <c r="M46">
+        <v>-27.6</v>
+      </c>
+      <c r="N46">
+        <v>-29.3</v>
+      </c>
+      <c r="O46">
+        <v>-31.9</v>
+      </c>
+      <c r="P46">
+        <v>-30.4</v>
+      </c>
+      <c r="Q46">
+        <v>-26.2</v>
+      </c>
+      <c r="R46">
+        <v>-38.9</v>
+      </c>
+      <c r="S46">
+        <v>-35.9</v>
+      </c>
+      <c r="T46">
+        <v>-31</v>
+      </c>
+      <c r="U46">
+        <v>-35.6</v>
+      </c>
+      <c r="V46">
+        <v>-39.1</v>
+      </c>
+      <c r="W46">
+        <v>-37.5</v>
+      </c>
+      <c r="X46">
+        <v>-27.7</v>
+      </c>
+      <c r="Y46">
+        <v>-24.8</v>
+      </c>
+      <c r="Z46">
+        <v>-42.4</v>
+      </c>
+      <c r="AA46">
+        <v>-42.8</v>
+      </c>
+      <c r="AB46">
+        <v>-34.9</v>
+      </c>
+      <c r="AC46">
+        <v>-23.2</v>
+      </c>
+      <c r="AD46">
+        <v>-18.5</v>
+      </c>
+      <c r="AE46">
+        <v>-39.5</v>
+      </c>
+      <c r="AF46">
+        <v>-18.3</v>
+      </c>
+      <c r="AG46">
+        <v>3</v>
+      </c>
+      <c r="AH46">
+        <v>-21.2</v>
+      </c>
+      <c r="AI46">
+        <v>-25.5</v>
+      </c>
+      <c r="AJ46">
+        <v>-30.7</v>
+      </c>
+      <c r="AK46">
+        <v>-28.4</v>
+      </c>
+      <c r="AL46">
+        <v>-36</v>
+      </c>
+      <c r="AM46">
+        <v>-22.1</v>
+      </c>
+      <c r="AN46">
+        <v>-31.8</v>
+      </c>
+      <c r="AO46">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="AP46">
+        <v>-36.6</v>
+      </c>
+      <c r="AQ46">
+        <v>-20.8</v>
+      </c>
+      <c r="AR46">
+        <v>-11.9</v>
+      </c>
+      <c r="AS46">
+        <v>-31.2</v>
+      </c>
+      <c r="AT46">
+        <v>-27.5</v>
+      </c>
+      <c r="AU46">
+        <v>-15</v>
+      </c>
+      <c r="AV46">
+        <v>-40.700000000000003</v>
+      </c>
+      <c r="AW46">
+        <v>-37.799999999999997</v>
+      </c>
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>45694</v>
       </c>
+      <c r="B47">
+        <v>-34</v>
+      </c>
+      <c r="C47">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="D47">
+        <v>-30.3</v>
+      </c>
+      <c r="E47">
+        <v>-35.9</v>
+      </c>
+      <c r="F47">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="G47" t="s">
+        <v>246</v>
+      </c>
+      <c r="H47">
+        <v>-43.1</v>
+      </c>
+      <c r="I47">
+        <v>-31.8</v>
+      </c>
+      <c r="J47">
+        <v>-27.1</v>
+      </c>
+      <c r="K47">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="L47">
+        <v>-20.2</v>
+      </c>
+      <c r="M47">
+        <v>-14.9</v>
+      </c>
+      <c r="N47">
+        <v>-18</v>
+      </c>
+      <c r="O47">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="P47">
+        <v>-24.2</v>
+      </c>
+      <c r="Q47">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="R47">
+        <v>-37.9</v>
+      </c>
+      <c r="S47">
+        <v>-33.1</v>
+      </c>
+      <c r="T47">
+        <v>-25.5</v>
+      </c>
+      <c r="U47">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="V47">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="W47">
+        <v>-31.7</v>
+      </c>
+      <c r="X47">
+        <v>-26.2</v>
+      </c>
+      <c r="Y47">
+        <v>-31.7</v>
+      </c>
+      <c r="Z47">
+        <v>-38</v>
+      </c>
+      <c r="AA47">
+        <v>-42.7</v>
+      </c>
+      <c r="AB47">
+        <v>-31.9</v>
+      </c>
+      <c r="AC47">
+        <v>-22.6</v>
+      </c>
+      <c r="AD47">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="AE47">
+        <v>-38.6</v>
+      </c>
+      <c r="AF47">
+        <v>-20.7</v>
+      </c>
+      <c r="AG47">
+        <v>1.7</v>
+      </c>
+      <c r="AH47">
+        <v>-17.8</v>
+      </c>
+      <c r="AI47">
+        <v>-25.1</v>
+      </c>
+      <c r="AJ47">
+        <v>-28</v>
+      </c>
+      <c r="AK47">
+        <v>-30.7</v>
+      </c>
+      <c r="AL47">
+        <v>-33</v>
+      </c>
+      <c r="AM47">
+        <v>-21.3</v>
+      </c>
+      <c r="AN47">
+        <v>-23.7</v>
+      </c>
+      <c r="AO47">
+        <v>-25.4</v>
+      </c>
+      <c r="AP47">
+        <v>-27.8</v>
+      </c>
+      <c r="AQ47">
+        <v>-21.3</v>
+      </c>
+      <c r="AR47">
+        <v>-11.4</v>
+      </c>
+      <c r="AS47">
+        <v>-28.6</v>
+      </c>
+      <c r="AT47">
+        <v>-25.5</v>
+      </c>
+      <c r="AU47">
+        <v>-14.2</v>
+      </c>
+      <c r="AV47">
+        <v>-38.5</v>
+      </c>
+      <c r="AW47">
+        <v>-40.799999999999997</v>
+      </c>
     </row>
     <row r="48" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>45695</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B48">
+        <v>-34.5</v>
+      </c>
+      <c r="C48">
+        <v>-38.1</v>
+      </c>
+      <c r="D48">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="E48">
+        <v>-22.1</v>
+      </c>
+      <c r="F48">
+        <v>-31.5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>246</v>
+      </c>
+      <c r="H48">
+        <v>-43.5</v>
+      </c>
+      <c r="I48">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="J48">
+        <v>-22.7</v>
+      </c>
+      <c r="K48">
+        <v>-34.1</v>
+      </c>
+      <c r="L48">
+        <v>-15.9</v>
+      </c>
+      <c r="M48">
+        <v>-12.3</v>
+      </c>
+      <c r="N48">
+        <v>-21</v>
+      </c>
+      <c r="O48">
+        <v>-16</v>
+      </c>
+      <c r="P48">
+        <v>-18.7</v>
+      </c>
+      <c r="Q48">
+        <v>-14.5</v>
+      </c>
+      <c r="R48">
+        <v>-37.4</v>
+      </c>
+      <c r="S48">
+        <v>-22.3</v>
+      </c>
+      <c r="T48">
+        <v>-22.6</v>
+      </c>
+      <c r="U48">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="V48">
+        <v>-21.8</v>
+      </c>
+      <c r="W48">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="X48">
+        <v>-18</v>
+      </c>
+      <c r="Y48">
+        <v>-30.8</v>
+      </c>
+      <c r="Z48">
+        <v>-27.3</v>
+      </c>
+      <c r="AA48">
+        <v>-27.4</v>
+      </c>
+      <c r="AB48">
+        <v>-23.9</v>
+      </c>
+      <c r="AC48">
+        <v>-20.3</v>
+      </c>
+      <c r="AD48">
+        <v>-15.4</v>
+      </c>
+      <c r="AE48">
+        <v>-30.8</v>
+      </c>
+      <c r="AF48">
+        <v>-26.5</v>
+      </c>
+      <c r="AG48">
+        <v>-1.8</v>
+      </c>
+      <c r="AH48">
+        <v>-21</v>
+      </c>
+      <c r="AI48">
+        <v>-30.6</v>
+      </c>
+      <c r="AJ48">
+        <v>-19.7</v>
+      </c>
+      <c r="AK48">
+        <v>-25.3</v>
+      </c>
+      <c r="AL48">
+        <v>-31.2</v>
+      </c>
+      <c r="AM48">
+        <v>-27.9</v>
+      </c>
+      <c r="AN48">
+        <v>-17</v>
+      </c>
+      <c r="AO48">
+        <v>-14.2</v>
+      </c>
+      <c r="AP48">
+        <v>-31.4</v>
+      </c>
+      <c r="AQ48">
+        <v>-21.7</v>
+      </c>
+      <c r="AR48">
+        <v>-12.9</v>
+      </c>
+      <c r="AS48">
+        <v>-26.2</v>
+      </c>
+      <c r="AT48">
+        <v>-24.7</v>
+      </c>
+      <c r="AU48">
+        <v>-13.1</v>
+      </c>
+      <c r="AV48">
+        <v>-22.3</v>
+      </c>
+      <c r="AW48">
+        <v>-22.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>45696</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B49">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="C49">
+        <v>-35.4</v>
+      </c>
+      <c r="D49">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="E49">
+        <v>-35.4</v>
+      </c>
+      <c r="F49">
+        <v>-30.8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>246</v>
+      </c>
+      <c r="H49">
+        <v>-39.6</v>
+      </c>
+      <c r="I49">
+        <v>-41.1</v>
+      </c>
+      <c r="J49">
+        <v>-25.1</v>
+      </c>
+      <c r="K49">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="L49">
+        <v>-18.2</v>
+      </c>
+      <c r="M49">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="N49">
+        <v>-23.4</v>
+      </c>
+      <c r="O49">
+        <v>-22.4</v>
+      </c>
+      <c r="P49">
+        <v>-23.2</v>
+      </c>
+      <c r="Q49">
+        <v>-25.1</v>
+      </c>
+      <c r="R49">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="S49">
+        <v>-30.2</v>
+      </c>
+      <c r="T49">
+        <v>-22.8</v>
+      </c>
+      <c r="U49">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="V49">
+        <v>-32.5</v>
+      </c>
+      <c r="W49">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="X49">
+        <v>-25.5</v>
+      </c>
+      <c r="Y49">
+        <v>-25.2</v>
+      </c>
+      <c r="Z49">
+        <v>-35.1</v>
+      </c>
+      <c r="AA49">
+        <v>-33</v>
+      </c>
+      <c r="AB49">
+        <v>-31.2</v>
+      </c>
+      <c r="AC49">
+        <v>-19.7</v>
+      </c>
+      <c r="AD49">
+        <v>-14.7</v>
+      </c>
+      <c r="AE49">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="AF49">
+        <v>-23.7</v>
+      </c>
+      <c r="AG49">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="AH49">
+        <v>-18.2</v>
+      </c>
+      <c r="AI49">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="AJ49">
+        <v>-15.7</v>
+      </c>
+      <c r="AK49">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="AL49">
+        <v>-21.3</v>
+      </c>
+      <c r="AM49">
+        <v>-30.4</v>
+      </c>
+      <c r="AN49">
+        <v>-22.3</v>
+      </c>
+      <c r="AO49">
+        <v>-16.7</v>
+      </c>
+      <c r="AP49">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="AQ49">
+        <v>-27.3</v>
+      </c>
+      <c r="AR49">
+        <v>-19.8</v>
+      </c>
+      <c r="AS49">
+        <v>-25.4</v>
+      </c>
+      <c r="AT49">
+        <v>-20.8</v>
+      </c>
+      <c r="AU49">
+        <v>-11.7</v>
+      </c>
+      <c r="AV49">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="AW49">
+        <v>-31.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>45697</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B50">
+        <v>-35</v>
+      </c>
+      <c r="C50">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="D50">
+        <v>-36.5</v>
+      </c>
+      <c r="E50">
+        <v>-30.4</v>
+      </c>
+      <c r="F50">
+        <v>-34.9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>246</v>
+      </c>
+      <c r="H50">
+        <v>-39.9</v>
+      </c>
+      <c r="I50">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="J50">
+        <v>-30.9</v>
+      </c>
+      <c r="K50">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="L50">
+        <v>-24.1</v>
+      </c>
+      <c r="M50">
+        <v>-25.5</v>
+      </c>
+      <c r="N50">
+        <v>-24</v>
+      </c>
+      <c r="O50">
+        <v>-22.2</v>
+      </c>
+      <c r="P50">
+        <v>-24.8</v>
+      </c>
+      <c r="Q50">
+        <v>-23.1</v>
+      </c>
+      <c r="R50">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="S50">
+        <v>-30.9</v>
+      </c>
+      <c r="T50">
+        <v>-30.3</v>
+      </c>
+      <c r="U50">
+        <v>-30.1</v>
+      </c>
+      <c r="V50">
+        <v>-24.7</v>
+      </c>
+      <c r="W50">
+        <v>-36.1</v>
+      </c>
+      <c r="X50">
+        <v>-27.1</v>
+      </c>
+      <c r="Y50">
+        <v>-23.2</v>
+      </c>
+      <c r="Z50">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="AA50">
+        <v>-37.9</v>
+      </c>
+      <c r="AB50">
+        <v>-33.9</v>
+      </c>
+      <c r="AC50">
+        <v>-25</v>
+      </c>
+      <c r="AD50">
+        <v>-13.1</v>
+      </c>
+      <c r="AE50">
+        <v>-35.9</v>
+      </c>
+      <c r="AF50">
+        <v>-20.3</v>
+      </c>
+      <c r="AG50">
+        <v>-6.2</v>
+      </c>
+      <c r="AH50">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="AI50">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="AJ50">
+        <v>-20</v>
+      </c>
+      <c r="AK50">
+        <v>-26.7</v>
+      </c>
+      <c r="AL50">
+        <v>-31.4</v>
+      </c>
+      <c r="AM50">
+        <v>-26.5</v>
+      </c>
+      <c r="AN50">
+        <v>-30.8</v>
+      </c>
+      <c r="AO50">
+        <v>-29.2</v>
+      </c>
+      <c r="AP50">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="AQ50">
+        <v>-24.7</v>
+      </c>
+      <c r="AR50">
+        <v>-13.9</v>
+      </c>
+      <c r="AS50">
+        <v>-26.9</v>
+      </c>
+      <c r="AT50">
+        <v>-21.4</v>
+      </c>
+      <c r="AU50">
+        <v>-9.9</v>
+      </c>
+      <c r="AV50">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="AW50">
+        <v>-37.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>45698</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>45699</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>45700</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>45701</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>45702</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>45703</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>45704</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>45705</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>45706</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>45707</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
         <v>45708</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
         <v>45709</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A63" s="16">
         <v>45710</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A64" s="16">
         <v>45711</v>
       </c>
@@ -12272,8 +13865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFE5A94-8276-425C-8C4C-F53ED14714E0}">
   <dimension ref="A1:AW79"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AG39" sqref="AG39"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -12379,7 +13972,7 @@
         <v>139</v>
       </c>
       <c r="AG1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH1" t="s">
         <v>140</v>
@@ -13288,7 +14881,7 @@
         <v>3.1</v>
       </c>
       <c r="AR7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AS7">
         <v>-11.5</v>
@@ -13735,7 +15328,7 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="AR10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AS10">
         <v>-7.8</v>
@@ -13773,7 +15366,7 @@
         <v>-31.8</v>
       </c>
       <c r="G11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H11">
         <v>-14.3</v>
@@ -13884,7 +15477,7 @@
         <v>-4.5999999999999996</v>
       </c>
       <c r="AR11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AS11">
         <v>-6.5</v>
@@ -13910,19 +15503,19 @@
         <v>-32.5</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D12">
         <v>-33.4</v>
       </c>
       <c r="E12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H12">
         <v>-16.2</v>
@@ -14071,7 +15664,7 @@
         <v>-27.2</v>
       </c>
       <c r="G13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H13">
         <v>-28.1</v>
@@ -14220,7 +15813,7 @@
         <v>-24.3</v>
       </c>
       <c r="G14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H14">
         <v>-18.8</v>
@@ -14369,7 +15962,7 @@
         <v>-25.1</v>
       </c>
       <c r="G15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H15">
         <v>-16.5</v>
@@ -14518,7 +16111,7 @@
         <v>-27.7</v>
       </c>
       <c r="G16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H16">
         <v>-14.2</v>
@@ -14667,7 +16260,7 @@
         <v>-27.9</v>
       </c>
       <c r="G17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H17">
         <v>-23.8</v>
@@ -14816,7 +16409,7 @@
         <v>-27.5</v>
       </c>
       <c r="G18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H18">
         <v>-28.5</v>
@@ -14965,7 +16558,7 @@
         <v>-23.7</v>
       </c>
       <c r="G19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H19">
         <v>-29.1</v>
@@ -15114,7 +16707,7 @@
         <v>-23.8</v>
       </c>
       <c r="G20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H20">
         <v>-20.5</v>
@@ -15263,7 +16856,7 @@
         <v>-21.6</v>
       </c>
       <c r="G21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H21">
         <v>-21.2</v>
@@ -15412,7 +17005,7 @@
         <v>-22.2</v>
       </c>
       <c r="G22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H22">
         <v>-19.8</v>
@@ -15561,7 +17154,7 @@
         <v>-26.6</v>
       </c>
       <c r="G23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H23">
         <v>-12.6</v>
@@ -15710,7 +17303,7 @@
         <v>-23</v>
       </c>
       <c r="G24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H24">
         <v>-13.6</v>
@@ -15859,7 +17452,7 @@
         <v>-31.8</v>
       </c>
       <c r="G25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H25">
         <v>-2.4</v>
@@ -16008,7 +17601,7 @@
         <v>-33.799999999999997</v>
       </c>
       <c r="G26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H26">
         <v>-6.1</v>
@@ -16157,7 +17750,7 @@
         <v>-28.1</v>
       </c>
       <c r="G27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H27">
         <v>-17.5</v>
@@ -16306,7 +17899,7 @@
         <v>-27.5</v>
       </c>
       <c r="G28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H28">
         <v>-17.3</v>
@@ -16455,7 +18048,7 @@
         <v>-26.1</v>
       </c>
       <c r="G29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H29">
         <v>-11.8</v>
@@ -16604,7 +18197,7 @@
         <v>-26.1</v>
       </c>
       <c r="G30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H30">
         <v>-13.3</v>
@@ -16753,7 +18346,7 @@
         <v>-26.5</v>
       </c>
       <c r="G31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H31">
         <v>-16.5</v>
@@ -16902,7 +18495,7 @@
         <v>-23.9</v>
       </c>
       <c r="G32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H32">
         <v>-18.7</v>
@@ -17051,7 +18644,7 @@
         <v>-24.6</v>
       </c>
       <c r="G33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H33">
         <v>-13.6</v>
@@ -17200,7 +18793,7 @@
         <v>-24.3</v>
       </c>
       <c r="G34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H34">
         <v>-8.4</v>
@@ -17349,7 +18942,7 @@
         <v>-26.9</v>
       </c>
       <c r="G35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H35">
         <v>-19.3</v>
@@ -17498,7 +19091,7 @@
         <v>-25.8</v>
       </c>
       <c r="G36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H36">
         <v>-32.299999999999997</v>
@@ -17647,7 +19240,7 @@
         <v>-24.2</v>
       </c>
       <c r="G37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H37">
         <v>-26.2</v>
@@ -17796,7 +19389,7 @@
         <v>-25</v>
       </c>
       <c r="G38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H38">
         <v>-24</v>
@@ -17945,7 +19538,7 @@
         <v>-24</v>
       </c>
       <c r="G39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H39">
         <v>-30.9</v>
@@ -18078,123 +19671,1707 @@
       <c r="A40" s="16">
         <v>45687</v>
       </c>
+      <c r="B40">
+        <v>-24.8</v>
+      </c>
+      <c r="C40">
+        <v>-23.2</v>
+      </c>
+      <c r="D40">
+        <v>-16.3</v>
+      </c>
+      <c r="E40">
+        <v>-25</v>
+      </c>
+      <c r="F40">
+        <v>-23.3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>246</v>
+      </c>
+      <c r="H40">
+        <v>-30.6</v>
+      </c>
+      <c r="I40">
+        <v>-27.4</v>
+      </c>
+      <c r="J40">
+        <v>-18.2</v>
+      </c>
+      <c r="K40">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="L40">
+        <v>-12.7</v>
+      </c>
+      <c r="M40">
+        <v>-8.6</v>
+      </c>
+      <c r="N40">
+        <v>-8.9</v>
+      </c>
+      <c r="O40">
+        <v>-10.9</v>
+      </c>
+      <c r="P40">
+        <v>-11.8</v>
+      </c>
+      <c r="Q40">
+        <v>-17.5</v>
+      </c>
+      <c r="R40">
+        <v>-15.8</v>
+      </c>
+      <c r="S40">
+        <v>-21.5</v>
+      </c>
+      <c r="T40">
+        <v>-22.3</v>
+      </c>
+      <c r="U40">
+        <v>-20.3</v>
+      </c>
+      <c r="V40">
+        <v>-23.5</v>
+      </c>
+      <c r="W40">
+        <v>-16.8</v>
+      </c>
+      <c r="X40">
+        <v>-15.9</v>
+      </c>
+      <c r="Y40">
+        <v>-15.1</v>
+      </c>
+      <c r="Z40">
+        <v>-15.8</v>
+      </c>
+      <c r="AA40">
+        <v>-20.6</v>
+      </c>
+      <c r="AB40">
+        <v>-24.7</v>
+      </c>
+      <c r="AC40">
+        <v>-8.4</v>
+      </c>
+      <c r="AD40">
+        <v>0.4</v>
+      </c>
+      <c r="AE40">
+        <v>-17.5</v>
+      </c>
+      <c r="AF40">
+        <v>-2.7</v>
+      </c>
+      <c r="AG40">
+        <v>18.2</v>
+      </c>
+      <c r="AH40">
+        <v>0.1</v>
+      </c>
+      <c r="AI40">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="AJ40">
+        <v>-13.7</v>
+      </c>
+      <c r="AK40">
+        <v>-11.8</v>
+      </c>
+      <c r="AL40">
+        <v>-12</v>
+      </c>
+      <c r="AM40">
+        <v>0.2</v>
+      </c>
+      <c r="AN40">
+        <v>-11.7</v>
+      </c>
+      <c r="AO40">
+        <v>-13.2</v>
+      </c>
+      <c r="AP40">
+        <v>-21.4</v>
+      </c>
+      <c r="AQ40">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AR40">
+        <v>-2.8</v>
+      </c>
+      <c r="AS40">
+        <v>-6.9</v>
+      </c>
+      <c r="AT40">
+        <v>-1.4</v>
+      </c>
+      <c r="AU40">
+        <v>-5.6</v>
+      </c>
+      <c r="AV40">
+        <v>-21.1</v>
+      </c>
+      <c r="AW40">
+        <v>-26.6</v>
+      </c>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>45688</v>
       </c>
+      <c r="B41">
+        <v>-21.2</v>
+      </c>
+      <c r="C41">
+        <v>-22.8</v>
+      </c>
+      <c r="D41">
+        <v>-16.2</v>
+      </c>
+      <c r="E41">
+        <v>-21.9</v>
+      </c>
+      <c r="F41">
+        <v>-20.3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>246</v>
+      </c>
+      <c r="H41">
+        <v>-33.5</v>
+      </c>
+      <c r="I41">
+        <v>-25.4</v>
+      </c>
+      <c r="J41">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="K41">
+        <v>-15.2</v>
+      </c>
+      <c r="L41">
+        <v>-11.7</v>
+      </c>
+      <c r="M41">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="N41">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="O41">
+        <v>-15.1</v>
+      </c>
+      <c r="P41">
+        <v>-11</v>
+      </c>
+      <c r="Q41">
+        <v>-16.3</v>
+      </c>
+      <c r="R41">
+        <v>-15.5</v>
+      </c>
+      <c r="S41">
+        <v>-17.8</v>
+      </c>
+      <c r="T41">
+        <v>-26.3</v>
+      </c>
+      <c r="U41">
+        <v>-20.2</v>
+      </c>
+      <c r="V41">
+        <v>-22.7</v>
+      </c>
+      <c r="W41">
+        <v>-13.8</v>
+      </c>
+      <c r="X41">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="Y41">
+        <v>-14.2</v>
+      </c>
+      <c r="Z41">
+        <v>-15.6</v>
+      </c>
+      <c r="AA41">
+        <v>-19.3</v>
+      </c>
+      <c r="AB41">
+        <v>-23.1</v>
+      </c>
+      <c r="AC41">
+        <v>-8.6</v>
+      </c>
+      <c r="AD41">
+        <v>-5.5</v>
+      </c>
+      <c r="AE41">
+        <v>-17</v>
+      </c>
+      <c r="AF41">
+        <v>-1.4</v>
+      </c>
+      <c r="AG41">
+        <v>12.4</v>
+      </c>
+      <c r="AH41">
+        <v>-0.4</v>
+      </c>
+      <c r="AI41">
+        <v>-7.1</v>
+      </c>
+      <c r="AJ41">
+        <v>-11.9</v>
+      </c>
+      <c r="AK41">
+        <v>-10.5</v>
+      </c>
+      <c r="AL41">
+        <v>-8.6</v>
+      </c>
+      <c r="AM41">
+        <v>0.7</v>
+      </c>
+      <c r="AN41">
+        <v>-13.6</v>
+      </c>
+      <c r="AO41">
+        <v>-14.9</v>
+      </c>
+      <c r="AP41">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AQ41">
+        <v>-1.8</v>
+      </c>
+      <c r="AR41">
+        <v>-2.6</v>
+      </c>
+      <c r="AS41">
+        <v>-7.8</v>
+      </c>
+      <c r="AT41">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AU41">
+        <v>-7.6</v>
+      </c>
+      <c r="AV41">
+        <v>-19.3</v>
+      </c>
+      <c r="AW41">
+        <v>-27.4</v>
+      </c>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>45689</v>
       </c>
+      <c r="B42">
+        <v>-22.8</v>
+      </c>
+      <c r="C42">
+        <v>-26.1</v>
+      </c>
+      <c r="D42">
+        <v>-18.7</v>
+      </c>
+      <c r="E42">
+        <v>-25.3</v>
+      </c>
+      <c r="F42">
+        <v>-20.6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="I42">
+        <v>-26.3</v>
+      </c>
+      <c r="J42">
+        <v>-17.3</v>
+      </c>
+      <c r="K42">
+        <v>-19</v>
+      </c>
+      <c r="L42">
+        <v>-18</v>
+      </c>
+      <c r="M42">
+        <v>-12.8</v>
+      </c>
+      <c r="N42">
+        <v>-13</v>
+      </c>
+      <c r="O42">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="P42">
+        <v>-11.9</v>
+      </c>
+      <c r="Q42">
+        <v>-13.2</v>
+      </c>
+      <c r="R42">
+        <v>-19.8</v>
+      </c>
+      <c r="S42">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="T42">
+        <v>-27.2</v>
+      </c>
+      <c r="U42">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="V42">
+        <v>-26.5</v>
+      </c>
+      <c r="W42">
+        <v>-18.3</v>
+      </c>
+      <c r="X42">
+        <v>-18.5</v>
+      </c>
+      <c r="Y42">
+        <v>-15.2</v>
+      </c>
+      <c r="Z42">
+        <v>-15.6</v>
+      </c>
+      <c r="AA42">
+        <v>-19.7</v>
+      </c>
+      <c r="AB42">
+        <v>-24.2</v>
+      </c>
+      <c r="AC42">
+        <v>-10.9</v>
+      </c>
+      <c r="AD42">
+        <v>-4.5</v>
+      </c>
+      <c r="AE42">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="AF42">
+        <v>-1</v>
+      </c>
+      <c r="AG42">
+        <v>5</v>
+      </c>
+      <c r="AH42">
+        <v>-5.2</v>
+      </c>
+      <c r="AI42">
+        <v>-5.5</v>
+      </c>
+      <c r="AJ42">
+        <v>-9.6</v>
+      </c>
+      <c r="AK42">
+        <v>-7.9</v>
+      </c>
+      <c r="AL42">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="AM42">
+        <v>2.8</v>
+      </c>
+      <c r="AN42">
+        <v>-15.4</v>
+      </c>
+      <c r="AO42">
+        <v>-16.7</v>
+      </c>
+      <c r="AP42">
+        <v>-15.9</v>
+      </c>
+      <c r="AQ42">
+        <v>0.6</v>
+      </c>
+      <c r="AR42">
+        <v>4</v>
+      </c>
+      <c r="AS42">
+        <v>-9.6</v>
+      </c>
+      <c r="AT42">
+        <v>-7.9</v>
+      </c>
+      <c r="AU42">
+        <v>-9.6</v>
+      </c>
+      <c r="AV42">
+        <v>-19.5</v>
+      </c>
+      <c r="AW42">
+        <v>-29.8</v>
+      </c>
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>45690</v>
       </c>
+      <c r="B43">
+        <v>-26.9</v>
+      </c>
+      <c r="C43">
+        <v>-22.1</v>
+      </c>
+      <c r="D43">
+        <v>-27</v>
+      </c>
+      <c r="E43">
+        <v>-24.6</v>
+      </c>
+      <c r="F43">
+        <v>-25.1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>246</v>
+      </c>
+      <c r="H43">
+        <v>-30.1</v>
+      </c>
+      <c r="I43">
+        <v>-24.6</v>
+      </c>
+      <c r="J43">
+        <v>-18.8</v>
+      </c>
+      <c r="K43">
+        <v>-18.2</v>
+      </c>
+      <c r="L43">
+        <v>-14.8</v>
+      </c>
+      <c r="M43">
+        <v>-13.3</v>
+      </c>
+      <c r="N43">
+        <v>-14.8</v>
+      </c>
+      <c r="O43">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="P43">
+        <v>-12.9</v>
+      </c>
+      <c r="Q43">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="R43">
+        <v>-23.2</v>
+      </c>
+      <c r="S43">
+        <v>-21.2</v>
+      </c>
+      <c r="T43">
+        <v>-26.9</v>
+      </c>
+      <c r="U43">
+        <v>-20</v>
+      </c>
+      <c r="V43">
+        <v>-23.8</v>
+      </c>
+      <c r="W43">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="X43">
+        <v>-22.7</v>
+      </c>
+      <c r="Y43">
+        <v>-15</v>
+      </c>
+      <c r="Z43">
+        <v>-18.5</v>
+      </c>
+      <c r="AA43">
+        <v>-20.9</v>
+      </c>
+      <c r="AB43">
+        <v>-25.4</v>
+      </c>
+      <c r="AC43">
+        <v>-11.2</v>
+      </c>
+      <c r="AD43">
+        <v>-7.8</v>
+      </c>
+      <c r="AE43">
+        <v>-23.8</v>
+      </c>
+      <c r="AF43">
+        <v>-3.2</v>
+      </c>
+      <c r="AG43">
+        <v>6.1</v>
+      </c>
+      <c r="AH43">
+        <v>-6.1</v>
+      </c>
+      <c r="AI43">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="AJ43">
+        <v>-10.7</v>
+      </c>
+      <c r="AK43">
+        <v>-7.8</v>
+      </c>
+      <c r="AL43">
+        <v>-7.9</v>
+      </c>
+      <c r="AM43">
+        <v>-4.3</v>
+      </c>
+      <c r="AN43">
+        <v>-17.5</v>
+      </c>
+      <c r="AO43">
+        <v>-17.3</v>
+      </c>
+      <c r="AP43">
+        <v>-20.3</v>
+      </c>
+      <c r="AQ43">
+        <v>-3.4</v>
+      </c>
+      <c r="AR43">
+        <v>2</v>
+      </c>
+      <c r="AS43">
+        <v>-12.9</v>
+      </c>
+      <c r="AT43">
+        <v>-7.9</v>
+      </c>
+      <c r="AU43">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AV43">
+        <v>-21.2</v>
+      </c>
+      <c r="AW43">
+        <v>-27.7</v>
+      </c>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>45691</v>
       </c>
+      <c r="B44">
+        <v>-25.9</v>
+      </c>
+      <c r="C44">
+        <v>-22.9</v>
+      </c>
+      <c r="D44">
+        <v>-28.6</v>
+      </c>
+      <c r="E44">
+        <v>-26</v>
+      </c>
+      <c r="F44">
+        <v>-24.7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>246</v>
+      </c>
+      <c r="H44">
+        <v>-28.4</v>
+      </c>
+      <c r="I44">
+        <v>-25.2</v>
+      </c>
+      <c r="J44">
+        <v>-20.2</v>
+      </c>
+      <c r="K44">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="L44">
+        <v>-16</v>
+      </c>
+      <c r="M44">
+        <v>-14</v>
+      </c>
+      <c r="N44">
+        <v>-16</v>
+      </c>
+      <c r="O44">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="P44">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="Q44">
+        <v>-18.7</v>
+      </c>
+      <c r="R44">
+        <v>-21.9</v>
+      </c>
+      <c r="S44">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="T44">
+        <v>-29.2</v>
+      </c>
+      <c r="U44">
+        <v>-19.7</v>
+      </c>
+      <c r="V44">
+        <v>-23.5</v>
+      </c>
+      <c r="W44">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="X44">
+        <v>-23.9</v>
+      </c>
+      <c r="Y44">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="Z44">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="AA44">
+        <v>-20.3</v>
+      </c>
+      <c r="AB44">
+        <v>-24.3</v>
+      </c>
+      <c r="AC44">
+        <v>-11.8</v>
+      </c>
+      <c r="AD44">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="AE44">
+        <v>-24.1</v>
+      </c>
+      <c r="AF44">
+        <v>-5.8</v>
+      </c>
+      <c r="AG44">
+        <v>11.4</v>
+      </c>
+      <c r="AH44">
+        <v>-4.7</v>
+      </c>
+      <c r="AI44">
+        <v>-17.3</v>
+      </c>
+      <c r="AJ44">
+        <v>-15</v>
+      </c>
+      <c r="AK44">
+        <v>-13.3</v>
+      </c>
+      <c r="AL44">
+        <v>-13.6</v>
+      </c>
+      <c r="AM44">
+        <v>-7.9</v>
+      </c>
+      <c r="AN44">
+        <v>-20.6</v>
+      </c>
+      <c r="AO44">
+        <v>-16.8</v>
+      </c>
+      <c r="AP44">
+        <v>-23.9</v>
+      </c>
+      <c r="AQ44">
+        <v>-1.2</v>
+      </c>
+      <c r="AR44">
+        <v>2.1</v>
+      </c>
+      <c r="AS44">
+        <v>-13.1</v>
+      </c>
+      <c r="AT44">
+        <v>-6.2</v>
+      </c>
+      <c r="AU44">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AV44">
+        <v>-19.2</v>
+      </c>
+      <c r="AW44">
+        <v>-25.7</v>
+      </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>45692</v>
       </c>
+      <c r="B45">
+        <v>-27.5</v>
+      </c>
+      <c r="C45">
+        <v>-21.8</v>
+      </c>
+      <c r="D45">
+        <v>-22.5</v>
+      </c>
+      <c r="E45">
+        <v>-27.1</v>
+      </c>
+      <c r="F45">
+        <v>-25.3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45">
+        <v>-24.3</v>
+      </c>
+      <c r="I45">
+        <v>-17.5</v>
+      </c>
+      <c r="J45">
+        <v>-16.7</v>
+      </c>
+      <c r="K45">
+        <v>-17</v>
+      </c>
+      <c r="L45">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="M45">
+        <v>-16.5</v>
+      </c>
+      <c r="N45">
+        <v>-16.7</v>
+      </c>
+      <c r="O45">
+        <v>-19.5</v>
+      </c>
+      <c r="P45">
+        <v>-17.7</v>
+      </c>
+      <c r="Q45">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="R45">
+        <v>-25.8</v>
+      </c>
+      <c r="S45">
+        <v>-21.8</v>
+      </c>
+      <c r="T45">
+        <v>-26.8</v>
+      </c>
+      <c r="U45">
+        <v>-20.5</v>
+      </c>
+      <c r="V45">
+        <v>-25.3</v>
+      </c>
+      <c r="W45">
+        <v>-22</v>
+      </c>
+      <c r="X45">
+        <v>-18.5</v>
+      </c>
+      <c r="Y45">
+        <v>-18.3</v>
+      </c>
+      <c r="Z45">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="AA45">
+        <v>-21.3</v>
+      </c>
+      <c r="AB45">
+        <v>-25.1</v>
+      </c>
+      <c r="AC45">
+        <v>-11.7</v>
+      </c>
+      <c r="AD45">
+        <v>-10.6</v>
+      </c>
+      <c r="AE45">
+        <v>-24.6</v>
+      </c>
+      <c r="AF45">
+        <v>-6.5</v>
+      </c>
+      <c r="AG45">
+        <v>13.3</v>
+      </c>
+      <c r="AH45">
+        <v>-7.1</v>
+      </c>
+      <c r="AI45">
+        <v>-14.5</v>
+      </c>
+      <c r="AJ45">
+        <v>-16.5</v>
+      </c>
+      <c r="AK45">
+        <v>-15.2</v>
+      </c>
+      <c r="AL45">
+        <v>-15.9</v>
+      </c>
+      <c r="AM45">
+        <v>-7</v>
+      </c>
+      <c r="AN45">
+        <v>-21.5</v>
+      </c>
+      <c r="AO45">
+        <v>-18.8</v>
+      </c>
+      <c r="AP45">
+        <v>-23</v>
+      </c>
+      <c r="AQ45">
+        <v>5.7</v>
+      </c>
+      <c r="AR45">
+        <v>5</v>
+      </c>
+      <c r="AS45">
+        <v>-11.9</v>
+      </c>
+      <c r="AT45">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="AU45">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="AV45">
+        <v>-20.5</v>
+      </c>
+      <c r="AW45">
+        <v>-24.8</v>
+      </c>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>45693</v>
       </c>
+      <c r="B46">
+        <v>-26.3</v>
+      </c>
+      <c r="C46">
+        <v>-11.3</v>
+      </c>
+      <c r="D46">
+        <v>-17</v>
+      </c>
+      <c r="E46">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="F46">
+        <v>-23.1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="I46">
+        <v>-16.5</v>
+      </c>
+      <c r="J46">
+        <v>-19.7</v>
+      </c>
+      <c r="K46">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="L46">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="M46">
+        <v>-14.6</v>
+      </c>
+      <c r="N46">
+        <v>-14.7</v>
+      </c>
+      <c r="O46">
+        <v>-18.2</v>
+      </c>
+      <c r="P46">
+        <v>-21.3</v>
+      </c>
+      <c r="Q46">
+        <v>-14</v>
+      </c>
+      <c r="R46">
+        <v>-26.5</v>
+      </c>
+      <c r="S46">
+        <v>-21</v>
+      </c>
+      <c r="T46">
+        <v>-15</v>
+      </c>
+      <c r="U46">
+        <v>-21.5</v>
+      </c>
+      <c r="V46">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="W46">
+        <v>-18.7</v>
+      </c>
+      <c r="X46">
+        <v>-15.3</v>
+      </c>
+      <c r="Y46">
+        <v>-14.5</v>
+      </c>
+      <c r="Z46">
+        <v>-20.3</v>
+      </c>
+      <c r="AA46">
+        <v>-16.8</v>
+      </c>
+      <c r="AB46">
+        <v>-25.2</v>
+      </c>
+      <c r="AC46">
+        <v>-10.7</v>
+      </c>
+      <c r="AD46">
+        <v>-12.9</v>
+      </c>
+      <c r="AE46">
+        <v>-23.7</v>
+      </c>
+      <c r="AF46">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AG46">
+        <v>11.4</v>
+      </c>
+      <c r="AH46">
+        <v>-6</v>
+      </c>
+      <c r="AI46">
+        <v>-12.4</v>
+      </c>
+      <c r="AJ46">
+        <v>-16.3</v>
+      </c>
+      <c r="AK46">
+        <v>-14.3</v>
+      </c>
+      <c r="AL46">
+        <v>-14.6</v>
+      </c>
+      <c r="AM46">
+        <v>-7.7</v>
+      </c>
+      <c r="AN46">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="AO46">
+        <v>-19.3</v>
+      </c>
+      <c r="AP46">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="AQ46">
+        <v>5.4</v>
+      </c>
+      <c r="AR46">
+        <v>5.2</v>
+      </c>
+      <c r="AS46">
+        <v>-12.3</v>
+      </c>
+      <c r="AT46">
+        <v>-12.7</v>
+      </c>
+      <c r="AU46">
+        <v>-3.2</v>
+      </c>
+      <c r="AV46">
+        <v>-15.6</v>
+      </c>
+      <c r="AW46">
+        <v>-28</v>
+      </c>
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>45694</v>
       </c>
+      <c r="B47">
+        <v>-21.8</v>
+      </c>
+      <c r="C47">
+        <v>-17.2</v>
+      </c>
+      <c r="D47">
+        <v>-13.2</v>
+      </c>
+      <c r="E47">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="F47">
+        <v>-20.8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>246</v>
+      </c>
+      <c r="H47">
+        <v>-23.4</v>
+      </c>
+      <c r="I47">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="J47">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="K47">
+        <v>-18</v>
+      </c>
+      <c r="L47">
+        <v>-13.7</v>
+      </c>
+      <c r="M47">
+        <v>-11.4</v>
+      </c>
+      <c r="N47">
+        <v>-10.6</v>
+      </c>
+      <c r="O47">
+        <v>-4.7</v>
+      </c>
+      <c r="P47">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="Q47">
+        <v>-9.1</v>
+      </c>
+      <c r="R47">
+        <v>-22.8</v>
+      </c>
+      <c r="S47">
+        <v>-16</v>
+      </c>
+      <c r="T47">
+        <v>-15</v>
+      </c>
+      <c r="U47">
+        <v>-19.5</v>
+      </c>
+      <c r="V47">
+        <v>-16.7</v>
+      </c>
+      <c r="W47">
+        <v>-17</v>
+      </c>
+      <c r="X47">
+        <v>-15.2</v>
+      </c>
+      <c r="Y47">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="Z47">
+        <v>-15.5</v>
+      </c>
+      <c r="AA47">
+        <v>-17.8</v>
+      </c>
+      <c r="AB47">
+        <v>-20.9</v>
+      </c>
+      <c r="AC47">
+        <v>-8</v>
+      </c>
+      <c r="AD47">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="AE47">
+        <v>-25</v>
+      </c>
+      <c r="AF47">
+        <v>-8.1</v>
+      </c>
+      <c r="AG47">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AH47">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AI47">
+        <v>-15.7</v>
+      </c>
+      <c r="AJ47">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="AK47">
+        <v>-11</v>
+      </c>
+      <c r="AL47">
+        <v>-11.6</v>
+      </c>
+      <c r="AM47">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="AN47">
+        <v>-14.2</v>
+      </c>
+      <c r="AO47">
+        <v>-10.7</v>
+      </c>
+      <c r="AP47">
+        <v>-21.2</v>
+      </c>
+      <c r="AQ47">
+        <v>3.3</v>
+      </c>
+      <c r="AR47">
+        <v>2.9</v>
+      </c>
+      <c r="AS47">
+        <v>-9</v>
+      </c>
+      <c r="AT47">
+        <v>-7.7</v>
+      </c>
+      <c r="AU47">
+        <v>-3.3</v>
+      </c>
+      <c r="AV47">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="AW47">
+        <v>-20.3</v>
+      </c>
     </row>
     <row r="48" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>45695</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B48">
+        <v>-21.6</v>
+      </c>
+      <c r="C48">
+        <v>-23.8</v>
+      </c>
+      <c r="D48">
+        <v>-17.8</v>
+      </c>
+      <c r="E48">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="F48">
+        <v>-20.2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>246</v>
+      </c>
+      <c r="H48">
+        <v>-31.5</v>
+      </c>
+      <c r="I48">
+        <v>-26</v>
+      </c>
+      <c r="J48">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="K48">
+        <v>-13.8</v>
+      </c>
+      <c r="L48">
+        <v>-13.5</v>
+      </c>
+      <c r="M48">
+        <v>-10</v>
+      </c>
+      <c r="N48">
+        <v>-10.4</v>
+      </c>
+      <c r="O48">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="P48">
+        <v>-8.6</v>
+      </c>
+      <c r="Q48">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="R48">
+        <v>-21</v>
+      </c>
+      <c r="S48">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="T48">
+        <v>-17.5</v>
+      </c>
+      <c r="U48">
+        <v>-15.2</v>
+      </c>
+      <c r="V48">
+        <v>-13.4</v>
+      </c>
+      <c r="W48">
+        <v>-12.4</v>
+      </c>
+      <c r="X48">
+        <v>-11.1</v>
+      </c>
+      <c r="Y48">
+        <v>-18.3</v>
+      </c>
+      <c r="Z48">
+        <v>-12.7</v>
+      </c>
+      <c r="AA48">
+        <v>-11.7</v>
+      </c>
+      <c r="AB48">
+        <v>-18.7</v>
+      </c>
+      <c r="AC48">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AD48">
+        <v>-9.1</v>
+      </c>
+      <c r="AE48">
+        <v>-20.2</v>
+      </c>
+      <c r="AF48">
+        <v>-12.1</v>
+      </c>
+      <c r="AG48">
+        <v>6.2</v>
+      </c>
+      <c r="AH48">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AI48">
+        <v>-22.1</v>
+      </c>
+      <c r="AJ48">
+        <v>-8.5</v>
+      </c>
+      <c r="AK48">
+        <v>-14.1</v>
+      </c>
+      <c r="AL48">
+        <v>-13.7</v>
+      </c>
+      <c r="AM48">
+        <v>-15.7</v>
+      </c>
+      <c r="AN48">
+        <v>-7.4</v>
+      </c>
+      <c r="AO48">
+        <v>-9.6</v>
+      </c>
+      <c r="AP48">
+        <v>-20.7</v>
+      </c>
+      <c r="AQ48">
+        <v>-1.7</v>
+      </c>
+      <c r="AR48">
+        <v>-0.2</v>
+      </c>
+      <c r="AS48">
+        <v>-6</v>
+      </c>
+      <c r="AT48">
+        <v>-7.5</v>
+      </c>
+      <c r="AU48">
+        <v>-2.5</v>
+      </c>
+      <c r="AV48">
+        <v>-11.2</v>
+      </c>
+      <c r="AW48">
+        <v>-17.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>45696</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B49">
+        <v>-22.7</v>
+      </c>
+      <c r="C49">
+        <v>-20.7</v>
+      </c>
+      <c r="D49">
+        <v>-23.8</v>
+      </c>
+      <c r="E49">
+        <v>-21.6</v>
+      </c>
+      <c r="F49">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="G49" t="s">
+        <v>246</v>
+      </c>
+      <c r="H49">
+        <v>-27.5</v>
+      </c>
+      <c r="I49">
+        <v>-26.5</v>
+      </c>
+      <c r="J49">
+        <v>-13.7</v>
+      </c>
+      <c r="K49">
+        <v>-12.6</v>
+      </c>
+      <c r="L49">
+        <v>-13.5</v>
+      </c>
+      <c r="M49">
+        <v>-9.4</v>
+      </c>
+      <c r="N49">
+        <v>-12.6</v>
+      </c>
+      <c r="O49">
+        <v>-6.3</v>
+      </c>
+      <c r="P49">
+        <v>-10.3</v>
+      </c>
+      <c r="Q49">
+        <v>-16</v>
+      </c>
+      <c r="R49">
+        <v>-23.7</v>
+      </c>
+      <c r="S49">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="T49">
+        <v>-15.4</v>
+      </c>
+      <c r="U49">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="V49">
+        <v>-20.2</v>
+      </c>
+      <c r="W49">
+        <v>-17.3</v>
+      </c>
+      <c r="X49">
+        <v>-12.7</v>
+      </c>
+      <c r="Y49">
+        <v>-12</v>
+      </c>
+      <c r="Z49">
+        <v>-12.3</v>
+      </c>
+      <c r="AA49">
+        <v>-15.2</v>
+      </c>
+      <c r="AB49">
+        <v>-22.1</v>
+      </c>
+      <c r="AC49">
+        <v>-11.4</v>
+      </c>
+      <c r="AD49">
+        <v>-6</v>
+      </c>
+      <c r="AE49">
+        <v>-20.7</v>
+      </c>
+      <c r="AF49">
+        <v>-10.1</v>
+      </c>
+      <c r="AG49">
+        <v>5.2</v>
+      </c>
+      <c r="AH49">
+        <v>-3</v>
+      </c>
+      <c r="AI49">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="AJ49">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="AK49">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="AL49">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="AM49">
+        <v>-9.5</v>
+      </c>
+      <c r="AN49">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="AO49">
+        <v>-11.2</v>
+      </c>
+      <c r="AP49">
+        <v>-20.9</v>
+      </c>
+      <c r="AQ49">
+        <v>-3.3</v>
+      </c>
+      <c r="AR49">
+        <v>-2.5</v>
+      </c>
+      <c r="AS49">
+        <v>-5.6</v>
+      </c>
+      <c r="AT49">
+        <v>-4.8</v>
+      </c>
+      <c r="AU49">
+        <v>-0.8</v>
+      </c>
+      <c r="AV49">
+        <v>-15.3</v>
+      </c>
+      <c r="AW49">
+        <v>-19.100000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>45697</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B50">
+        <v>-22.4</v>
+      </c>
+      <c r="C50">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="D50">
+        <v>-22.4</v>
+      </c>
+      <c r="E50">
+        <v>-14.1</v>
+      </c>
+      <c r="F50">
+        <v>-20.9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>246</v>
+      </c>
+      <c r="H50">
+        <v>-25.7</v>
+      </c>
+      <c r="I50">
+        <v>-26</v>
+      </c>
+      <c r="J50">
+        <v>-12.7</v>
+      </c>
+      <c r="K50">
+        <v>-14.6</v>
+      </c>
+      <c r="L50">
+        <v>-11.4</v>
+      </c>
+      <c r="M50">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="N50">
+        <v>-8.6</v>
+      </c>
+      <c r="O50">
+        <v>-11.5</v>
+      </c>
+      <c r="P50">
+        <v>-13</v>
+      </c>
+      <c r="Q50">
+        <v>-15.2</v>
+      </c>
+      <c r="R50">
+        <v>-21.9</v>
+      </c>
+      <c r="S50">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="T50">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="U50">
+        <v>-19.3</v>
+      </c>
+      <c r="V50">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="W50">
+        <v>-13.3</v>
+      </c>
+      <c r="X50">
+        <v>-12.7</v>
+      </c>
+      <c r="Y50">
+        <v>-10.9</v>
+      </c>
+      <c r="Z50">
+        <v>-14</v>
+      </c>
+      <c r="AA50">
+        <v>-17.2</v>
+      </c>
+      <c r="AB50">
+        <v>-22.3</v>
+      </c>
+      <c r="AC50">
+        <v>-11.3</v>
+      </c>
+      <c r="AD50">
+        <v>-5.3</v>
+      </c>
+      <c r="AE50">
+        <v>-19</v>
+      </c>
+      <c r="AF50">
+        <v>-5.4</v>
+      </c>
+      <c r="AG50">
+        <v>8.6</v>
+      </c>
+      <c r="AH50">
+        <v>0.2</v>
+      </c>
+      <c r="AI50">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AJ50">
+        <v>-10.6</v>
+      </c>
+      <c r="AK50">
+        <v>-8.6</v>
+      </c>
+      <c r="AL50">
+        <v>-9</v>
+      </c>
+      <c r="AM50">
+        <v>-2.9</v>
+      </c>
+      <c r="AN50">
+        <v>-15.2</v>
+      </c>
+      <c r="AO50">
+        <v>-13</v>
+      </c>
+      <c r="AP50">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="AQ50">
+        <v>-2.7</v>
+      </c>
+      <c r="AR50">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="AS50">
+        <v>-8</v>
+      </c>
+      <c r="AT50">
+        <v>-0.9</v>
+      </c>
+      <c r="AU50">
+        <v>1.2</v>
+      </c>
+      <c r="AV50">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="AW50">
+        <v>-24.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>45698</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>45699</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>45700</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>45701</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>45702</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>45703</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>45704</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>45705</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>45706</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>45707</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
         <v>45708</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
         <v>45709</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A63" s="16">
         <v>45710</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A64" s="16">
         <v>45711</v>
       </c>

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793A6F94-BAE5-45C1-947E-1B5C2345B780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7E1CD-9190-4700-8832-894B144D2D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="257">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2862,7 +2862,7 @@
   <dimension ref="A1:BI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2932,10 +2932,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="4">
-        <v>-35</v>
+        <v>-24</v>
       </c>
       <c r="H2" s="4">
-        <v>-22.4</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
@@ -2954,148 +2954,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>-35</v>
+        <v>-24</v>
       </c>
       <c r="O2">
-        <v>-34.299999999999997</v>
+        <v>-28.9</v>
       </c>
       <c r="P2">
-        <v>-36.5</v>
+        <v>-31.7</v>
       </c>
       <c r="Q2">
-        <v>-30.4</v>
+        <v>-26.9</v>
       </c>
       <c r="R2">
-        <v>-34.9</v>
+        <v>-26.2</v>
       </c>
       <c r="S2" t="str">
         <v>无</v>
       </c>
       <c r="T2">
-        <v>-39.9</v>
+        <v>-27.2</v>
       </c>
       <c r="U2">
-        <v>-40.799999999999997</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="V2">
-        <v>-30.9</v>
+        <v>-32.4</v>
       </c>
       <c r="W2">
-        <v>-37.200000000000003</v>
+        <v>-37.9</v>
       </c>
       <c r="X2">
-        <v>-24.1</v>
+        <v>-26.5</v>
       </c>
       <c r="Y2">
-        <v>-25.5</v>
+        <v>-26.9</v>
       </c>
       <c r="Z2">
-        <v>-24</v>
+        <v>-26.1</v>
       </c>
       <c r="AA2">
-        <v>-22.2</v>
+        <v>-24.9</v>
       </c>
       <c r="AB2">
         <v>-24.8</v>
       </c>
       <c r="AC2">
-        <v>-23.1</v>
+        <v>-24.7</v>
       </c>
       <c r="AD2">
+        <v>-23.7</v>
+      </c>
+      <c r="AE2">
+        <v>-25.1</v>
+      </c>
+      <c r="AF2">
+        <v>-28.8</v>
+      </c>
+      <c r="AG2">
+        <v>-27.6</v>
+      </c>
+      <c r="AH2">
+        <v>-22.7</v>
+      </c>
+      <c r="AI2">
+        <v>-24.5</v>
+      </c>
+      <c r="AJ2">
+        <v>-21.8</v>
+      </c>
+      <c r="AK2">
+        <v>-19.5</v>
+      </c>
+      <c r="AL2">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="AM2">
+        <v>-39.9</v>
+      </c>
+      <c r="AN2">
         <v>-35.299999999999997</v>
       </c>
-      <c r="AE2">
+      <c r="AO2">
+        <v>-21.6</v>
+      </c>
+      <c r="AP2">
+        <v>-17.2</v>
+      </c>
+      <c r="AQ2">
+        <v>-30.2</v>
+      </c>
+      <c r="AR2">
+        <v>-16</v>
+      </c>
+      <c r="AS2">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AT2">
+        <v>-13</v>
+      </c>
+      <c r="AU2">
+        <v>-24</v>
+      </c>
+      <c r="AV2">
+        <v>-27.4</v>
+      </c>
+      <c r="AW2">
+        <v>-29.3</v>
+      </c>
+      <c r="AX2">
         <v>-30.9</v>
       </c>
-      <c r="AF2">
-        <v>-30.3</v>
-      </c>
-      <c r="AG2">
-        <v>-30.1</v>
-      </c>
-      <c r="AH2">
-        <v>-24.7</v>
-      </c>
-      <c r="AI2">
-        <v>-36.1</v>
-      </c>
-      <c r="AJ2">
-        <v>-27.1</v>
-      </c>
-      <c r="AK2">
-        <v>-23.2</v>
-      </c>
-      <c r="AL2">
-        <v>-38.299999999999997</v>
-      </c>
-      <c r="AM2">
-        <v>-37.9</v>
-      </c>
-      <c r="AN2">
-        <v>-33.9</v>
-      </c>
-      <c r="AO2">
-        <v>-25</v>
-      </c>
-      <c r="AP2">
-        <v>-13.1</v>
-      </c>
-      <c r="AQ2">
-        <v>-35.9</v>
-      </c>
-      <c r="AR2">
-        <v>-20.3</v>
-      </c>
-      <c r="AS2">
-        <v>-6.2</v>
-      </c>
-      <c r="AT2">
-        <v>-16.600000000000001</v>
-      </c>
-      <c r="AU2">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="AV2">
-        <v>-20</v>
-      </c>
-      <c r="AW2">
+      <c r="AY2">
+        <v>-22.6</v>
+      </c>
+      <c r="AZ2">
+        <v>-26</v>
+      </c>
+      <c r="BA2">
         <v>-26.7</v>
       </c>
-      <c r="AX2">
-        <v>-31.4</v>
-      </c>
-      <c r="AY2">
-        <v>-26.5</v>
-      </c>
-      <c r="AZ2">
-        <v>-30.8</v>
-      </c>
-      <c r="BA2">
-        <v>-29.2</v>
-      </c>
       <c r="BB2">
-        <v>-36.799999999999997</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="BC2">
-        <v>-24.7</v>
+        <v>-27.4</v>
       </c>
       <c r="BD2">
-        <v>-13.9</v>
+        <v>-18</v>
       </c>
       <c r="BE2">
-        <v>-26.9</v>
+        <v>-22.7</v>
       </c>
       <c r="BF2">
-        <v>-21.4</v>
+        <v>-19.3</v>
       </c>
       <c r="BG2">
-        <v>-9.9</v>
+        <v>-10.8</v>
       </c>
       <c r="BH2">
-        <v>-36.200000000000003</v>
+        <v>-37.5</v>
       </c>
       <c r="BI2">
-        <v>-37.9</v>
+        <v>-38.700000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3116,10 +3116,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>-34.299999999999997</v>
+        <v>-28.9</v>
       </c>
       <c r="H3" s="4">
-        <v>-20.399999999999999</v>
+        <v>-13.3</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>38</v>
@@ -3138,148 +3138,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>-22.4</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="O3">
-        <v>-20.399999999999999</v>
+        <v>-13.3</v>
       </c>
       <c r="P3">
-        <v>-22.4</v>
+        <v>-12.5</v>
       </c>
       <c r="Q3">
-        <v>-14.1</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="R3">
-        <v>-20.9</v>
+        <v>-18</v>
       </c>
       <c r="S3" t="str">
         <v>无</v>
       </c>
       <c r="T3">
-        <v>-25.7</v>
+        <v>-11.9</v>
       </c>
       <c r="U3">
-        <v>-26</v>
+        <v>-20.6</v>
       </c>
       <c r="V3">
-        <v>-12.7</v>
+        <v>-14.4</v>
       </c>
       <c r="W3">
-        <v>-14.6</v>
+        <v>-13.8</v>
       </c>
       <c r="X3">
-        <v>-11.4</v>
+        <v>-11.9</v>
       </c>
       <c r="Y3">
-        <v>-8.6999999999999993</v>
+        <v>-7</v>
       </c>
       <c r="Z3">
-        <v>-8.6</v>
+        <v>-11</v>
       </c>
       <c r="AA3">
-        <v>-11.5</v>
+        <v>-12.8</v>
       </c>
       <c r="AB3">
-        <v>-13</v>
+        <v>-12.4</v>
       </c>
       <c r="AC3">
-        <v>-15.2</v>
+        <v>-13.2</v>
       </c>
       <c r="AD3">
-        <v>-21.9</v>
+        <v>-14.7</v>
       </c>
       <c r="AE3">
-        <v>-20.100000000000001</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="AF3">
-        <v>-17.399999999999999</v>
+        <v>-14.9</v>
       </c>
       <c r="AG3">
-        <v>-19.3</v>
+        <v>-17.7</v>
       </c>
       <c r="AH3">
         <v>-16.600000000000001</v>
       </c>
       <c r="AI3">
-        <v>-13.3</v>
+        <v>-12.7</v>
       </c>
       <c r="AJ3">
-        <v>-12.7</v>
+        <v>-14.6</v>
       </c>
       <c r="AK3">
-        <v>-10.9</v>
+        <v>-11.1</v>
       </c>
       <c r="AL3">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="AM3">
-        <v>-17.2</v>
+        <v>-17.8</v>
       </c>
       <c r="AN3">
-        <v>-22.3</v>
+        <v>-25</v>
       </c>
       <c r="AO3">
-        <v>-11.3</v>
+        <v>-15.1</v>
       </c>
       <c r="AP3">
-        <v>-5.3</v>
+        <v>-6.4</v>
       </c>
       <c r="AQ3">
-        <v>-19</v>
+        <v>-11.8</v>
       </c>
       <c r="AR3">
-        <v>-5.4</v>
+        <v>-0.1</v>
       </c>
       <c r="AS3">
-        <v>8.6</v>
+        <v>11.9</v>
       </c>
       <c r="AT3">
-        <v>0.2</v>
+        <v>-1.2</v>
       </c>
       <c r="AU3">
-        <v>-8.8000000000000007</v>
+        <v>-2.7</v>
       </c>
       <c r="AV3">
-        <v>-10.6</v>
+        <v>-7.7</v>
       </c>
       <c r="AW3">
-        <v>-8.6</v>
+        <v>-4.7</v>
       </c>
       <c r="AX3">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="AY3">
-        <v>-2.9</v>
+        <v>3</v>
       </c>
       <c r="AZ3">
-        <v>-15.2</v>
+        <v>-14.8</v>
       </c>
       <c r="BA3">
         <v>-13</v>
       </c>
       <c r="BB3">
-        <v>-17.399999999999999</v>
+        <v>-14.9</v>
       </c>
       <c r="BC3">
-        <v>-2.7</v>
+        <v>-2.4</v>
       </c>
       <c r="BD3">
-        <v>-4.0999999999999996</v>
+        <v>-2.8</v>
       </c>
       <c r="BE3">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="BF3">
-        <v>-0.9</v>
+        <v>-7.9</v>
       </c>
       <c r="BG3">
-        <v>1.2</v>
+        <v>-2.9</v>
       </c>
       <c r="BH3">
-        <v>-16.899999999999999</v>
+        <v>-17.8</v>
       </c>
       <c r="BI3">
-        <v>-24.8</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3300,10 +3300,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>-36.5</v>
+        <v>-31.7</v>
       </c>
       <c r="H4" s="4">
-        <v>-22.4</v>
+        <v>-12.5</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>117</v>
@@ -3336,10 +3336,10 @@
         <v>110</v>
       </c>
       <c r="G5" s="4">
-        <v>-30.4</v>
+        <v>-26.9</v>
       </c>
       <c r="H5" s="4">
-        <v>-14.1</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
@@ -3381,10 +3381,10 @@
         <v>178</v>
       </c>
       <c r="G6" s="4">
-        <v>-34.9</v>
+        <v>-26.2</v>
       </c>
       <c r="H6" s="4">
-        <v>-20.9</v>
+        <v>-18</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>115</v>
@@ -3471,10 +3471,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>-39.9</v>
+        <v>-27.2</v>
       </c>
       <c r="H8" s="4">
-        <v>-25.7</v>
+        <v>-11.9</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>120</v>
@@ -3514,10 +3514,10 @@
         <v>95</v>
       </c>
       <c r="G9" s="4">
-        <v>-40.799999999999997</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H9" s="4">
-        <v>-26</v>
+        <v>-20.6</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>119</v>
@@ -3548,10 +3548,10 @@
         <v>102</v>
       </c>
       <c r="G10" s="4">
-        <v>-30.9</v>
+        <v>-32.4</v>
       </c>
       <c r="H10" s="4">
-        <v>-12.7</v>
+        <v>-14.4</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>100</v>
@@ -3582,10 +3582,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="4">
-        <v>-37.200000000000003</v>
+        <v>-37.9</v>
       </c>
       <c r="H11" s="4">
-        <v>-14.6</v>
+        <v>-13.8</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>54</v>
@@ -3616,10 +3616,10 @@
         <v>87</v>
       </c>
       <c r="G12" s="4">
-        <v>-24.1</v>
+        <v>-26.5</v>
       </c>
       <c r="H12" s="4">
-        <v>-11.4</v>
+        <v>-11.9</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>28</v>
@@ -3650,10 +3650,10 @@
         <v>89</v>
       </c>
       <c r="G13" s="4">
-        <v>-25.5</v>
+        <v>-26.9</v>
       </c>
       <c r="H13" s="4">
-        <v>-8.6999999999999993</v>
+        <v>-7</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
@@ -3684,10 +3684,10 @@
         <v>27</v>
       </c>
       <c r="G14" s="4">
-        <v>-24</v>
+        <v>-26.1</v>
       </c>
       <c r="H14" s="4">
-        <v>-8.6</v>
+        <v>-11</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
@@ -3718,10 +3718,10 @@
         <v>179</v>
       </c>
       <c r="G15" s="4">
-        <v>-22.2</v>
+        <v>-24.9</v>
       </c>
       <c r="H15" s="4">
-        <v>-11.5</v>
+        <v>-12.8</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
@@ -3755,7 +3755,7 @@
         <v>-24.8</v>
       </c>
       <c r="H16" s="4">
-        <v>-13</v>
+        <v>-12.4</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>96</v>
@@ -3786,10 +3786,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="4">
-        <v>-23.1</v>
+        <v>-24.7</v>
       </c>
       <c r="H17" s="4">
-        <v>-15.2</v>
+        <v>-13.2</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>161</v>
@@ -3820,10 +3820,10 @@
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>-35.299999999999997</v>
+        <v>-23.7</v>
       </c>
       <c r="H18" s="4">
-        <v>-21.9</v>
+        <v>-14.7</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
@@ -3854,10 +3854,10 @@
         <v>108</v>
       </c>
       <c r="G19" s="4">
-        <v>-30.9</v>
+        <v>-25.1</v>
       </c>
       <c r="H19" s="4">
-        <v>-20.100000000000001</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>114</v>
@@ -3888,10 +3888,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="13">
-        <v>-30.3</v>
+        <v>-28.8</v>
       </c>
       <c r="H20" s="13">
-        <v>-17.399999999999999</v>
+        <v>-14.9</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
@@ -3922,10 +3922,10 @@
         <v>106</v>
       </c>
       <c r="G21" s="13">
-        <v>-30.1</v>
+        <v>-27.6</v>
       </c>
       <c r="H21" s="13">
-        <v>-19.3</v>
+        <v>-17.7</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>115</v>
@@ -3956,7 +3956,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="13">
-        <v>-24.7</v>
+        <v>-22.7</v>
       </c>
       <c r="H22" s="13">
         <v>-16.600000000000001</v>
@@ -3992,10 +3992,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="13">
-        <v>-36.1</v>
+        <v>-24.5</v>
       </c>
       <c r="H23" s="13">
-        <v>-13.3</v>
+        <v>-12.7</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
@@ -4028,10 +4028,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="13">
-        <v>-27.1</v>
+        <v>-21.8</v>
       </c>
       <c r="H24" s="13">
-        <v>-12.7</v>
+        <v>-14.6</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -4062,10 +4062,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="4">
-        <v>-23.2</v>
+        <v>-19.5</v>
       </c>
       <c r="H25" s="4">
-        <v>-10.9</v>
+        <v>-11.1</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -4098,10 +4098,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>-38.299999999999997</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="H26" s="4">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -4132,10 +4132,10 @@
         <v>180</v>
       </c>
       <c r="G27" s="4">
-        <v>-37.9</v>
+        <v>-39.9</v>
       </c>
       <c r="H27" s="4">
-        <v>-17.2</v>
+        <v>-17.8</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
@@ -4166,10 +4166,10 @@
         <v>77</v>
       </c>
       <c r="G28" s="4">
-        <v>-33.9</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="H28" s="4">
-        <v>-22.3</v>
+        <v>-25</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
@@ -4202,10 +4202,10 @@
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <v>-25</v>
+        <v>-21.6</v>
       </c>
       <c r="H29" s="4">
-        <v>-11.3</v>
+        <v>-15.1</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -4236,10 +4236,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>-13.1</v>
+        <v>-17.2</v>
       </c>
       <c r="H30" s="4">
-        <v>-5.3</v>
+        <v>-6.4</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
@@ -4272,10 +4272,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="4">
-        <v>-35.9</v>
+        <v>-30.2</v>
       </c>
       <c r="H31" s="4">
-        <v>-19</v>
+        <v>-11.8</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
@@ -4306,10 +4306,10 @@
         <v>66</v>
       </c>
       <c r="G32" s="4">
-        <v>-20.3</v>
+        <v>-16</v>
       </c>
       <c r="H32" s="4">
-        <v>-5.4</v>
+        <v>-0.1</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
@@ -4340,10 +4340,10 @@
         <v>252</v>
       </c>
       <c r="G33" s="4">
-        <v>-6.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="H33" s="4">
-        <v>8.6</v>
+        <v>11.9</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>249</v>
@@ -4374,10 +4374,10 @@
         <v>59</v>
       </c>
       <c r="G34" s="4">
-        <v>-16.600000000000001</v>
+        <v>-13</v>
       </c>
       <c r="H34" s="4">
-        <v>0.2</v>
+        <v>-1.2</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
@@ -4408,10 +4408,10 @@
         <v>56</v>
       </c>
       <c r="G35" s="4">
-        <v>-32.799999999999997</v>
+        <v>-24</v>
       </c>
       <c r="H35" s="4">
-        <v>-8.8000000000000007</v>
+        <v>-2.7</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
@@ -4442,10 +4442,10 @@
         <v>46</v>
       </c>
       <c r="G36" s="4">
-        <v>-20</v>
+        <v>-27.4</v>
       </c>
       <c r="H36" s="4">
-        <v>-10.6</v>
+        <v>-7.7</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>47</v>
@@ -4478,10 +4478,10 @@
         <v>49</v>
       </c>
       <c r="G37" s="4">
-        <v>-26.7</v>
+        <v>-29.3</v>
       </c>
       <c r="H37" s="4">
-        <v>-8.6</v>
+        <v>-4.7</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>45</v>
@@ -4514,10 +4514,10 @@
         <v>51</v>
       </c>
       <c r="G38" s="4">
-        <v>-31.4</v>
+        <v>-30.9</v>
       </c>
       <c r="H38" s="4">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
@@ -4548,10 +4548,10 @@
         <v>58</v>
       </c>
       <c r="G39" s="4">
-        <v>-26.5</v>
+        <v>-22.6</v>
       </c>
       <c r="H39" s="4">
-        <v>-2.9</v>
+        <v>3</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
@@ -4582,10 +4582,10 @@
         <v>44</v>
       </c>
       <c r="G40" s="4">
-        <v>-30.8</v>
+        <v>-26</v>
       </c>
       <c r="H40" s="4">
-        <v>-15.2</v>
+        <v>-14.8</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>43</v>
@@ -4616,7 +4616,7 @@
         <v>74</v>
       </c>
       <c r="G41" s="4">
-        <v>-29.2</v>
+        <v>-26.7</v>
       </c>
       <c r="H41" s="4">
         <v>-13</v>
@@ -4650,10 +4650,10 @@
         <v>72</v>
       </c>
       <c r="G42" s="4">
-        <v>-36.799999999999997</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="H42" s="4">
-        <v>-17.399999999999999</v>
+        <v>-14.9</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>2</v>
@@ -4684,10 +4684,10 @@
         <v>62</v>
       </c>
       <c r="G43" s="4">
-        <v>-24.7</v>
+        <v>-27.4</v>
       </c>
       <c r="H43" s="4">
-        <v>-2.7</v>
+        <v>-2.4</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
@@ -4718,10 +4718,10 @@
         <v>64</v>
       </c>
       <c r="G44" s="4">
-        <v>-13.9</v>
+        <v>-18</v>
       </c>
       <c r="H44" s="4">
-        <v>-4.0999999999999996</v>
+        <v>-2.8</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>65</v>
@@ -4752,10 +4752,10 @@
         <v>79</v>
       </c>
       <c r="G45" s="4">
-        <v>-26.9</v>
+        <v>-22.7</v>
       </c>
       <c r="H45" s="4">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>22</v>
@@ -4786,10 +4786,10 @@
         <v>81</v>
       </c>
       <c r="G46" s="4">
-        <v>-21.4</v>
+        <v>-19.3</v>
       </c>
       <c r="H46" s="4">
-        <v>-0.9</v>
+        <v>-7.9</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
@@ -4820,10 +4820,10 @@
         <v>83</v>
       </c>
       <c r="G47" s="4">
-        <v>-9.9</v>
+        <v>-10.8</v>
       </c>
       <c r="H47" s="4">
-        <v>1.2</v>
+        <v>-2.9</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>21</v>
@@ -4856,10 +4856,10 @@
         <v>68</v>
       </c>
       <c r="G48" s="4">
-        <v>-36.200000000000003</v>
+        <v>-37.5</v>
       </c>
       <c r="H48" s="4">
-        <v>-16.899999999999999</v>
+        <v>-17.8</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -4890,10 +4890,10 @@
         <v>70</v>
       </c>
       <c r="G49" s="4">
-        <v>-37.9</v>
+        <v>-38.700000000000003</v>
       </c>
       <c r="H49" s="4">
-        <v>-24.8</v>
+        <v>-27</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>2</v>
@@ -4945,7 +4945,7 @@
         <v>253</v>
       </c>
       <c r="F1" s="65">
-        <v>45697</v>
+        <v>45698</v>
       </c>
       <c r="G1" s="66"/>
       <c r="H1" s="63" t="s">
@@ -5027,10 +5027,10 @@
         <v>109</v>
       </c>
       <c r="G4" s="36">
-        <v>-35</v>
+        <v>-24</v>
       </c>
       <c r="H4" s="36">
-        <v>-22.4</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>174</v>
@@ -5061,10 +5061,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="36">
-        <v>-34.299999999999997</v>
+        <v>-28.9</v>
       </c>
       <c r="H5" s="36">
-        <v>-20.399999999999999</v>
+        <v>-13.3</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>155</v>
@@ -5088,10 +5088,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="59">
-        <v>-36.5</v>
+        <v>-31.7</v>
       </c>
       <c r="H6" s="36">
-        <v>-22.4</v>
+        <v>-12.5</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>229</v>
@@ -5113,10 +5113,10 @@
         <v>109</v>
       </c>
       <c r="G7" s="36">
-        <v>-30.4</v>
-      </c>
-      <c r="H7" s="58">
-        <v>-14.1</v>
+        <v>-26.9</v>
+      </c>
+      <c r="H7" s="36">
+        <v>-18.399999999999999</v>
       </c>
       <c r="I7" s="34" t="s">
         <v>111</v>
@@ -5137,11 +5137,11 @@
       <c r="F8" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="58">
-        <v>-34.9</v>
+      <c r="G8" s="36">
+        <v>-26.2</v>
       </c>
       <c r="H8" s="36">
-        <v>-20.9</v>
+        <v>-18</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>171</v>
@@ -5188,10 +5188,10 @@
         <v>7</v>
       </c>
       <c r="G10" s="36">
-        <v>-39.9</v>
+        <v>-27.2</v>
       </c>
       <c r="H10" s="36">
-        <v>-25.7</v>
+        <v>-11.9</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>244</v>
@@ -5205,20 +5205,18 @@
       <c r="C11" s="52">
         <v>2</v>
       </c>
-      <c r="D11" s="52">
-        <v>0</v>
-      </c>
+      <c r="D11" s="52"/>
       <c r="E11" s="31" t="s">
         <v>220</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="57">
-        <v>-40.799999999999997</v>
-      </c>
-      <c r="H11" s="57">
-        <v>-26</v>
+      <c r="G11" s="36">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="H11" s="36">
+        <v>-20.6</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>245</v>
@@ -5240,10 +5238,10 @@
         <v>101</v>
       </c>
       <c r="G12" s="36">
-        <v>-30.9</v>
+        <v>-32.4</v>
       </c>
       <c r="H12" s="36">
-        <v>-12.7</v>
+        <v>-14.4</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>243</v>
@@ -5257,7 +5255,9 @@
       <c r="C13" s="52">
         <v>2</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="52">
+        <v>0</v>
+      </c>
       <c r="E13" s="31" t="s">
         <v>221</v>
       </c>
@@ -5265,10 +5265,10 @@
         <v>135</v>
       </c>
       <c r="G13" s="58">
-        <v>-37.200000000000003</v>
-      </c>
-      <c r="H13" s="36">
-        <v>-14.6</v>
+        <v>-37.9</v>
+      </c>
+      <c r="H13" s="58">
+        <v>-13.8</v>
       </c>
       <c r="I13" s="34" t="s">
         <v>158</v>
@@ -5290,10 +5290,10 @@
         <v>86</v>
       </c>
       <c r="G14" s="36">
-        <v>-24.1</v>
+        <v>-26.5</v>
       </c>
       <c r="H14" s="36">
-        <v>-11.4</v>
+        <v>-11.9</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>154</v>
@@ -5315,10 +5315,10 @@
         <v>88</v>
       </c>
       <c r="G15" s="36">
-        <v>-25.5</v>
+        <v>-26.9</v>
       </c>
       <c r="H15" s="36">
-        <v>-8.6999999999999993</v>
+        <v>-7</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>154</v>
@@ -5340,10 +5340,10 @@
         <v>136</v>
       </c>
       <c r="G16" s="36">
-        <v>-24</v>
+        <v>-26.1</v>
       </c>
       <c r="H16" s="36">
-        <v>-8.6</v>
+        <v>-11</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>154</v>
@@ -5365,10 +5365,10 @@
         <v>181</v>
       </c>
       <c r="G17" s="36">
-        <v>-22.2</v>
+        <v>-24.9</v>
       </c>
       <c r="H17" s="36">
-        <v>-11.5</v>
+        <v>-12.8</v>
       </c>
       <c r="I17" s="34" t="s">
         <v>241</v>
@@ -5393,7 +5393,7 @@
         <v>-24.8</v>
       </c>
       <c r="H18" s="36">
-        <v>-13</v>
+        <v>-12.4</v>
       </c>
       <c r="I18" s="34" t="s">
         <v>32</v>
@@ -5415,10 +5415,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="36">
-        <v>-23.1</v>
+        <v>-24.7</v>
       </c>
       <c r="H19" s="36">
-        <v>-15.2</v>
+        <v>-13.2</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>242</v>
@@ -5440,10 +5440,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="36">
-        <v>-35.299999999999997</v>
+        <v>-23.7</v>
       </c>
       <c r="H20" s="36">
-        <v>-21.9</v>
+        <v>-14.7</v>
       </c>
       <c r="I20" s="34" t="s">
         <v>240</v>
@@ -5465,10 +5465,10 @@
         <v>107</v>
       </c>
       <c r="G21" s="36">
-        <v>-30.9</v>
+        <v>-25.1</v>
       </c>
       <c r="H21" s="36">
-        <v>-20.100000000000001</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>174</v>
@@ -5490,10 +5490,10 @@
         <v>9</v>
       </c>
       <c r="G22" s="36">
-        <v>-30.3</v>
+        <v>-28.8</v>
       </c>
       <c r="H22" s="36">
-        <v>-17.399999999999999</v>
+        <v>-14.9</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>230</v>
@@ -5515,10 +5515,10 @@
         <v>105</v>
       </c>
       <c r="G23" s="36">
-        <v>-30.1</v>
+        <v>-27.6</v>
       </c>
       <c r="H23" s="36">
-        <v>-19.3</v>
+        <v>-17.7</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>171</v>
@@ -5540,7 +5540,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="36">
-        <v>-24.7</v>
+        <v>-22.7</v>
       </c>
       <c r="H24" s="36">
         <v>-16.600000000000001</v>
@@ -5565,10 +5565,10 @@
         <v>13</v>
       </c>
       <c r="G25" s="36">
-        <v>-36.1</v>
+        <v>-24.5</v>
       </c>
       <c r="H25" s="36">
-        <v>-13.3</v>
+        <v>-12.7</v>
       </c>
       <c r="I25" s="34" t="s">
         <v>151</v>
@@ -5590,10 +5590,10 @@
         <v>10</v>
       </c>
       <c r="G26" s="36">
-        <v>-27.1</v>
+        <v>-21.8</v>
       </c>
       <c r="H26" s="36">
-        <v>-12.7</v>
+        <v>-14.6</v>
       </c>
       <c r="I26" s="34" t="s">
         <v>228</v>
@@ -5615,10 +5615,10 @@
         <v>11</v>
       </c>
       <c r="G27" s="36">
-        <v>-23.2</v>
+        <v>-19.5</v>
       </c>
       <c r="H27" s="36">
-        <v>-10.9</v>
+        <v>-11.1</v>
       </c>
       <c r="I27" s="34" t="s">
         <v>155</v>
@@ -5642,10 +5642,10 @@
         <v>137</v>
       </c>
       <c r="G28" s="36">
-        <v>-38.299999999999997</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="H28" s="36">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="I28" s="34" t="s">
         <v>233</v>
@@ -5659,18 +5659,20 @@
       <c r="C29" s="52">
         <v>1</v>
       </c>
-      <c r="D29" s="52"/>
+      <c r="D29" s="52">
+        <v>0</v>
+      </c>
       <c r="E29" s="30" t="s">
         <v>214</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G29" s="36">
-        <v>-37.9</v>
+      <c r="G29" s="57">
+        <v>-39.9</v>
       </c>
       <c r="H29" s="36">
-        <v>-17.2</v>
+        <v>-17.8</v>
       </c>
       <c r="I29" s="34" t="s">
         <v>231</v>
@@ -5692,10 +5694,10 @@
         <v>76</v>
       </c>
       <c r="G30" s="36">
-        <v>-33.9</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="H30" s="36">
-        <v>-22.3</v>
+        <v>-25</v>
       </c>
       <c r="I30" s="34" t="s">
         <v>236</v>
@@ -5719,10 +5721,10 @@
         <v>103</v>
       </c>
       <c r="G31" s="36">
-        <v>-25</v>
+        <v>-21.6</v>
       </c>
       <c r="H31" s="36">
-        <v>-11.3</v>
+        <v>-15.1</v>
       </c>
       <c r="I31" s="34" t="s">
         <v>237</v>
@@ -5744,10 +5746,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="36">
-        <v>-13.1</v>
+        <v>-17.2</v>
       </c>
       <c r="H32" s="36">
-        <v>-5.3</v>
+        <v>-6.4</v>
       </c>
       <c r="I32" s="34" t="s">
         <v>159</v>
@@ -5771,10 +5773,10 @@
         <v>4</v>
       </c>
       <c r="G33" s="36">
-        <v>-35.9</v>
+        <v>-30.2</v>
       </c>
       <c r="H33" s="36">
-        <v>-19</v>
+        <v>-11.8</v>
       </c>
       <c r="I33" s="34" t="s">
         <v>238</v>
@@ -5796,10 +5798,10 @@
         <v>139</v>
       </c>
       <c r="G34" s="36">
-        <v>-20.3</v>
+        <v>-16</v>
       </c>
       <c r="H34" s="36">
-        <v>-5.4</v>
+        <v>-0.1</v>
       </c>
       <c r="I34" s="34" t="s">
         <v>173</v>
@@ -5821,10 +5823,10 @@
         <v>252</v>
       </c>
       <c r="G35" s="36">
-        <v>-6.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="H35" s="36">
-        <v>8.6</v>
+        <v>11.9</v>
       </c>
       <c r="I35" s="34" t="s">
         <v>249</v>
@@ -5846,10 +5848,10 @@
         <v>140</v>
       </c>
       <c r="G36" s="36">
-        <v>-16.600000000000001</v>
+        <v>-13</v>
       </c>
       <c r="H36" s="36">
-        <v>0.2</v>
+        <v>-1.2</v>
       </c>
       <c r="I36" s="34"/>
     </row>
@@ -5871,10 +5873,10 @@
         <v>141</v>
       </c>
       <c r="G37" s="36">
-        <v>-32.799999999999997</v>
+        <v>-24</v>
       </c>
       <c r="H37" s="36">
-        <v>-8.8000000000000007</v>
+        <v>-2.7</v>
       </c>
       <c r="I37" s="34"/>
     </row>
@@ -5896,10 +5898,10 @@
         <v>142</v>
       </c>
       <c r="G38" s="36">
-        <v>-20</v>
+        <v>-27.4</v>
       </c>
       <c r="H38" s="36">
-        <v>-10.6</v>
+        <v>-7.7</v>
       </c>
       <c r="I38" s="34" t="s">
         <v>172</v>
@@ -5923,10 +5925,10 @@
         <v>143</v>
       </c>
       <c r="G39" s="36">
-        <v>-26.7</v>
+        <v>-29.3</v>
       </c>
       <c r="H39" s="36">
-        <v>-8.6</v>
+        <v>-4.7</v>
       </c>
       <c r="I39" s="34" t="s">
         <v>239</v>
@@ -5950,10 +5952,10 @@
         <v>144</v>
       </c>
       <c r="G40" s="36">
-        <v>-31.4</v>
+        <v>-30.9</v>
       </c>
       <c r="H40" s="36">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="I40" s="34"/>
     </row>
@@ -5975,10 +5977,10 @@
         <v>145</v>
       </c>
       <c r="G41" s="36">
-        <v>-26.5</v>
+        <v>-22.6</v>
       </c>
       <c r="H41" s="36">
-        <v>-2.9</v>
+        <v>3</v>
       </c>
       <c r="I41" s="34"/>
     </row>
@@ -5998,10 +6000,10 @@
         <v>146</v>
       </c>
       <c r="G42" s="36">
-        <v>-30.8</v>
+        <v>-26</v>
       </c>
       <c r="H42" s="36">
-        <v>-15.2</v>
+        <v>-14.8</v>
       </c>
       <c r="I42" s="34" t="s">
         <v>234</v>
@@ -6023,7 +6025,7 @@
         <v>73</v>
       </c>
       <c r="G43" s="36">
-        <v>-29.2</v>
+        <v>-26.7</v>
       </c>
       <c r="H43" s="36">
         <v>-13</v>
@@ -6040,9 +6042,7 @@
       <c r="C44" s="52">
         <v>1</v>
       </c>
-      <c r="D44" s="52">
-        <v>0</v>
-      </c>
+      <c r="D44" s="52"/>
       <c r="E44" s="30" t="s">
         <v>207</v>
       </c>
@@ -6050,10 +6050,10 @@
         <v>71</v>
       </c>
       <c r="G44" s="36">
-        <v>-36.799999999999997</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="H44" s="36">
-        <v>-17.399999999999999</v>
+        <v>-14.9</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>157</v>
@@ -6075,10 +6075,10 @@
         <v>147</v>
       </c>
       <c r="G45" s="36">
-        <v>-24.7</v>
+        <v>-27.4</v>
       </c>
       <c r="H45" s="36">
-        <v>-2.7</v>
+        <v>-2.4</v>
       </c>
       <c r="I45" s="34" t="s">
         <v>160</v>
@@ -6100,10 +6100,10 @@
         <v>148</v>
       </c>
       <c r="G46" s="36">
-        <v>-13.9</v>
+        <v>-18</v>
       </c>
       <c r="H46" s="36">
-        <v>-4.0999999999999996</v>
+        <v>-2.8</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>160</v>
@@ -6125,10 +6125,10 @@
         <v>78</v>
       </c>
       <c r="G47" s="36">
-        <v>-26.9</v>
+        <v>-22.7</v>
       </c>
       <c r="H47" s="36">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>156</v>
@@ -6150,10 +6150,10 @@
         <v>80</v>
       </c>
       <c r="G48" s="36">
-        <v>-21.4</v>
+        <v>-19.3</v>
       </c>
       <c r="H48" s="36">
-        <v>-0.9</v>
+        <v>-7.9</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>235</v>
@@ -6175,10 +6175,10 @@
         <v>82</v>
       </c>
       <c r="G49" s="36">
-        <v>-9.9</v>
+        <v>-10.8</v>
       </c>
       <c r="H49" s="36">
-        <v>1.2</v>
+        <v>-2.9</v>
       </c>
       <c r="I49" s="34" t="s">
         <v>159</v>
@@ -6200,10 +6200,10 @@
         <v>67</v>
       </c>
       <c r="G50" s="36">
-        <v>-36.200000000000003</v>
+        <v>-37.5</v>
       </c>
       <c r="H50" s="36">
-        <v>-16.899999999999999</v>
+        <v>-17.8</v>
       </c>
       <c r="I50" s="34" t="s">
         <v>157</v>
@@ -6227,10 +6227,10 @@
         <v>69</v>
       </c>
       <c r="G51" s="36">
-        <v>-37.9</v>
-      </c>
-      <c r="H51" s="36">
-        <v>-24.8</v>
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="H51" s="57">
+        <v>-27</v>
       </c>
       <c r="I51" s="34" t="s">
         <v>232</v>
@@ -6290,7 +6290,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -13733,6 +13733,150 @@
     <row r="51" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>45698</v>
+      </c>
+      <c r="B51">
+        <v>-24</v>
+      </c>
+      <c r="C51">
+        <v>-28.9</v>
+      </c>
+      <c r="D51">
+        <v>-31.7</v>
+      </c>
+      <c r="E51">
+        <v>-26.9</v>
+      </c>
+      <c r="F51">
+        <v>-26.2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>246</v>
+      </c>
+      <c r="H51">
+        <v>-27.2</v>
+      </c>
+      <c r="I51">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="J51">
+        <v>-32.4</v>
+      </c>
+      <c r="K51">
+        <v>-37.9</v>
+      </c>
+      <c r="L51">
+        <v>-26.5</v>
+      </c>
+      <c r="M51">
+        <v>-26.9</v>
+      </c>
+      <c r="N51">
+        <v>-26.1</v>
+      </c>
+      <c r="O51">
+        <v>-24.9</v>
+      </c>
+      <c r="P51">
+        <v>-24.8</v>
+      </c>
+      <c r="Q51">
+        <v>-24.7</v>
+      </c>
+      <c r="R51">
+        <v>-23.7</v>
+      </c>
+      <c r="S51">
+        <v>-25.1</v>
+      </c>
+      <c r="T51">
+        <v>-28.8</v>
+      </c>
+      <c r="U51">
+        <v>-27.6</v>
+      </c>
+      <c r="V51">
+        <v>-22.7</v>
+      </c>
+      <c r="W51">
+        <v>-24.5</v>
+      </c>
+      <c r="X51">
+        <v>-21.8</v>
+      </c>
+      <c r="Y51">
+        <v>-19.5</v>
+      </c>
+      <c r="Z51">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="AA51">
+        <v>-39.9</v>
+      </c>
+      <c r="AB51">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="AC51">
+        <v>-21.6</v>
+      </c>
+      <c r="AD51">
+        <v>-17.2</v>
+      </c>
+      <c r="AE51">
+        <v>-30.2</v>
+      </c>
+      <c r="AF51">
+        <v>-16</v>
+      </c>
+      <c r="AG51">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AH51">
+        <v>-13</v>
+      </c>
+      <c r="AI51">
+        <v>-24</v>
+      </c>
+      <c r="AJ51">
+        <v>-27.4</v>
+      </c>
+      <c r="AK51">
+        <v>-29.3</v>
+      </c>
+      <c r="AL51">
+        <v>-30.9</v>
+      </c>
+      <c r="AM51">
+        <v>-22.6</v>
+      </c>
+      <c r="AN51">
+        <v>-26</v>
+      </c>
+      <c r="AO51">
+        <v>-26.7</v>
+      </c>
+      <c r="AP51">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="AQ51">
+        <v>-27.4</v>
+      </c>
+      <c r="AR51">
+        <v>-18</v>
+      </c>
+      <c r="AS51">
+        <v>-22.7</v>
+      </c>
+      <c r="AT51">
+        <v>-19.3</v>
+      </c>
+      <c r="AU51">
+        <v>-10.8</v>
+      </c>
+      <c r="AV51">
+        <v>-37.5</v>
+      </c>
+      <c r="AW51">
+        <v>-38.700000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:49" x14ac:dyDescent="0.4">
@@ -21310,6 +21454,150 @@
       <c r="A51" s="16">
         <v>45698</v>
       </c>
+      <c r="B51">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="C51">
+        <v>-13.3</v>
+      </c>
+      <c r="D51">
+        <v>-12.5</v>
+      </c>
+      <c r="E51">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="F51">
+        <v>-18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>246</v>
+      </c>
+      <c r="H51">
+        <v>-11.9</v>
+      </c>
+      <c r="I51">
+        <v>-20.6</v>
+      </c>
+      <c r="J51">
+        <v>-14.4</v>
+      </c>
+      <c r="K51">
+        <v>-13.8</v>
+      </c>
+      <c r="L51">
+        <v>-11.9</v>
+      </c>
+      <c r="M51">
+        <v>-7</v>
+      </c>
+      <c r="N51">
+        <v>-11</v>
+      </c>
+      <c r="O51">
+        <v>-12.8</v>
+      </c>
+      <c r="P51">
+        <v>-12.4</v>
+      </c>
+      <c r="Q51">
+        <v>-13.2</v>
+      </c>
+      <c r="R51">
+        <v>-14.7</v>
+      </c>
+      <c r="S51">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="T51">
+        <v>-14.9</v>
+      </c>
+      <c r="U51">
+        <v>-17.7</v>
+      </c>
+      <c r="V51">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="W51">
+        <v>-12.7</v>
+      </c>
+      <c r="X51">
+        <v>-14.6</v>
+      </c>
+      <c r="Y51">
+        <v>-11.1</v>
+      </c>
+      <c r="Z51">
+        <v>-12</v>
+      </c>
+      <c r="AA51">
+        <v>-17.8</v>
+      </c>
+      <c r="AB51">
+        <v>-25</v>
+      </c>
+      <c r="AC51">
+        <v>-15.1</v>
+      </c>
+      <c r="AD51">
+        <v>-6.4</v>
+      </c>
+      <c r="AE51">
+        <v>-11.8</v>
+      </c>
+      <c r="AF51">
+        <v>-0.1</v>
+      </c>
+      <c r="AG51">
+        <v>11.9</v>
+      </c>
+      <c r="AH51">
+        <v>-1.2</v>
+      </c>
+      <c r="AI51">
+        <v>-2.7</v>
+      </c>
+      <c r="AJ51">
+        <v>-7.7</v>
+      </c>
+      <c r="AK51">
+        <v>-4.7</v>
+      </c>
+      <c r="AL51">
+        <v>-2</v>
+      </c>
+      <c r="AM51">
+        <v>3</v>
+      </c>
+      <c r="AN51">
+        <v>-14.8</v>
+      </c>
+      <c r="AO51">
+        <v>-13</v>
+      </c>
+      <c r="AP51">
+        <v>-14.9</v>
+      </c>
+      <c r="AQ51">
+        <v>-2.4</v>
+      </c>
+      <c r="AR51">
+        <v>-2.8</v>
+      </c>
+      <c r="AS51">
+        <v>-10</v>
+      </c>
+      <c r="AT51">
+        <v>-7.9</v>
+      </c>
+      <c r="AU51">
+        <v>-2.9</v>
+      </c>
+      <c r="AV51">
+        <v>-17.8</v>
+      </c>
+      <c r="AW51">
+        <v>-27</v>
+      </c>
     </row>
     <row r="52" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A52" s="16">

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7E1CD-9190-4700-8832-894B144D2D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705032F1-69F1-4D8A-9C0D-45B83EA66F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="257">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1669,7 +1669,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2132,15 +2132,6 @@
     <font>
       <b/>
       <sz val="40"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="40"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="等线"/>
       <family val="3"/>
@@ -2326,7 +2317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2502,9 +2493,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="176" fontId="52" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="53" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2861,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0415808A-EC4F-404C-B30D-CD8F1C534364}">
   <dimension ref="A1:BI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2931,12 +2919,8 @@
       <c r="F2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="4">
-        <v>-24</v>
-      </c>
-      <c r="H2" s="4">
-        <v>-20.100000000000001</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="6" t="s">
         <v>114</v>
       </c>
@@ -2954,148 +2938,148 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BI2">TRANSPOSE(G2:G49)</f>
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>-25.4</v>
+      </c>
+      <c r="AG2">
+        <v>-31.5</v>
+      </c>
+      <c r="AH2">
+        <v>-33.5</v>
+      </c>
+      <c r="AI2">
+        <v>-31.3</v>
+      </c>
+      <c r="AJ2">
         <v>-28.9</v>
       </c>
-      <c r="P2">
-        <v>-31.7</v>
-      </c>
-      <c r="Q2">
-        <v>-26.9</v>
-      </c>
-      <c r="R2">
-        <v>-26.2</v>
-      </c>
-      <c r="S2" t="str">
-        <v>无</v>
-      </c>
-      <c r="T2">
-        <v>-27.2</v>
-      </c>
-      <c r="U2">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="V2">
-        <v>-32.4</v>
-      </c>
-      <c r="W2">
-        <v>-37.9</v>
-      </c>
-      <c r="X2">
-        <v>-26.5</v>
-      </c>
-      <c r="Y2">
-        <v>-26.9</v>
-      </c>
-      <c r="Z2">
-        <v>-26.1</v>
-      </c>
-      <c r="AA2">
-        <v>-24.9</v>
-      </c>
-      <c r="AB2">
-        <v>-24.8</v>
-      </c>
-      <c r="AC2">
-        <v>-24.7</v>
-      </c>
-      <c r="AD2">
-        <v>-23.7</v>
-      </c>
-      <c r="AE2">
-        <v>-25.1</v>
-      </c>
-      <c r="AF2">
-        <v>-28.8</v>
-      </c>
-      <c r="AG2">
-        <v>-27.6</v>
-      </c>
-      <c r="AH2">
-        <v>-22.7</v>
-      </c>
-      <c r="AI2">
-        <v>-24.5</v>
-      </c>
-      <c r="AJ2">
-        <v>-21.8</v>
-      </c>
       <c r="AK2">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-35.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-39.9</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>-35.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-21.6</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-17.2</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-30.2</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>-1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>-27.4</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>-29.3</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>-30.9</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>-22.6</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>-26.7</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>-35.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>-27.4</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>-22.7</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>-19.3</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>-10.8</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>-38.700000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.4">
@@ -3115,12 +3099,8 @@
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4">
-        <v>-28.9</v>
-      </c>
-      <c r="H3" s="4">
-        <v>-13.3</v>
-      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="6" t="s">
         <v>38</v>
       </c>
@@ -3138,148 +3118,148 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BI3">TRANSPOSE(H2:H49)</f>
-        <v>-20.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-13.3</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-18</v>
-      </c>
-      <c r="S3" t="str">
-        <v>无</v>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>-11.9</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-20.6</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-14.4</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-13.8</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-11.9</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-12.8</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-12.4</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-13.2</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-14.7</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-17.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>-14.9</v>
+        <v>-20.2</v>
       </c>
       <c r="AG3">
-        <v>-17.7</v>
+        <v>-22.2</v>
       </c>
       <c r="AH3">
-        <v>-16.600000000000001</v>
+        <v>-23.7</v>
       </c>
       <c r="AI3">
-        <v>-12.7</v>
+        <v>-11.5</v>
       </c>
       <c r="AJ3">
-        <v>-14.6</v>
+        <v>-23.7</v>
       </c>
       <c r="AK3">
-        <v>-11.1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-17.8</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-15.1</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-11.8</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>-2.7</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>-7.7</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>-4.7</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>-14.8</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>-14.9</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>-2.4</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>-2.8</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>-7.9</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>-17.8</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>-27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.4">
@@ -3299,12 +3279,8 @@
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4">
-        <v>-31.7</v>
-      </c>
-      <c r="H4" s="4">
-        <v>-12.5</v>
-      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="6" t="s">
         <v>117</v>
       </c>
@@ -3335,12 +3311,8 @@
       <c r="F5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="4">
-        <v>-26.9</v>
-      </c>
-      <c r="H5" s="4">
-        <v>-18.399999999999999</v>
-      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="6" t="s">
         <v>40</v>
       </c>
@@ -3380,12 +3352,8 @@
       <c r="F6" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G6" s="4">
-        <v>-26.2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-18</v>
-      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="6" t="s">
         <v>115</v>
       </c>
@@ -3425,12 +3393,8 @@
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>246</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="6" t="s">
         <v>113</v>
       </c>
@@ -3470,12 +3434,8 @@
       <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="4">
-        <v>-27.2</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-11.9</v>
-      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="6" t="s">
         <v>120</v>
       </c>
@@ -3513,12 +3473,8 @@
       <c r="F9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="4">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="H9" s="4">
-        <v>-20.6</v>
-      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="6" t="s">
         <v>119</v>
       </c>
@@ -3547,12 +3503,8 @@
       <c r="F10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="4">
-        <v>-32.4</v>
-      </c>
-      <c r="H10" s="4">
-        <v>-14.4</v>
-      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="6" t="s">
         <v>100</v>
       </c>
@@ -3581,12 +3533,8 @@
       <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="4">
-        <v>-37.9</v>
-      </c>
-      <c r="H11" s="4">
-        <v>-13.8</v>
-      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="6" t="s">
         <v>54</v>
       </c>
@@ -3615,12 +3563,8 @@
       <c r="F12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="4">
-        <v>-26.5</v>
-      </c>
-      <c r="H12" s="4">
-        <v>-11.9</v>
-      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="6" t="s">
         <v>28</v>
       </c>
@@ -3649,12 +3593,8 @@
       <c r="F13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="4">
-        <v>-26.9</v>
-      </c>
-      <c r="H13" s="4">
-        <v>-7</v>
-      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
@@ -3683,12 +3623,8 @@
       <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="4">
-        <v>-26.1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>-11</v>
-      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
@@ -3717,12 +3653,8 @@
       <c r="F15" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G15" s="4">
-        <v>-24.9</v>
-      </c>
-      <c r="H15" s="4">
-        <v>-12.8</v>
-      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="6" t="s">
         <v>32</v>
       </c>
@@ -3751,12 +3683,8 @@
       <c r="F16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="4">
-        <v>-24.8</v>
-      </c>
-      <c r="H16" s="4">
-        <v>-12.4</v>
-      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="6" t="s">
         <v>96</v>
       </c>
@@ -3785,12 +3713,8 @@
       <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="4">
-        <v>-24.7</v>
-      </c>
-      <c r="H17" s="4">
-        <v>-13.2</v>
-      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="6" t="s">
         <v>161</v>
       </c>
@@ -3819,12 +3743,8 @@
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="4">
-        <v>-23.7</v>
-      </c>
-      <c r="H18" s="4">
-        <v>-14.7</v>
-      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="6" t="s">
         <v>22</v>
       </c>
@@ -3853,12 +3773,8 @@
       <c r="F19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="4">
-        <v>-25.1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>-17.600000000000001</v>
-      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="6" t="s">
         <v>114</v>
       </c>
@@ -3888,10 +3804,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="13">
-        <v>-28.8</v>
+        <v>-25.4</v>
       </c>
       <c r="H20" s="13">
-        <v>-14.9</v>
+        <v>-20.2</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
@@ -3922,10 +3838,10 @@
         <v>106</v>
       </c>
       <c r="G21" s="13">
-        <v>-27.6</v>
+        <v>-31.5</v>
       </c>
       <c r="H21" s="13">
-        <v>-17.7</v>
+        <v>-22.2</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>115</v>
@@ -3956,10 +3872,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="13">
-        <v>-22.7</v>
+        <v>-33.5</v>
       </c>
       <c r="H22" s="13">
-        <v>-16.600000000000001</v>
+        <v>-23.7</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>40</v>
@@ -3992,10 +3908,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="13">
-        <v>-24.5</v>
+        <v>-31.3</v>
       </c>
       <c r="H23" s="13">
-        <v>-12.7</v>
+        <v>-11.5</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
@@ -4028,10 +3944,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="13">
-        <v>-21.8</v>
+        <v>-28.9</v>
       </c>
       <c r="H24" s="13">
-        <v>-14.6</v>
+        <v>-23.7</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -4061,12 +3977,8 @@
       <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="4">
-        <v>-19.5</v>
-      </c>
-      <c r="H25" s="4">
-        <v>-11.1</v>
-      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
@@ -4097,12 +4009,8 @@
       <c r="F26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="4">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="H26" s="4">
-        <v>-12</v>
-      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="6" t="s">
         <v>2</v>
       </c>
@@ -4131,12 +4039,8 @@
       <c r="F27" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G27" s="4">
-        <v>-39.9</v>
-      </c>
-      <c r="H27" s="4">
-        <v>-17.8</v>
-      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="6" t="s">
         <v>2</v>
       </c>
@@ -4165,12 +4069,8 @@
       <c r="F28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="4">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="H28" s="4">
-        <v>-25</v>
-      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="6" t="s">
         <v>75</v>
       </c>
@@ -4201,12 +4101,8 @@
       <c r="F29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="4">
-        <v>-21.6</v>
-      </c>
-      <c r="H29" s="4">
-        <v>-15.1</v>
-      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="6" t="s">
         <v>22</v>
       </c>
@@ -4235,12 +4131,8 @@
       <c r="F30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="4">
-        <v>-17.2</v>
-      </c>
-      <c r="H30" s="4">
-        <v>-6.4</v>
-      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="6" t="s">
         <v>21</v>
       </c>
@@ -4271,12 +4163,8 @@
       <c r="F31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="4">
-        <v>-30.2</v>
-      </c>
-      <c r="H31" s="4">
-        <v>-11.8</v>
-      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="6" t="s">
         <v>21</v>
       </c>
@@ -4305,12 +4193,8 @@
       <c r="F32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="4">
-        <v>-16</v>
-      </c>
-      <c r="H32" s="4">
-        <v>-0.1</v>
-      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
         <v>129</v>
@@ -4339,12 +4223,8 @@
       <c r="F33" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G33" s="4">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="H33" s="4">
-        <v>11.9</v>
-      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="6" t="s">
         <v>249</v>
       </c>
@@ -4373,12 +4253,8 @@
       <c r="F34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="4">
-        <v>-13</v>
-      </c>
-      <c r="H34" s="4">
-        <v>-1.2</v>
-      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
         <v>131</v>
@@ -4407,12 +4283,8 @@
       <c r="F35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="4">
-        <v>-24</v>
-      </c>
-      <c r="H35" s="4">
-        <v>-2.7</v>
-      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="6"/>
       <c r="J35" s="14" t="s">
         <v>131</v>
@@ -4441,12 +4313,8 @@
       <c r="F36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="4">
-        <v>-27.4</v>
-      </c>
-      <c r="H36" s="4">
-        <v>-7.7</v>
-      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="6" t="s">
         <v>47</v>
       </c>
@@ -4477,12 +4345,8 @@
       <c r="F37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="4">
-        <v>-29.3</v>
-      </c>
-      <c r="H37" s="4">
-        <v>-4.7</v>
-      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="6" t="s">
         <v>45</v>
       </c>
@@ -4513,12 +4377,8 @@
       <c r="F38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="4">
-        <v>-30.9</v>
-      </c>
-      <c r="H38" s="4">
-        <v>-2</v>
-      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
         <v>130</v>
@@ -4547,12 +4407,8 @@
       <c r="F39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="4">
-        <v>-22.6</v>
-      </c>
-      <c r="H39" s="4">
-        <v>3</v>
-      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="6"/>
       <c r="J39" s="14" t="s">
         <v>130</v>
@@ -4581,12 +4437,8 @@
       <c r="F40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="4">
-        <v>-26</v>
-      </c>
-      <c r="H40" s="4">
-        <v>-14.8</v>
-      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="6" t="s">
         <v>43</v>
       </c>
@@ -4615,12 +4467,8 @@
       <c r="F41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="4">
-        <v>-26.7</v>
-      </c>
-      <c r="H41" s="4">
-        <v>-13</v>
-      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
       <c r="I41" s="6" t="s">
         <v>2</v>
       </c>
@@ -4649,12 +4497,8 @@
       <c r="F42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="4">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="H42" s="4">
-        <v>-14.9</v>
-      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
       <c r="I42" s="6" t="s">
         <v>2</v>
       </c>
@@ -4683,12 +4527,8 @@
       <c r="F43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G43" s="4">
-        <v>-27.4</v>
-      </c>
-      <c r="H43" s="4">
-        <v>-2.4</v>
-      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
       <c r="I43" s="6" t="s">
         <v>65</v>
       </c>
@@ -4717,12 +4557,8 @@
       <c r="F44" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="4">
-        <v>-18</v>
-      </c>
-      <c r="H44" s="4">
-        <v>-2.8</v>
-      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
       <c r="I44" s="6" t="s">
         <v>65</v>
       </c>
@@ -4751,12 +4587,8 @@
       <c r="F45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="4">
-        <v>-22.7</v>
-      </c>
-      <c r="H45" s="4">
-        <v>-10</v>
-      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
       <c r="I45" s="6" t="s">
         <v>22</v>
       </c>
@@ -4785,12 +4617,8 @@
       <c r="F46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="4">
-        <v>-19.3</v>
-      </c>
-      <c r="H46" s="4">
-        <v>-7.9</v>
-      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
       <c r="I46" s="6" t="s">
         <v>21</v>
       </c>
@@ -4819,12 +4647,8 @@
       <c r="F47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G47" s="4">
-        <v>-10.8</v>
-      </c>
-      <c r="H47" s="4">
-        <v>-2.9</v>
-      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
       <c r="I47" s="6" t="s">
         <v>21</v>
       </c>
@@ -4855,12 +4679,8 @@
       <c r="F48" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="4">
-        <v>-37.5</v>
-      </c>
-      <c r="H48" s="4">
-        <v>-17.8</v>
-      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
       <c r="I48" s="6" t="s">
         <v>2</v>
       </c>
@@ -4889,12 +4709,8 @@
       <c r="F49" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="4">
-        <v>-38.700000000000003</v>
-      </c>
-      <c r="H49" s="4">
-        <v>-27</v>
-      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
       <c r="I49" s="6" t="s">
         <v>2</v>
       </c>
@@ -4937,34 +4753,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="62" t="s">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="65">
-        <v>45698</v>
-      </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="63" t="s">
+      <c r="F1" s="64">
+        <v>45700</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="64"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="61" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="I2" s="61"/>
+      <c r="I2" s="60"/>
       <c r="K2" s="21" t="s">
         <v>176</v>
       </c>
@@ -4976,7 +4792,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="60"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="51" t="s">
         <v>90</v>
       </c>
@@ -5012,7 +4828,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="60"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="54">
         <v>1</v>
       </c>
@@ -5026,12 +4842,8 @@
       <c r="F4" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="36">
-        <v>-24</v>
-      </c>
-      <c r="H4" s="36">
-        <v>-20.100000000000001</v>
-      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="34" t="s">
         <v>174</v>
       </c>
@@ -5046,7 +4858,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="60"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="54">
         <v>2</v>
       </c>
@@ -5060,45 +4872,35 @@
       <c r="F5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="36">
-        <v>-28.9</v>
-      </c>
-      <c r="H5" s="36">
-        <v>-13.3</v>
-      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="60"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="54">
         <v>3</v>
       </c>
       <c r="C6" s="52">
         <v>3</v>
       </c>
-      <c r="D6" s="52">
-        <v>0</v>
-      </c>
+      <c r="D6" s="52"/>
       <c r="E6" s="32" t="s">
         <v>216</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="59">
-        <v>-31.7</v>
-      </c>
-      <c r="H6" s="36">
-        <v>-12.5</v>
-      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="34" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="60"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="54">
         <v>4</v>
       </c>
@@ -5112,43 +4914,37 @@
       <c r="F7" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="36">
-        <v>-26.9</v>
-      </c>
-      <c r="H7" s="36">
-        <v>-18.399999999999999</v>
-      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="60"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="54">
         <v>5</v>
       </c>
       <c r="C8" s="52">
         <v>3</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="52">
+        <v>0</v>
+      </c>
       <c r="E8" s="32" t="s">
         <v>215</v>
       </c>
       <c r="F8" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="36">
-        <v>-26.2</v>
-      </c>
-      <c r="H8" s="36">
-        <v>-18</v>
-      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="60"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="54">
         <v>6</v>
       </c>
@@ -5162,18 +4958,14 @@
       <c r="F9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>246</v>
-      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="34" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="60"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="54">
         <v>7</v>
       </c>
@@ -5187,18 +4979,14 @@
       <c r="F10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="36">
-        <v>-27.2</v>
-      </c>
-      <c r="H10" s="36">
-        <v>-11.9</v>
-      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="34" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="60"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="54">
         <v>8</v>
       </c>
@@ -5212,18 +5000,14 @@
       <c r="F11" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="36">
-        <v>-33.799999999999997</v>
-      </c>
-      <c r="H11" s="36">
-        <v>-20.6</v>
-      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="34" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="60"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="54">
         <v>9</v>
       </c>
@@ -5237,18 +5021,14 @@
       <c r="F12" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="36">
-        <v>-32.4</v>
-      </c>
-      <c r="H12" s="36">
-        <v>-14.4</v>
-      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="60"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="54">
         <v>10</v>
       </c>
@@ -5264,18 +5044,14 @@
       <c r="F13" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="58">
-        <v>-37.9</v>
-      </c>
-      <c r="H13" s="58">
-        <v>-13.8</v>
-      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="34" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="60"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="54">
         <v>11</v>
       </c>
@@ -5289,18 +5065,14 @@
       <c r="F14" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="36">
-        <v>-26.5</v>
-      </c>
-      <c r="H14" s="36">
-        <v>-11.9</v>
-      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="60"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="54">
         <v>12</v>
       </c>
@@ -5314,18 +5086,14 @@
       <c r="F15" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="36">
-        <v>-26.9</v>
-      </c>
-      <c r="H15" s="36">
-        <v>-7</v>
-      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="60"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="54">
         <v>13</v>
       </c>
@@ -5339,18 +5107,14 @@
       <c r="F16" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="36">
-        <v>-26.1</v>
-      </c>
-      <c r="H16" s="36">
-        <v>-11</v>
-      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="60"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="54">
         <v>14</v>
       </c>
@@ -5364,18 +5128,14 @@
       <c r="F17" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="36">
-        <v>-24.9</v>
-      </c>
-      <c r="H17" s="36">
-        <v>-12.8</v>
-      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="34" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="60"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="54">
         <v>15</v>
       </c>
@@ -5389,18 +5149,14 @@
       <c r="F18" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="36">
-        <v>-24.8</v>
-      </c>
-      <c r="H18" s="36">
-        <v>-12.4</v>
-      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="60"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="54">
         <v>16</v>
       </c>
@@ -5414,18 +5170,14 @@
       <c r="F19" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="36">
-        <v>-24.7</v>
-      </c>
-      <c r="H19" s="36">
-        <v>-13.2</v>
-      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="34" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="60"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="54">
         <v>17</v>
       </c>
@@ -5439,18 +5191,14 @@
       <c r="F20" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="36">
-        <v>-23.7</v>
-      </c>
-      <c r="H20" s="36">
-        <v>-14.7</v>
-      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="34" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="60"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="54">
         <v>18</v>
       </c>
@@ -5464,18 +5212,14 @@
       <c r="F21" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="36">
-        <v>-25.1</v>
-      </c>
-      <c r="H21" s="36">
-        <v>-17.600000000000001</v>
-      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="34" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="60"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="54">
         <v>19</v>
       </c>
@@ -5489,18 +5233,14 @@
       <c r="F22" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="36">
-        <v>-28.8</v>
-      </c>
-      <c r="H22" s="36">
-        <v>-14.9</v>
-      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="34" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="60"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="54">
         <v>20</v>
       </c>
@@ -5514,18 +5254,14 @@
       <c r="F23" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="36">
-        <v>-27.6</v>
-      </c>
-      <c r="H23" s="36">
-        <v>-17.7</v>
-      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="60"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="54">
         <v>21</v>
       </c>
@@ -5539,43 +5275,37 @@
       <c r="F24" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="36">
-        <v>-22.7</v>
-      </c>
-      <c r="H24" s="36">
-        <v>-16.600000000000001</v>
-      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="60"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="54">
         <v>22</v>
       </c>
       <c r="C25" s="52">
         <v>3</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="52">
+        <v>0</v>
+      </c>
       <c r="E25" s="32" t="s">
         <v>216</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="36">
-        <v>-24.5</v>
-      </c>
-      <c r="H25" s="36">
-        <v>-12.7</v>
-      </c>
+      <c r="G25" s="57"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="34" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="60"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="54">
         <v>23</v>
       </c>
@@ -5589,18 +5319,14 @@
       <c r="F26" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="36">
-        <v>-21.8</v>
-      </c>
-      <c r="H26" s="36">
-        <v>-14.6</v>
-      </c>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="34" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="60"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="54">
         <v>24</v>
       </c>
@@ -5614,18 +5340,14 @@
       <c r="F27" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="36">
-        <v>-19.5</v>
-      </c>
-      <c r="H27" s="36">
-        <v>-11.1</v>
-      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="60"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="54">
         <v>25</v>
       </c>
@@ -5641,18 +5363,14 @@
       <c r="F28" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="36">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="H28" s="36">
-        <v>-12</v>
-      </c>
+      <c r="G28" s="57"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="60"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="54">
         <v>26</v>
       </c>
@@ -5668,18 +5386,14 @@
       <c r="F29" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G29" s="57">
-        <v>-39.9</v>
-      </c>
-      <c r="H29" s="36">
-        <v>-17.8</v>
-      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="34" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="60"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="54">
         <v>27</v>
       </c>
@@ -5693,18 +5407,14 @@
       <c r="F30" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="36">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="H30" s="36">
-        <v>-25</v>
-      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="34" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="60"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="54">
         <v>28</v>
       </c>
@@ -5720,18 +5430,14 @@
       <c r="F31" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="36">
-        <v>-21.6</v>
-      </c>
-      <c r="H31" s="36">
-        <v>-15.1</v>
-      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="34" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="60"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="54">
         <v>29</v>
       </c>
@@ -5745,18 +5451,14 @@
       <c r="F32" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="36">
-        <v>-17.2</v>
-      </c>
-      <c r="H32" s="36">
-        <v>-6.4</v>
-      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="60"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="54">
         <v>30</v>
       </c>
@@ -5772,18 +5474,14 @@
       <c r="F33" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="36">
-        <v>-30.2</v>
-      </c>
-      <c r="H33" s="36">
-        <v>-11.8</v>
-      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="34" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="60"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="54">
         <v>31</v>
       </c>
@@ -5797,18 +5495,14 @@
       <c r="F34" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="36">
-        <v>-16</v>
-      </c>
-      <c r="H34" s="36">
-        <v>-0.1</v>
-      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="34" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="60"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="54">
         <v>32</v>
       </c>
@@ -5822,18 +5516,14 @@
       <c r="F35" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="G35" s="36">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="H35" s="36">
-        <v>11.9</v>
-      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="34" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="60"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="54">
         <v>33</v>
       </c>
@@ -5847,16 +5537,12 @@
       <c r="F36" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="36">
-        <v>-13</v>
-      </c>
-      <c r="H36" s="36">
-        <v>-1.2</v>
-      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="60"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="54">
         <v>34</v>
       </c>
@@ -5872,16 +5558,12 @@
       <c r="F37" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="36">
-        <v>-24</v>
-      </c>
-      <c r="H37" s="36">
-        <v>-2.7</v>
-      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="60"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="54">
         <v>35</v>
       </c>
@@ -5897,18 +5579,14 @@
       <c r="F38" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="36">
-        <v>-27.4</v>
-      </c>
-      <c r="H38" s="36">
-        <v>-7.7</v>
-      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="34" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="60"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="54">
         <v>36</v>
       </c>
@@ -5924,18 +5602,14 @@
       <c r="F39" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G39" s="36">
-        <v>-29.3</v>
-      </c>
-      <c r="H39" s="36">
-        <v>-4.7</v>
-      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="60"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="54">
         <v>37</v>
       </c>
@@ -5951,16 +5625,12 @@
       <c r="F40" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G40" s="36">
-        <v>-30.9</v>
-      </c>
-      <c r="H40" s="36">
-        <v>-2</v>
-      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="60"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="54">
         <v>38</v>
       </c>
@@ -5976,16 +5646,12 @@
       <c r="F41" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G41" s="36">
-        <v>-22.6</v>
-      </c>
-      <c r="H41" s="36">
-        <v>3</v>
-      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="60"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="54">
         <v>39</v>
       </c>
@@ -5999,18 +5665,14 @@
       <c r="F42" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G42" s="36">
-        <v>-26</v>
-      </c>
-      <c r="H42" s="36">
-        <v>-14.8</v>
-      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="60"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="54">
         <v>40</v>
       </c>
@@ -6024,18 +5686,14 @@
       <c r="F43" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="36">
-        <v>-26.7</v>
-      </c>
-      <c r="H43" s="36">
-        <v>-13</v>
-      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="60"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="54">
         <v>41</v>
       </c>
@@ -6049,18 +5707,14 @@
       <c r="F44" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="36">
-        <v>-35.299999999999997</v>
-      </c>
-      <c r="H44" s="36">
-        <v>-14.9</v>
-      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="60"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="54">
         <v>42</v>
       </c>
@@ -6074,18 +5728,14 @@
       <c r="F45" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="G45" s="36">
-        <v>-27.4</v>
-      </c>
-      <c r="H45" s="36">
-        <v>-2.4</v>
-      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="60"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="54">
         <v>43</v>
       </c>
@@ -6099,18 +5749,14 @@
       <c r="F46" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G46" s="36">
-        <v>-18</v>
-      </c>
-      <c r="H46" s="36">
-        <v>-2.8</v>
-      </c>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="60"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="54">
         <v>44</v>
       </c>
@@ -6124,18 +5770,14 @@
       <c r="F47" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="36">
-        <v>-22.7</v>
-      </c>
-      <c r="H47" s="36">
-        <v>-10</v>
-      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="34" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="60"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="54">
         <v>45</v>
       </c>
@@ -6149,18 +5791,14 @@
       <c r="F48" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="36">
-        <v>-19.3</v>
-      </c>
-      <c r="H48" s="36">
-        <v>-7.9</v>
-      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="34" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="60"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="54">
         <v>46</v>
       </c>
@@ -6174,18 +5812,14 @@
       <c r="F49" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="36">
-        <v>-10.8</v>
-      </c>
-      <c r="H49" s="36">
-        <v>-2.9</v>
-      </c>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="60"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="54">
         <v>47</v>
       </c>
@@ -6199,48 +5833,38 @@
       <c r="F50" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="36">
-        <v>-37.5</v>
-      </c>
-      <c r="H50" s="36">
-        <v>-17.8</v>
-      </c>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="60"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="54">
         <v>48</v>
       </c>
       <c r="C51" s="52">
         <v>1</v>
       </c>
-      <c r="D51" s="52">
-        <v>0</v>
-      </c>
+      <c r="D51" s="52"/>
       <c r="E51" s="30" t="s">
         <v>214</v>
       </c>
       <c r="F51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G51" s="36">
-        <v>-38.700000000000003</v>
-      </c>
-      <c r="H51" s="57">
-        <v>-27</v>
-      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="34" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="60"/>
+      <c r="A52" s="59"/>
     </row>
     <row r="53" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="60"/>
+      <c r="A53" s="59"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I51">
@@ -6290,7 +5914,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -13882,6 +13506,150 @@
     <row r="52" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>45699</v>
+      </c>
+      <c r="B52">
+        <v>-32.9</v>
+      </c>
+      <c r="C52">
+        <v>-28.9</v>
+      </c>
+      <c r="D52">
+        <v>-34.1</v>
+      </c>
+      <c r="E52">
+        <v>-30.9</v>
+      </c>
+      <c r="F52">
+        <v>-34.1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>246</v>
+      </c>
+      <c r="H52">
+        <v>-23.6</v>
+      </c>
+      <c r="I52">
+        <v>-23.8</v>
+      </c>
+      <c r="J52">
+        <v>-27.6</v>
+      </c>
+      <c r="K52">
+        <v>-29.9</v>
+      </c>
+      <c r="L52">
+        <v>-28.4</v>
+      </c>
+      <c r="M52">
+        <v>-28.5</v>
+      </c>
+      <c r="N52">
+        <v>-29.3</v>
+      </c>
+      <c r="O52">
+        <v>-29.2</v>
+      </c>
+      <c r="P52">
+        <v>-28.6</v>
+      </c>
+      <c r="Q52">
+        <v>-23.1</v>
+      </c>
+      <c r="R52">
+        <v>-29.6</v>
+      </c>
+      <c r="S52">
+        <v>-25.8</v>
+      </c>
+      <c r="T52">
+        <v>-28.5</v>
+      </c>
+      <c r="U52">
+        <v>-31.8</v>
+      </c>
+      <c r="V52">
+        <v>-28.2</v>
+      </c>
+      <c r="W52">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="X52">
+        <v>-27.6</v>
+      </c>
+      <c r="Y52">
+        <v>-21.3</v>
+      </c>
+      <c r="Z52">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="AA52">
+        <v>-35</v>
+      </c>
+      <c r="AB52">
+        <v>-27.5</v>
+      </c>
+      <c r="AC52">
+        <v>-24.6</v>
+      </c>
+      <c r="AD52">
+        <v>-12.8</v>
+      </c>
+      <c r="AE52">
+        <v>-32.5</v>
+      </c>
+      <c r="AF52">
+        <v>-9.1</v>
+      </c>
+      <c r="AG52">
+        <v>1.7</v>
+      </c>
+      <c r="AH52">
+        <v>-19</v>
+      </c>
+      <c r="AI52">
+        <v>-19.2</v>
+      </c>
+      <c r="AJ52">
+        <v>-26.2</v>
+      </c>
+      <c r="AK52">
+        <v>-22.8</v>
+      </c>
+      <c r="AL52">
+        <v>-24.2</v>
+      </c>
+      <c r="AM52">
+        <v>-17</v>
+      </c>
+      <c r="AN52">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="AO52">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="AP52">
+        <v>-23.3</v>
+      </c>
+      <c r="AQ52">
+        <v>-18.2</v>
+      </c>
+      <c r="AR52">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="AS52">
+        <v>-30.4</v>
+      </c>
+      <c r="AT52">
+        <v>-24.6</v>
+      </c>
+      <c r="AU52">
+        <v>-15.1</v>
+      </c>
+      <c r="AV52">
+        <v>-32.1</v>
+      </c>
+      <c r="AW52">
+        <v>-33.6</v>
       </c>
     </row>
     <row r="53" spans="1:49" x14ac:dyDescent="0.4">
@@ -14010,7 +13778,7 @@
   <dimension ref="A1:AW79"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -21603,6 +21371,150 @@
       <c r="A52" s="16">
         <v>45699</v>
       </c>
+      <c r="B52">
+        <v>-20</v>
+      </c>
+      <c r="C52">
+        <v>-15.6</v>
+      </c>
+      <c r="D52">
+        <v>-16.3</v>
+      </c>
+      <c r="E52">
+        <v>-15.2</v>
+      </c>
+      <c r="F52">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="G52" t="s">
+        <v>246</v>
+      </c>
+      <c r="H52">
+        <v>-12.5</v>
+      </c>
+      <c r="I52">
+        <v>-16.7</v>
+      </c>
+      <c r="J52">
+        <v>-14.3</v>
+      </c>
+      <c r="K52">
+        <v>-17</v>
+      </c>
+      <c r="L52">
+        <v>-12.8</v>
+      </c>
+      <c r="M52">
+        <v>-11.5</v>
+      </c>
+      <c r="N52">
+        <v>-11.8</v>
+      </c>
+      <c r="O52">
+        <v>-14.5</v>
+      </c>
+      <c r="P52">
+        <v>-10.5</v>
+      </c>
+      <c r="Q52">
+        <v>-8.9</v>
+      </c>
+      <c r="R52">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="S52">
+        <v>-11.5</v>
+      </c>
+      <c r="T52">
+        <v>-12.8</v>
+      </c>
+      <c r="U52">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="V52">
+        <v>-17.8</v>
+      </c>
+      <c r="W52">
+        <v>-17.7</v>
+      </c>
+      <c r="X52">
+        <v>-14</v>
+      </c>
+      <c r="Y52">
+        <v>-13</v>
+      </c>
+      <c r="Z52">
+        <v>-14.6</v>
+      </c>
+      <c r="AA52">
+        <v>-11.3</v>
+      </c>
+      <c r="AB52">
+        <v>-14.5</v>
+      </c>
+      <c r="AC52">
+        <v>-11.4</v>
+      </c>
+      <c r="AD52">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AE52">
+        <v>-14.4</v>
+      </c>
+      <c r="AF52">
+        <v>-0.2</v>
+      </c>
+      <c r="AG52">
+        <v>9.4</v>
+      </c>
+      <c r="AH52">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="AI52">
+        <v>-5</v>
+      </c>
+      <c r="AJ52">
+        <v>-1.9</v>
+      </c>
+      <c r="AK52">
+        <v>3.3</v>
+      </c>
+      <c r="AL52">
+        <v>3.8</v>
+      </c>
+      <c r="AM52">
+        <v>1.3</v>
+      </c>
+      <c r="AN52">
+        <v>-14.7</v>
+      </c>
+      <c r="AO52">
+        <v>-16.8</v>
+      </c>
+      <c r="AP52">
+        <v>-10.6</v>
+      </c>
+      <c r="AQ52">
+        <v>-3.4</v>
+      </c>
+      <c r="AR52">
+        <v>-5.5</v>
+      </c>
+      <c r="AS52">
+        <v>-14</v>
+      </c>
+      <c r="AT52">
+        <v>-11</v>
+      </c>
+      <c r="AU52">
+        <v>-5.9</v>
+      </c>
+      <c r="AV52">
+        <v>-10.6</v>
+      </c>
+      <c r="AW52">
+        <v>-16.600000000000001</v>
+      </c>
     </row>
     <row r="53" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A53" s="16">

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875CB974-A119-4804-A044-BC6E4D70C71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA29CF-5999-4E50-97B1-CB1F5410CA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="252">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1637,6 +1637,10 @@
 蒙古冷站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1645,7 +1649,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2105,8 +2109,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2140,6 +2153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF63BE7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2284,7 +2303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2482,6 +2501,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="50" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2884,10 +2909,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="4">
-        <v>-33.9</v>
+        <v>-33.4</v>
       </c>
       <c r="H2" s="4">
-        <v>-24.4</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
@@ -2906,145 +2931,145 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BH2">TRANSPOSE(G2:G48)</f>
-        <v>-33.9</v>
+        <v>-33.4</v>
       </c>
       <c r="O2">
-        <v>-31.2</v>
+        <v>-23.8</v>
       </c>
       <c r="P2">
-        <v>-35.5</v>
+        <v>-33</v>
       </c>
       <c r="Q2">
-        <v>-22.4</v>
+        <v>-27</v>
       </c>
       <c r="R2">
-        <v>-34.1</v>
+        <v>-31.6</v>
       </c>
       <c r="S2" t="str">
         <v>无</v>
       </c>
       <c r="T2">
-        <v>-19.600000000000001</v>
+        <v>-19.3</v>
       </c>
       <c r="U2">
-        <v>-27</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="V2">
-        <v>-29.3</v>
+        <v>-27.2</v>
       </c>
       <c r="W2">
-        <v>-34.6</v>
+        <v>-27.7</v>
       </c>
       <c r="X2">
+        <v>-32.4</v>
+      </c>
+      <c r="Y2">
+        <v>-35.5</v>
+      </c>
+      <c r="Z2">
+        <v>-36.6</v>
+      </c>
+      <c r="AA2">
+        <v>-28.3</v>
+      </c>
+      <c r="AB2">
+        <v>-23.6</v>
+      </c>
+      <c r="AC2">
+        <v>-14.4</v>
+      </c>
+      <c r="AD2">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="AE2">
+        <v>-24.6</v>
+      </c>
+      <c r="AF2">
+        <v>-18.3</v>
+      </c>
+      <c r="AG2">
+        <v>-30.3</v>
+      </c>
+      <c r="AH2">
+        <v>-25.2</v>
+      </c>
+      <c r="AI2">
+        <v>-24.9</v>
+      </c>
+      <c r="AJ2">
+        <v>-25.6</v>
+      </c>
+      <c r="AK2">
+        <v>-16.5</v>
+      </c>
+      <c r="AL2">
         <v>-32.799999999999997</v>
       </c>
-      <c r="Y2">
-        <v>-34.5</v>
-      </c>
-      <c r="Z2">
-        <v>-35.9</v>
-      </c>
-      <c r="AA2">
-        <v>-29.6</v>
-      </c>
-      <c r="AB2">
-        <v>-24.8</v>
-      </c>
-      <c r="AC2">
-        <v>-20.399999999999999</v>
-      </c>
-      <c r="AD2">
-        <v>-34.1</v>
-      </c>
-      <c r="AE2">
-        <v>-31</v>
-      </c>
-      <c r="AF2">
-        <v>-25.4</v>
-      </c>
-      <c r="AG2">
-        <v>-31.5</v>
-      </c>
-      <c r="AH2">
-        <v>-33.5</v>
-      </c>
-      <c r="AI2">
-        <v>-31.3</v>
-      </c>
-      <c r="AJ2">
-        <v>-28.9</v>
-      </c>
-      <c r="AK2">
-        <v>-24.7</v>
-      </c>
-      <c r="AL2">
-        <v>-35.700000000000003</v>
-      </c>
       <c r="AM2">
-        <v>-36</v>
+        <v>-29.9</v>
       </c>
       <c r="AN2">
-        <v>-26.9</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="AO2">
-        <v>-21.9</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="AP2">
-        <v>-17</v>
+        <v>-11.1</v>
       </c>
       <c r="AQ2">
-        <v>-35.700000000000003</v>
+        <v>-33.1</v>
       </c>
       <c r="AR2">
-        <v>-15.1</v>
+        <v>-13.5</v>
       </c>
       <c r="AS2">
-        <v>-20.9</v>
+        <v>-12.9</v>
       </c>
       <c r="AT2">
         <v>-22.3</v>
       </c>
       <c r="AU2">
-        <v>-19.8</v>
+        <v>-13.6</v>
       </c>
       <c r="AV2">
-        <v>-9.8000000000000007</v>
+        <v>-16.2</v>
       </c>
       <c r="AW2">
-        <v>-16.399999999999999</v>
+        <v>-20.6</v>
       </c>
       <c r="AX2">
-        <v>-16.5</v>
+        <v>-21.1</v>
       </c>
       <c r="AY2">
-        <v>-24.5</v>
+        <v>-25</v>
       </c>
       <c r="AZ2">
-        <v>-33.6</v>
+        <v>-31</v>
       </c>
       <c r="BA2">
-        <v>-25.5</v>
+        <v>-21.4</v>
       </c>
       <c r="BB2">
-        <v>-17.5</v>
+        <v>-25</v>
       </c>
       <c r="BC2">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="BD2">
-        <v>-28.1</v>
+        <v>-26</v>
       </c>
       <c r="BE2">
-        <v>-23.6</v>
+        <v>-17.3</v>
       </c>
       <c r="BF2">
-        <v>-14.9</v>
+        <v>-14.6</v>
       </c>
       <c r="BG2">
-        <v>-33.5</v>
+        <v>-25.4</v>
       </c>
       <c r="BH2">
-        <v>-30.5</v>
+        <v>-27.6</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.4">
@@ -3065,10 +3090,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>-31.2</v>
+        <v>-23.8</v>
       </c>
       <c r="H3" s="4">
-        <v>-4.2</v>
+        <v>-4.3</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>38</v>
@@ -3087,145 +3112,145 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BH3">TRANSPOSE(H2:H48)</f>
-        <v>-24.4</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="O3">
-        <v>-4.2</v>
+        <v>-4.3</v>
       </c>
       <c r="P3">
-        <v>-18.3</v>
+        <v>-8.9</v>
       </c>
       <c r="Q3">
-        <v>-13.2</v>
+        <v>-11.4</v>
       </c>
       <c r="R3">
-        <v>-19.2</v>
+        <v>-16.8</v>
       </c>
       <c r="S3" t="str">
         <v>无</v>
       </c>
       <c r="T3">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="U3">
+        <v>-8</v>
+      </c>
+      <c r="V3">
+        <v>-7.9</v>
+      </c>
+      <c r="W3" t="str">
+        <v>无</v>
+      </c>
+      <c r="X3">
+        <v>-15.2</v>
+      </c>
+      <c r="Y3">
+        <v>-7.4</v>
+      </c>
+      <c r="Z3">
+        <v>-17.2</v>
+      </c>
+      <c r="AA3">
+        <v>-10.8</v>
+      </c>
+      <c r="AB3">
+        <v>-6.8</v>
+      </c>
+      <c r="AC3">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="AD3">
+        <v>-8.1</v>
+      </c>
+      <c r="AE3">
+        <v>-14.6</v>
+      </c>
+      <c r="AF3">
+        <v>-10.4</v>
+      </c>
+      <c r="AG3">
+        <v>-15.4</v>
+      </c>
+      <c r="AH3">
+        <v>-10.6</v>
+      </c>
+      <c r="AI3">
+        <v>-7.2</v>
+      </c>
+      <c r="AJ3">
+        <v>-6.1</v>
+      </c>
+      <c r="AK3">
+        <v>-1.8</v>
+      </c>
+      <c r="AL3">
+        <v>-5.7</v>
+      </c>
+      <c r="AM3">
+        <v>-8.1</v>
+      </c>
+      <c r="AN3">
+        <v>-8.6</v>
+      </c>
+      <c r="AO3">
+        <v>-9.1</v>
+      </c>
+      <c r="AP3">
         <v>-3.4</v>
       </c>
-      <c r="U3">
-        <v>-16.5</v>
-      </c>
-      <c r="V3">
-        <v>-10.7</v>
-      </c>
-      <c r="W3">
-        <v>-12.2</v>
-      </c>
-      <c r="X3">
-        <v>-14.8</v>
-      </c>
-      <c r="Y3">
-        <v>-10.8</v>
-      </c>
-      <c r="Z3">
-        <v>-15.4</v>
-      </c>
-      <c r="AA3">
-        <v>-13.5</v>
-      </c>
-      <c r="AB3">
-        <v>-13.5</v>
-      </c>
-      <c r="AC3">
-        <v>-9.6</v>
-      </c>
-      <c r="AD3">
-        <v>-20.2</v>
-      </c>
-      <c r="AE3">
-        <v>-16.3</v>
-      </c>
-      <c r="AF3">
-        <v>-6.3</v>
-      </c>
-      <c r="AG3">
-        <v>-16.8</v>
-      </c>
-      <c r="AH3">
-        <v>-18.3</v>
-      </c>
-      <c r="AI3">
-        <v>-7.6</v>
-      </c>
-      <c r="AJ3">
-        <v>-10.3</v>
-      </c>
-      <c r="AK3">
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="AL3">
+      <c r="AQ3">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AR3">
+        <v>2.4</v>
+      </c>
+      <c r="AS3">
+        <v>-0.3</v>
+      </c>
+      <c r="AT3">
+        <v>1.4</v>
+      </c>
+      <c r="AU3">
+        <v>0.3</v>
+      </c>
+      <c r="AV3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AW3">
+        <v>5.8</v>
+      </c>
+      <c r="AX3">
+        <v>4.3</v>
+      </c>
+      <c r="AY3">
+        <v>-8.5</v>
+      </c>
+      <c r="AZ3">
+        <v>-11</v>
+      </c>
+      <c r="BA3">
+        <v>-2.5</v>
+      </c>
+      <c r="BB3">
         <v>-10.199999999999999</v>
       </c>
-      <c r="AM3">
-        <v>-14.7</v>
-      </c>
-      <c r="AN3">
-        <v>-15.7</v>
-      </c>
-      <c r="AO3">
-        <v>-5.6</v>
-      </c>
-      <c r="AP3">
-        <v>-9.5</v>
-      </c>
-      <c r="AQ3">
-        <v>-19.7</v>
-      </c>
-      <c r="AR3">
-        <v>-1.7</v>
-      </c>
-      <c r="AS3">
-        <v>1.6</v>
-      </c>
-      <c r="AT3">
-        <v>-8.6</v>
-      </c>
-      <c r="AU3">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AW3">
-        <v>1.9</v>
-      </c>
-      <c r="AX3">
-        <v>-4.2</v>
-      </c>
-      <c r="AY3">
-        <v>-14.7</v>
-      </c>
-      <c r="AZ3">
-        <v>-13.9</v>
-      </c>
-      <c r="BA3">
-        <v>-14.8</v>
-      </c>
-      <c r="BB3">
-        <v>-7.3</v>
-      </c>
       <c r="BC3">
+        <v>-6.1</v>
+      </c>
+      <c r="BD3">
+        <v>-6</v>
+      </c>
+      <c r="BE3">
+        <v>-2.4</v>
+      </c>
+      <c r="BF3">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="BD3">
-        <v>-10.8</v>
-      </c>
-      <c r="BE3">
-        <v>-3.4</v>
-      </c>
-      <c r="BF3">
-        <v>-3.1</v>
-      </c>
       <c r="BG3">
-        <v>-15.5</v>
+        <v>-8</v>
       </c>
       <c r="BH3">
-        <v>-17.899999999999999</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.4">
@@ -3246,10 +3271,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>-35.5</v>
+        <v>-33</v>
       </c>
       <c r="H4" s="4">
-        <v>-18.3</v>
+        <v>-8.9</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>117</v>
@@ -3282,10 +3307,10 @@
         <v>110</v>
       </c>
       <c r="G5" s="4">
-        <v>-22.4</v>
+        <v>-27</v>
       </c>
       <c r="H5" s="4">
-        <v>-13.2</v>
+        <v>-11.4</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
@@ -3327,10 +3352,10 @@
         <v>178</v>
       </c>
       <c r="G6" s="4">
-        <v>-34.1</v>
+        <v>-31.6</v>
       </c>
       <c r="H6" s="4">
-        <v>-19.2</v>
+        <v>-16.8</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>115</v>
@@ -3417,10 +3442,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>-19.600000000000001</v>
+        <v>-19.3</v>
       </c>
       <c r="H8" s="4">
-        <v>-3.4</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>120</v>
@@ -3460,10 +3485,10 @@
         <v>95</v>
       </c>
       <c r="G9" s="4">
-        <v>-27</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="H9" s="4">
-        <v>-16.5</v>
+        <v>-8</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>119</v>
@@ -3494,10 +3519,10 @@
         <v>102</v>
       </c>
       <c r="G10" s="4">
-        <v>-29.3</v>
+        <v>-27.2</v>
       </c>
       <c r="H10" s="4">
-        <v>-10.7</v>
+        <v>-7.9</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>100</v>
@@ -3528,10 +3553,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="4">
-        <v>-34.6</v>
-      </c>
-      <c r="H11" s="4">
-        <v>-12.2</v>
+        <v>-27.7</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>54</v>
@@ -3562,10 +3587,10 @@
         <v>87</v>
       </c>
       <c r="G12" s="4">
-        <v>-32.799999999999997</v>
+        <v>-32.4</v>
       </c>
       <c r="H12" s="4">
-        <v>-14.8</v>
+        <v>-15.2</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>28</v>
@@ -3596,10 +3621,10 @@
         <v>89</v>
       </c>
       <c r="G13" s="4">
-        <v>-34.5</v>
+        <v>-35.5</v>
       </c>
       <c r="H13" s="4">
-        <v>-10.8</v>
+        <v>-7.4</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
@@ -3630,10 +3655,10 @@
         <v>27</v>
       </c>
       <c r="G14" s="4">
-        <v>-35.9</v>
+        <v>-36.6</v>
       </c>
       <c r="H14" s="4">
-        <v>-15.4</v>
+        <v>-17.2</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
@@ -3664,10 +3689,10 @@
         <v>179</v>
       </c>
       <c r="G15" s="4">
-        <v>-29.6</v>
+        <v>-28.3</v>
       </c>
       <c r="H15" s="4">
-        <v>-13.5</v>
+        <v>-10.8</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
@@ -3698,10 +3723,10 @@
         <v>99</v>
       </c>
       <c r="G16" s="4">
-        <v>-24.8</v>
+        <v>-23.6</v>
       </c>
       <c r="H16" s="4">
-        <v>-13.5</v>
+        <v>-6.8</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>96</v>
@@ -3732,10 +3757,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="4">
-        <v>-20.399999999999999</v>
+        <v>-14.4</v>
       </c>
       <c r="H17" s="4">
-        <v>-9.6</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>161</v>
@@ -3766,10 +3791,10 @@
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>-34.1</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="H18" s="4">
-        <v>-20.2</v>
+        <v>-8.1</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
@@ -3800,10 +3825,10 @@
         <v>108</v>
       </c>
       <c r="G19" s="4">
-        <v>-31</v>
+        <v>-24.6</v>
       </c>
       <c r="H19" s="4">
-        <v>-16.3</v>
+        <v>-14.6</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>114</v>
@@ -3834,10 +3859,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="13">
-        <v>-25.4</v>
+        <v>-18.3</v>
       </c>
       <c r="H20" s="13">
-        <v>-6.3</v>
+        <v>-10.4</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
@@ -3868,10 +3893,10 @@
         <v>106</v>
       </c>
       <c r="G21" s="13">
-        <v>-31.5</v>
+        <v>-30.3</v>
       </c>
       <c r="H21" s="13">
-        <v>-16.8</v>
+        <v>-15.4</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>115</v>
@@ -3902,10 +3927,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="13">
-        <v>-33.5</v>
+        <v>-25.2</v>
       </c>
       <c r="H22" s="13">
-        <v>-18.3</v>
+        <v>-10.6</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>40</v>
@@ -3938,10 +3963,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="13">
-        <v>-31.3</v>
+        <v>-24.9</v>
       </c>
       <c r="H23" s="13">
-        <v>-7.6</v>
+        <v>-7.2</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
@@ -3974,10 +3999,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="13">
-        <v>-28.9</v>
+        <v>-25.6</v>
       </c>
       <c r="H24" s="13">
-        <v>-10.3</v>
+        <v>-6.1</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -4008,10 +4033,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="4">
-        <v>-24.7</v>
+        <v>-16.5</v>
       </c>
       <c r="H25" s="4">
-        <v>-9.3000000000000007</v>
+        <v>-1.8</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -4044,10 +4069,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>-35.700000000000003</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="H26" s="4">
-        <v>-10.199999999999999</v>
+        <v>-5.7</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -4078,10 +4103,10 @@
         <v>180</v>
       </c>
       <c r="G27" s="4">
-        <v>-36</v>
+        <v>-29.9</v>
       </c>
       <c r="H27" s="4">
-        <v>-14.7</v>
+        <v>-8.1</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
@@ -4112,10 +4137,10 @@
         <v>77</v>
       </c>
       <c r="G28" s="4">
-        <v>-26.9</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="H28" s="4">
-        <v>-15.7</v>
+        <v>-8.6</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
@@ -4148,10 +4173,10 @@
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <v>-21.9</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="H29" s="4">
-        <v>-5.6</v>
+        <v>-9.1</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -4182,10 +4207,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>-17</v>
+        <v>-11.1</v>
       </c>
       <c r="H30" s="4">
-        <v>-9.5</v>
+        <v>-3.4</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
@@ -4218,10 +4243,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="4">
-        <v>-35.700000000000003</v>
+        <v>-33.1</v>
       </c>
       <c r="H31" s="4">
-        <v>-19.7</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
@@ -4252,10 +4277,10 @@
         <v>66</v>
       </c>
       <c r="G32" s="4">
-        <v>-15.1</v>
+        <v>-13.5</v>
       </c>
       <c r="H32" s="4">
-        <v>-1.7</v>
+        <v>2.4</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
@@ -4284,10 +4309,10 @@
         <v>59</v>
       </c>
       <c r="G33" s="4">
-        <v>-20.9</v>
+        <v>-12.9</v>
       </c>
       <c r="H33" s="4">
-        <v>1.6</v>
+        <v>-0.3</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="14" t="s">
@@ -4321,7 +4346,7 @@
         <v>-22.3</v>
       </c>
       <c r="H34" s="4">
-        <v>-8.6</v>
+        <v>1.4</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
@@ -4352,10 +4377,10 @@
         <v>46</v>
       </c>
       <c r="G35" s="4">
-        <v>-19.8</v>
+        <v>-13.6</v>
       </c>
       <c r="H35" s="4">
-        <v>-8.8000000000000007</v>
+        <v>0.3</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>47</v>
@@ -4388,10 +4413,10 @@
         <v>49</v>
       </c>
       <c r="G36" s="4">
-        <v>-9.8000000000000007</v>
+        <v>-16.2</v>
       </c>
       <c r="H36" s="4">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>45</v>
@@ -4424,10 +4449,10 @@
         <v>51</v>
       </c>
       <c r="G37" s="4">
-        <v>-16.399999999999999</v>
+        <v>-20.6</v>
       </c>
       <c r="H37" s="4">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="14" t="s">
@@ -4458,10 +4483,10 @@
         <v>58</v>
       </c>
       <c r="G38" s="4">
-        <v>-16.5</v>
+        <v>-21.1</v>
       </c>
       <c r="H38" s="4">
-        <v>-4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
@@ -4492,10 +4517,10 @@
         <v>44</v>
       </c>
       <c r="G39" s="4">
-        <v>-24.5</v>
+        <v>-25</v>
       </c>
       <c r="H39" s="4">
-        <v>-14.7</v>
+        <v>-8.5</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>43</v>
@@ -4526,10 +4551,10 @@
         <v>74</v>
       </c>
       <c r="G40" s="4">
-        <v>-33.6</v>
+        <v>-31</v>
       </c>
       <c r="H40" s="4">
-        <v>-13.9</v>
+        <v>-11</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>2</v>
@@ -4560,10 +4585,10 @@
         <v>72</v>
       </c>
       <c r="G41" s="4">
-        <v>-25.5</v>
+        <v>-21.4</v>
       </c>
       <c r="H41" s="4">
-        <v>-14.8</v>
+        <v>-2.5</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
@@ -4594,10 +4619,10 @@
         <v>62</v>
       </c>
       <c r="G42" s="4">
-        <v>-17.5</v>
+        <v>-25</v>
       </c>
       <c r="H42" s="4">
-        <v>-7.3</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>65</v>
@@ -4628,10 +4653,10 @@
         <v>64</v>
       </c>
       <c r="G43" s="4">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="H43" s="4">
-        <v>-5.0999999999999996</v>
+        <v>-6.1</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
@@ -4662,10 +4687,10 @@
         <v>79</v>
       </c>
       <c r="G44" s="4">
-        <v>-28.1</v>
+        <v>-26</v>
       </c>
       <c r="H44" s="4">
-        <v>-10.8</v>
+        <v>-6</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>22</v>
@@ -4696,10 +4721,10 @@
         <v>81</v>
       </c>
       <c r="G45" s="4">
-        <v>-23.6</v>
+        <v>-17.3</v>
       </c>
       <c r="H45" s="4">
-        <v>-3.4</v>
+        <v>-2.4</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>21</v>
@@ -4730,10 +4755,10 @@
         <v>83</v>
       </c>
       <c r="G46" s="4">
-        <v>-14.9</v>
+        <v>-14.6</v>
       </c>
       <c r="H46" s="4">
-        <v>-3.1</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
@@ -4766,10 +4791,10 @@
         <v>68</v>
       </c>
       <c r="G47" s="4">
-        <v>-33.5</v>
+        <v>-25.4</v>
       </c>
       <c r="H47" s="4">
-        <v>-15.5</v>
+        <v>-8</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>2</v>
@@ -4800,10 +4825,10 @@
         <v>70</v>
       </c>
       <c r="G48" s="4">
-        <v>-30.5</v>
+        <v>-27.6</v>
       </c>
       <c r="H48" s="4">
-        <v>-17.899999999999999</v>
+        <v>-12.8</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -4855,7 +4880,7 @@
         <v>247</v>
       </c>
       <c r="F1" s="63">
-        <v>45700</v>
+        <v>45702</v>
       </c>
       <c r="G1" s="64"/>
       <c r="H1" s="61" t="s">
@@ -4939,10 +4964,10 @@
         <v>109</v>
       </c>
       <c r="G4" s="36">
-        <v>-33.9</v>
+        <v>-33.4</v>
       </c>
       <c r="H4" s="56">
-        <v>-24.4</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>174</v>
@@ -4973,10 +4998,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="36">
-        <v>-31.2</v>
+        <v>-23.8</v>
       </c>
       <c r="H5" s="36">
-        <v>-4.2</v>
+        <v>-4.3</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>155</v>
@@ -4990,9 +5015,7 @@
       <c r="C6" s="52">
         <v>3</v>
       </c>
-      <c r="D6" s="52">
-        <v>0</v>
-      </c>
+      <c r="D6" s="52"/>
       <c r="E6" s="32" t="s">
         <v>216</v>
       </c>
@@ -5000,10 +5023,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="57">
-        <v>-35.5</v>
+        <v>-33</v>
       </c>
       <c r="H6" s="36">
-        <v>-18.3</v>
+        <v>-8.9</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>229</v>
@@ -5025,10 +5048,10 @@
         <v>109</v>
       </c>
       <c r="G7" s="36">
-        <v>-22.4</v>
+        <v>-27</v>
       </c>
       <c r="H7" s="36">
-        <v>-13.2</v>
+        <v>-11.4</v>
       </c>
       <c r="I7" s="34" t="s">
         <v>111</v>
@@ -5049,11 +5072,11 @@
       <c r="F8" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="36">
-        <v>-34.1</v>
+      <c r="G8" s="66">
+        <v>-31.6</v>
       </c>
       <c r="H8" s="36">
-        <v>-19.2</v>
+        <v>-16.8</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>171</v>
@@ -5100,10 +5123,10 @@
         <v>7</v>
       </c>
       <c r="G10" s="36">
-        <v>-19.600000000000001</v>
+        <v>-19.3</v>
       </c>
       <c r="H10" s="36">
-        <v>-3.4</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>244</v>
@@ -5125,10 +5148,10 @@
         <v>94</v>
       </c>
       <c r="G11" s="36">
-        <v>-27</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="H11" s="36">
-        <v>-16.5</v>
+        <v>-8</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>245</v>
@@ -5150,10 +5173,10 @@
         <v>101</v>
       </c>
       <c r="G12" s="36">
-        <v>-29.3</v>
+        <v>-27.2</v>
       </c>
       <c r="H12" s="36">
-        <v>-10.7</v>
+        <v>-7.9</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>243</v>
@@ -5175,10 +5198,10 @@
         <v>135</v>
       </c>
       <c r="G13" s="36">
-        <v>-34.6</v>
-      </c>
-      <c r="H13" s="36">
-        <v>-12.2</v>
+        <v>-27.7</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="I13" s="34" t="s">
         <v>158</v>
@@ -5200,10 +5223,10 @@
         <v>86</v>
       </c>
       <c r="G14" s="36">
-        <v>-32.799999999999997</v>
+        <v>-32.4</v>
       </c>
       <c r="H14" s="36">
-        <v>-14.8</v>
+        <v>-15.2</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>154</v>
@@ -5225,10 +5248,10 @@
         <v>88</v>
       </c>
       <c r="G15" s="36">
-        <v>-34.5</v>
+        <v>-35.5</v>
       </c>
       <c r="H15" s="36">
-        <v>-10.8</v>
+        <v>-7.4</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>154</v>
@@ -5251,11 +5274,11 @@
       <c r="F16" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="36">
-        <v>-35.9</v>
+      <c r="G16" s="67">
+        <v>-36.6</v>
       </c>
       <c r="H16" s="36">
-        <v>-15.4</v>
+        <v>-17.2</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>154</v>
@@ -5277,10 +5300,10 @@
         <v>181</v>
       </c>
       <c r="G17" s="36">
-        <v>-29.6</v>
+        <v>-28.3</v>
       </c>
       <c r="H17" s="36">
-        <v>-13.5</v>
+        <v>-10.8</v>
       </c>
       <c r="I17" s="34" t="s">
         <v>241</v>
@@ -5302,10 +5325,10 @@
         <v>98</v>
       </c>
       <c r="G18" s="36">
-        <v>-24.8</v>
+        <v>-23.6</v>
       </c>
       <c r="H18" s="36">
-        <v>-13.5</v>
+        <v>-6.8</v>
       </c>
       <c r="I18" s="34" t="s">
         <v>32</v>
@@ -5327,10 +5350,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="36">
-        <v>-20.399999999999999</v>
+        <v>-14.4</v>
       </c>
       <c r="H19" s="36">
-        <v>-9.6</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>242</v>
@@ -5352,10 +5375,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="36">
-        <v>-34.1</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="H20" s="36">
-        <v>-20.2</v>
+        <v>-8.1</v>
       </c>
       <c r="I20" s="34" t="s">
         <v>240</v>
@@ -5377,10 +5400,10 @@
         <v>107</v>
       </c>
       <c r="G21" s="36">
-        <v>-31</v>
+        <v>-24.6</v>
       </c>
       <c r="H21" s="36">
-        <v>-16.3</v>
+        <v>-14.6</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>174</v>
@@ -5402,10 +5425,10 @@
         <v>9</v>
       </c>
       <c r="G22" s="36">
-        <v>-25.4</v>
+        <v>-18.3</v>
       </c>
       <c r="H22" s="36">
-        <v>-6.3</v>
+        <v>-10.4</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>230</v>
@@ -5427,10 +5450,10 @@
         <v>105</v>
       </c>
       <c r="G23" s="36">
-        <v>-31.5</v>
+        <v>-30.3</v>
       </c>
       <c r="H23" s="36">
-        <v>-16.8</v>
+        <v>-15.4</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>171</v>
@@ -5452,10 +5475,10 @@
         <v>12</v>
       </c>
       <c r="G24" s="36">
-        <v>-33.5</v>
+        <v>-25.2</v>
       </c>
       <c r="H24" s="36">
-        <v>-18.3</v>
+        <v>-10.6</v>
       </c>
       <c r="I24" s="34" t="s">
         <v>111</v>
@@ -5477,10 +5500,10 @@
         <v>13</v>
       </c>
       <c r="G25" s="36">
-        <v>-31.3</v>
+        <v>-24.9</v>
       </c>
       <c r="H25" s="36">
-        <v>-7.6</v>
+        <v>-7.2</v>
       </c>
       <c r="I25" s="34" t="s">
         <v>151</v>
@@ -5502,10 +5525,10 @@
         <v>10</v>
       </c>
       <c r="G26" s="36">
-        <v>-28.9</v>
+        <v>-25.6</v>
       </c>
       <c r="H26" s="36">
-        <v>-10.3</v>
+        <v>-6.1</v>
       </c>
       <c r="I26" s="34" t="s">
         <v>228</v>
@@ -5527,10 +5550,10 @@
         <v>11</v>
       </c>
       <c r="G27" s="36">
-        <v>-24.7</v>
+        <v>-16.5</v>
       </c>
       <c r="H27" s="36">
-        <v>-9.3000000000000007</v>
+        <v>-1.8</v>
       </c>
       <c r="I27" s="34" t="s">
         <v>155</v>
@@ -5554,10 +5577,10 @@
         <v>137</v>
       </c>
       <c r="G28" s="36">
-        <v>-35.700000000000003</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="H28" s="36">
-        <v>-10.199999999999999</v>
+        <v>-5.7</v>
       </c>
       <c r="I28" s="34" t="s">
         <v>233</v>
@@ -5580,11 +5603,11 @@
       <c r="F29" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="G29" s="56">
-        <v>-36</v>
+      <c r="G29" s="36">
+        <v>-29.9</v>
       </c>
       <c r="H29" s="36">
-        <v>-14.7</v>
+        <v>-8.1</v>
       </c>
       <c r="I29" s="34" t="s">
         <v>231</v>
@@ -5606,10 +5629,10 @@
         <v>76</v>
       </c>
       <c r="G30" s="36">
-        <v>-26.9</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="H30" s="36">
-        <v>-15.7</v>
+        <v>-8.6</v>
       </c>
       <c r="I30" s="34" t="s">
         <v>236</v>
@@ -5633,10 +5656,10 @@
         <v>103</v>
       </c>
       <c r="G31" s="36">
-        <v>-21.9</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="H31" s="36">
-        <v>-5.6</v>
+        <v>-9.1</v>
       </c>
       <c r="I31" s="34" t="s">
         <v>237</v>
@@ -5658,10 +5681,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="36">
-        <v>-17</v>
+        <v>-11.1</v>
       </c>
       <c r="H32" s="36">
-        <v>-9.5</v>
+        <v>-3.4</v>
       </c>
       <c r="I32" s="34" t="s">
         <v>159</v>
@@ -5685,10 +5708,10 @@
         <v>4</v>
       </c>
       <c r="G33" s="36">
-        <v>-35.700000000000003</v>
+        <v>-33.1</v>
       </c>
       <c r="H33" s="36">
-        <v>-19.7</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="I33" s="34" t="s">
         <v>238</v>
@@ -5710,10 +5733,10 @@
         <v>139</v>
       </c>
       <c r="G34" s="36">
-        <v>-15.1</v>
+        <v>-13.5</v>
       </c>
       <c r="H34" s="36">
-        <v>-1.7</v>
+        <v>2.4</v>
       </c>
       <c r="I34" s="34" t="s">
         <v>173</v>
@@ -5735,10 +5758,10 @@
         <v>140</v>
       </c>
       <c r="G35" s="36">
-        <v>-20.9</v>
+        <v>-12.9</v>
       </c>
       <c r="H35" s="36">
-        <v>1.6</v>
+        <v>-0.3</v>
       </c>
       <c r="I35" s="34"/>
     </row>
@@ -5763,7 +5786,7 @@
         <v>-22.3</v>
       </c>
       <c r="H36" s="36">
-        <v>-8.6</v>
+        <v>1.4</v>
       </c>
       <c r="I36" s="34"/>
     </row>
@@ -5785,10 +5808,10 @@
         <v>142</v>
       </c>
       <c r="G37" s="36">
-        <v>-19.8</v>
+        <v>-13.6</v>
       </c>
       <c r="H37" s="36">
-        <v>-8.8000000000000007</v>
+        <v>0.3</v>
       </c>
       <c r="I37" s="34" t="s">
         <v>172</v>
@@ -5812,10 +5835,10 @@
         <v>143</v>
       </c>
       <c r="G38" s="36">
-        <v>-9.8000000000000007</v>
+        <v>-16.2</v>
       </c>
       <c r="H38" s="36">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I38" s="34" t="s">
         <v>239</v>
@@ -5839,10 +5862,10 @@
         <v>144</v>
       </c>
       <c r="G39" s="36">
-        <v>-16.399999999999999</v>
+        <v>-20.6</v>
       </c>
       <c r="H39" s="36">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="I39" s="34"/>
     </row>
@@ -5864,10 +5887,10 @@
         <v>145</v>
       </c>
       <c r="G40" s="36">
-        <v>-16.5</v>
+        <v>-21.1</v>
       </c>
       <c r="H40" s="36">
-        <v>-4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I40" s="34"/>
     </row>
@@ -5887,10 +5910,10 @@
         <v>146</v>
       </c>
       <c r="G41" s="36">
-        <v>-24.5</v>
+        <v>-25</v>
       </c>
       <c r="H41" s="36">
-        <v>-14.7</v>
+        <v>-8.5</v>
       </c>
       <c r="I41" s="34" t="s">
         <v>234</v>
@@ -5904,7 +5927,9 @@
       <c r="C42" s="52">
         <v>1</v>
       </c>
-      <c r="D42" s="52"/>
+      <c r="D42" s="52">
+        <v>0</v>
+      </c>
       <c r="E42" s="30" t="s">
         <v>213</v>
       </c>
@@ -5912,10 +5937,10 @@
         <v>73</v>
       </c>
       <c r="G42" s="36">
-        <v>-33.6</v>
+        <v>-31</v>
       </c>
       <c r="H42" s="36">
-        <v>-13.9</v>
+        <v>-11</v>
       </c>
       <c r="I42" s="34" t="s">
         <v>233</v>
@@ -5937,10 +5962,10 @@
         <v>71</v>
       </c>
       <c r="G43" s="36">
-        <v>-25.5</v>
+        <v>-21.4</v>
       </c>
       <c r="H43" s="36">
-        <v>-14.8</v>
+        <v>-2.5</v>
       </c>
       <c r="I43" s="34" t="s">
         <v>157</v>
@@ -5962,10 +5987,10 @@
         <v>147</v>
       </c>
       <c r="G44" s="36">
-        <v>-17.5</v>
+        <v>-25</v>
       </c>
       <c r="H44" s="36">
-        <v>-7.3</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>160</v>
@@ -5987,10 +6012,10 @@
         <v>148</v>
       </c>
       <c r="G45" s="36">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="H45" s="36">
-        <v>-5.0999999999999996</v>
+        <v>-6.1</v>
       </c>
       <c r="I45" s="34" t="s">
         <v>160</v>
@@ -6012,10 +6037,10 @@
         <v>78</v>
       </c>
       <c r="G46" s="36">
-        <v>-28.1</v>
+        <v>-26</v>
       </c>
       <c r="H46" s="36">
-        <v>-10.8</v>
+        <v>-6</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>156</v>
@@ -6037,10 +6062,10 @@
         <v>80</v>
       </c>
       <c r="G47" s="36">
-        <v>-23.6</v>
+        <v>-17.3</v>
       </c>
       <c r="H47" s="36">
-        <v>-3.4</v>
+        <v>-2.4</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>235</v>
@@ -6062,10 +6087,10 @@
         <v>82</v>
       </c>
       <c r="G48" s="36">
-        <v>-14.9</v>
+        <v>-14.6</v>
       </c>
       <c r="H48" s="36">
-        <v>-3.1</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>159</v>
@@ -6087,10 +6112,10 @@
         <v>67</v>
       </c>
       <c r="G49" s="36">
-        <v>-33.5</v>
+        <v>-25.4</v>
       </c>
       <c r="H49" s="36">
-        <v>-15.5</v>
+        <v>-8</v>
       </c>
       <c r="I49" s="34" t="s">
         <v>157</v>
@@ -6112,10 +6137,10 @@
         <v>69</v>
       </c>
       <c r="G50" s="36">
-        <v>-30.5</v>
+        <v>-27.6</v>
       </c>
       <c r="H50" s="36">
-        <v>-17.899999999999999</v>
+        <v>-12.8</v>
       </c>
       <c r="I50" s="34" t="s">
         <v>232</v>
@@ -6175,7 +6200,7 @@
   <dimension ref="A1:AV79"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -13925,10 +13950,292 @@
       <c r="A54" s="16">
         <v>45701</v>
       </c>
+      <c r="B54">
+        <v>-34.9</v>
+      </c>
+      <c r="C54">
+        <v>-27.4</v>
+      </c>
+      <c r="D54">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="E54">
+        <v>-29.3</v>
+      </c>
+      <c r="F54">
+        <v>-32.1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>246</v>
+      </c>
+      <c r="H54">
+        <v>-26</v>
+      </c>
+      <c r="I54">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="J54">
+        <v>-24.6</v>
+      </c>
+      <c r="K54">
+        <v>-29.5</v>
+      </c>
+      <c r="L54">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="M54">
+        <v>-36.1</v>
+      </c>
+      <c r="N54">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="O54">
+        <v>-31.4</v>
+      </c>
+      <c r="P54">
+        <v>-29.3</v>
+      </c>
+      <c r="Q54">
+        <v>-14.6</v>
+      </c>
+      <c r="R54">
+        <v>-25.4</v>
+      </c>
+      <c r="S54">
+        <v>-26.1</v>
+      </c>
+      <c r="T54">
+        <v>-19.3</v>
+      </c>
+      <c r="U54">
+        <v>-31.7</v>
+      </c>
+      <c r="V54">
+        <v>-28.8</v>
+      </c>
+      <c r="W54">
+        <v>-23.8</v>
+      </c>
+      <c r="X54">
+        <v>-24.3</v>
+      </c>
+      <c r="Y54">
+        <v>-20</v>
+      </c>
+      <c r="Z54">
+        <v>-27.9</v>
+      </c>
+      <c r="AA54">
+        <v>-30</v>
+      </c>
+      <c r="AB54">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="AC54">
+        <v>-21.1</v>
+      </c>
+      <c r="AD54">
+        <v>-14.6</v>
+      </c>
+      <c r="AE54">
+        <v>-28.7</v>
+      </c>
+      <c r="AF54">
+        <v>-16.2</v>
+      </c>
+      <c r="AG54">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AH54">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="AI54">
+        <v>-15.7</v>
+      </c>
+      <c r="AJ54">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="AK54">
+        <v>-26</v>
+      </c>
+      <c r="AL54">
+        <v>-14.7</v>
+      </c>
+      <c r="AM54">
+        <v>-32.9</v>
+      </c>
+      <c r="AN54">
+        <v>-31.7</v>
+      </c>
+      <c r="AO54">
+        <v>-23.2</v>
+      </c>
+      <c r="AP54">
+        <v>-12.2</v>
+      </c>
+      <c r="AQ54">
+        <v>-19.2</v>
+      </c>
+      <c r="AR54">
+        <v>-26.2</v>
+      </c>
+      <c r="AS54">
+        <v>-19.7</v>
+      </c>
+      <c r="AT54">
+        <v>-13.3</v>
+      </c>
+      <c r="AU54">
+        <v>-25.2</v>
+      </c>
+      <c r="AV54">
+        <v>-25</v>
+      </c>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>45702</v>
+      </c>
+      <c r="B55">
+        <v>-33.4</v>
+      </c>
+      <c r="C55">
+        <v>-23.8</v>
+      </c>
+      <c r="D55">
+        <v>-33</v>
+      </c>
+      <c r="E55">
+        <v>-27</v>
+      </c>
+      <c r="F55">
+        <v>-31.6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>246</v>
+      </c>
+      <c r="H55">
+        <v>-19.3</v>
+      </c>
+      <c r="I55">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="J55">
+        <v>-27.2</v>
+      </c>
+      <c r="K55">
+        <v>-27.7</v>
+      </c>
+      <c r="L55">
+        <v>-32.4</v>
+      </c>
+      <c r="M55">
+        <v>-35.5</v>
+      </c>
+      <c r="N55">
+        <v>-36.6</v>
+      </c>
+      <c r="O55">
+        <v>-28.3</v>
+      </c>
+      <c r="P55">
+        <v>-23.6</v>
+      </c>
+      <c r="Q55">
+        <v>-14.4</v>
+      </c>
+      <c r="R55">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="S55">
+        <v>-24.6</v>
+      </c>
+      <c r="T55">
+        <v>-18.3</v>
+      </c>
+      <c r="U55">
+        <v>-30.3</v>
+      </c>
+      <c r="V55">
+        <v>-25.2</v>
+      </c>
+      <c r="W55">
+        <v>-24.9</v>
+      </c>
+      <c r="X55">
+        <v>-25.6</v>
+      </c>
+      <c r="Y55">
+        <v>-16.5</v>
+      </c>
+      <c r="Z55">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="AA55">
+        <v>-29.9</v>
+      </c>
+      <c r="AB55">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AC55">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="AD55">
+        <v>-11.1</v>
+      </c>
+      <c r="AE55">
+        <v>-33.1</v>
+      </c>
+      <c r="AF55">
+        <v>-13.5</v>
+      </c>
+      <c r="AG55">
+        <v>-12.9</v>
+      </c>
+      <c r="AH55">
+        <v>-22.3</v>
+      </c>
+      <c r="AI55">
+        <v>-13.6</v>
+      </c>
+      <c r="AJ55">
+        <v>-16.2</v>
+      </c>
+      <c r="AK55">
+        <v>-20.6</v>
+      </c>
+      <c r="AL55">
+        <v>-21.1</v>
+      </c>
+      <c r="AM55">
+        <v>-25</v>
+      </c>
+      <c r="AN55">
+        <v>-31</v>
+      </c>
+      <c r="AO55">
+        <v>-21.4</v>
+      </c>
+      <c r="AP55">
+        <v>-25</v>
+      </c>
+      <c r="AQ55">
+        <v>-18</v>
+      </c>
+      <c r="AR55">
+        <v>-26</v>
+      </c>
+      <c r="AS55">
+        <v>-17.3</v>
+      </c>
+      <c r="AT55">
+        <v>-14.6</v>
+      </c>
+      <c r="AU55">
+        <v>-25.4</v>
+      </c>
+      <c r="AV55">
+        <v>-27.6</v>
       </c>
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.4">
@@ -14042,7 +14349,7 @@
   <dimension ref="A1:AV79"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -21792,10 +22099,292 @@
       <c r="A54" s="16">
         <v>45701</v>
       </c>
+      <c r="B54">
+        <v>-22</v>
+      </c>
+      <c r="C54">
+        <v>-11.7</v>
+      </c>
+      <c r="D54">
+        <v>-15.8</v>
+      </c>
+      <c r="E54">
+        <v>-12.4</v>
+      </c>
+      <c r="F54">
+        <v>-17.8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>246</v>
+      </c>
+      <c r="H54">
+        <v>-11.7</v>
+      </c>
+      <c r="I54">
+        <v>-5.8</v>
+      </c>
+      <c r="J54">
+        <v>-7.1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>246</v>
+      </c>
+      <c r="L54">
+        <v>-14.5</v>
+      </c>
+      <c r="M54">
+        <v>-10.1</v>
+      </c>
+      <c r="N54">
+        <v>-16.5</v>
+      </c>
+      <c r="O54">
+        <v>-14.3</v>
+      </c>
+      <c r="P54">
+        <v>-9.9</v>
+      </c>
+      <c r="Q54">
+        <v>-7.7</v>
+      </c>
+      <c r="R54">
+        <v>-13.3</v>
+      </c>
+      <c r="S54">
+        <v>-13.4</v>
+      </c>
+      <c r="T54">
+        <v>-6</v>
+      </c>
+      <c r="U54">
+        <v>-17.3</v>
+      </c>
+      <c r="V54">
+        <v>-12.9</v>
+      </c>
+      <c r="W54">
+        <v>-5.3</v>
+      </c>
+      <c r="X54">
+        <v>-9.4</v>
+      </c>
+      <c r="Y54">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="Z54">
+        <v>-6.8</v>
+      </c>
+      <c r="AA54">
+        <v>-10.5</v>
+      </c>
+      <c r="AB54">
+        <v>-10.6</v>
+      </c>
+      <c r="AC54">
+        <v>-11.1</v>
+      </c>
+      <c r="AD54">
+        <v>0.1</v>
+      </c>
+      <c r="AE54">
+        <v>-16.3</v>
+      </c>
+      <c r="AF54">
+        <v>0.6</v>
+      </c>
+      <c r="AG54">
+        <v>0.4</v>
+      </c>
+      <c r="AH54">
+        <v>0.9</v>
+      </c>
+      <c r="AI54">
+        <v>-4.2</v>
+      </c>
+      <c r="AJ54">
+        <v>1</v>
+      </c>
+      <c r="AK54">
+        <v>1.7</v>
+      </c>
+      <c r="AL54">
+        <v>2.5</v>
+      </c>
+      <c r="AM54">
+        <v>-11.7</v>
+      </c>
+      <c r="AN54">
+        <v>-11.2</v>
+      </c>
+      <c r="AO54">
+        <v>-9.4</v>
+      </c>
+      <c r="AP54">
+        <v>-6.6</v>
+      </c>
+      <c r="AQ54">
+        <v>-5.7</v>
+      </c>
+      <c r="AR54">
+        <v>-6.3</v>
+      </c>
+      <c r="AS54">
+        <v>-2.9</v>
+      </c>
+      <c r="AT54">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AU54">
+        <v>-9.9</v>
+      </c>
+      <c r="AV54">
+        <v>-10.5</v>
+      </c>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>45702</v>
+      </c>
+      <c r="B55">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="C55">
+        <v>-4.3</v>
+      </c>
+      <c r="D55">
+        <v>-8.9</v>
+      </c>
+      <c r="E55">
+        <v>-11.4</v>
+      </c>
+      <c r="F55">
+        <v>-16.8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>246</v>
+      </c>
+      <c r="H55">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="I55">
+        <v>-8</v>
+      </c>
+      <c r="J55">
+        <v>-7.9</v>
+      </c>
+      <c r="K55" t="s">
+        <v>246</v>
+      </c>
+      <c r="L55">
+        <v>-15.2</v>
+      </c>
+      <c r="M55">
+        <v>-7.4</v>
+      </c>
+      <c r="N55">
+        <v>-17.2</v>
+      </c>
+      <c r="O55">
+        <v>-10.8</v>
+      </c>
+      <c r="P55">
+        <v>-6.8</v>
+      </c>
+      <c r="Q55">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="R55">
+        <v>-8.1</v>
+      </c>
+      <c r="S55">
+        <v>-14.6</v>
+      </c>
+      <c r="T55">
+        <v>-10.4</v>
+      </c>
+      <c r="U55">
+        <v>-15.4</v>
+      </c>
+      <c r="V55">
+        <v>-10.6</v>
+      </c>
+      <c r="W55">
+        <v>-7.2</v>
+      </c>
+      <c r="X55">
+        <v>-6.1</v>
+      </c>
+      <c r="Y55">
+        <v>-1.8</v>
+      </c>
+      <c r="Z55">
+        <v>-5.7</v>
+      </c>
+      <c r="AA55">
+        <v>-8.1</v>
+      </c>
+      <c r="AB55">
+        <v>-8.6</v>
+      </c>
+      <c r="AC55">
+        <v>-9.1</v>
+      </c>
+      <c r="AD55">
+        <v>-3.4</v>
+      </c>
+      <c r="AE55">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AF55">
+        <v>2.4</v>
+      </c>
+      <c r="AG55">
+        <v>-0.3</v>
+      </c>
+      <c r="AH55">
+        <v>1.4</v>
+      </c>
+      <c r="AI55">
+        <v>0.3</v>
+      </c>
+      <c r="AJ55">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AK55">
+        <v>5.8</v>
+      </c>
+      <c r="AL55">
+        <v>4.3</v>
+      </c>
+      <c r="AM55">
+        <v>-8.5</v>
+      </c>
+      <c r="AN55">
+        <v>-11</v>
+      </c>
+      <c r="AO55">
+        <v>-2.5</v>
+      </c>
+      <c r="AP55">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="AQ55">
+        <v>-6.1</v>
+      </c>
+      <c r="AR55">
+        <v>-6</v>
+      </c>
+      <c r="AS55">
+        <v>-2.4</v>
+      </c>
+      <c r="AT55">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AU55">
+        <v>-8</v>
+      </c>
+      <c r="AV55">
+        <v>-12.8</v>
       </c>
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.4">

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA29CF-5999-4E50-97B1-CB1F5410CA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2917491D-B2FB-4070-831A-47B01EF2609F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="252">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1184,10 +1184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冷站汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分区
 序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1638,6 +1634,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>冷站汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1649,7 +1649,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2103,15 +2103,6 @@
     <font>
       <b/>
       <sz val="40"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="40"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -2119,7 +2110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2153,12 +2144,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF63BE7B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2303,7 +2288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2501,12 +2486,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="52" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="50" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2839,7 +2818,7 @@
   <dimension ref="A1:BH48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2909,10 +2888,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="4">
-        <v>-33.4</v>
+        <v>-37.9</v>
       </c>
       <c r="H2" s="4">
-        <v>-20.100000000000001</v>
+        <v>-23.7</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
@@ -2931,145 +2910,145 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BH2">TRANSPOSE(G2:G48)</f>
-        <v>-33.4</v>
+        <v>-37.9</v>
       </c>
       <c r="O2">
-        <v>-23.8</v>
+        <v>-34</v>
       </c>
       <c r="P2">
-        <v>-33</v>
+        <v>-40</v>
       </c>
       <c r="Q2">
-        <v>-27</v>
+        <v>-41.3</v>
       </c>
       <c r="R2">
-        <v>-31.6</v>
+        <v>-39.200000000000003</v>
       </c>
       <c r="S2" t="str">
         <v>无</v>
       </c>
       <c r="T2">
-        <v>-19.3</v>
+        <v>-33.9</v>
       </c>
       <c r="U2">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="V2">
         <v>-20.100000000000001</v>
       </c>
-      <c r="V2">
-        <v>-27.2</v>
-      </c>
       <c r="W2">
+        <v>-30.8</v>
+      </c>
+      <c r="X2">
+        <v>-29</v>
+      </c>
+      <c r="Y2">
+        <v>-30.5</v>
+      </c>
+      <c r="Z2">
+        <v>-31</v>
+      </c>
+      <c r="AA2">
+        <v>-29.8</v>
+      </c>
+      <c r="AB2">
+        <v>-28.7</v>
+      </c>
+      <c r="AC2">
+        <v>-31.1</v>
+      </c>
+      <c r="AD2">
+        <v>-37.9</v>
+      </c>
+      <c r="AE2">
+        <v>-34</v>
+      </c>
+      <c r="AF2">
+        <v>-32.9</v>
+      </c>
+      <c r="AG2">
         <v>-27.7</v>
       </c>
-      <c r="X2">
-        <v>-32.4</v>
-      </c>
-      <c r="Y2">
+      <c r="AH2">
+        <v>-38.4</v>
+      </c>
+      <c r="AI2">
+        <v>-40.1</v>
+      </c>
+      <c r="AJ2">
+        <v>-35.4</v>
+      </c>
+      <c r="AK2">
+        <v>-24.3</v>
+      </c>
+      <c r="AL2">
+        <v>-33.6</v>
+      </c>
+      <c r="AM2">
         <v>-35.5</v>
       </c>
-      <c r="Z2">
-        <v>-36.6</v>
-      </c>
-      <c r="AA2">
-        <v>-28.3</v>
-      </c>
-      <c r="AB2">
-        <v>-23.6</v>
-      </c>
-      <c r="AC2">
-        <v>-14.4</v>
-      </c>
-      <c r="AD2">
+      <c r="AN2">
+        <v>-32</v>
+      </c>
+      <c r="AO2">
+        <v>-15.6</v>
+      </c>
+      <c r="AP2">
+        <v>-11.5</v>
+      </c>
+      <c r="AQ2">
+        <v>-26.1</v>
+      </c>
+      <c r="AR2">
+        <v>-16.5</v>
+      </c>
+      <c r="AS2">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="AT2">
+        <v>-25.7</v>
+      </c>
+      <c r="AU2">
+        <v>-20.9</v>
+      </c>
+      <c r="AV2">
+        <v>-23</v>
+      </c>
+      <c r="AW2">
+        <v>-24.9</v>
+      </c>
+      <c r="AX2">
+        <v>-23.3</v>
+      </c>
+      <c r="AY2">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="AZ2">
+        <v>-27</v>
+      </c>
+      <c r="BA2">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="BB2">
+        <v>-23.7</v>
+      </c>
+      <c r="BC2">
         <v>-16.100000000000001</v>
       </c>
-      <c r="AE2">
-        <v>-24.6</v>
-      </c>
-      <c r="AF2">
-        <v>-18.3</v>
-      </c>
-      <c r="AG2">
-        <v>-30.3</v>
-      </c>
-      <c r="AH2">
-        <v>-25.2</v>
-      </c>
-      <c r="AI2">
-        <v>-24.9</v>
-      </c>
-      <c r="AJ2">
-        <v>-25.6</v>
-      </c>
-      <c r="AK2">
-        <v>-16.5</v>
-      </c>
-      <c r="AL2">
+      <c r="BD2">
+        <v>-20.3</v>
+      </c>
+      <c r="BE2">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="BF2">
+        <v>-11.1</v>
+      </c>
+      <c r="BG2">
         <v>-32.799999999999997</v>
       </c>
-      <c r="AM2">
-        <v>-29.9</v>
-      </c>
-      <c r="AN2">
-        <v>-18.100000000000001</v>
-      </c>
-      <c r="AO2">
-        <v>-17.100000000000001</v>
-      </c>
-      <c r="AP2">
-        <v>-11.1</v>
-      </c>
-      <c r="AQ2">
-        <v>-33.1</v>
-      </c>
-      <c r="AR2">
-        <v>-13.5</v>
-      </c>
-      <c r="AS2">
-        <v>-12.9</v>
-      </c>
-      <c r="AT2">
-        <v>-22.3</v>
-      </c>
-      <c r="AU2">
-        <v>-13.6</v>
-      </c>
-      <c r="AV2">
-        <v>-16.2</v>
-      </c>
-      <c r="AW2">
-        <v>-20.6</v>
-      </c>
-      <c r="AX2">
-        <v>-21.1</v>
-      </c>
-      <c r="AY2">
-        <v>-25</v>
-      </c>
-      <c r="AZ2">
-        <v>-31</v>
-      </c>
-      <c r="BA2">
-        <v>-21.4</v>
-      </c>
-      <c r="BB2">
-        <v>-25</v>
-      </c>
-      <c r="BC2">
-        <v>-18</v>
-      </c>
-      <c r="BD2">
-        <v>-26</v>
-      </c>
-      <c r="BE2">
-        <v>-17.3</v>
-      </c>
-      <c r="BF2">
-        <v>-14.6</v>
-      </c>
-      <c r="BG2">
-        <v>-25.4</v>
-      </c>
       <c r="BH2">
-        <v>-27.6</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.4">
@@ -3090,10 +3069,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>-23.8</v>
+        <v>-34</v>
       </c>
       <c r="H3" s="4">
-        <v>-4.3</v>
+        <v>-17.8</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>38</v>
@@ -3112,145 +3091,145 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BH3">TRANSPOSE(H2:H48)</f>
-        <v>-20.100000000000001</v>
+        <v>-23.7</v>
       </c>
       <c r="O3">
-        <v>-4.3</v>
+        <v>-17.8</v>
       </c>
       <c r="P3">
-        <v>-8.9</v>
+        <v>-18.3</v>
       </c>
       <c r="Q3">
-        <v>-11.4</v>
+        <v>-22.1</v>
       </c>
       <c r="R3">
-        <v>-16.8</v>
+        <v>-22.5</v>
       </c>
       <c r="S3" t="str">
         <v>无</v>
       </c>
       <c r="T3">
-        <v>-4.5999999999999996</v>
+        <v>-15.4</v>
       </c>
       <c r="U3">
-        <v>-8</v>
+        <v>-16.7</v>
       </c>
       <c r="V3">
-        <v>-7.9</v>
+        <v>-3.2</v>
       </c>
       <c r="W3" t="str">
         <v>无</v>
       </c>
       <c r="X3">
-        <v>-15.2</v>
+        <v>-8.5</v>
       </c>
       <c r="Y3">
-        <v>-7.4</v>
+        <v>-4.7</v>
       </c>
       <c r="Z3">
-        <v>-17.2</v>
+        <v>-10.5</v>
       </c>
       <c r="AA3">
-        <v>-10.8</v>
+        <v>-10</v>
       </c>
       <c r="AB3">
-        <v>-6.8</v>
+        <v>-12.4</v>
       </c>
       <c r="AC3">
+        <v>-15.9</v>
+      </c>
+      <c r="AD3">
+        <v>-22.1</v>
+      </c>
+      <c r="AE3">
+        <v>-19.2</v>
+      </c>
+      <c r="AF3">
+        <v>-18</v>
+      </c>
+      <c r="AG3">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>-21.8</v>
+      </c>
+      <c r="AI3">
+        <v>-15.8</v>
+      </c>
+      <c r="AJ3">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="AK3">
+        <v>-10</v>
+      </c>
+      <c r="AL3">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AM3">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="AN3">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AO3">
+        <v>2.7</v>
+      </c>
+      <c r="AP3">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AQ3">
+        <v>-13.4</v>
+      </c>
+      <c r="AR3">
+        <v>-4.8</v>
+      </c>
+      <c r="AS3">
+        <v>-3.8</v>
+      </c>
+      <c r="AT3">
+        <v>-11.2</v>
+      </c>
+      <c r="AU3">
+        <v>-8.6</v>
+      </c>
+      <c r="AV3">
+        <v>-6.1</v>
+      </c>
+      <c r="AW3">
+        <v>-4.2</v>
+      </c>
+      <c r="AX3">
+        <v>-5.8</v>
+      </c>
+      <c r="AY3">
+        <v>-12.1</v>
+      </c>
+      <c r="AZ3">
+        <v>-6.9</v>
+      </c>
+      <c r="BA3">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="BB3">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="AD3">
-        <v>-8.1</v>
-      </c>
-      <c r="AE3">
-        <v>-14.6</v>
-      </c>
-      <c r="AF3">
-        <v>-10.4</v>
-      </c>
-      <c r="AG3">
-        <v>-15.4</v>
-      </c>
-      <c r="AH3">
-        <v>-10.6</v>
-      </c>
-      <c r="AI3">
-        <v>-7.2</v>
-      </c>
-      <c r="AJ3">
-        <v>-6.1</v>
-      </c>
-      <c r="AK3">
-        <v>-1.8</v>
-      </c>
-      <c r="AL3">
-        <v>-5.7</v>
-      </c>
-      <c r="AM3">
-        <v>-8.1</v>
-      </c>
-      <c r="AN3">
-        <v>-8.6</v>
-      </c>
-      <c r="AO3">
-        <v>-9.1</v>
-      </c>
-      <c r="AP3">
-        <v>-3.4</v>
-      </c>
-      <c r="AQ3">
-        <v>-17.899999999999999</v>
-      </c>
-      <c r="AR3">
-        <v>2.4</v>
-      </c>
-      <c r="AS3">
-        <v>-0.3</v>
-      </c>
-      <c r="AT3">
-        <v>1.4</v>
-      </c>
-      <c r="AU3">
-        <v>0.3</v>
-      </c>
-      <c r="AV3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AW3">
-        <v>5.8</v>
-      </c>
-      <c r="AX3">
-        <v>4.3</v>
-      </c>
-      <c r="AY3">
-        <v>-8.5</v>
-      </c>
-      <c r="AZ3">
-        <v>-11</v>
-      </c>
-      <c r="BA3">
-        <v>-2.5</v>
-      </c>
-      <c r="BB3">
-        <v>-10.199999999999999</v>
-      </c>
       <c r="BC3">
-        <v>-6.1</v>
+        <v>-3.6</v>
       </c>
       <c r="BD3">
-        <v>-6</v>
+        <v>-0.1</v>
       </c>
       <c r="BE3">
-        <v>-2.4</v>
+        <v>-3.8</v>
       </c>
       <c r="BF3">
-        <v>-5.0999999999999996</v>
+        <v>1.6</v>
       </c>
       <c r="BG3">
-        <v>-8</v>
+        <v>-10.1</v>
       </c>
       <c r="BH3">
-        <v>-12.8</v>
+        <v>-17.3</v>
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.4">
@@ -3271,10 +3250,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>-33</v>
+        <v>-40</v>
       </c>
       <c r="H4" s="4">
-        <v>-8.9</v>
+        <v>-18.3</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>117</v>
@@ -3307,10 +3286,10 @@
         <v>110</v>
       </c>
       <c r="G5" s="4">
-        <v>-27</v>
+        <v>-41.3</v>
       </c>
       <c r="H5" s="4">
-        <v>-11.4</v>
+        <v>-22.1</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
@@ -3352,10 +3331,10 @@
         <v>178</v>
       </c>
       <c r="G6" s="4">
-        <v>-31.6</v>
+        <v>-39.200000000000003</v>
       </c>
       <c r="H6" s="4">
-        <v>-16.8</v>
+        <v>-22.5</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>115</v>
@@ -3397,10 +3376,10 @@
         <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>113</v>
@@ -3442,10 +3421,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>-19.3</v>
+        <v>-33.9</v>
       </c>
       <c r="H8" s="4">
-        <v>-4.5999999999999996</v>
+        <v>-15.4</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>120</v>
@@ -3485,10 +3464,10 @@
         <v>95</v>
       </c>
       <c r="G9" s="4">
-        <v>-20.100000000000001</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="H9" s="4">
-        <v>-8</v>
+        <v>-16.7</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>119</v>
@@ -3519,10 +3498,10 @@
         <v>102</v>
       </c>
       <c r="G10" s="4">
-        <v>-27.2</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="H10" s="4">
-        <v>-7.9</v>
+        <v>-3.2</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>100</v>
@@ -3553,7 +3532,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="4">
-        <v>-27.7</v>
+        <v>-30.8</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>251</v>
@@ -3587,10 +3566,10 @@
         <v>87</v>
       </c>
       <c r="G12" s="4">
-        <v>-32.4</v>
+        <v>-29</v>
       </c>
       <c r="H12" s="4">
-        <v>-15.2</v>
+        <v>-8.5</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>28</v>
@@ -3621,10 +3600,10 @@
         <v>89</v>
       </c>
       <c r="G13" s="4">
-        <v>-35.5</v>
+        <v>-30.5</v>
       </c>
       <c r="H13" s="4">
-        <v>-7.4</v>
+        <v>-4.7</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
@@ -3655,10 +3634,10 @@
         <v>27</v>
       </c>
       <c r="G14" s="4">
-        <v>-36.6</v>
+        <v>-31</v>
       </c>
       <c r="H14" s="4">
-        <v>-17.2</v>
+        <v>-10.5</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
@@ -3689,10 +3668,10 @@
         <v>179</v>
       </c>
       <c r="G15" s="4">
-        <v>-28.3</v>
+        <v>-29.8</v>
       </c>
       <c r="H15" s="4">
-        <v>-10.8</v>
+        <v>-10</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
@@ -3723,10 +3702,10 @@
         <v>99</v>
       </c>
       <c r="G16" s="4">
-        <v>-23.6</v>
+        <v>-28.7</v>
       </c>
       <c r="H16" s="4">
-        <v>-6.8</v>
+        <v>-12.4</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>96</v>
@@ -3757,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="4">
-        <v>-14.4</v>
+        <v>-31.1</v>
       </c>
       <c r="H17" s="4">
-        <v>-4.0999999999999996</v>
+        <v>-15.9</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>161</v>
@@ -3791,10 +3770,10 @@
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>-16.100000000000001</v>
+        <v>-37.9</v>
       </c>
       <c r="H18" s="4">
-        <v>-8.1</v>
+        <v>-22.1</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
@@ -3825,10 +3804,10 @@
         <v>108</v>
       </c>
       <c r="G19" s="4">
-        <v>-24.6</v>
+        <v>-34</v>
       </c>
       <c r="H19" s="4">
-        <v>-14.6</v>
+        <v>-19.2</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>114</v>
@@ -3859,10 +3838,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="13">
-        <v>-18.3</v>
+        <v>-32.9</v>
       </c>
       <c r="H20" s="13">
-        <v>-10.4</v>
+        <v>-18</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
@@ -3893,10 +3872,10 @@
         <v>106</v>
       </c>
       <c r="G21" s="13">
-        <v>-30.3</v>
+        <v>-27.7</v>
       </c>
       <c r="H21" s="13">
-        <v>-15.4</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>115</v>
@@ -3927,10 +3906,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="13">
-        <v>-25.2</v>
+        <v>-38.4</v>
       </c>
       <c r="H22" s="13">
-        <v>-10.6</v>
+        <v>-21.8</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>40</v>
@@ -3963,10 +3942,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="13">
-        <v>-24.9</v>
+        <v>-40.1</v>
       </c>
       <c r="H23" s="13">
-        <v>-7.2</v>
+        <v>-15.8</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
@@ -3999,10 +3978,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="13">
-        <v>-25.6</v>
+        <v>-35.4</v>
       </c>
       <c r="H24" s="13">
-        <v>-6.1</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -4033,10 +4012,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="4">
-        <v>-16.5</v>
+        <v>-24.3</v>
       </c>
       <c r="H25" s="4">
-        <v>-1.8</v>
+        <v>-10</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -4069,10 +4048,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>-32.799999999999997</v>
+        <v>-33.6</v>
       </c>
       <c r="H26" s="4">
-        <v>-5.7</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -4103,10 +4082,10 @@
         <v>180</v>
       </c>
       <c r="G27" s="4">
-        <v>-29.9</v>
+        <v>-35.5</v>
       </c>
       <c r="H27" s="4">
-        <v>-8.1</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
@@ -4137,10 +4116,10 @@
         <v>77</v>
       </c>
       <c r="G28" s="4">
+        <v>-32</v>
+      </c>
+      <c r="H28" s="4">
         <v>-18.100000000000001</v>
-      </c>
-      <c r="H28" s="4">
-        <v>-8.6</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
@@ -4173,10 +4152,10 @@
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <v>-17.100000000000001</v>
+        <v>-15.6</v>
       </c>
       <c r="H29" s="4">
-        <v>-9.1</v>
+        <v>2.7</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -4207,10 +4186,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>-11.1</v>
+        <v>-11.5</v>
       </c>
       <c r="H30" s="4">
-        <v>-3.4</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
@@ -4243,10 +4222,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="4">
-        <v>-33.1</v>
+        <v>-26.1</v>
       </c>
       <c r="H31" s="4">
-        <v>-17.899999999999999</v>
+        <v>-13.4</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
@@ -4277,10 +4256,10 @@
         <v>66</v>
       </c>
       <c r="G32" s="4">
-        <v>-13.5</v>
+        <v>-16.5</v>
       </c>
       <c r="H32" s="4">
-        <v>2.4</v>
+        <v>-4.8</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
@@ -4309,10 +4288,10 @@
         <v>59</v>
       </c>
       <c r="G33" s="4">
-        <v>-12.9</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="H33" s="4">
-        <v>-0.3</v>
+        <v>-3.8</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="14" t="s">
@@ -4343,10 +4322,10 @@
         <v>56</v>
       </c>
       <c r="G34" s="4">
-        <v>-22.3</v>
+        <v>-25.7</v>
       </c>
       <c r="H34" s="4">
-        <v>1.4</v>
+        <v>-11.2</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
@@ -4377,10 +4356,10 @@
         <v>46</v>
       </c>
       <c r="G35" s="4">
-        <v>-13.6</v>
+        <v>-20.9</v>
       </c>
       <c r="H35" s="4">
-        <v>0.3</v>
+        <v>-8.6</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>47</v>
@@ -4413,10 +4392,10 @@
         <v>49</v>
       </c>
       <c r="G36" s="4">
-        <v>-16.2</v>
+        <v>-23</v>
       </c>
       <c r="H36" s="4">
-        <v>4.0999999999999996</v>
+        <v>-6.1</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>45</v>
@@ -4449,10 +4428,10 @@
         <v>51</v>
       </c>
       <c r="G37" s="4">
-        <v>-20.6</v>
+        <v>-24.9</v>
       </c>
       <c r="H37" s="4">
-        <v>5.8</v>
+        <v>-4.2</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="14" t="s">
@@ -4483,10 +4462,10 @@
         <v>58</v>
       </c>
       <c r="G38" s="4">
-        <v>-21.1</v>
+        <v>-23.3</v>
       </c>
       <c r="H38" s="4">
-        <v>4.3</v>
+        <v>-5.8</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
@@ -4517,10 +4496,10 @@
         <v>44</v>
       </c>
       <c r="G39" s="4">
-        <v>-25</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="H39" s="4">
-        <v>-8.5</v>
+        <v>-12.1</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>43</v>
@@ -4551,10 +4530,10 @@
         <v>74</v>
       </c>
       <c r="G40" s="4">
-        <v>-31</v>
+        <v>-27</v>
       </c>
       <c r="H40" s="4">
-        <v>-11</v>
+        <v>-6.9</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>2</v>
@@ -4585,10 +4564,10 @@
         <v>72</v>
       </c>
       <c r="G41" s="4">
-        <v>-21.4</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="H41" s="4">
-        <v>-2.5</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
@@ -4619,10 +4598,10 @@
         <v>62</v>
       </c>
       <c r="G42" s="4">
-        <v>-25</v>
+        <v>-23.7</v>
       </c>
       <c r="H42" s="4">
-        <v>-10.199999999999999</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>65</v>
@@ -4653,10 +4632,10 @@
         <v>64</v>
       </c>
       <c r="G43" s="4">
-        <v>-18</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="H43" s="4">
-        <v>-6.1</v>
+        <v>-3.6</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
@@ -4687,10 +4666,10 @@
         <v>79</v>
       </c>
       <c r="G44" s="4">
-        <v>-26</v>
+        <v>-20.3</v>
       </c>
       <c r="H44" s="4">
-        <v>-6</v>
+        <v>-0.1</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>22</v>
@@ -4721,10 +4700,10 @@
         <v>81</v>
       </c>
       <c r="G45" s="4">
-        <v>-17.3</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="H45" s="4">
-        <v>-2.4</v>
+        <v>-3.8</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>21</v>
@@ -4755,10 +4734,10 @@
         <v>83</v>
       </c>
       <c r="G46" s="4">
-        <v>-14.6</v>
+        <v>-11.1</v>
       </c>
       <c r="H46" s="4">
-        <v>-5.0999999999999996</v>
+        <v>1.6</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
@@ -4791,10 +4770,10 @@
         <v>68</v>
       </c>
       <c r="G47" s="4">
-        <v>-25.4</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="H47" s="4">
-        <v>-8</v>
+        <v>-10.1</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>2</v>
@@ -4825,10 +4804,10 @@
         <v>70</v>
       </c>
       <c r="G48" s="4">
-        <v>-27.6</v>
+        <v>-33</v>
       </c>
       <c r="H48" s="4">
-        <v>-12.8</v>
+        <v>-17.3</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -4877,10 +4856,10 @@
       <c r="C1" s="65"/>
       <c r="D1" s="58"/>
       <c r="E1" s="60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F1" s="63">
-        <v>45702</v>
+        <v>45710</v>
       </c>
       <c r="G1" s="64"/>
       <c r="H1" s="61" t="s">
@@ -4897,14 +4876,14 @@
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
       <c r="H2" s="59" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="I2" s="59"/>
       <c r="K2" s="21" t="s">
         <v>176</v>
       </c>
       <c r="L2" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M2">
         <v>13</v>
@@ -4916,10 +4895,10 @@
         <v>90</v>
       </c>
       <c r="C3" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>210</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>211</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>126</v>
@@ -4940,10 +4919,10 @@
         <v>175</v>
       </c>
       <c r="L3" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4958,16 +4937,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>109</v>
       </c>
       <c r="G4" s="36">
-        <v>-33.4</v>
+        <v>-37.9</v>
       </c>
       <c r="H4" s="56">
-        <v>-20.100000000000001</v>
+        <v>-23.7</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>174</v>
@@ -4976,7 +4955,7 @@
         <v>177</v>
       </c>
       <c r="L4" s="50" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="M4">
         <v>48</v>
@@ -4992,16 +4971,16 @@
       </c>
       <c r="D5" s="52"/>
       <c r="E5" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="36">
-        <v>-23.8</v>
+        <v>-34</v>
       </c>
       <c r="H5" s="36">
-        <v>-4.3</v>
+        <v>-17.8</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>155</v>
@@ -5017,19 +4996,19 @@
       </c>
       <c r="D6" s="52"/>
       <c r="E6" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="57">
-        <v>-33</v>
+      <c r="G6" s="36">
+        <v>-40</v>
       </c>
       <c r="H6" s="36">
-        <v>-8.9</v>
+        <v>-18.3</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5040,18 +5019,20 @@
       <c r="C7" s="52">
         <v>3</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="52">
+        <v>0</v>
+      </c>
       <c r="E7" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="36">
-        <v>-27</v>
+      <c r="G7" s="57">
+        <v>-41.3</v>
       </c>
       <c r="H7" s="36">
-        <v>-11.4</v>
+        <v>-22.1</v>
       </c>
       <c r="I7" s="34" t="s">
         <v>111</v>
@@ -5067,16 +5048,16 @@
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F8" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="66">
-        <v>-31.6</v>
+      <c r="G8" s="36">
+        <v>-39.200000000000003</v>
       </c>
       <c r="H8" s="36">
-        <v>-16.8</v>
+        <v>-22.5</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>171</v>
@@ -5092,19 +5073,19 @@
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5117,19 +5098,19 @@
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="36">
-        <v>-19.3</v>
+        <v>-33.9</v>
       </c>
       <c r="H10" s="36">
-        <v>-4.5999999999999996</v>
+        <v>-15.4</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5142,19 +5123,19 @@
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>94</v>
       </c>
       <c r="G11" s="36">
-        <v>-20.100000000000001</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="H11" s="36">
-        <v>-8</v>
+        <v>-16.7</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5167,19 +5148,19 @@
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="36">
-        <v>-27.2</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="H12" s="36">
-        <v>-7.9</v>
+        <v>-3.2</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5192,16 +5173,16 @@
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="36">
-        <v>-27.7</v>
+      <c r="G13" s="57">
+        <v>-30.8</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I13" s="34" t="s">
         <v>158</v>
@@ -5217,16 +5198,16 @@
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="36">
-        <v>-32.4</v>
+        <v>-29</v>
       </c>
       <c r="H14" s="36">
-        <v>-15.2</v>
+        <v>-8.5</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>154</v>
@@ -5242,16 +5223,16 @@
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F15" s="41" t="s">
         <v>88</v>
       </c>
       <c r="G15" s="36">
-        <v>-35.5</v>
+        <v>-30.5</v>
       </c>
       <c r="H15" s="36">
-        <v>-7.4</v>
+        <v>-4.7</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>154</v>
@@ -5265,20 +5246,18 @@
       <c r="C16" s="52">
         <v>2</v>
       </c>
-      <c r="D16" s="52">
-        <v>0</v>
-      </c>
+      <c r="D16" s="52"/>
       <c r="E16" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="67">
-        <v>-36.6</v>
+      <c r="G16" s="36">
+        <v>-31</v>
       </c>
       <c r="H16" s="36">
-        <v>-17.2</v>
+        <v>-10.5</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>154</v>
@@ -5294,19 +5273,19 @@
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F17" s="38" t="s">
         <v>181</v>
       </c>
       <c r="G17" s="36">
-        <v>-28.3</v>
+        <v>-29.8</v>
       </c>
       <c r="H17" s="36">
-        <v>-10.8</v>
+        <v>-10</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5319,16 +5298,16 @@
       </c>
       <c r="D18" s="52"/>
       <c r="E18" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F18" s="37" t="s">
         <v>98</v>
       </c>
       <c r="G18" s="36">
-        <v>-23.6</v>
+        <v>-28.7</v>
       </c>
       <c r="H18" s="36">
-        <v>-6.8</v>
+        <v>-12.4</v>
       </c>
       <c r="I18" s="34" t="s">
         <v>32</v>
@@ -5344,19 +5323,19 @@
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F19" s="41" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="36">
-        <v>-14.4</v>
+        <v>-31.1</v>
       </c>
       <c r="H19" s="36">
-        <v>-4.0999999999999996</v>
+        <v>-15.9</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5367,21 +5346,23 @@
       <c r="C20" s="52">
         <v>2</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="52">
+        <v>0</v>
+      </c>
       <c r="E20" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="36">
-        <v>-16.100000000000001</v>
+        <v>-37.9</v>
       </c>
       <c r="H20" s="36">
-        <v>-8.1</v>
+        <v>-22.1</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5394,16 +5375,16 @@
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F21" s="41" t="s">
         <v>107</v>
       </c>
       <c r="G21" s="36">
-        <v>-24.6</v>
+        <v>-34</v>
       </c>
       <c r="H21" s="36">
-        <v>-14.6</v>
+        <v>-19.2</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>174</v>
@@ -5419,19 +5400,19 @@
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F22" s="43" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="36">
-        <v>-18.3</v>
+        <v>-32.9</v>
       </c>
       <c r="H22" s="36">
-        <v>-10.4</v>
+        <v>-18</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5444,16 +5425,16 @@
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F23" s="43" t="s">
         <v>105</v>
       </c>
       <c r="G23" s="36">
-        <v>-30.3</v>
+        <v>-27.7</v>
       </c>
       <c r="H23" s="36">
-        <v>-15.4</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>171</v>
@@ -5469,16 +5450,16 @@
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F24" s="43" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="36">
-        <v>-25.2</v>
+        <v>-38.4</v>
       </c>
       <c r="H24" s="36">
-        <v>-10.6</v>
+        <v>-21.8</v>
       </c>
       <c r="I24" s="34" t="s">
         <v>111</v>
@@ -5494,16 +5475,16 @@
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="36">
-        <v>-24.9</v>
+        <v>-40.1</v>
       </c>
       <c r="H25" s="36">
-        <v>-7.2</v>
+        <v>-15.8</v>
       </c>
       <c r="I25" s="34" t="s">
         <v>151</v>
@@ -5519,19 +5500,19 @@
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F26" s="48" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="36">
-        <v>-25.6</v>
+        <v>-35.4</v>
       </c>
       <c r="H26" s="36">
-        <v>-6.1</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5544,16 +5525,16 @@
       </c>
       <c r="D27" s="52"/>
       <c r="E27" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F27" s="43" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="36">
-        <v>-16.5</v>
+        <v>-24.3</v>
       </c>
       <c r="H27" s="36">
-        <v>-1.8</v>
+        <v>-10</v>
       </c>
       <c r="I27" s="34" t="s">
         <v>155</v>
@@ -5571,19 +5552,19 @@
         <v>0</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F28" s="40" t="s">
         <v>137</v>
       </c>
       <c r="G28" s="36">
-        <v>-32.799999999999997</v>
+        <v>-33.6</v>
       </c>
       <c r="H28" s="36">
-        <v>-5.7</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5598,19 +5579,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>182</v>
       </c>
       <c r="G29" s="36">
-        <v>-29.9</v>
+        <v>-35.5</v>
       </c>
       <c r="H29" s="36">
-        <v>-8.1</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5623,19 +5604,19 @@
       </c>
       <c r="D30" s="52"/>
       <c r="E30" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F30" s="46" t="s">
         <v>76</v>
       </c>
       <c r="G30" s="36">
+        <v>-32</v>
+      </c>
+      <c r="H30" s="36">
         <v>-18.100000000000001</v>
       </c>
-      <c r="H30" s="36">
-        <v>-8.6</v>
-      </c>
       <c r="I30" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5650,19 +5631,19 @@
         <v>0</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F31" s="46" t="s">
         <v>103</v>
       </c>
       <c r="G31" s="36">
-        <v>-17.100000000000001</v>
+        <v>-15.6</v>
       </c>
       <c r="H31" s="36">
-        <v>-9.1</v>
+        <v>2.7</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5681,10 +5662,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="36">
-        <v>-11.1</v>
+        <v>-11.5</v>
       </c>
       <c r="H32" s="36">
-        <v>-3.4</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="I32" s="34" t="s">
         <v>159</v>
@@ -5708,13 +5689,13 @@
         <v>4</v>
       </c>
       <c r="G33" s="36">
-        <v>-33.1</v>
+        <v>-26.1</v>
       </c>
       <c r="H33" s="36">
-        <v>-17.899999999999999</v>
+        <v>-13.4</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5733,10 +5714,10 @@
         <v>139</v>
       </c>
       <c r="G34" s="36">
-        <v>-13.5</v>
+        <v>-16.5</v>
       </c>
       <c r="H34" s="36">
-        <v>2.4</v>
+        <v>-4.8</v>
       </c>
       <c r="I34" s="34" t="s">
         <v>173</v>
@@ -5758,10 +5739,10 @@
         <v>140</v>
       </c>
       <c r="G35" s="36">
-        <v>-12.9</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="H35" s="36">
-        <v>-0.3</v>
+        <v>-3.8</v>
       </c>
       <c r="I35" s="34"/>
     </row>
@@ -5783,10 +5764,10 @@
         <v>141</v>
       </c>
       <c r="G36" s="36">
-        <v>-22.3</v>
+        <v>-25.7</v>
       </c>
       <c r="H36" s="36">
-        <v>1.4</v>
+        <v>-11.2</v>
       </c>
       <c r="I36" s="34"/>
     </row>
@@ -5808,10 +5789,10 @@
         <v>142</v>
       </c>
       <c r="G37" s="36">
-        <v>-13.6</v>
+        <v>-20.9</v>
       </c>
       <c r="H37" s="36">
-        <v>0.3</v>
+        <v>-8.6</v>
       </c>
       <c r="I37" s="34" t="s">
         <v>172</v>
@@ -5835,13 +5816,13 @@
         <v>143</v>
       </c>
       <c r="G38" s="36">
-        <v>-16.2</v>
+        <v>-23</v>
       </c>
       <c r="H38" s="36">
-        <v>4.0999999999999996</v>
+        <v>-6.1</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5862,10 +5843,10 @@
         <v>144</v>
       </c>
       <c r="G39" s="36">
-        <v>-20.6</v>
+        <v>-24.9</v>
       </c>
       <c r="H39" s="36">
-        <v>5.8</v>
+        <v>-4.2</v>
       </c>
       <c r="I39" s="34"/>
     </row>
@@ -5887,10 +5868,10 @@
         <v>145</v>
       </c>
       <c r="G40" s="36">
-        <v>-21.1</v>
+        <v>-23.3</v>
       </c>
       <c r="H40" s="36">
-        <v>4.3</v>
+        <v>-5.8</v>
       </c>
       <c r="I40" s="34"/>
     </row>
@@ -5910,13 +5891,13 @@
         <v>146</v>
       </c>
       <c r="G41" s="36">
-        <v>-25</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="H41" s="36">
-        <v>-8.5</v>
+        <v>-12.1</v>
       </c>
       <c r="I41" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5927,23 +5908,21 @@
       <c r="C42" s="52">
         <v>1</v>
       </c>
-      <c r="D42" s="52">
-        <v>0</v>
-      </c>
+      <c r="D42" s="52"/>
       <c r="E42" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F42" s="40" t="s">
         <v>73</v>
       </c>
       <c r="G42" s="36">
-        <v>-31</v>
+        <v>-27</v>
       </c>
       <c r="H42" s="36">
-        <v>-11</v>
+        <v>-6.9</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5962,10 +5941,10 @@
         <v>71</v>
       </c>
       <c r="G43" s="36">
-        <v>-21.4</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="H43" s="36">
-        <v>-2.5</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="I43" s="34" t="s">
         <v>157</v>
@@ -5987,10 +5966,10 @@
         <v>147</v>
       </c>
       <c r="G44" s="36">
-        <v>-25</v>
+        <v>-23.7</v>
       </c>
       <c r="H44" s="36">
-        <v>-10.199999999999999</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>160</v>
@@ -6012,10 +5991,10 @@
         <v>148</v>
       </c>
       <c r="G45" s="36">
-        <v>-18</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="H45" s="36">
-        <v>-6.1</v>
+        <v>-3.6</v>
       </c>
       <c r="I45" s="34" t="s">
         <v>160</v>
@@ -6031,16 +6010,16 @@
       </c>
       <c r="D46" s="52"/>
       <c r="E46" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F46" s="40" t="s">
         <v>78</v>
       </c>
       <c r="G46" s="36">
-        <v>-26</v>
+        <v>-20.3</v>
       </c>
       <c r="H46" s="36">
-        <v>-6</v>
+        <v>-0.1</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>156</v>
@@ -6062,13 +6041,13 @@
         <v>80</v>
       </c>
       <c r="G47" s="36">
-        <v>-17.3</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="H47" s="36">
-        <v>-2.4</v>
+        <v>-3.8</v>
       </c>
       <c r="I47" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6087,10 +6066,10 @@
         <v>82</v>
       </c>
       <c r="G48" s="36">
-        <v>-14.6</v>
+        <v>-11.1</v>
       </c>
       <c r="H48" s="36">
-        <v>-5.0999999999999996</v>
+        <v>1.6</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>159</v>
@@ -6106,16 +6085,16 @@
       </c>
       <c r="D49" s="52"/>
       <c r="E49" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F49" s="40" t="s">
         <v>67</v>
       </c>
       <c r="G49" s="36">
-        <v>-25.4</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="H49" s="36">
-        <v>-8</v>
+        <v>-10.1</v>
       </c>
       <c r="I49" s="34" t="s">
         <v>157</v>
@@ -6131,19 +6110,19 @@
       </c>
       <c r="D50" s="52"/>
       <c r="E50" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F50" s="44" t="s">
         <v>69</v>
       </c>
       <c r="G50" s="36">
-        <v>-27.6</v>
+        <v>-33</v>
       </c>
       <c r="H50" s="36">
-        <v>-12.8</v>
+        <v>-17.3</v>
       </c>
       <c r="I50" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.4">
@@ -6199,8 +6178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6452CB3-0983-4391-8A7D-2C5221219E76}">
   <dimension ref="A1:AV79"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7212,7 +7191,7 @@
         <v>-26.1</v>
       </c>
       <c r="AQ7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AR7">
         <v>-25.3</v>
@@ -7650,7 +7629,7 @@
         <v>-33.6</v>
       </c>
       <c r="AQ10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AR10">
         <v>-21.5</v>
@@ -7688,7 +7667,7 @@
         <v>-42.4</v>
       </c>
       <c r="G11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H11">
         <v>-23</v>
@@ -7796,7 +7775,7 @@
         <v>-24.7</v>
       </c>
       <c r="AQ11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AR11">
         <v>-14.8</v>
@@ -7834,7 +7813,7 @@
         <v>-39.5</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H12">
         <v>-27.9</v>
@@ -7980,7 +7959,7 @@
         <v>-40.200000000000003</v>
       </c>
       <c r="G13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H13">
         <v>-35.700000000000003</v>
@@ -8126,7 +8105,7 @@
         <v>-38.6</v>
       </c>
       <c r="G14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H14">
         <v>-28.1</v>
@@ -8272,7 +8251,7 @@
         <v>-32.9</v>
       </c>
       <c r="G15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H15">
         <v>-22.6</v>
@@ -8418,7 +8397,7 @@
         <v>-37.299999999999997</v>
       </c>
       <c r="G16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H16">
         <v>-22.7</v>
@@ -8552,7 +8531,7 @@
         <v>-40</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17">
         <v>-37.6</v>
@@ -8564,7 +8543,7 @@
         <v>-38.799999999999997</v>
       </c>
       <c r="G17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H17">
         <v>-31.6</v>
@@ -8710,7 +8689,7 @@
         <v>-36.9</v>
       </c>
       <c r="G18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H18">
         <v>-38.700000000000003</v>
@@ -8853,10 +8832,10 @@
         <v>-39</v>
       </c>
       <c r="F19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H19">
         <v>-37</v>
@@ -9002,7 +8981,7 @@
         <v>-36.299999999999997</v>
       </c>
       <c r="G20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H20">
         <v>-32.700000000000003</v>
@@ -9148,7 +9127,7 @@
         <v>-27.2</v>
       </c>
       <c r="G21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H21">
         <v>-33.700000000000003</v>
@@ -9294,7 +9273,7 @@
         <v>-35.6</v>
       </c>
       <c r="G22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H22">
         <v>-24.5</v>
@@ -9440,7 +9419,7 @@
         <v>-39.1</v>
       </c>
       <c r="G23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H23">
         <v>-24.5</v>
@@ -9586,7 +9565,7 @@
         <v>-39.9</v>
       </c>
       <c r="G24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H24">
         <v>-30.4</v>
@@ -9732,7 +9711,7 @@
         <v>-42.2</v>
       </c>
       <c r="G25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H25">
         <v>-14</v>
@@ -9878,7 +9857,7 @@
         <v>-44.2</v>
       </c>
       <c r="G26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H26">
         <v>-19.100000000000001</v>
@@ -10024,7 +10003,7 @@
         <v>-42.1</v>
       </c>
       <c r="G27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H27">
         <v>-24.2</v>
@@ -10170,7 +10149,7 @@
         <v>-39.1</v>
       </c>
       <c r="G28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H28">
         <v>-27.5</v>
@@ -10316,7 +10295,7 @@
         <v>-31.2</v>
       </c>
       <c r="G29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H29">
         <v>-25.8</v>
@@ -10462,7 +10441,7 @@
         <v>-35.5</v>
       </c>
       <c r="G30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H30">
         <v>-25.7</v>
@@ -10608,7 +10587,7 @@
         <v>-37.299999999999997</v>
       </c>
       <c r="G31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H31">
         <v>-29</v>
@@ -10754,7 +10733,7 @@
         <v>-32.9</v>
       </c>
       <c r="G32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H32">
         <v>-28.6</v>
@@ -10900,7 +10879,7 @@
         <v>-34.5</v>
       </c>
       <c r="G33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H33">
         <v>-30.7</v>
@@ -11046,7 +11025,7 @@
         <v>-39.700000000000003</v>
       </c>
       <c r="G34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H34">
         <v>-19.899999999999999</v>
@@ -11192,7 +11171,7 @@
         <v>-41.6</v>
       </c>
       <c r="G35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H35">
         <v>-34.200000000000003</v>
@@ -11338,7 +11317,7 @@
         <v>-37.4</v>
       </c>
       <c r="G36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H36">
         <v>-41.5</v>
@@ -11484,7 +11463,7 @@
         <v>-32.1</v>
       </c>
       <c r="G37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H37">
         <v>-38.5</v>
@@ -11630,7 +11609,7 @@
         <v>-36.6</v>
       </c>
       <c r="G38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H38">
         <v>-33.799999999999997</v>
@@ -11776,7 +11755,7 @@
         <v>-31.1</v>
       </c>
       <c r="G39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H39">
         <v>-41.8</v>
@@ -11922,7 +11901,7 @@
         <v>-33.799999999999997</v>
       </c>
       <c r="G40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H40">
         <v>-41.8</v>
@@ -12068,7 +12047,7 @@
         <v>-28.5</v>
       </c>
       <c r="G41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H41">
         <v>-42.3</v>
@@ -12214,7 +12193,7 @@
         <v>-30.5</v>
       </c>
       <c r="G42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H42">
         <v>-42.3</v>
@@ -12360,7 +12339,7 @@
         <v>-35.299999999999997</v>
       </c>
       <c r="G43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H43">
         <v>-41</v>
@@ -12506,7 +12485,7 @@
         <v>-35.1</v>
       </c>
       <c r="G44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H44">
         <v>-40.9</v>
@@ -12652,7 +12631,7 @@
         <v>-37</v>
       </c>
       <c r="G45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H45">
         <v>-42.1</v>
@@ -12798,7 +12777,7 @@
         <v>-39.9</v>
       </c>
       <c r="G46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H46">
         <v>-24.3</v>
@@ -12944,7 +12923,7 @@
         <v>-33.299999999999997</v>
       </c>
       <c r="G47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H47">
         <v>-43.1</v>
@@ -13090,7 +13069,7 @@
         <v>-31.5</v>
       </c>
       <c r="G48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H48">
         <v>-43.5</v>
@@ -13236,7 +13215,7 @@
         <v>-30.8</v>
       </c>
       <c r="G49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H49">
         <v>-39.6</v>
@@ -13382,7 +13361,7 @@
         <v>-34.9</v>
       </c>
       <c r="G50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H50">
         <v>-39.9</v>
@@ -13528,7 +13507,7 @@
         <v>-26.2</v>
       </c>
       <c r="G51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H51">
         <v>-27.2</v>
@@ -13674,7 +13653,7 @@
         <v>-34.1</v>
       </c>
       <c r="G52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H52">
         <v>-23.6</v>
@@ -13820,7 +13799,7 @@
         <v>-34.1</v>
       </c>
       <c r="G53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H53">
         <v>-19.600000000000001</v>
@@ -13966,7 +13945,7 @@
         <v>-32.1</v>
       </c>
       <c r="G54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H54">
         <v>-26</v>
@@ -14112,7 +14091,7 @@
         <v>-31.6</v>
       </c>
       <c r="G55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H55">
         <v>-19.3</v>
@@ -14242,40 +14221,1168 @@
       <c r="A56" s="16">
         <v>45703</v>
       </c>
+      <c r="B56">
+        <v>-36.9</v>
+      </c>
+      <c r="C56">
+        <v>-22.5</v>
+      </c>
+      <c r="D56">
+        <v>-30.2</v>
+      </c>
+      <c r="E56">
+        <v>-33.6</v>
+      </c>
+      <c r="F56">
+        <v>-36.6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>245</v>
+      </c>
+      <c r="H56">
+        <v>-23.4</v>
+      </c>
+      <c r="I56">
+        <v>-11.7</v>
+      </c>
+      <c r="J56">
+        <v>-29.4</v>
+      </c>
+      <c r="K56">
+        <v>-31.2</v>
+      </c>
+      <c r="L56">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="M56">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="N56">
+        <v>-35.5</v>
+      </c>
+      <c r="O56">
+        <v>-29.8</v>
+      </c>
+      <c r="P56">
+        <v>-25.2</v>
+      </c>
+      <c r="Q56">
+        <v>-21.1</v>
+      </c>
+      <c r="R56">
+        <v>-29.5</v>
+      </c>
+      <c r="S56">
+        <v>-30.9</v>
+      </c>
+      <c r="T56">
+        <v>-25.1</v>
+      </c>
+      <c r="U56">
+        <v>-32.4</v>
+      </c>
+      <c r="V56">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="W56">
+        <v>-37.1</v>
+      </c>
+      <c r="X56">
+        <v>-29.7</v>
+      </c>
+      <c r="Y56">
+        <v>-17.5</v>
+      </c>
+      <c r="Z56">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="AA56">
+        <v>-28.9</v>
+      </c>
+      <c r="AB56">
+        <v>-14.5</v>
+      </c>
+      <c r="AC56">
+        <v>-20</v>
+      </c>
+      <c r="AD56">
+        <v>-14.3</v>
+      </c>
+      <c r="AE56">
+        <v>-30.4</v>
+      </c>
+      <c r="AF56">
+        <v>-12.6</v>
+      </c>
+      <c r="AG56">
+        <v>-12.9</v>
+      </c>
+      <c r="AH56">
+        <v>-12.5</v>
+      </c>
+      <c r="AI56">
+        <v>-14.2</v>
+      </c>
+      <c r="AJ56">
+        <v>-17</v>
+      </c>
+      <c r="AK56">
+        <v>-15.9</v>
+      </c>
+      <c r="AL56">
+        <v>-15.9</v>
+      </c>
+      <c r="AM56">
+        <v>-28</v>
+      </c>
+      <c r="AN56">
+        <v>-31.3</v>
+      </c>
+      <c r="AO56">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="AP56">
+        <v>-26.3</v>
+      </c>
+      <c r="AQ56">
+        <v>-20.3</v>
+      </c>
+      <c r="AR56">
+        <v>-24.3</v>
+      </c>
+      <c r="AS56">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="AT56">
+        <v>-13.9</v>
+      </c>
+      <c r="AU56">
+        <v>-25.9</v>
+      </c>
+      <c r="AV56">
+        <v>-18.8</v>
+      </c>
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>45704</v>
       </c>
+      <c r="B57">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="C57">
+        <v>-29.3</v>
+      </c>
+      <c r="D57">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="E57">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="F57">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="G57" t="s">
+        <v>245</v>
+      </c>
+      <c r="H57">
+        <v>-26.5</v>
+      </c>
+      <c r="I57">
+        <v>-19.2</v>
+      </c>
+      <c r="J57">
+        <v>-29.5</v>
+      </c>
+      <c r="K57">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="L57">
+        <v>-32.9</v>
+      </c>
+      <c r="M57">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="N57">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="O57">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="P57">
+        <v>-24.9</v>
+      </c>
+      <c r="Q57">
+        <v>-27.2</v>
+      </c>
+      <c r="R57">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="S57">
+        <v>-32.9</v>
+      </c>
+      <c r="T57">
+        <v>-31.3</v>
+      </c>
+      <c r="U57">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="V57">
+        <v>-35.5</v>
+      </c>
+      <c r="W57">
+        <v>-35.9</v>
+      </c>
+      <c r="X57">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="Y57">
+        <v>-21.1</v>
+      </c>
+      <c r="Z57">
+        <v>-36.6</v>
+      </c>
+      <c r="AA57">
+        <v>-24.4</v>
+      </c>
+      <c r="AB57">
+        <v>-21.7</v>
+      </c>
+      <c r="AC57">
+        <v>-15.7</v>
+      </c>
+      <c r="AD57">
+        <v>-15.3</v>
+      </c>
+      <c r="AE57">
+        <v>-33.9</v>
+      </c>
+      <c r="AF57">
+        <v>-10.7</v>
+      </c>
+      <c r="AG57">
+        <v>-18.3</v>
+      </c>
+      <c r="AH57">
+        <v>-20.3</v>
+      </c>
+      <c r="AI57">
+        <v>-13.4</v>
+      </c>
+      <c r="AJ57">
+        <v>-7.5</v>
+      </c>
+      <c r="AK57">
+        <v>-10.9</v>
+      </c>
+      <c r="AL57">
+        <v>-18.5</v>
+      </c>
+      <c r="AM57">
+        <v>-30.4</v>
+      </c>
+      <c r="AN57">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="AO57">
+        <v>-22.8</v>
+      </c>
+      <c r="AP57">
+        <v>-27.5</v>
+      </c>
+      <c r="AQ57">
+        <v>-10.8</v>
+      </c>
+      <c r="AR57">
+        <v>-25</v>
+      </c>
+      <c r="AS57">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AT57">
+        <v>-10.6</v>
+      </c>
+      <c r="AU57">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="AV57">
+        <v>-20.3</v>
+      </c>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>45705</v>
       </c>
+      <c r="B58">
+        <v>-36.4</v>
+      </c>
+      <c r="C58">
+        <v>-31.5</v>
+      </c>
+      <c r="D58">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="E58">
+        <v>-36.1</v>
+      </c>
+      <c r="F58">
+        <v>-34.4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>245</v>
+      </c>
+      <c r="H58">
+        <v>-35.1</v>
+      </c>
+      <c r="I58">
+        <v>-31.4</v>
+      </c>
+      <c r="J58">
+        <v>-24.6</v>
+      </c>
+      <c r="K58">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="L58">
+        <v>-22.9</v>
+      </c>
+      <c r="M58">
+        <v>-14.7</v>
+      </c>
+      <c r="N58">
+        <v>-33.4</v>
+      </c>
+      <c r="O58">
+        <v>-32.5</v>
+      </c>
+      <c r="P58">
+        <v>-29.9</v>
+      </c>
+      <c r="Q58">
+        <v>-25.6</v>
+      </c>
+      <c r="R58">
+        <v>-29.7</v>
+      </c>
+      <c r="S58">
+        <v>-31.6</v>
+      </c>
+      <c r="T58">
+        <v>-27.3</v>
+      </c>
+      <c r="U58">
+        <v>-29.4</v>
+      </c>
+      <c r="V58">
+        <v>-34.5</v>
+      </c>
+      <c r="W58">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="X58">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="Y58">
+        <v>-20.6</v>
+      </c>
+      <c r="Z58">
+        <v>-32.6</v>
+      </c>
+      <c r="AA58">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="AB58">
+        <v>-25</v>
+      </c>
+      <c r="AC58">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AD58">
+        <v>-9.5</v>
+      </c>
+      <c r="AE58">
+        <v>-29</v>
+      </c>
+      <c r="AF58">
+        <v>-12.5</v>
+      </c>
+      <c r="AG58">
+        <v>-17.7</v>
+      </c>
+      <c r="AH58">
+        <v>-25.9</v>
+      </c>
+      <c r="AI58">
+        <v>-18.2</v>
+      </c>
+      <c r="AJ58">
+        <v>-12.9</v>
+      </c>
+      <c r="AK58">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="AL58">
+        <v>-20.2</v>
+      </c>
+      <c r="AM58">
+        <v>-33.1</v>
+      </c>
+      <c r="AN58">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AO58">
+        <v>-30.6</v>
+      </c>
+      <c r="AP58">
+        <v>-32.6</v>
+      </c>
+      <c r="AQ58">
+        <v>-18.3</v>
+      </c>
+      <c r="AR58">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AS58">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="AT58">
+        <v>-13.9</v>
+      </c>
+      <c r="AU58">
+        <v>-31.9</v>
+      </c>
+      <c r="AV58">
+        <v>-29</v>
+      </c>
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>45706</v>
       </c>
+      <c r="B59">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="C59">
+        <v>-26.8</v>
+      </c>
+      <c r="D59">
+        <v>-33.6</v>
+      </c>
+      <c r="E59">
+        <v>-35.9</v>
+      </c>
+      <c r="F59">
+        <v>-35.9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>245</v>
+      </c>
+      <c r="H59">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="I59">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="J59">
+        <v>-21.2</v>
+      </c>
+      <c r="K59">
+        <v>-30.7</v>
+      </c>
+      <c r="L59">
+        <v>-24.9</v>
+      </c>
+      <c r="M59">
+        <v>-23.7</v>
+      </c>
+      <c r="N59">
+        <v>-29.6</v>
+      </c>
+      <c r="O59">
+        <v>-28.3</v>
+      </c>
+      <c r="P59">
+        <v>-26.5</v>
+      </c>
+      <c r="Q59">
+        <v>-27.7</v>
+      </c>
+      <c r="R59">
+        <v>-32.6</v>
+      </c>
+      <c r="S59">
+        <v>-30.3</v>
+      </c>
+      <c r="T59">
+        <v>-28.4</v>
+      </c>
+      <c r="U59">
+        <v>-30.6</v>
+      </c>
+      <c r="V59">
+        <v>-35.4</v>
+      </c>
+      <c r="W59">
+        <v>-28.7</v>
+      </c>
+      <c r="X59">
+        <v>-32.9</v>
+      </c>
+      <c r="Y59">
+        <v>-21.3</v>
+      </c>
+      <c r="Z59">
+        <v>-27.6</v>
+      </c>
+      <c r="AA59">
+        <v>-31.1</v>
+      </c>
+      <c r="AB59">
+        <v>-28.8</v>
+      </c>
+      <c r="AC59">
+        <v>-21</v>
+      </c>
+      <c r="AD59">
+        <v>-10.8</v>
+      </c>
+      <c r="AE59">
+        <v>-29.9</v>
+      </c>
+      <c r="AF59">
+        <v>-8.6</v>
+      </c>
+      <c r="AG59">
+        <v>-13.2</v>
+      </c>
+      <c r="AH59">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="AI59">
+        <v>-19</v>
+      </c>
+      <c r="AJ59">
+        <v>-15.9</v>
+      </c>
+      <c r="AK59">
+        <v>-22</v>
+      </c>
+      <c r="AL59">
+        <v>-18.3</v>
+      </c>
+      <c r="AM59">
+        <v>-25.3</v>
+      </c>
+      <c r="AN59">
+        <v>-20.2</v>
+      </c>
+      <c r="AO59">
+        <v>-32.5</v>
+      </c>
+      <c r="AP59">
+        <v>-27.2</v>
+      </c>
+      <c r="AQ59">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AR59">
+        <v>-24.5</v>
+      </c>
+      <c r="AS59">
+        <v>-13.8</v>
+      </c>
+      <c r="AT59">
+        <v>-11.7</v>
+      </c>
+      <c r="AU59">
+        <v>-29.3</v>
+      </c>
+      <c r="AV59">
+        <v>-27.6</v>
+      </c>
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>45707</v>
       </c>
+      <c r="B60">
+        <v>-36</v>
+      </c>
+      <c r="C60">
+        <v>-32.4</v>
+      </c>
+      <c r="D60">
+        <v>-36.1</v>
+      </c>
+      <c r="E60">
+        <v>-36.6</v>
+      </c>
+      <c r="F60">
+        <v>-36</v>
+      </c>
+      <c r="G60" t="s">
+        <v>245</v>
+      </c>
+      <c r="H60">
+        <v>-29.2</v>
+      </c>
+      <c r="I60">
+        <v>-33.4</v>
+      </c>
+      <c r="J60">
+        <v>-19.5</v>
+      </c>
+      <c r="K60">
+        <v>-34</v>
+      </c>
+      <c r="L60">
+        <v>-27.7</v>
+      </c>
+      <c r="M60">
+        <v>-28.8</v>
+      </c>
+      <c r="N60">
+        <v>-31.8</v>
+      </c>
+      <c r="O60">
+        <v>-30.4</v>
+      </c>
+      <c r="P60">
+        <v>-25.9</v>
+      </c>
+      <c r="Q60">
+        <v>-28.7</v>
+      </c>
+      <c r="R60">
+        <v>-33.6</v>
+      </c>
+      <c r="S60">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="T60">
+        <v>-31.3</v>
+      </c>
+      <c r="U60">
+        <v>-32.9</v>
+      </c>
+      <c r="V60">
+        <v>-36</v>
+      </c>
+      <c r="W60">
+        <v>-34.9</v>
+      </c>
+      <c r="X60">
+        <v>-33.4</v>
+      </c>
+      <c r="Y60">
+        <v>-22.3</v>
+      </c>
+      <c r="Z60">
+        <v>-29.8</v>
+      </c>
+      <c r="AA60">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="AB60">
+        <v>-30.1</v>
+      </c>
+      <c r="AC60">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="AD60">
+        <v>-13.8</v>
+      </c>
+      <c r="AE60">
+        <v>-32.4</v>
+      </c>
+      <c r="AF60">
+        <v>-8</v>
+      </c>
+      <c r="AG60">
+        <v>-14.6</v>
+      </c>
+      <c r="AH60">
+        <v>-22.5</v>
+      </c>
+      <c r="AI60">
+        <v>-19</v>
+      </c>
+      <c r="AJ60">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="AK60">
+        <v>-24.5</v>
+      </c>
+      <c r="AL60">
+        <v>-13.5</v>
+      </c>
+      <c r="AM60">
+        <v>-31.6</v>
+      </c>
+      <c r="AN60">
+        <v>-20.9</v>
+      </c>
+      <c r="AO60">
+        <v>-31.4</v>
+      </c>
+      <c r="AP60">
+        <v>-28.8</v>
+      </c>
+      <c r="AQ60">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="AR60">
+        <v>-19.5</v>
+      </c>
+      <c r="AS60">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="AT60">
+        <v>-12.7</v>
+      </c>
+      <c r="AU60">
+        <v>-32</v>
+      </c>
+      <c r="AV60">
+        <v>-31.3</v>
+      </c>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
         <v>45708</v>
       </c>
+      <c r="B61">
+        <v>-29.6</v>
+      </c>
+      <c r="C61">
+        <v>-33.4</v>
+      </c>
+      <c r="D61">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="E61">
+        <v>-33</v>
+      </c>
+      <c r="F61">
+        <v>-33</v>
+      </c>
+      <c r="G61" t="s">
+        <v>245</v>
+      </c>
+      <c r="H61">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="I61">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="J61">
+        <v>-27.2</v>
+      </c>
+      <c r="K61">
+        <v>-31.9</v>
+      </c>
+      <c r="L61">
+        <v>-27.9</v>
+      </c>
+      <c r="M61">
+        <v>-25.7</v>
+      </c>
+      <c r="N61">
+        <v>-29.9</v>
+      </c>
+      <c r="O61">
+        <v>-29.8</v>
+      </c>
+      <c r="P61">
+        <v>-25.7</v>
+      </c>
+      <c r="Q61">
+        <v>-29.1</v>
+      </c>
+      <c r="R61">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="S61">
+        <v>-27.9</v>
+      </c>
+      <c r="T61">
+        <v>-32</v>
+      </c>
+      <c r="U61">
+        <v>-33.1</v>
+      </c>
+      <c r="V61">
+        <v>-33.5</v>
+      </c>
+      <c r="W61">
+        <v>-36.4</v>
+      </c>
+      <c r="X61">
+        <v>-33.6</v>
+      </c>
+      <c r="Y61">
+        <v>-24</v>
+      </c>
+      <c r="Z61">
+        <v>-30.1</v>
+      </c>
+      <c r="AA61">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="AB61">
+        <v>-31.2</v>
+      </c>
+      <c r="AC61">
+        <v>-13.2</v>
+      </c>
+      <c r="AD61">
+        <v>-12.4</v>
+      </c>
+      <c r="AE61">
+        <v>-33.5</v>
+      </c>
+      <c r="AF61">
+        <v>-12</v>
+      </c>
+      <c r="AG61">
+        <v>-14.9</v>
+      </c>
+      <c r="AH61">
+        <v>-24.3</v>
+      </c>
+      <c r="AI61">
+        <v>-20.3</v>
+      </c>
+      <c r="AJ61">
+        <v>-22.2</v>
+      </c>
+      <c r="AK61">
+        <v>-24.3</v>
+      </c>
+      <c r="AL61">
+        <v>-20.5</v>
+      </c>
+      <c r="AM61">
+        <v>-30.8</v>
+      </c>
+      <c r="AN61">
+        <v>-22.5</v>
+      </c>
+      <c r="AO61">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="AP61">
+        <v>-27.7</v>
+      </c>
+      <c r="AQ61">
+        <v>-21.6</v>
+      </c>
+      <c r="AR61">
+        <v>-8.9</v>
+      </c>
+      <c r="AS61">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="AT61">
+        <v>-10.8</v>
+      </c>
+      <c r="AU61">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="AV61">
+        <v>-34</v>
+      </c>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
         <v>45709</v>
       </c>
+      <c r="B62">
+        <v>-36.1</v>
+      </c>
+      <c r="C62">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="D62">
+        <v>-38.6</v>
+      </c>
+      <c r="E62">
+        <v>-34.5</v>
+      </c>
+      <c r="F62">
+        <v>-33</v>
+      </c>
+      <c r="G62" t="s">
+        <v>245</v>
+      </c>
+      <c r="H62">
+        <v>-36.1</v>
+      </c>
+      <c r="I62">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="J62">
+        <v>-27.7</v>
+      </c>
+      <c r="K62">
+        <v>-30.2</v>
+      </c>
+      <c r="L62">
+        <v>-29.7</v>
+      </c>
+      <c r="M62">
+        <v>-31.6</v>
+      </c>
+      <c r="N62">
+        <v>-33.1</v>
+      </c>
+      <c r="O62">
+        <v>-30.3</v>
+      </c>
+      <c r="P62">
+        <v>-27.3</v>
+      </c>
+      <c r="Q62">
+        <v>-30</v>
+      </c>
+      <c r="R62">
+        <v>-36.6</v>
+      </c>
+      <c r="S62">
+        <v>-28.9</v>
+      </c>
+      <c r="T62">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="U62">
+        <v>-30.9</v>
+      </c>
+      <c r="V62">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="W62">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="X62">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="Y62">
+        <v>-26.3</v>
+      </c>
+      <c r="Z62">
+        <v>-32.5</v>
+      </c>
+      <c r="AA62">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="AB62">
+        <v>-31.3</v>
+      </c>
+      <c r="AC62">
+        <v>-19.5</v>
+      </c>
+      <c r="AD62">
+        <v>-10.7</v>
+      </c>
+      <c r="AE62">
+        <v>-30.1</v>
+      </c>
+      <c r="AF62">
+        <v>-12.6</v>
+      </c>
+      <c r="AG62">
+        <v>-15.9</v>
+      </c>
+      <c r="AH62">
+        <v>-21.5</v>
+      </c>
+      <c r="AI62">
+        <v>-21.4</v>
+      </c>
+      <c r="AJ62">
+        <v>-22.4</v>
+      </c>
+      <c r="AK62">
+        <v>-23.7</v>
+      </c>
+      <c r="AL62">
+        <v>-19.3</v>
+      </c>
+      <c r="AM62">
+        <v>-32.6</v>
+      </c>
+      <c r="AN62">
+        <v>-26.3</v>
+      </c>
+      <c r="AO62">
+        <v>-33</v>
+      </c>
+      <c r="AP62">
+        <v>-29.3</v>
+      </c>
+      <c r="AQ62">
+        <v>-15.2</v>
+      </c>
+      <c r="AR62">
+        <v>-18</v>
+      </c>
+      <c r="AS62">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="AT62">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AU62">
+        <v>-32.6</v>
+      </c>
+      <c r="AV62">
+        <v>-35.299999999999997</v>
+      </c>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A63" s="16">
         <v>45710</v>
+      </c>
+      <c r="B63">
+        <v>-37.9</v>
+      </c>
+      <c r="C63">
+        <v>-34</v>
+      </c>
+      <c r="D63">
+        <v>-40</v>
+      </c>
+      <c r="E63">
+        <v>-41.3</v>
+      </c>
+      <c r="F63">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="G63" t="s">
+        <v>245</v>
+      </c>
+      <c r="H63">
+        <v>-33.9</v>
+      </c>
+      <c r="I63">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="J63">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="K63">
+        <v>-30.8</v>
+      </c>
+      <c r="L63">
+        <v>-29</v>
+      </c>
+      <c r="M63">
+        <v>-30.5</v>
+      </c>
+      <c r="N63">
+        <v>-31</v>
+      </c>
+      <c r="O63">
+        <v>-29.8</v>
+      </c>
+      <c r="P63">
+        <v>-28.7</v>
+      </c>
+      <c r="Q63">
+        <v>-31.1</v>
+      </c>
+      <c r="R63">
+        <v>-37.9</v>
+      </c>
+      <c r="S63">
+        <v>-34</v>
+      </c>
+      <c r="T63">
+        <v>-32.9</v>
+      </c>
+      <c r="U63">
+        <v>-27.7</v>
+      </c>
+      <c r="V63">
+        <v>-38.4</v>
+      </c>
+      <c r="W63">
+        <v>-40.1</v>
+      </c>
+      <c r="X63">
+        <v>-35.4</v>
+      </c>
+      <c r="Y63">
+        <v>-24.3</v>
+      </c>
+      <c r="Z63">
+        <v>-33.6</v>
+      </c>
+      <c r="AA63">
+        <v>-35.5</v>
+      </c>
+      <c r="AB63">
+        <v>-32</v>
+      </c>
+      <c r="AC63">
+        <v>-15.6</v>
+      </c>
+      <c r="AD63">
+        <v>-11.5</v>
+      </c>
+      <c r="AE63">
+        <v>-26.1</v>
+      </c>
+      <c r="AF63">
+        <v>-16.5</v>
+      </c>
+      <c r="AG63">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="AH63">
+        <v>-25.7</v>
+      </c>
+      <c r="AI63">
+        <v>-20.9</v>
+      </c>
+      <c r="AJ63">
+        <v>-23</v>
+      </c>
+      <c r="AK63">
+        <v>-24.9</v>
+      </c>
+      <c r="AL63">
+        <v>-23.3</v>
+      </c>
+      <c r="AM63">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="AN63">
+        <v>-27</v>
+      </c>
+      <c r="AO63">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="AP63">
+        <v>-23.7</v>
+      </c>
+      <c r="AQ63">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="AR63">
+        <v>-20.3</v>
+      </c>
+      <c r="AS63">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="AT63">
+        <v>-11.1</v>
+      </c>
+      <c r="AU63">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="AV63">
+        <v>-33</v>
       </c>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.4">
@@ -14348,8 +15455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFE5A94-8276-425C-8C4C-F53ED14714E0}">
   <dimension ref="A1:AV79"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -15361,7 +16468,7 @@
         <v>3.1</v>
       </c>
       <c r="AQ7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AR7">
         <v>-11.5</v>
@@ -15799,7 +16906,7 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="AQ10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AR10">
         <v>-7.8</v>
@@ -15837,7 +16944,7 @@
         <v>-31.8</v>
       </c>
       <c r="G11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H11">
         <v>-14.3</v>
@@ -15945,7 +17052,7 @@
         <v>-4.5999999999999996</v>
       </c>
       <c r="AQ11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AR11">
         <v>-6.5</v>
@@ -15971,19 +17078,19 @@
         <v>-32.5</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D12">
         <v>-33.4</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H12">
         <v>-16.2</v>
@@ -16129,7 +17236,7 @@
         <v>-27.2</v>
       </c>
       <c r="G13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H13">
         <v>-28.1</v>
@@ -16275,7 +17382,7 @@
         <v>-24.3</v>
       </c>
       <c r="G14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H14">
         <v>-18.8</v>
@@ -16421,7 +17528,7 @@
         <v>-25.1</v>
       </c>
       <c r="G15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H15">
         <v>-16.5</v>
@@ -16567,7 +17674,7 @@
         <v>-27.7</v>
       </c>
       <c r="G16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H16">
         <v>-14.2</v>
@@ -16713,7 +17820,7 @@
         <v>-27.9</v>
       </c>
       <c r="G17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H17">
         <v>-23.8</v>
@@ -16859,7 +17966,7 @@
         <v>-27.5</v>
       </c>
       <c r="G18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H18">
         <v>-28.5</v>
@@ -17005,7 +18112,7 @@
         <v>-23.7</v>
       </c>
       <c r="G19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H19">
         <v>-29.1</v>
@@ -17151,7 +18258,7 @@
         <v>-23.8</v>
       </c>
       <c r="G20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H20">
         <v>-20.5</v>
@@ -17297,7 +18404,7 @@
         <v>-21.6</v>
       </c>
       <c r="G21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H21">
         <v>-21.2</v>
@@ -17443,7 +18550,7 @@
         <v>-22.2</v>
       </c>
       <c r="G22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H22">
         <v>-19.8</v>
@@ -17589,7 +18696,7 @@
         <v>-26.6</v>
       </c>
       <c r="G23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H23">
         <v>-12.6</v>
@@ -17735,7 +18842,7 @@
         <v>-23</v>
       </c>
       <c r="G24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H24">
         <v>-13.6</v>
@@ -17881,7 +18988,7 @@
         <v>-31.8</v>
       </c>
       <c r="G25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H25">
         <v>-2.4</v>
@@ -18027,7 +19134,7 @@
         <v>-33.799999999999997</v>
       </c>
       <c r="G26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H26">
         <v>-6.1</v>
@@ -18173,7 +19280,7 @@
         <v>-28.1</v>
       </c>
       <c r="G27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H27">
         <v>-17.5</v>
@@ -18319,7 +19426,7 @@
         <v>-27.5</v>
       </c>
       <c r="G28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H28">
         <v>-17.3</v>
@@ -18465,7 +19572,7 @@
         <v>-26.1</v>
       </c>
       <c r="G29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H29">
         <v>-11.8</v>
@@ -18611,7 +19718,7 @@
         <v>-26.1</v>
       </c>
       <c r="G30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H30">
         <v>-13.3</v>
@@ -18757,7 +19864,7 @@
         <v>-26.5</v>
       </c>
       <c r="G31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H31">
         <v>-16.5</v>
@@ -18903,7 +20010,7 @@
         <v>-23.9</v>
       </c>
       <c r="G32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H32">
         <v>-18.7</v>
@@ -19049,7 +20156,7 @@
         <v>-24.6</v>
       </c>
       <c r="G33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H33">
         <v>-13.6</v>
@@ -19195,7 +20302,7 @@
         <v>-24.3</v>
       </c>
       <c r="G34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H34">
         <v>-8.4</v>
@@ -19341,7 +20448,7 @@
         <v>-26.9</v>
       </c>
       <c r="G35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H35">
         <v>-19.3</v>
@@ -19487,7 +20594,7 @@
         <v>-25.8</v>
       </c>
       <c r="G36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H36">
         <v>-32.299999999999997</v>
@@ -19633,7 +20740,7 @@
         <v>-24.2</v>
       </c>
       <c r="G37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H37">
         <v>-26.2</v>
@@ -19779,7 +20886,7 @@
         <v>-25</v>
       </c>
       <c r="G38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H38">
         <v>-24</v>
@@ -19925,7 +21032,7 @@
         <v>-24</v>
       </c>
       <c r="G39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H39">
         <v>-30.9</v>
@@ -20071,7 +21178,7 @@
         <v>-23.3</v>
       </c>
       <c r="G40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H40">
         <v>-30.6</v>
@@ -20217,7 +21324,7 @@
         <v>-20.3</v>
       </c>
       <c r="G41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H41">
         <v>-33.5</v>
@@ -20363,7 +21470,7 @@
         <v>-20.6</v>
       </c>
       <c r="G42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H42">
         <v>-32.200000000000003</v>
@@ -20509,7 +21616,7 @@
         <v>-25.1</v>
       </c>
       <c r="G43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H43">
         <v>-30.1</v>
@@ -20655,7 +21762,7 @@
         <v>-24.7</v>
       </c>
       <c r="G44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H44">
         <v>-28.4</v>
@@ -20801,7 +21908,7 @@
         <v>-25.3</v>
       </c>
       <c r="G45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H45">
         <v>-24.3</v>
@@ -20947,7 +22054,7 @@
         <v>-23.1</v>
       </c>
       <c r="G46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H46">
         <v>-16.100000000000001</v>
@@ -21093,7 +22200,7 @@
         <v>-20.8</v>
       </c>
       <c r="G47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H47">
         <v>-23.4</v>
@@ -21239,7 +22346,7 @@
         <v>-20.2</v>
       </c>
       <c r="G48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H48">
         <v>-31.5</v>
@@ -21385,7 +22492,7 @@
         <v>-19.899999999999999</v>
       </c>
       <c r="G49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H49">
         <v>-27.5</v>
@@ -21531,7 +22638,7 @@
         <v>-20.9</v>
       </c>
       <c r="G50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H50">
         <v>-25.7</v>
@@ -21677,7 +22784,7 @@
         <v>-18</v>
       </c>
       <c r="G51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H51">
         <v>-11.9</v>
@@ -21823,7 +22930,7 @@
         <v>-20.399999999999999</v>
       </c>
       <c r="G52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H52">
         <v>-12.5</v>
@@ -21969,7 +23076,7 @@
         <v>-19.2</v>
       </c>
       <c r="G53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H53">
         <v>-3.4</v>
@@ -22115,7 +23222,7 @@
         <v>-17.8</v>
       </c>
       <c r="G54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H54">
         <v>-11.7</v>
@@ -22127,7 +23234,7 @@
         <v>-7.1</v>
       </c>
       <c r="K54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L54">
         <v>-14.5</v>
@@ -22261,7 +23368,7 @@
         <v>-16.8</v>
       </c>
       <c r="G55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H55">
         <v>-4.5999999999999996</v>
@@ -22273,7 +23380,7 @@
         <v>-7.9</v>
       </c>
       <c r="K55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L55">
         <v>-15.2</v>
@@ -22391,40 +23498,1168 @@
       <c r="A56" s="16">
         <v>45703</v>
       </c>
+      <c r="B56">
+        <v>-22.7</v>
+      </c>
+      <c r="C56">
+        <v>-5.8</v>
+      </c>
+      <c r="D56">
+        <v>-16.2</v>
+      </c>
+      <c r="E56">
+        <v>-18.5</v>
+      </c>
+      <c r="F56">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="G56" t="s">
+        <v>245</v>
+      </c>
+      <c r="H56">
+        <v>-7.9</v>
+      </c>
+      <c r="I56">
+        <v>-6.8</v>
+      </c>
+      <c r="J56">
+        <v>-7.7</v>
+      </c>
+      <c r="K56">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="L56">
+        <v>-12.3</v>
+      </c>
+      <c r="M56">
+        <v>-8.9</v>
+      </c>
+      <c r="N56">
+        <v>-13.7</v>
+      </c>
+      <c r="O56">
+        <v>-11.9</v>
+      </c>
+      <c r="P56">
+        <v>-3</v>
+      </c>
+      <c r="Q56">
+        <v>-9.4</v>
+      </c>
+      <c r="R56">
+        <v>-12.6</v>
+      </c>
+      <c r="S56">
+        <v>-14.3</v>
+      </c>
+      <c r="T56">
+        <v>-10.5</v>
+      </c>
+      <c r="U56">
+        <v>-16.5</v>
+      </c>
+      <c r="V56">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="W56">
+        <v>-17.3</v>
+      </c>
+      <c r="X56">
+        <v>-12.3</v>
+      </c>
+      <c r="Y56">
+        <v>-5.3</v>
+      </c>
+      <c r="Z56">
+        <v>-7.5</v>
+      </c>
+      <c r="AA56">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="AB56">
+        <v>-6.1</v>
+      </c>
+      <c r="AC56">
+        <v>-5.9</v>
+      </c>
+      <c r="AD56">
+        <v>-3.4</v>
+      </c>
+      <c r="AE56">
+        <v>-21.5</v>
+      </c>
+      <c r="AF56">
+        <v>3.8</v>
+      </c>
+      <c r="AG56">
+        <v>0.5</v>
+      </c>
+      <c r="AH56">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AI56">
+        <v>2.5</v>
+      </c>
+      <c r="AJ56">
+        <v>6.2</v>
+      </c>
+      <c r="AK56">
+        <v>6.8</v>
+      </c>
+      <c r="AL56">
+        <v>2.8</v>
+      </c>
+      <c r="AM56">
+        <v>-9.6</v>
+      </c>
+      <c r="AN56">
+        <v>-12.1</v>
+      </c>
+      <c r="AO56">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="AP56">
+        <v>-7.4</v>
+      </c>
+      <c r="AQ56">
+        <v>-2.5</v>
+      </c>
+      <c r="AR56">
+        <v>-7.1</v>
+      </c>
+      <c r="AS56">
+        <v>-1.9</v>
+      </c>
+      <c r="AT56">
+        <v>-1</v>
+      </c>
+      <c r="AU56">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="AV56">
+        <v>-11.9</v>
+      </c>
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>45704</v>
       </c>
+      <c r="B57">
+        <v>-24.4</v>
+      </c>
+      <c r="C57">
+        <v>-15.1</v>
+      </c>
+      <c r="D57">
+        <v>-19.3</v>
+      </c>
+      <c r="E57">
+        <v>-16</v>
+      </c>
+      <c r="F57">
+        <v>-20.3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>245</v>
+      </c>
+      <c r="H57">
+        <v>-13.9</v>
+      </c>
+      <c r="I57">
+        <v>-11.1</v>
+      </c>
+      <c r="J57">
+        <v>-11.6</v>
+      </c>
+      <c r="K57" t="s">
+        <v>245</v>
+      </c>
+      <c r="L57">
+        <v>-13.2</v>
+      </c>
+      <c r="M57">
+        <v>-9.5</v>
+      </c>
+      <c r="N57">
+        <v>-14.9</v>
+      </c>
+      <c r="O57">
+        <v>-13.7</v>
+      </c>
+      <c r="P57">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="Q57">
+        <v>-13.2</v>
+      </c>
+      <c r="R57">
+        <v>-20.2</v>
+      </c>
+      <c r="S57">
+        <v>-17.5</v>
+      </c>
+      <c r="T57">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="U57">
+        <v>-18.5</v>
+      </c>
+      <c r="V57">
+        <v>-17.3</v>
+      </c>
+      <c r="W57">
+        <v>-13.2</v>
+      </c>
+      <c r="X57">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>-9.9</v>
+      </c>
+      <c r="Z57">
+        <v>-10.6</v>
+      </c>
+      <c r="AA57">
+        <v>-7.3</v>
+      </c>
+      <c r="AB57">
+        <v>-14</v>
+      </c>
+      <c r="AC57">
+        <v>-1</v>
+      </c>
+      <c r="AD57">
+        <v>-7</v>
+      </c>
+      <c r="AE57">
+        <v>-19.5</v>
+      </c>
+      <c r="AF57">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG57">
+        <v>3.3</v>
+      </c>
+      <c r="AH57">
+        <v>-6.6</v>
+      </c>
+      <c r="AI57">
+        <v>-5.9</v>
+      </c>
+      <c r="AJ57">
+        <v>0.5</v>
+      </c>
+      <c r="AK57">
+        <v>-1.9</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>-11.8</v>
+      </c>
+      <c r="AN57">
+        <v>-10.4</v>
+      </c>
+      <c r="AO57">
+        <v>-13.4</v>
+      </c>
+      <c r="AP57">
+        <v>-9.4</v>
+      </c>
+      <c r="AQ57">
+        <v>-5.7</v>
+      </c>
+      <c r="AR57">
+        <v>-5.4</v>
+      </c>
+      <c r="AS57">
+        <v>-1.4</v>
+      </c>
+      <c r="AT57">
+        <v>-4</v>
+      </c>
+      <c r="AU57">
+        <v>-8.4</v>
+      </c>
+      <c r="AV57">
+        <v>-12.4</v>
+      </c>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>45705</v>
       </c>
+      <c r="B58">
+        <v>-22.3</v>
+      </c>
+      <c r="C58">
+        <v>-16.2</v>
+      </c>
+      <c r="D58">
+        <v>-18.7</v>
+      </c>
+      <c r="E58">
+        <v>-17.7</v>
+      </c>
+      <c r="F58">
+        <v>-18.7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>245</v>
+      </c>
+      <c r="H58">
+        <v>-20.2</v>
+      </c>
+      <c r="I58">
+        <v>-16.5</v>
+      </c>
+      <c r="J58">
+        <v>-12.7</v>
+      </c>
+      <c r="K58" t="s">
+        <v>245</v>
+      </c>
+      <c r="L58">
+        <v>-12.8</v>
+      </c>
+      <c r="M58">
+        <v>-8.4</v>
+      </c>
+      <c r="N58">
+        <v>-12.2</v>
+      </c>
+      <c r="O58">
+        <v>-13.5</v>
+      </c>
+      <c r="P58">
+        <v>-12.2</v>
+      </c>
+      <c r="Q58">
+        <v>-14.2</v>
+      </c>
+      <c r="R58">
+        <v>-17.8</v>
+      </c>
+      <c r="S58">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="T58">
+        <v>-14.4</v>
+      </c>
+      <c r="U58">
+        <v>-15.8</v>
+      </c>
+      <c r="V58">
+        <v>-18.2</v>
+      </c>
+      <c r="W58">
+        <v>-9.5</v>
+      </c>
+      <c r="X58">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="Y58">
+        <v>-8.1</v>
+      </c>
+      <c r="Z58">
+        <v>-10.6</v>
+      </c>
+      <c r="AA58">
+        <v>-12.7</v>
+      </c>
+      <c r="AB58">
+        <v>-15.3</v>
+      </c>
+      <c r="AC58">
+        <v>-5.9</v>
+      </c>
+      <c r="AD58">
+        <v>-1</v>
+      </c>
+      <c r="AE58">
+        <v>-15.5</v>
+      </c>
+      <c r="AF58">
+        <v>3.4</v>
+      </c>
+      <c r="AG58">
+        <v>3.6</v>
+      </c>
+      <c r="AH58">
+        <v>-4.2</v>
+      </c>
+      <c r="AI58">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AJ58">
+        <v>-5.3</v>
+      </c>
+      <c r="AK58">
+        <v>-4</v>
+      </c>
+      <c r="AL58">
+        <v>4.3</v>
+      </c>
+      <c r="AM58">
+        <v>-13.6</v>
+      </c>
+      <c r="AN58">
+        <v>-10.7</v>
+      </c>
+      <c r="AO58">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="AP58">
+        <v>-8.1</v>
+      </c>
+      <c r="AQ58">
+        <v>-5.4</v>
+      </c>
+      <c r="AR58">
+        <v>-2.4</v>
+      </c>
+      <c r="AS58">
+        <v>-4.5</v>
+      </c>
+      <c r="AT58">
+        <v>-2.4</v>
+      </c>
+      <c r="AU58">
+        <v>-12.5</v>
+      </c>
+      <c r="AV58">
+        <v>-15.8</v>
+      </c>
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>45706</v>
       </c>
+      <c r="B59">
+        <v>-22.4</v>
+      </c>
+      <c r="C59">
+        <v>-14.2</v>
+      </c>
+      <c r="D59">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="E59">
+        <v>-19</v>
+      </c>
+      <c r="F59">
+        <v>-19</v>
+      </c>
+      <c r="G59" t="s">
+        <v>245</v>
+      </c>
+      <c r="H59">
+        <v>-20.6</v>
+      </c>
+      <c r="I59">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="J59">
+        <v>-13</v>
+      </c>
+      <c r="K59">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="L59">
+        <v>-10.4</v>
+      </c>
+      <c r="M59">
+        <v>-8.5</v>
+      </c>
+      <c r="N59">
+        <v>-10.6</v>
+      </c>
+      <c r="O59">
+        <v>-10.1</v>
+      </c>
+      <c r="P59">
+        <v>-11.6</v>
+      </c>
+      <c r="Q59">
+        <v>-13.7</v>
+      </c>
+      <c r="R59">
+        <v>-18.5</v>
+      </c>
+      <c r="S59">
+        <v>-15.9</v>
+      </c>
+      <c r="T59">
+        <v>-16</v>
+      </c>
+      <c r="U59">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="V59">
+        <v>-20.2</v>
+      </c>
+      <c r="W59">
+        <v>-11.7</v>
+      </c>
+      <c r="X59">
+        <v>-18.5</v>
+      </c>
+      <c r="Y59">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="Z59">
+        <v>-10.4</v>
+      </c>
+      <c r="AA59">
+        <v>-11.5</v>
+      </c>
+      <c r="AB59">
+        <v>-17.7</v>
+      </c>
+      <c r="AC59">
+        <v>-7</v>
+      </c>
+      <c r="AD59">
+        <v>-3.8</v>
+      </c>
+      <c r="AE59">
+        <v>-15.8</v>
+      </c>
+      <c r="AF59">
+        <v>3</v>
+      </c>
+      <c r="AG59">
+        <v>-0.1</v>
+      </c>
+      <c r="AH59">
+        <v>-9.5</v>
+      </c>
+      <c r="AI59">
+        <v>-9.1</v>
+      </c>
+      <c r="AJ59">
+        <v>-6.8</v>
+      </c>
+      <c r="AK59">
+        <v>-6.2</v>
+      </c>
+      <c r="AL59">
+        <v>1.3</v>
+      </c>
+      <c r="AM59">
+        <v>-12.1</v>
+      </c>
+      <c r="AN59">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="AO59">
+        <v>-16.5</v>
+      </c>
+      <c r="AP59">
+        <v>-5.2</v>
+      </c>
+      <c r="AQ59">
+        <v>-5.3</v>
+      </c>
+      <c r="AR59">
+        <v>-6.5</v>
+      </c>
+      <c r="AS59">
+        <v>-1.8</v>
+      </c>
+      <c r="AT59">
+        <v>-2.8</v>
+      </c>
+      <c r="AU59">
+        <v>-10.5</v>
+      </c>
+      <c r="AV59">
+        <v>-16.899999999999999</v>
+      </c>
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>45707</v>
       </c>
+      <c r="B60">
+        <v>-23.1</v>
+      </c>
+      <c r="C60">
+        <v>-17.2</v>
+      </c>
+      <c r="D60">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="E60">
+        <v>-18.3</v>
+      </c>
+      <c r="F60">
+        <v>-19.8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>245</v>
+      </c>
+      <c r="H60">
+        <v>-15.4</v>
+      </c>
+      <c r="I60">
+        <v>-17.7</v>
+      </c>
+      <c r="J60">
+        <v>-12.5</v>
+      </c>
+      <c r="K60" t="s">
+        <v>245</v>
+      </c>
+      <c r="L60">
+        <v>-11.3</v>
+      </c>
+      <c r="M60">
+        <v>-10.3</v>
+      </c>
+      <c r="N60">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="O60">
+        <v>-10.5</v>
+      </c>
+      <c r="P60">
+        <v>-10</v>
+      </c>
+      <c r="Q60">
+        <v>-15.2</v>
+      </c>
+      <c r="R60">
+        <v>-20.2</v>
+      </c>
+      <c r="S60">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="T60">
+        <v>-17.3</v>
+      </c>
+      <c r="U60">
+        <v>-17.3</v>
+      </c>
+      <c r="V60">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="W60">
+        <v>-13.6</v>
+      </c>
+      <c r="X60">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="Y60">
+        <v>-9.9</v>
+      </c>
+      <c r="Z60">
+        <v>-10.5</v>
+      </c>
+      <c r="AA60">
+        <v>-11.3</v>
+      </c>
+      <c r="AB60">
+        <v>-17.3</v>
+      </c>
+      <c r="AC60">
+        <v>-3.9</v>
+      </c>
+      <c r="AD60">
+        <v>-6.8</v>
+      </c>
+      <c r="AE60">
+        <v>-15.7</v>
+      </c>
+      <c r="AF60">
+        <v>-0.6</v>
+      </c>
+      <c r="AG60">
+        <v>0.4</v>
+      </c>
+      <c r="AH60">
+        <v>-8.4</v>
+      </c>
+      <c r="AI60">
+        <v>-8.9</v>
+      </c>
+      <c r="AJ60">
+        <v>-5.2</v>
+      </c>
+      <c r="AK60">
+        <v>-5.4</v>
+      </c>
+      <c r="AL60">
+        <v>-1.9</v>
+      </c>
+      <c r="AM60">
+        <v>-12.5</v>
+      </c>
+      <c r="AN60">
+        <v>-10.3</v>
+      </c>
+      <c r="AO60">
+        <v>-17.3</v>
+      </c>
+      <c r="AP60">
+        <v>-6.2</v>
+      </c>
+      <c r="AQ60">
+        <v>-5</v>
+      </c>
+      <c r="AR60">
+        <v>-4</v>
+      </c>
+      <c r="AS60">
+        <v>-3.2</v>
+      </c>
+      <c r="AT60">
+        <v>-0.8</v>
+      </c>
+      <c r="AU60">
+        <v>-10.8</v>
+      </c>
+      <c r="AV60">
+        <v>-17.600000000000001</v>
+      </c>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
         <v>45708</v>
       </c>
+      <c r="B61">
+        <v>-21.9</v>
+      </c>
+      <c r="C61">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="D61">
+        <v>-20.2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>245</v>
+      </c>
+      <c r="F61" t="s">
+        <v>245</v>
+      </c>
+      <c r="G61" t="s">
+        <v>245</v>
+      </c>
+      <c r="H61">
+        <v>-22.9</v>
+      </c>
+      <c r="I61">
+        <v>-18</v>
+      </c>
+      <c r="J61">
+        <v>-11.5</v>
+      </c>
+      <c r="K61" t="s">
+        <v>245</v>
+      </c>
+      <c r="L61">
+        <v>-12.1</v>
+      </c>
+      <c r="M61">
+        <v>-11.3</v>
+      </c>
+      <c r="N61">
+        <v>-11.8</v>
+      </c>
+      <c r="O61">
+        <v>-10.6</v>
+      </c>
+      <c r="P61">
+        <v>-11.7</v>
+      </c>
+      <c r="Q61">
+        <v>-15.1</v>
+      </c>
+      <c r="R61">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="S61">
+        <v>-17.2</v>
+      </c>
+      <c r="T61">
+        <v>-17.2</v>
+      </c>
+      <c r="U61">
+        <v>-17.7</v>
+      </c>
+      <c r="V61">
+        <v>-18.3</v>
+      </c>
+      <c r="W61">
+        <v>-14.3</v>
+      </c>
+      <c r="X61">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="Y61">
+        <v>-14.9</v>
+      </c>
+      <c r="Z61">
+        <v>-10.6</v>
+      </c>
+      <c r="AA61">
+        <v>-11.3</v>
+      </c>
+      <c r="AB61">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AC61">
+        <v>-0.2</v>
+      </c>
+      <c r="AD61">
+        <v>-5.9</v>
+      </c>
+      <c r="AE61">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="AF61">
+        <v>-1.3</v>
+      </c>
+      <c r="AG61">
+        <v>3.2</v>
+      </c>
+      <c r="AH61">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="AI61">
+        <v>-9.1</v>
+      </c>
+      <c r="AJ61">
+        <v>-5.6</v>
+      </c>
+      <c r="AK61">
+        <v>-4.3</v>
+      </c>
+      <c r="AL61">
+        <v>-1.7</v>
+      </c>
+      <c r="AM61">
+        <v>-14.2</v>
+      </c>
+      <c r="AN61">
+        <v>-12</v>
+      </c>
+      <c r="AO61">
+        <v>-16.8</v>
+      </c>
+      <c r="AP61">
+        <v>-3.9</v>
+      </c>
+      <c r="AQ61">
+        <v>-1.6</v>
+      </c>
+      <c r="AR61">
+        <v>0.3</v>
+      </c>
+      <c r="AS61">
+        <v>-1.8</v>
+      </c>
+      <c r="AT61">
+        <v>-1.3</v>
+      </c>
+      <c r="AU61">
+        <v>-10.6</v>
+      </c>
+      <c r="AV61">
+        <v>-17.2</v>
+      </c>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
         <v>45709</v>
       </c>
+      <c r="B62">
+        <v>-22</v>
+      </c>
+      <c r="C62">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="D62">
+        <v>-20</v>
+      </c>
+      <c r="E62">
+        <v>-21.2</v>
+      </c>
+      <c r="F62">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="G62" t="s">
+        <v>245</v>
+      </c>
+      <c r="H62">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="I62">
+        <v>-17.7</v>
+      </c>
+      <c r="J62">
+        <v>-11.9</v>
+      </c>
+      <c r="K62" t="s">
+        <v>245</v>
+      </c>
+      <c r="L62">
+        <v>-10.5</v>
+      </c>
+      <c r="M62">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="N62">
+        <v>-10.8</v>
+      </c>
+      <c r="O62">
+        <v>-10.5</v>
+      </c>
+      <c r="P62">
+        <v>-11.5</v>
+      </c>
+      <c r="Q62">
+        <v>-15.2</v>
+      </c>
+      <c r="R62">
+        <v>-21.5</v>
+      </c>
+      <c r="S62">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="T62">
+        <v>-18.5</v>
+      </c>
+      <c r="U62">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="V62">
+        <v>-21.7</v>
+      </c>
+      <c r="W62">
+        <v>-15.7</v>
+      </c>
+      <c r="X62">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="Y62">
+        <v>-11.6</v>
+      </c>
+      <c r="Z62">
+        <v>-11.6</v>
+      </c>
+      <c r="AA62">
+        <v>-11.8</v>
+      </c>
+      <c r="AB62">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AC62">
+        <v>-8.5</v>
+      </c>
+      <c r="AD62">
+        <v>-2.8</v>
+      </c>
+      <c r="AE62">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="AF62">
+        <v>-4.3</v>
+      </c>
+      <c r="AG62">
+        <v>-1.5</v>
+      </c>
+      <c r="AH62">
+        <v>-12.5</v>
+      </c>
+      <c r="AI62">
+        <v>-9.5</v>
+      </c>
+      <c r="AJ62">
+        <v>-5.9</v>
+      </c>
+      <c r="AK62">
+        <v>-5.6</v>
+      </c>
+      <c r="AL62">
+        <v>-3.5</v>
+      </c>
+      <c r="AM62">
+        <v>-13.5</v>
+      </c>
+      <c r="AN62">
+        <v>-12.5</v>
+      </c>
+      <c r="AO62">
+        <v>-17</v>
+      </c>
+      <c r="AP62">
+        <v>-1.7</v>
+      </c>
+      <c r="AQ62">
+        <v>-3.5</v>
+      </c>
+      <c r="AR62">
+        <v>-1.6</v>
+      </c>
+      <c r="AS62">
+        <v>-5.3</v>
+      </c>
+      <c r="AT62">
+        <v>-1</v>
+      </c>
+      <c r="AU62">
+        <v>-11.7</v>
+      </c>
+      <c r="AV62">
+        <v>-18.2</v>
+      </c>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A63" s="16">
         <v>45710</v>
+      </c>
+      <c r="B63">
+        <v>-23.7</v>
+      </c>
+      <c r="C63">
+        <v>-17.8</v>
+      </c>
+      <c r="D63">
+        <v>-18.3</v>
+      </c>
+      <c r="E63">
+        <v>-22.1</v>
+      </c>
+      <c r="F63">
+        <v>-22.5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>245</v>
+      </c>
+      <c r="H63">
+        <v>-15.4</v>
+      </c>
+      <c r="I63">
+        <v>-16.7</v>
+      </c>
+      <c r="J63">
+        <v>-3.2</v>
+      </c>
+      <c r="K63" t="s">
+        <v>245</v>
+      </c>
+      <c r="L63">
+        <v>-8.5</v>
+      </c>
+      <c r="M63">
+        <v>-4.7</v>
+      </c>
+      <c r="N63">
+        <v>-10.5</v>
+      </c>
+      <c r="O63">
+        <v>-10</v>
+      </c>
+      <c r="P63">
+        <v>-12.4</v>
+      </c>
+      <c r="Q63">
+        <v>-15.9</v>
+      </c>
+      <c r="R63">
+        <v>-22.1</v>
+      </c>
+      <c r="S63">
+        <v>-19.2</v>
+      </c>
+      <c r="T63">
+        <v>-18</v>
+      </c>
+      <c r="U63">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="V63">
+        <v>-21.8</v>
+      </c>
+      <c r="W63">
+        <v>-15.8</v>
+      </c>
+      <c r="X63">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="Y63">
+        <v>-10</v>
+      </c>
+      <c r="Z63">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AA63">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="AB63">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="AC63">
+        <v>2.7</v>
+      </c>
+      <c r="AD63">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AE63">
+        <v>-13.4</v>
+      </c>
+      <c r="AF63">
+        <v>-4.8</v>
+      </c>
+      <c r="AG63">
+        <v>-3.8</v>
+      </c>
+      <c r="AH63">
+        <v>-11.2</v>
+      </c>
+      <c r="AI63">
+        <v>-8.6</v>
+      </c>
+      <c r="AJ63">
+        <v>-6.1</v>
+      </c>
+      <c r="AK63">
+        <v>-4.2</v>
+      </c>
+      <c r="AL63">
+        <v>-5.8</v>
+      </c>
+      <c r="AM63">
+        <v>-12.1</v>
+      </c>
+      <c r="AN63">
+        <v>-6.9</v>
+      </c>
+      <c r="AO63">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="AP63">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="AQ63">
+        <v>-3.6</v>
+      </c>
+      <c r="AR63">
+        <v>-0.1</v>
+      </c>
+      <c r="AS63">
+        <v>-3.8</v>
+      </c>
+      <c r="AT63">
+        <v>1.6</v>
+      </c>
+      <c r="AU63">
+        <v>-10.1</v>
+      </c>
+      <c r="AV63">
+        <v>-17.3</v>
       </c>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.4">

--- a/气象/冷站PK每日记录.xlsx
+++ b/气象/冷站PK每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2917491D-B2FB-4070-831A-47B01EF2609F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5962FE11-ABAF-436B-9060-AA12F2D2D502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{ECFF787E-807D-4BE3-A541-0E06AE4591BB}"/>
   </bookViews>
@@ -17,6 +17,8 @@
     <sheet name="今日汇总" sheetId="6" r:id="rId2"/>
     <sheet name="低温存档" sheetId="3" r:id="rId3"/>
     <sheet name="高温存档" sheetId="4" r:id="rId4"/>
+    <sheet name="蒙古补充" sheetId="7" r:id="rId5"/>
+    <sheet name="冷站气温距平简单统计" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="302">
   <si>
     <t>地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1638,7 +1640,241 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>图尔根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌布苏湖盆地图尔根山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎布汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉尔吉斯湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马勒钦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西图伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎布汗曼达勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙古冷站补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴彦湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讷木勒格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台勒门湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">蒙古
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>科布多省</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其其格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎尔嘎朗特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">蒙古
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>巴彦洪格尔省</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达布斯特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌布苏湖盆地唐努乌拉山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨吉勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台勒门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑特马尔噶茨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌尔嘎马勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图德夫泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂依贡湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乌拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴彦海尔汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊德尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔泰山
+花湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔泰山
+哈儿乌苏湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额尔德尼布伦
+(哈儿乌苏)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德尔根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3小时
+高低温？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶松臣格勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车臣乌拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴彦特斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁钦隆勃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图里河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴音布鲁克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切昆达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡丘格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克孜勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科什阿加奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌兰巴托</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91-20二均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏暖+/偏冷-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025二均↓↓↓↓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1649,7 +1885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2109,6 +2345,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2148,7 +2393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2282,13 +2527,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2463,6 +2743,9 @@
     <xf numFmtId="176" fontId="51" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2487,24 +2770,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="18" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="18" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF4361EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF4361EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF4361EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF4361EE"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF4361EE"/>
+      <color rgb="FF69140E"/>
       <color rgb="FF3A0CA3"/>
       <color rgb="FFBF3100"/>
       <color rgb="FFEC9F05"/>
       <color rgb="FF8EA604"/>
       <color rgb="FF3C1518"/>
-      <color rgb="FF69140E"/>
       <color rgb="FFA44200"/>
       <color rgb="FFF72585"/>
       <color rgb="FF4CC9F0"/>
-      <color rgb="FF4361EE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2888,10 +3302,10 @@
         <v>42</v>
       </c>
       <c r="G2" s="4">
-        <v>-37.9</v>
+        <v>-32.299999999999997</v>
       </c>
       <c r="H2" s="4">
-        <v>-23.7</v>
+        <v>-18.3</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>114</v>
@@ -2910,145 +3324,145 @@
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2:BH2">TRANSPOSE(G2:G48)</f>
-        <v>-37.9</v>
+        <v>-32.299999999999997</v>
       </c>
       <c r="O2">
-        <v>-34</v>
+        <v>-21.9</v>
       </c>
       <c r="P2">
-        <v>-40</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="Q2">
-        <v>-41.3</v>
+        <v>-31.5</v>
       </c>
       <c r="R2">
-        <v>-39.200000000000003</v>
-      </c>
-      <c r="S2" t="str">
-        <v>无</v>
+        <v>-31</v>
+      </c>
+      <c r="S2">
+        <v>-24</v>
       </c>
       <c r="T2">
-        <v>-33.9</v>
+        <v>-23.1</v>
       </c>
       <c r="U2">
-        <v>-32.799999999999997</v>
+        <v>-21.2</v>
       </c>
       <c r="V2">
-        <v>-20.100000000000001</v>
+        <v>-23.2</v>
       </c>
       <c r="W2">
-        <v>-30.8</v>
+        <v>-25.1</v>
       </c>
       <c r="X2">
-        <v>-29</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="Y2">
-        <v>-30.5</v>
+        <v>-32</v>
       </c>
       <c r="Z2">
-        <v>-31</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="AA2">
-        <v>-29.8</v>
+        <v>-29.2</v>
       </c>
       <c r="AB2">
-        <v>-28.7</v>
+        <v>-17.5</v>
       </c>
       <c r="AC2">
-        <v>-31.1</v>
+        <v>-22</v>
       </c>
       <c r="AD2">
-        <v>-37.9</v>
+        <v>-22.7</v>
       </c>
       <c r="AE2">
-        <v>-34</v>
+        <v>-28</v>
       </c>
       <c r="AF2">
-        <v>-32.9</v>
+        <v>-26.8</v>
       </c>
       <c r="AG2">
-        <v>-27.7</v>
+        <v>-26.5</v>
       </c>
       <c r="AH2">
-        <v>-38.4</v>
+        <v>-29.9</v>
       </c>
       <c r="AI2">
-        <v>-40.1</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="AJ2">
-        <v>-35.4</v>
+        <v>-30.7</v>
       </c>
       <c r="AK2">
-        <v>-24.3</v>
+        <v>-15.5</v>
       </c>
       <c r="AL2">
-        <v>-33.6</v>
+        <v>-30.1</v>
       </c>
       <c r="AM2">
-        <v>-35.5</v>
+        <v>-28.2</v>
       </c>
       <c r="AN2">
-        <v>-32</v>
+        <v>-19.2</v>
       </c>
       <c r="AO2">
-        <v>-15.6</v>
+        <v>-10.5</v>
       </c>
       <c r="AP2">
-        <v>-11.5</v>
+        <v>-5.2</v>
       </c>
       <c r="AQ2">
-        <v>-26.1</v>
+        <v>-21</v>
       </c>
       <c r="AR2">
-        <v>-16.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AS2">
-        <v>-16.600000000000001</v>
+        <v>-12</v>
       </c>
       <c r="AT2">
-        <v>-25.7</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="AU2">
-        <v>-20.9</v>
+        <v>-6.7</v>
       </c>
       <c r="AV2">
-        <v>-23</v>
+        <v>-4.5</v>
       </c>
       <c r="AW2">
-        <v>-24.9</v>
+        <v>-5.8</v>
       </c>
       <c r="AX2">
-        <v>-23.3</v>
+        <v>-7.8</v>
       </c>
       <c r="AY2">
-        <v>-32.799999999999997</v>
+        <v>-16.3</v>
       </c>
       <c r="AZ2">
-        <v>-27</v>
+        <v>-26.2</v>
       </c>
       <c r="BA2">
-        <v>-32.799999999999997</v>
+        <v>-14.2</v>
       </c>
       <c r="BB2">
-        <v>-23.7</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="BC2">
-        <v>-16.100000000000001</v>
+        <v>-10.3</v>
       </c>
       <c r="BD2">
-        <v>-20.3</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="BE2">
-        <v>-19.100000000000001</v>
+        <v>-10.5</v>
       </c>
       <c r="BF2">
-        <v>-11.1</v>
+        <v>-13.2</v>
       </c>
       <c r="BG2">
-        <v>-32.799999999999997</v>
+        <v>-22.5</v>
       </c>
       <c r="BH2">
-        <v>-33</v>
+        <v>-27.4</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.4">
@@ -3069,10 +3483,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>-34</v>
+        <v>-21.9</v>
       </c>
       <c r="H3" s="4">
-        <v>-17.8</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>38</v>
@@ -3091,145 +3505,145 @@
       </c>
       <c r="N3" cm="1">
         <f t="array" ref="N3:BH3">TRANSPOSE(H2:H48)</f>
-        <v>-23.7</v>
+        <v>-18.3</v>
       </c>
       <c r="O3">
-        <v>-17.8</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="P3">
-        <v>-18.3</v>
+        <v>-14.8</v>
       </c>
       <c r="Q3">
-        <v>-22.1</v>
+        <v>-11.6</v>
       </c>
       <c r="R3">
-        <v>-22.5</v>
-      </c>
-      <c r="S3" t="str">
-        <v>无</v>
+        <v>-15.8</v>
+      </c>
+      <c r="S3">
+        <v>-11.7</v>
       </c>
       <c r="T3">
-        <v>-15.4</v>
+        <v>-5.7</v>
       </c>
       <c r="U3">
-        <v>-16.7</v>
+        <v>-1.9</v>
       </c>
       <c r="V3">
-        <v>-3.2</v>
+        <v>-4.8</v>
       </c>
       <c r="W3" t="str">
         <v>无</v>
       </c>
       <c r="X3">
+        <v>-10.4</v>
+      </c>
+      <c r="Y3">
+        <v>-8.9</v>
+      </c>
+      <c r="Z3">
+        <v>-11.5</v>
+      </c>
+      <c r="AA3">
         <v>-8.5</v>
       </c>
-      <c r="Y3">
-        <v>-4.7</v>
-      </c>
-      <c r="Z3">
-        <v>-10.5</v>
-      </c>
-      <c r="AA3">
-        <v>-10</v>
-      </c>
       <c r="AB3">
-        <v>-12.4</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-15.9</v>
+        <v>-7.4</v>
       </c>
       <c r="AD3">
-        <v>-22.1</v>
+        <v>-11.1</v>
       </c>
       <c r="AE3">
-        <v>-19.2</v>
+        <v>-15.3</v>
       </c>
       <c r="AF3">
-        <v>-18</v>
+        <v>-12.2</v>
       </c>
       <c r="AG3">
-        <v>-18.399999999999999</v>
+        <v>-15</v>
       </c>
       <c r="AH3">
-        <v>-21.8</v>
+        <v>-10.6</v>
       </c>
       <c r="AI3">
-        <v>-15.8</v>
+        <v>-6</v>
       </c>
       <c r="AJ3">
-        <v>-20.399999999999999</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="AK3">
-        <v>-10</v>
+        <v>-1.3</v>
       </c>
       <c r="AL3">
-        <v>-5.0999999999999996</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="AM3">
-        <v>-10.199999999999999</v>
+        <v>-4</v>
       </c>
       <c r="AN3">
-        <v>-18.100000000000001</v>
+        <v>-7.8</v>
       </c>
       <c r="AO3">
-        <v>2.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AP3">
-        <v>-9.1999999999999993</v>
+        <v>1.3</v>
       </c>
       <c r="AQ3">
-        <v>-13.4</v>
+        <v>-9.6</v>
       </c>
       <c r="AR3">
+        <v>3.4</v>
+      </c>
+      <c r="AS3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AT3">
+        <v>-0.8</v>
+      </c>
+      <c r="AU3">
+        <v>1.9</v>
+      </c>
+      <c r="AV3">
+        <v>2.6</v>
+      </c>
+      <c r="AW3">
+        <v>5.3</v>
+      </c>
+      <c r="AX3">
+        <v>2.8</v>
+      </c>
+      <c r="AY3">
+        <v>-6.1</v>
+      </c>
+      <c r="AZ3">
+        <v>-7.1</v>
+      </c>
+      <c r="BA3">
         <v>-4.8</v>
       </c>
-      <c r="AS3">
-        <v>-3.8</v>
-      </c>
-      <c r="AT3">
-        <v>-11.2</v>
-      </c>
-      <c r="AU3">
-        <v>-8.6</v>
-      </c>
-      <c r="AV3">
-        <v>-6.1</v>
-      </c>
-      <c r="AW3">
-        <v>-4.2</v>
-      </c>
-      <c r="AX3">
-        <v>-5.8</v>
-      </c>
-      <c r="AY3">
-        <v>-12.1</v>
-      </c>
-      <c r="AZ3">
-        <v>-6.9</v>
-      </c>
-      <c r="BA3">
-        <v>-16.399999999999999</v>
-      </c>
       <c r="BB3">
-        <v>-4.0999999999999996</v>
+        <v>1.5</v>
       </c>
       <c r="BC3">
-        <v>-3.6</v>
+        <v>2.5</v>
       </c>
       <c r="BD3">
-        <v>-0.1</v>
+        <v>-1.6</v>
       </c>
       <c r="BE3">
-        <v>-3.8</v>
+        <v>-3.3</v>
       </c>
       <c r="BF3">
-        <v>1.6</v>
+        <v>-4.8</v>
       </c>
       <c r="BG3">
-        <v>-10.1</v>
+        <v>-2.6</v>
       </c>
       <c r="BH3">
-        <v>-17.3</v>
+        <v>-9.3000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.4">
@@ -3250,10 +3664,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>-40</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H4" s="4">
-        <v>-18.3</v>
+        <v>-14.8</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>117</v>
@@ -3286,10 +3700,10 @@
         <v>110</v>
       </c>
       <c r="G5" s="4">
-        <v>-41.3</v>
+        <v>-31.5</v>
       </c>
       <c r="H5" s="4">
-        <v>-22.1</v>
+        <v>-11.6</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
@@ -3331,10 +3745,10 @@
         <v>178</v>
       </c>
       <c r="G6" s="4">
-        <v>-39.200000000000003</v>
+        <v>-31</v>
       </c>
       <c r="H6" s="4">
-        <v>-22.5</v>
+        <v>-15.8</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>115</v>
@@ -3375,11 +3789,11 @@
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>245</v>
+      <c r="G7" s="4">
+        <v>-24</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-11.7</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>113</v>
@@ -3421,10 +3835,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>-33.9</v>
+        <v>-23.1</v>
       </c>
       <c r="H8" s="4">
-        <v>-15.4</v>
+        <v>-5.7</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>120</v>
@@ -3464,10 +3878,10 @@
         <v>95</v>
       </c>
       <c r="G9" s="4">
-        <v>-32.799999999999997</v>
+        <v>-21.2</v>
       </c>
       <c r="H9" s="4">
-        <v>-16.7</v>
+        <v>-1.9</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>119</v>
@@ -3498,10 +3912,10 @@
         <v>102</v>
       </c>
       <c r="G10" s="4">
-        <v>-20.100000000000001</v>
+        <v>-23.2</v>
       </c>
       <c r="H10" s="4">
-        <v>-3.2</v>
+        <v>-4.8</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>100</v>
@@ -3532,10 +3946,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="4">
-        <v>-30.8</v>
+        <v>-25.1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>54</v>
@@ -3566,10 +3980,10 @@
         <v>87</v>
       </c>
       <c r="G12" s="4">
-        <v>-29</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="H12" s="4">
-        <v>-8.5</v>
+        <v>-10.4</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>28</v>
@@ -3600,10 +4014,10 @@
         <v>89</v>
       </c>
       <c r="G13" s="4">
-        <v>-30.5</v>
+        <v>-32</v>
       </c>
       <c r="H13" s="4">
-        <v>-4.7</v>
+        <v>-8.9</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
@@ -3634,10 +4048,10 @@
         <v>27</v>
       </c>
       <c r="G14" s="4">
-        <v>-31</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="H14" s="4">
-        <v>-10.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>28</v>
@@ -3668,10 +4082,10 @@
         <v>179</v>
       </c>
       <c r="G15" s="4">
-        <v>-29.8</v>
+        <v>-29.2</v>
       </c>
       <c r="H15" s="4">
-        <v>-10</v>
+        <v>-8.5</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
@@ -3702,10 +4116,10 @@
         <v>99</v>
       </c>
       <c r="G16" s="4">
-        <v>-28.7</v>
+        <v>-17.5</v>
       </c>
       <c r="H16" s="4">
-        <v>-12.4</v>
+        <v>-1</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>96</v>
@@ -3736,10 +4150,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="4">
-        <v>-31.1</v>
+        <v>-22</v>
       </c>
       <c r="H17" s="4">
-        <v>-15.9</v>
+        <v>-7.4</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>161</v>
@@ -3770,10 +4184,10 @@
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>-37.9</v>
+        <v>-22.7</v>
       </c>
       <c r="H18" s="4">
-        <v>-22.1</v>
+        <v>-11.1</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
@@ -3804,10 +4218,10 @@
         <v>108</v>
       </c>
       <c r="G19" s="4">
-        <v>-34</v>
+        <v>-28</v>
       </c>
       <c r="H19" s="4">
-        <v>-19.2</v>
+        <v>-15.3</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>114</v>
@@ -3838,10 +4252,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="13">
-        <v>-32.9</v>
+        <v>-26.8</v>
       </c>
       <c r="H20" s="13">
-        <v>-18</v>
+        <v>-12.2</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>113</v>
@@ -3872,10 +4286,10 @@
         <v>106</v>
       </c>
       <c r="G21" s="13">
-        <v>-27.7</v>
+        <v>-26.5</v>
       </c>
       <c r="H21" s="13">
-        <v>-18.399999999999999</v>
+        <v>-15</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>115</v>
@@ -3906,10 +4320,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="13">
-        <v>-38.4</v>
+        <v>-29.9</v>
       </c>
       <c r="H22" s="13">
-        <v>-21.8</v>
+        <v>-10.6</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>40</v>
@@ -3942,10 +4356,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="13">
-        <v>-40.1</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="H23" s="13">
-        <v>-15.8</v>
+        <v>-6</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>36</v>
@@ -3978,10 +4392,10 @@
         <v>10</v>
       </c>
       <c r="G24" s="13">
-        <v>-35.4</v>
+        <v>-30.7</v>
       </c>
       <c r="H24" s="13">
-        <v>-20.399999999999999</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>118</v>
@@ -4012,10 +4426,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="4">
-        <v>-24.3</v>
+        <v>-15.5</v>
       </c>
       <c r="H25" s="4">
-        <v>-10</v>
+        <v>-1.3</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>38</v>
@@ -4048,10 +4462,10 @@
         <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>-33.6</v>
+        <v>-30.1</v>
       </c>
       <c r="H26" s="4">
-        <v>-5.0999999999999996</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>2</v>
@@ -4082,10 +4496,10 @@
         <v>180</v>
       </c>
       <c r="G27" s="4">
-        <v>-35.5</v>
+        <v>-28.2</v>
       </c>
       <c r="H27" s="4">
-        <v>-10.199999999999999</v>
+        <v>-4</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>2</v>
@@ -4116,10 +4530,10 @@
         <v>77</v>
       </c>
       <c r="G28" s="4">
-        <v>-32</v>
+        <v>-19.2</v>
       </c>
       <c r="H28" s="4">
-        <v>-18.100000000000001</v>
+        <v>-7.8</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>75</v>
@@ -4152,10 +4566,10 @@
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <v>-15.6</v>
+        <v>-10.5</v>
       </c>
       <c r="H29" s="4">
-        <v>2.7</v>
+        <v>-1.6</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -4186,10 +4600,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>-11.5</v>
+        <v>-5.2</v>
       </c>
       <c r="H30" s="4">
-        <v>-9.1999999999999993</v>
+        <v>1.3</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>21</v>
@@ -4222,10 +4636,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="4">
-        <v>-26.1</v>
+        <v>-21</v>
       </c>
       <c r="H31" s="4">
-        <v>-13.4</v>
+        <v>-9.6</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>21</v>
@@ -4256,10 +4670,10 @@
         <v>66</v>
       </c>
       <c r="G32" s="4">
-        <v>-16.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H32" s="4">
-        <v>-4.8</v>
+        <v>3.4</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13" t="s">
@@ -4288,10 +4702,10 @@
         <v>59</v>
       </c>
       <c r="G33" s="4">
-        <v>-16.600000000000001</v>
+        <v>-12</v>
       </c>
       <c r="H33" s="4">
-        <v>-3.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="14" t="s">
@@ -4322,10 +4736,10 @@
         <v>56</v>
       </c>
       <c r="G34" s="4">
-        <v>-25.7</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="H34" s="4">
-        <v>-11.2</v>
+        <v>-0.8</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="14" t="s">
@@ -4356,10 +4770,10 @@
         <v>46</v>
       </c>
       <c r="G35" s="4">
-        <v>-20.9</v>
+        <v>-6.7</v>
       </c>
       <c r="H35" s="4">
-        <v>-8.6</v>
+        <v>1.9</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>47</v>
@@ -4392,10 +4806,10 @@
         <v>49</v>
       </c>
       <c r="G36" s="4">
-        <v>-23</v>
+        <v>-4.5</v>
       </c>
       <c r="H36" s="4">
-        <v>-6.1</v>
+        <v>2.6</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>45</v>
@@ -4428,10 +4842,10 @@
         <v>51</v>
       </c>
       <c r="G37" s="4">
-        <v>-24.9</v>
+        <v>-5.8</v>
       </c>
       <c r="H37" s="4">
-        <v>-4.2</v>
+        <v>5.3</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="14" t="s">
@@ -4462,10 +4876,10 @@
         <v>58</v>
       </c>
       <c r="G38" s="4">
-        <v>-23.3</v>
+        <v>-7.8</v>
       </c>
       <c r="H38" s="4">
-        <v>-5.8</v>
+        <v>2.8</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="14" t="s">
@@ -4496,10 +4910,10 @@
         <v>44</v>
       </c>
       <c r="G39" s="4">
-        <v>-32.799999999999997</v>
+        <v>-16.3</v>
       </c>
       <c r="H39" s="4">
-        <v>-12.1</v>
+        <v>-6.1</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>43</v>
@@ -4530,10 +4944,10 @@
         <v>74</v>
       </c>
       <c r="G40" s="4">
-        <v>-27</v>
+        <v>-26.2</v>
       </c>
       <c r="H40" s="4">
-        <v>-6.9</v>
+        <v>-7.1</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>2</v>
@@ -4564,10 +4978,10 @@
         <v>72</v>
       </c>
       <c r="G41" s="4">
-        <v>-32.799999999999997</v>
+        <v>-14.2</v>
       </c>
       <c r="H41" s="4">
-        <v>-16.399999999999999</v>
+        <v>-4.8</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>2</v>
@@ -4598,10 +5012,10 @@
         <v>62</v>
       </c>
       <c r="G42" s="4">
-        <v>-23.7</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="H42" s="4">
-        <v>-4.0999999999999996</v>
+        <v>1.5</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>65</v>
@@ -4632,10 +5046,10 @@
         <v>64</v>
       </c>
       <c r="G43" s="4">
-        <v>-16.100000000000001</v>
+        <v>-10.3</v>
       </c>
       <c r="H43" s="4">
-        <v>-3.6</v>
+        <v>2.5</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>65</v>
@@ -4666,10 +5080,10 @@
         <v>79</v>
       </c>
       <c r="G44" s="4">
-        <v>-20.3</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="H44" s="4">
-        <v>-0.1</v>
+        <v>-1.6</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>22</v>
@@ -4700,10 +5114,10 @@
         <v>81</v>
       </c>
       <c r="G45" s="4">
-        <v>-19.100000000000001</v>
+        <v>-10.5</v>
       </c>
       <c r="H45" s="4">
-        <v>-3.8</v>
+        <v>-3.3</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>21</v>
@@ -4734,10 +5148,10 @@
         <v>83</v>
       </c>
       <c r="G46" s="4">
-        <v>-11.1</v>
+        <v>-13.2</v>
       </c>
       <c r="H46" s="4">
-        <v>1.6</v>
+        <v>-4.8</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>21</v>
@@ -4770,10 +5184,10 @@
         <v>68</v>
       </c>
       <c r="G47" s="4">
-        <v>-32.799999999999997</v>
+        <v>-22.5</v>
       </c>
       <c r="H47" s="4">
-        <v>-10.1</v>
+        <v>-2.6</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>2</v>
@@ -4804,10 +5218,10 @@
         <v>70</v>
       </c>
       <c r="G48" s="4">
-        <v>-33</v>
+        <v>-27.4</v>
       </c>
       <c r="H48" s="4">
-        <v>-17.3</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>2</v>
@@ -4851,34 +5265,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="60" t="s">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="63">
-        <v>45710</v>
-      </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="61" t="s">
+      <c r="F1" s="64">
+        <v>45721</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="62"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="59" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="I2" s="59"/>
+      <c r="I2" s="60"/>
       <c r="K2" s="21" t="s">
         <v>176</v>
       </c>
@@ -4890,7 +5304,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="58"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="51" t="s">
         <v>90</v>
       </c>
@@ -4926,7 +5340,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="53">
         <v>1</v>
       </c>
@@ -4943,10 +5357,10 @@
         <v>109</v>
       </c>
       <c r="G4" s="36">
-        <v>-37.9</v>
+        <v>-32.299999999999997</v>
       </c>
       <c r="H4" s="56">
-        <v>-23.7</v>
+        <v>-18.3</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>174</v>
@@ -4962,7 +5376,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="58"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="53">
         <v>2</v>
       </c>
@@ -4977,17 +5391,17 @@
         <v>14</v>
       </c>
       <c r="G5" s="36">
-        <v>-34</v>
+        <v>-21.9</v>
       </c>
       <c r="H5" s="36">
-        <v>-17.8</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="I5" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="53">
         <v>3</v>
       </c>
@@ -5002,44 +5416,42 @@
         <v>15</v>
       </c>
       <c r="G6" s="36">
-        <v>-40</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="H6" s="36">
-        <v>-18.3</v>
+        <v>-14.8</v>
       </c>
       <c r="I6" s="34" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="58"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="53">
         <v>4</v>
       </c>
       <c r="C7" s="52">
         <v>3</v>
       </c>
-      <c r="D7" s="52">
-        <v>0</v>
-      </c>
+      <c r="D7" s="52"/>
       <c r="E7" s="32" t="s">
         <v>215</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="57">
-        <v>-41.3</v>
+      <c r="G7" s="36">
+        <v>-31.5</v>
       </c>
       <c r="H7" s="36">
-        <v>-22.1</v>
+        <v>-11.6</v>
       </c>
       <c r="I7" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="58"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="53">
         <v>5</v>
       </c>
@@ -5054,17 +5466,17 @@
         <v>183</v>
       </c>
       <c r="G8" s="36">
-        <v>-39.200000000000003</v>
+        <v>-31</v>
       </c>
       <c r="H8" s="36">
-        <v>-22.5</v>
+        <v>-15.8</v>
       </c>
       <c r="I8" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="58"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="53">
         <v>6</v>
       </c>
@@ -5078,18 +5490,18 @@
       <c r="F9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>245</v>
+      <c r="G9" s="36">
+        <v>-24</v>
+      </c>
+      <c r="H9" s="36">
+        <v>-11.7</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="58"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="53">
         <v>7</v>
       </c>
@@ -5104,17 +5516,17 @@
         <v>7</v>
       </c>
       <c r="G10" s="36">
-        <v>-33.9</v>
+        <v>-23.1</v>
       </c>
       <c r="H10" s="36">
-        <v>-15.4</v>
+        <v>-5.7</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="58"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="53">
         <v>8</v>
       </c>
@@ -5129,17 +5541,17 @@
         <v>94</v>
       </c>
       <c r="G11" s="36">
-        <v>-32.799999999999997</v>
+        <v>-21.2</v>
       </c>
       <c r="H11" s="36">
-        <v>-16.7</v>
+        <v>-1.9</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="58"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="53">
         <v>9</v>
       </c>
@@ -5154,17 +5566,17 @@
         <v>101</v>
       </c>
       <c r="G12" s="36">
-        <v>-20.100000000000001</v>
+        <v>-23.2</v>
       </c>
       <c r="H12" s="36">
-        <v>-3.2</v>
+        <v>-4.8</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="58"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="53">
         <v>10</v>
       </c>
@@ -5179,7 +5591,7 @@
         <v>135</v>
       </c>
       <c r="G13" s="57">
-        <v>-30.8</v>
+        <v>-25.1</v>
       </c>
       <c r="H13" s="36" t="s">
         <v>245</v>
@@ -5189,7 +5601,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="58"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="53">
         <v>11</v>
       </c>
@@ -5204,17 +5616,17 @@
         <v>86</v>
       </c>
       <c r="G14" s="36">
-        <v>-29</v>
+        <v>-32.200000000000003</v>
       </c>
       <c r="H14" s="36">
-        <v>-8.5</v>
+        <v>-10.4</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="58"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="53">
         <v>12</v>
       </c>
@@ -5229,42 +5641,44 @@
         <v>88</v>
       </c>
       <c r="G15" s="36">
-        <v>-30.5</v>
+        <v>-32</v>
       </c>
       <c r="H15" s="36">
-        <v>-4.7</v>
+        <v>-8.9</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="58"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="53">
         <v>13</v>
       </c>
       <c r="C16" s="52">
         <v>2</v>
       </c>
-      <c r="D16" s="52"/>
+      <c r="D16" s="52">
+        <v>0</v>
+      </c>
       <c r="E16" s="27" t="s">
         <v>222</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="36">
-        <v>-31</v>
+      <c r="G16" s="56">
+        <v>-36.799999999999997</v>
       </c>
       <c r="H16" s="36">
-        <v>-10.5</v>
+        <v>-11.5</v>
       </c>
       <c r="I16" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="58"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="53">
         <v>14</v>
       </c>
@@ -5279,17 +5693,17 @@
         <v>181</v>
       </c>
       <c r="G17" s="36">
-        <v>-29.8</v>
+        <v>-29.2</v>
       </c>
       <c r="H17" s="36">
-        <v>-10</v>
+        <v>-8.5</v>
       </c>
       <c r="I17" s="34" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="53">
         <v>15</v>
       </c>
@@ -5304,17 +5718,17 @@
         <v>98</v>
       </c>
       <c r="G18" s="36">
-        <v>-28.7</v>
+        <v>-17.5</v>
       </c>
       <c r="H18" s="36">
-        <v>-12.4</v>
+        <v>-1</v>
       </c>
       <c r="I18" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="58"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="53">
         <v>16</v>
       </c>
@@ -5329,26 +5743,24 @@
         <v>6</v>
       </c>
       <c r="G19" s="36">
-        <v>-31.1</v>
+        <v>-22</v>
       </c>
       <c r="H19" s="36">
-        <v>-15.9</v>
+        <v>-7.4</v>
       </c>
       <c r="I19" s="34" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="58"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="53">
         <v>17</v>
       </c>
       <c r="C20" s="52">
         <v>2</v>
       </c>
-      <c r="D20" s="52">
-        <v>0</v>
-      </c>
+      <c r="D20" s="52"/>
       <c r="E20" s="28" t="s">
         <v>225</v>
       </c>
@@ -5356,17 +5768,17 @@
         <v>5</v>
       </c>
       <c r="G20" s="36">
-        <v>-37.9</v>
+        <v>-22.7</v>
       </c>
       <c r="H20" s="36">
-        <v>-22.1</v>
+        <v>-11.1</v>
       </c>
       <c r="I20" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="58"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="53">
         <v>18</v>
       </c>
@@ -5381,17 +5793,17 @@
         <v>107</v>
       </c>
       <c r="G21" s="36">
-        <v>-34</v>
+        <v>-28</v>
       </c>
       <c r="H21" s="36">
-        <v>-19.2</v>
+        <v>-15.3</v>
       </c>
       <c r="I21" s="34" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="58"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="53">
         <v>19</v>
       </c>
@@ -5406,17 +5818,17 @@
         <v>9</v>
       </c>
       <c r="G22" s="36">
-        <v>-32.9</v>
+        <v>-26.8</v>
       </c>
       <c r="H22" s="36">
-        <v>-18</v>
+        <v>-12.2</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="58"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="53">
         <v>20</v>
       </c>
@@ -5431,17 +5843,17 @@
         <v>105</v>
       </c>
       <c r="G23" s="36">
-        <v>-27.7</v>
+        <v>-26.5</v>
       </c>
       <c r="H23" s="36">
-        <v>-18.399999999999999</v>
+        <v>-15</v>
       </c>
       <c r="I23" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="58"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="53">
         <v>21</v>
       </c>
@@ -5456,24 +5868,26 @@
         <v>12</v>
       </c>
       <c r="G24" s="36">
-        <v>-38.4</v>
+        <v>-29.9</v>
       </c>
       <c r="H24" s="36">
-        <v>-21.8</v>
+        <v>-10.6</v>
       </c>
       <c r="I24" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="58"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="53">
         <v>22</v>
       </c>
       <c r="C25" s="52">
         <v>3</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="52">
+        <v>0</v>
+      </c>
       <c r="E25" s="32" t="s">
         <v>215</v>
       </c>
@@ -5481,17 +5895,17 @@
         <v>13</v>
       </c>
       <c r="G25" s="36">
-        <v>-40.1</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="H25" s="36">
-        <v>-15.8</v>
+        <v>-6</v>
       </c>
       <c r="I25" s="34" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="58"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="53">
         <v>23</v>
       </c>
@@ -5506,17 +5920,17 @@
         <v>10</v>
       </c>
       <c r="G26" s="36">
-        <v>-35.4</v>
+        <v>-30.7</v>
       </c>
       <c r="H26" s="36">
-        <v>-20.399999999999999</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="I26" s="34" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="58"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="53">
         <v>24</v>
       </c>
@@ -5531,17 +5945,17 @@
         <v>11</v>
       </c>
       <c r="G27" s="36">
-        <v>-24.3</v>
+        <v>-15.5</v>
       </c>
       <c r="H27" s="36">
-        <v>-10</v>
+        <v>-1.3</v>
       </c>
       <c r="I27" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="58"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="53">
         <v>25</v>
       </c>
@@ -5558,17 +5972,17 @@
         <v>137</v>
       </c>
       <c r="G28" s="36">
-        <v>-33.6</v>
+        <v>-30.1</v>
       </c>
       <c r="H28" s="36">
-        <v>-5.0999999999999996</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="I28" s="34" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="58"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="53">
         <v>26</v>
       </c>
@@ -5585,17 +5999,17 @@
         <v>182</v>
       </c>
       <c r="G29" s="36">
-        <v>-35.5</v>
+        <v>-28.2</v>
       </c>
       <c r="H29" s="36">
-        <v>-10.199999999999999</v>
+        <v>-4</v>
       </c>
       <c r="I29" s="34" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="58"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="53">
         <v>27</v>
       </c>
@@ -5610,17 +6024,17 @@
         <v>76</v>
       </c>
       <c r="G30" s="36">
-        <v>-32</v>
+        <v>-19.2</v>
       </c>
       <c r="H30" s="36">
-        <v>-18.100000000000001</v>
+        <v>-7.8</v>
       </c>
       <c r="I30" s="34" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="58"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="53">
         <v>28</v>
       </c>
@@ -5637,17 +6051,17 @@
         <v>103</v>
       </c>
       <c r="G31" s="36">
-        <v>-15.6</v>
+        <v>-10.5</v>
       </c>
       <c r="H31" s="36">
-        <v>2.7</v>
+        <v>-1.6</v>
       </c>
       <c r="I31" s="34" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="58"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="53">
         <v>29</v>
       </c>
@@ -5662,17 +6076,17 @@
         <v>84</v>
       </c>
       <c r="G32" s="36">
-        <v>-11.5</v>
+        <v>-5.2</v>
       </c>
       <c r="H32" s="36">
-        <v>-9.1999999999999993</v>
+        <v>1.3</v>
       </c>
       <c r="I32" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="58"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="53">
         <v>30</v>
       </c>
@@ -5689,17 +6103,17 @@
         <v>4</v>
       </c>
       <c r="G33" s="36">
-        <v>-26.1</v>
+        <v>-21</v>
       </c>
       <c r="H33" s="36">
-        <v>-13.4</v>
+        <v>-9.6</v>
       </c>
       <c r="I33" s="34" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="58"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="53">
         <v>31</v>
       </c>
@@ -5714,17 +6128,17 @@
         <v>139</v>
       </c>
       <c r="G34" s="36">
-        <v>-16.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H34" s="36">
-        <v>-4.8</v>
+        <v>3.4</v>
       </c>
       <c r="I34" s="34" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="58"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="53">
         <v>32</v>
       </c>
@@ -5739,15 +6153,15 @@
         <v>140</v>
       </c>
       <c r="G35" s="36">
-        <v>-16.600000000000001</v>
+        <v>-12</v>
       </c>
       <c r="H35" s="36">
-        <v>-3.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="58"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="53">
         <v>33</v>
       </c>
@@ -5764,15 +6178,15 @@
         <v>141</v>
       </c>
       <c r="G36" s="36">
-        <v>-25.7</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="H36" s="36">
-        <v>-11.2</v>
+        <v>-0.8</v>
       </c>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="58"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="53">
         <v>34</v>
       </c>
@@ -5789,17 +6203,17 @@
         <v>142</v>
       </c>
       <c r="G37" s="36">
-        <v>-20.9</v>
+        <v>-6.7</v>
       </c>
       <c r="H37" s="36">
-        <v>-8.6</v>
+        <v>1.9</v>
       </c>
       <c r="I37" s="34" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="58"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="53">
         <v>35</v>
       </c>
@@ -5816,17 +6230,17 @@
         <v>143</v>
       </c>
       <c r="G38" s="36">
-        <v>-23</v>
+        <v>-4.5</v>
       </c>
       <c r="H38" s="36">
-        <v>-6.1</v>
+        <v>2.6</v>
       </c>
       <c r="I38" s="34" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="58"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="53">
         <v>36</v>
       </c>
@@ -5843,15 +6257,15 @@
         <v>144</v>
       </c>
       <c r="G39" s="36">
-        <v>-24.9</v>
+        <v>-5.8</v>
       </c>
       <c r="H39" s="36">
-        <v>-4.2</v>
+        <v>5.3</v>
       </c>
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="58"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="53">
         <v>37</v>
       </c>
@@ -5868,15 +6282,15 @@
         <v>145</v>
       </c>
       <c r="G40" s="36">
-        <v>-23.3</v>
+        <v>-7.8</v>
       </c>
       <c r="H40" s="36">
-        <v>-5.8</v>
+        <v>2.8</v>
       </c>
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="58"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="53">
         <v>38</v>
       </c>
@@ -5891,17 +6305,17 @@
         <v>146</v>
       </c>
       <c r="G41" s="36">
-        <v>-32.799999999999997</v>
+        <v>-16.3</v>
       </c>
       <c r="H41" s="36">
-        <v>-12.1</v>
+        <v>-6.1</v>
       </c>
       <c r="I41" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="58"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="53">
         <v>39</v>
       </c>
@@ -5916,17 +6330,17 @@
         <v>73</v>
       </c>
       <c r="G42" s="36">
-        <v>-27</v>
+        <v>-26.2</v>
       </c>
       <c r="H42" s="36">
-        <v>-6.9</v>
+        <v>-7.1</v>
       </c>
       <c r="I42" s="34" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="58"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="53">
         <v>40</v>
       </c>
@@ -5941,17 +6355,17 @@
         <v>71</v>
       </c>
       <c r="G43" s="36">
-        <v>-32.799999999999997</v>
+        <v>-14.2</v>
       </c>
       <c r="H43" s="36">
-        <v>-16.399999999999999</v>
+        <v>-4.8</v>
       </c>
       <c r="I43" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="58"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="53">
         <v>41</v>
       </c>
@@ -5966,17 +6380,17 @@
         <v>147</v>
       </c>
       <c r="G44" s="36">
-        <v>-23.7</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="H44" s="36">
-        <v>-4.0999999999999996</v>
+        <v>1.5</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="58"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="53">
         <v>42</v>
       </c>
@@ -5991,17 +6405,17 @@
         <v>148</v>
       </c>
       <c r="G45" s="36">
-        <v>-16.100000000000001</v>
+        <v>-10.3</v>
       </c>
       <c r="H45" s="36">
-        <v>-3.6</v>
+        <v>2.5</v>
       </c>
       <c r="I45" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="58"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="53">
         <v>43</v>
       </c>
@@ -6016,17 +6430,17 @@
         <v>78</v>
       </c>
       <c r="G46" s="36">
-        <v>-20.3</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="H46" s="36">
-        <v>-0.1</v>
+        <v>-1.6</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="58"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="53">
         <v>44</v>
       </c>
@@ -6041,17 +6455,17 @@
         <v>80</v>
       </c>
       <c r="G47" s="36">
-        <v>-19.100000000000001</v>
+        <v>-10.5</v>
       </c>
       <c r="H47" s="36">
-        <v>-3.8</v>
+        <v>-3.3</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="58"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="53">
         <v>45</v>
       </c>
@@ -6066,17 +6480,17 @@
         <v>82</v>
       </c>
       <c r="G48" s="36">
-        <v>-11.1</v>
+        <v>-13.2</v>
       </c>
       <c r="H48" s="36">
-        <v>1.6</v>
+        <v>-4.8</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="58"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="53">
         <v>46</v>
       </c>
@@ -6091,17 +6505,17 @@
         <v>67</v>
       </c>
       <c r="G49" s="36">
-        <v>-32.799999999999997</v>
+        <v>-22.5</v>
       </c>
       <c r="H49" s="36">
-        <v>-10.1</v>
+        <v>-2.6</v>
       </c>
       <c r="I49" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="58"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="53">
         <v>47</v>
       </c>
@@ -6116,20 +6530,20 @@
         <v>69</v>
       </c>
       <c r="G50" s="36">
-        <v>-33</v>
+        <v>-27.4</v>
       </c>
       <c r="H50" s="36">
-        <v>-17.3</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="I50" s="34" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="58"/>
+      <c r="A51" s="59"/>
     </row>
     <row r="52" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="58"/>
+      <c r="A52" s="59"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I50">
@@ -6176,10 +6590,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6452CB3-0983-4391-8A7D-2C5221219E76}">
-  <dimension ref="A1:AV79"/>
+  <dimension ref="A1:AV344"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -15389,61 +15803,2957 @@
       <c r="A64" s="16">
         <v>45711</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B64">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="C64">
+        <v>-32</v>
+      </c>
+      <c r="D64">
+        <v>-39.4</v>
+      </c>
+      <c r="E64">
+        <v>-42</v>
+      </c>
+      <c r="F64">
+        <v>-40.4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>245</v>
+      </c>
+      <c r="H64">
+        <v>-27.2</v>
+      </c>
+      <c r="I64">
+        <v>-29.2</v>
+      </c>
+      <c r="J64">
+        <v>-24.5</v>
+      </c>
+      <c r="K64">
+        <v>-27.6</v>
+      </c>
+      <c r="L64">
+        <v>-27.8</v>
+      </c>
+      <c r="M64">
+        <v>-29.9</v>
+      </c>
+      <c r="N64">
+        <v>-29.6</v>
+      </c>
+      <c r="O64">
+        <v>-29.4</v>
+      </c>
+      <c r="P64">
+        <v>-26.8</v>
+      </c>
+      <c r="Q64">
+        <v>-29</v>
+      </c>
+      <c r="R64">
+        <v>-36.5</v>
+      </c>
+      <c r="S64">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="T64">
+        <v>-32.1</v>
+      </c>
+      <c r="U64">
+        <v>-29.8</v>
+      </c>
+      <c r="V64">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="W64">
+        <v>-41.5</v>
+      </c>
+      <c r="X64">
+        <v>-36.4</v>
+      </c>
+      <c r="Y64">
+        <v>-20.9</v>
+      </c>
+      <c r="Z64">
+        <v>-28.5</v>
+      </c>
+      <c r="AA64">
+        <v>-31.7</v>
+      </c>
+      <c r="AB64">
+        <v>-28.7</v>
+      </c>
+      <c r="AC64">
+        <v>-7.7</v>
+      </c>
+      <c r="AD64">
+        <v>-12.6</v>
+      </c>
+      <c r="AE64">
+        <v>-31.5</v>
+      </c>
+      <c r="AF64">
+        <v>-15.1</v>
+      </c>
+      <c r="AG64">
+        <v>-18.7</v>
+      </c>
+      <c r="AH64">
+        <v>-24.5</v>
+      </c>
+      <c r="AI64">
+        <v>-18.8</v>
+      </c>
+      <c r="AJ64">
+        <v>-23</v>
+      </c>
+      <c r="AK64">
+        <v>-25.2</v>
+      </c>
+      <c r="AL64">
+        <v>-25.4</v>
+      </c>
+      <c r="AM64">
+        <v>-29.4</v>
+      </c>
+      <c r="AN64">
+        <v>-26.4</v>
+      </c>
+      <c r="AO64">
+        <v>-31.4</v>
+      </c>
+      <c r="AP64">
+        <v>-23.2</v>
+      </c>
+      <c r="AQ64">
+        <v>-17.7</v>
+      </c>
+      <c r="AR64">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="AS64">
+        <v>-17.8</v>
+      </c>
+      <c r="AT64">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AU64">
+        <v>-30.9</v>
+      </c>
+      <c r="AV64">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A65" s="16">
         <v>45712</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B65">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="C65">
+        <v>-26.6</v>
+      </c>
+      <c r="D65">
+        <v>-38.4</v>
+      </c>
+      <c r="E65">
+        <v>-36.9</v>
+      </c>
+      <c r="F65">
+        <v>-35.1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>245</v>
+      </c>
+      <c r="H65">
+        <v>-22.9</v>
+      </c>
+      <c r="I65">
+        <v>-17.5</v>
+      </c>
+      <c r="J65">
+        <v>-24</v>
+      </c>
+      <c r="K65">
+        <v>-24.1</v>
+      </c>
+      <c r="L65">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="M65">
+        <v>-25.5</v>
+      </c>
+      <c r="N65">
+        <v>-26.2</v>
+      </c>
+      <c r="O65">
+        <v>-21.4</v>
+      </c>
+      <c r="P65">
+        <v>-24.3</v>
+      </c>
+      <c r="Q65">
+        <v>-25.1</v>
+      </c>
+      <c r="R65">
+        <v>-34.9</v>
+      </c>
+      <c r="S65">
+        <v>-32.4</v>
+      </c>
+      <c r="T65">
+        <v>-29.1</v>
+      </c>
+      <c r="U65">
+        <v>-34.1</v>
+      </c>
+      <c r="V65">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="W65">
+        <v>-31.8</v>
+      </c>
+      <c r="X65">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="Y65">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="Z65">
+        <v>-29.2</v>
+      </c>
+      <c r="AA65">
+        <v>-31.9</v>
+      </c>
+      <c r="AB65">
+        <v>-20.2</v>
+      </c>
+      <c r="AC65">
+        <v>-12.5</v>
+      </c>
+      <c r="AD65">
+        <v>-11.5</v>
+      </c>
+      <c r="AE65">
+        <v>-31.6</v>
+      </c>
+      <c r="AF65">
+        <v>-15.7</v>
+      </c>
+      <c r="AG65">
+        <v>-15.4</v>
+      </c>
+      <c r="AH65">
+        <v>-25.4</v>
+      </c>
+      <c r="AI65">
+        <v>-10.4</v>
+      </c>
+      <c r="AJ65">
+        <v>-21</v>
+      </c>
+      <c r="AK65">
+        <v>-23.6</v>
+      </c>
+      <c r="AL65">
+        <v>-24.3</v>
+      </c>
+      <c r="AM65">
+        <v>-25.3</v>
+      </c>
+      <c r="AN65">
+        <v>-21.9</v>
+      </c>
+      <c r="AO65">
+        <v>-21.6</v>
+      </c>
+      <c r="AP65">
+        <v>-15.1</v>
+      </c>
+      <c r="AQ65">
+        <v>-17.3</v>
+      </c>
+      <c r="AR65">
+        <v>-22.2</v>
+      </c>
+      <c r="AS65">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="AT65">
+        <v>-11.6</v>
+      </c>
+      <c r="AU65">
+        <v>-27.7</v>
+      </c>
+      <c r="AV65">
+        <v>-24.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A66" s="16">
         <v>45713</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B66">
+        <v>-36.1</v>
+      </c>
+      <c r="C66">
+        <v>-29.7</v>
+      </c>
+      <c r="D66">
+        <v>-37.1</v>
+      </c>
+      <c r="E66">
+        <v>-38.4</v>
+      </c>
+      <c r="F66">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="G66" t="s">
+        <v>245</v>
+      </c>
+      <c r="H66">
+        <v>-20.7</v>
+      </c>
+      <c r="I66">
+        <v>-17.3</v>
+      </c>
+      <c r="J66">
+        <v>-19.8</v>
+      </c>
+      <c r="K66">
+        <v>-22.2</v>
+      </c>
+      <c r="L66">
+        <v>-28</v>
+      </c>
+      <c r="M66">
+        <v>-31</v>
+      </c>
+      <c r="N66">
+        <v>-29.7</v>
+      </c>
+      <c r="O66">
+        <v>-24.3</v>
+      </c>
+      <c r="P66">
+        <v>-18.5</v>
+      </c>
+      <c r="Q66">
+        <v>-26.6</v>
+      </c>
+      <c r="R66">
+        <v>-36</v>
+      </c>
+      <c r="S66">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="T66">
+        <v>-29.1</v>
+      </c>
+      <c r="U66">
+        <v>-35.9</v>
+      </c>
+      <c r="V66">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="W66">
+        <v>-35.6</v>
+      </c>
+      <c r="X66">
+        <v>-30</v>
+      </c>
+      <c r="Y66">
+        <v>-19.8</v>
+      </c>
+      <c r="Z66">
+        <v>-19.2</v>
+      </c>
+      <c r="AA66">
+        <v>-25.2</v>
+      </c>
+      <c r="AB66">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="AC66">
+        <v>-12.7</v>
+      </c>
+      <c r="AD66">
+        <v>-15</v>
+      </c>
+      <c r="AE66">
+        <v>-32.9</v>
+      </c>
+      <c r="AF66">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AG66">
+        <v>-9</v>
+      </c>
+      <c r="AH66">
+        <v>-15.5</v>
+      </c>
+      <c r="AI66">
+        <v>-6.8</v>
+      </c>
+      <c r="AJ66">
+        <v>-17.3</v>
+      </c>
+      <c r="AK66">
+        <v>-11</v>
+      </c>
+      <c r="AL66">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="AM66">
+        <v>-19.7</v>
+      </c>
+      <c r="AN66">
+        <v>-20.6</v>
+      </c>
+      <c r="AO66">
+        <v>-22.2</v>
+      </c>
+      <c r="AP66">
+        <v>-29.5</v>
+      </c>
+      <c r="AQ66">
+        <v>-18.8</v>
+      </c>
+      <c r="AR66">
+        <v>-22.6</v>
+      </c>
+      <c r="AS66">
+        <v>-15.4</v>
+      </c>
+      <c r="AT66">
+        <v>-7.1</v>
+      </c>
+      <c r="AU66">
+        <v>-23.1</v>
+      </c>
+      <c r="AV66">
+        <v>-16.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A67" s="16">
         <v>45714</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B67">
+        <v>-38.4</v>
+      </c>
+      <c r="C67">
+        <v>-22.3</v>
+      </c>
+      <c r="D67">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="E67">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="F67">
+        <v>-39.6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>245</v>
+      </c>
+      <c r="H67">
+        <v>-20.3</v>
+      </c>
+      <c r="I67">
+        <v>-7.4</v>
+      </c>
+      <c r="J67">
+        <v>-19.8</v>
+      </c>
+      <c r="K67">
+        <v>-22.7</v>
+      </c>
+      <c r="L67">
+        <v>-28.3</v>
+      </c>
+      <c r="M67">
+        <v>-27</v>
+      </c>
+      <c r="N67">
+        <v>-30.2</v>
+      </c>
+      <c r="O67">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="P67">
+        <v>-23.9</v>
+      </c>
+      <c r="Q67">
+        <v>-27.9</v>
+      </c>
+      <c r="R67">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="S67">
+        <v>-34.9</v>
+      </c>
+      <c r="T67">
+        <v>-27.6</v>
+      </c>
+      <c r="U67">
+        <v>-36</v>
+      </c>
+      <c r="V67">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="W67">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="X67">
+        <v>-31.4</v>
+      </c>
+      <c r="Y67">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="Z67">
+        <v>-21.8</v>
+      </c>
+      <c r="AA67">
+        <v>-22.9</v>
+      </c>
+      <c r="AB67">
+        <v>-19.3</v>
+      </c>
+      <c r="AC67">
+        <v>-11.1</v>
+      </c>
+      <c r="AD67">
+        <v>-12.8</v>
+      </c>
+      <c r="AE67">
+        <v>-27.3</v>
+      </c>
+      <c r="AF67">
+        <v>-10.6</v>
+      </c>
+      <c r="AG67">
+        <v>-14.9</v>
+      </c>
+      <c r="AH67">
+        <v>-21.5</v>
+      </c>
+      <c r="AI67">
+        <v>-14.6</v>
+      </c>
+      <c r="AJ67">
+        <v>-13.1</v>
+      </c>
+      <c r="AK67">
+        <v>-20.6</v>
+      </c>
+      <c r="AL67">
+        <v>-18.8</v>
+      </c>
+      <c r="AM67">
+        <v>-21.9</v>
+      </c>
+      <c r="AN67">
+        <v>-24.5</v>
+      </c>
+      <c r="AO67">
+        <v>-24.8</v>
+      </c>
+      <c r="AP67">
+        <v>-29.6</v>
+      </c>
+      <c r="AQ67">
+        <v>-22.9</v>
+      </c>
+      <c r="AR67">
+        <v>-20</v>
+      </c>
+      <c r="AS67">
+        <v>-15.8</v>
+      </c>
+      <c r="AT67">
+        <v>-3</v>
+      </c>
+      <c r="AU67">
+        <v>-22.5</v>
+      </c>
+      <c r="AV67">
+        <v>-19.899999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A68" s="16">
         <v>45715</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B68">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="C68">
+        <v>-21.5</v>
+      </c>
+      <c r="D68">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="E68">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="F68">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="G68" t="s">
+        <v>245</v>
+      </c>
+      <c r="H68">
+        <v>-16.8</v>
+      </c>
+      <c r="I68">
+        <v>-11.4</v>
+      </c>
+      <c r="J68">
+        <v>-19.3</v>
+      </c>
+      <c r="K68">
+        <v>-21.9</v>
+      </c>
+      <c r="L68">
+        <v>-30.2</v>
+      </c>
+      <c r="M68">
+        <v>-33.1</v>
+      </c>
+      <c r="N68">
+        <v>-33.4</v>
+      </c>
+      <c r="O68">
+        <v>-27.4</v>
+      </c>
+      <c r="P68">
+        <v>-18.8</v>
+      </c>
+      <c r="Q68">
+        <v>-26</v>
+      </c>
+      <c r="R68">
+        <v>-31.6</v>
+      </c>
+      <c r="S68">
+        <v>-34.6</v>
+      </c>
+      <c r="T68">
+        <v>-22.5</v>
+      </c>
+      <c r="U68">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="V68">
+        <v>-34.9</v>
+      </c>
+      <c r="W68">
+        <v>-31.8</v>
+      </c>
+      <c r="X68">
+        <v>-28.5</v>
+      </c>
+      <c r="Y68">
+        <v>-13.7</v>
+      </c>
+      <c r="Z68">
+        <v>-21.5</v>
+      </c>
+      <c r="AA68">
+        <v>-20.3</v>
+      </c>
+      <c r="AB68">
+        <v>-11.1</v>
+      </c>
+      <c r="AC68">
+        <v>-15.5</v>
+      </c>
+      <c r="AD68">
+        <v>-8.5</v>
+      </c>
+      <c r="AE68">
+        <v>-12.4</v>
+      </c>
+      <c r="AF68">
+        <v>-7.5</v>
+      </c>
+      <c r="AG68">
+        <v>-12.9</v>
+      </c>
+      <c r="AH68">
+        <v>-16.7</v>
+      </c>
+      <c r="AI68">
+        <v>-13.4</v>
+      </c>
+      <c r="AJ68">
+        <v>-13.6</v>
+      </c>
+      <c r="AK68">
+        <v>-12.7</v>
+      </c>
+      <c r="AL68">
+        <v>-16</v>
+      </c>
+      <c r="AM68">
+        <v>-23.6</v>
+      </c>
+      <c r="AN68">
+        <v>-23.6</v>
+      </c>
+      <c r="AO68">
+        <v>-13.6</v>
+      </c>
+      <c r="AP68">
+        <v>-18.7</v>
+      </c>
+      <c r="AQ68">
+        <v>-11</v>
+      </c>
+      <c r="AR68">
+        <v>-18.3</v>
+      </c>
+      <c r="AS68">
+        <v>-14.6</v>
+      </c>
+      <c r="AT68">
+        <v>-7.6</v>
+      </c>
+      <c r="AU68">
+        <v>-19.8</v>
+      </c>
+      <c r="AV68">
+        <v>-9.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A69" s="16">
         <v>45716</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A70" s="16"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A71" s="16"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A72" s="16"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A73" s="16"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A74" s="16"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A75" s="16"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A76" s="16"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A77" s="16"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A78" s="16"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A79" s="16"/>
+      <c r="B69">
+        <v>-23.6</v>
+      </c>
+      <c r="C69">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="D69">
+        <v>-26.5</v>
+      </c>
+      <c r="E69">
+        <v>-22.7</v>
+      </c>
+      <c r="F69">
+        <v>-23.5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>245</v>
+      </c>
+      <c r="H69">
+        <v>-33.6</v>
+      </c>
+      <c r="I69">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="J69">
+        <v>-20.6</v>
+      </c>
+      <c r="K69">
+        <v>-23.2</v>
+      </c>
+      <c r="L69">
+        <v>-15.2</v>
+      </c>
+      <c r="M69">
+        <v>-29.1</v>
+      </c>
+      <c r="N69">
+        <v>-20.9</v>
+      </c>
+      <c r="O69">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="P69">
+        <v>-9.1</v>
+      </c>
+      <c r="Q69">
+        <v>-14.6</v>
+      </c>
+      <c r="R69">
+        <v>-29.4</v>
+      </c>
+      <c r="S69">
+        <v>-23.4</v>
+      </c>
+      <c r="T69">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="U69">
+        <v>-23</v>
+      </c>
+      <c r="V69">
+        <v>-20.6</v>
+      </c>
+      <c r="W69">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="X69">
+        <v>-17</v>
+      </c>
+      <c r="Y69">
+        <v>-11.8</v>
+      </c>
+      <c r="Z69">
+        <v>-18.8</v>
+      </c>
+      <c r="AA69">
+        <v>-15</v>
+      </c>
+      <c r="AB69">
+        <v>-18.7</v>
+      </c>
+      <c r="AC69">
+        <v>-16.5</v>
+      </c>
+      <c r="AD69">
+        <v>-4.8</v>
+      </c>
+      <c r="AE69">
+        <v>-17.5</v>
+      </c>
+      <c r="AF69">
+        <v>-7.8</v>
+      </c>
+      <c r="AG69">
+        <v>-9.6</v>
+      </c>
+      <c r="AH69">
+        <v>-12.5</v>
+      </c>
+      <c r="AI69">
+        <v>-4</v>
+      </c>
+      <c r="AJ69">
+        <v>-0.2</v>
+      </c>
+      <c r="AK69">
+        <v>-0.3</v>
+      </c>
+      <c r="AL69">
+        <v>-15.4</v>
+      </c>
+      <c r="AM69">
+        <v>-7.6</v>
+      </c>
+      <c r="AN69">
+        <v>-13.5</v>
+      </c>
+      <c r="AO69">
+        <v>-14.8</v>
+      </c>
+      <c r="AP69">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="AQ69">
+        <v>-12.6</v>
+      </c>
+      <c r="AR69">
+        <v>-17</v>
+      </c>
+      <c r="AS69">
+        <v>-13.4</v>
+      </c>
+      <c r="AT69">
+        <v>-6.1</v>
+      </c>
+      <c r="AU69">
+        <v>-15.8</v>
+      </c>
+      <c r="AV69">
+        <v>-16.600000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A70" s="16">
+        <v>45717</v>
+      </c>
+      <c r="B70">
+        <v>-26.7</v>
+      </c>
+      <c r="C70">
+        <v>-23.3</v>
+      </c>
+      <c r="D70">
+        <v>-30.3</v>
+      </c>
+      <c r="E70">
+        <v>-30.2</v>
+      </c>
+      <c r="F70">
+        <v>-28.3</v>
+      </c>
+      <c r="G70">
+        <v>-20.7</v>
+      </c>
+      <c r="H70">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="I70">
+        <v>-30.4</v>
+      </c>
+      <c r="J70">
+        <v>-33.4</v>
+      </c>
+      <c r="K70">
+        <v>-32.9</v>
+      </c>
+      <c r="L70">
+        <v>-22.6</v>
+      </c>
+      <c r="M70">
+        <v>-28.7</v>
+      </c>
+      <c r="N70">
+        <v>-25.9</v>
+      </c>
+      <c r="O70">
+        <v>-20</v>
+      </c>
+      <c r="P70">
+        <v>-21.2</v>
+      </c>
+      <c r="Q70">
+        <v>-16.5</v>
+      </c>
+      <c r="R70">
+        <v>-33</v>
+      </c>
+      <c r="S70">
+        <v>-25.9</v>
+      </c>
+      <c r="T70">
+        <v>-24.8</v>
+      </c>
+      <c r="U70">
+        <v>-24.8</v>
+      </c>
+      <c r="V70">
+        <v>-28.2</v>
+      </c>
+      <c r="W70">
+        <v>-27.7</v>
+      </c>
+      <c r="X70">
+        <v>-26.1</v>
+      </c>
+      <c r="Y70">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="Z70">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="AA70">
+        <v>-34.1</v>
+      </c>
+      <c r="AB70">
+        <v>-23.4</v>
+      </c>
+      <c r="AC70">
+        <v>-12.5</v>
+      </c>
+      <c r="AD70">
+        <v>-6</v>
+      </c>
+      <c r="AE70">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AF70">
+        <v>-1.2</v>
+      </c>
+      <c r="AG70">
+        <v>-5.5</v>
+      </c>
+      <c r="AH70">
+        <v>-10.8</v>
+      </c>
+      <c r="AI70">
+        <v>-10.9</v>
+      </c>
+      <c r="AJ70">
+        <v>-3.5</v>
+      </c>
+      <c r="AK70">
+        <v>-2.6</v>
+      </c>
+      <c r="AL70">
+        <v>-9.4</v>
+      </c>
+      <c r="AM70">
+        <v>-17.5</v>
+      </c>
+      <c r="AN70">
+        <v>-27.7</v>
+      </c>
+      <c r="AO70">
+        <v>-19.8</v>
+      </c>
+      <c r="AP70">
+        <v>-6.5</v>
+      </c>
+      <c r="AQ70">
+        <v>-7.2</v>
+      </c>
+      <c r="AR70">
+        <v>-20.5</v>
+      </c>
+      <c r="AS70">
+        <v>-10.4</v>
+      </c>
+      <c r="AT70">
+        <v>-6.4</v>
+      </c>
+      <c r="AU70">
+        <v>-31.6</v>
+      </c>
+      <c r="AV70">
+        <v>-31.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A71" s="16">
+        <v>45718</v>
+      </c>
+      <c r="B71">
+        <v>-34.4</v>
+      </c>
+      <c r="C71">
+        <v>-23.8</v>
+      </c>
+      <c r="D71">
+        <v>-27.1</v>
+      </c>
+      <c r="E71">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="F71">
+        <v>-35.1</v>
+      </c>
+      <c r="G71">
+        <v>-25.9</v>
+      </c>
+      <c r="H71">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="I71">
+        <v>-30.2</v>
+      </c>
+      <c r="J71">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="K71">
+        <v>-32.6</v>
+      </c>
+      <c r="L71">
+        <v>-32.4</v>
+      </c>
+      <c r="M71">
+        <v>-27</v>
+      </c>
+      <c r="N71">
+        <v>-35</v>
+      </c>
+      <c r="O71">
+        <v>-29.8</v>
+      </c>
+      <c r="P71">
+        <v>-28.5</v>
+      </c>
+      <c r="Q71">
+        <v>-22.1</v>
+      </c>
+      <c r="R71">
+        <v>-32</v>
+      </c>
+      <c r="S71">
+        <v>-31.3</v>
+      </c>
+      <c r="T71">
+        <v>-26.5</v>
+      </c>
+      <c r="U71">
+        <v>-25.6</v>
+      </c>
+      <c r="V71">
+        <v>-31.6</v>
+      </c>
+      <c r="W71">
+        <v>-32.1</v>
+      </c>
+      <c r="X71">
+        <v>-27.4</v>
+      </c>
+      <c r="Y71">
+        <v>-14.9</v>
+      </c>
+      <c r="Z71">
+        <v>-39.1</v>
+      </c>
+      <c r="AA71">
+        <v>-36.9</v>
+      </c>
+      <c r="AB71">
+        <v>-28.3</v>
+      </c>
+      <c r="AC71">
+        <v>-13.5</v>
+      </c>
+      <c r="AD71">
+        <v>-6.9</v>
+      </c>
+      <c r="AE71">
+        <v>-24.9</v>
+      </c>
+      <c r="AF71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AU71">
+        <v>-34</v>
+      </c>
+      <c r="AV71">
+        <v>-36.200000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A72" s="16">
+        <v>45719</v>
+      </c>
+      <c r="B72">
+        <v>-30.9</v>
+      </c>
+      <c r="C72">
+        <v>-22</v>
+      </c>
+      <c r="D72">
+        <v>-21.9</v>
+      </c>
+      <c r="E72">
+        <v>-26</v>
+      </c>
+      <c r="F72">
+        <v>-31.4</v>
+      </c>
+      <c r="G72">
+        <v>-25.9</v>
+      </c>
+      <c r="H72">
+        <v>-25.5</v>
+      </c>
+      <c r="I72">
+        <v>-25.4</v>
+      </c>
+      <c r="J72">
+        <v>-30.7</v>
+      </c>
+      <c r="K72">
+        <v>-29</v>
+      </c>
+      <c r="L72">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="M72">
+        <v>-36</v>
+      </c>
+      <c r="N72">
+        <v>-39.4</v>
+      </c>
+      <c r="O72">
+        <v>-33.6</v>
+      </c>
+      <c r="P72">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="Q72">
+        <v>-23.1</v>
+      </c>
+      <c r="R72">
+        <v>-31.7</v>
+      </c>
+      <c r="S72">
+        <v>-26.6</v>
+      </c>
+      <c r="T72">
+        <v>-23.4</v>
+      </c>
+      <c r="U72">
+        <v>-27.8</v>
+      </c>
+      <c r="V72">
+        <v>-24.7</v>
+      </c>
+      <c r="W72">
+        <v>-22</v>
+      </c>
+      <c r="X72">
+        <v>-21.6</v>
+      </c>
+      <c r="Y72">
+        <v>-11.1</v>
+      </c>
+      <c r="Z72">
+        <v>-37.1</v>
+      </c>
+      <c r="AA72">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="AB72">
+        <v>-26.2</v>
+      </c>
+      <c r="AC72">
+        <v>-15.5</v>
+      </c>
+      <c r="AD72">
+        <v>-9</v>
+      </c>
+      <c r="AE72">
+        <v>-29.8</v>
+      </c>
+      <c r="AF72">
+        <v>-4</v>
+      </c>
+      <c r="AG72">
+        <v>-12.7</v>
+      </c>
+      <c r="AH72">
+        <v>-11</v>
+      </c>
+      <c r="AI72">
+        <v>-18.7</v>
+      </c>
+      <c r="AJ72">
+        <v>-13.8</v>
+      </c>
+      <c r="AK72">
+        <v>-11.6</v>
+      </c>
+      <c r="AL72">
+        <v>-4.3</v>
+      </c>
+      <c r="AM72">
+        <v>-35.1</v>
+      </c>
+      <c r="AN72">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="AO72">
+        <v>-24.7</v>
+      </c>
+      <c r="AP72">
+        <v>-21.4</v>
+      </c>
+      <c r="AQ72">
+        <v>-20</v>
+      </c>
+      <c r="AR72">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="AS72">
+        <v>-13.6</v>
+      </c>
+      <c r="AT72">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="AU72">
+        <v>-31.9</v>
+      </c>
+      <c r="AV72">
+        <v>-34.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A73" s="16">
+        <v>45720</v>
+      </c>
+      <c r="B73">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="C73">
+        <v>-23.1</v>
+      </c>
+      <c r="D73">
+        <v>-30.3</v>
+      </c>
+      <c r="E73">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="F73">
+        <v>-34.4</v>
+      </c>
+      <c r="G73">
+        <v>-25.3</v>
+      </c>
+      <c r="H73">
+        <v>-23.1</v>
+      </c>
+      <c r="I73">
+        <v>-20.2</v>
+      </c>
+      <c r="J73">
+        <v>-26.3</v>
+      </c>
+      <c r="K73">
+        <v>-24.9</v>
+      </c>
+      <c r="L73">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="M73">
+        <v>-26.2</v>
+      </c>
+      <c r="N73">
+        <v>-39.9</v>
+      </c>
+      <c r="O73">
+        <v>-32.9</v>
+      </c>
+      <c r="P73">
+        <v>-27.9</v>
+      </c>
+      <c r="Q73">
+        <v>-25.8</v>
+      </c>
+      <c r="R73">
+        <v>-33</v>
+      </c>
+      <c r="S73">
+        <v>-31.3</v>
+      </c>
+      <c r="T73">
+        <v>-27.3</v>
+      </c>
+      <c r="U73">
+        <v>-31.6</v>
+      </c>
+      <c r="V73">
+        <v>-32.9</v>
+      </c>
+      <c r="W73">
+        <v>-33.1</v>
+      </c>
+      <c r="X73">
+        <v>-28.2</v>
+      </c>
+      <c r="Y73">
+        <v>-11.8</v>
+      </c>
+      <c r="Z73">
+        <v>-32.6</v>
+      </c>
+      <c r="AA73">
+        <v>-30.6</v>
+      </c>
+      <c r="AB73">
+        <v>-20.8</v>
+      </c>
+      <c r="AC73">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="AD73">
+        <v>-8.1</v>
+      </c>
+      <c r="AE73">
+        <v>-23.1</v>
+      </c>
+      <c r="AF73">
+        <v>-2.6</v>
+      </c>
+      <c r="AG73">
+        <v>-11.4</v>
+      </c>
+      <c r="AH73">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AI73">
+        <v>-13.2</v>
+      </c>
+      <c r="AJ73">
+        <v>-9</v>
+      </c>
+      <c r="AK73">
+        <v>-5.9</v>
+      </c>
+      <c r="AL73">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="AM73">
+        <v>-30.4</v>
+      </c>
+      <c r="AN73">
+        <v>-29.9</v>
+      </c>
+      <c r="AO73">
+        <v>-12.5</v>
+      </c>
+      <c r="AP73">
+        <v>-16.5</v>
+      </c>
+      <c r="AQ73">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="AR73">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="AS73">
+        <v>-11.6</v>
+      </c>
+      <c r="AT73">
+        <v>-11</v>
+      </c>
+      <c r="AU73">
+        <v>-27.5</v>
+      </c>
+      <c r="AV73">
+        <v>-28.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A74" s="16">
+        <v>45721</v>
+      </c>
+      <c r="B74">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="C74">
+        <v>-21.9</v>
+      </c>
+      <c r="D74">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="E74">
+        <v>-31.5</v>
+      </c>
+      <c r="F74">
+        <v>-31</v>
+      </c>
+      <c r="G74">
+        <v>-24</v>
+      </c>
+      <c r="H74">
+        <v>-23.1</v>
+      </c>
+      <c r="I74">
+        <v>-21.2</v>
+      </c>
+      <c r="J74">
+        <v>-23.2</v>
+      </c>
+      <c r="K74">
+        <v>-25.1</v>
+      </c>
+      <c r="L74">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="M74">
+        <v>-32</v>
+      </c>
+      <c r="N74">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="O74">
+        <v>-29.2</v>
+      </c>
+      <c r="P74">
+        <v>-17.5</v>
+      </c>
+      <c r="Q74">
+        <v>-22</v>
+      </c>
+      <c r="R74">
+        <v>-22.7</v>
+      </c>
+      <c r="S74">
+        <v>-28</v>
+      </c>
+      <c r="T74">
+        <v>-26.8</v>
+      </c>
+      <c r="U74">
+        <v>-26.5</v>
+      </c>
+      <c r="V74">
+        <v>-29.9</v>
+      </c>
+      <c r="W74">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="X74">
+        <v>-30.7</v>
+      </c>
+      <c r="Y74">
+        <v>-15.5</v>
+      </c>
+      <c r="Z74">
+        <v>-30.1</v>
+      </c>
+      <c r="AA74">
+        <v>-28.2</v>
+      </c>
+      <c r="AB74">
+        <v>-19.2</v>
+      </c>
+      <c r="AC74">
+        <v>-10.5</v>
+      </c>
+      <c r="AD74">
+        <v>-5.2</v>
+      </c>
+      <c r="AE74">
+        <v>-21</v>
+      </c>
+      <c r="AF74">
+        <v>-3.4</v>
+      </c>
+      <c r="AG74">
+        <v>-12</v>
+      </c>
+      <c r="AH74">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="AI74">
+        <v>-6.7</v>
+      </c>
+      <c r="AJ74">
+        <v>-4.5</v>
+      </c>
+      <c r="AK74">
+        <v>-5.8</v>
+      </c>
+      <c r="AL74">
+        <v>-7.8</v>
+      </c>
+      <c r="AM74">
+        <v>-16.3</v>
+      </c>
+      <c r="AN74">
+        <v>-26.2</v>
+      </c>
+      <c r="AO74">
+        <v>-14.2</v>
+      </c>
+      <c r="AP74">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="AQ74">
+        <v>-10.3</v>
+      </c>
+      <c r="AR74">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AS74">
+        <v>-10.5</v>
+      </c>
+      <c r="AT74">
+        <v>-13.2</v>
+      </c>
+      <c r="AU74">
+        <v>-22.5</v>
+      </c>
+      <c r="AV74">
+        <v>-27.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A75" s="16">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="76" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A76" s="16">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="77" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A77" s="16">
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="78" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A78" s="16">
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A79" s="16">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.4">
+      <c r="A80" s="16">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" s="16">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" s="16">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" s="16">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" s="16">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" s="16">
+        <v>45732</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" s="16">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87" s="16">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88" s="16">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89" s="16">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90" s="16">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91" s="16">
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92" s="16">
+        <v>45739</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93" s="16">
+        <v>45740</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94" s="16">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95" s="16">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96" s="16">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" s="16">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" s="16">
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" s="16">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" s="16">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101" s="16">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102" s="16">
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103" s="16">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A104" s="16">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A105" s="16">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A106" s="16">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A107" s="16">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108" s="16">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109" s="16">
+        <v>45756</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A110" s="16">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A111" s="16">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A112" s="16">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A113" s="16">
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A114" s="16">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A115" s="16">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A116" s="16">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A117" s="16">
+        <v>45764</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A118" s="16">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A119" s="16">
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A120" s="16">
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A121" s="16">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A122" s="16">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A123" s="16">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A124" s="16">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A125" s="16">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A126" s="16">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A127" s="16">
+        <v>45774</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A128" s="16">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A129" s="16">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A130" s="16">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A131" s="16">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A132" s="16">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A133" s="16">
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A134" s="16">
+        <v>45781</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A135" s="16">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A136" s="16">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A137" s="16">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A138" s="16">
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A139" s="16">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A140" s="16">
+        <v>45787</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A141" s="16">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A142" s="16">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A143" s="16">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A144" s="16">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A145" s="16">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A146" s="16">
+        <v>45793</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A147" s="16">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A148" s="16">
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A149" s="16">
+        <v>45796</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A150" s="16">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A151" s="16">
+        <v>45798</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A152" s="16">
+        <v>45799</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A153" s="16">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A154" s="16">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A155" s="16">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A156" s="16">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A157" s="16">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A158" s="16">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A159" s="16">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A160" s="16">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A161" s="16">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A162" s="16">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A163" s="16">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A164" s="16">
+        <v>45811</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A165" s="16">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A166" s="16">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A167" s="16">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A168" s="16">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A169" s="16">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A170" s="16">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A171" s="16">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A172" s="16">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A173" s="16">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A174" s="16">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A175" s="16">
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A176" s="16">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A177" s="16">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A178" s="16">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A179" s="16">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A180" s="16">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A181" s="16">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A182"